--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1673,7 +1673,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1731,6 +1731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,7 +1914,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2003,24 +2009,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,22 +2046,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2831,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G325" sqref="G325"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2936,16 +2946,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2958,10 +2968,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="50"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -2973,10 +2983,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -2988,10 +2998,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3006,18 +3016,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="50"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3030,12 +3040,12 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3047,10 +3057,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="53"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3065,10 +3075,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3081,10 +3091,10 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3099,20 +3109,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="53"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3120,10 +3130,10 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="53"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
@@ -3133,10 +3143,10 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3151,10 +3161,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3166,22 +3176,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="53"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="55" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3193,10 +3203,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3211,10 +3221,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3227,10 +3237,10 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3245,20 +3255,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3266,32 +3276,32 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="53"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3301,15 +3311,15 @@
       <c r="G26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="67" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3321,10 +3331,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="53"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3336,87 +3346,87 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="42" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="53"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="53"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3428,10 +3438,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="53"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
@@ -3443,10 +3453,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="53"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
@@ -3458,10 +3468,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="53"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
@@ -3476,22 +3486,22 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="53"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
@@ -3503,10 +3513,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="53"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
@@ -3518,10 +3528,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="53"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
@@ -3533,14 +3543,14 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3552,10 +3562,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="50"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="53"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="23" t="s">
         <v>89</v>
       </c>
@@ -3567,10 +3577,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="50"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="53"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3582,10 +3592,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="50"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="53"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3597,18 +3607,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="50"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="53"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3621,12 +3631,12 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="54" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="53"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3638,10 +3648,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="53"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3653,10 +3663,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="53"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3668,10 +3678,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="53"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3683,52 +3693,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="53"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="53"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="53"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3740,10 +3750,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
@@ -3755,10 +3765,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
@@ -3770,10 +3780,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
@@ -3785,32 +3795,32 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="53"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51" t="s">
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="53"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
@@ -3822,10 +3832,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="53"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3837,20 +3847,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="53"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="53"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
@@ -3862,20 +3872,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="53"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="53"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
@@ -3887,10 +3897,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="56" t="s">
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="50" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3904,10 +3914,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="56"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -3919,30 +3929,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="56"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="50"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="56"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="50"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="56"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -3954,10 +3964,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="56"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -3969,32 +3979,32 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="56"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="50"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="56"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="59" t="s">
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="53"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4006,10 +4016,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="53"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4021,10 +4031,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="53"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="23" t="s">
         <v>138</v>
       </c>
@@ -4036,10 +4046,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="53"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="11" t="s">
         <v>140</v>
       </c>
@@ -4054,22 +4064,22 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="53"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="53"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
@@ -4081,10 +4091,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
@@ -4097,20 +4107,20 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="53"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="53"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4122,10 +4132,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="53"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4137,90 +4147,90 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="53"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="53"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="53"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="53"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="50"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="53"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="53"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="53"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="53"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="15" t="s">
         <v>154</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="57" t="s">
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="58" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4237,10 +4247,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="50"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="57"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="58"/>
       <c r="E97" s="11" t="s">
         <v>155</v>
       </c>
@@ -4248,10 +4258,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="57"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="58"/>
       <c r="E98" s="11" t="s">
         <v>156</v>
       </c>
@@ -4259,10 +4269,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="57"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="58"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4275,10 +4285,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="50"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="57"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4290,30 +4300,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="50"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="57"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="58"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="50"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="57"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="50"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="57" t="s">
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="58" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4327,10 +4337,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="57"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4342,10 +4352,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="57"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="11" t="s">
         <v>160</v>
       </c>
@@ -4357,10 +4367,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="57"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="58"/>
       <c r="E106" s="15" t="s">
         <v>161</v>
       </c>
@@ -4372,12 +4382,12 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="50"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="50" t="s">
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="53"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4389,10 +4399,10 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="50"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="53"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4404,20 +4414,20 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="50"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="50"/>
-      <c r="D109" s="53"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="50"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="53"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4429,10 +4439,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="50"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="53"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4440,10 +4450,10 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="50"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="50"/>
-      <c r="D112" s="53"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="11" t="s">
         <v>149</v>
       </c>
@@ -4451,10 +4461,10 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="50"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="50"/>
-      <c r="D113" s="53"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="11" t="s">
         <v>150</v>
       </c>
@@ -4462,10 +4472,10 @@
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="50"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="53"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="11" t="s">
         <v>151</v>
       </c>
@@ -4473,10 +4483,10 @@
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="50"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="50"/>
-      <c r="D115" s="53"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="11" t="s">
         <v>152</v>
       </c>
@@ -4484,10 +4494,10 @@
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="50"/>
-      <c r="B116" s="50"/>
-      <c r="C116" s="50"/>
-      <c r="D116" s="53"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4495,12 +4505,12 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="50"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51" t="s">
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="53"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4512,30 +4522,30 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="53"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="50"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="53"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="55"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="50"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="53"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="23" t="s">
         <v>168</v>
       </c>
@@ -4547,10 +4557,10 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="50"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="53"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="11" t="s">
         <v>170</v>
       </c>
@@ -4562,10 +4572,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="50"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="53"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="11" t="s">
         <v>172</v>
       </c>
@@ -4577,10 +4587,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="50"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="53"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="15" t="s">
         <v>173</v>
       </c>
@@ -4592,12 +4602,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="50"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51" t="s">
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="53"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="7" t="s">
         <v>176</v>
       </c>
@@ -4612,10 +4622,10 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="50"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="53"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="11" t="s">
         <v>180</v>
       </c>
@@ -4627,20 +4637,20 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="50"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="53"/>
+      <c r="A126" s="59"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="50"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="53"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="55"/>
       <c r="E127" s="11" t="s">
         <v>183</v>
       </c>
@@ -4652,12 +4662,12 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="50"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51" t="s">
+      <c r="A128" s="59"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D128" s="53"/>
+      <c r="D128" s="55"/>
       <c r="E128" s="7" t="s">
         <v>186</v>
       </c>
@@ -4672,10 +4682,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="50"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="53"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="55"/>
       <c r="E129" s="11" t="s">
         <v>190</v>
       </c>
@@ -4687,20 +4697,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="50"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="53"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="55"/>
       <c r="E130" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="50"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="53"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="55"/>
       <c r="E131" s="15" t="s">
         <v>193</v>
       </c>
@@ -4715,12 +4725,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51" t="s">
+      <c r="A132" s="59"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="55"/>
       <c r="E132" s="7" t="s">
         <v>197</v>
       </c>
@@ -4732,10 +4742,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="53"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="55"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4747,10 +4757,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="53"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="55"/>
       <c r="E134" s="11" t="s">
         <v>201</v>
       </c>
@@ -4762,10 +4772,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="50"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="53"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="55"/>
       <c r="E135" s="11" t="s">
         <v>203</v>
       </c>
@@ -4777,59 +4787,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="53"/>
+      <c r="A136" s="59"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="55"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="53"/>
+      <c r="A137" s="59"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="55"/>
       <c r="E137" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="53"/>
+      <c r="A138" s="59"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="55"/>
       <c r="E138" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="53"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="55"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="53"/>
+      <c r="A140" s="59"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="55"/>
       <c r="E140" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="57" t="s">
+      <c r="A141" s="59"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="58" t="s">
         <v>207</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4843,40 +4853,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="50"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="57"/>
+      <c r="A142" s="59"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="58"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="50"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="57"/>
+      <c r="A143" s="59"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="58"/>
       <c r="E143" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="57"/>
+      <c r="A144" s="59"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="58"/>
       <c r="E144" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="50"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="57"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="58"/>
       <c r="E145" s="33" t="s">
         <v>209</v>
       </c>
@@ -4888,10 +4898,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="50"/>
-      <c r="B146" s="50"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="57"/>
+      <c r="A146" s="59"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="58"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -4903,10 +4913,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="50"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="57"/>
+      <c r="A147" s="59"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="58"/>
       <c r="E147" s="15" t="s">
         <v>211</v>
       </c>
@@ -4918,16 +4928,16 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="50" t="s">
+      <c r="A148" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="55" t="s">
+      <c r="B148" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="58" t="s">
+      <c r="C148" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="53"/>
+      <c r="D148" s="55"/>
       <c r="E148" s="7" t="s">
         <v>213</v>
       </c>
@@ -4939,10 +4949,10 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="50"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="53"/>
+      <c r="A149" s="59"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="55"/>
       <c r="E149" s="11" t="s">
         <v>214</v>
       </c>
@@ -4954,10 +4964,10 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="50"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="53"/>
+      <c r="A150" s="59"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="63"/>
+      <c r="D150" s="55"/>
       <c r="E150" s="11" t="s">
         <v>215</v>
       </c>
@@ -4969,10 +4979,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="50"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="53"/>
+      <c r="A151" s="59"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="55"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -4984,18 +4994,18 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="50"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="53"/>
+      <c r="A152" s="59"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="55"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="50"/>
-      <c r="B153" s="50" t="s">
+      <c r="A153" s="59"/>
+      <c r="B153" s="59" t="s">
         <v>216</v>
       </c>
       <c r="C153" s="45" t="s">
@@ -5008,12 +5018,12 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="50"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="54" t="s">
+      <c r="A154" s="59"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="53"/>
+      <c r="D154" s="55"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5025,10 +5035,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="50"/>
-      <c r="B155" s="50"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="53"/>
+      <c r="A155" s="59"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="55"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5043,10 +5053,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="50"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="53"/>
+      <c r="A156" s="59"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5058,10 +5068,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="50"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="54"/>
-      <c r="D157" s="53"/>
+      <c r="A157" s="59"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="55"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5073,52 +5083,52 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="50"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="53"/>
+      <c r="A158" s="59"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="55"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="50"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="53"/>
+      <c r="A159" s="59"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="55"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="50"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="53"/>
+      <c r="A160" s="59"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="55"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="50"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="54"/>
-      <c r="D161" s="53"/>
+      <c r="A161" s="59"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="55"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="50"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="61" t="s">
+      <c r="A162" s="59"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="53"/>
+      <c r="D162" s="55"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
@@ -5130,10 +5140,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="50"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="61"/>
-      <c r="D163" s="53"/>
+      <c r="A163" s="59"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="55"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
@@ -5145,20 +5155,20 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="50"/>
-      <c r="B164" s="50"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="53"/>
+      <c r="A164" s="59"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="55"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="50"/>
-      <c r="B165" s="50"/>
-      <c r="C165" s="61"/>
-      <c r="D165" s="53"/>
+      <c r="A165" s="59"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="62"/>
+      <c r="D165" s="55"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
@@ -5170,20 +5180,20 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="50"/>
-      <c r="B166" s="50"/>
-      <c r="C166" s="61"/>
-      <c r="D166" s="53"/>
+      <c r="A166" s="59"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="62"/>
+      <c r="D166" s="55"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="50"/>
-      <c r="B167" s="50"/>
-      <c r="C167" s="61"/>
-      <c r="D167" s="53"/>
+      <c r="A167" s="59"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="62"/>
+      <c r="D167" s="55"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
@@ -5195,10 +5205,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="50"/>
-      <c r="B168" s="50"/>
-      <c r="C168" s="61"/>
-      <c r="D168" s="57" t="s">
+      <c r="A168" s="59"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="62"/>
+      <c r="D168" s="58" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5212,10 +5222,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="50"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="57"/>
+      <c r="A169" s="59"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="58"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5227,30 +5237,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="50"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="61"/>
-      <c r="D170" s="57"/>
+      <c r="A170" s="59"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="58"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="50"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="61"/>
-      <c r="D171" s="57"/>
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="58"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="50"/>
-      <c r="B172" s="50"/>
-      <c r="C172" s="61"/>
-      <c r="D172" s="57"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="58"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5262,10 +5272,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="50"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="57"/>
+      <c r="A173" s="59"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="62"/>
+      <c r="D173" s="58"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5277,32 +5287,32 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="50"/>
-      <c r="B174" s="50"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="57"/>
+      <c r="A174" s="59"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="62"/>
+      <c r="D174" s="58"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="50"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="57"/>
+      <c r="A175" s="59"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="62"/>
+      <c r="D175" s="58"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="50"/>
-      <c r="B176" s="50"/>
-      <c r="C176" s="60" t="s">
+      <c r="A176" s="59"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="53"/>
+      <c r="D176" s="55"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
@@ -5314,10 +5324,10 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="50"/>
-      <c r="B177" s="50"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="53"/>
+      <c r="A177" s="59"/>
+      <c r="B177" s="59"/>
+      <c r="C177" s="61"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
@@ -5329,10 +5339,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="50"/>
-      <c r="B178" s="50"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="53"/>
+      <c r="A178" s="59"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="61"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="23" t="s">
         <v>138</v>
       </c>
@@ -5344,10 +5354,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="50"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="53"/>
+      <c r="A179" s="59"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="11" t="s">
         <v>140</v>
       </c>
@@ -5362,22 +5372,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="50"/>
-      <c r="B180" s="50"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="53"/>
+      <c r="A180" s="59"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="50"/>
-      <c r="B181" s="50"/>
-      <c r="C181" s="60" t="s">
+      <c r="A181" s="59"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D181" s="53"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5389,10 +5399,10 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="50"/>
-      <c r="B182" s="50"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="53"/>
+      <c r="A182" s="59"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="61"/>
+      <c r="D182" s="55"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5404,20 +5414,20 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="50"/>
-      <c r="B183" s="50"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="53"/>
+      <c r="A183" s="59"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="61"/>
+      <c r="D183" s="55"/>
       <c r="E183" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="50"/>
-      <c r="B184" s="50"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="53"/>
+      <c r="A184" s="59"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="61"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5429,10 +5439,10 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="50"/>
-      <c r="B185" s="50"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="53"/>
+      <c r="A185" s="59"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="61"/>
+      <c r="D185" s="55"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5444,80 +5454,80 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="50"/>
-      <c r="B186" s="50"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="53"/>
+      <c r="A186" s="59"/>
+      <c r="B186" s="59"/>
+      <c r="C186" s="61"/>
+      <c r="D186" s="55"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="50"/>
-      <c r="B187" s="50"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="53"/>
+      <c r="A187" s="59"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="61"/>
+      <c r="D187" s="55"/>
       <c r="E187" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="50"/>
-      <c r="B188" s="50"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="53"/>
+      <c r="A188" s="59"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="55"/>
       <c r="E188" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="50"/>
-      <c r="B189" s="50"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="53"/>
+      <c r="A189" s="59"/>
+      <c r="B189" s="59"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="55"/>
       <c r="E189" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="50"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="53"/>
+      <c r="A190" s="59"/>
+      <c r="B190" s="59"/>
+      <c r="C190" s="61"/>
+      <c r="D190" s="55"/>
       <c r="E190" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="50"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="53"/>
+      <c r="A191" s="59"/>
+      <c r="B191" s="59"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="55"/>
       <c r="E191" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="50"/>
-      <c r="B192" s="50"/>
-      <c r="C192" s="60"/>
-      <c r="D192" s="53"/>
+      <c r="A192" s="59"/>
+      <c r="B192" s="59"/>
+      <c r="C192" s="61"/>
+      <c r="D192" s="55"/>
       <c r="E192" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="50"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="60"/>
-      <c r="D193" s="57" t="s">
+      <c r="A193" s="59"/>
+      <c r="B193" s="59"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="58" t="s">
         <v>153</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5534,30 +5544,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="50"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="60"/>
-      <c r="D194" s="57"/>
+      <c r="A194" s="59"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="58"/>
       <c r="E194" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="50"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="57"/>
+      <c r="A195" s="59"/>
+      <c r="B195" s="59"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="58"/>
       <c r="E195" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="50"/>
-      <c r="B196" s="50"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="57"/>
+      <c r="A196" s="59"/>
+      <c r="B196" s="59"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="58"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5569,10 +5579,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="50"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="57"/>
+      <c r="A197" s="59"/>
+      <c r="B197" s="59"/>
+      <c r="C197" s="61"/>
+      <c r="D197" s="58"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5584,40 +5594,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="50"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="57"/>
+      <c r="A198" s="59"/>
+      <c r="B198" s="59"/>
+      <c r="C198" s="61"/>
+      <c r="D198" s="58"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="50"/>
-      <c r="B199" s="50"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="57"/>
+      <c r="A199" s="59"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="58"/>
       <c r="E199" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="50"/>
-      <c r="B200" s="50"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="57"/>
+      <c r="A200" s="59"/>
+      <c r="B200" s="59"/>
+      <c r="C200" s="61"/>
+      <c r="D200" s="58"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="50"/>
-      <c r="B201" s="50"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="57" t="s">
+      <c r="A201" s="59"/>
+      <c r="B201" s="59"/>
+      <c r="C201" s="61"/>
+      <c r="D201" s="58" t="s">
         <v>154</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5631,10 +5641,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="50"/>
-      <c r="B202" s="50"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="57"/>
+      <c r="A202" s="59"/>
+      <c r="B202" s="59"/>
+      <c r="C202" s="61"/>
+      <c r="D202" s="58"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5646,10 +5656,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="50"/>
-      <c r="B203" s="50"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="57"/>
+      <c r="A203" s="59"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="58"/>
       <c r="E203" s="11" t="s">
         <v>160</v>
       </c>
@@ -5661,10 +5671,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="50"/>
-      <c r="B204" s="50"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="57"/>
+      <c r="A204" s="59"/>
+      <c r="B204" s="59"/>
+      <c r="C204" s="61"/>
+      <c r="D204" s="58"/>
       <c r="E204" s="15" t="s">
         <v>161</v>
       </c>
@@ -5676,10 +5686,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="50"/>
-      <c r="B205" s="50"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="57" t="s">
+      <c r="A205" s="59"/>
+      <c r="B205" s="59"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="58" t="s">
         <v>217</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5693,10 +5703,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="50"/>
-      <c r="B206" s="50"/>
-      <c r="C206" s="60"/>
-      <c r="D206" s="57"/>
+      <c r="A206" s="59"/>
+      <c r="B206" s="59"/>
+      <c r="C206" s="61"/>
+      <c r="D206" s="58"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5708,10 +5718,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="50"/>
-      <c r="B207" s="50"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="57"/>
+      <c r="A207" s="59"/>
+      <c r="B207" s="59"/>
+      <c r="C207" s="61"/>
+      <c r="D207" s="58"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5723,32 +5733,32 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="50"/>
-      <c r="B208" s="50"/>
-      <c r="C208" s="60"/>
-      <c r="D208" s="57"/>
+      <c r="A208" s="59"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="58"/>
       <c r="E208" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="50"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="60"/>
-      <c r="D209" s="57"/>
+      <c r="A209" s="59"/>
+      <c r="B209" s="59"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="58"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="50"/>
-      <c r="B210" s="50"/>
-      <c r="C210" s="60" t="s">
+      <c r="A210" s="59"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="D210" s="53"/>
+      <c r="D210" s="55"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5760,10 +5770,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="50"/>
-      <c r="B211" s="50"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="53"/>
+      <c r="A211" s="59"/>
+      <c r="B211" s="59"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="55"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5775,20 +5785,20 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="50"/>
-      <c r="B212" s="50"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="53"/>
+      <c r="A212" s="59"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="55"/>
       <c r="E212" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="50"/>
-      <c r="B213" s="50"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="53"/>
+      <c r="A213" s="59"/>
+      <c r="B213" s="59"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="55"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5800,10 +5810,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="50"/>
-      <c r="B214" s="50"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="53"/>
+      <c r="A214" s="59"/>
+      <c r="B214" s="59"/>
+      <c r="C214" s="61"/>
+      <c r="D214" s="55"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5815,62 +5825,62 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="50"/>
-      <c r="B215" s="50"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="53"/>
+      <c r="A215" s="59"/>
+      <c r="B215" s="59"/>
+      <c r="C215" s="61"/>
+      <c r="D215" s="55"/>
       <c r="E215" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="50"/>
-      <c r="B216" s="50"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="53"/>
+      <c r="A216" s="59"/>
+      <c r="B216" s="59"/>
+      <c r="C216" s="61"/>
+      <c r="D216" s="55"/>
       <c r="E216" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="50"/>
-      <c r="B217" s="50"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="53"/>
+      <c r="A217" s="59"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="55"/>
       <c r="E217" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="50"/>
-      <c r="B218" s="50"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="53"/>
+      <c r="A218" s="59"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="55"/>
       <c r="E218" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="50"/>
-      <c r="B219" s="50"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="53"/>
+      <c r="A219" s="59"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="55"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="50"/>
-      <c r="B220" s="50"/>
-      <c r="C220" s="60" t="s">
+      <c r="A220" s="59"/>
+      <c r="B220" s="59"/>
+      <c r="C220" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D220" s="53"/>
+      <c r="D220" s="55"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5882,30 +5892,30 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="50"/>
-      <c r="B221" s="50"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="53"/>
+      <c r="A221" s="59"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="61"/>
+      <c r="D221" s="55"/>
       <c r="E221" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="50"/>
-      <c r="B222" s="50"/>
-      <c r="C222" s="60"/>
-      <c r="D222" s="53"/>
+      <c r="A222" s="59"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="61"/>
+      <c r="D222" s="55"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="50"/>
-      <c r="B223" s="50"/>
-      <c r="C223" s="60"/>
-      <c r="D223" s="53"/>
+      <c r="A223" s="59"/>
+      <c r="B223" s="59"/>
+      <c r="C223" s="61"/>
+      <c r="D223" s="55"/>
       <c r="E223" s="23" t="s">
         <v>168</v>
       </c>
@@ -5917,10 +5927,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="50"/>
-      <c r="B224" s="50"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="53"/>
+      <c r="A224" s="59"/>
+      <c r="B224" s="59"/>
+      <c r="C224" s="61"/>
+      <c r="D224" s="55"/>
       <c r="E224" s="11" t="s">
         <v>170</v>
       </c>
@@ -5932,10 +5942,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="50"/>
-      <c r="B225" s="50"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="53"/>
+      <c r="A225" s="59"/>
+      <c r="B225" s="59"/>
+      <c r="C225" s="61"/>
+      <c r="D225" s="55"/>
       <c r="E225" s="11" t="s">
         <v>172</v>
       </c>
@@ -5947,10 +5957,10 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="50"/>
-      <c r="B226" s="50"/>
-      <c r="C226" s="60"/>
-      <c r="D226" s="53"/>
+      <c r="A226" s="59"/>
+      <c r="B226" s="59"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="55"/>
       <c r="E226" s="15" t="s">
         <v>173</v>
       </c>
@@ -5962,12 +5972,12 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="50"/>
-      <c r="B227" s="50"/>
-      <c r="C227" s="60" t="s">
+      <c r="A227" s="59"/>
+      <c r="B227" s="59"/>
+      <c r="C227" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D227" s="53"/>
+      <c r="D227" s="55"/>
       <c r="E227" s="7" t="s">
         <v>176</v>
       </c>
@@ -5982,10 +5992,10 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="50"/>
-      <c r="B228" s="50"/>
-      <c r="C228" s="60"/>
-      <c r="D228" s="53"/>
+      <c r="A228" s="59"/>
+      <c r="B228" s="59"/>
+      <c r="C228" s="61"/>
+      <c r="D228" s="55"/>
       <c r="E228" s="11" t="s">
         <v>180</v>
       </c>
@@ -5997,20 +6007,20 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="50"/>
-      <c r="B229" s="50"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="53"/>
+      <c r="A229" s="59"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="61"/>
+      <c r="D229" s="55"/>
       <c r="E229" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="50"/>
-      <c r="B230" s="50"/>
-      <c r="C230" s="60"/>
-      <c r="D230" s="53"/>
+      <c r="A230" s="59"/>
+      <c r="B230" s="59"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="55"/>
       <c r="E230" s="15" t="s">
         <v>183</v>
       </c>
@@ -6022,12 +6032,12 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="50"/>
-      <c r="B231" s="50"/>
-      <c r="C231" s="60" t="s">
+      <c r="A231" s="59"/>
+      <c r="B231" s="59"/>
+      <c r="C231" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D231" s="53"/>
+      <c r="D231" s="55"/>
       <c r="E231" s="7" t="s">
         <v>186</v>
       </c>
@@ -6042,10 +6052,10 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="50"/>
-      <c r="B232" s="50"/>
-      <c r="C232" s="60"/>
-      <c r="D232" s="53"/>
+      <c r="A232" s="59"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="55"/>
       <c r="E232" s="11" t="s">
         <v>190</v>
       </c>
@@ -6057,20 +6067,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="50"/>
-      <c r="B233" s="50"/>
-      <c r="C233" s="60"/>
-      <c r="D233" s="53"/>
+      <c r="A233" s="59"/>
+      <c r="B233" s="59"/>
+      <c r="C233" s="61"/>
+      <c r="D233" s="55"/>
       <c r="E233" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="50"/>
-      <c r="B234" s="50"/>
-      <c r="C234" s="60"/>
-      <c r="D234" s="53"/>
+      <c r="A234" s="59"/>
+      <c r="B234" s="59"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="55"/>
       <c r="E234" s="15" t="s">
         <v>193</v>
       </c>
@@ -6085,12 +6095,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="50"/>
-      <c r="B235" s="50"/>
-      <c r="C235" s="62" t="s">
+      <c r="A235" s="59"/>
+      <c r="B235" s="59"/>
+      <c r="C235" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D235" s="53"/>
+      <c r="D235" s="55"/>
       <c r="E235" s="7" t="s">
         <v>197</v>
       </c>
@@ -6102,10 +6112,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="50"/>
-      <c r="B236" s="50"/>
-      <c r="C236" s="62"/>
-      <c r="D236" s="53"/>
+      <c r="A236" s="59"/>
+      <c r="B236" s="59"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="55"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6117,10 +6127,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="50"/>
-      <c r="B237" s="50"/>
-      <c r="C237" s="62"/>
-      <c r="D237" s="53"/>
+      <c r="A237" s="59"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="55"/>
       <c r="E237" s="11" t="s">
         <v>201</v>
       </c>
@@ -6132,10 +6142,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="50"/>
-      <c r="B238" s="50"/>
-      <c r="C238" s="62"/>
-      <c r="D238" s="53"/>
+      <c r="A238" s="59"/>
+      <c r="B238" s="59"/>
+      <c r="C238" s="57"/>
+      <c r="D238" s="55"/>
       <c r="E238" s="11" t="s">
         <v>203</v>
       </c>
@@ -6147,50 +6157,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="50"/>
-      <c r="B239" s="50"/>
-      <c r="C239" s="62"/>
-      <c r="D239" s="53"/>
+      <c r="A239" s="59"/>
+      <c r="B239" s="59"/>
+      <c r="C239" s="57"/>
+      <c r="D239" s="55"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="50"/>
-      <c r="B240" s="50"/>
-      <c r="C240" s="62"/>
-      <c r="D240" s="53"/>
+      <c r="A240" s="59"/>
+      <c r="B240" s="59"/>
+      <c r="C240" s="57"/>
+      <c r="D240" s="55"/>
       <c r="E240" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="50"/>
-      <c r="B241" s="50"/>
-      <c r="C241" s="62"/>
-      <c r="D241" s="53"/>
+      <c r="A241" s="59"/>
+      <c r="B241" s="59"/>
+      <c r="C241" s="57"/>
+      <c r="D241" s="55"/>
       <c r="E241" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="50"/>
-      <c r="B242" s="50"/>
-      <c r="C242" s="62"/>
-      <c r="D242" s="53"/>
+      <c r="A242" s="59"/>
+      <c r="B242" s="59"/>
+      <c r="C242" s="57"/>
+      <c r="D242" s="55"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="50"/>
-      <c r="B243" s="50"/>
-      <c r="C243" s="62"/>
-      <c r="D243" s="53"/>
+      <c r="A243" s="59"/>
+      <c r="B243" s="59"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="55"/>
       <c r="E243" s="32" t="s">
         <v>207</v>
       </c>
@@ -6202,10 +6212,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="50"/>
-      <c r="B244" s="50"/>
-      <c r="C244" s="62"/>
-      <c r="D244" s="57" t="s">
+      <c r="A244" s="59"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="57"/>
+      <c r="D244" s="58" t="s">
         <v>207</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6219,40 +6229,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="50"/>
-      <c r="B245" s="50"/>
-      <c r="C245" s="62"/>
-      <c r="D245" s="57"/>
+      <c r="A245" s="59"/>
+      <c r="B245" s="59"/>
+      <c r="C245" s="57"/>
+      <c r="D245" s="58"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="50"/>
-      <c r="B246" s="50"/>
-      <c r="C246" s="62"/>
-      <c r="D246" s="57"/>
+      <c r="A246" s="59"/>
+      <c r="B246" s="59"/>
+      <c r="C246" s="57"/>
+      <c r="D246" s="58"/>
       <c r="E246" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="50"/>
-      <c r="B247" s="50"/>
-      <c r="C247" s="62"/>
-      <c r="D247" s="57"/>
+      <c r="A247" s="59"/>
+      <c r="B247" s="59"/>
+      <c r="C247" s="57"/>
+      <c r="D247" s="58"/>
       <c r="E247" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="50"/>
-      <c r="B248" s="50"/>
-      <c r="C248" s="62"/>
-      <c r="D248" s="57"/>
+      <c r="A248" s="59"/>
+      <c r="B248" s="59"/>
+      <c r="C248" s="57"/>
+      <c r="D248" s="58"/>
       <c r="E248" s="23" t="s">
         <v>224</v>
       </c>
@@ -6264,10 +6274,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="50"/>
-      <c r="B249" s="50"/>
-      <c r="C249" s="62"/>
-      <c r="D249" s="57"/>
+      <c r="A249" s="59"/>
+      <c r="B249" s="59"/>
+      <c r="C249" s="57"/>
+      <c r="D249" s="58"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6279,12 +6289,12 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="50"/>
-      <c r="B250" s="50"/>
-      <c r="C250" s="51" t="s">
+      <c r="A250" s="59"/>
+      <c r="B250" s="59"/>
+      <c r="C250" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D250" s="53"/>
+      <c r="D250" s="55"/>
       <c r="E250" s="36" t="s">
         <v>226</v>
       </c>
@@ -6299,10 +6309,10 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="50"/>
-      <c r="B251" s="50"/>
-      <c r="C251" s="51"/>
-      <c r="D251" s="53"/>
+      <c r="A251" s="59"/>
+      <c r="B251" s="59"/>
+      <c r="C251" s="52"/>
+      <c r="D251" s="55"/>
       <c r="E251" s="11" t="s">
         <v>230</v>
       </c>
@@ -6314,10 +6324,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="50"/>
-      <c r="B252" s="50"/>
-      <c r="C252" s="51"/>
-      <c r="D252" s="53"/>
+      <c r="A252" s="59"/>
+      <c r="B252" s="59"/>
+      <c r="C252" s="52"/>
+      <c r="D252" s="55"/>
       <c r="E252" s="11" t="s">
         <v>232</v>
       </c>
@@ -6329,10 +6339,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="50"/>
-      <c r="B253" s="50"/>
-      <c r="C253" s="51"/>
-      <c r="D253" s="53"/>
+      <c r="A253" s="59"/>
+      <c r="B253" s="59"/>
+      <c r="C253" s="52"/>
+      <c r="D253" s="55"/>
       <c r="E253" s="11" t="s">
         <v>234</v>
       </c>
@@ -6344,10 +6354,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="50"/>
-      <c r="B254" s="50"/>
-      <c r="C254" s="51"/>
-      <c r="D254" s="53"/>
+      <c r="A254" s="59"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="52"/>
+      <c r="D254" s="55"/>
       <c r="E254" s="11" t="s">
         <v>236</v>
       </c>
@@ -6359,10 +6369,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="50"/>
-      <c r="B255" s="50"/>
-      <c r="C255" s="51"/>
-      <c r="D255" s="53"/>
+      <c r="A255" s="59"/>
+      <c r="B255" s="59"/>
+      <c r="C255" s="52"/>
+      <c r="D255" s="55"/>
       <c r="E255" s="15" t="s">
         <v>238</v>
       </c>
@@ -6374,10 +6384,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="50"/>
-      <c r="B256" s="50"/>
-      <c r="C256" s="51"/>
-      <c r="D256" s="57" t="s">
+      <c r="A256" s="59"/>
+      <c r="B256" s="59"/>
+      <c r="C256" s="52"/>
+      <c r="D256" s="58" t="s">
         <v>240</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6391,30 +6401,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="50"/>
-      <c r="B257" s="50"/>
-      <c r="C257" s="51"/>
-      <c r="D257" s="57"/>
+      <c r="A257" s="59"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="52"/>
+      <c r="D257" s="58"/>
       <c r="E257" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="50"/>
-      <c r="B258" s="50"/>
-      <c r="C258" s="51"/>
-      <c r="D258" s="57"/>
+      <c r="A258" s="59"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="52"/>
+      <c r="D258" s="58"/>
       <c r="E258" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="50"/>
-      <c r="B259" s="50"/>
-      <c r="C259" s="51"/>
-      <c r="D259" s="57"/>
+      <c r="A259" s="59"/>
+      <c r="B259" s="59"/>
+      <c r="C259" s="52"/>
+      <c r="D259" s="58"/>
       <c r="E259" s="11" t="s">
         <v>245</v>
       </c>
@@ -6426,10 +6436,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="50"/>
-      <c r="B260" s="50"/>
-      <c r="C260" s="51"/>
-      <c r="D260" s="57"/>
+      <c r="A260" s="59"/>
+      <c r="B260" s="59"/>
+      <c r="C260" s="52"/>
+      <c r="D260" s="58"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6441,50 +6451,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="50"/>
-      <c r="B261" s="50"/>
-      <c r="C261" s="51"/>
-      <c r="D261" s="57"/>
+      <c r="A261" s="59"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="52"/>
+      <c r="D261" s="58"/>
       <c r="E261" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="50"/>
-      <c r="B262" s="50"/>
-      <c r="C262" s="51"/>
-      <c r="D262" s="57"/>
+      <c r="A262" s="59"/>
+      <c r="B262" s="59"/>
+      <c r="C262" s="52"/>
+      <c r="D262" s="58"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="50"/>
-      <c r="B263" s="50"/>
-      <c r="C263" s="51"/>
-      <c r="D263" s="57"/>
+      <c r="A263" s="59"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="52"/>
+      <c r="D263" s="58"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="50"/>
-      <c r="B264" s="50"/>
-      <c r="C264" s="51"/>
-      <c r="D264" s="57"/>
+      <c r="A264" s="59"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="58"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="50"/>
-      <c r="B265" s="50"/>
-      <c r="C265" s="51"/>
-      <c r="D265" s="57" t="s">
+      <c r="A265" s="59"/>
+      <c r="B265" s="59"/>
+      <c r="C265" s="52"/>
+      <c r="D265" s="58" t="s">
         <v>249</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6498,20 +6508,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="50"/>
-      <c r="B266" s="50"/>
-      <c r="C266" s="51"/>
-      <c r="D266" s="57"/>
+      <c r="A266" s="59"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="52"/>
+      <c r="D266" s="58"/>
       <c r="E266" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="50"/>
-      <c r="B267" s="50"/>
-      <c r="C267" s="51"/>
-      <c r="D267" s="57"/>
+      <c r="A267" s="59"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="52"/>
+      <c r="D267" s="58"/>
       <c r="E267" s="23" t="s">
         <v>251</v>
       </c>
@@ -6523,10 +6533,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="50"/>
-      <c r="B268" s="50"/>
-      <c r="C268" s="51"/>
-      <c r="D268" s="57"/>
+      <c r="A268" s="59"/>
+      <c r="B268" s="59"/>
+      <c r="C268" s="52"/>
+      <c r="D268" s="58"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6538,10 +6548,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="50"/>
-      <c r="B269" s="50"/>
-      <c r="C269" s="51"/>
-      <c r="D269" s="57"/>
+      <c r="A269" s="59"/>
+      <c r="B269" s="59"/>
+      <c r="C269" s="52"/>
+      <c r="D269" s="58"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6553,30 +6563,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="50"/>
-      <c r="B270" s="50"/>
-      <c r="C270" s="51"/>
-      <c r="D270" s="57"/>
+      <c r="A270" s="59"/>
+      <c r="B270" s="59"/>
+      <c r="C270" s="52"/>
+      <c r="D270" s="58"/>
       <c r="E270" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="50"/>
-      <c r="B271" s="50"/>
-      <c r="C271" s="51"/>
-      <c r="D271" s="57"/>
+      <c r="A271" s="59"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="52"/>
+      <c r="D271" s="58"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="50"/>
-      <c r="B272" s="50"/>
-      <c r="C272" s="51"/>
-      <c r="D272" s="57" t="s">
+      <c r="A272" s="59"/>
+      <c r="B272" s="59"/>
+      <c r="C272" s="52"/>
+      <c r="D272" s="58" t="s">
         <v>254</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6590,10 +6600,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="50"/>
-      <c r="B273" s="50"/>
-      <c r="C273" s="51"/>
-      <c r="D273" s="57"/>
+      <c r="A273" s="59"/>
+      <c r="B273" s="59"/>
+      <c r="C273" s="52"/>
+      <c r="D273" s="58"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6605,10 +6615,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="50"/>
-      <c r="B274" s="50"/>
-      <c r="C274" s="51"/>
-      <c r="D274" s="57"/>
+      <c r="A274" s="59"/>
+      <c r="B274" s="59"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="58"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6620,10 +6630,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="50"/>
-      <c r="B275" s="50"/>
-      <c r="C275" s="51"/>
-      <c r="D275" s="57"/>
+      <c r="A275" s="59"/>
+      <c r="B275" s="59"/>
+      <c r="C275" s="52"/>
+      <c r="D275" s="58"/>
       <c r="E275" s="11" t="s">
         <v>257</v>
       </c>
@@ -6635,80 +6645,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="50"/>
-      <c r="B276" s="50"/>
-      <c r="C276" s="51"/>
-      <c r="D276" s="57"/>
+      <c r="A276" s="59"/>
+      <c r="B276" s="59"/>
+      <c r="C276" s="52"/>
+      <c r="D276" s="58"/>
       <c r="E276" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="50"/>
-      <c r="B277" s="50"/>
-      <c r="C277" s="51"/>
-      <c r="D277" s="57"/>
+      <c r="A277" s="59"/>
+      <c r="B277" s="59"/>
+      <c r="C277" s="52"/>
+      <c r="D277" s="58"/>
       <c r="E277" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="50"/>
-      <c r="B278" s="50"/>
-      <c r="C278" s="51"/>
-      <c r="D278" s="57"/>
+      <c r="A278" s="59"/>
+      <c r="B278" s="59"/>
+      <c r="C278" s="52"/>
+      <c r="D278" s="58"/>
       <c r="E278" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="50"/>
-      <c r="B279" s="50"/>
-      <c r="C279" s="51"/>
-      <c r="D279" s="57"/>
+      <c r="A279" s="59"/>
+      <c r="B279" s="59"/>
+      <c r="C279" s="52"/>
+      <c r="D279" s="58"/>
       <c r="E279" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="50"/>
-      <c r="B280" s="50"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="57"/>
+      <c r="A280" s="59"/>
+      <c r="B280" s="59"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="58"/>
       <c r="E280" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="50"/>
-      <c r="B281" s="50"/>
-      <c r="C281" s="51"/>
-      <c r="D281" s="57"/>
+      <c r="A281" s="59"/>
+      <c r="B281" s="59"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="58"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="50"/>
-      <c r="B282" s="50"/>
-      <c r="C282" s="51"/>
-      <c r="D282" s="57"/>
+      <c r="A282" s="59"/>
+      <c r="B282" s="59"/>
+      <c r="C282" s="52"/>
+      <c r="D282" s="58"/>
       <c r="E282" s="15" t="s">
         <v>259</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="50"/>
-      <c r="B283" s="50"/>
-      <c r="C283" s="51"/>
-      <c r="D283" s="57" t="s">
+      <c r="A283" s="59"/>
+      <c r="B283" s="59"/>
+      <c r="C283" s="52"/>
+      <c r="D283" s="58" t="s">
         <v>259</v>
       </c>
       <c r="E283" s="36" t="s">
@@ -6722,30 +6732,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="50"/>
-      <c r="B284" s="50"/>
-      <c r="C284" s="51"/>
-      <c r="D284" s="57"/>
+      <c r="A284" s="59"/>
+      <c r="B284" s="59"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="58"/>
       <c r="E284" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="50"/>
-      <c r="B285" s="50"/>
-      <c r="C285" s="51"/>
-      <c r="D285" s="57"/>
+      <c r="A285" s="59"/>
+      <c r="B285" s="59"/>
+      <c r="C285" s="52"/>
+      <c r="D285" s="58"/>
       <c r="E285" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="50"/>
-      <c r="B286" s="50"/>
-      <c r="C286" s="51"/>
-      <c r="D286" s="57"/>
+      <c r="A286" s="59"/>
+      <c r="B286" s="59"/>
+      <c r="C286" s="52"/>
+      <c r="D286" s="58"/>
       <c r="E286" s="11" t="s">
         <v>264</v>
       </c>
@@ -6757,20 +6767,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="50"/>
-      <c r="B287" s="50"/>
-      <c r="C287" s="51"/>
-      <c r="D287" s="57"/>
+      <c r="A287" s="59"/>
+      <c r="B287" s="59"/>
+      <c r="C287" s="52"/>
+      <c r="D287" s="58"/>
       <c r="E287" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="50"/>
-      <c r="B288" s="50"/>
-      <c r="C288" s="51"/>
-      <c r="D288" s="57"/>
+      <c r="A288" s="59"/>
+      <c r="B288" s="59"/>
+      <c r="C288" s="52"/>
+      <c r="D288" s="58"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6782,34 +6792,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="50"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="51"/>
-      <c r="D289" s="57"/>
+      <c r="A289" s="59"/>
+      <c r="B289" s="59"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="58"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="50"/>
-      <c r="B290" s="50"/>
-      <c r="C290" s="51"/>
-      <c r="D290" s="57"/>
+      <c r="A290" s="59"/>
+      <c r="B290" s="59"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="58"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="51" t="s">
+      <c r="A291" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="51" t="s">
+      <c r="B291" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="52"/>
-      <c r="D291" s="53"/>
+      <c r="C291" s="56"/>
+      <c r="D291" s="55"/>
       <c r="E291" s="7" t="s">
         <v>269</v>
       </c>
@@ -6821,10 +6831,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="51"/>
-      <c r="B292" s="51"/>
-      <c r="C292" s="52"/>
-      <c r="D292" s="53"/>
+      <c r="A292" s="52"/>
+      <c r="B292" s="52"/>
+      <c r="C292" s="56"/>
+      <c r="D292" s="55"/>
       <c r="E292" s="11" t="s">
         <v>271</v>
       </c>
@@ -6836,10 +6846,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="51"/>
-      <c r="B293" s="51"/>
-      <c r="C293" s="52"/>
-      <c r="D293" s="53"/>
+      <c r="A293" s="52"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="55"/>
       <c r="E293" s="11" t="s">
         <v>273</v>
       </c>
@@ -6851,10 +6861,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="51"/>
-      <c r="B294" s="51"/>
-      <c r="C294" s="52"/>
-      <c r="D294" s="53"/>
+      <c r="A294" s="52"/>
+      <c r="B294" s="52"/>
+      <c r="C294" s="56"/>
+      <c r="D294" s="55"/>
       <c r="E294" s="11" t="s">
         <v>275</v>
       </c>
@@ -6866,22 +6876,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="51"/>
-      <c r="B295" s="51"/>
-      <c r="C295" s="52"/>
-      <c r="D295" s="53"/>
+      <c r="A295" s="52"/>
+      <c r="B295" s="52"/>
+      <c r="C295" s="56"/>
+      <c r="D295" s="55"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="51"/>
-      <c r="B296" s="51" t="s">
+      <c r="A296" s="52"/>
+      <c r="B296" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="52"/>
-      <c r="D296" s="53"/>
+      <c r="C296" s="56"/>
+      <c r="D296" s="55"/>
       <c r="E296" s="7" t="s">
         <v>279</v>
       </c>
@@ -6893,10 +6903,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="51"/>
-      <c r="B297" s="51"/>
-      <c r="C297" s="52"/>
-      <c r="D297" s="53"/>
+      <c r="A297" s="52"/>
+      <c r="B297" s="52"/>
+      <c r="C297" s="56"/>
+      <c r="D297" s="55"/>
       <c r="E297" s="11" t="s">
         <v>281</v>
       </c>
@@ -6908,10 +6918,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="51"/>
-      <c r="B298" s="51"/>
-      <c r="C298" s="52"/>
-      <c r="D298" s="53"/>
+      <c r="A298" s="52"/>
+      <c r="B298" s="52"/>
+      <c r="C298" s="56"/>
+      <c r="D298" s="55"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -6923,10 +6933,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="51"/>
-      <c r="B299" s="51"/>
-      <c r="C299" s="52"/>
-      <c r="D299" s="53"/>
+      <c r="A299" s="52"/>
+      <c r="B299" s="52"/>
+      <c r="C299" s="56"/>
+      <c r="D299" s="55"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -6938,34 +6948,34 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="51"/>
-      <c r="B300" s="51"/>
-      <c r="C300" s="52"/>
-      <c r="D300" s="53"/>
+      <c r="A300" s="52"/>
+      <c r="B300" s="52"/>
+      <c r="C300" s="56"/>
+      <c r="D300" s="55"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="51"/>
-      <c r="B301" s="51"/>
-      <c r="C301" s="52"/>
-      <c r="D301" s="53"/>
+      <c r="A301" s="52"/>
+      <c r="B301" s="52"/>
+      <c r="C301" s="56"/>
+      <c r="D301" s="55"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="51" t="s">
+      <c r="A302" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="54" t="s">
+      <c r="B302" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="63"/>
-      <c r="D302" s="53"/>
+      <c r="C302" s="54"/>
+      <c r="D302" s="55"/>
       <c r="E302" s="7" t="s">
         <v>287</v>
       </c>
@@ -6977,10 +6987,10 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="51"/>
-      <c r="B303" s="54"/>
-      <c r="C303" s="63"/>
-      <c r="D303" s="53"/>
+      <c r="A303" s="52"/>
+      <c r="B303" s="53"/>
+      <c r="C303" s="54"/>
+      <c r="D303" s="55"/>
       <c r="E303" s="11" t="s">
         <v>289</v>
       </c>
@@ -6992,10 +7002,10 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="51"/>
-      <c r="B304" s="54"/>
-      <c r="C304" s="63"/>
-      <c r="D304" s="53"/>
+      <c r="A304" s="52"/>
+      <c r="B304" s="53"/>
+      <c r="C304" s="54"/>
+      <c r="D304" s="55"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7007,10 +7017,10 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="51"/>
-      <c r="B305" s="54"/>
-      <c r="C305" s="63"/>
-      <c r="D305" s="53"/>
+      <c r="A305" s="52"/>
+      <c r="B305" s="53"/>
+      <c r="C305" s="54"/>
+      <c r="D305" s="55"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7022,18 +7032,18 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="51"/>
-      <c r="B306" s="54"/>
-      <c r="C306" s="63"/>
-      <c r="D306" s="53"/>
+      <c r="A306" s="52"/>
+      <c r="B306" s="53"/>
+      <c r="C306" s="54"/>
+      <c r="D306" s="55"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="51"/>
-      <c r="B307" s="51" t="s">
+      <c r="A307" s="52"/>
+      <c r="B307" s="52" t="s">
         <v>293</v>
       </c>
       <c r="C307" s="47" t="s">
@@ -7046,12 +7056,12 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="51"/>
-      <c r="B308" s="51"/>
-      <c r="C308" s="51" t="s">
+      <c r="A308" s="52"/>
+      <c r="B308" s="52"/>
+      <c r="C308" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D308" s="53"/>
+      <c r="D308" s="55"/>
       <c r="E308" s="11" t="s">
         <v>295</v>
       </c>
@@ -7063,10 +7073,10 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="51"/>
-      <c r="B309" s="51"/>
-      <c r="C309" s="51"/>
-      <c r="D309" s="53"/>
+      <c r="A309" s="52"/>
+      <c r="B309" s="52"/>
+      <c r="C309" s="52"/>
+      <c r="D309" s="55"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
@@ -7078,10 +7088,10 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="51"/>
-      <c r="B310" s="51"/>
-      <c r="C310" s="51"/>
-      <c r="D310" s="53"/>
+      <c r="A310" s="52"/>
+      <c r="B310" s="52"/>
+      <c r="C310" s="52"/>
+      <c r="D310" s="55"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
@@ -7093,42 +7103,42 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="51"/>
-      <c r="B311" s="51"/>
-      <c r="C311" s="51"/>
-      <c r="D311" s="53"/>
+      <c r="A311" s="52"/>
+      <c r="B311" s="52"/>
+      <c r="C311" s="52"/>
+      <c r="D311" s="55"/>
       <c r="E311" s="11" t="s">
         <v>297</v>
       </c>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="51"/>
-      <c r="B312" s="51"/>
-      <c r="C312" s="51"/>
-      <c r="D312" s="53"/>
+      <c r="A312" s="52"/>
+      <c r="B312" s="52"/>
+      <c r="C312" s="52"/>
+      <c r="D312" s="55"/>
       <c r="E312" s="11" t="s">
         <v>298</v>
       </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="51"/>
-      <c r="B313" s="51"/>
-      <c r="C313" s="51"/>
-      <c r="D313" s="53"/>
+      <c r="A313" s="52"/>
+      <c r="B313" s="52"/>
+      <c r="C313" s="52"/>
+      <c r="D313" s="55"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="51"/>
-      <c r="B314" s="51"/>
-      <c r="C314" s="51" t="s">
+      <c r="A314" s="52"/>
+      <c r="B314" s="52"/>
+      <c r="C314" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="D314" s="53"/>
+      <c r="D314" s="55"/>
       <c r="E314" s="7" t="s">
         <v>218</v>
       </c>
@@ -7140,10 +7150,10 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="51"/>
-      <c r="B315" s="51"/>
-      <c r="C315" s="51"/>
-      <c r="D315" s="53"/>
+      <c r="A315" s="52"/>
+      <c r="B315" s="52"/>
+      <c r="C315" s="52"/>
+      <c r="D315" s="55"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
@@ -7155,10 +7165,10 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="51"/>
-      <c r="B316" s="51"/>
-      <c r="C316" s="51"/>
-      <c r="D316" s="53"/>
+      <c r="A316" s="52"/>
+      <c r="B316" s="52"/>
+      <c r="C316" s="52"/>
+      <c r="D316" s="55"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
@@ -7170,44 +7180,44 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="51"/>
-      <c r="B317" s="51"/>
-      <c r="C317" s="51"/>
-      <c r="D317" s="53"/>
+      <c r="A317" s="52"/>
+      <c r="B317" s="52"/>
+      <c r="C317" s="52"/>
+      <c r="D317" s="55"/>
       <c r="E317" s="11" t="s">
         <v>300</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="51"/>
-      <c r="B318" s="51"/>
-      <c r="C318" s="51"/>
-      <c r="D318" s="53"/>
+      <c r="A318" s="52"/>
+      <c r="B318" s="52"/>
+      <c r="C318" s="52"/>
+      <c r="D318" s="55"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="51"/>
-      <c r="B319" s="51"/>
-      <c r="C319" s="51"/>
-      <c r="D319" s="53"/>
+      <c r="A319" s="52"/>
+      <c r="B319" s="52"/>
+      <c r="C319" s="52"/>
+      <c r="D319" s="55"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="51" t="s">
+      <c r="A320" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="54" t="s">
+      <c r="B320" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="63"/>
-      <c r="D320" s="53"/>
+      <c r="C320" s="54"/>
+      <c r="D320" s="55"/>
       <c r="E320" s="7" t="s">
         <v>303</v>
       </c>
@@ -7219,10 +7229,10 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="51"/>
-      <c r="B321" s="54"/>
-      <c r="C321" s="63"/>
-      <c r="D321" s="53"/>
+      <c r="A321" s="52"/>
+      <c r="B321" s="53"/>
+      <c r="C321" s="54"/>
+      <c r="D321" s="55"/>
       <c r="E321" s="11" t="s">
         <v>305</v>
       </c>
@@ -7234,10 +7244,10 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="51"/>
-      <c r="B322" s="54"/>
-      <c r="C322" s="63"/>
-      <c r="D322" s="53"/>
+      <c r="A322" s="52"/>
+      <c r="B322" s="53"/>
+      <c r="C322" s="54"/>
+      <c r="D322" s="55"/>
       <c r="E322" s="11" t="s">
         <v>307</v>
       </c>
@@ -7249,10 +7259,10 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="51"/>
-      <c r="B323" s="54"/>
-      <c r="C323" s="63"/>
-      <c r="D323" s="53"/>
+      <c r="A323" s="52"/>
+      <c r="B323" s="53"/>
+      <c r="C323" s="54"/>
+      <c r="D323" s="55"/>
       <c r="E323" s="11" t="s">
         <v>309</v>
       </c>
@@ -7264,18 +7274,18 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="51"/>
-      <c r="B324" s="54"/>
-      <c r="C324" s="63"/>
-      <c r="D324" s="53"/>
+      <c r="A324" s="52"/>
+      <c r="B324" s="53"/>
+      <c r="C324" s="54"/>
+      <c r="D324" s="55"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="51"/>
-      <c r="B325" s="51" t="s">
+      <c r="A325" s="52"/>
+      <c r="B325" s="52" t="s">
         <v>311</v>
       </c>
       <c r="C325" s="47" t="s">
@@ -7288,12 +7298,12 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="51"/>
-      <c r="B326" s="51"/>
-      <c r="C326" s="51" t="s">
+      <c r="A326" s="52"/>
+      <c r="B326" s="52"/>
+      <c r="C326" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D326" s="53"/>
+      <c r="D326" s="55"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
@@ -7305,82 +7315,82 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="51"/>
-      <c r="B327" s="51"/>
-      <c r="C327" s="51"/>
-      <c r="D327" s="53"/>
+      <c r="A327" s="52"/>
+      <c r="B327" s="52"/>
+      <c r="C327" s="52"/>
+      <c r="D327" s="55"/>
       <c r="E327" s="11" t="s">
         <v>314</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="51"/>
-      <c r="B328" s="51"/>
-      <c r="C328" s="51"/>
-      <c r="D328" s="53"/>
+      <c r="A328" s="52"/>
+      <c r="B328" s="52"/>
+      <c r="C328" s="52"/>
+      <c r="D328" s="55"/>
       <c r="E328" s="11" t="s">
         <v>315</v>
       </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="51"/>
-      <c r="B329" s="51"/>
-      <c r="C329" s="51"/>
-      <c r="D329" s="53"/>
+      <c r="A329" s="52"/>
+      <c r="B329" s="52"/>
+      <c r="C329" s="52"/>
+      <c r="D329" s="55"/>
       <c r="E329" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="51"/>
-      <c r="B330" s="51"/>
-      <c r="C330" s="51"/>
-      <c r="D330" s="53"/>
+      <c r="A330" s="52"/>
+      <c r="B330" s="52"/>
+      <c r="C330" s="52"/>
+      <c r="D330" s="55"/>
       <c r="E330" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="51"/>
-      <c r="B331" s="51"/>
-      <c r="C331" s="51"/>
-      <c r="D331" s="53"/>
+      <c r="A331" s="52"/>
+      <c r="B331" s="52"/>
+      <c r="C331" s="52"/>
+      <c r="D331" s="55"/>
       <c r="E331" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="51"/>
-      <c r="B332" s="51"/>
-      <c r="C332" s="51"/>
-      <c r="D332" s="53"/>
+      <c r="A332" s="52"/>
+      <c r="B332" s="52"/>
+      <c r="C332" s="52"/>
+      <c r="D332" s="55"/>
       <c r="E332" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="51"/>
-      <c r="B333" s="51"/>
-      <c r="C333" s="51"/>
-      <c r="D333" s="53"/>
+      <c r="A333" s="52"/>
+      <c r="B333" s="52"/>
+      <c r="C333" s="52"/>
+      <c r="D333" s="55"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="56" t="s">
+      <c r="A334" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B334" s="64"/>
-      <c r="C334" s="64"/>
-      <c r="D334" s="64"/>
+      <c r="B334" s="51"/>
+      <c r="C334" s="51"/>
+      <c r="D334" s="51"/>
       <c r="E334" s="7" t="s">
         <v>317</v>
       </c>
@@ -7392,10 +7402,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="56"/>
-      <c r="B335" s="56"/>
-      <c r="C335" s="64"/>
-      <c r="D335" s="64"/>
+      <c r="A335" s="50"/>
+      <c r="B335" s="50"/>
+      <c r="C335" s="51"/>
+      <c r="D335" s="51"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7407,10 +7417,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="56"/>
-      <c r="B336" s="56"/>
-      <c r="C336" s="64"/>
-      <c r="D336" s="64"/>
+      <c r="A336" s="50"/>
+      <c r="B336" s="50"/>
+      <c r="C336" s="51"/>
+      <c r="D336" s="51"/>
       <c r="E336" s="11" t="s">
         <v>321</v>
       </c>
@@ -7422,10 +7432,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="56"/>
-      <c r="B337" s="56"/>
-      <c r="C337" s="64"/>
-      <c r="D337" s="64"/>
+      <c r="A337" s="50"/>
+      <c r="B337" s="50"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="51"/>
       <c r="E337" s="11" t="s">
         <v>323</v>
       </c>
@@ -7437,10 +7447,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="56"/>
-      <c r="B338" s="56"/>
-      <c r="C338" s="64"/>
-      <c r="D338" s="64"/>
+      <c r="A338" s="50"/>
+      <c r="B338" s="50"/>
+      <c r="C338" s="51"/>
+      <c r="D338" s="51"/>
       <c r="E338" s="11" t="s">
         <v>325</v>
       </c>
@@ -7452,20 +7462,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="56"/>
-      <c r="B339" s="56"/>
-      <c r="C339" s="64"/>
-      <c r="D339" s="64"/>
+      <c r="A339" s="50"/>
+      <c r="B339" s="50"/>
+      <c r="C339" s="51"/>
+      <c r="D339" s="51"/>
       <c r="E339" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="56"/>
-      <c r="B340" s="56"/>
-      <c r="C340" s="64"/>
-      <c r="D340" s="64"/>
+      <c r="A340" s="50"/>
+      <c r="B340" s="50"/>
+      <c r="C340" s="51"/>
+      <c r="D340" s="51"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7474,26 +7484,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7518,67 +7569,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7590,7 +7600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,6 +97,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> возвращает список всех атрибутов</t>
     </r>
@@ -131,6 +133,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">AddTypeAttr
 </t>
@@ -526,6 +530,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">GetStateNextStates
 </t>
@@ -1558,76 +1564,104 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color indexed="23"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="19"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="57"/>
       <name val="Cascadia Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1666,14 +1700,18 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Cascadia Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1737,6 +1775,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC4CE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,7 +1958,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2009,35 +2053,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,16 +2083,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="1"/>
@@ -2146,6 +2197,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFDC4CE0"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2841,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2946,13 +3000,13 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="55"/>
@@ -2968,9 +3022,9 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="68"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="55"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
@@ -2983,9 +3037,9 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="68"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="55"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
@@ -2998,9 +3052,9 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="68"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="55"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
@@ -3016,9 +3070,9 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="68"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="55"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
@@ -3026,8 +3080,8 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3040,9 +3094,9 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="60" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="55"/>
@@ -3057,9 +3111,9 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="55"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
@@ -3075,9 +3129,9 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="55"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
@@ -3091,9 +3145,9 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="55"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
@@ -3109,9 +3163,9 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="55"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
@@ -3119,9 +3173,9 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="55"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
@@ -3130,9 +3184,9 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="55"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
@@ -3143,9 +3197,9 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="55"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
@@ -3161,9 +3215,9 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="55"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
@@ -3176,9 +3230,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="55"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
@@ -3186,9 +3240,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="53" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="55"/>
@@ -3203,9 +3257,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="55"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
@@ -3221,9 +3275,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="55"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
@@ -3237,9 +3291,9 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="55"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
@@ -3255,9 +3309,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="55"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
@@ -3265,9 +3319,9 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="55"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
@@ -3276,9 +3330,9 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="55"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
@@ -3286,9 +3340,9 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="55"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
@@ -3296,9 +3350,9 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="55"/>
@@ -3311,14 +3365,14 @@
       <c r="G26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="55"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
@@ -3331,9 +3385,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="55"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
@@ -3346,9 +3400,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="55"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
@@ -3361,9 +3415,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="55"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
@@ -3371,9 +3425,9 @@
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="55"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
@@ -3381,9 +3435,9 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="55"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
@@ -3391,9 +3445,9 @@
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="55"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
@@ -3401,9 +3455,9 @@
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="55"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
@@ -3411,9 +3465,9 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="55"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
@@ -3421,9 +3475,9 @@
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="52" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="69" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="55"/>
@@ -3433,14 +3487,14 @@
       <c r="F36" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="71" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="55"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
@@ -3448,14 +3502,14 @@
       <c r="F37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="71" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="52"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="55"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
@@ -3463,14 +3517,14 @@
       <c r="F38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="55"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
@@ -3478,7 +3532,7 @@
       <c r="F39" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="71" t="s">
         <v>71</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3486,19 +3540,20 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="55"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="16"/>
+      <c r="G40" s="71"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="59" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="55"/>
@@ -3508,14 +3563,14 @@
       <c r="F41" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="71" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="55"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
@@ -3523,14 +3578,14 @@
       <c r="F42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="55"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
@@ -3538,15 +3593,15 @@
       <c r="F43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="52" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="54"/>
@@ -3562,8 +3617,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="54"/>
       <c r="D45" s="55"/>
       <c r="E45" s="23" t="s">
@@ -3577,8 +3632,8 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="54"/>
       <c r="D46" s="55"/>
       <c r="E46" s="11" t="s">
@@ -3592,8 +3647,8 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="54"/>
       <c r="D47" s="55"/>
       <c r="E47" s="11" t="s">
@@ -3607,8 +3662,8 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="54"/>
       <c r="D48" s="55"/>
       <c r="E48" s="15" t="s">
@@ -3617,8 +3672,8 @@
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3631,9 +3686,9 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="55"/>
@@ -3648,9 +3703,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="55"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
@@ -3663,9 +3718,9 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="55"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
@@ -3678,9 +3733,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="55"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
@@ -3693,9 +3748,9 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="55"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
@@ -3703,9 +3758,9 @@
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="53"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="55"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
@@ -3713,9 +3768,9 @@
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="53"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="55"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
@@ -3723,9 +3778,9 @@
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="53"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="55"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
@@ -3733,9 +3788,9 @@
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="57" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="55"/>
@@ -3745,14 +3800,14 @@
       <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="42" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="52"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="55"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
@@ -3765,9 +3820,9 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="52"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="55"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
@@ -3780,9 +3835,9 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="52"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="55"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
@@ -3795,9 +3850,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="52"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="55"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
@@ -3805,9 +3860,9 @@
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="52"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="55"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
@@ -3815,9 +3870,9 @@
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="52" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="57" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="55"/>
@@ -3832,9 +3887,9 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="55"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
@@ -3847,9 +3902,9 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="52"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="55"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
@@ -3857,9 +3912,9 @@
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="52"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="55"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
@@ -3872,9 +3927,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="52"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="55"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
@@ -3882,9 +3937,9 @@
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="52"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="55"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
@@ -3897,10 +3952,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="50" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3914,10 +3969,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="50"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -3929,30 +3984,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="50"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="50"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="50"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -3964,10 +4019,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="50"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -3979,29 +4034,29 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="59"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="50"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="59"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="64" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="61" t="s">
         <v>133</v>
       </c>
       <c r="D78" s="55"/>
@@ -4016,9 +4071,9 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="55"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
@@ -4031,9 +4086,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="64"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="55"/>
       <c r="E80" s="23" t="s">
         <v>138</v>
@@ -4046,9 +4101,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="64"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="55"/>
       <c r="E81" s="11" t="s">
         <v>140</v>
@@ -4064,9 +4119,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="64"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="55"/>
       <c r="E82" s="15" t="s">
         <v>143</v>
@@ -4074,9 +4129,9 @@
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="52" t="s">
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="57" t="s">
         <v>144</v>
       </c>
       <c r="D83" s="55"/>
@@ -4091,9 +4146,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="52"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="55"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
@@ -4107,9 +4162,9 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="52"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="57"/>
       <c r="D85" s="55"/>
       <c r="E85" s="11" t="s">
         <v>146</v>
@@ -4117,9 +4172,9 @@
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="55"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
@@ -4132,9 +4187,9 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="52"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="55"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
@@ -4147,9 +4202,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="59"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="52"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="57"/>
       <c r="D88" s="55"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
@@ -4157,9 +4212,9 @@
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="55"/>
       <c r="E89" s="11" t="s">
         <v>149</v>
@@ -4167,9 +4222,9 @@
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="59"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="52"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="55"/>
       <c r="E90" s="11" t="s">
         <v>150</v>
@@ -4177,9 +4232,9 @@
       <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="59"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="52"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="55"/>
       <c r="E91" s="11" t="s">
         <v>151</v>
@@ -4187,9 +4242,9 @@
       <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="52"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="55"/>
       <c r="E92" s="11" t="s">
         <v>152</v>
@@ -4197,9 +4252,9 @@
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="59"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="55"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
@@ -4207,9 +4262,9 @@
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="52"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="57"/>
       <c r="D94" s="55"/>
       <c r="E94" s="11" t="s">
         <v>153</v>
@@ -4217,9 +4272,9 @@
       <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="52"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="55"/>
       <c r="E95" s="15" t="s">
         <v>154</v>
@@ -4227,10 +4282,10 @@
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="58" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="59" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4247,10 +4302,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="58"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="11" t="s">
         <v>155</v>
       </c>
@@ -4258,10 +4313,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="58"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="11" t="s">
         <v>156</v>
       </c>
@@ -4269,10 +4324,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="58"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4285,10 +4340,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="59"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="58"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4300,30 +4355,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="58"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="59"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="58"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="59"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="58" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="59" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4337,10 +4392,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="58"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="59"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4352,10 +4407,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="59"/>
-      <c r="B105" s="59"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="58"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="11" t="s">
         <v>160</v>
       </c>
@@ -4367,10 +4422,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="59"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="58"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="15" t="s">
         <v>161</v>
       </c>
@@ -4382,9 +4437,9 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="59"/>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51" t="s">
         <v>164</v>
       </c>
       <c r="D107" s="55"/>
@@ -4399,9 +4454,9 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="59"/>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="55"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
@@ -4414,9 +4469,9 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="59"/>
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="55"/>
       <c r="E109" s="11" t="s">
         <v>165</v>
@@ -4424,9 +4479,9 @@
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="55"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
@@ -4439,9 +4494,9 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="59"/>
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="55"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
@@ -4450,9 +4505,9 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="59"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="59"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="55"/>
       <c r="E112" s="11" t="s">
         <v>149</v>
@@ -4461,9 +4516,9 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="59"/>
-      <c r="B113" s="59"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="55"/>
       <c r="E113" s="11" t="s">
         <v>150</v>
@@ -4472,9 +4527,9 @@
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="55"/>
       <c r="E114" s="11" t="s">
         <v>151</v>
@@ -4483,9 +4538,9 @@
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="59"/>
-      <c r="B115" s="59"/>
-      <c r="C115" s="59"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="55"/>
       <c r="E115" s="11" t="s">
         <v>152</v>
@@ -4494,9 +4549,9 @@
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="59"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="59"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
       <c r="D116" s="55"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
@@ -4505,9 +4560,9 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="59"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="52" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="57" t="s">
         <v>166</v>
       </c>
       <c r="D117" s="55"/>
@@ -4522,9 +4577,9 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="59"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="52"/>
+      <c r="A118" s="51"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="55"/>
       <c r="E118" s="11" t="s">
         <v>167</v>
@@ -4532,9 +4587,9 @@
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="59"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="52"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="55"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
@@ -4542,9 +4597,9 @@
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="59"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="52"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="55"/>
       <c r="E120" s="23" t="s">
         <v>168</v>
@@ -4557,9 +4612,9 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="59"/>
-      <c r="B121" s="59"/>
-      <c r="C121" s="52"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="55"/>
       <c r="E121" s="11" t="s">
         <v>170</v>
@@ -4572,9 +4627,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="59"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="52"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="55"/>
       <c r="E122" s="11" t="s">
         <v>172</v>
@@ -4587,9 +4642,9 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="59"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="52"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="55"/>
       <c r="E123" s="15" t="s">
         <v>173</v>
@@ -4602,9 +4657,9 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="59"/>
-      <c r="B124" s="59"/>
-      <c r="C124" s="52" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="57" t="s">
         <v>175</v>
       </c>
       <c r="D124" s="55"/>
@@ -4622,9 +4677,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="59"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="52"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="55"/>
       <c r="E125" s="11" t="s">
         <v>180</v>
@@ -4637,9 +4692,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="59"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="52"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="57"/>
       <c r="D126" s="55"/>
       <c r="E126" s="11" t="s">
         <v>182</v>
@@ -4647,9 +4702,9 @@
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="59"/>
-      <c r="B127" s="59"/>
-      <c r="C127" s="52"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="57"/>
       <c r="D127" s="55"/>
       <c r="E127" s="11" t="s">
         <v>183</v>
@@ -4662,9 +4717,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="59"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="52" t="s">
+      <c r="A128" s="51"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="57" t="s">
         <v>185</v>
       </c>
       <c r="D128" s="55"/>
@@ -4682,9 +4737,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="59"/>
-      <c r="B129" s="59"/>
-      <c r="C129" s="52"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="57"/>
       <c r="D129" s="55"/>
       <c r="E129" s="11" t="s">
         <v>190</v>
@@ -4697,9 +4752,9 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="59"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="52"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="55"/>
       <c r="E130" s="11" t="s">
         <v>192</v>
@@ -4707,9 +4762,9 @@
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="59"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="52"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="57"/>
       <c r="D131" s="55"/>
       <c r="E131" s="15" t="s">
         <v>193</v>
@@ -4725,9 +4780,9 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="59"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="52" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="57" t="s">
         <v>196</v>
       </c>
       <c r="D132" s="55"/>
@@ -4742,9 +4797,9 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="59"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="52"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="57"/>
       <c r="D133" s="55"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
@@ -4757,9 +4812,9 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="59"/>
-      <c r="B134" s="59"/>
-      <c r="C134" s="52"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="57"/>
       <c r="D134" s="55"/>
       <c r="E134" s="11" t="s">
         <v>201</v>
@@ -4772,9 +4827,9 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="59"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="52"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="57"/>
       <c r="D135" s="55"/>
       <c r="E135" s="11" t="s">
         <v>203</v>
@@ -4787,9 +4842,9 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="59"/>
-      <c r="B136" s="59"/>
-      <c r="C136" s="52"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="55"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
@@ -4797,9 +4852,9 @@
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="59"/>
-      <c r="B137" s="59"/>
-      <c r="C137" s="52"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="57"/>
       <c r="D137" s="55"/>
       <c r="E137" s="11" t="s">
         <v>205</v>
@@ -4807,9 +4862,9 @@
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="59"/>
-      <c r="B138" s="59"/>
-      <c r="C138" s="52"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="57"/>
       <c r="D138" s="55"/>
       <c r="E138" s="11" t="s">
         <v>206</v>
@@ -4817,9 +4872,9 @@
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="59"/>
-      <c r="B139" s="59"/>
-      <c r="C139" s="52"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="57"/>
       <c r="D139" s="55"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
@@ -4827,19 +4882,19 @@
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="59"/>
-      <c r="B140" s="59"/>
-      <c r="C140" s="52"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="57"/>
       <c r="D140" s="55"/>
       <c r="E140" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="59"/>
-      <c r="B141" s="59"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="58" t="s">
+      <c r="A141" s="51"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="59" t="s">
         <v>207</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4853,40 +4908,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="59"/>
-      <c r="B142" s="59"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="58"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="59"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="58"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="59"/>
       <c r="E143" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="59"/>
-      <c r="B144" s="59"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="58"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="59"/>
       <c r="E144" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="59"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="58"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="33" t="s">
         <v>209</v>
       </c>
@@ -4898,10 +4953,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="59"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="58"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -4913,10 +4968,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="59"/>
-      <c r="B147" s="59"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="58"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="15" t="s">
         <v>211</v>
       </c>
@@ -4928,13 +4983,13 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="60" t="s">
+      <c r="B148" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="63" t="s">
+      <c r="C148" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="55"/>
@@ -4949,9 +5004,9 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="59"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="63"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="60"/>
       <c r="D149" s="55"/>
       <c r="E149" s="11" t="s">
         <v>214</v>
@@ -4964,9 +5019,9 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="59"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="63"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="60"/>
       <c r="D150" s="55"/>
       <c r="E150" s="11" t="s">
         <v>215</v>
@@ -4979,9 +5034,9 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="59"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="63"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="60"/>
       <c r="D151" s="55"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
@@ -4994,9 +5049,9 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="59"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="63"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="60"/>
       <c r="D152" s="55"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
@@ -5004,8 +5059,8 @@
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="59"/>
-      <c r="B153" s="59" t="s">
+      <c r="A153" s="51"/>
+      <c r="B153" s="51" t="s">
         <v>216</v>
       </c>
       <c r="C153" s="45" t="s">
@@ -5018,9 +5073,9 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="59"/>
-      <c r="B154" s="59"/>
-      <c r="C154" s="53" t="s">
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="52" t="s">
         <v>96</v>
       </c>
       <c r="D154" s="55"/>
@@ -5035,9 +5090,9 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="59"/>
-      <c r="B155" s="59"/>
-      <c r="C155" s="53"/>
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="55"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
@@ -5053,9 +5108,9 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="59"/>
-      <c r="B156" s="59"/>
-      <c r="C156" s="53"/>
+      <c r="A156" s="51"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="52"/>
       <c r="D156" s="55"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
@@ -5068,9 +5123,9 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="59"/>
-      <c r="B157" s="59"/>
-      <c r="C157" s="53"/>
+      <c r="A157" s="51"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="52"/>
       <c r="D157" s="55"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
@@ -5083,9 +5138,9 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="59"/>
-      <c r="B158" s="59"/>
-      <c r="C158" s="53"/>
+      <c r="A158" s="51"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="52"/>
       <c r="D158" s="55"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
@@ -5093,9 +5148,9 @@
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="59"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="53"/>
+      <c r="A159" s="51"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="55"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
@@ -5103,9 +5158,9 @@
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="59"/>
-      <c r="B160" s="59"/>
-      <c r="C160" s="53"/>
+      <c r="A160" s="51"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="52"/>
       <c r="D160" s="55"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
@@ -5113,9 +5168,9 @@
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="59"/>
-      <c r="B161" s="59"/>
-      <c r="C161" s="53"/>
+      <c r="A161" s="51"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="52"/>
       <c r="D161" s="55"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
@@ -5123,9 +5178,9 @@
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="59"/>
-      <c r="B162" s="59"/>
-      <c r="C162" s="62" t="s">
+      <c r="A162" s="51"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="63" t="s">
         <v>113</v>
       </c>
       <c r="D162" s="55"/>
@@ -5140,9 +5195,9 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="59"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="62"/>
+      <c r="A163" s="51"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="55"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
@@ -5155,9 +5210,9 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="59"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="62"/>
+      <c r="A164" s="51"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="55"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
@@ -5165,9 +5220,9 @@
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="59"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="62"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="63"/>
       <c r="D165" s="55"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
@@ -5180,9 +5235,9 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="59"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="62"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="55"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
@@ -5190,9 +5245,9 @@
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="59"/>
-      <c r="B167" s="59"/>
-      <c r="C167" s="62"/>
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="63"/>
       <c r="D167" s="55"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
@@ -5205,10 +5260,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="59"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="62"/>
-      <c r="D168" s="58" t="s">
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="63"/>
+      <c r="D168" s="59" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5222,10 +5277,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="59"/>
-      <c r="B169" s="59"/>
-      <c r="C169" s="62"/>
-      <c r="D169" s="58"/>
+      <c r="A169" s="51"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="63"/>
+      <c r="D169" s="59"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5237,30 +5292,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="59"/>
-      <c r="B170" s="59"/>
-      <c r="C170" s="62"/>
-      <c r="D170" s="58"/>
+      <c r="A170" s="51"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="59"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="59"/>
-      <c r="B171" s="59"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="58"/>
+      <c r="A171" s="51"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="63"/>
+      <c r="D171" s="59"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="59"/>
-      <c r="B172" s="59"/>
-      <c r="C172" s="62"/>
-      <c r="D172" s="58"/>
+      <c r="A172" s="51"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5272,10 +5327,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="59"/>
-      <c r="B173" s="59"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="58"/>
+      <c r="A173" s="51"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="59"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5287,29 +5342,29 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="59"/>
-      <c r="B174" s="59"/>
-      <c r="C174" s="62"/>
-      <c r="D174" s="58"/>
+      <c r="A174" s="51"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="59"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="59"/>
-      <c r="B175" s="59"/>
-      <c r="C175" s="62"/>
-      <c r="D175" s="58"/>
+      <c r="A175" s="51"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="59"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="59"/>
-      <c r="B176" s="59"/>
-      <c r="C176" s="61" t="s">
+      <c r="A176" s="51"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="62" t="s">
         <v>133</v>
       </c>
       <c r="D176" s="55"/>
@@ -5324,9 +5379,9 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="59"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="61"/>
+      <c r="A177" s="51"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="62"/>
       <c r="D177" s="55"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
@@ -5339,9 +5394,9 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="59"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="61"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="62"/>
       <c r="D178" s="55"/>
       <c r="E178" s="23" t="s">
         <v>138</v>
@@ -5354,9 +5409,9 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="59"/>
-      <c r="B179" s="59"/>
-      <c r="C179" s="61"/>
+      <c r="A179" s="51"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="62"/>
       <c r="D179" s="55"/>
       <c r="E179" s="11" t="s">
         <v>140</v>
@@ -5372,9 +5427,9 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="59"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="61"/>
+      <c r="A180" s="51"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="62"/>
       <c r="D180" s="55"/>
       <c r="E180" s="15" t="s">
         <v>143</v>
@@ -5382,9 +5437,9 @@
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="59"/>
-      <c r="B181" s="59"/>
-      <c r="C181" s="61" t="s">
+      <c r="A181" s="51"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="62" t="s">
         <v>144</v>
       </c>
       <c r="D181" s="55"/>
@@ -5399,9 +5454,9 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="59"/>
-      <c r="B182" s="59"/>
-      <c r="C182" s="61"/>
+      <c r="A182" s="51"/>
+      <c r="B182" s="51"/>
+      <c r="C182" s="62"/>
       <c r="D182" s="55"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
@@ -5414,9 +5469,9 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="59"/>
-      <c r="B183" s="59"/>
-      <c r="C183" s="61"/>
+      <c r="A183" s="51"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="62"/>
       <c r="D183" s="55"/>
       <c r="E183" s="11" t="s">
         <v>146</v>
@@ -5424,9 +5479,9 @@
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="59"/>
-      <c r="B184" s="59"/>
-      <c r="C184" s="61"/>
+      <c r="A184" s="51"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="62"/>
       <c r="D184" s="55"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
@@ -5439,9 +5494,9 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="59"/>
-      <c r="B185" s="59"/>
-      <c r="C185" s="61"/>
+      <c r="A185" s="51"/>
+      <c r="B185" s="51"/>
+      <c r="C185" s="62"/>
       <c r="D185" s="55"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
@@ -5454,9 +5509,9 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="59"/>
-      <c r="B186" s="59"/>
-      <c r="C186" s="61"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="62"/>
       <c r="D186" s="55"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
@@ -5464,9 +5519,9 @@
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="59"/>
-      <c r="B187" s="59"/>
-      <c r="C187" s="61"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="62"/>
       <c r="D187" s="55"/>
       <c r="E187" s="11" t="s">
         <v>149</v>
@@ -5474,9 +5529,9 @@
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="59"/>
-      <c r="B188" s="59"/>
-      <c r="C188" s="61"/>
+      <c r="A188" s="51"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="62"/>
       <c r="D188" s="55"/>
       <c r="E188" s="11" t="s">
         <v>150</v>
@@ -5484,9 +5539,9 @@
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="59"/>
-      <c r="B189" s="59"/>
-      <c r="C189" s="61"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="62"/>
       <c r="D189" s="55"/>
       <c r="E189" s="11" t="s">
         <v>151</v>
@@ -5494,9 +5549,9 @@
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="59"/>
-      <c r="B190" s="59"/>
-      <c r="C190" s="61"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="62"/>
       <c r="D190" s="55"/>
       <c r="E190" s="11" t="s">
         <v>152</v>
@@ -5504,9 +5559,9 @@
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="59"/>
-      <c r="B191" s="59"/>
-      <c r="C191" s="61"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="62"/>
       <c r="D191" s="55"/>
       <c r="E191" s="11" t="s">
         <v>153</v>
@@ -5514,9 +5569,9 @@
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="59"/>
-      <c r="B192" s="59"/>
-      <c r="C192" s="61"/>
+      <c r="A192" s="51"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="62"/>
       <c r="D192" s="55"/>
       <c r="E192" s="32" t="s">
         <v>217</v>
@@ -5524,10 +5579,10 @@
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="59"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="58" t="s">
+      <c r="A193" s="51"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="59" t="s">
         <v>153</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5544,30 +5599,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="59"/>
-      <c r="B194" s="59"/>
-      <c r="C194" s="61"/>
-      <c r="D194" s="58"/>
+      <c r="A194" s="51"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="62"/>
+      <c r="D194" s="59"/>
       <c r="E194" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="59"/>
-      <c r="B195" s="59"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="58"/>
+      <c r="A195" s="51"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="62"/>
+      <c r="D195" s="59"/>
       <c r="E195" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="59"/>
-      <c r="B196" s="59"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="58"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="59"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5579,10 +5634,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="59"/>
-      <c r="B197" s="59"/>
-      <c r="C197" s="61"/>
-      <c r="D197" s="58"/>
+      <c r="A197" s="51"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="62"/>
+      <c r="D197" s="59"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5594,40 +5649,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="59"/>
-      <c r="B198" s="59"/>
-      <c r="C198" s="61"/>
-      <c r="D198" s="58"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="62"/>
+      <c r="D198" s="59"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="59"/>
-      <c r="B199" s="59"/>
-      <c r="C199" s="61"/>
-      <c r="D199" s="58"/>
+      <c r="A199" s="51"/>
+      <c r="B199" s="51"/>
+      <c r="C199" s="62"/>
+      <c r="D199" s="59"/>
       <c r="E199" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="59"/>
-      <c r="B200" s="59"/>
-      <c r="C200" s="61"/>
-      <c r="D200" s="58"/>
+      <c r="A200" s="51"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="62"/>
+      <c r="D200" s="59"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="59"/>
-      <c r="B201" s="59"/>
-      <c r="C201" s="61"/>
-      <c r="D201" s="58" t="s">
+      <c r="A201" s="51"/>
+      <c r="B201" s="51"/>
+      <c r="C201" s="62"/>
+      <c r="D201" s="59" t="s">
         <v>154</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5641,10 +5696,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="59"/>
-      <c r="B202" s="59"/>
-      <c r="C202" s="61"/>
-      <c r="D202" s="58"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="51"/>
+      <c r="C202" s="62"/>
+      <c r="D202" s="59"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5656,10 +5711,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="59"/>
-      <c r="B203" s="59"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="58"/>
+      <c r="A203" s="51"/>
+      <c r="B203" s="51"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="59"/>
       <c r="E203" s="11" t="s">
         <v>160</v>
       </c>
@@ -5671,10 +5726,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="59"/>
-      <c r="B204" s="59"/>
-      <c r="C204" s="61"/>
-      <c r="D204" s="58"/>
+      <c r="A204" s="51"/>
+      <c r="B204" s="51"/>
+      <c r="C204" s="62"/>
+      <c r="D204" s="59"/>
       <c r="E204" s="15" t="s">
         <v>161</v>
       </c>
@@ -5686,10 +5741,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="59"/>
-      <c r="B205" s="59"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="58" t="s">
+      <c r="A205" s="51"/>
+      <c r="B205" s="51"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="59" t="s">
         <v>217</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5703,10 +5758,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="59"/>
-      <c r="B206" s="59"/>
-      <c r="C206" s="61"/>
-      <c r="D206" s="58"/>
+      <c r="A206" s="51"/>
+      <c r="B206" s="51"/>
+      <c r="C206" s="62"/>
+      <c r="D206" s="59"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5718,10 +5773,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="59"/>
-      <c r="B207" s="59"/>
-      <c r="C207" s="61"/>
-      <c r="D207" s="58"/>
+      <c r="A207" s="51"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="62"/>
+      <c r="D207" s="59"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5733,29 +5788,29 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="59"/>
-      <c r="B208" s="59"/>
-      <c r="C208" s="61"/>
-      <c r="D208" s="58"/>
+      <c r="A208" s="51"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="62"/>
+      <c r="D208" s="59"/>
       <c r="E208" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="59"/>
-      <c r="B209" s="59"/>
-      <c r="C209" s="61"/>
-      <c r="D209" s="58"/>
+      <c r="A209" s="51"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="62"/>
+      <c r="D209" s="59"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="59"/>
-      <c r="B210" s="59"/>
-      <c r="C210" s="61" t="s">
+      <c r="A210" s="51"/>
+      <c r="B210" s="51"/>
+      <c r="C210" s="62" t="s">
         <v>164</v>
       </c>
       <c r="D210" s="55"/>
@@ -5770,9 +5825,9 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="59"/>
-      <c r="B211" s="59"/>
-      <c r="C211" s="61"/>
+      <c r="A211" s="51"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="62"/>
       <c r="D211" s="55"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
@@ -5785,9 +5840,9 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="59"/>
-      <c r="B212" s="59"/>
-      <c r="C212" s="61"/>
+      <c r="A212" s="51"/>
+      <c r="B212" s="51"/>
+      <c r="C212" s="62"/>
       <c r="D212" s="55"/>
       <c r="E212" s="11" t="s">
         <v>165</v>
@@ -5795,9 +5850,9 @@
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="59"/>
-      <c r="B213" s="59"/>
-      <c r="C213" s="61"/>
+      <c r="A213" s="51"/>
+      <c r="B213" s="51"/>
+      <c r="C213" s="62"/>
       <c r="D213" s="55"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
@@ -5810,9 +5865,9 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="59"/>
-      <c r="B214" s="59"/>
-      <c r="C214" s="61"/>
+      <c r="A214" s="51"/>
+      <c r="B214" s="51"/>
+      <c r="C214" s="62"/>
       <c r="D214" s="55"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
@@ -5825,9 +5880,9 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="59"/>
-      <c r="B215" s="59"/>
-      <c r="C215" s="61"/>
+      <c r="A215" s="51"/>
+      <c r="B215" s="51"/>
+      <c r="C215" s="62"/>
       <c r="D215" s="55"/>
       <c r="E215" s="11" t="s">
         <v>149</v>
@@ -5835,9 +5890,9 @@
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="59"/>
-      <c r="B216" s="59"/>
-      <c r="C216" s="61"/>
+      <c r="A216" s="51"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="62"/>
       <c r="D216" s="55"/>
       <c r="E216" s="11" t="s">
         <v>150</v>
@@ -5845,9 +5900,9 @@
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="59"/>
-      <c r="B217" s="59"/>
-      <c r="C217" s="61"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="62"/>
       <c r="D217" s="55"/>
       <c r="E217" s="11" t="s">
         <v>151</v>
@@ -5855,9 +5910,9 @@
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="59"/>
-      <c r="B218" s="59"/>
-      <c r="C218" s="61"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="62"/>
       <c r="D218" s="55"/>
       <c r="E218" s="11" t="s">
         <v>152</v>
@@ -5865,9 +5920,9 @@
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="59"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="61"/>
+      <c r="A219" s="51"/>
+      <c r="B219" s="51"/>
+      <c r="C219" s="62"/>
       <c r="D219" s="55"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
@@ -5875,9 +5930,9 @@
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="59"/>
-      <c r="B220" s="59"/>
-      <c r="C220" s="61" t="s">
+      <c r="A220" s="51"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="62" t="s">
         <v>166</v>
       </c>
       <c r="D220" s="55"/>
@@ -5892,9 +5947,9 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="59"/>
-      <c r="B221" s="59"/>
-      <c r="C221" s="61"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="62"/>
       <c r="D221" s="55"/>
       <c r="E221" s="11" t="s">
         <v>167</v>
@@ -5902,9 +5957,9 @@
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="59"/>
-      <c r="B222" s="59"/>
-      <c r="C222" s="61"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="51"/>
+      <c r="C222" s="62"/>
       <c r="D222" s="55"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
@@ -5912,9 +5967,9 @@
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="59"/>
-      <c r="B223" s="59"/>
-      <c r="C223" s="61"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="51"/>
+      <c r="C223" s="62"/>
       <c r="D223" s="55"/>
       <c r="E223" s="23" t="s">
         <v>168</v>
@@ -5927,9 +5982,9 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="59"/>
-      <c r="B224" s="59"/>
-      <c r="C224" s="61"/>
+      <c r="A224" s="51"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="62"/>
       <c r="D224" s="55"/>
       <c r="E224" s="11" t="s">
         <v>170</v>
@@ -5942,9 +5997,9 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="59"/>
-      <c r="B225" s="59"/>
-      <c r="C225" s="61"/>
+      <c r="A225" s="51"/>
+      <c r="B225" s="51"/>
+      <c r="C225" s="62"/>
       <c r="D225" s="55"/>
       <c r="E225" s="11" t="s">
         <v>172</v>
@@ -5957,9 +6012,9 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="59"/>
-      <c r="B226" s="59"/>
-      <c r="C226" s="61"/>
+      <c r="A226" s="51"/>
+      <c r="B226" s="51"/>
+      <c r="C226" s="62"/>
       <c r="D226" s="55"/>
       <c r="E226" s="15" t="s">
         <v>173</v>
@@ -5972,9 +6027,9 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="59"/>
-      <c r="B227" s="59"/>
-      <c r="C227" s="61" t="s">
+      <c r="A227" s="51"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="62" t="s">
         <v>175</v>
       </c>
       <c r="D227" s="55"/>
@@ -5992,9 +6047,9 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="59"/>
-      <c r="B228" s="59"/>
-      <c r="C228" s="61"/>
+      <c r="A228" s="51"/>
+      <c r="B228" s="51"/>
+      <c r="C228" s="62"/>
       <c r="D228" s="55"/>
       <c r="E228" s="11" t="s">
         <v>180</v>
@@ -6007,9 +6062,9 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="59"/>
-      <c r="B229" s="59"/>
-      <c r="C229" s="61"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="51"/>
+      <c r="C229" s="62"/>
       <c r="D229" s="55"/>
       <c r="E229" s="11" t="s">
         <v>182</v>
@@ -6017,9 +6072,9 @@
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="59"/>
-      <c r="B230" s="59"/>
-      <c r="C230" s="61"/>
+      <c r="A230" s="51"/>
+      <c r="B230" s="51"/>
+      <c r="C230" s="62"/>
       <c r="D230" s="55"/>
       <c r="E230" s="15" t="s">
         <v>183</v>
@@ -6032,9 +6087,9 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="59"/>
-      <c r="B231" s="59"/>
-      <c r="C231" s="61" t="s">
+      <c r="A231" s="51"/>
+      <c r="B231" s="51"/>
+      <c r="C231" s="62" t="s">
         <v>185</v>
       </c>
       <c r="D231" s="55"/>
@@ -6052,9 +6107,9 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="59"/>
-      <c r="B232" s="59"/>
-      <c r="C232" s="61"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="51"/>
+      <c r="C232" s="62"/>
       <c r="D232" s="55"/>
       <c r="E232" s="11" t="s">
         <v>190</v>
@@ -6067,9 +6122,9 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="59"/>
-      <c r="B233" s="59"/>
-      <c r="C233" s="61"/>
+      <c r="A233" s="51"/>
+      <c r="B233" s="51"/>
+      <c r="C233" s="62"/>
       <c r="D233" s="55"/>
       <c r="E233" s="11" t="s">
         <v>192</v>
@@ -6077,9 +6132,9 @@
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="59"/>
-      <c r="B234" s="59"/>
-      <c r="C234" s="61"/>
+      <c r="A234" s="51"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="62"/>
       <c r="D234" s="55"/>
       <c r="E234" s="15" t="s">
         <v>193</v>
@@ -6095,9 +6150,9 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="59"/>
-      <c r="B235" s="59"/>
-      <c r="C235" s="57" t="s">
+      <c r="A235" s="51"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="65" t="s">
         <v>196</v>
       </c>
       <c r="D235" s="55"/>
@@ -6112,9 +6167,9 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="59"/>
-      <c r="B236" s="59"/>
-      <c r="C236" s="57"/>
+      <c r="A236" s="51"/>
+      <c r="B236" s="51"/>
+      <c r="C236" s="65"/>
       <c r="D236" s="55"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
@@ -6127,9 +6182,9 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="59"/>
-      <c r="B237" s="59"/>
-      <c r="C237" s="57"/>
+      <c r="A237" s="51"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="65"/>
       <c r="D237" s="55"/>
       <c r="E237" s="11" t="s">
         <v>201</v>
@@ -6142,9 +6197,9 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="59"/>
-      <c r="B238" s="59"/>
-      <c r="C238" s="57"/>
+      <c r="A238" s="51"/>
+      <c r="B238" s="51"/>
+      <c r="C238" s="65"/>
       <c r="D238" s="55"/>
       <c r="E238" s="11" t="s">
         <v>203</v>
@@ -6157,9 +6212,9 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="59"/>
-      <c r="B239" s="59"/>
-      <c r="C239" s="57"/>
+      <c r="A239" s="51"/>
+      <c r="B239" s="51"/>
+      <c r="C239" s="65"/>
       <c r="D239" s="55"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
@@ -6167,9 +6222,9 @@
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="59"/>
-      <c r="B240" s="59"/>
-      <c r="C240" s="57"/>
+      <c r="A240" s="51"/>
+      <c r="B240" s="51"/>
+      <c r="C240" s="65"/>
       <c r="D240" s="55"/>
       <c r="E240" s="11" t="s">
         <v>205</v>
@@ -6177,9 +6232,9 @@
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="59"/>
-      <c r="B241" s="59"/>
-      <c r="C241" s="57"/>
+      <c r="A241" s="51"/>
+      <c r="B241" s="51"/>
+      <c r="C241" s="65"/>
       <c r="D241" s="55"/>
       <c r="E241" s="11" t="s">
         <v>206</v>
@@ -6187,9 +6242,9 @@
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="59"/>
-      <c r="B242" s="59"/>
-      <c r="C242" s="57"/>
+      <c r="A242" s="51"/>
+      <c r="B242" s="51"/>
+      <c r="C242" s="65"/>
       <c r="D242" s="55"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
@@ -6197,9 +6252,9 @@
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="59"/>
-      <c r="B243" s="59"/>
-      <c r="C243" s="57"/>
+      <c r="A243" s="51"/>
+      <c r="B243" s="51"/>
+      <c r="C243" s="65"/>
       <c r="D243" s="55"/>
       <c r="E243" s="32" t="s">
         <v>207</v>
@@ -6212,10 +6267,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="59"/>
-      <c r="B244" s="59"/>
-      <c r="C244" s="57"/>
-      <c r="D244" s="58" t="s">
+      <c r="A244" s="51"/>
+      <c r="B244" s="51"/>
+      <c r="C244" s="65"/>
+      <c r="D244" s="59" t="s">
         <v>207</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6229,40 +6284,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="59"/>
-      <c r="B245" s="59"/>
-      <c r="C245" s="57"/>
-      <c r="D245" s="58"/>
+      <c r="A245" s="51"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="65"/>
+      <c r="D245" s="59"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="59"/>
-      <c r="B246" s="59"/>
-      <c r="C246" s="57"/>
-      <c r="D246" s="58"/>
+      <c r="A246" s="51"/>
+      <c r="B246" s="51"/>
+      <c r="C246" s="65"/>
+      <c r="D246" s="59"/>
       <c r="E246" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="59"/>
-      <c r="B247" s="59"/>
-      <c r="C247" s="57"/>
-      <c r="D247" s="58"/>
+      <c r="A247" s="51"/>
+      <c r="B247" s="51"/>
+      <c r="C247" s="65"/>
+      <c r="D247" s="59"/>
       <c r="E247" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="59"/>
-      <c r="B248" s="59"/>
-      <c r="C248" s="57"/>
-      <c r="D248" s="58"/>
+      <c r="A248" s="51"/>
+      <c r="B248" s="51"/>
+      <c r="C248" s="65"/>
+      <c r="D248" s="59"/>
       <c r="E248" s="23" t="s">
         <v>224</v>
       </c>
@@ -6274,10 +6329,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="59"/>
-      <c r="B249" s="59"/>
-      <c r="C249" s="57"/>
-      <c r="D249" s="58"/>
+      <c r="A249" s="51"/>
+      <c r="B249" s="51"/>
+      <c r="C249" s="65"/>
+      <c r="D249" s="59"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6289,9 +6344,9 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="59"/>
-      <c r="B250" s="59"/>
-      <c r="C250" s="52" t="s">
+      <c r="A250" s="51"/>
+      <c r="B250" s="51"/>
+      <c r="C250" s="57" t="s">
         <v>225</v>
       </c>
       <c r="D250" s="55"/>
@@ -6309,9 +6364,9 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="59"/>
-      <c r="B251" s="59"/>
-      <c r="C251" s="52"/>
+      <c r="A251" s="51"/>
+      <c r="B251" s="51"/>
+      <c r="C251" s="57"/>
       <c r="D251" s="55"/>
       <c r="E251" s="11" t="s">
         <v>230</v>
@@ -6324,9 +6379,9 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="59"/>
-      <c r="B252" s="59"/>
-      <c r="C252" s="52"/>
+      <c r="A252" s="51"/>
+      <c r="B252" s="51"/>
+      <c r="C252" s="57"/>
       <c r="D252" s="55"/>
       <c r="E252" s="11" t="s">
         <v>232</v>
@@ -6339,9 +6394,9 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="59"/>
-      <c r="B253" s="59"/>
-      <c r="C253" s="52"/>
+      <c r="A253" s="51"/>
+      <c r="B253" s="51"/>
+      <c r="C253" s="57"/>
       <c r="D253" s="55"/>
       <c r="E253" s="11" t="s">
         <v>234</v>
@@ -6354,9 +6409,9 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="59"/>
-      <c r="B254" s="59"/>
-      <c r="C254" s="52"/>
+      <c r="A254" s="51"/>
+      <c r="B254" s="51"/>
+      <c r="C254" s="57"/>
       <c r="D254" s="55"/>
       <c r="E254" s="11" t="s">
         <v>236</v>
@@ -6369,9 +6424,9 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="59"/>
-      <c r="B255" s="59"/>
-      <c r="C255" s="52"/>
+      <c r="A255" s="51"/>
+      <c r="B255" s="51"/>
+      <c r="C255" s="57"/>
       <c r="D255" s="55"/>
       <c r="E255" s="15" t="s">
         <v>238</v>
@@ -6384,10 +6439,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="59"/>
-      <c r="B256" s="59"/>
-      <c r="C256" s="52"/>
-      <c r="D256" s="58" t="s">
+      <c r="A256" s="51"/>
+      <c r="B256" s="51"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="59" t="s">
         <v>240</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6401,30 +6456,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="59"/>
-      <c r="B257" s="59"/>
-      <c r="C257" s="52"/>
-      <c r="D257" s="58"/>
+      <c r="A257" s="51"/>
+      <c r="B257" s="51"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="59"/>
       <c r="E257" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="59"/>
-      <c r="B258" s="59"/>
-      <c r="C258" s="52"/>
-      <c r="D258" s="58"/>
+      <c r="A258" s="51"/>
+      <c r="B258" s="51"/>
+      <c r="C258" s="57"/>
+      <c r="D258" s="59"/>
       <c r="E258" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="59"/>
-      <c r="B259" s="59"/>
-      <c r="C259" s="52"/>
-      <c r="D259" s="58"/>
+      <c r="A259" s="51"/>
+      <c r="B259" s="51"/>
+      <c r="C259" s="57"/>
+      <c r="D259" s="59"/>
       <c r="E259" s="11" t="s">
         <v>245</v>
       </c>
@@ -6436,10 +6491,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="59"/>
-      <c r="B260" s="59"/>
-      <c r="C260" s="52"/>
-      <c r="D260" s="58"/>
+      <c r="A260" s="51"/>
+      <c r="B260" s="51"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="59"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6451,50 +6506,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="59"/>
-      <c r="B261" s="59"/>
-      <c r="C261" s="52"/>
-      <c r="D261" s="58"/>
+      <c r="A261" s="51"/>
+      <c r="B261" s="51"/>
+      <c r="C261" s="57"/>
+      <c r="D261" s="59"/>
       <c r="E261" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="59"/>
-      <c r="B262" s="59"/>
-      <c r="C262" s="52"/>
-      <c r="D262" s="58"/>
+      <c r="A262" s="51"/>
+      <c r="B262" s="51"/>
+      <c r="C262" s="57"/>
+      <c r="D262" s="59"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="59"/>
-      <c r="B263" s="59"/>
-      <c r="C263" s="52"/>
-      <c r="D263" s="58"/>
+      <c r="A263" s="51"/>
+      <c r="B263" s="51"/>
+      <c r="C263" s="57"/>
+      <c r="D263" s="59"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="59"/>
-      <c r="B264" s="59"/>
-      <c r="C264" s="52"/>
-      <c r="D264" s="58"/>
+      <c r="A264" s="51"/>
+      <c r="B264" s="51"/>
+      <c r="C264" s="57"/>
+      <c r="D264" s="59"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="59"/>
-      <c r="B265" s="59"/>
-      <c r="C265" s="52"/>
-      <c r="D265" s="58" t="s">
+      <c r="A265" s="51"/>
+      <c r="B265" s="51"/>
+      <c r="C265" s="57"/>
+      <c r="D265" s="59" t="s">
         <v>249</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6508,20 +6563,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="59"/>
-      <c r="B266" s="59"/>
-      <c r="C266" s="52"/>
-      <c r="D266" s="58"/>
+      <c r="A266" s="51"/>
+      <c r="B266" s="51"/>
+      <c r="C266" s="57"/>
+      <c r="D266" s="59"/>
       <c r="E266" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="59"/>
-      <c r="B267" s="59"/>
-      <c r="C267" s="52"/>
-      <c r="D267" s="58"/>
+      <c r="A267" s="51"/>
+      <c r="B267" s="51"/>
+      <c r="C267" s="57"/>
+      <c r="D267" s="59"/>
       <c r="E267" s="23" t="s">
         <v>251</v>
       </c>
@@ -6533,10 +6588,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="59"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="52"/>
-      <c r="D268" s="58"/>
+      <c r="A268" s="51"/>
+      <c r="B268" s="51"/>
+      <c r="C268" s="57"/>
+      <c r="D268" s="59"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6548,10 +6603,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="59"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="52"/>
-      <c r="D269" s="58"/>
+      <c r="A269" s="51"/>
+      <c r="B269" s="51"/>
+      <c r="C269" s="57"/>
+      <c r="D269" s="59"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6563,30 +6618,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="59"/>
-      <c r="B270" s="59"/>
-      <c r="C270" s="52"/>
-      <c r="D270" s="58"/>
+      <c r="A270" s="51"/>
+      <c r="B270" s="51"/>
+      <c r="C270" s="57"/>
+      <c r="D270" s="59"/>
       <c r="E270" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="59"/>
-      <c r="B271" s="59"/>
-      <c r="C271" s="52"/>
-      <c r="D271" s="58"/>
+      <c r="A271" s="51"/>
+      <c r="B271" s="51"/>
+      <c r="C271" s="57"/>
+      <c r="D271" s="59"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="59"/>
-      <c r="B272" s="59"/>
-      <c r="C272" s="52"/>
-      <c r="D272" s="58" t="s">
+      <c r="A272" s="51"/>
+      <c r="B272" s="51"/>
+      <c r="C272" s="57"/>
+      <c r="D272" s="59" t="s">
         <v>254</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6600,10 +6655,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="59"/>
-      <c r="B273" s="59"/>
-      <c r="C273" s="52"/>
-      <c r="D273" s="58"/>
+      <c r="A273" s="51"/>
+      <c r="B273" s="51"/>
+      <c r="C273" s="57"/>
+      <c r="D273" s="59"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6615,10 +6670,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="59"/>
-      <c r="B274" s="59"/>
-      <c r="C274" s="52"/>
-      <c r="D274" s="58"/>
+      <c r="A274" s="51"/>
+      <c r="B274" s="51"/>
+      <c r="C274" s="57"/>
+      <c r="D274" s="59"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6630,10 +6685,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="59"/>
-      <c r="B275" s="59"/>
-      <c r="C275" s="52"/>
-      <c r="D275" s="58"/>
+      <c r="A275" s="51"/>
+      <c r="B275" s="51"/>
+      <c r="C275" s="57"/>
+      <c r="D275" s="59"/>
       <c r="E275" s="11" t="s">
         <v>257</v>
       </c>
@@ -6645,80 +6700,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="59"/>
-      <c r="B276" s="59"/>
-      <c r="C276" s="52"/>
-      <c r="D276" s="58"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="51"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="59"/>
       <c r="E276" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="59"/>
-      <c r="B277" s="59"/>
-      <c r="C277" s="52"/>
-      <c r="D277" s="58"/>
+      <c r="A277" s="51"/>
+      <c r="B277" s="51"/>
+      <c r="C277" s="57"/>
+      <c r="D277" s="59"/>
       <c r="E277" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="59"/>
-      <c r="B278" s="59"/>
-      <c r="C278" s="52"/>
-      <c r="D278" s="58"/>
+      <c r="A278" s="51"/>
+      <c r="B278" s="51"/>
+      <c r="C278" s="57"/>
+      <c r="D278" s="59"/>
       <c r="E278" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="59"/>
-      <c r="B279" s="59"/>
-      <c r="C279" s="52"/>
-      <c r="D279" s="58"/>
+      <c r="A279" s="51"/>
+      <c r="B279" s="51"/>
+      <c r="C279" s="57"/>
+      <c r="D279" s="59"/>
       <c r="E279" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="59"/>
-      <c r="B280" s="59"/>
-      <c r="C280" s="52"/>
-      <c r="D280" s="58"/>
+      <c r="A280" s="51"/>
+      <c r="B280" s="51"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="59"/>
       <c r="E280" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="59"/>
-      <c r="B281" s="59"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="58"/>
+      <c r="A281" s="51"/>
+      <c r="B281" s="51"/>
+      <c r="C281" s="57"/>
+      <c r="D281" s="59"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="59"/>
-      <c r="B282" s="59"/>
-      <c r="C282" s="52"/>
-      <c r="D282" s="58"/>
+      <c r="A282" s="51"/>
+      <c r="B282" s="51"/>
+      <c r="C282" s="57"/>
+      <c r="D282" s="59"/>
       <c r="E282" s="15" t="s">
         <v>259</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="59"/>
-      <c r="B283" s="59"/>
-      <c r="C283" s="52"/>
-      <c r="D283" s="58" t="s">
+      <c r="A283" s="51"/>
+      <c r="B283" s="51"/>
+      <c r="C283" s="57"/>
+      <c r="D283" s="59" t="s">
         <v>259</v>
       </c>
       <c r="E283" s="36" t="s">
@@ -6732,30 +6787,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="59"/>
-      <c r="B284" s="59"/>
-      <c r="C284" s="52"/>
-      <c r="D284" s="58"/>
+      <c r="A284" s="51"/>
+      <c r="B284" s="51"/>
+      <c r="C284" s="57"/>
+      <c r="D284" s="59"/>
       <c r="E284" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="59"/>
-      <c r="B285" s="59"/>
-      <c r="C285" s="52"/>
-      <c r="D285" s="58"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="51"/>
+      <c r="C285" s="57"/>
+      <c r="D285" s="59"/>
       <c r="E285" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="59"/>
-      <c r="B286" s="59"/>
-      <c r="C286" s="52"/>
-      <c r="D286" s="58"/>
+      <c r="A286" s="51"/>
+      <c r="B286" s="51"/>
+      <c r="C286" s="57"/>
+      <c r="D286" s="59"/>
       <c r="E286" s="11" t="s">
         <v>264</v>
       </c>
@@ -6767,20 +6822,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="59"/>
-      <c r="B287" s="59"/>
-      <c r="C287" s="52"/>
-      <c r="D287" s="58"/>
+      <c r="A287" s="51"/>
+      <c r="B287" s="51"/>
+      <c r="C287" s="57"/>
+      <c r="D287" s="59"/>
       <c r="E287" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="59"/>
-      <c r="B288" s="59"/>
-      <c r="C288" s="52"/>
-      <c r="D288" s="58"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="51"/>
+      <c r="C288" s="57"/>
+      <c r="D288" s="59"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6792,33 +6847,33 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="59"/>
-      <c r="B289" s="59"/>
-      <c r="C289" s="52"/>
-      <c r="D289" s="58"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="51"/>
+      <c r="C289" s="57"/>
+      <c r="D289" s="59"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="59"/>
-      <c r="B290" s="59"/>
-      <c r="C290" s="52"/>
-      <c r="D290" s="58"/>
+      <c r="A290" s="51"/>
+      <c r="B290" s="51"/>
+      <c r="C290" s="57"/>
+      <c r="D290" s="59"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="52" t="s">
+      <c r="A291" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="52" t="s">
+      <c r="B291" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="56"/>
+      <c r="C291" s="64"/>
       <c r="D291" s="55"/>
       <c r="E291" s="7" t="s">
         <v>269</v>
@@ -6831,9 +6886,9 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="52"/>
-      <c r="B292" s="52"/>
-      <c r="C292" s="56"/>
+      <c r="A292" s="57"/>
+      <c r="B292" s="57"/>
+      <c r="C292" s="64"/>
       <c r="D292" s="55"/>
       <c r="E292" s="11" t="s">
         <v>271</v>
@@ -6846,9 +6901,9 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="52"/>
-      <c r="B293" s="52"/>
-      <c r="C293" s="56"/>
+      <c r="A293" s="57"/>
+      <c r="B293" s="57"/>
+      <c r="C293" s="64"/>
       <c r="D293" s="55"/>
       <c r="E293" s="11" t="s">
         <v>273</v>
@@ -6861,9 +6916,9 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="52"/>
-      <c r="B294" s="52"/>
-      <c r="C294" s="56"/>
+      <c r="A294" s="57"/>
+      <c r="B294" s="57"/>
+      <c r="C294" s="64"/>
       <c r="D294" s="55"/>
       <c r="E294" s="11" t="s">
         <v>275</v>
@@ -6876,9 +6931,9 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="52"/>
-      <c r="B295" s="52"/>
-      <c r="C295" s="56"/>
+      <c r="A295" s="57"/>
+      <c r="B295" s="57"/>
+      <c r="C295" s="64"/>
       <c r="D295" s="55"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
@@ -6886,11 +6941,11 @@
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="52"/>
-      <c r="B296" s="52" t="s">
+      <c r="A296" s="57"/>
+      <c r="B296" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="56"/>
+      <c r="C296" s="64"/>
       <c r="D296" s="55"/>
       <c r="E296" s="7" t="s">
         <v>279</v>
@@ -6903,9 +6958,9 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="52"/>
-      <c r="B297" s="52"/>
-      <c r="C297" s="56"/>
+      <c r="A297" s="57"/>
+      <c r="B297" s="57"/>
+      <c r="C297" s="64"/>
       <c r="D297" s="55"/>
       <c r="E297" s="11" t="s">
         <v>281</v>
@@ -6918,9 +6973,9 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="52"/>
-      <c r="B298" s="52"/>
-      <c r="C298" s="56"/>
+      <c r="A298" s="57"/>
+      <c r="B298" s="57"/>
+      <c r="C298" s="64"/>
       <c r="D298" s="55"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
@@ -6933,9 +6988,9 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="52"/>
-      <c r="B299" s="52"/>
-      <c r="C299" s="56"/>
+      <c r="A299" s="57"/>
+      <c r="B299" s="57"/>
+      <c r="C299" s="64"/>
       <c r="D299" s="55"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
@@ -6948,9 +7003,9 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="52"/>
-      <c r="B300" s="52"/>
-      <c r="C300" s="56"/>
+      <c r="A300" s="57"/>
+      <c r="B300" s="57"/>
+      <c r="C300" s="64"/>
       <c r="D300" s="55"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
@@ -6958,9 +7013,9 @@
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="52"/>
-      <c r="B301" s="52"/>
-      <c r="C301" s="56"/>
+      <c r="A301" s="57"/>
+      <c r="B301" s="57"/>
+      <c r="C301" s="64"/>
       <c r="D301" s="55"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
@@ -6968,10 +7023,10 @@
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="52" t="s">
+      <c r="A302" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="53" t="s">
+      <c r="B302" s="52" t="s">
         <v>286</v>
       </c>
       <c r="C302" s="54"/>
@@ -6987,8 +7042,8 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="52"/>
-      <c r="B303" s="53"/>
+      <c r="A303" s="57"/>
+      <c r="B303" s="52"/>
       <c r="C303" s="54"/>
       <c r="D303" s="55"/>
       <c r="E303" s="11" t="s">
@@ -7002,8 +7057,8 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="52"/>
-      <c r="B304" s="53"/>
+      <c r="A304" s="57"/>
+      <c r="B304" s="52"/>
       <c r="C304" s="54"/>
       <c r="D304" s="55"/>
       <c r="E304" s="11" t="s">
@@ -7017,8 +7072,8 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="52"/>
-      <c r="B305" s="53"/>
+      <c r="A305" s="57"/>
+      <c r="B305" s="52"/>
       <c r="C305" s="54"/>
       <c r="D305" s="55"/>
       <c r="E305" s="11" t="s">
@@ -7032,8 +7087,8 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="52"/>
-      <c r="B306" s="53"/>
+      <c r="A306" s="57"/>
+      <c r="B306" s="52"/>
       <c r="C306" s="54"/>
       <c r="D306" s="55"/>
       <c r="E306" s="15" t="s">
@@ -7042,8 +7097,8 @@
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="52"/>
-      <c r="B307" s="52" t="s">
+      <c r="A307" s="57"/>
+      <c r="B307" s="57" t="s">
         <v>293</v>
       </c>
       <c r="C307" s="47" t="s">
@@ -7056,9 +7111,9 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="52"/>
-      <c r="B308" s="52"/>
-      <c r="C308" s="52" t="s">
+      <c r="A308" s="57"/>
+      <c r="B308" s="57"/>
+      <c r="C308" s="57" t="s">
         <v>294</v>
       </c>
       <c r="D308" s="55"/>
@@ -7073,9 +7128,9 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="52"/>
-      <c r="B309" s="52"/>
-      <c r="C309" s="52"/>
+      <c r="A309" s="57"/>
+      <c r="B309" s="57"/>
+      <c r="C309" s="57"/>
       <c r="D309" s="55"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
@@ -7088,9 +7143,9 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="52"/>
-      <c r="B310" s="52"/>
-      <c r="C310" s="52"/>
+      <c r="A310" s="57"/>
+      <c r="B310" s="57"/>
+      <c r="C310" s="57"/>
       <c r="D310" s="55"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
@@ -7103,9 +7158,9 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="52"/>
-      <c r="B311" s="52"/>
-      <c r="C311" s="52"/>
+      <c r="A311" s="57"/>
+      <c r="B311" s="57"/>
+      <c r="C311" s="57"/>
       <c r="D311" s="55"/>
       <c r="E311" s="11" t="s">
         <v>297</v>
@@ -7113,9 +7168,9 @@
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="52"/>
-      <c r="B312" s="52"/>
-      <c r="C312" s="52"/>
+      <c r="A312" s="57"/>
+      <c r="B312" s="57"/>
+      <c r="C312" s="57"/>
       <c r="D312" s="55"/>
       <c r="E312" s="11" t="s">
         <v>298</v>
@@ -7123,9 +7178,9 @@
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="52"/>
-      <c r="B313" s="52"/>
-      <c r="C313" s="52"/>
+      <c r="A313" s="57"/>
+      <c r="B313" s="57"/>
+      <c r="C313" s="57"/>
       <c r="D313" s="55"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
@@ -7133,9 +7188,9 @@
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="52"/>
-      <c r="B314" s="52"/>
-      <c r="C314" s="52" t="s">
+      <c r="A314" s="57"/>
+      <c r="B314" s="57"/>
+      <c r="C314" s="57" t="s">
         <v>299</v>
       </c>
       <c r="D314" s="55"/>
@@ -7150,9 +7205,9 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="52"/>
-      <c r="B315" s="52"/>
-      <c r="C315" s="52"/>
+      <c r="A315" s="57"/>
+      <c r="B315" s="57"/>
+      <c r="C315" s="57"/>
       <c r="D315" s="55"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
@@ -7165,9 +7220,9 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="52"/>
-      <c r="B316" s="52"/>
-      <c r="C316" s="52"/>
+      <c r="A316" s="57"/>
+      <c r="B316" s="57"/>
+      <c r="C316" s="57"/>
       <c r="D316" s="55"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
@@ -7180,9 +7235,9 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="52"/>
-      <c r="B317" s="52"/>
-      <c r="C317" s="52"/>
+      <c r="A317" s="57"/>
+      <c r="B317" s="57"/>
+      <c r="C317" s="57"/>
       <c r="D317" s="55"/>
       <c r="E317" s="11" t="s">
         <v>300</v>
@@ -7190,9 +7245,9 @@
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="52"/>
-      <c r="B318" s="52"/>
-      <c r="C318" s="52"/>
+      <c r="A318" s="57"/>
+      <c r="B318" s="57"/>
+      <c r="C318" s="57"/>
       <c r="D318" s="55"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
@@ -7200,9 +7255,9 @@
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="52"/>
-      <c r="B319" s="52"/>
-      <c r="C319" s="52"/>
+      <c r="A319" s="57"/>
+      <c r="B319" s="57"/>
+      <c r="C319" s="57"/>
       <c r="D319" s="55"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
@@ -7210,10 +7265,10 @@
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="52" t="s">
+      <c r="A320" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="53" t="s">
+      <c r="B320" s="52" t="s">
         <v>302</v>
       </c>
       <c r="C320" s="54"/>
@@ -7229,8 +7284,8 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="52"/>
-      <c r="B321" s="53"/>
+      <c r="A321" s="57"/>
+      <c r="B321" s="52"/>
       <c r="C321" s="54"/>
       <c r="D321" s="55"/>
       <c r="E321" s="11" t="s">
@@ -7244,8 +7299,8 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="52"/>
-      <c r="B322" s="53"/>
+      <c r="A322" s="57"/>
+      <c r="B322" s="52"/>
       <c r="C322" s="54"/>
       <c r="D322" s="55"/>
       <c r="E322" s="11" t="s">
@@ -7259,8 +7314,8 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="52"/>
-      <c r="B323" s="53"/>
+      <c r="A323" s="57"/>
+      <c r="B323" s="52"/>
       <c r="C323" s="54"/>
       <c r="D323" s="55"/>
       <c r="E323" s="11" t="s">
@@ -7274,8 +7329,8 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="52"/>
-      <c r="B324" s="53"/>
+      <c r="A324" s="57"/>
+      <c r="B324" s="52"/>
       <c r="C324" s="54"/>
       <c r="D324" s="55"/>
       <c r="E324" s="15" t="s">
@@ -7284,8 +7339,8 @@
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="52"/>
-      <c r="B325" s="52" t="s">
+      <c r="A325" s="57"/>
+      <c r="B325" s="57" t="s">
         <v>311</v>
       </c>
       <c r="C325" s="47" t="s">
@@ -7298,9 +7353,9 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="52"/>
-      <c r="B326" s="52"/>
-      <c r="C326" s="52" t="s">
+      <c r="A326" s="57"/>
+      <c r="B326" s="57"/>
+      <c r="C326" s="57" t="s">
         <v>144</v>
       </c>
       <c r="D326" s="55"/>
@@ -7315,9 +7370,9 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="52"/>
-      <c r="B327" s="52"/>
-      <c r="C327" s="52"/>
+      <c r="A327" s="57"/>
+      <c r="B327" s="57"/>
+      <c r="C327" s="57"/>
       <c r="D327" s="55"/>
       <c r="E327" s="11" t="s">
         <v>314</v>
@@ -7325,9 +7380,9 @@
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="52"/>
-      <c r="B328" s="52"/>
-      <c r="C328" s="52"/>
+      <c r="A328" s="57"/>
+      <c r="B328" s="57"/>
+      <c r="C328" s="57"/>
       <c r="D328" s="55"/>
       <c r="E328" s="11" t="s">
         <v>315</v>
@@ -7335,9 +7390,9 @@
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="52"/>
-      <c r="B329" s="52"/>
-      <c r="C329" s="52"/>
+      <c r="A329" s="57"/>
+      <c r="B329" s="57"/>
+      <c r="C329" s="57"/>
       <c r="D329" s="55"/>
       <c r="E329" s="11" t="s">
         <v>149</v>
@@ -7345,9 +7400,9 @@
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="52"/>
-      <c r="B330" s="52"/>
-      <c r="C330" s="52"/>
+      <c r="A330" s="57"/>
+      <c r="B330" s="57"/>
+      <c r="C330" s="57"/>
       <c r="D330" s="55"/>
       <c r="E330" s="11" t="s">
         <v>150</v>
@@ -7355,9 +7410,9 @@
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="52"/>
-      <c r="B331" s="52"/>
-      <c r="C331" s="52"/>
+      <c r="A331" s="57"/>
+      <c r="B331" s="57"/>
+      <c r="C331" s="57"/>
       <c r="D331" s="55"/>
       <c r="E331" s="11" t="s">
         <v>151</v>
@@ -7365,9 +7420,9 @@
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="52"/>
-      <c r="B332" s="52"/>
-      <c r="C332" s="52"/>
+      <c r="A332" s="57"/>
+      <c r="B332" s="57"/>
+      <c r="C332" s="57"/>
       <c r="D332" s="55"/>
       <c r="E332" s="11" t="s">
         <v>152</v>
@@ -7375,9 +7430,9 @@
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="52"/>
-      <c r="B333" s="52"/>
-      <c r="C333" s="52"/>
+      <c r="A333" s="57"/>
+      <c r="B333" s="57"/>
+      <c r="C333" s="57"/>
       <c r="D333" s="55"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
@@ -7385,12 +7440,12 @@
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="50" t="s">
+      <c r="A334" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="B334" s="51"/>
-      <c r="C334" s="51"/>
-      <c r="D334" s="51"/>
+      <c r="B334" s="66"/>
+      <c r="C334" s="66"/>
+      <c r="D334" s="66"/>
       <c r="E334" s="7" t="s">
         <v>317</v>
       </c>
@@ -7402,10 +7457,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="50"/>
-      <c r="B335" s="50"/>
-      <c r="C335" s="51"/>
-      <c r="D335" s="51"/>
+      <c r="A335" s="58"/>
+      <c r="B335" s="58"/>
+      <c r="C335" s="66"/>
+      <c r="D335" s="66"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7417,10 +7472,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="50"/>
-      <c r="B336" s="50"/>
-      <c r="C336" s="51"/>
-      <c r="D336" s="51"/>
+      <c r="A336" s="58"/>
+      <c r="B336" s="58"/>
+      <c r="C336" s="66"/>
+      <c r="D336" s="66"/>
       <c r="E336" s="11" t="s">
         <v>321</v>
       </c>
@@ -7432,10 +7487,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="50"/>
-      <c r="B337" s="50"/>
-      <c r="C337" s="51"/>
-      <c r="D337" s="51"/>
+      <c r="A337" s="58"/>
+      <c r="B337" s="58"/>
+      <c r="C337" s="66"/>
+      <c r="D337" s="66"/>
       <c r="E337" s="11" t="s">
         <v>323</v>
       </c>
@@ -7447,10 +7502,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="50"/>
-      <c r="B338" s="50"/>
-      <c r="C338" s="51"/>
-      <c r="D338" s="51"/>
+      <c r="A338" s="58"/>
+      <c r="B338" s="58"/>
+      <c r="C338" s="66"/>
+      <c r="D338" s="66"/>
       <c r="E338" s="11" t="s">
         <v>325</v>
       </c>
@@ -7462,20 +7517,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="50"/>
-      <c r="B339" s="50"/>
-      <c r="C339" s="51"/>
-      <c r="D339" s="51"/>
+      <c r="A339" s="58"/>
+      <c r="B339" s="58"/>
+      <c r="C339" s="66"/>
+      <c r="D339" s="66"/>
       <c r="E339" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="50"/>
-      <c r="B340" s="50"/>
-      <c r="C340" s="51"/>
-      <c r="D340" s="51"/>
+      <c r="A340" s="58"/>
+      <c r="B340" s="58"/>
+      <c r="C340" s="66"/>
+      <c r="D340" s="66"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7484,6 +7539,87 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7508,87 +7644,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7749,7 +7804,7 @@
       <c r="B66" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="68" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7760,7 +7815,7 @@
       <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="68"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
@@ -7769,7 +7824,7 @@
       <c r="B68" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="68"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
@@ -7778,7 +7833,7 @@
       <c r="B69" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="66"/>
+      <c r="C69" s="68"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
@@ -7787,7 +7842,7 @@
       <c r="B70" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="66"/>
+      <c r="C70" s="68"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -7796,7 +7851,7 @@
       <c r="B71" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C71" s="66"/>
+      <c r="C71" s="68"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
@@ -7805,7 +7860,7 @@
       <c r="B72" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C72" s="66"/>
+      <c r="C72" s="68"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
@@ -7814,7 +7869,7 @@
       <c r="B73" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="66"/>
+      <c r="C73" s="68"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
@@ -7823,7 +7878,7 @@
       <c r="B74" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C74" s="66"/>
+      <c r="C74" s="68"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
@@ -7832,7 +7887,7 @@
       <c r="B75" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C75" s="66"/>
+      <c r="C75" s="68"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
@@ -7841,7 +7896,7 @@
       <c r="B76" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="66"/>
+      <c r="C76" s="68"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
@@ -7850,7 +7905,7 @@
       <c r="B77" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C77" s="66"/>
+      <c r="C77" s="68"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -7859,7 +7914,7 @@
       <c r="B78" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C78" s="66"/>
+      <c r="C78" s="68"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
@@ -7868,7 +7923,7 @@
       <c r="B79" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C79" s="66"/>
+      <c r="C79" s="68"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -7877,7 +7932,7 @@
       <c r="B82" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C82" s="65" t="s">
+      <c r="C82" s="67" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7888,7 +7943,7 @@
       <c r="B83" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C83" s="65"/>
+      <c r="C83" s="67"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
@@ -7897,7 +7952,7 @@
       <c r="B84" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="65"/>
+      <c r="C84" s="67"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
@@ -7906,7 +7961,7 @@
       <c r="B85" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C85" s="65"/>
+      <c r="C85" s="67"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
@@ -7915,7 +7970,7 @@
       <c r="B86" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C86" s="65"/>
+      <c r="C86" s="67"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -7924,7 +7979,7 @@
       <c r="B89" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="67" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7935,7 +7990,7 @@
       <c r="B90" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="65"/>
+      <c r="C90" s="67"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -7944,7 +7999,7 @@
       <c r="B91" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="C91" s="65"/>
+      <c r="C91" s="67"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -7953,7 +8008,7 @@
       <c r="B92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="65"/>
+      <c r="C92" s="67"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -7962,7 +8017,7 @@
       <c r="B93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C93" s="65"/>
+      <c r="C93" s="67"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -7971,7 +8026,7 @@
       <c r="B94" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C94" s="65"/>
+      <c r="C94" s="67"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -7980,7 +8035,7 @@
       <c r="B95" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="65"/>
+      <c r="C95" s="67"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -7989,7 +8044,7 @@
       <c r="B96" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C96" s="65"/>
+      <c r="C96" s="67"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -7998,7 +8053,7 @@
       <c r="B97" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C97" s="65"/>
+      <c r="C97" s="67"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8007,7 +8062,7 @@
       <c r="B98" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C98" s="65"/>
+      <c r="C98" s="67"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8016,7 +8071,7 @@
       <c r="B99" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="65"/>
+      <c r="C99" s="67"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8025,7 +8080,7 @@
       <c r="B100" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C100" s="65"/>
+      <c r="C100" s="67"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8034,7 +8089,7 @@
       <c r="B101" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C101" s="65"/>
+      <c r="C101" s="67"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8043,7 +8098,7 @@
       <c r="B102" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="65"/>
+      <c r="C102" s="67"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
@@ -8276,7 +8331,7 @@
       <c r="B141" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="68" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8287,7 +8342,7 @@
       <c r="B142" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C142" s="66"/>
+      <c r="C142" s="68"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
@@ -8296,7 +8351,7 @@
       <c r="B143" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="C143" s="66"/>
+      <c r="C143" s="68"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
       <c r="A144" s="40" t="s">
@@ -8305,7 +8360,7 @@
       <c r="B144" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="C144" s="65" t="s">
+      <c r="C144" s="67" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8316,7 +8371,7 @@
       <c r="B145" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C145" s="65"/>
+      <c r="C145" s="67"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
@@ -8325,7 +8380,7 @@
       <c r="B146" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="65"/>
+      <c r="C146" s="67"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
@@ -8334,7 +8389,7 @@
       <c r="B147" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="65"/>
+      <c r="C147" s="67"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -8343,7 +8398,7 @@
       <c r="B148" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="65"/>
+      <c r="C148" s="67"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
@@ -8352,7 +8407,7 @@
       <c r="B149" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="C149" s="65"/>
+      <c r="C149" s="67"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
@@ -8361,7 +8416,7 @@
       <c r="B150" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="65"/>
+      <c r="C150" s="67"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
@@ -8370,7 +8425,7 @@
       <c r="B151" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C151" s="65"/>
+      <c r="C151" s="67"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
@@ -8379,7 +8434,7 @@
       <c r="B152" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C152" s="65"/>
+      <c r="C152" s="67"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
@@ -8388,7 +8443,7 @@
       <c r="B153" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C153" s="65"/>
+      <c r="C153" s="67"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="40" t="s">
@@ -8397,7 +8452,7 @@
       <c r="B154" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="C154" s="66" t="s">
+      <c r="C154" s="68" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8408,7 +8463,7 @@
       <c r="B155" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C155" s="66"/>
+      <c r="C155" s="68"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8417,7 +8472,7 @@
       <c r="B156" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C156" s="66"/>
+      <c r="C156" s="68"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8426,7 +8481,7 @@
       <c r="B157" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C157" s="66"/>
+      <c r="C157" s="68"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="40" t="s">
@@ -8435,7 +8490,7 @@
       <c r="B158" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="C158" s="65" t="s">
+      <c r="C158" s="67" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8446,7 +8501,7 @@
       <c r="B159" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="C159" s="65"/>
+      <c r="C159" s="67"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
@@ -8455,7 +8510,7 @@
       <c r="B160" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="C160" s="65"/>
+      <c r="C160" s="67"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
@@ -8464,7 +8519,7 @@
       <c r="B161" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C161" s="65"/>
+      <c r="C161" s="67"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
@@ -8473,7 +8528,7 @@
       <c r="B162" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="C162" s="65"/>
+      <c r="C162" s="67"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="40" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -2054,34 +2054,31 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2089,24 +2086,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="1"/>
@@ -2895,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3000,16 +3000,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3022,10 +3022,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="56"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3037,10 +3037,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="56"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="56"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3070,18 +3070,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="56"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3094,12 +3094,12 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="53" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3111,10 +3111,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="55"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3129,10 +3129,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3145,10 +3145,10 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3163,20 +3163,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="55"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
@@ -3197,10 +3197,10 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3215,10 +3215,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3230,22 +3230,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3275,10 +3275,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="55"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3291,10 +3291,10 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3309,20 +3309,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3330,32 +3330,32 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="55"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3370,10 +3370,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3385,10 +3385,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="55"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="55"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3415,124 +3415,124 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="55"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="55"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="55"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="55"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="69"/>
-      <c r="D37" s="55"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="69"/>
-      <c r="D38" s="55"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="71" t="s">
+      <c r="G38" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="69"/>
-      <c r="D39" s="55"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="51" t="s">
         <v>71</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3540,72 +3540,72 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="69"/>
-      <c r="D40" s="55"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="71"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="70" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="55"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="71" t="s">
+      <c r="G42" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="55"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G43" s="51" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3617,10 +3617,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="23" t="s">
         <v>89</v>
       </c>
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3647,10 +3647,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3662,18 +3662,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3686,12 +3686,12 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3703,10 +3703,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="55"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3718,10 +3718,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="55"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3733,10 +3733,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="55"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3748,52 +3748,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="55"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="55"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="55"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="55"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="57" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3805,77 +3805,77 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="55"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="55"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="42" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="55"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="42" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="55"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="51"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="55"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
@@ -3887,10 +3887,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="51"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="55"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3902,20 +3902,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="55"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="55"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
@@ -3927,20 +3927,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="55"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="55"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
@@ -3952,10 +3952,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58" t="s">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="52" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3969,10 +3969,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -3984,30 +3984,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -4019,10 +4019,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -4034,32 +4034,32 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="61" t="s">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="55"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4071,10 +4071,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="55"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4086,10 +4086,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="55"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="23" t="s">
         <v>138</v>
       </c>
@@ -4101,10 +4101,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="55"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="11" t="s">
         <v>140</v>
       </c>
@@ -4119,22 +4119,22 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="55"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="57" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="55"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
@@ -4146,10 +4146,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="55"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
@@ -4162,20 +4162,20 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="55"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="55"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4187,10 +4187,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="55"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4202,90 +4202,90 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="55"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="55"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="55"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="55"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="55"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="55"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="55"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="51"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="55"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="15" t="s">
         <v>154</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="59" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="60" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4302,10 +4302,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="51"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="59"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="60"/>
       <c r="E97" s="11" t="s">
         <v>155</v>
       </c>
@@ -4313,10 +4313,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="51"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="59"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="60"/>
       <c r="E98" s="11" t="s">
         <v>156</v>
       </c>
@@ -4324,10 +4324,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="51"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="59"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="60"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4340,10 +4340,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="51"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="59"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4355,30 +4355,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="51"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="59"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="51"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="59"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="51"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="59" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="60" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4392,10 +4392,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="51"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="59"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="60"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4407,10 +4407,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="51"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="59"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="11" t="s">
         <v>160</v>
       </c>
@@ -4422,10 +4422,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="51"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="59"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="15" t="s">
         <v>161</v>
       </c>
@@ -4437,12 +4437,12 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="51"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51" t="s">
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4454,10 +4454,10 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="51"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="55"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4469,20 +4469,20 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="51"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="55"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="51"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="55"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="57"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4494,10 +4494,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="51"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="55"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4505,10 +4505,10 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="51"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="55"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="11" t="s">
         <v>149</v>
       </c>
@@ -4516,10 +4516,10 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="51"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="55"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="11" t="s">
         <v>150</v>
       </c>
@@ -4527,10 +4527,10 @@
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="51"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="55"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="11" t="s">
         <v>151</v>
       </c>
@@ -4538,10 +4538,10 @@
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="51"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="55"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="11" t="s">
         <v>152</v>
       </c>
@@ -4549,10 +4549,10 @@
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="51"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="55"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4560,12 +4560,12 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="51"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="57" t="s">
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="55"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4577,30 +4577,30 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="51"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="55"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="57"/>
       <c r="E118" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="51"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="55"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="51"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="55"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="23" t="s">
         <v>168</v>
       </c>
@@ -4612,10 +4612,10 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="51"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="55"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="11" t="s">
         <v>170</v>
       </c>
@@ -4627,10 +4627,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="51"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="55"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="57"/>
       <c r="E122" s="11" t="s">
         <v>172</v>
       </c>
@@ -4642,10 +4642,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="51"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="55"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="15" t="s">
         <v>173</v>
       </c>
@@ -4657,12 +4657,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="51"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="57" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="55"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="7" t="s">
         <v>176</v>
       </c>
@@ -4677,10 +4677,10 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="51"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="55"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="11" t="s">
         <v>180</v>
       </c>
@@ -4692,20 +4692,20 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="51"/>
-      <c r="B126" s="51"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="55"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="51"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="55"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="11" t="s">
         <v>183</v>
       </c>
@@ -4717,12 +4717,12 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="51"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="57" t="s">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D128" s="55"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="7" t="s">
         <v>186</v>
       </c>
@@ -4737,10 +4737,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="51"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="55"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="57"/>
       <c r="E129" s="11" t="s">
         <v>190</v>
       </c>
@@ -4752,20 +4752,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="51"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="55"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="51"/>
-      <c r="B131" s="51"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="55"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="15" t="s">
         <v>193</v>
       </c>
@@ -4780,12 +4780,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="51"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="57" t="s">
+      <c r="A132" s="61"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="55"/>
+      <c r="D132" s="57"/>
       <c r="E132" s="7" t="s">
         <v>197</v>
       </c>
@@ -4797,10 +4797,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="51"/>
-      <c r="B133" s="51"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="55"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="57"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4812,10 +4812,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="51"/>
-      <c r="B134" s="51"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="55"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="57"/>
       <c r="E134" s="11" t="s">
         <v>201</v>
       </c>
@@ -4827,10 +4827,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="51"/>
-      <c r="B135" s="51"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="55"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="57"/>
       <c r="E135" s="11" t="s">
         <v>203</v>
       </c>
@@ -4842,59 +4842,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="55"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="57"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="51"/>
-      <c r="B137" s="51"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="55"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="57"/>
       <c r="E137" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="51"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="55"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="57"/>
       <c r="E138" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="51"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="55"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="57"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="51"/>
-      <c r="B140" s="51"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="55"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="57"/>
       <c r="E140" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="51"/>
-      <c r="B141" s="51"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="59" t="s">
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="60" t="s">
         <v>207</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4908,40 +4908,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="59"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="60"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="59"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="60"/>
       <c r="E143" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="51"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="59"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="60"/>
       <c r="E144" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="51"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="59"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="60"/>
       <c r="E145" s="33" t="s">
         <v>209</v>
       </c>
@@ -4953,10 +4953,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="51"/>
-      <c r="B146" s="51"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="59"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="60"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -4968,10 +4968,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="51"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="59"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="60"/>
       <c r="E147" s="15" t="s">
         <v>211</v>
       </c>
@@ -4983,16 +4983,16 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="51" t="s">
+      <c r="A148" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="60" t="s">
+      <c r="C148" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="55"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="7" t="s">
         <v>213</v>
       </c>
@@ -5004,10 +5004,10 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="51"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="55"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="11" t="s">
         <v>214</v>
       </c>
@@ -5019,10 +5019,10 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="51"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="55"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="65"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="11" t="s">
         <v>215</v>
       </c>
@@ -5034,10 +5034,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="51"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="55"/>
+      <c r="A151" s="61"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -5049,18 +5049,18 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="51"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="55"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51" t="s">
+      <c r="A153" s="61"/>
+      <c r="B153" s="61" t="s">
         <v>216</v>
       </c>
       <c r="C153" s="45" t="s">
@@ -5073,12 +5073,12 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="51"/>
-      <c r="B154" s="51"/>
-      <c r="C154" s="52" t="s">
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="55"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5090,10 +5090,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="51"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="55"/>
+      <c r="A155" s="61"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="57"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5108,10 +5108,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="51"/>
-      <c r="B156" s="51"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="55"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="57"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5123,10 +5123,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="51"/>
-      <c r="B157" s="51"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="55"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="57"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5138,52 +5138,52 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="51"/>
-      <c r="B158" s="51"/>
-      <c r="C158" s="52"/>
-      <c r="D158" s="55"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="57"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="51"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="55"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="57"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="51"/>
-      <c r="B160" s="51"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="55"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="51"/>
-      <c r="B161" s="51"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="55"/>
+      <c r="A161" s="61"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="51"/>
-      <c r="B162" s="51"/>
-      <c r="C162" s="63" t="s">
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="55"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
@@ -5195,10 +5195,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="55"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
@@ -5210,20 +5210,20 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="51"/>
-      <c r="B164" s="51"/>
-      <c r="C164" s="63"/>
-      <c r="D164" s="55"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="57"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="51"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="63"/>
-      <c r="D165" s="55"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="64"/>
+      <c r="D165" s="57"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
@@ -5235,20 +5235,20 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="51"/>
-      <c r="B166" s="51"/>
-      <c r="C166" s="63"/>
-      <c r="D166" s="55"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="57"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="51"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="63"/>
-      <c r="D167" s="55"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="57"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
@@ -5260,10 +5260,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="63"/>
-      <c r="D168" s="59" t="s">
+      <c r="A168" s="61"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="60" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5277,10 +5277,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="51"/>
-      <c r="B169" s="51"/>
-      <c r="C169" s="63"/>
-      <c r="D169" s="59"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="60"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5292,30 +5292,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="51"/>
-      <c r="B170" s="51"/>
-      <c r="C170" s="63"/>
-      <c r="D170" s="59"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="60"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="51"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="63"/>
-      <c r="D171" s="59"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="60"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="51"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="59"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="60"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5327,10 +5327,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="51"/>
-      <c r="B173" s="51"/>
-      <c r="C173" s="63"/>
-      <c r="D173" s="59"/>
+      <c r="A173" s="61"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="60"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5342,32 +5342,32 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="51"/>
-      <c r="B174" s="51"/>
-      <c r="C174" s="63"/>
-      <c r="D174" s="59"/>
+      <c r="A174" s="61"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="60"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="51"/>
-      <c r="B175" s="51"/>
-      <c r="C175" s="63"/>
-      <c r="D175" s="59"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="60"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="51"/>
-      <c r="B176" s="51"/>
-      <c r="C176" s="62" t="s">
+      <c r="A176" s="61"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="55"/>
+      <c r="D176" s="57"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
@@ -5379,10 +5379,10 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="51"/>
-      <c r="B177" s="51"/>
-      <c r="C177" s="62"/>
-      <c r="D177" s="55"/>
+      <c r="A177" s="61"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="63"/>
+      <c r="D177" s="57"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
@@ -5394,10 +5394,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="62"/>
-      <c r="D178" s="55"/>
+      <c r="A178" s="61"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="63"/>
+      <c r="D178" s="57"/>
       <c r="E178" s="23" t="s">
         <v>138</v>
       </c>
@@ -5409,10 +5409,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="51"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="62"/>
-      <c r="D179" s="55"/>
+      <c r="A179" s="61"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="63"/>
+      <c r="D179" s="57"/>
       <c r="E179" s="11" t="s">
         <v>140</v>
       </c>
@@ -5427,22 +5427,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="51"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="55"/>
+      <c r="A180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="57"/>
       <c r="E180" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="51"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="62" t="s">
+      <c r="A181" s="61"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D181" s="55"/>
+      <c r="D181" s="57"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5454,10 +5454,10 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="51"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="55"/>
+      <c r="A182" s="61"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="57"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5469,20 +5469,20 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="51"/>
-      <c r="B183" s="51"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="55"/>
+      <c r="A183" s="61"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="63"/>
+      <c r="D183" s="57"/>
       <c r="E183" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="51"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="55"/>
+      <c r="A184" s="61"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="63"/>
+      <c r="D184" s="57"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5494,10 +5494,10 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="51"/>
-      <c r="B185" s="51"/>
-      <c r="C185" s="62"/>
-      <c r="D185" s="55"/>
+      <c r="A185" s="61"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="63"/>
+      <c r="D185" s="57"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5509,80 +5509,80 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="51"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="62"/>
-      <c r="D186" s="55"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="63"/>
+      <c r="D186" s="57"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="51"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="62"/>
-      <c r="D187" s="55"/>
+      <c r="A187" s="61"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="63"/>
+      <c r="D187" s="57"/>
       <c r="E187" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="51"/>
-      <c r="B188" s="51"/>
-      <c r="C188" s="62"/>
-      <c r="D188" s="55"/>
+      <c r="A188" s="61"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="63"/>
+      <c r="D188" s="57"/>
       <c r="E188" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="51"/>
-      <c r="B189" s="51"/>
-      <c r="C189" s="62"/>
-      <c r="D189" s="55"/>
+      <c r="A189" s="61"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="63"/>
+      <c r="D189" s="57"/>
       <c r="E189" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="62"/>
-      <c r="D190" s="55"/>
+      <c r="A190" s="61"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="63"/>
+      <c r="D190" s="57"/>
       <c r="E190" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="51"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="62"/>
-      <c r="D191" s="55"/>
+      <c r="A191" s="61"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="63"/>
+      <c r="D191" s="57"/>
       <c r="E191" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="51"/>
-      <c r="B192" s="51"/>
-      <c r="C192" s="62"/>
-      <c r="D192" s="55"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="63"/>
+      <c r="D192" s="57"/>
       <c r="E192" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="51"/>
-      <c r="B193" s="51"/>
-      <c r="C193" s="62"/>
-      <c r="D193" s="59" t="s">
+      <c r="A193" s="61"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="63"/>
+      <c r="D193" s="60" t="s">
         <v>153</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5599,30 +5599,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="51"/>
-      <c r="B194" s="51"/>
-      <c r="C194" s="62"/>
-      <c r="D194" s="59"/>
+      <c r="A194" s="61"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="63"/>
+      <c r="D194" s="60"/>
       <c r="E194" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="51"/>
-      <c r="B195" s="51"/>
-      <c r="C195" s="62"/>
-      <c r="D195" s="59"/>
+      <c r="A195" s="61"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="63"/>
+      <c r="D195" s="60"/>
       <c r="E195" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="51"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="62"/>
-      <c r="D196" s="59"/>
+      <c r="A196" s="61"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="63"/>
+      <c r="D196" s="60"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5634,10 +5634,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="51"/>
-      <c r="B197" s="51"/>
-      <c r="C197" s="62"/>
-      <c r="D197" s="59"/>
+      <c r="A197" s="61"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="63"/>
+      <c r="D197" s="60"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5649,40 +5649,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="51"/>
-      <c r="B198" s="51"/>
-      <c r="C198" s="62"/>
-      <c r="D198" s="59"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="63"/>
+      <c r="D198" s="60"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="51"/>
-      <c r="B199" s="51"/>
-      <c r="C199" s="62"/>
-      <c r="D199" s="59"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="63"/>
+      <c r="D199" s="60"/>
       <c r="E199" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="51"/>
-      <c r="B200" s="51"/>
-      <c r="C200" s="62"/>
-      <c r="D200" s="59"/>
+      <c r="A200" s="61"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="63"/>
+      <c r="D200" s="60"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="51"/>
-      <c r="B201" s="51"/>
-      <c r="C201" s="62"/>
-      <c r="D201" s="59" t="s">
+      <c r="A201" s="61"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="63"/>
+      <c r="D201" s="60" t="s">
         <v>154</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5696,10 +5696,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="51"/>
-      <c r="B202" s="51"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="59"/>
+      <c r="A202" s="61"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="60"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="51"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="62"/>
-      <c r="D203" s="59"/>
+      <c r="A203" s="61"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="60"/>
       <c r="E203" s="11" t="s">
         <v>160</v>
       </c>
@@ -5726,10 +5726,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="51"/>
-      <c r="B204" s="51"/>
-      <c r="C204" s="62"/>
-      <c r="D204" s="59"/>
+      <c r="A204" s="61"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="60"/>
       <c r="E204" s="15" t="s">
         <v>161</v>
       </c>
@@ -5741,10 +5741,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="51"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="62"/>
-      <c r="D205" s="59" t="s">
+      <c r="A205" s="61"/>
+      <c r="B205" s="61"/>
+      <c r="C205" s="63"/>
+      <c r="D205" s="60" t="s">
         <v>217</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5758,10 +5758,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="51"/>
-      <c r="B206" s="51"/>
-      <c r="C206" s="62"/>
-      <c r="D206" s="59"/>
+      <c r="A206" s="61"/>
+      <c r="B206" s="61"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="60"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5773,10 +5773,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="51"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="62"/>
-      <c r="D207" s="59"/>
+      <c r="A207" s="61"/>
+      <c r="B207" s="61"/>
+      <c r="C207" s="63"/>
+      <c r="D207" s="60"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5788,32 +5788,32 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="51"/>
-      <c r="B208" s="51"/>
-      <c r="C208" s="62"/>
-      <c r="D208" s="59"/>
+      <c r="A208" s="61"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="60"/>
       <c r="E208" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="51"/>
-      <c r="B209" s="51"/>
-      <c r="C209" s="62"/>
-      <c r="D209" s="59"/>
+      <c r="A209" s="61"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="60"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="51"/>
-      <c r="B210" s="51"/>
-      <c r="C210" s="62" t="s">
+      <c r="A210" s="61"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="D210" s="55"/>
+      <c r="D210" s="57"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5825,10 +5825,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="51"/>
-      <c r="B211" s="51"/>
-      <c r="C211" s="62"/>
-      <c r="D211" s="55"/>
+      <c r="A211" s="61"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="57"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5840,20 +5840,20 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="51"/>
-      <c r="B212" s="51"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="55"/>
+      <c r="A212" s="61"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="57"/>
       <c r="E212" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="51"/>
-      <c r="B213" s="51"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="55"/>
+      <c r="A213" s="61"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="57"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5865,10 +5865,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="51"/>
-      <c r="B214" s="51"/>
-      <c r="C214" s="62"/>
-      <c r="D214" s="55"/>
+      <c r="A214" s="61"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="63"/>
+      <c r="D214" s="57"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5880,62 +5880,62 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="51"/>
-      <c r="B215" s="51"/>
-      <c r="C215" s="62"/>
-      <c r="D215" s="55"/>
+      <c r="A215" s="61"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="63"/>
+      <c r="D215" s="57"/>
       <c r="E215" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="51"/>
-      <c r="B216" s="51"/>
-      <c r="C216" s="62"/>
-      <c r="D216" s="55"/>
+      <c r="A216" s="61"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="63"/>
+      <c r="D216" s="57"/>
       <c r="E216" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="51"/>
-      <c r="B217" s="51"/>
-      <c r="C217" s="62"/>
-      <c r="D217" s="55"/>
+      <c r="A217" s="61"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="63"/>
+      <c r="D217" s="57"/>
       <c r="E217" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="51"/>
-      <c r="B218" s="51"/>
-      <c r="C218" s="62"/>
-      <c r="D218" s="55"/>
+      <c r="A218" s="61"/>
+      <c r="B218" s="61"/>
+      <c r="C218" s="63"/>
+      <c r="D218" s="57"/>
       <c r="E218" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="51"/>
-      <c r="B219" s="51"/>
-      <c r="C219" s="62"/>
-      <c r="D219" s="55"/>
+      <c r="A219" s="61"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="63"/>
+      <c r="D219" s="57"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="51"/>
-      <c r="B220" s="51"/>
-      <c r="C220" s="62" t="s">
+      <c r="A220" s="61"/>
+      <c r="B220" s="61"/>
+      <c r="C220" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D220" s="55"/>
+      <c r="D220" s="57"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5947,30 +5947,30 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
-      <c r="C221" s="62"/>
-      <c r="D221" s="55"/>
+      <c r="A221" s="61"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="57"/>
       <c r="E221" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="51"/>
-      <c r="B222" s="51"/>
-      <c r="C222" s="62"/>
-      <c r="D222" s="55"/>
+      <c r="A222" s="61"/>
+      <c r="B222" s="61"/>
+      <c r="C222" s="63"/>
+      <c r="D222" s="57"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="51"/>
-      <c r="B223" s="51"/>
-      <c r="C223" s="62"/>
-      <c r="D223" s="55"/>
+      <c r="A223" s="61"/>
+      <c r="B223" s="61"/>
+      <c r="C223" s="63"/>
+      <c r="D223" s="57"/>
       <c r="E223" s="23" t="s">
         <v>168</v>
       </c>
@@ -5982,10 +5982,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="51"/>
-      <c r="B224" s="51"/>
-      <c r="C224" s="62"/>
-      <c r="D224" s="55"/>
+      <c r="A224" s="61"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="63"/>
+      <c r="D224" s="57"/>
       <c r="E224" s="11" t="s">
         <v>170</v>
       </c>
@@ -5997,10 +5997,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="51"/>
-      <c r="B225" s="51"/>
-      <c r="C225" s="62"/>
-      <c r="D225" s="55"/>
+      <c r="A225" s="61"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="63"/>
+      <c r="D225" s="57"/>
       <c r="E225" s="11" t="s">
         <v>172</v>
       </c>
@@ -6012,10 +6012,10 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="51"/>
-      <c r="B226" s="51"/>
-      <c r="C226" s="62"/>
-      <c r="D226" s="55"/>
+      <c r="A226" s="61"/>
+      <c r="B226" s="61"/>
+      <c r="C226" s="63"/>
+      <c r="D226" s="57"/>
       <c r="E226" s="15" t="s">
         <v>173</v>
       </c>
@@ -6027,12 +6027,12 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="51"/>
-      <c r="B227" s="51"/>
-      <c r="C227" s="62" t="s">
+      <c r="A227" s="61"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="D227" s="55"/>
+      <c r="D227" s="57"/>
       <c r="E227" s="7" t="s">
         <v>176</v>
       </c>
@@ -6047,10 +6047,10 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="51"/>
-      <c r="B228" s="51"/>
-      <c r="C228" s="62"/>
-      <c r="D228" s="55"/>
+      <c r="A228" s="61"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="63"/>
+      <c r="D228" s="57"/>
       <c r="E228" s="11" t="s">
         <v>180</v>
       </c>
@@ -6062,20 +6062,20 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="51"/>
-      <c r="B229" s="51"/>
-      <c r="C229" s="62"/>
-      <c r="D229" s="55"/>
+      <c r="A229" s="61"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="63"/>
+      <c r="D229" s="57"/>
       <c r="E229" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="51"/>
-      <c r="B230" s="51"/>
-      <c r="C230" s="62"/>
-      <c r="D230" s="55"/>
+      <c r="A230" s="61"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="63"/>
+      <c r="D230" s="57"/>
       <c r="E230" s="15" t="s">
         <v>183</v>
       </c>
@@ -6087,12 +6087,12 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="51"/>
-      <c r="B231" s="51"/>
-      <c r="C231" s="62" t="s">
+      <c r="A231" s="61"/>
+      <c r="B231" s="61"/>
+      <c r="C231" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="D231" s="55"/>
+      <c r="D231" s="57"/>
       <c r="E231" s="7" t="s">
         <v>186</v>
       </c>
@@ -6107,10 +6107,10 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="51"/>
-      <c r="B232" s="51"/>
-      <c r="C232" s="62"/>
-      <c r="D232" s="55"/>
+      <c r="A232" s="61"/>
+      <c r="B232" s="61"/>
+      <c r="C232" s="63"/>
+      <c r="D232" s="57"/>
       <c r="E232" s="11" t="s">
         <v>190</v>
       </c>
@@ -6122,20 +6122,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="51"/>
-      <c r="B233" s="51"/>
-      <c r="C233" s="62"/>
-      <c r="D233" s="55"/>
+      <c r="A233" s="61"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="57"/>
       <c r="E233" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="51"/>
-      <c r="B234" s="51"/>
-      <c r="C234" s="62"/>
-      <c r="D234" s="55"/>
+      <c r="A234" s="61"/>
+      <c r="B234" s="61"/>
+      <c r="C234" s="63"/>
+      <c r="D234" s="57"/>
       <c r="E234" s="15" t="s">
         <v>193</v>
       </c>
@@ -6150,12 +6150,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="51"/>
-      <c r="B235" s="51"/>
-      <c r="C235" s="65" t="s">
+      <c r="A235" s="61"/>
+      <c r="B235" s="61"/>
+      <c r="C235" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="D235" s="55"/>
+      <c r="D235" s="57"/>
       <c r="E235" s="7" t="s">
         <v>197</v>
       </c>
@@ -6167,10 +6167,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="51"/>
-      <c r="B236" s="51"/>
-      <c r="C236" s="65"/>
-      <c r="D236" s="55"/>
+      <c r="A236" s="61"/>
+      <c r="B236" s="61"/>
+      <c r="C236" s="59"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6182,10 +6182,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="51"/>
-      <c r="B237" s="51"/>
-      <c r="C237" s="65"/>
-      <c r="D237" s="55"/>
+      <c r="A237" s="61"/>
+      <c r="B237" s="61"/>
+      <c r="C237" s="59"/>
+      <c r="D237" s="57"/>
       <c r="E237" s="11" t="s">
         <v>201</v>
       </c>
@@ -6197,10 +6197,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="51"/>
-      <c r="B238" s="51"/>
-      <c r="C238" s="65"/>
-      <c r="D238" s="55"/>
+      <c r="A238" s="61"/>
+      <c r="B238" s="61"/>
+      <c r="C238" s="59"/>
+      <c r="D238" s="57"/>
       <c r="E238" s="11" t="s">
         <v>203</v>
       </c>
@@ -6212,50 +6212,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="51"/>
-      <c r="B239" s="51"/>
-      <c r="C239" s="65"/>
-      <c r="D239" s="55"/>
+      <c r="A239" s="61"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="51"/>
-      <c r="B240" s="51"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="55"/>
+      <c r="A240" s="61"/>
+      <c r="B240" s="61"/>
+      <c r="C240" s="59"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="51"/>
-      <c r="B241" s="51"/>
-      <c r="C241" s="65"/>
-      <c r="D241" s="55"/>
+      <c r="A241" s="61"/>
+      <c r="B241" s="61"/>
+      <c r="C241" s="59"/>
+      <c r="D241" s="57"/>
       <c r="E241" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="51"/>
-      <c r="B242" s="51"/>
-      <c r="C242" s="65"/>
-      <c r="D242" s="55"/>
+      <c r="A242" s="61"/>
+      <c r="B242" s="61"/>
+      <c r="C242" s="59"/>
+      <c r="D242" s="57"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="51"/>
-      <c r="B243" s="51"/>
-      <c r="C243" s="65"/>
-      <c r="D243" s="55"/>
+      <c r="A243" s="61"/>
+      <c r="B243" s="61"/>
+      <c r="C243" s="59"/>
+      <c r="D243" s="57"/>
       <c r="E243" s="32" t="s">
         <v>207</v>
       </c>
@@ -6267,10 +6267,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="51"/>
-      <c r="B244" s="51"/>
-      <c r="C244" s="65"/>
-      <c r="D244" s="59" t="s">
+      <c r="A244" s="61"/>
+      <c r="B244" s="61"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="60" t="s">
         <v>207</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6284,40 +6284,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="51"/>
-      <c r="B245" s="51"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="59"/>
+      <c r="A245" s="61"/>
+      <c r="B245" s="61"/>
+      <c r="C245" s="59"/>
+      <c r="D245" s="60"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="51"/>
-      <c r="B246" s="51"/>
-      <c r="C246" s="65"/>
-      <c r="D246" s="59"/>
+      <c r="A246" s="61"/>
+      <c r="B246" s="61"/>
+      <c r="C246" s="59"/>
+      <c r="D246" s="60"/>
       <c r="E246" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="51"/>
-      <c r="B247" s="51"/>
-      <c r="C247" s="65"/>
-      <c r="D247" s="59"/>
+      <c r="A247" s="61"/>
+      <c r="B247" s="61"/>
+      <c r="C247" s="59"/>
+      <c r="D247" s="60"/>
       <c r="E247" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="51"/>
-      <c r="B248" s="51"/>
-      <c r="C248" s="65"/>
-      <c r="D248" s="59"/>
+      <c r="A248" s="61"/>
+      <c r="B248" s="61"/>
+      <c r="C248" s="59"/>
+      <c r="D248" s="60"/>
       <c r="E248" s="23" t="s">
         <v>224</v>
       </c>
@@ -6329,10 +6329,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="51"/>
-      <c r="B249" s="51"/>
-      <c r="C249" s="65"/>
-      <c r="D249" s="59"/>
+      <c r="A249" s="61"/>
+      <c r="B249" s="61"/>
+      <c r="C249" s="59"/>
+      <c r="D249" s="60"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6344,12 +6344,12 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="51"/>
-      <c r="B250" s="51"/>
-      <c r="C250" s="57" t="s">
+      <c r="A250" s="61"/>
+      <c r="B250" s="61"/>
+      <c r="C250" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="D250" s="55"/>
+      <c r="D250" s="57"/>
       <c r="E250" s="36" t="s">
         <v>226</v>
       </c>
@@ -6364,10 +6364,10 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="51"/>
-      <c r="B251" s="51"/>
-      <c r="C251" s="57"/>
-      <c r="D251" s="55"/>
+      <c r="A251" s="61"/>
+      <c r="B251" s="61"/>
+      <c r="C251" s="54"/>
+      <c r="D251" s="57"/>
       <c r="E251" s="11" t="s">
         <v>230</v>
       </c>
@@ -6379,10 +6379,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="51"/>
-      <c r="B252" s="51"/>
-      <c r="C252" s="57"/>
-      <c r="D252" s="55"/>
+      <c r="A252" s="61"/>
+      <c r="B252" s="61"/>
+      <c r="C252" s="54"/>
+      <c r="D252" s="57"/>
       <c r="E252" s="11" t="s">
         <v>232</v>
       </c>
@@ -6394,10 +6394,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="51"/>
-      <c r="B253" s="51"/>
-      <c r="C253" s="57"/>
-      <c r="D253" s="55"/>
+      <c r="A253" s="61"/>
+      <c r="B253" s="61"/>
+      <c r="C253" s="54"/>
+      <c r="D253" s="57"/>
       <c r="E253" s="11" t="s">
         <v>234</v>
       </c>
@@ -6409,10 +6409,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="51"/>
-      <c r="B254" s="51"/>
-      <c r="C254" s="57"/>
-      <c r="D254" s="55"/>
+      <c r="A254" s="61"/>
+      <c r="B254" s="61"/>
+      <c r="C254" s="54"/>
+      <c r="D254" s="57"/>
       <c r="E254" s="11" t="s">
         <v>236</v>
       </c>
@@ -6424,10 +6424,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="51"/>
-      <c r="B255" s="51"/>
-      <c r="C255" s="57"/>
-      <c r="D255" s="55"/>
+      <c r="A255" s="61"/>
+      <c r="B255" s="61"/>
+      <c r="C255" s="54"/>
+      <c r="D255" s="57"/>
       <c r="E255" s="15" t="s">
         <v>238</v>
       </c>
@@ -6439,10 +6439,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="51"/>
-      <c r="B256" s="51"/>
-      <c r="C256" s="57"/>
-      <c r="D256" s="59" t="s">
+      <c r="A256" s="61"/>
+      <c r="B256" s="61"/>
+      <c r="C256" s="54"/>
+      <c r="D256" s="60" t="s">
         <v>240</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6456,30 +6456,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="51"/>
-      <c r="B257" s="51"/>
-      <c r="C257" s="57"/>
-      <c r="D257" s="59"/>
+      <c r="A257" s="61"/>
+      <c r="B257" s="61"/>
+      <c r="C257" s="54"/>
+      <c r="D257" s="60"/>
       <c r="E257" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="51"/>
-      <c r="B258" s="51"/>
-      <c r="C258" s="57"/>
-      <c r="D258" s="59"/>
+      <c r="A258" s="61"/>
+      <c r="B258" s="61"/>
+      <c r="C258" s="54"/>
+      <c r="D258" s="60"/>
       <c r="E258" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="51"/>
-      <c r="B259" s="51"/>
-      <c r="C259" s="57"/>
-      <c r="D259" s="59"/>
+      <c r="A259" s="61"/>
+      <c r="B259" s="61"/>
+      <c r="C259" s="54"/>
+      <c r="D259" s="60"/>
       <c r="E259" s="11" t="s">
         <v>245</v>
       </c>
@@ -6491,10 +6491,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="51"/>
-      <c r="B260" s="51"/>
-      <c r="C260" s="57"/>
-      <c r="D260" s="59"/>
+      <c r="A260" s="61"/>
+      <c r="B260" s="61"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="60"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6506,50 +6506,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="51"/>
-      <c r="B261" s="51"/>
-      <c r="C261" s="57"/>
-      <c r="D261" s="59"/>
+      <c r="A261" s="61"/>
+      <c r="B261" s="61"/>
+      <c r="C261" s="54"/>
+      <c r="D261" s="60"/>
       <c r="E261" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="51"/>
-      <c r="B262" s="51"/>
-      <c r="C262" s="57"/>
-      <c r="D262" s="59"/>
+      <c r="A262" s="61"/>
+      <c r="B262" s="61"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="60"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="51"/>
-      <c r="B263" s="51"/>
-      <c r="C263" s="57"/>
-      <c r="D263" s="59"/>
+      <c r="A263" s="61"/>
+      <c r="B263" s="61"/>
+      <c r="C263" s="54"/>
+      <c r="D263" s="60"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="51"/>
-      <c r="B264" s="51"/>
-      <c r="C264" s="57"/>
-      <c r="D264" s="59"/>
+      <c r="A264" s="61"/>
+      <c r="B264" s="61"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="60"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="51"/>
-      <c r="B265" s="51"/>
-      <c r="C265" s="57"/>
-      <c r="D265" s="59" t="s">
+      <c r="A265" s="61"/>
+      <c r="B265" s="61"/>
+      <c r="C265" s="54"/>
+      <c r="D265" s="60" t="s">
         <v>249</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6563,20 +6563,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="51"/>
-      <c r="B266" s="51"/>
-      <c r="C266" s="57"/>
-      <c r="D266" s="59"/>
+      <c r="A266" s="61"/>
+      <c r="B266" s="61"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="60"/>
       <c r="E266" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="51"/>
-      <c r="B267" s="51"/>
-      <c r="C267" s="57"/>
-      <c r="D267" s="59"/>
+      <c r="A267" s="61"/>
+      <c r="B267" s="61"/>
+      <c r="C267" s="54"/>
+      <c r="D267" s="60"/>
       <c r="E267" s="23" t="s">
         <v>251</v>
       </c>
@@ -6588,10 +6588,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="51"/>
-      <c r="B268" s="51"/>
-      <c r="C268" s="57"/>
-      <c r="D268" s="59"/>
+      <c r="A268" s="61"/>
+      <c r="B268" s="61"/>
+      <c r="C268" s="54"/>
+      <c r="D268" s="60"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6603,10 +6603,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="51"/>
-      <c r="B269" s="51"/>
-      <c r="C269" s="57"/>
-      <c r="D269" s="59"/>
+      <c r="A269" s="61"/>
+      <c r="B269" s="61"/>
+      <c r="C269" s="54"/>
+      <c r="D269" s="60"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6618,30 +6618,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="51"/>
-      <c r="B270" s="51"/>
-      <c r="C270" s="57"/>
-      <c r="D270" s="59"/>
+      <c r="A270" s="61"/>
+      <c r="B270" s="61"/>
+      <c r="C270" s="54"/>
+      <c r="D270" s="60"/>
       <c r="E270" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="51"/>
-      <c r="B271" s="51"/>
-      <c r="C271" s="57"/>
-      <c r="D271" s="59"/>
+      <c r="A271" s="61"/>
+      <c r="B271" s="61"/>
+      <c r="C271" s="54"/>
+      <c r="D271" s="60"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="51"/>
-      <c r="B272" s="51"/>
-      <c r="C272" s="57"/>
-      <c r="D272" s="59" t="s">
+      <c r="A272" s="61"/>
+      <c r="B272" s="61"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="60" t="s">
         <v>254</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6655,10 +6655,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="51"/>
-      <c r="B273" s="51"/>
-      <c r="C273" s="57"/>
-      <c r="D273" s="59"/>
+      <c r="A273" s="61"/>
+      <c r="B273" s="61"/>
+      <c r="C273" s="54"/>
+      <c r="D273" s="60"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6670,10 +6670,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="51"/>
-      <c r="B274" s="51"/>
-      <c r="C274" s="57"/>
-      <c r="D274" s="59"/>
+      <c r="A274" s="61"/>
+      <c r="B274" s="61"/>
+      <c r="C274" s="54"/>
+      <c r="D274" s="60"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6685,10 +6685,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="51"/>
-      <c r="B275" s="51"/>
-      <c r="C275" s="57"/>
-      <c r="D275" s="59"/>
+      <c r="A275" s="61"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="54"/>
+      <c r="D275" s="60"/>
       <c r="E275" s="11" t="s">
         <v>257</v>
       </c>
@@ -6700,80 +6700,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="51"/>
-      <c r="B276" s="51"/>
-      <c r="C276" s="57"/>
-      <c r="D276" s="59"/>
+      <c r="A276" s="61"/>
+      <c r="B276" s="61"/>
+      <c r="C276" s="54"/>
+      <c r="D276" s="60"/>
       <c r="E276" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="51"/>
-      <c r="B277" s="51"/>
-      <c r="C277" s="57"/>
-      <c r="D277" s="59"/>
+      <c r="A277" s="61"/>
+      <c r="B277" s="61"/>
+      <c r="C277" s="54"/>
+      <c r="D277" s="60"/>
       <c r="E277" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="51"/>
-      <c r="B278" s="51"/>
-      <c r="C278" s="57"/>
-      <c r="D278" s="59"/>
+      <c r="A278" s="61"/>
+      <c r="B278" s="61"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="60"/>
       <c r="E278" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="51"/>
-      <c r="B279" s="51"/>
-      <c r="C279" s="57"/>
-      <c r="D279" s="59"/>
+      <c r="A279" s="61"/>
+      <c r="B279" s="61"/>
+      <c r="C279" s="54"/>
+      <c r="D279" s="60"/>
       <c r="E279" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="51"/>
-      <c r="B280" s="51"/>
-      <c r="C280" s="57"/>
-      <c r="D280" s="59"/>
+      <c r="A280" s="61"/>
+      <c r="B280" s="61"/>
+      <c r="C280" s="54"/>
+      <c r="D280" s="60"/>
       <c r="E280" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="57"/>
-      <c r="D281" s="59"/>
+      <c r="A281" s="61"/>
+      <c r="B281" s="61"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="60"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="51"/>
-      <c r="B282" s="51"/>
-      <c r="C282" s="57"/>
-      <c r="D282" s="59"/>
+      <c r="A282" s="61"/>
+      <c r="B282" s="61"/>
+      <c r="C282" s="54"/>
+      <c r="D282" s="60"/>
       <c r="E282" s="15" t="s">
         <v>259</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="51"/>
-      <c r="B283" s="51"/>
-      <c r="C283" s="57"/>
-      <c r="D283" s="59" t="s">
+      <c r="A283" s="61"/>
+      <c r="B283" s="61"/>
+      <c r="C283" s="54"/>
+      <c r="D283" s="60" t="s">
         <v>259</v>
       </c>
       <c r="E283" s="36" t="s">
@@ -6787,30 +6787,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="51"/>
-      <c r="B284" s="51"/>
-      <c r="C284" s="57"/>
-      <c r="D284" s="59"/>
+      <c r="A284" s="61"/>
+      <c r="B284" s="61"/>
+      <c r="C284" s="54"/>
+      <c r="D284" s="60"/>
       <c r="E284" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="51"/>
-      <c r="B285" s="51"/>
-      <c r="C285" s="57"/>
-      <c r="D285" s="59"/>
+      <c r="A285" s="61"/>
+      <c r="B285" s="61"/>
+      <c r="C285" s="54"/>
+      <c r="D285" s="60"/>
       <c r="E285" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="51"/>
-      <c r="B286" s="51"/>
-      <c r="C286" s="57"/>
-      <c r="D286" s="59"/>
+      <c r="A286" s="61"/>
+      <c r="B286" s="61"/>
+      <c r="C286" s="54"/>
+      <c r="D286" s="60"/>
       <c r="E286" s="11" t="s">
         <v>264</v>
       </c>
@@ -6822,20 +6822,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="51"/>
-      <c r="B287" s="51"/>
-      <c r="C287" s="57"/>
-      <c r="D287" s="59"/>
+      <c r="A287" s="61"/>
+      <c r="B287" s="61"/>
+      <c r="C287" s="54"/>
+      <c r="D287" s="60"/>
       <c r="E287" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="51"/>
-      <c r="B288" s="51"/>
-      <c r="C288" s="57"/>
-      <c r="D288" s="59"/>
+      <c r="A288" s="61"/>
+      <c r="B288" s="61"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="60"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6847,34 +6847,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="51"/>
-      <c r="B289" s="51"/>
-      <c r="C289" s="57"/>
-      <c r="D289" s="59"/>
+      <c r="A289" s="61"/>
+      <c r="B289" s="61"/>
+      <c r="C289" s="54"/>
+      <c r="D289" s="60"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="51"/>
-      <c r="B290" s="51"/>
-      <c r="C290" s="57"/>
-      <c r="D290" s="59"/>
+      <c r="A290" s="61"/>
+      <c r="B290" s="61"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="60"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="57" t="s">
+      <c r="A291" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="57" t="s">
+      <c r="B291" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="64"/>
-      <c r="D291" s="55"/>
+      <c r="C291" s="58"/>
+      <c r="D291" s="57"/>
       <c r="E291" s="7" t="s">
         <v>269</v>
       </c>
@@ -6886,10 +6886,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="57"/>
-      <c r="B292" s="57"/>
-      <c r="C292" s="64"/>
-      <c r="D292" s="55"/>
+      <c r="A292" s="54"/>
+      <c r="B292" s="54"/>
+      <c r="C292" s="58"/>
+      <c r="D292" s="57"/>
       <c r="E292" s="11" t="s">
         <v>271</v>
       </c>
@@ -6901,10 +6901,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="57"/>
-      <c r="B293" s="57"/>
-      <c r="C293" s="64"/>
-      <c r="D293" s="55"/>
+      <c r="A293" s="54"/>
+      <c r="B293" s="54"/>
+      <c r="C293" s="58"/>
+      <c r="D293" s="57"/>
       <c r="E293" s="11" t="s">
         <v>273</v>
       </c>
@@ -6916,10 +6916,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="57"/>
-      <c r="B294" s="57"/>
-      <c r="C294" s="64"/>
-      <c r="D294" s="55"/>
+      <c r="A294" s="54"/>
+      <c r="B294" s="54"/>
+      <c r="C294" s="58"/>
+      <c r="D294" s="57"/>
       <c r="E294" s="11" t="s">
         <v>275</v>
       </c>
@@ -6931,22 +6931,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="57"/>
-      <c r="B295" s="57"/>
-      <c r="C295" s="64"/>
-      <c r="D295" s="55"/>
+      <c r="A295" s="54"/>
+      <c r="B295" s="54"/>
+      <c r="C295" s="58"/>
+      <c r="D295" s="57"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="57"/>
-      <c r="B296" s="57" t="s">
+      <c r="A296" s="54"/>
+      <c r="B296" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="64"/>
-      <c r="D296" s="55"/>
+      <c r="C296" s="58"/>
+      <c r="D296" s="57"/>
       <c r="E296" s="7" t="s">
         <v>279</v>
       </c>
@@ -6958,10 +6958,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="57"/>
-      <c r="B297" s="57"/>
-      <c r="C297" s="64"/>
-      <c r="D297" s="55"/>
+      <c r="A297" s="54"/>
+      <c r="B297" s="54"/>
+      <c r="C297" s="58"/>
+      <c r="D297" s="57"/>
       <c r="E297" s="11" t="s">
         <v>281</v>
       </c>
@@ -6973,10 +6973,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="57"/>
-      <c r="B298" s="57"/>
-      <c r="C298" s="64"/>
-      <c r="D298" s="55"/>
+      <c r="A298" s="54"/>
+      <c r="B298" s="54"/>
+      <c r="C298" s="58"/>
+      <c r="D298" s="57"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -6988,10 +6988,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="57"/>
-      <c r="B299" s="57"/>
-      <c r="C299" s="64"/>
-      <c r="D299" s="55"/>
+      <c r="A299" s="54"/>
+      <c r="B299" s="54"/>
+      <c r="C299" s="58"/>
+      <c r="D299" s="57"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7003,34 +7003,34 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="57"/>
-      <c r="B300" s="57"/>
-      <c r="C300" s="64"/>
-      <c r="D300" s="55"/>
+      <c r="A300" s="54"/>
+      <c r="B300" s="54"/>
+      <c r="C300" s="58"/>
+      <c r="D300" s="57"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="57"/>
-      <c r="B301" s="57"/>
-      <c r="C301" s="64"/>
-      <c r="D301" s="55"/>
+      <c r="A301" s="54"/>
+      <c r="B301" s="54"/>
+      <c r="C301" s="58"/>
+      <c r="D301" s="57"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="57" t="s">
+      <c r="A302" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="52" t="s">
+      <c r="B302" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="54"/>
-      <c r="D302" s="55"/>
+      <c r="C302" s="56"/>
+      <c r="D302" s="57"/>
       <c r="E302" s="7" t="s">
         <v>287</v>
       </c>
@@ -7042,10 +7042,10 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="57"/>
-      <c r="B303" s="52"/>
-      <c r="C303" s="54"/>
-      <c r="D303" s="55"/>
+      <c r="A303" s="54"/>
+      <c r="B303" s="55"/>
+      <c r="C303" s="56"/>
+      <c r="D303" s="57"/>
       <c r="E303" s="11" t="s">
         <v>289</v>
       </c>
@@ -7057,10 +7057,10 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="57"/>
-      <c r="B304" s="52"/>
-      <c r="C304" s="54"/>
-      <c r="D304" s="55"/>
+      <c r="A304" s="54"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="56"/>
+      <c r="D304" s="57"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7072,10 +7072,10 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="57"/>
-      <c r="B305" s="52"/>
-      <c r="C305" s="54"/>
-      <c r="D305" s="55"/>
+      <c r="A305" s="54"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="56"/>
+      <c r="D305" s="57"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7087,18 +7087,18 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="57"/>
-      <c r="B306" s="52"/>
-      <c r="C306" s="54"/>
-      <c r="D306" s="55"/>
+      <c r="A306" s="54"/>
+      <c r="B306" s="55"/>
+      <c r="C306" s="56"/>
+      <c r="D306" s="57"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="57"/>
-      <c r="B307" s="57" t="s">
+      <c r="A307" s="54"/>
+      <c r="B307" s="54" t="s">
         <v>293</v>
       </c>
       <c r="C307" s="47" t="s">
@@ -7111,12 +7111,12 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="57"/>
-      <c r="B308" s="57"/>
-      <c r="C308" s="57" t="s">
+      <c r="A308" s="54"/>
+      <c r="B308" s="54"/>
+      <c r="C308" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="D308" s="55"/>
+      <c r="D308" s="57"/>
       <c r="E308" s="11" t="s">
         <v>295</v>
       </c>
@@ -7128,10 +7128,10 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="57"/>
-      <c r="B309" s="57"/>
-      <c r="C309" s="57"/>
-      <c r="D309" s="55"/>
+      <c r="A309" s="54"/>
+      <c r="B309" s="54"/>
+      <c r="C309" s="54"/>
+      <c r="D309" s="57"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
@@ -7143,10 +7143,10 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="57"/>
-      <c r="B310" s="57"/>
-      <c r="C310" s="57"/>
-      <c r="D310" s="55"/>
+      <c r="A310" s="54"/>
+      <c r="B310" s="54"/>
+      <c r="C310" s="54"/>
+      <c r="D310" s="57"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
@@ -7158,42 +7158,42 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="57"/>
-      <c r="B311" s="57"/>
-      <c r="C311" s="57"/>
-      <c r="D311" s="55"/>
+      <c r="A311" s="54"/>
+      <c r="B311" s="54"/>
+      <c r="C311" s="54"/>
+      <c r="D311" s="57"/>
       <c r="E311" s="11" t="s">
         <v>297</v>
       </c>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="57"/>
-      <c r="B312" s="57"/>
-      <c r="C312" s="57"/>
-      <c r="D312" s="55"/>
+      <c r="A312" s="54"/>
+      <c r="B312" s="54"/>
+      <c r="C312" s="54"/>
+      <c r="D312" s="57"/>
       <c r="E312" s="11" t="s">
         <v>298</v>
       </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="57"/>
-      <c r="B313" s="57"/>
-      <c r="C313" s="57"/>
-      <c r="D313" s="55"/>
+      <c r="A313" s="54"/>
+      <c r="B313" s="54"/>
+      <c r="C313" s="54"/>
+      <c r="D313" s="57"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="57"/>
-      <c r="B314" s="57"/>
-      <c r="C314" s="57" t="s">
+      <c r="A314" s="54"/>
+      <c r="B314" s="54"/>
+      <c r="C314" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D314" s="55"/>
+      <c r="D314" s="57"/>
       <c r="E314" s="7" t="s">
         <v>218</v>
       </c>
@@ -7205,10 +7205,10 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="57"/>
-      <c r="B315" s="57"/>
-      <c r="C315" s="57"/>
-      <c r="D315" s="55"/>
+      <c r="A315" s="54"/>
+      <c r="B315" s="54"/>
+      <c r="C315" s="54"/>
+      <c r="D315" s="57"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
@@ -7220,10 +7220,10 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="57"/>
-      <c r="B316" s="57"/>
-      <c r="C316" s="57"/>
-      <c r="D316" s="55"/>
+      <c r="A316" s="54"/>
+      <c r="B316" s="54"/>
+      <c r="C316" s="54"/>
+      <c r="D316" s="57"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
@@ -7235,44 +7235,44 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="57"/>
-      <c r="B317" s="57"/>
-      <c r="C317" s="57"/>
-      <c r="D317" s="55"/>
+      <c r="A317" s="54"/>
+      <c r="B317" s="54"/>
+      <c r="C317" s="54"/>
+      <c r="D317" s="57"/>
       <c r="E317" s="11" t="s">
         <v>300</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="57"/>
-      <c r="B318" s="57"/>
-      <c r="C318" s="57"/>
-      <c r="D318" s="55"/>
+      <c r="A318" s="54"/>
+      <c r="B318" s="54"/>
+      <c r="C318" s="54"/>
+      <c r="D318" s="57"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="57"/>
-      <c r="B319" s="57"/>
-      <c r="C319" s="57"/>
-      <c r="D319" s="55"/>
+      <c r="A319" s="54"/>
+      <c r="B319" s="54"/>
+      <c r="C319" s="54"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="57" t="s">
+      <c r="A320" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="52" t="s">
+      <c r="B320" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="54"/>
-      <c r="D320" s="55"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="57"/>
       <c r="E320" s="7" t="s">
         <v>303</v>
       </c>
@@ -7284,10 +7284,10 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="57"/>
-      <c r="B321" s="52"/>
-      <c r="C321" s="54"/>
-      <c r="D321" s="55"/>
+      <c r="A321" s="54"/>
+      <c r="B321" s="55"/>
+      <c r="C321" s="56"/>
+      <c r="D321" s="57"/>
       <c r="E321" s="11" t="s">
         <v>305</v>
       </c>
@@ -7299,10 +7299,10 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="57"/>
-      <c r="B322" s="52"/>
-      <c r="C322" s="54"/>
-      <c r="D322" s="55"/>
+      <c r="A322" s="54"/>
+      <c r="B322" s="55"/>
+      <c r="C322" s="56"/>
+      <c r="D322" s="57"/>
       <c r="E322" s="11" t="s">
         <v>307</v>
       </c>
@@ -7314,10 +7314,10 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="57"/>
-      <c r="B323" s="52"/>
-      <c r="C323" s="54"/>
-      <c r="D323" s="55"/>
+      <c r="A323" s="54"/>
+      <c r="B323" s="55"/>
+      <c r="C323" s="56"/>
+      <c r="D323" s="57"/>
       <c r="E323" s="11" t="s">
         <v>309</v>
       </c>
@@ -7329,18 +7329,18 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="57"/>
-      <c r="B324" s="52"/>
-      <c r="C324" s="54"/>
-      <c r="D324" s="55"/>
+      <c r="A324" s="54"/>
+      <c r="B324" s="55"/>
+      <c r="C324" s="56"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="57"/>
-      <c r="B325" s="57" t="s">
+      <c r="A325" s="54"/>
+      <c r="B325" s="54" t="s">
         <v>311</v>
       </c>
       <c r="C325" s="47" t="s">
@@ -7353,12 +7353,12 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="57"/>
-      <c r="B326" s="57"/>
-      <c r="C326" s="57" t="s">
+      <c r="A326" s="54"/>
+      <c r="B326" s="54"/>
+      <c r="C326" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D326" s="55"/>
+      <c r="D326" s="57"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
@@ -7370,82 +7370,82 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="57"/>
-      <c r="B327" s="57"/>
-      <c r="C327" s="57"/>
-      <c r="D327" s="55"/>
+      <c r="A327" s="54"/>
+      <c r="B327" s="54"/>
+      <c r="C327" s="54"/>
+      <c r="D327" s="57"/>
       <c r="E327" s="11" t="s">
         <v>314</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="57"/>
-      <c r="B328" s="57"/>
-      <c r="C328" s="57"/>
-      <c r="D328" s="55"/>
+      <c r="A328" s="54"/>
+      <c r="B328" s="54"/>
+      <c r="C328" s="54"/>
+      <c r="D328" s="57"/>
       <c r="E328" s="11" t="s">
         <v>315</v>
       </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="57"/>
-      <c r="B329" s="57"/>
-      <c r="C329" s="57"/>
-      <c r="D329" s="55"/>
+      <c r="A329" s="54"/>
+      <c r="B329" s="54"/>
+      <c r="C329" s="54"/>
+      <c r="D329" s="57"/>
       <c r="E329" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="57"/>
-      <c r="B330" s="57"/>
-      <c r="C330" s="57"/>
-      <c r="D330" s="55"/>
+      <c r="A330" s="54"/>
+      <c r="B330" s="54"/>
+      <c r="C330" s="54"/>
+      <c r="D330" s="57"/>
       <c r="E330" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="57"/>
-      <c r="B331" s="57"/>
-      <c r="C331" s="57"/>
-      <c r="D331" s="55"/>
+      <c r="A331" s="54"/>
+      <c r="B331" s="54"/>
+      <c r="C331" s="54"/>
+      <c r="D331" s="57"/>
       <c r="E331" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="57"/>
-      <c r="B332" s="57"/>
-      <c r="C332" s="57"/>
-      <c r="D332" s="55"/>
+      <c r="A332" s="54"/>
+      <c r="B332" s="54"/>
+      <c r="C332" s="54"/>
+      <c r="D332" s="57"/>
       <c r="E332" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="57"/>
-      <c r="B333" s="57"/>
-      <c r="C333" s="57"/>
-      <c r="D333" s="55"/>
+      <c r="A333" s="54"/>
+      <c r="B333" s="54"/>
+      <c r="C333" s="54"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="58" t="s">
+      <c r="A334" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B334" s="66"/>
-      <c r="C334" s="66"/>
-      <c r="D334" s="66"/>
+      <c r="B334" s="53"/>
+      <c r="C334" s="53"/>
+      <c r="D334" s="53"/>
       <c r="E334" s="7" t="s">
         <v>317</v>
       </c>
@@ -7457,10 +7457,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="58"/>
-      <c r="B335" s="58"/>
-      <c r="C335" s="66"/>
-      <c r="D335" s="66"/>
+      <c r="A335" s="52"/>
+      <c r="B335" s="52"/>
+      <c r="C335" s="53"/>
+      <c r="D335" s="53"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7472,10 +7472,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="58"/>
-      <c r="B336" s="58"/>
-      <c r="C336" s="66"/>
-      <c r="D336" s="66"/>
+      <c r="A336" s="52"/>
+      <c r="B336" s="52"/>
+      <c r="C336" s="53"/>
+      <c r="D336" s="53"/>
       <c r="E336" s="11" t="s">
         <v>321</v>
       </c>
@@ -7487,10 +7487,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="58"/>
-      <c r="B337" s="58"/>
-      <c r="C337" s="66"/>
-      <c r="D337" s="66"/>
+      <c r="A337" s="52"/>
+      <c r="B337" s="52"/>
+      <c r="C337" s="53"/>
+      <c r="D337" s="53"/>
       <c r="E337" s="11" t="s">
         <v>323</v>
       </c>
@@ -7502,10 +7502,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="58"/>
-      <c r="B338" s="58"/>
-      <c r="C338" s="66"/>
-      <c r="D338" s="66"/>
+      <c r="A338" s="52"/>
+      <c r="B338" s="52"/>
+      <c r="C338" s="53"/>
+      <c r="D338" s="53"/>
       <c r="E338" s="11" t="s">
         <v>325</v>
       </c>
@@ -7517,20 +7517,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="58"/>
-      <c r="B339" s="58"/>
-      <c r="C339" s="66"/>
-      <c r="D339" s="66"/>
+      <c r="A339" s="52"/>
+      <c r="B339" s="52"/>
+      <c r="C339" s="53"/>
+      <c r="D339" s="53"/>
       <c r="E339" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="58"/>
-      <c r="B340" s="58"/>
-      <c r="C340" s="66"/>
-      <c r="D340" s="66"/>
+      <c r="A340" s="52"/>
+      <c r="B340" s="52"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="53"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7539,26 +7539,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7583,67 +7624,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7804,7 +7804,7 @@
       <c r="B66" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="71" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="68"/>
+      <c r="C67" s="71"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
@@ -7824,7 +7824,7 @@
       <c r="B68" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="68"/>
+      <c r="C68" s="71"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
@@ -7833,7 +7833,7 @@
       <c r="B69" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="68"/>
+      <c r="C69" s="71"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
@@ -7842,7 +7842,7 @@
       <c r="B70" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="68"/>
+      <c r="C70" s="71"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -7851,7 +7851,7 @@
       <c r="B71" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C71" s="68"/>
+      <c r="C71" s="71"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
@@ -7860,7 +7860,7 @@
       <c r="B72" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C72" s="68"/>
+      <c r="C72" s="71"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
@@ -7869,7 +7869,7 @@
       <c r="B73" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="68"/>
+      <c r="C73" s="71"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
@@ -7878,7 +7878,7 @@
       <c r="B74" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C74" s="68"/>
+      <c r="C74" s="71"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
@@ -7887,7 +7887,7 @@
       <c r="B75" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C75" s="68"/>
+      <c r="C75" s="71"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
@@ -7896,7 +7896,7 @@
       <c r="B76" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="68"/>
+      <c r="C76" s="71"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
@@ -7905,7 +7905,7 @@
       <c r="B77" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C77" s="68"/>
+      <c r="C77" s="71"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -7914,7 +7914,7 @@
       <c r="B78" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C78" s="68"/>
+      <c r="C78" s="71"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
@@ -7923,7 +7923,7 @@
       <c r="B79" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C79" s="68"/>
+      <c r="C79" s="71"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -7932,7 +7932,7 @@
       <c r="B82" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="70" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
       <c r="B83" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C83" s="67"/>
+      <c r="C83" s="70"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
@@ -7952,7 +7952,7 @@
       <c r="B84" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C84" s="67"/>
+      <c r="C84" s="70"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
@@ -7961,7 +7961,7 @@
       <c r="B85" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C85" s="67"/>
+      <c r="C85" s="70"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
@@ -7970,7 +7970,7 @@
       <c r="B86" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C86" s="67"/>
+      <c r="C86" s="70"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -7979,7 +7979,7 @@
       <c r="B89" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="70" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7990,7 +7990,7 @@
       <c r="B90" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="67"/>
+      <c r="C90" s="70"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -7999,7 +7999,7 @@
       <c r="B91" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="C91" s="67"/>
+      <c r="C91" s="70"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8008,7 +8008,7 @@
       <c r="B92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="67"/>
+      <c r="C92" s="70"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8017,7 +8017,7 @@
       <c r="B93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C93" s="67"/>
+      <c r="C93" s="70"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8026,7 +8026,7 @@
       <c r="B94" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C94" s="67"/>
+      <c r="C94" s="70"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8035,7 +8035,7 @@
       <c r="B95" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="67"/>
+      <c r="C95" s="70"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8044,7 +8044,7 @@
       <c r="B96" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C96" s="67"/>
+      <c r="C96" s="70"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8053,7 +8053,7 @@
       <c r="B97" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C97" s="67"/>
+      <c r="C97" s="70"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8062,7 +8062,7 @@
       <c r="B98" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C98" s="67"/>
+      <c r="C98" s="70"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8071,7 +8071,7 @@
       <c r="B99" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="67"/>
+      <c r="C99" s="70"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8080,7 +8080,7 @@
       <c r="B100" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C100" s="67"/>
+      <c r="C100" s="70"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8089,7 +8089,7 @@
       <c r="B101" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C101" s="67"/>
+      <c r="C101" s="70"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8098,7 +8098,7 @@
       <c r="B102" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="67"/>
+      <c r="C102" s="70"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
@@ -8331,7 +8331,7 @@
       <c r="B141" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="C141" s="68" t="s">
+      <c r="C141" s="71" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
       <c r="B142" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C142" s="68"/>
+      <c r="C142" s="71"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
@@ -8351,7 +8351,7 @@
       <c r="B143" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="C143" s="68"/>
+      <c r="C143" s="71"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
       <c r="A144" s="40" t="s">
@@ -8360,7 +8360,7 @@
       <c r="B144" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="C144" s="67" t="s">
+      <c r="C144" s="70" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       <c r="B145" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C145" s="67"/>
+      <c r="C145" s="70"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
@@ -8380,7 +8380,7 @@
       <c r="B146" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="67"/>
+      <c r="C146" s="70"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
@@ -8389,7 +8389,7 @@
       <c r="B147" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="67"/>
+      <c r="C147" s="70"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
@@ -8398,7 +8398,7 @@
       <c r="B148" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="67"/>
+      <c r="C148" s="70"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
@@ -8407,7 +8407,7 @@
       <c r="B149" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="C149" s="67"/>
+      <c r="C149" s="70"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
@@ -8416,7 +8416,7 @@
       <c r="B150" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="67"/>
+      <c r="C150" s="70"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
@@ -8425,7 +8425,7 @@
       <c r="B151" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C151" s="67"/>
+      <c r="C151" s="70"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
@@ -8434,7 +8434,7 @@
       <c r="B152" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C152" s="67"/>
+      <c r="C152" s="70"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
@@ -8443,7 +8443,7 @@
       <c r="B153" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C153" s="67"/>
+      <c r="C153" s="70"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="40" t="s">
@@ -8452,7 +8452,7 @@
       <c r="B154" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="C154" s="68" t="s">
+      <c r="C154" s="71" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8463,7 +8463,7 @@
       <c r="B155" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C155" s="68"/>
+      <c r="C155" s="71"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8472,7 +8472,7 @@
       <c r="B156" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C156" s="68"/>
+      <c r="C156" s="71"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8481,7 +8481,7 @@
       <c r="B157" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C157" s="68"/>
+      <c r="C157" s="71"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="40" t="s">
@@ -8490,7 +8490,7 @@
       <c r="B158" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="C158" s="67" t="s">
+      <c r="C158" s="70" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       <c r="B159" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="C159" s="67"/>
+      <c r="C159" s="70"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
@@ -8510,7 +8510,7 @@
       <c r="B160" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="C160" s="67"/>
+      <c r="C160" s="70"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
@@ -8519,7 +8519,7 @@
       <c r="B161" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C161" s="67"/>
+      <c r="C161" s="70"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
@@ -8528,7 +8528,7 @@
       <c r="B162" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="C162" s="67"/>
+      <c r="C162" s="70"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="40" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2055,35 +2055,30 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,12 +2090,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2895,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3000,16 +3000,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3022,10 +3022,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="68"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3037,10 +3037,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="68"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="68"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3070,18 +3070,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="68"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3094,12 +3094,12 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3111,10 +3111,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3129,10 +3129,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3145,10 +3145,10 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3163,20 +3163,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3184,10 +3184,10 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
@@ -3197,10 +3197,10 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3215,10 +3215,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3230,22 +3230,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3257,10 +3257,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3275,10 +3275,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3291,10 +3291,10 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3309,20 +3309,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3330,32 +3330,32 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="57"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3370,10 +3370,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="57"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3385,10 +3385,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3415,72 +3415,72 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="57"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3492,10 +3492,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
@@ -3507,10 +3507,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="57"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
@@ -3522,10 +3522,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="57"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
@@ -3540,10 +3540,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
@@ -3551,12 +3551,12 @@
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="66" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
@@ -3568,10 +3568,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
@@ -3583,10 +3583,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="57"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
@@ -3598,14 +3598,14 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3617,10 +3617,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="23" t="s">
         <v>89</v>
       </c>
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3647,10 +3647,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3662,18 +3662,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3686,12 +3686,12 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="55" t="s">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="56"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3703,10 +3703,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="57"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3718,10 +3718,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3733,10 +3733,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3748,52 +3748,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="56"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3805,10 +3805,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
@@ -3820,10 +3820,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
@@ -3835,10 +3835,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
@@ -3850,112 +3850,112 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="54" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="57"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="57"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="42" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="52" t="s">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3964,50 +3964,50 @@
       <c r="F70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="52"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="52"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="52"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="52"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -4019,10 +4019,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="61"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="52"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -4034,32 +4034,32 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="52"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="52"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="67" t="s">
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="57"/>
+      <c r="D78" s="56"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4071,10 +4071,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="57"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="56"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4086,10 +4086,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="57"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="56"/>
       <c r="E80" s="23" t="s">
         <v>138</v>
       </c>
@@ -4101,10 +4101,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="56"/>
       <c r="E81" s="11" t="s">
         <v>140</v>
       </c>
@@ -4119,22 +4119,22 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="57"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="56"/>
       <c r="E82" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="54" t="s">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="57"/>
+      <c r="D83" s="56"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
@@ -4146,10 +4146,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="57"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="56"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
@@ -4162,20 +4162,20 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="57"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="56"/>
       <c r="E85" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="57"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="56"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4187,10 +4187,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="56"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4202,90 +4202,90 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="56"/>
       <c r="E90" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="57"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="57"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="56"/>
       <c r="E92" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="57"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="56"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="57"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="56"/>
       <c r="E94" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="57"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="56"/>
       <c r="E95" s="15" t="s">
         <v>154</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="61"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="60" t="s">
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4302,10 +4302,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="60"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="61"/>
       <c r="E97" s="11" t="s">
         <v>155</v>
       </c>
@@ -4313,10 +4313,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="60"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="61"/>
       <c r="E98" s="11" t="s">
         <v>156</v>
       </c>
@@ -4324,10 +4324,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="60"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="61"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4340,10 +4340,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="60"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="61"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4355,30 +4355,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="60"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="61"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="60"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="61"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="60" t="s">
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4392,10 +4392,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="60"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="61"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4407,10 +4407,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="60"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="61"/>
       <c r="E105" s="11" t="s">
         <v>160</v>
       </c>
@@ -4422,10 +4422,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="61"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="60"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="61"/>
       <c r="E106" s="15" t="s">
         <v>161</v>
       </c>
@@ -4437,12 +4437,12 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="61"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61" t="s">
+      <c r="A107" s="52"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="57"/>
+      <c r="D107" s="56"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4454,10 +4454,10 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="61"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="57"/>
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="56"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4469,20 +4469,20 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="61"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="57"/>
+      <c r="A109" s="52"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="56"/>
       <c r="E109" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="57"/>
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="56"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4494,10 +4494,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="61"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="57"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="56"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4505,10 +4505,10 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="61"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="57"/>
+      <c r="A112" s="52"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="11" t="s">
         <v>149</v>
       </c>
@@ -4516,10 +4516,10 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="61"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="57"/>
+      <c r="A113" s="52"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="11" t="s">
         <v>150</v>
       </c>
@@ -4527,10 +4527,10 @@
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="61"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="57"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="56"/>
       <c r="E114" s="11" t="s">
         <v>151</v>
       </c>
@@ -4538,10 +4538,10 @@
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="61"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="57"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="56"/>
       <c r="E115" s="11" t="s">
         <v>152</v>
       </c>
@@ -4549,10 +4549,10 @@
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="61"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="57"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="56"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4560,12 +4560,12 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="61"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="54" t="s">
+      <c r="A117" s="52"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="57"/>
+      <c r="D117" s="56"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4577,30 +4577,30 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="61"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="57"/>
+      <c r="A118" s="52"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="56"/>
       <c r="E118" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="61"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="57"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="56"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="61"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="57"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="56"/>
       <c r="E120" s="23" t="s">
         <v>168</v>
       </c>
@@ -4612,10 +4612,10 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="57"/>
+      <c r="A121" s="52"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="56"/>
       <c r="E121" s="11" t="s">
         <v>170</v>
       </c>
@@ -4627,10 +4627,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="61"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="57"/>
+      <c r="A122" s="52"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="56"/>
       <c r="E122" s="11" t="s">
         <v>172</v>
       </c>
@@ -4642,10 +4642,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="61"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="57"/>
+      <c r="A123" s="52"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="56"/>
       <c r="E123" s="15" t="s">
         <v>173</v>
       </c>
@@ -4657,12 +4657,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="61"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="54" t="s">
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="57"/>
+      <c r="D124" s="56"/>
       <c r="E124" s="7" t="s">
         <v>176</v>
       </c>
@@ -4677,10 +4677,10 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="57"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="56"/>
       <c r="E125" s="11" t="s">
         <v>180</v>
       </c>
@@ -4692,20 +4692,20 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="57"/>
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="56"/>
       <c r="E126" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="61"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="57"/>
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="56"/>
       <c r="E127" s="11" t="s">
         <v>183</v>
       </c>
@@ -4717,12 +4717,12 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="54" t="s">
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="56"/>
       <c r="E128" s="7" t="s">
         <v>186</v>
       </c>
@@ -4737,10 +4737,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="57"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="56"/>
       <c r="E129" s="11" t="s">
         <v>190</v>
       </c>
@@ -4752,20 +4752,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="57"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="56"/>
       <c r="E130" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="61"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="57"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="56"/>
       <c r="E131" s="15" t="s">
         <v>193</v>
       </c>
@@ -4780,12 +4780,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="61"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="54" t="s">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="57"/>
+      <c r="D132" s="56"/>
       <c r="E132" s="7" t="s">
         <v>197</v>
       </c>
@@ -4797,10 +4797,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="57"/>
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="56"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4812,10 +4812,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="57"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="56"/>
       <c r="E134" s="11" t="s">
         <v>201</v>
       </c>
@@ -4827,10 +4827,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="57"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="56"/>
       <c r="E135" s="11" t="s">
         <v>203</v>
       </c>
@@ -4842,59 +4842,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="61"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="57"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="56"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="57"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="56"/>
       <c r="E137" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="61"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="57"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="56"/>
       <c r="E138" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="61"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="57"/>
+      <c r="A139" s="52"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="58"/>
+      <c r="D139" s="56"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="61"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="57"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="56"/>
       <c r="E140" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="61"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="60" t="s">
+      <c r="A141" s="52"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="61" t="s">
         <v>207</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4908,40 +4908,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="61"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="60"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="61"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="60"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="61"/>
       <c r="E143" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="61"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="60"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="61"/>
       <c r="E144" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="60"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="61"/>
       <c r="E145" s="33" t="s">
         <v>209</v>
       </c>
@@ -4953,10 +4953,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="60"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="61"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -4968,10 +4968,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="61"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="60"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="61"/>
       <c r="E147" s="15" t="s">
         <v>211</v>
       </c>
@@ -4983,16 +4983,16 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="65" t="s">
+      <c r="C148" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="56"/>
       <c r="E148" s="7" t="s">
         <v>213</v>
       </c>
@@ -5004,10 +5004,10 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="61"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="57"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="56"/>
       <c r="E149" s="11" t="s">
         <v>214</v>
       </c>
@@ -5019,10 +5019,10 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="61"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="57"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="62"/>
+      <c r="D150" s="56"/>
       <c r="E150" s="11" t="s">
         <v>215</v>
       </c>
@@ -5034,10 +5034,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="61"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="57"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="56"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -5049,18 +5049,18 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="61"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="57"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="56"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="61"/>
-      <c r="B153" s="61" t="s">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52" t="s">
         <v>216</v>
       </c>
       <c r="C153" s="45" t="s">
@@ -5073,12 +5073,12 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="55" t="s">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="56"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5090,10 +5090,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="61"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="57"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="56"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5108,10 +5108,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="57"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="56"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5123,10 +5123,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="57"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="56"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5138,52 +5138,52 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="57"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="56"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="61"/>
-      <c r="B159" s="61"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="57"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="56"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="57"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="56"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="57"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="56"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="64" t="s">
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="56"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
@@ -5195,10 +5195,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="61"/>
-      <c r="B163" s="61"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="57"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="56"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
@@ -5210,20 +5210,20 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="61"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="57"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="56"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="61"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="57"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="56"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
@@ -5235,20 +5235,20 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="57"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="56"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="61"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="57"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="56"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
@@ -5260,10 +5260,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="61"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="60" t="s">
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="61" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5277,10 +5277,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="60"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="61"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5292,30 +5292,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="61"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="60"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="61"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="61"/>
-      <c r="B171" s="61"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="60"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="61"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="61"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="60"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="61"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5327,10 +5327,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="60"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="61"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5342,32 +5342,32 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="60"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="61"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="60"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="61"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="61"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="63" t="s">
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="57"/>
+      <c r="D176" s="56"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
@@ -5379,10 +5379,10 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="61"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="63"/>
-      <c r="D177" s="57"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="56"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
@@ -5394,10 +5394,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="61"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="63"/>
-      <c r="D178" s="57"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="65"/>
+      <c r="D178" s="56"/>
       <c r="E178" s="23" t="s">
         <v>138</v>
       </c>
@@ -5409,10 +5409,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="61"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="63"/>
-      <c r="D179" s="57"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="65"/>
+      <c r="D179" s="56"/>
       <c r="E179" s="11" t="s">
         <v>140</v>
       </c>
@@ -5427,22 +5427,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="61"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="57"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="65"/>
+      <c r="D180" s="56"/>
       <c r="E180" s="15" t="s">
         <v>143</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="63" t="s">
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D181" s="57"/>
+      <c r="D181" s="56"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5454,10 +5454,10 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="61"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="57"/>
+      <c r="A182" s="52"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="65"/>
+      <c r="D182" s="56"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5469,20 +5469,20 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="61"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="57"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="65"/>
+      <c r="D183" s="56"/>
       <c r="E183" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="61"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="57"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="65"/>
+      <c r="D184" s="56"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5494,10 +5494,10 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="61"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="57"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="56"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5509,80 +5509,80 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="61"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="57"/>
+      <c r="A186" s="52"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="65"/>
+      <c r="D186" s="56"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="61"/>
-      <c r="B187" s="61"/>
-      <c r="C187" s="63"/>
-      <c r="D187" s="57"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="56"/>
       <c r="E187" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="61"/>
-      <c r="B188" s="61"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="57"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="65"/>
+      <c r="D188" s="56"/>
       <c r="E188" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="61"/>
-      <c r="B189" s="61"/>
-      <c r="C189" s="63"/>
-      <c r="D189" s="57"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="65"/>
+      <c r="D189" s="56"/>
       <c r="E189" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="61"/>
-      <c r="B190" s="61"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="57"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="65"/>
+      <c r="D190" s="56"/>
       <c r="E190" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="61"/>
-      <c r="B191" s="61"/>
-      <c r="C191" s="63"/>
-      <c r="D191" s="57"/>
+      <c r="A191" s="52"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="65"/>
+      <c r="D191" s="56"/>
       <c r="E191" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="61"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="63"/>
-      <c r="D192" s="57"/>
+      <c r="A192" s="52"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="65"/>
+      <c r="D192" s="56"/>
       <c r="E192" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="61"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="60" t="s">
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="65"/>
+      <c r="D193" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5599,30 +5599,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="61"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="63"/>
-      <c r="D194" s="60"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="65"/>
+      <c r="D194" s="61"/>
       <c r="E194" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="61"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="63"/>
-      <c r="D195" s="60"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="65"/>
+      <c r="D195" s="61"/>
       <c r="E195" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="61"/>
-      <c r="B196" s="61"/>
-      <c r="C196" s="63"/>
-      <c r="D196" s="60"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="65"/>
+      <c r="D196" s="61"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5634,10 +5634,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="61"/>
-      <c r="B197" s="61"/>
-      <c r="C197" s="63"/>
-      <c r="D197" s="60"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="61"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5649,40 +5649,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="61"/>
-      <c r="B198" s="61"/>
-      <c r="C198" s="63"/>
-      <c r="D198" s="60"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="65"/>
+      <c r="D198" s="61"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="61"/>
-      <c r="B199" s="61"/>
-      <c r="C199" s="63"/>
-      <c r="D199" s="60"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="65"/>
+      <c r="D199" s="61"/>
       <c r="E199" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="61"/>
-      <c r="B200" s="61"/>
-      <c r="C200" s="63"/>
-      <c r="D200" s="60"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="65"/>
+      <c r="D200" s="61"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="61"/>
-      <c r="B201" s="61"/>
-      <c r="C201" s="63"/>
-      <c r="D201" s="60" t="s">
+      <c r="A201" s="52"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="65"/>
+      <c r="D201" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5696,10 +5696,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="61"/>
-      <c r="B202" s="61"/>
-      <c r="C202" s="63"/>
-      <c r="D202" s="60"/>
+      <c r="A202" s="52"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="65"/>
+      <c r="D202" s="61"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="61"/>
-      <c r="B203" s="61"/>
-      <c r="C203" s="63"/>
-      <c r="D203" s="60"/>
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="65"/>
+      <c r="D203" s="61"/>
       <c r="E203" s="11" t="s">
         <v>160</v>
       </c>
@@ -5726,10 +5726,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="61"/>
-      <c r="B204" s="61"/>
-      <c r="C204" s="63"/>
-      <c r="D204" s="60"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="65"/>
+      <c r="D204" s="61"/>
       <c r="E204" s="15" t="s">
         <v>161</v>
       </c>
@@ -5741,10 +5741,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="61"/>
-      <c r="B205" s="61"/>
-      <c r="C205" s="63"/>
-      <c r="D205" s="60" t="s">
+      <c r="A205" s="52"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="65"/>
+      <c r="D205" s="61" t="s">
         <v>217</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5758,10 +5758,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="61"/>
-      <c r="B206" s="61"/>
-      <c r="C206" s="63"/>
-      <c r="D206" s="60"/>
+      <c r="A206" s="52"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="65"/>
+      <c r="D206" s="61"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5773,10 +5773,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="61"/>
-      <c r="B207" s="61"/>
-      <c r="C207" s="63"/>
-      <c r="D207" s="60"/>
+      <c r="A207" s="52"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="65"/>
+      <c r="D207" s="61"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5788,32 +5788,32 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="61"/>
-      <c r="B208" s="61"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="60"/>
+      <c r="A208" s="52"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="65"/>
+      <c r="D208" s="61"/>
       <c r="E208" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="61"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="60"/>
+      <c r="A209" s="52"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="65"/>
+      <c r="D209" s="61"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="61"/>
-      <c r="B210" s="61"/>
-      <c r="C210" s="63" t="s">
+      <c r="A210" s="52"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D210" s="57"/>
+      <c r="D210" s="56"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5825,10 +5825,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="61"/>
-      <c r="B211" s="61"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="57"/>
+      <c r="A211" s="52"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="65"/>
+      <c r="D211" s="56"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5840,20 +5840,20 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="61"/>
-      <c r="B212" s="61"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="57"/>
+      <c r="A212" s="52"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="56"/>
       <c r="E212" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="61"/>
-      <c r="B213" s="61"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="57"/>
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="65"/>
+      <c r="D213" s="56"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5865,10 +5865,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="61"/>
-      <c r="B214" s="61"/>
-      <c r="C214" s="63"/>
-      <c r="D214" s="57"/>
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="65"/>
+      <c r="D214" s="56"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5880,62 +5880,62 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="61"/>
-      <c r="B215" s="61"/>
-      <c r="C215" s="63"/>
-      <c r="D215" s="57"/>
+      <c r="A215" s="52"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="65"/>
+      <c r="D215" s="56"/>
       <c r="E215" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="61"/>
-      <c r="B216" s="61"/>
-      <c r="C216" s="63"/>
-      <c r="D216" s="57"/>
+      <c r="A216" s="52"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="65"/>
+      <c r="D216" s="56"/>
       <c r="E216" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="61"/>
-      <c r="B217" s="61"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="57"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="56"/>
       <c r="E217" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="61"/>
-      <c r="B218" s="61"/>
-      <c r="C218" s="63"/>
-      <c r="D218" s="57"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="65"/>
+      <c r="D218" s="56"/>
       <c r="E218" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="61"/>
-      <c r="B219" s="61"/>
-      <c r="C219" s="63"/>
-      <c r="D219" s="57"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="65"/>
+      <c r="D219" s="56"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="61"/>
-      <c r="B220" s="61"/>
-      <c r="C220" s="63" t="s">
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D220" s="57"/>
+      <c r="D220" s="56"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5947,30 +5947,30 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="61"/>
-      <c r="B221" s="61"/>
-      <c r="C221" s="63"/>
-      <c r="D221" s="57"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="65"/>
+      <c r="D221" s="56"/>
       <c r="E221" s="11" t="s">
         <v>167</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="61"/>
-      <c r="B222" s="61"/>
-      <c r="C222" s="63"/>
-      <c r="D222" s="57"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="65"/>
+      <c r="D222" s="56"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="61"/>
-      <c r="B223" s="61"/>
-      <c r="C223" s="63"/>
-      <c r="D223" s="57"/>
+      <c r="A223" s="52"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="65"/>
+      <c r="D223" s="56"/>
       <c r="E223" s="23" t="s">
         <v>168</v>
       </c>
@@ -5982,10 +5982,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="61"/>
-      <c r="B224" s="61"/>
-      <c r="C224" s="63"/>
-      <c r="D224" s="57"/>
+      <c r="A224" s="52"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="65"/>
+      <c r="D224" s="56"/>
       <c r="E224" s="11" t="s">
         <v>170</v>
       </c>
@@ -5997,10 +5997,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="61"/>
-      <c r="B225" s="61"/>
-      <c r="C225" s="63"/>
-      <c r="D225" s="57"/>
+      <c r="A225" s="52"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="65"/>
+      <c r="D225" s="56"/>
       <c r="E225" s="11" t="s">
         <v>172</v>
       </c>
@@ -6012,10 +6012,10 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="61"/>
-      <c r="B226" s="61"/>
-      <c r="C226" s="63"/>
-      <c r="D226" s="57"/>
+      <c r="A226" s="52"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="65"/>
+      <c r="D226" s="56"/>
       <c r="E226" s="15" t="s">
         <v>173</v>
       </c>
@@ -6027,12 +6027,12 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="61"/>
-      <c r="B227" s="61"/>
-      <c r="C227" s="63" t="s">
+      <c r="A227" s="52"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D227" s="57"/>
+      <c r="D227" s="56"/>
       <c r="E227" s="7" t="s">
         <v>176</v>
       </c>
@@ -6047,10 +6047,10 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="61"/>
-      <c r="B228" s="61"/>
-      <c r="C228" s="63"/>
-      <c r="D228" s="57"/>
+      <c r="A228" s="52"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="65"/>
+      <c r="D228" s="56"/>
       <c r="E228" s="11" t="s">
         <v>180</v>
       </c>
@@ -6062,20 +6062,20 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="61"/>
-      <c r="B229" s="61"/>
-      <c r="C229" s="63"/>
-      <c r="D229" s="57"/>
+      <c r="A229" s="52"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="65"/>
+      <c r="D229" s="56"/>
       <c r="E229" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="61"/>
-      <c r="B230" s="61"/>
-      <c r="C230" s="63"/>
-      <c r="D230" s="57"/>
+      <c r="A230" s="52"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="65"/>
+      <c r="D230" s="56"/>
       <c r="E230" s="15" t="s">
         <v>183</v>
       </c>
@@ -6087,12 +6087,12 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="61"/>
-      <c r="B231" s="61"/>
-      <c r="C231" s="63" t="s">
+      <c r="A231" s="52"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D231" s="57"/>
+      <c r="D231" s="56"/>
       <c r="E231" s="7" t="s">
         <v>186</v>
       </c>
@@ -6107,10 +6107,10 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="61"/>
-      <c r="B232" s="61"/>
-      <c r="C232" s="63"/>
-      <c r="D232" s="57"/>
+      <c r="A232" s="52"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="65"/>
+      <c r="D232" s="56"/>
       <c r="E232" s="11" t="s">
         <v>190</v>
       </c>
@@ -6122,20 +6122,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="61"/>
-      <c r="B233" s="61"/>
-      <c r="C233" s="63"/>
-      <c r="D233" s="57"/>
+      <c r="A233" s="52"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="65"/>
+      <c r="D233" s="56"/>
       <c r="E233" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="61"/>
-      <c r="B234" s="61"/>
-      <c r="C234" s="63"/>
-      <c r="D234" s="57"/>
+      <c r="A234" s="52"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="65"/>
+      <c r="D234" s="56"/>
       <c r="E234" s="15" t="s">
         <v>193</v>
       </c>
@@ -6150,12 +6150,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="61"/>
-      <c r="B235" s="61"/>
-      <c r="C235" s="59" t="s">
+      <c r="A235" s="52"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="D235" s="57"/>
+      <c r="D235" s="56"/>
       <c r="E235" s="7" t="s">
         <v>197</v>
       </c>
@@ -6167,10 +6167,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="61"/>
-      <c r="B236" s="61"/>
-      <c r="C236" s="59"/>
-      <c r="D236" s="57"/>
+      <c r="A236" s="52"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="68"/>
+      <c r="D236" s="56"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6182,10 +6182,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="61"/>
-      <c r="B237" s="61"/>
-      <c r="C237" s="59"/>
-      <c r="D237" s="57"/>
+      <c r="A237" s="52"/>
+      <c r="B237" s="52"/>
+      <c r="C237" s="68"/>
+      <c r="D237" s="56"/>
       <c r="E237" s="11" t="s">
         <v>201</v>
       </c>
@@ -6197,10 +6197,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="61"/>
-      <c r="B238" s="61"/>
-      <c r="C238" s="59"/>
-      <c r="D238" s="57"/>
+      <c r="A238" s="52"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="68"/>
+      <c r="D238" s="56"/>
       <c r="E238" s="11" t="s">
         <v>203</v>
       </c>
@@ -6212,50 +6212,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="61"/>
-      <c r="B239" s="61"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="57"/>
+      <c r="A239" s="52"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="68"/>
+      <c r="D239" s="56"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="61"/>
-      <c r="B240" s="61"/>
-      <c r="C240" s="59"/>
-      <c r="D240" s="57"/>
+      <c r="A240" s="52"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="68"/>
+      <c r="D240" s="56"/>
       <c r="E240" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="61"/>
-      <c r="B241" s="61"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="57"/>
+      <c r="A241" s="52"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="56"/>
       <c r="E241" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="61"/>
-      <c r="B242" s="61"/>
-      <c r="C242" s="59"/>
-      <c r="D242" s="57"/>
+      <c r="A242" s="52"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="68"/>
+      <c r="D242" s="56"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="61"/>
-      <c r="B243" s="61"/>
-      <c r="C243" s="59"/>
-      <c r="D243" s="57"/>
+      <c r="A243" s="52"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="68"/>
+      <c r="D243" s="56"/>
       <c r="E243" s="32" t="s">
         <v>207</v>
       </c>
@@ -6267,10 +6267,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="61"/>
-      <c r="B244" s="61"/>
-      <c r="C244" s="59"/>
-      <c r="D244" s="60" t="s">
+      <c r="A244" s="52"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="68"/>
+      <c r="D244" s="61" t="s">
         <v>207</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6284,40 +6284,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="61"/>
-      <c r="B245" s="61"/>
-      <c r="C245" s="59"/>
-      <c r="D245" s="60"/>
+      <c r="A245" s="52"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="61"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="61"/>
-      <c r="B246" s="61"/>
-      <c r="C246" s="59"/>
-      <c r="D246" s="60"/>
+      <c r="A246" s="52"/>
+      <c r="B246" s="52"/>
+      <c r="C246" s="68"/>
+      <c r="D246" s="61"/>
       <c r="E246" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="61"/>
-      <c r="B247" s="61"/>
-      <c r="C247" s="59"/>
-      <c r="D247" s="60"/>
+      <c r="A247" s="52"/>
+      <c r="B247" s="52"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="61"/>
       <c r="E247" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="61"/>
-      <c r="B248" s="61"/>
-      <c r="C248" s="59"/>
-      <c r="D248" s="60"/>
+      <c r="A248" s="52"/>
+      <c r="B248" s="52"/>
+      <c r="C248" s="68"/>
+      <c r="D248" s="61"/>
       <c r="E248" s="23" t="s">
         <v>224</v>
       </c>
@@ -6329,10 +6329,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="61"/>
-      <c r="B249" s="61"/>
-      <c r="C249" s="59"/>
-      <c r="D249" s="60"/>
+      <c r="A249" s="52"/>
+      <c r="B249" s="52"/>
+      <c r="C249" s="68"/>
+      <c r="D249" s="61"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6344,12 +6344,12 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="61"/>
-      <c r="B250" s="61"/>
-      <c r="C250" s="54" t="s">
+      <c r="A250" s="52"/>
+      <c r="B250" s="52"/>
+      <c r="C250" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="D250" s="57"/>
+      <c r="D250" s="56"/>
       <c r="E250" s="36" t="s">
         <v>226</v>
       </c>
@@ -6364,10 +6364,10 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="61"/>
-      <c r="B251" s="61"/>
-      <c r="C251" s="54"/>
-      <c r="D251" s="57"/>
+      <c r="A251" s="52"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="58"/>
+      <c r="D251" s="56"/>
       <c r="E251" s="11" t="s">
         <v>230</v>
       </c>
@@ -6379,10 +6379,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="61"/>
-      <c r="B252" s="61"/>
-      <c r="C252" s="54"/>
-      <c r="D252" s="57"/>
+      <c r="A252" s="52"/>
+      <c r="B252" s="52"/>
+      <c r="C252" s="58"/>
+      <c r="D252" s="56"/>
       <c r="E252" s="11" t="s">
         <v>232</v>
       </c>
@@ -6394,10 +6394,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="61"/>
-      <c r="B253" s="61"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="57"/>
+      <c r="A253" s="52"/>
+      <c r="B253" s="52"/>
+      <c r="C253" s="58"/>
+      <c r="D253" s="56"/>
       <c r="E253" s="11" t="s">
         <v>234</v>
       </c>
@@ -6409,10 +6409,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="61"/>
-      <c r="B254" s="61"/>
-      <c r="C254" s="54"/>
-      <c r="D254" s="57"/>
+      <c r="A254" s="52"/>
+      <c r="B254" s="52"/>
+      <c r="C254" s="58"/>
+      <c r="D254" s="56"/>
       <c r="E254" s="11" t="s">
         <v>236</v>
       </c>
@@ -6424,10 +6424,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="61"/>
-      <c r="B255" s="61"/>
-      <c r="C255" s="54"/>
-      <c r="D255" s="57"/>
+      <c r="A255" s="52"/>
+      <c r="B255" s="52"/>
+      <c r="C255" s="58"/>
+      <c r="D255" s="56"/>
       <c r="E255" s="15" t="s">
         <v>238</v>
       </c>
@@ -6439,10 +6439,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="61"/>
-      <c r="B256" s="61"/>
-      <c r="C256" s="54"/>
-      <c r="D256" s="60" t="s">
+      <c r="A256" s="52"/>
+      <c r="B256" s="52"/>
+      <c r="C256" s="58"/>
+      <c r="D256" s="61" t="s">
         <v>240</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6456,30 +6456,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="61"/>
-      <c r="B257" s="61"/>
-      <c r="C257" s="54"/>
-      <c r="D257" s="60"/>
+      <c r="A257" s="52"/>
+      <c r="B257" s="52"/>
+      <c r="C257" s="58"/>
+      <c r="D257" s="61"/>
       <c r="E257" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="61"/>
-      <c r="B258" s="61"/>
-      <c r="C258" s="54"/>
-      <c r="D258" s="60"/>
+      <c r="A258" s="52"/>
+      <c r="B258" s="52"/>
+      <c r="C258" s="58"/>
+      <c r="D258" s="61"/>
       <c r="E258" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="61"/>
-      <c r="B259" s="61"/>
-      <c r="C259" s="54"/>
-      <c r="D259" s="60"/>
+      <c r="A259" s="52"/>
+      <c r="B259" s="52"/>
+      <c r="C259" s="58"/>
+      <c r="D259" s="61"/>
       <c r="E259" s="11" t="s">
         <v>245</v>
       </c>
@@ -6491,10 +6491,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="61"/>
-      <c r="B260" s="61"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="60"/>
+      <c r="A260" s="52"/>
+      <c r="B260" s="52"/>
+      <c r="C260" s="58"/>
+      <c r="D260" s="61"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6506,50 +6506,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="61"/>
-      <c r="B261" s="61"/>
-      <c r="C261" s="54"/>
-      <c r="D261" s="60"/>
+      <c r="A261" s="52"/>
+      <c r="B261" s="52"/>
+      <c r="C261" s="58"/>
+      <c r="D261" s="61"/>
       <c r="E261" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="61"/>
-      <c r="B262" s="61"/>
-      <c r="C262" s="54"/>
-      <c r="D262" s="60"/>
+      <c r="A262" s="52"/>
+      <c r="B262" s="52"/>
+      <c r="C262" s="58"/>
+      <c r="D262" s="61"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="61"/>
-      <c r="B263" s="61"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="60"/>
+      <c r="A263" s="52"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="58"/>
+      <c r="D263" s="61"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="61"/>
-      <c r="B264" s="61"/>
-      <c r="C264" s="54"/>
-      <c r="D264" s="60"/>
+      <c r="A264" s="52"/>
+      <c r="B264" s="52"/>
+      <c r="C264" s="58"/>
+      <c r="D264" s="61"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="61"/>
-      <c r="B265" s="61"/>
-      <c r="C265" s="54"/>
-      <c r="D265" s="60" t="s">
+      <c r="A265" s="52"/>
+      <c r="B265" s="52"/>
+      <c r="C265" s="58"/>
+      <c r="D265" s="61" t="s">
         <v>249</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6563,20 +6563,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="61"/>
-      <c r="B266" s="61"/>
-      <c r="C266" s="54"/>
-      <c r="D266" s="60"/>
+      <c r="A266" s="52"/>
+      <c r="B266" s="52"/>
+      <c r="C266" s="58"/>
+      <c r="D266" s="61"/>
       <c r="E266" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="61"/>
-      <c r="B267" s="61"/>
-      <c r="C267" s="54"/>
-      <c r="D267" s="60"/>
+      <c r="A267" s="52"/>
+      <c r="B267" s="52"/>
+      <c r="C267" s="58"/>
+      <c r="D267" s="61"/>
       <c r="E267" s="23" t="s">
         <v>251</v>
       </c>
@@ -6588,10 +6588,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="61"/>
-      <c r="B268" s="61"/>
-      <c r="C268" s="54"/>
-      <c r="D268" s="60"/>
+      <c r="A268" s="52"/>
+      <c r="B268" s="52"/>
+      <c r="C268" s="58"/>
+      <c r="D268" s="61"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6603,10 +6603,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="61"/>
-      <c r="B269" s="61"/>
-      <c r="C269" s="54"/>
-      <c r="D269" s="60"/>
+      <c r="A269" s="52"/>
+      <c r="B269" s="52"/>
+      <c r="C269" s="58"/>
+      <c r="D269" s="61"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6618,30 +6618,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="61"/>
-      <c r="B270" s="61"/>
-      <c r="C270" s="54"/>
-      <c r="D270" s="60"/>
+      <c r="A270" s="52"/>
+      <c r="B270" s="52"/>
+      <c r="C270" s="58"/>
+      <c r="D270" s="61"/>
       <c r="E270" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="61"/>
-      <c r="B271" s="61"/>
-      <c r="C271" s="54"/>
-      <c r="D271" s="60"/>
+      <c r="A271" s="52"/>
+      <c r="B271" s="52"/>
+      <c r="C271" s="58"/>
+      <c r="D271" s="61"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="61"/>
-      <c r="B272" s="61"/>
-      <c r="C272" s="54"/>
-      <c r="D272" s="60" t="s">
+      <c r="A272" s="52"/>
+      <c r="B272" s="52"/>
+      <c r="C272" s="58"/>
+      <c r="D272" s="61" t="s">
         <v>254</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6655,10 +6655,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="61"/>
-      <c r="B273" s="61"/>
-      <c r="C273" s="54"/>
-      <c r="D273" s="60"/>
+      <c r="A273" s="52"/>
+      <c r="B273" s="52"/>
+      <c r="C273" s="58"/>
+      <c r="D273" s="61"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6670,10 +6670,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="61"/>
-      <c r="B274" s="61"/>
-      <c r="C274" s="54"/>
-      <c r="D274" s="60"/>
+      <c r="A274" s="52"/>
+      <c r="B274" s="52"/>
+      <c r="C274" s="58"/>
+      <c r="D274" s="61"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6685,10 +6685,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="61"/>
-      <c r="B275" s="61"/>
-      <c r="C275" s="54"/>
-      <c r="D275" s="60"/>
+      <c r="A275" s="52"/>
+      <c r="B275" s="52"/>
+      <c r="C275" s="58"/>
+      <c r="D275" s="61"/>
       <c r="E275" s="11" t="s">
         <v>257</v>
       </c>
@@ -6700,80 +6700,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="61"/>
-      <c r="B276" s="61"/>
-      <c r="C276" s="54"/>
-      <c r="D276" s="60"/>
+      <c r="A276" s="52"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="58"/>
+      <c r="D276" s="61"/>
       <c r="E276" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="61"/>
-      <c r="B277" s="61"/>
-      <c r="C277" s="54"/>
-      <c r="D277" s="60"/>
+      <c r="A277" s="52"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="58"/>
+      <c r="D277" s="61"/>
       <c r="E277" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="61"/>
-      <c r="B278" s="61"/>
-      <c r="C278" s="54"/>
-      <c r="D278" s="60"/>
+      <c r="A278" s="52"/>
+      <c r="B278" s="52"/>
+      <c r="C278" s="58"/>
+      <c r="D278" s="61"/>
       <c r="E278" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="61"/>
-      <c r="B279" s="61"/>
-      <c r="C279" s="54"/>
-      <c r="D279" s="60"/>
+      <c r="A279" s="52"/>
+      <c r="B279" s="52"/>
+      <c r="C279" s="58"/>
+      <c r="D279" s="61"/>
       <c r="E279" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="61"/>
-      <c r="B280" s="61"/>
-      <c r="C280" s="54"/>
-      <c r="D280" s="60"/>
+      <c r="A280" s="52"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="58"/>
+      <c r="D280" s="61"/>
       <c r="E280" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="61"/>
-      <c r="B281" s="61"/>
-      <c r="C281" s="54"/>
-      <c r="D281" s="60"/>
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="58"/>
+      <c r="D281" s="61"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="61"/>
-      <c r="B282" s="61"/>
-      <c r="C282" s="54"/>
-      <c r="D282" s="60"/>
+      <c r="A282" s="52"/>
+      <c r="B282" s="52"/>
+      <c r="C282" s="58"/>
+      <c r="D282" s="61"/>
       <c r="E282" s="15" t="s">
         <v>259</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="61"/>
-      <c r="B283" s="61"/>
-      <c r="C283" s="54"/>
-      <c r="D283" s="60" t="s">
+      <c r="A283" s="52"/>
+      <c r="B283" s="52"/>
+      <c r="C283" s="58"/>
+      <c r="D283" s="61" t="s">
         <v>259</v>
       </c>
       <c r="E283" s="36" t="s">
@@ -6787,30 +6787,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="61"/>
-      <c r="B284" s="61"/>
-      <c r="C284" s="54"/>
-      <c r="D284" s="60"/>
+      <c r="A284" s="52"/>
+      <c r="B284" s="52"/>
+      <c r="C284" s="58"/>
+      <c r="D284" s="61"/>
       <c r="E284" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="61"/>
-      <c r="B285" s="61"/>
-      <c r="C285" s="54"/>
-      <c r="D285" s="60"/>
+      <c r="A285" s="52"/>
+      <c r="B285" s="52"/>
+      <c r="C285" s="58"/>
+      <c r="D285" s="61"/>
       <c r="E285" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="61"/>
-      <c r="B286" s="61"/>
-      <c r="C286" s="54"/>
-      <c r="D286" s="60"/>
+      <c r="A286" s="52"/>
+      <c r="B286" s="52"/>
+      <c r="C286" s="58"/>
+      <c r="D286" s="61"/>
       <c r="E286" s="11" t="s">
         <v>264</v>
       </c>
@@ -6822,20 +6822,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="61"/>
-      <c r="B287" s="61"/>
-      <c r="C287" s="54"/>
-      <c r="D287" s="60"/>
+      <c r="A287" s="52"/>
+      <c r="B287" s="52"/>
+      <c r="C287" s="58"/>
+      <c r="D287" s="61"/>
       <c r="E287" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="61"/>
-      <c r="B288" s="61"/>
-      <c r="C288" s="54"/>
-      <c r="D288" s="60"/>
+      <c r="A288" s="52"/>
+      <c r="B288" s="52"/>
+      <c r="C288" s="58"/>
+      <c r="D288" s="61"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6847,34 +6847,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="61"/>
-      <c r="B289" s="61"/>
-      <c r="C289" s="54"/>
-      <c r="D289" s="60"/>
+      <c r="A289" s="52"/>
+      <c r="B289" s="52"/>
+      <c r="C289" s="58"/>
+      <c r="D289" s="61"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="61"/>
-      <c r="B290" s="61"/>
-      <c r="C290" s="54"/>
-      <c r="D290" s="60"/>
+      <c r="A290" s="52"/>
+      <c r="B290" s="52"/>
+      <c r="C290" s="58"/>
+      <c r="D290" s="61"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="54" t="s">
+      <c r="B291" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="58"/>
-      <c r="D291" s="57"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="56"/>
       <c r="E291" s="7" t="s">
         <v>269</v>
       </c>
@@ -6886,10 +6886,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="54"/>
-      <c r="B292" s="54"/>
-      <c r="C292" s="58"/>
-      <c r="D292" s="57"/>
+      <c r="A292" s="58"/>
+      <c r="B292" s="58"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="56"/>
       <c r="E292" s="11" t="s">
         <v>271</v>
       </c>
@@ -6901,10 +6901,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="54"/>
-      <c r="B293" s="54"/>
-      <c r="C293" s="58"/>
-      <c r="D293" s="57"/>
+      <c r="A293" s="58"/>
+      <c r="B293" s="58"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="56"/>
       <c r="E293" s="11" t="s">
         <v>273</v>
       </c>
@@ -6916,10 +6916,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="54"/>
-      <c r="B294" s="54"/>
-      <c r="C294" s="58"/>
-      <c r="D294" s="57"/>
+      <c r="A294" s="58"/>
+      <c r="B294" s="58"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="56"/>
       <c r="E294" s="11" t="s">
         <v>275</v>
       </c>
@@ -6931,22 +6931,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="54"/>
-      <c r="B295" s="54"/>
-      <c r="C295" s="58"/>
-      <c r="D295" s="57"/>
+      <c r="A295" s="58"/>
+      <c r="B295" s="58"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="56"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="54"/>
-      <c r="B296" s="54" t="s">
+      <c r="A296" s="58"/>
+      <c r="B296" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="58"/>
-      <c r="D296" s="57"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="56"/>
       <c r="E296" s="7" t="s">
         <v>279</v>
       </c>
@@ -6958,10 +6958,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="54"/>
-      <c r="B297" s="54"/>
-      <c r="C297" s="58"/>
-      <c r="D297" s="57"/>
+      <c r="A297" s="58"/>
+      <c r="B297" s="58"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="56"/>
       <c r="E297" s="11" t="s">
         <v>281</v>
       </c>
@@ -6973,10 +6973,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="54"/>
-      <c r="B298" s="54"/>
-      <c r="C298" s="58"/>
-      <c r="D298" s="57"/>
+      <c r="A298" s="58"/>
+      <c r="B298" s="58"/>
+      <c r="C298" s="67"/>
+      <c r="D298" s="56"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -6988,10 +6988,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="54"/>
-      <c r="B299" s="54"/>
-      <c r="C299" s="58"/>
-      <c r="D299" s="57"/>
+      <c r="A299" s="58"/>
+      <c r="B299" s="58"/>
+      <c r="C299" s="67"/>
+      <c r="D299" s="56"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7003,34 +7003,34 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="54"/>
-      <c r="B300" s="54"/>
-      <c r="C300" s="58"/>
-      <c r="D300" s="57"/>
+      <c r="A300" s="58"/>
+      <c r="B300" s="58"/>
+      <c r="C300" s="67"/>
+      <c r="D300" s="56"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="54"/>
-      <c r="B301" s="54"/>
-      <c r="C301" s="58"/>
-      <c r="D301" s="57"/>
+      <c r="A301" s="58"/>
+      <c r="B301" s="58"/>
+      <c r="C301" s="67"/>
+      <c r="D301" s="56"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="54" t="s">
+      <c r="A302" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="55" t="s">
+      <c r="B302" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="56"/>
-      <c r="D302" s="57"/>
+      <c r="C302" s="55"/>
+      <c r="D302" s="56"/>
       <c r="E302" s="7" t="s">
         <v>287</v>
       </c>
@@ -7042,10 +7042,10 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="54"/>
-      <c r="B303" s="55"/>
-      <c r="C303" s="56"/>
-      <c r="D303" s="57"/>
+      <c r="A303" s="58"/>
+      <c r="B303" s="53"/>
+      <c r="C303" s="55"/>
+      <c r="D303" s="56"/>
       <c r="E303" s="11" t="s">
         <v>289</v>
       </c>
@@ -7057,10 +7057,10 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="54"/>
-      <c r="B304" s="55"/>
-      <c r="C304" s="56"/>
-      <c r="D304" s="57"/>
+      <c r="A304" s="58"/>
+      <c r="B304" s="53"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="56"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7072,10 +7072,10 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="54"/>
-      <c r="B305" s="55"/>
-      <c r="C305" s="56"/>
-      <c r="D305" s="57"/>
+      <c r="A305" s="58"/>
+      <c r="B305" s="53"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="56"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7087,18 +7087,18 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="54"/>
-      <c r="B306" s="55"/>
-      <c r="C306" s="56"/>
-      <c r="D306" s="57"/>
+      <c r="A306" s="58"/>
+      <c r="B306" s="53"/>
+      <c r="C306" s="55"/>
+      <c r="D306" s="56"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="54"/>
-      <c r="B307" s="54" t="s">
+      <c r="A307" s="58"/>
+      <c r="B307" s="58" t="s">
         <v>293</v>
       </c>
       <c r="C307" s="47" t="s">
@@ -7111,12 +7111,12 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="54"/>
-      <c r="B308" s="54"/>
-      <c r="C308" s="54" t="s">
+      <c r="A308" s="58"/>
+      <c r="B308" s="58"/>
+      <c r="C308" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="D308" s="57"/>
+      <c r="D308" s="56"/>
       <c r="E308" s="11" t="s">
         <v>295</v>
       </c>
@@ -7128,10 +7128,10 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="54"/>
-      <c r="B309" s="54"/>
-      <c r="C309" s="54"/>
-      <c r="D309" s="57"/>
+      <c r="A309" s="58"/>
+      <c r="B309" s="58"/>
+      <c r="C309" s="58"/>
+      <c r="D309" s="56"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
@@ -7143,10 +7143,10 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="54"/>
-      <c r="B310" s="54"/>
-      <c r="C310" s="54"/>
-      <c r="D310" s="57"/>
+      <c r="A310" s="58"/>
+      <c r="B310" s="58"/>
+      <c r="C310" s="58"/>
+      <c r="D310" s="56"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
@@ -7158,42 +7158,42 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="54"/>
-      <c r="B311" s="54"/>
-      <c r="C311" s="54"/>
-      <c r="D311" s="57"/>
+      <c r="A311" s="58"/>
+      <c r="B311" s="58"/>
+      <c r="C311" s="58"/>
+      <c r="D311" s="56"/>
       <c r="E311" s="11" t="s">
         <v>297</v>
       </c>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="54"/>
-      <c r="B312" s="54"/>
-      <c r="C312" s="54"/>
-      <c r="D312" s="57"/>
+      <c r="A312" s="58"/>
+      <c r="B312" s="58"/>
+      <c r="C312" s="58"/>
+      <c r="D312" s="56"/>
       <c r="E312" s="11" t="s">
         <v>298</v>
       </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="54"/>
-      <c r="B313" s="54"/>
-      <c r="C313" s="54"/>
-      <c r="D313" s="57"/>
+      <c r="A313" s="58"/>
+      <c r="B313" s="58"/>
+      <c r="C313" s="58"/>
+      <c r="D313" s="56"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="54"/>
-      <c r="B314" s="54"/>
-      <c r="C314" s="54" t="s">
+      <c r="A314" s="58"/>
+      <c r="B314" s="58"/>
+      <c r="C314" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="D314" s="57"/>
+      <c r="D314" s="56"/>
       <c r="E314" s="7" t="s">
         <v>218</v>
       </c>
@@ -7205,10 +7205,10 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="54"/>
-      <c r="B315" s="54"/>
-      <c r="C315" s="54"/>
-      <c r="D315" s="57"/>
+      <c r="A315" s="58"/>
+      <c r="B315" s="58"/>
+      <c r="C315" s="58"/>
+      <c r="D315" s="56"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
@@ -7220,10 +7220,10 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="54"/>
-      <c r="B316" s="54"/>
-      <c r="C316" s="54"/>
-      <c r="D316" s="57"/>
+      <c r="A316" s="58"/>
+      <c r="B316" s="58"/>
+      <c r="C316" s="58"/>
+      <c r="D316" s="56"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
@@ -7235,44 +7235,44 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="54"/>
-      <c r="B317" s="54"/>
-      <c r="C317" s="54"/>
-      <c r="D317" s="57"/>
+      <c r="A317" s="58"/>
+      <c r="B317" s="58"/>
+      <c r="C317" s="58"/>
+      <c r="D317" s="56"/>
       <c r="E317" s="11" t="s">
         <v>300</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="54"/>
-      <c r="B318" s="54"/>
-      <c r="C318" s="54"/>
-      <c r="D318" s="57"/>
+      <c r="A318" s="58"/>
+      <c r="B318" s="58"/>
+      <c r="C318" s="58"/>
+      <c r="D318" s="56"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="54"/>
-      <c r="B319" s="54"/>
-      <c r="C319" s="54"/>
-      <c r="D319" s="57"/>
+      <c r="A319" s="58"/>
+      <c r="B319" s="58"/>
+      <c r="C319" s="58"/>
+      <c r="D319" s="56"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="54" t="s">
+      <c r="A320" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="55" t="s">
+      <c r="B320" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="56"/>
-      <c r="D320" s="57"/>
+      <c r="C320" s="55"/>
+      <c r="D320" s="56"/>
       <c r="E320" s="7" t="s">
         <v>303</v>
       </c>
@@ -7284,10 +7284,10 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="54"/>
-      <c r="B321" s="55"/>
-      <c r="C321" s="56"/>
-      <c r="D321" s="57"/>
+      <c r="A321" s="58"/>
+      <c r="B321" s="53"/>
+      <c r="C321" s="55"/>
+      <c r="D321" s="56"/>
       <c r="E321" s="11" t="s">
         <v>305</v>
       </c>
@@ -7299,10 +7299,10 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="54"/>
-      <c r="B322" s="55"/>
-      <c r="C322" s="56"/>
-      <c r="D322" s="57"/>
+      <c r="A322" s="58"/>
+      <c r="B322" s="53"/>
+      <c r="C322" s="55"/>
+      <c r="D322" s="56"/>
       <c r="E322" s="11" t="s">
         <v>307</v>
       </c>
@@ -7314,10 +7314,10 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="54"/>
-      <c r="B323" s="55"/>
-      <c r="C323" s="56"/>
-      <c r="D323" s="57"/>
+      <c r="A323" s="58"/>
+      <c r="B323" s="53"/>
+      <c r="C323" s="55"/>
+      <c r="D323" s="56"/>
       <c r="E323" s="11" t="s">
         <v>309</v>
       </c>
@@ -7329,18 +7329,18 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="54"/>
-      <c r="B324" s="55"/>
-      <c r="C324" s="56"/>
-      <c r="D324" s="57"/>
+      <c r="A324" s="58"/>
+      <c r="B324" s="53"/>
+      <c r="C324" s="55"/>
+      <c r="D324" s="56"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="54"/>
-      <c r="B325" s="54" t="s">
+      <c r="A325" s="58"/>
+      <c r="B325" s="58" t="s">
         <v>311</v>
       </c>
       <c r="C325" s="47" t="s">
@@ -7353,12 +7353,12 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="54"/>
-      <c r="B326" s="54"/>
-      <c r="C326" s="54" t="s">
+      <c r="A326" s="58"/>
+      <c r="B326" s="58"/>
+      <c r="C326" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D326" s="57"/>
+      <c r="D326" s="56"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
@@ -7370,82 +7370,82 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="54"/>
-      <c r="B327" s="54"/>
-      <c r="C327" s="54"/>
-      <c r="D327" s="57"/>
+      <c r="A327" s="58"/>
+      <c r="B327" s="58"/>
+      <c r="C327" s="58"/>
+      <c r="D327" s="56"/>
       <c r="E327" s="11" t="s">
         <v>314</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="54"/>
-      <c r="B328" s="54"/>
-      <c r="C328" s="54"/>
-      <c r="D328" s="57"/>
+      <c r="A328" s="58"/>
+      <c r="B328" s="58"/>
+      <c r="C328" s="58"/>
+      <c r="D328" s="56"/>
       <c r="E328" s="11" t="s">
         <v>315</v>
       </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="54"/>
-      <c r="B329" s="54"/>
-      <c r="C329" s="54"/>
-      <c r="D329" s="57"/>
+      <c r="A329" s="58"/>
+      <c r="B329" s="58"/>
+      <c r="C329" s="58"/>
+      <c r="D329" s="56"/>
       <c r="E329" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="54"/>
-      <c r="B330" s="54"/>
-      <c r="C330" s="54"/>
-      <c r="D330" s="57"/>
+      <c r="A330" s="58"/>
+      <c r="B330" s="58"/>
+      <c r="C330" s="58"/>
+      <c r="D330" s="56"/>
       <c r="E330" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="54"/>
-      <c r="B331" s="54"/>
-      <c r="C331" s="54"/>
-      <c r="D331" s="57"/>
+      <c r="A331" s="58"/>
+      <c r="B331" s="58"/>
+      <c r="C331" s="58"/>
+      <c r="D331" s="56"/>
       <c r="E331" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="54"/>
-      <c r="B332" s="54"/>
-      <c r="C332" s="54"/>
-      <c r="D332" s="57"/>
+      <c r="A332" s="58"/>
+      <c r="B332" s="58"/>
+      <c r="C332" s="58"/>
+      <c r="D332" s="56"/>
       <c r="E332" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="54"/>
-      <c r="B333" s="54"/>
-      <c r="C333" s="54"/>
-      <c r="D333" s="57"/>
+      <c r="A333" s="58"/>
+      <c r="B333" s="58"/>
+      <c r="C333" s="58"/>
+      <c r="D333" s="56"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="52" t="s">
+      <c r="A334" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="B334" s="53"/>
-      <c r="C334" s="53"/>
-      <c r="D334" s="53"/>
+      <c r="B334" s="69"/>
+      <c r="C334" s="69"/>
+      <c r="D334" s="69"/>
       <c r="E334" s="7" t="s">
         <v>317</v>
       </c>
@@ -7457,10 +7457,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="52"/>
-      <c r="B335" s="52"/>
-      <c r="C335" s="53"/>
-      <c r="D335" s="53"/>
+      <c r="A335" s="59"/>
+      <c r="B335" s="59"/>
+      <c r="C335" s="69"/>
+      <c r="D335" s="69"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7472,10 +7472,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="52"/>
-      <c r="B336" s="52"/>
-      <c r="C336" s="53"/>
-      <c r="D336" s="53"/>
+      <c r="A336" s="59"/>
+      <c r="B336" s="59"/>
+      <c r="C336" s="69"/>
+      <c r="D336" s="69"/>
       <c r="E336" s="11" t="s">
         <v>321</v>
       </c>
@@ -7487,10 +7487,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="52"/>
-      <c r="B337" s="52"/>
-      <c r="C337" s="53"/>
-      <c r="D337" s="53"/>
+      <c r="A337" s="59"/>
+      <c r="B337" s="59"/>
+      <c r="C337" s="69"/>
+      <c r="D337" s="69"/>
       <c r="E337" s="11" t="s">
         <v>323</v>
       </c>
@@ -7502,10 +7502,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="52"/>
-      <c r="B338" s="52"/>
-      <c r="C338" s="53"/>
-      <c r="D338" s="53"/>
+      <c r="A338" s="59"/>
+      <c r="B338" s="59"/>
+      <c r="C338" s="69"/>
+      <c r="D338" s="69"/>
       <c r="E338" s="11" t="s">
         <v>325</v>
       </c>
@@ -7517,20 +7517,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="52"/>
-      <c r="B339" s="52"/>
-      <c r="C339" s="53"/>
-      <c r="D339" s="53"/>
+      <c r="A339" s="59"/>
+      <c r="B339" s="59"/>
+      <c r="C339" s="69"/>
+      <c r="D339" s="69"/>
       <c r="E339" s="11" t="s">
         <v>248</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="52"/>
-      <c r="B340" s="52"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
+      <c r="A340" s="59"/>
+      <c r="B340" s="59"/>
+      <c r="C340" s="69"/>
+      <c r="D340" s="69"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7539,6 +7539,87 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7563,87 +7644,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>DelStateState</t>
-  </si>
-  <si>
-    <t>Назначить доступ на перевод в последующее сосояние</t>
   </si>
   <si>
     <t>GetStateTransitionRoles
@@ -1547,6 +1544,9 @@
   </si>
   <si>
     <t>Возвращает все типы, с которыми может быть связан объект заданого типа заданным видом связи</t>
+  </si>
+  <si>
+    <t>Назначить доступ на перевод в последующее состояние</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1711,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,6 +1781,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC4CE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +1970,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2055,30 +2067,32 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,25 +2101,51 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2198,6 +2238,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF9797"/>
       <color rgb="FFDC4CE0"/>
     </mruColors>
   </colors>
@@ -2895,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3000,16 +3041,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3022,10 +3063,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3037,10 +3078,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -3052,10 +3093,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3070,18 +3111,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3094,12 +3135,12 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="54" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3111,10 +3152,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3129,10 +3170,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3145,10 +3186,10 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3163,20 +3204,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3184,23 +3225,23 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="78" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="56"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3215,10 +3256,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3230,22 +3271,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="56"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="54" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3257,10 +3298,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3275,10 +3316,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3291,10 +3332,10 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3309,20 +3350,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3330,32 +3371,32 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3370,10 +3411,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3385,10 +3426,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="56"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3400,10 +3441,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3415,72 +3456,72 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="56"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="56"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="60" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3492,10 +3533,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="56"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
@@ -3507,10 +3548,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="56"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
@@ -3522,10 +3563,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="56"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
@@ -3540,10 +3581,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="56"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
@@ -3551,12 +3592,12 @@
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="63" t="s">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
@@ -3568,10 +3609,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="56"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
@@ -3583,10 +3624,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="56"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
@@ -3598,14 +3639,14 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3617,10 +3658,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="52"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="23" t="s">
         <v>89</v>
       </c>
@@ -3632,10 +3673,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="52"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3647,10 +3688,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3662,18 +3703,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="52"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3686,12 +3727,12 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="56"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3703,10 +3744,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="56"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3718,10 +3759,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="56"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3733,10 +3774,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="56"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3748,52 +3789,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="56"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="56"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="56"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="56"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3805,10 +3846,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
@@ -3820,10 +3861,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="56"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
@@ -3835,10 +3876,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
@@ -3850,47 +3891,47 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="56"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="56"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="58" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="56"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="74" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="56"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3902,20 +3943,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="56"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="56"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
@@ -3927,20 +3968,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="56"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="56"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
@@ -3952,10 +3993,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="59" t="s">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="81" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3969,10 +4010,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -3984,157 +4025,157 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="81"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="42" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="81"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="81"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="64" t="s">
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="56"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="56"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="42" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="23" t="s">
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="19" t="s">
+    </row>
+    <row r="81" spans="1:9" ht="60">
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="19" t="s">
+      <c r="I81" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="I81" s="19" t="s">
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="61"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="15" t="s">
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A83" s="61"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="56"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
@@ -4142,14 +4183,14 @@
         <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="56"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
@@ -4157,25 +4198,25 @@
         <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="I84" s="13"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="56"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4183,14 +4224,14 @@
         <v>12</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="56"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4198,95 +4239,95 @@
         <v>12</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="56"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="56"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="20"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F89" s="20"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="11" t="s">
+      <c r="F90" s="20"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="20"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="11" t="s">
+      <c r="F91" s="20"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="56"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="56"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="20"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="61" t="s">
-        <v>153</v>
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>97</v>
@@ -4302,32 +4343,32 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="52"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="61"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="60"/>
       <c r="E97" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F97" s="20"/>
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="61"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="60"/>
       <c r="E98" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F98" s="20"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="52"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="61"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="60"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4340,10 +4381,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="52"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="61"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4351,35 +4392,35 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="52"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="61"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="60"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="52"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="61"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="60"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="61" t="s">
-        <v>154</v>
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>79</v>
@@ -4388,14 +4429,14 @@
         <v>80</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="61"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="60"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4403,46 +4444,46 @@
         <v>80</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="11" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="52"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="61"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="G106" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G106" s="19" t="s">
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="61" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="52"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D107" s="56"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4450,14 +4491,14 @@
         <v>12</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="56"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4465,24 +4506,24 @@
         <v>12</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="52"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="52"/>
-      <c r="D109" s="56"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="56"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="57"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4490,14 +4531,14 @@
         <v>12</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="56"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4505,54 +4546,54 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="52"/>
-      <c r="B112" s="52"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="56"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="52"/>
-      <c r="B113" s="52"/>
-      <c r="C113" s="52"/>
-      <c r="D113" s="56"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F113" s="11"/>
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="56"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="52"/>
-      <c r="B115" s="52"/>
-      <c r="C115" s="52"/>
-      <c r="D115" s="56"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="52"/>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="56"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4560,12 +4601,12 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="52"/>
-      <c r="B117" s="52"/>
-      <c r="C117" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D117" s="56"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="57"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4577,424 +4618,424 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="52"/>
-      <c r="B118" s="52"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="56"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="57"/>
       <c r="E118" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="52"/>
-      <c r="B119" s="52"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="56"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="56"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F120" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G120" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="27">
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="54"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="11" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="52"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F121" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G121" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="11" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="52"/>
-      <c r="B122" s="52"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="F122" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="52"/>
-      <c r="B123" s="52"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="56"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F123" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G123" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="54" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="52"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="58" t="s">
+      <c r="D124" s="57"/>
+      <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D124" s="56"/>
-      <c r="E124" s="7" t="s">
+      <c r="F124" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F124" s="13" t="s">
+      <c r="G124" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="I124" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I124" s="30" t="s">
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="52"/>
-      <c r="B125" s="52"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="11" t="s">
+      <c r="F125" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="52"/>
-      <c r="B126" s="52"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="11" t="s">
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" ht="30">
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="52"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="11" t="s">
+      <c r="F127" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G127" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G127" s="19" t="s">
+    </row>
+    <row r="128" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="54" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="52"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="58" t="s">
+      <c r="D128" s="57"/>
+      <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D128" s="56"/>
-      <c r="E128" s="7" t="s">
+      <c r="F128" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="G128" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="I128" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I128" s="14" t="s">
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="54"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="52"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="11" t="s">
+      <c r="F129" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="52"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="11" t="s">
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.75">
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="15" t="s">
+      <c r="F131" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="I131" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I131" s="9" t="s">
+    </row>
+    <row r="132" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A132" s="61"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="54" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="58" t="s">
+      <c r="D132" s="57"/>
+      <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D132" s="56"/>
-      <c r="E132" s="7" t="s">
+      <c r="F132" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="56"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="57"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="11" t="s">
+      <c r="F134" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="52"/>
-      <c r="B135" s="52"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="11" t="s">
+      <c r="F135" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="52"/>
-      <c r="B136" s="52"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="56"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="57"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="52"/>
-      <c r="B137" s="52"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="56"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="57"/>
       <c r="E137" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="52"/>
-      <c r="B138" s="52"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="52"/>
-      <c r="B139" s="52"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="56"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="57"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="52"/>
-      <c r="B140" s="52"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="56"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="57"/>
       <c r="E140" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="61" t="s">
-        <v>207</v>
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="60" t="s">
+        <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="52"/>
-      <c r="B142" s="52"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="61"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="60"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="52"/>
-      <c r="B143" s="52"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="61"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="60"/>
       <c r="E143" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="52"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="61"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="60"/>
       <c r="E144" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="52"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="61"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="54"/>
+      <c r="D145" s="60"/>
       <c r="E145" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="52"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="61"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="60"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G146" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="61"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="52"/>
-      <c r="B147" s="52"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="15" t="s">
+      <c r="F147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B148" s="54" t="s">
+      <c r="C148" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="57"/>
+      <c r="E148" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="C148" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="56"/>
-      <c r="E148" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
@@ -5004,12 +5045,12 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="52"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="56"/>
+      <c r="A149" s="61"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
@@ -5019,12 +5060,12 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="52"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="62"/>
-      <c r="D150" s="56"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>12</v>
@@ -5034,10 +5075,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="52"/>
-      <c r="B151" s="54"/>
-      <c r="C151" s="62"/>
-      <c r="D151" s="56"/>
+      <c r="A151" s="61"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -5049,19 +5090,19 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="52"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="62"/>
-      <c r="D152" s="56"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="52"/>
-      <c r="B153" s="52" t="s">
-        <v>216</v>
+      <c r="A153" s="61"/>
+      <c r="B153" s="61" t="s">
+        <v>215</v>
       </c>
       <c r="C153" s="45" t="s">
         <v>95</v>
@@ -5073,12 +5114,12 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="52"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="53" t="s">
+      <c r="A154" s="61"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="56"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5090,10 +5131,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="52"/>
-      <c r="B155" s="52"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="56"/>
+      <c r="A155" s="61"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="57"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5108,10 +5149,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="52"/>
-      <c r="B156" s="52"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="56"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="57"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5123,10 +5164,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="52"/>
-      <c r="B157" s="52"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="56"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="57"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5138,132 +5179,132 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="52"/>
-      <c r="B158" s="52"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="56"/>
+      <c r="A158" s="61"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="57"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="52"/>
-      <c r="B159" s="52"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="56"/>
+      <c r="A159" s="61"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="57"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="52"/>
-      <c r="B160" s="52"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="56"/>
+      <c r="A160" s="61"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="52"/>
-      <c r="B161" s="52"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="56"/>
+      <c r="A161" s="61"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="52"/>
-      <c r="B162" s="52"/>
-      <c r="C162" s="66" t="s">
+      <c r="A162" s="61"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="56"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="52"/>
-      <c r="B163" s="52"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="56"/>
+      <c r="A163" s="61"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
-      <c r="C164" s="66"/>
-      <c r="D164" s="56"/>
+      <c r="A164" s="61"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="57"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
-      <c r="C165" s="66"/>
-      <c r="D165" s="56"/>
+      <c r="A165" s="61"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="57"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="42" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="52"/>
-      <c r="B166" s="52"/>
-      <c r="C166" s="66"/>
-      <c r="D166" s="56"/>
+      <c r="A166" s="61"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="57"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="52"/>
-      <c r="B167" s="52"/>
-      <c r="C167" s="66"/>
-      <c r="D167" s="56"/>
+      <c r="A167" s="61"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="57"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="19" t="s">
+      <c r="G167" s="48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="52"/>
-      <c r="B168" s="52"/>
-      <c r="C168" s="66"/>
-      <c r="D168" s="61" t="s">
+      <c r="A168" s="61"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="75" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5272,177 +5313,177 @@
       <c r="F168" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="52"/>
-      <c r="B169" s="52"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="61"/>
+      <c r="A169" s="61"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="75"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="52"/>
-      <c r="B170" s="52"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="61"/>
+      <c r="A170" s="61"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="75"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="52"/>
-      <c r="B171" s="52"/>
-      <c r="C171" s="66"/>
-      <c r="D171" s="61"/>
+      <c r="A171" s="61"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="75"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="52"/>
-      <c r="B172" s="52"/>
-      <c r="C172" s="66"/>
-      <c r="D172" s="61"/>
+      <c r="A172" s="61"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="75"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="42" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="52"/>
-      <c r="B173" s="52"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="61"/>
+      <c r="A173" s="61"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="75"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="52"/>
-      <c r="B174" s="52"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="61"/>
+      <c r="A174" s="61"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="75"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="52"/>
-      <c r="B175" s="52"/>
-      <c r="C175" s="66"/>
-      <c r="D175" s="61"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="75"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="52"/>
-      <c r="B176" s="52"/>
-      <c r="C176" s="65" t="s">
+      <c r="A176" s="61"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="56"/>
+      <c r="D176" s="57"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="42" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="52"/>
-      <c r="B177" s="52"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="56"/>
+      <c r="A177" s="61"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="57"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="42" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="52"/>
-      <c r="B178" s="52"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="56"/>
-      <c r="E178" s="23" t="s">
+      <c r="A178" s="61"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="F178" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="19" t="s">
+    </row>
+    <row r="179" spans="1:9" ht="60">
+      <c r="A179" s="61"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="83"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="52"/>
-      <c r="B179" s="52"/>
-      <c r="C179" s="65"/>
-      <c r="D179" s="56"/>
-      <c r="E179" s="11" t="s">
+      <c r="F179" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F179" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="19" t="s">
+      <c r="I179" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I179" s="19" t="s">
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="83"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="52"/>
-      <c r="B180" s="52"/>
-      <c r="C180" s="65"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="15" t="s">
+      <c r="F180" s="15"/>
+    </row>
+    <row r="181" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A181" s="61"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="F180" s="15"/>
-    </row>
-    <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="52"/>
-      <c r="B181" s="52"/>
-      <c r="C181" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="D181" s="56"/>
+      <c r="D181" s="57"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5450,14 +5491,14 @@
         <v>12</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="52"/>
-      <c r="B182" s="52"/>
-      <c r="C182" s="65"/>
-      <c r="D182" s="56"/>
+      <c r="A182" s="61"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="57"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5465,24 +5506,24 @@
         <v>12</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="61"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="63"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="52"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="65"/>
-      <c r="D183" s="56"/>
-      <c r="E183" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="52"/>
-      <c r="B184" s="52"/>
-      <c r="C184" s="65"/>
-      <c r="D184" s="56"/>
+      <c r="A184" s="61"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="63"/>
+      <c r="D184" s="57"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5490,14 +5531,14 @@
         <v>12</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="52"/>
-      <c r="B185" s="52"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="56"/>
+      <c r="A185" s="61"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="63"/>
+      <c r="D185" s="57"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5505,85 +5546,85 @@
         <v>12</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="52"/>
-      <c r="B186" s="52"/>
-      <c r="C186" s="65"/>
-      <c r="D186" s="56"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="63"/>
+      <c r="D186" s="57"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="52"/>
-      <c r="B187" s="52"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="56"/>
+      <c r="A187" s="61"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="63"/>
+      <c r="D187" s="57"/>
       <c r="E187" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="61"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="63"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F187" s="11"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="52"/>
-      <c r="B188" s="52"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="11" t="s">
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="61"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="63"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F188" s="11"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="52"/>
-      <c r="B189" s="52"/>
-      <c r="C189" s="65"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="11" t="s">
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="61"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="63"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F189" s="11"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="52"/>
-      <c r="B190" s="52"/>
-      <c r="C190" s="65"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="11" t="s">
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="61"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="63"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F190" s="11"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="52"/>
-      <c r="B191" s="52"/>
-      <c r="C191" s="65"/>
-      <c r="D191" s="56"/>
-      <c r="E191" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="52"/>
-      <c r="B192" s="52"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="56"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="63"/>
+      <c r="D192" s="57"/>
       <c r="E192" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="65"/>
-      <c r="D193" s="61" t="s">
-        <v>153</v>
+      <c r="A193" s="61"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="63"/>
+      <c r="D193" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>97</v>
@@ -5599,30 +5640,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="65"/>
-      <c r="D194" s="61"/>
+      <c r="A194" s="61"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="63"/>
+      <c r="D194" s="60"/>
       <c r="E194" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="61"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="63"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F194" s="11"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="65"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="65"/>
-      <c r="D196" s="61"/>
+      <c r="A196" s="61"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="63"/>
+      <c r="D196" s="60"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5634,10 +5675,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="61"/>
+      <c r="A197" s="61"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="63"/>
+      <c r="D197" s="60"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5645,45 +5686,45 @@
         <v>12</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="65"/>
-      <c r="D198" s="61"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="63"/>
+      <c r="D198" s="60"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="52"/>
-      <c r="B199" s="52"/>
-      <c r="C199" s="65"/>
-      <c r="D199" s="61"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="63"/>
+      <c r="D199" s="60"/>
       <c r="E199" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="52"/>
-      <c r="B200" s="52"/>
-      <c r="C200" s="65"/>
-      <c r="D200" s="61"/>
+      <c r="A200" s="61"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="63"/>
+      <c r="D200" s="60"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="52"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="61" t="s">
-        <v>154</v>
+      <c r="A201" s="61"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="63"/>
+      <c r="D201" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>79</v>
@@ -5692,14 +5733,14 @@
         <v>80</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="52"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="65"/>
-      <c r="D202" s="61"/>
+      <c r="A202" s="61"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="60"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5707,61 +5748,61 @@
         <v>80</v>
       </c>
       <c r="G202" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="61"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="11" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="52"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="65"/>
-      <c r="D203" s="61"/>
-      <c r="E203" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="52"/>
-      <c r="B204" s="52"/>
-      <c r="C204" s="65"/>
-      <c r="D204" s="61"/>
+      <c r="A204" s="61"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="60"/>
       <c r="E204" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F204" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F204" s="27" t="s">
+      <c r="G204" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G204" s="19" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="52"/>
-      <c r="B205" s="52"/>
-      <c r="C205" s="65"/>
-      <c r="D205" s="61" t="s">
+      <c r="A205" s="61"/>
+      <c r="B205" s="61"/>
+      <c r="C205" s="63"/>
+      <c r="D205" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="52"/>
-      <c r="B206" s="52"/>
-      <c r="C206" s="65"/>
-      <c r="D206" s="61"/>
+      <c r="A206" s="61"/>
+      <c r="B206" s="61"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="60"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5769,14 +5810,14 @@
         <v>41</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="61"/>
+      <c r="A207" s="61"/>
+      <c r="B207" s="61"/>
+      <c r="C207" s="63"/>
+      <c r="D207" s="60"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5784,36 +5825,36 @@
         <v>12</v>
       </c>
       <c r="G207" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="61"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="11" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="52"/>
-      <c r="B208" s="52"/>
-      <c r="C208" s="65"/>
-      <c r="D208" s="61"/>
-      <c r="E208" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="52"/>
-      <c r="B209" s="52"/>
-      <c r="C209" s="65"/>
-      <c r="D209" s="61"/>
+      <c r="A209" s="61"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="60"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="52"/>
-      <c r="B210" s="52"/>
-      <c r="C210" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D210" s="56"/>
+      <c r="A210" s="61"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210" s="57"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5821,14 +5862,14 @@
         <v>12</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="52"/>
-      <c r="B211" s="52"/>
-      <c r="C211" s="65"/>
-      <c r="D211" s="56"/>
+      <c r="A211" s="61"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="57"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5836,24 +5877,24 @@
         <v>12</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="56"/>
+      <c r="A212" s="61"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="57"/>
       <c r="E212" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="52"/>
-      <c r="B213" s="52"/>
-      <c r="C213" s="65"/>
-      <c r="D213" s="56"/>
+      <c r="A213" s="61"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="57"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5861,14 +5902,14 @@
         <v>12</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="56"/>
+      <c r="A214" s="61"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="63"/>
+      <c r="D214" s="57"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5876,66 +5917,66 @@
         <v>12</v>
       </c>
       <c r="G214" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="61"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="63"/>
+      <c r="D215" s="57"/>
+      <c r="E215" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="52"/>
-      <c r="B215" s="52"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="11" t="s">
+      <c r="F215" s="11"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="61"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="63"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F215" s="11"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="52"/>
-      <c r="B216" s="52"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="11" t="s">
+      <c r="F216" s="11"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="61"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="63"/>
+      <c r="D217" s="57"/>
+      <c r="E217" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F216" s="11"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="52"/>
-      <c r="B217" s="52"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="11" t="s">
+      <c r="F217" s="11"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="61"/>
+      <c r="B218" s="61"/>
+      <c r="C218" s="63"/>
+      <c r="D218" s="57"/>
+      <c r="E218" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F217" s="11"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="52"/>
-      <c r="B218" s="52"/>
-      <c r="C218" s="65"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="52"/>
-      <c r="B219" s="52"/>
-      <c r="C219" s="65"/>
-      <c r="D219" s="56"/>
+      <c r="A219" s="61"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="63"/>
+      <c r="D219" s="57"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="52"/>
-      <c r="B220" s="52"/>
-      <c r="C220" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="D220" s="56"/>
+      <c r="A220" s="61"/>
+      <c r="B220" s="61"/>
+      <c r="C220" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D220" s="57"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5947,1120 +5988,1120 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="52"/>
-      <c r="B221" s="52"/>
-      <c r="C221" s="65"/>
-      <c r="D221" s="56"/>
+      <c r="A221" s="61"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="57"/>
       <c r="E221" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="52"/>
-      <c r="B222" s="52"/>
-      <c r="C222" s="65"/>
-      <c r="D222" s="56"/>
+      <c r="A222" s="61"/>
+      <c r="B222" s="61"/>
+      <c r="C222" s="63"/>
+      <c r="D222" s="57"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="52"/>
-      <c r="B223" s="52"/>
-      <c r="C223" s="65"/>
-      <c r="D223" s="56"/>
+      <c r="A223" s="61"/>
+      <c r="B223" s="61"/>
+      <c r="C223" s="63"/>
+      <c r="D223" s="57"/>
       <c r="E223" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F223" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G223" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="27">
+      <c r="A224" s="61"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="63"/>
+      <c r="D224" s="57"/>
+      <c r="E224" s="11" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="52"/>
-      <c r="B224" s="52"/>
-      <c r="C224" s="65"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F224" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G224" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="30">
+      <c r="A225" s="61"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="63"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="11" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="52"/>
-      <c r="B225" s="52"/>
-      <c r="C225" s="65"/>
-      <c r="D225" s="56"/>
-      <c r="E225" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="F225" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G225" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="52"/>
-      <c r="B226" s="52"/>
-      <c r="C226" s="65"/>
-      <c r="D226" s="56"/>
+      <c r="A226" s="61"/>
+      <c r="B226" s="61"/>
+      <c r="C226" s="63"/>
+      <c r="D226" s="57"/>
       <c r="E226" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F226" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G226" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15" customHeight="1">
+      <c r="A227" s="61"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="63" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="52"/>
-      <c r="B227" s="52"/>
-      <c r="C227" s="65" t="s">
+      <c r="D227" s="57"/>
+      <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D227" s="56"/>
-      <c r="E227" s="7" t="s">
+      <c r="F227" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="G227" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G227" s="7" t="s">
+      <c r="I227" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I227" s="30" t="s">
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="61"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="63"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228" s="52"/>
-      <c r="B228" s="52"/>
-      <c r="C228" s="65"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="11" t="s">
+      <c r="F228" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G228" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F228" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="61"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="63"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="52"/>
-      <c r="B229" s="52"/>
-      <c r="C229" s="65"/>
-      <c r="D229" s="56"/>
-      <c r="E229" s="11" t="s">
+      <c r="F229" s="11"/>
+    </row>
+    <row r="230" spans="1:9" ht="30">
+      <c r="A230" s="61"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="63"/>
+      <c r="D230" s="57"/>
+      <c r="E230" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F229" s="11"/>
-    </row>
-    <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="52"/>
-      <c r="B230" s="52"/>
-      <c r="C230" s="65"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="15" t="s">
+      <c r="F230" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G230" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F230" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G230" s="19" t="s">
+    </row>
+    <row r="231" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A231" s="61"/>
+      <c r="B231" s="61"/>
+      <c r="C231" s="63" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="52"/>
-      <c r="B231" s="52"/>
-      <c r="C231" s="65" t="s">
+      <c r="D231" s="57"/>
+      <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D231" s="56"/>
-      <c r="E231" s="7" t="s">
+      <c r="F231" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F231" s="31" t="s">
+      <c r="G231" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="I231" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I231" s="14" t="s">
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="61"/>
+      <c r="B232" s="61"/>
+      <c r="C232" s="63"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="52"/>
-      <c r="B232" s="52"/>
-      <c r="C232" s="65"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="11" t="s">
+      <c r="F232" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F232" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="61"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="11" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="52"/>
-      <c r="B233" s="52"/>
-      <c r="C233" s="65"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="11" t="s">
+      <c r="F233" s="11"/>
+    </row>
+    <row r="234" spans="1:9" ht="15.75">
+      <c r="A234" s="61"/>
+      <c r="B234" s="61"/>
+      <c r="C234" s="63"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F233" s="11"/>
-    </row>
-    <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="52"/>
-      <c r="B234" s="52"/>
-      <c r="C234" s="65"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="15" t="s">
+      <c r="F234" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G234" s="1" t="s">
+      <c r="I234" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I234" s="9" t="s">
+    </row>
+    <row r="235" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A235" s="61"/>
+      <c r="B235" s="61"/>
+      <c r="C235" s="59" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="52"/>
-      <c r="B235" s="52"/>
-      <c r="C235" s="68" t="s">
+      <c r="D235" s="57"/>
+      <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D235" s="56"/>
-      <c r="E235" s="7" t="s">
+      <c r="F235" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G235" s="1" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="52"/>
-      <c r="B236" s="52"/>
-      <c r="C236" s="68"/>
-      <c r="D236" s="56"/>
+      <c r="A236" s="61"/>
+      <c r="B236" s="61"/>
+      <c r="C236" s="59"/>
+      <c r="D236" s="57"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G236" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="61"/>
+      <c r="B237" s="61"/>
+      <c r="C237" s="59"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="52"/>
-      <c r="B237" s="52"/>
-      <c r="C237" s="68"/>
-      <c r="D237" s="56"/>
-      <c r="E237" s="11" t="s">
+      <c r="F237" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="61"/>
+      <c r="B238" s="61"/>
+      <c r="C238" s="59"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="52"/>
-      <c r="B238" s="52"/>
-      <c r="C238" s="68"/>
-      <c r="D238" s="56"/>
-      <c r="E238" s="11" t="s">
+      <c r="F238" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="52"/>
-      <c r="B239" s="52"/>
-      <c r="C239" s="68"/>
-      <c r="D239" s="56"/>
+      <c r="A239" s="61"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="57"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="52"/>
-      <c r="B240" s="52"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="56"/>
+      <c r="A240" s="61"/>
+      <c r="B240" s="61"/>
+      <c r="C240" s="59"/>
+      <c r="D240" s="57"/>
       <c r="E240" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="61"/>
+      <c r="B241" s="61"/>
+      <c r="C241" s="59"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F240" s="11"/>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="52"/>
-      <c r="B241" s="52"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="56"/>
-      <c r="E241" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="52"/>
-      <c r="B242" s="52"/>
-      <c r="C242" s="68"/>
-      <c r="D242" s="56"/>
+      <c r="A242" s="61"/>
+      <c r="B242" s="61"/>
+      <c r="C242" s="59"/>
+      <c r="D242" s="57"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="52"/>
-      <c r="B243" s="52"/>
-      <c r="C243" s="68"/>
-      <c r="D243" s="56"/>
+      <c r="A243" s="61"/>
+      <c r="B243" s="61"/>
+      <c r="C243" s="59"/>
+      <c r="D243" s="57"/>
       <c r="E243" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G243" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="52"/>
-      <c r="B244" s="52"/>
-      <c r="C244" s="68"/>
-      <c r="D244" s="61" t="s">
-        <v>207</v>
+      <c r="A244" s="61"/>
+      <c r="B244" s="61"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="60" t="s">
+        <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="52"/>
-      <c r="B245" s="52"/>
-      <c r="C245" s="68"/>
-      <c r="D245" s="61"/>
+      <c r="A245" s="61"/>
+      <c r="B245" s="61"/>
+      <c r="C245" s="59"/>
+      <c r="D245" s="60"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="52"/>
-      <c r="B246" s="52"/>
-      <c r="C246" s="68"/>
-      <c r="D246" s="61"/>
+      <c r="A246" s="61"/>
+      <c r="B246" s="61"/>
+      <c r="C246" s="59"/>
+      <c r="D246" s="60"/>
       <c r="E246" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="52"/>
-      <c r="B247" s="52"/>
-      <c r="C247" s="68"/>
-      <c r="D247" s="61"/>
+      <c r="A247" s="61"/>
+      <c r="B247" s="61"/>
+      <c r="C247" s="59"/>
+      <c r="D247" s="60"/>
       <c r="E247" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="52"/>
-      <c r="B248" s="52"/>
-      <c r="C248" s="68"/>
-      <c r="D248" s="61"/>
+      <c r="A248" s="61"/>
+      <c r="B248" s="61"/>
+      <c r="C248" s="59"/>
+      <c r="D248" s="60"/>
       <c r="E248" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="52"/>
-      <c r="B249" s="52"/>
-      <c r="C249" s="68"/>
-      <c r="D249" s="61"/>
+      <c r="A249" s="61"/>
+      <c r="B249" s="61"/>
+      <c r="C249" s="59"/>
+      <c r="D249" s="60"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="52"/>
-      <c r="B250" s="52"/>
-      <c r="C250" s="58" t="s">
+      <c r="A250" s="61"/>
+      <c r="B250" s="61"/>
+      <c r="C250" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D250" s="57"/>
+      <c r="E250" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D250" s="56"/>
-      <c r="E250" s="36" t="s">
+      <c r="F250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="G250" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="G250" s="19" t="s">
+      <c r="I250" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I250" s="9" t="s">
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="61"/>
+      <c r="B251" s="61"/>
+      <c r="C251" s="54"/>
+      <c r="D251" s="57"/>
+      <c r="E251" s="11" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="52"/>
-      <c r="B251" s="52"/>
-      <c r="C251" s="58"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="11" t="s">
+      <c r="F251" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="61"/>
+      <c r="B252" s="61"/>
+      <c r="C252" s="54"/>
+      <c r="D252" s="57"/>
+      <c r="E252" s="11" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="52"/>
-      <c r="B252" s="52"/>
-      <c r="C252" s="58"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="11" t="s">
+      <c r="F252" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F252" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="61"/>
+      <c r="B253" s="61"/>
+      <c r="C253" s="54"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="52"/>
-      <c r="B253" s="52"/>
-      <c r="C253" s="58"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="11" t="s">
+      <c r="F253" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F253" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G253" s="1" t="s">
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="61"/>
+      <c r="B254" s="61"/>
+      <c r="C254" s="54"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="11" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="52"/>
-      <c r="B254" s="52"/>
-      <c r="C254" s="58"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="11" t="s">
+      <c r="F254" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F254" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G254" s="1" t="s">
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="61"/>
+      <c r="B255" s="61"/>
+      <c r="C255" s="54"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="52"/>
-      <c r="B255" s="52"/>
-      <c r="C255" s="58"/>
-      <c r="D255" s="56"/>
-      <c r="E255" s="15" t="s">
+      <c r="F255" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G255" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G255" s="1" t="s">
+    </row>
+    <row r="256" spans="1:9" ht="13.9" customHeight="1">
+      <c r="A256" s="61"/>
+      <c r="B256" s="61"/>
+      <c r="C256" s="54"/>
+      <c r="D256" s="60" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="52"/>
-      <c r="B256" s="52"/>
-      <c r="C256" s="58"/>
-      <c r="D256" s="61" t="s">
+      <c r="E256" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E256" s="7" t="s">
+      <c r="F256" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G256" s="1" t="s">
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="61"/>
+      <c r="B257" s="61"/>
+      <c r="C257" s="54"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="52"/>
-      <c r="B257" s="52"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="61"/>
-      <c r="E257" s="11" t="s">
+      <c r="F257" s="11"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="61"/>
+      <c r="B258" s="61"/>
+      <c r="C258" s="54"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F257" s="11"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="52"/>
-      <c r="B258" s="52"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="61"/>
-      <c r="E258" s="11" t="s">
+      <c r="F258" s="11"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="61"/>
+      <c r="B259" s="61"/>
+      <c r="C259" s="54"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F258" s="11"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="52"/>
-      <c r="B259" s="52"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="61"/>
-      <c r="E259" s="11" t="s">
+      <c r="F259" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="52"/>
-      <c r="B260" s="52"/>
-      <c r="C260" s="58"/>
-      <c r="D260" s="61"/>
+      <c r="A260" s="61"/>
+      <c r="B260" s="61"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="60"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G260" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="61"/>
+      <c r="B261" s="61"/>
+      <c r="C261" s="54"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="52"/>
-      <c r="B261" s="52"/>
-      <c r="C261" s="58"/>
-      <c r="D261" s="61"/>
-      <c r="E261" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="52"/>
-      <c r="B262" s="52"/>
-      <c r="C262" s="58"/>
-      <c r="D262" s="61"/>
+      <c r="A262" s="61"/>
+      <c r="B262" s="61"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="60"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="52"/>
-      <c r="B263" s="52"/>
-      <c r="C263" s="58"/>
-      <c r="D263" s="61"/>
+      <c r="A263" s="61"/>
+      <c r="B263" s="61"/>
+      <c r="C263" s="54"/>
+      <c r="D263" s="60"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="52"/>
-      <c r="B264" s="52"/>
-      <c r="C264" s="58"/>
-      <c r="D264" s="61"/>
+      <c r="A264" s="61"/>
+      <c r="B264" s="61"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="60"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="52"/>
-      <c r="B265" s="52"/>
-      <c r="C265" s="58"/>
-      <c r="D265" s="61" t="s">
+      <c r="A265" s="61"/>
+      <c r="B265" s="61"/>
+      <c r="C265" s="54"/>
+      <c r="D265" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E265" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G265" s="1" t="s">
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="61"/>
+      <c r="B266" s="61"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F266" s="11"/>
+    </row>
+    <row r="267" spans="1:7" ht="30">
+      <c r="A267" s="61"/>
+      <c r="B267" s="61"/>
+      <c r="C267" s="54"/>
+      <c r="D267" s="60"/>
+      <c r="E267" s="23" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="52"/>
-      <c r="B266" s="52"/>
-      <c r="C266" s="58"/>
-      <c r="D266" s="61"/>
-      <c r="E266" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F266" s="11"/>
-    </row>
-    <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="52"/>
-      <c r="B267" s="52"/>
-      <c r="C267" s="58"/>
-      <c r="D267" s="61"/>
-      <c r="E267" s="23" t="s">
+      <c r="F267" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="52"/>
-      <c r="B268" s="52"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="61"/>
+      <c r="A268" s="61"/>
+      <c r="B268" s="61"/>
+      <c r="C268" s="54"/>
+      <c r="D268" s="60"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="52"/>
-      <c r="B269" s="52"/>
-      <c r="C269" s="58"/>
-      <c r="D269" s="61"/>
+      <c r="A269" s="61"/>
+      <c r="B269" s="61"/>
+      <c r="C269" s="54"/>
+      <c r="D269" s="60"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="52"/>
-      <c r="B270" s="52"/>
-      <c r="C270" s="58"/>
-      <c r="D270" s="61"/>
+      <c r="A270" s="61"/>
+      <c r="B270" s="61"/>
+      <c r="C270" s="54"/>
+      <c r="D270" s="60"/>
       <c r="E270" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="52"/>
-      <c r="B271" s="52"/>
-      <c r="C271" s="58"/>
-      <c r="D271" s="61"/>
+      <c r="A271" s="61"/>
+      <c r="B271" s="61"/>
+      <c r="C271" s="54"/>
+      <c r="D271" s="60"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="52"/>
-      <c r="B272" s="52"/>
-      <c r="C272" s="58"/>
-      <c r="D272" s="61" t="s">
-        <v>254</v>
+      <c r="A272" s="61"/>
+      <c r="B272" s="61"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="60" t="s">
+        <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="52"/>
-      <c r="B273" s="52"/>
-      <c r="C273" s="58"/>
-      <c r="D273" s="61"/>
+      <c r="A273" s="61"/>
+      <c r="B273" s="61"/>
+      <c r="C273" s="54"/>
+      <c r="D273" s="60"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="52"/>
-      <c r="B274" s="52"/>
-      <c r="C274" s="58"/>
-      <c r="D274" s="61"/>
+      <c r="A274" s="61"/>
+      <c r="B274" s="61"/>
+      <c r="C274" s="54"/>
+      <c r="D274" s="60"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G274" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="61"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="54"/>
+      <c r="D275" s="60"/>
+      <c r="E275" s="11" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="52"/>
-      <c r="B275" s="52"/>
-      <c r="C275" s="58"/>
-      <c r="D275" s="61"/>
-      <c r="E275" s="11" t="s">
+      <c r="F275" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G275" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="52"/>
-      <c r="B276" s="52"/>
-      <c r="C276" s="58"/>
-      <c r="D276" s="61"/>
+      <c r="A276" s="61"/>
+      <c r="B276" s="61"/>
+      <c r="C276" s="54"/>
+      <c r="D276" s="60"/>
       <c r="E276" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="52"/>
-      <c r="B277" s="52"/>
-      <c r="C277" s="58"/>
-      <c r="D277" s="61"/>
+      <c r="A277" s="61"/>
+      <c r="B277" s="61"/>
+      <c r="C277" s="54"/>
+      <c r="D277" s="60"/>
       <c r="E277" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F277" s="11"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="61"/>
+      <c r="B278" s="61"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="60"/>
+      <c r="E278" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F277" s="11"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="52"/>
-      <c r="B278" s="52"/>
-      <c r="C278" s="58"/>
-      <c r="D278" s="61"/>
-      <c r="E278" s="11" t="s">
+      <c r="F278" s="11"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="61"/>
+      <c r="B279" s="61"/>
+      <c r="C279" s="54"/>
+      <c r="D279" s="60"/>
+      <c r="E279" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F278" s="11"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="52"/>
-      <c r="B279" s="52"/>
-      <c r="C279" s="58"/>
-      <c r="D279" s="61"/>
-      <c r="E279" s="11" t="s">
+      <c r="F279" s="11"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="61"/>
+      <c r="B280" s="61"/>
+      <c r="C280" s="54"/>
+      <c r="D280" s="60"/>
+      <c r="E280" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F279" s="11"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="52"/>
-      <c r="B280" s="52"/>
-      <c r="C280" s="58"/>
-      <c r="D280" s="61"/>
-      <c r="E280" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="52"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="58"/>
-      <c r="D281" s="61"/>
+      <c r="A281" s="61"/>
+      <c r="B281" s="61"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="60"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="52"/>
-      <c r="B282" s="52"/>
-      <c r="C282" s="58"/>
-      <c r="D282" s="61"/>
+      <c r="A282" s="61"/>
+      <c r="B282" s="61"/>
+      <c r="C282" s="54"/>
+      <c r="D282" s="60"/>
       <c r="E282" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F282" s="15"/>
+    </row>
+    <row r="283" spans="1:7" ht="13.9" customHeight="1">
+      <c r="A283" s="61"/>
+      <c r="B283" s="61"/>
+      <c r="C283" s="54"/>
+      <c r="D283" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E283" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="F282" s="15"/>
-    </row>
-    <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="52"/>
-      <c r="B283" s="52"/>
-      <c r="C283" s="58"/>
-      <c r="D283" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="E283" s="36" t="s">
+      <c r="F283" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G283" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F283" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G283" s="1" t="s">
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="61"/>
+      <c r="B284" s="61"/>
+      <c r="C284" s="54"/>
+      <c r="D284" s="60"/>
+      <c r="E284" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="52"/>
-      <c r="B284" s="52"/>
-      <c r="C284" s="58"/>
-      <c r="D284" s="61"/>
-      <c r="E284" s="11" t="s">
+      <c r="F284" s="11"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="61"/>
+      <c r="B285" s="61"/>
+      <c r="C285" s="54"/>
+      <c r="D285" s="60"/>
+      <c r="E285" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F284" s="11"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="52"/>
-      <c r="B285" s="52"/>
-      <c r="C285" s="58"/>
-      <c r="D285" s="61"/>
-      <c r="E285" s="11" t="s">
+      <c r="F285" s="11"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="61"/>
+      <c r="B286" s="61"/>
+      <c r="C286" s="54"/>
+      <c r="D286" s="60"/>
+      <c r="E286" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F285" s="11"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="52"/>
-      <c r="B286" s="52"/>
-      <c r="C286" s="58"/>
-      <c r="D286" s="61"/>
-      <c r="E286" s="11" t="s">
+      <c r="F286" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F286" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="52"/>
-      <c r="B287" s="52"/>
-      <c r="C287" s="58"/>
-      <c r="D287" s="61"/>
+      <c r="A287" s="61"/>
+      <c r="B287" s="61"/>
+      <c r="C287" s="54"/>
+      <c r="D287" s="60"/>
       <c r="E287" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="52"/>
-      <c r="B288" s="52"/>
-      <c r="C288" s="58"/>
-      <c r="D288" s="61"/>
+      <c r="A288" s="61"/>
+      <c r="B288" s="61"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="60"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="52"/>
-      <c r="B289" s="52"/>
-      <c r="C289" s="58"/>
-      <c r="D289" s="61"/>
+      <c r="A289" s="61"/>
+      <c r="B289" s="61"/>
+      <c r="C289" s="54"/>
+      <c r="D289" s="60"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="52"/>
-      <c r="B290" s="52"/>
-      <c r="C290" s="58"/>
-      <c r="D290" s="61"/>
+      <c r="A290" s="61"/>
+      <c r="B290" s="61"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="60"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="58" t="s">
+      <c r="A291" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B291" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="58" t="s">
+      <c r="C291" s="58"/>
+      <c r="D291" s="57"/>
+      <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="67"/>
-      <c r="D291" s="56"/>
-      <c r="E291" s="7" t="s">
+      <c r="F291" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G291" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="54"/>
+      <c r="B292" s="54"/>
+      <c r="C292" s="58"/>
+      <c r="D292" s="57"/>
+      <c r="E292" s="11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="58"/>
-      <c r="B292" s="58"/>
-      <c r="C292" s="67"/>
-      <c r="D292" s="56"/>
-      <c r="E292" s="11" t="s">
+      <c r="F292" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G292" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G292" s="1" t="s">
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="54"/>
+      <c r="B293" s="54"/>
+      <c r="C293" s="58"/>
+      <c r="D293" s="57"/>
+      <c r="E293" s="11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="58"/>
-      <c r="B293" s="58"/>
-      <c r="C293" s="67"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="11" t="s">
+      <c r="F293" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G293" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F293" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="54"/>
+      <c r="B294" s="54"/>
+      <c r="C294" s="58"/>
+      <c r="D294" s="57"/>
+      <c r="E294" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="58"/>
-      <c r="B294" s="58"/>
-      <c r="C294" s="67"/>
-      <c r="D294" s="56"/>
-      <c r="E294" s="11" t="s">
+      <c r="F294" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F294" s="1" t="s">
+      <c r="G294" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="58"/>
-      <c r="B295" s="58"/>
-      <c r="C295" s="67"/>
-      <c r="D295" s="56"/>
+      <c r="A295" s="54"/>
+      <c r="B295" s="54"/>
+      <c r="C295" s="58"/>
+      <c r="D295" s="57"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="58"/>
-      <c r="B296" s="58" t="s">
+      <c r="A296" s="54"/>
+      <c r="B296" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C296" s="58"/>
+      <c r="D296" s="57"/>
+      <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C296" s="67"/>
-      <c r="D296" s="56"/>
-      <c r="E296" s="7" t="s">
+      <c r="F296" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G296" s="1" t="s">
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="54"/>
+      <c r="B297" s="54"/>
+      <c r="C297" s="58"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="58"/>
-      <c r="B297" s="58"/>
-      <c r="C297" s="67"/>
-      <c r="D297" s="56"/>
-      <c r="E297" s="11" t="s">
+      <c r="F297" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F297" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="58"/>
-      <c r="B298" s="58"/>
-      <c r="C298" s="67"/>
-      <c r="D298" s="56"/>
+      <c r="A298" s="54"/>
+      <c r="B298" s="54"/>
+      <c r="C298" s="58"/>
+      <c r="D298" s="57"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="58"/>
-      <c r="B299" s="58"/>
-      <c r="C299" s="67"/>
-      <c r="D299" s="56"/>
+      <c r="A299" s="54"/>
+      <c r="B299" s="54"/>
+      <c r="C299" s="58"/>
+      <c r="D299" s="57"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="58"/>
-      <c r="B300" s="58"/>
-      <c r="C300" s="67"/>
-      <c r="D300" s="56"/>
+      <c r="A300" s="54"/>
+      <c r="B300" s="54"/>
+      <c r="C300" s="58"/>
+      <c r="D300" s="57"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="58"/>
-      <c r="B301" s="58"/>
-      <c r="C301" s="67"/>
-      <c r="D301" s="56"/>
+      <c r="A301" s="54"/>
+      <c r="B301" s="54"/>
+      <c r="C301" s="58"/>
+      <c r="D301" s="57"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="58" t="s">
+      <c r="A302" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B302" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B302" s="53" t="s">
+      <c r="C302" s="56"/>
+      <c r="D302" s="57"/>
+      <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="55"/>
-      <c r="D302" s="56"/>
-      <c r="E302" s="7" t="s">
+      <c r="F302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G302" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G302" s="42" t="s">
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="55"/>
+      <c r="B303" s="55"/>
+      <c r="C303" s="56"/>
+      <c r="D303" s="57"/>
+      <c r="E303" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="58"/>
-      <c r="B303" s="53"/>
-      <c r="C303" s="55"/>
-      <c r="D303" s="56"/>
-      <c r="E303" s="11" t="s">
+      <c r="F303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="F303" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G303" s="42" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="58"/>
-      <c r="B304" s="53"/>
-      <c r="C304" s="55"/>
-      <c r="D304" s="56"/>
+      <c r="A304" s="55"/>
+      <c r="B304" s="55"/>
+      <c r="C304" s="56"/>
+      <c r="D304" s="57"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7068,14 +7109,14 @@
         <v>12</v>
       </c>
       <c r="G304" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="58"/>
-      <c r="B305" s="53"/>
-      <c r="C305" s="55"/>
-      <c r="D305" s="56"/>
+      <c r="A305" s="55"/>
+      <c r="B305" s="55"/>
+      <c r="C305" s="56"/>
+      <c r="D305" s="57"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7083,23 +7124,23 @@
         <v>12</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="58"/>
-      <c r="B306" s="53"/>
-      <c r="C306" s="55"/>
-      <c r="D306" s="56"/>
+      <c r="A306" s="55"/>
+      <c r="B306" s="55"/>
+      <c r="C306" s="56"/>
+      <c r="D306" s="57"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="58"/>
-      <c r="B307" s="58" t="s">
-        <v>293</v>
+      <c r="A307" s="55"/>
+      <c r="B307" s="55" t="s">
+        <v>292</v>
       </c>
       <c r="C307" s="47" t="s">
         <v>95</v>
@@ -7111,237 +7152,237 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="58"/>
-      <c r="B308" s="58"/>
-      <c r="C308" s="58" t="s">
+      <c r="A308" s="55"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D308" s="57"/>
+      <c r="E308" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D308" s="56"/>
-      <c r="E308" s="11" t="s">
-        <v>295</v>
-      </c>
       <c r="F308" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G308" s="1" t="s">
+      <c r="G308" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="58"/>
-      <c r="B309" s="58"/>
-      <c r="C309" s="58"/>
-      <c r="D309" s="56"/>
+      <c r="A309" s="55"/>
+      <c r="B309" s="55"/>
+      <c r="C309" s="55"/>
+      <c r="D309" s="57"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G309" s="1" t="s">
+      <c r="G309" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="58"/>
-      <c r="B310" s="58"/>
-      <c r="C310" s="58"/>
-      <c r="D310" s="56"/>
+      <c r="A310" s="55"/>
+      <c r="B310" s="55"/>
+      <c r="C310" s="55"/>
+      <c r="D310" s="57"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="G310" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="55"/>
+      <c r="B311" s="55"/>
+      <c r="C311" s="55"/>
+      <c r="D311" s="57"/>
+      <c r="E311" s="11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="58"/>
-      <c r="B311" s="58"/>
-      <c r="C311" s="58"/>
-      <c r="D311" s="56"/>
-      <c r="E311" s="11" t="s">
+      <c r="F311" s="11"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="55"/>
+      <c r="B312" s="55"/>
+      <c r="C312" s="55"/>
+      <c r="D312" s="57"/>
+      <c r="E312" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F311" s="11"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="58"/>
-      <c r="B312" s="58"/>
-      <c r="C312" s="58"/>
-      <c r="D312" s="56"/>
-      <c r="E312" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="58"/>
-      <c r="B313" s="58"/>
-      <c r="C313" s="58"/>
-      <c r="D313" s="56"/>
+      <c r="A313" s="55"/>
+      <c r="B313" s="55"/>
+      <c r="C313" s="55"/>
+      <c r="D313" s="57"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="58"/>
-      <c r="B314" s="58"/>
-      <c r="C314" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D314" s="56"/>
+      <c r="A314" s="55"/>
+      <c r="B314" s="55"/>
+      <c r="C314" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D314" s="57"/>
       <c r="E314" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F314" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G314" s="1" t="s">
+      <c r="G314" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="58"/>
-      <c r="B315" s="58"/>
-      <c r="C315" s="58"/>
-      <c r="D315" s="56"/>
+      <c r="A315" s="55"/>
+      <c r="B315" s="55"/>
+      <c r="C315" s="55"/>
+      <c r="D315" s="57"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F315" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="G315" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="58"/>
-      <c r="B316" s="58"/>
-      <c r="C316" s="58"/>
-      <c r="D316" s="56"/>
+      <c r="A316" s="55"/>
+      <c r="B316" s="55"/>
+      <c r="C316" s="55"/>
+      <c r="D316" s="57"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="1" t="s">
-        <v>296</v>
+      <c r="G316" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="58"/>
-      <c r="B317" s="58"/>
-      <c r="C317" s="58"/>
-      <c r="D317" s="56"/>
+      <c r="A317" s="55"/>
+      <c r="B317" s="55"/>
+      <c r="C317" s="55"/>
+      <c r="D317" s="57"/>
       <c r="E317" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="58"/>
-      <c r="B318" s="58"/>
-      <c r="C318" s="58"/>
-      <c r="D318" s="56"/>
+      <c r="A318" s="55"/>
+      <c r="B318" s="55"/>
+      <c r="C318" s="55"/>
+      <c r="D318" s="57"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="58"/>
-      <c r="B319" s="58"/>
-      <c r="C319" s="58"/>
-      <c r="D319" s="56"/>
+      <c r="A319" s="55"/>
+      <c r="B319" s="55"/>
+      <c r="C319" s="55"/>
+      <c r="D319" s="57"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="58" t="s">
+      <c r="A320" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B320" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="53" t="s">
+      <c r="C320" s="56"/>
+      <c r="D320" s="57"/>
+      <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="55"/>
-      <c r="D320" s="56"/>
-      <c r="E320" s="7" t="s">
+      <c r="F320" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="F320" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G320" s="42" t="s">
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="55"/>
+      <c r="B321" s="55"/>
+      <c r="C321" s="56"/>
+      <c r="D321" s="57"/>
+      <c r="E321" s="11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321" s="58"/>
-      <c r="B321" s="53"/>
-      <c r="C321" s="55"/>
-      <c r="D321" s="56"/>
-      <c r="E321" s="11" t="s">
+      <c r="F321" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="F321" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G321" s="42" t="s">
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="55"/>
+      <c r="B322" s="55"/>
+      <c r="C322" s="56"/>
+      <c r="D322" s="57"/>
+      <c r="E322" s="11" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="58"/>
-      <c r="B322" s="53"/>
-      <c r="C322" s="55"/>
-      <c r="D322" s="56"/>
-      <c r="E322" s="11" t="s">
+      <c r="F322" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G322" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="F322" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G322" s="42" t="s">
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="55"/>
+      <c r="B323" s="55"/>
+      <c r="C323" s="56"/>
+      <c r="D323" s="57"/>
+      <c r="E323" s="11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="58"/>
-      <c r="B323" s="53"/>
-      <c r="C323" s="55"/>
-      <c r="D323" s="56"/>
-      <c r="E323" s="11" t="s">
+      <c r="F323" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="F323" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G323" s="42" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="58"/>
-      <c r="B324" s="53"/>
-      <c r="C324" s="55"/>
-      <c r="D324" s="56"/>
+      <c r="A324" s="55"/>
+      <c r="B324" s="55"/>
+      <c r="C324" s="56"/>
+      <c r="D324" s="57"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="58"/>
-      <c r="B325" s="58" t="s">
-        <v>311</v>
+      <c r="A325" s="55"/>
+      <c r="B325" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="C325" s="47" t="s">
         <v>95</v>
@@ -7353,184 +7394,184 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="58"/>
-      <c r="B326" s="58"/>
-      <c r="C326" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D326" s="56"/>
+      <c r="A326" s="55"/>
+      <c r="B326" s="55"/>
+      <c r="C326" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D326" s="57"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F326" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G326" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="G326" s="1" t="s">
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="55"/>
+      <c r="B327" s="55"/>
+      <c r="C327" s="55"/>
+      <c r="D327" s="57"/>
+      <c r="E327" s="11" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
-      <c r="A327" s="58"/>
-      <c r="B327" s="58"/>
-      <c r="C327" s="58"/>
-      <c r="D327" s="56"/>
-      <c r="E327" s="11" t="s">
+      <c r="F327" s="11"/>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="55"/>
+      <c r="B328" s="55"/>
+      <c r="C328" s="55"/>
+      <c r="D328" s="57"/>
+      <c r="E328" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F327" s="11"/>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="58"/>
-      <c r="B328" s="58"/>
-      <c r="C328" s="58"/>
-      <c r="D328" s="56"/>
-      <c r="E328" s="11" t="s">
-        <v>315</v>
-      </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="58"/>
-      <c r="B329" s="58"/>
-      <c r="C329" s="58"/>
-      <c r="D329" s="56"/>
+      <c r="A329" s="55"/>
+      <c r="B329" s="55"/>
+      <c r="C329" s="55"/>
+      <c r="D329" s="57"/>
       <c r="E329" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F329" s="11"/>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="55"/>
+      <c r="B330" s="55"/>
+      <c r="C330" s="55"/>
+      <c r="D330" s="57"/>
+      <c r="E330" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F329" s="11"/>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="58"/>
-      <c r="B330" s="58"/>
-      <c r="C330" s="58"/>
-      <c r="D330" s="56"/>
-      <c r="E330" s="11" t="s">
+      <c r="F330" s="11"/>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="55"/>
+      <c r="B331" s="55"/>
+      <c r="C331" s="55"/>
+      <c r="D331" s="57"/>
+      <c r="E331" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F330" s="11"/>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="58"/>
-      <c r="B331" s="58"/>
-      <c r="C331" s="58"/>
-      <c r="D331" s="56"/>
-      <c r="E331" s="11" t="s">
+      <c r="F331" s="11"/>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="55"/>
+      <c r="B332" s="55"/>
+      <c r="C332" s="55"/>
+      <c r="D332" s="57"/>
+      <c r="E332" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F331" s="11"/>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" s="58"/>
-      <c r="B332" s="58"/>
-      <c r="C332" s="58"/>
-      <c r="D332" s="56"/>
-      <c r="E332" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="58"/>
-      <c r="B333" s="58"/>
-      <c r="C333" s="58"/>
-      <c r="D333" s="56"/>
+      <c r="A333" s="55"/>
+      <c r="B333" s="55"/>
+      <c r="C333" s="55"/>
+      <c r="D333" s="57"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="59" t="s">
+      <c r="A334" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B334" s="53"/>
+      <c r="C334" s="53"/>
+      <c r="D334" s="53"/>
+      <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B334" s="69"/>
-      <c r="C334" s="69"/>
-      <c r="D334" s="69"/>
-      <c r="E334" s="7" t="s">
+      <c r="F334" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F334" s="1" t="s">
+      <c r="G334" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G334" s="1" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="59"/>
-      <c r="B335" s="59"/>
-      <c r="C335" s="69"/>
-      <c r="D335" s="69"/>
+      <c r="A335" s="52"/>
+      <c r="B335" s="52"/>
+      <c r="C335" s="53"/>
+      <c r="D335" s="53"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G335" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="52"/>
+      <c r="B336" s="52"/>
+      <c r="C336" s="53"/>
+      <c r="D336" s="53"/>
+      <c r="E336" s="11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336" s="59"/>
-      <c r="B336" s="59"/>
-      <c r="C336" s="69"/>
-      <c r="D336" s="69"/>
-      <c r="E336" s="11" t="s">
+      <c r="F336" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F336" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="52"/>
+      <c r="B337" s="52"/>
+      <c r="C337" s="53"/>
+      <c r="D337" s="53"/>
+      <c r="E337" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
-      <c r="A337" s="59"/>
-      <c r="B337" s="59"/>
-      <c r="C337" s="69"/>
-      <c r="D337" s="69"/>
-      <c r="E337" s="11" t="s">
+      <c r="F337" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G337" s="1" t="s">
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="52"/>
+      <c r="B338" s="52"/>
+      <c r="C338" s="53"/>
+      <c r="D338" s="53"/>
+      <c r="E338" s="11" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="59"/>
-      <c r="B338" s="59"/>
-      <c r="C338" s="69"/>
-      <c r="D338" s="69"/>
-      <c r="E338" s="11" t="s">
+      <c r="F338" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G338" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F338" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="59"/>
-      <c r="B339" s="59"/>
-      <c r="C339" s="69"/>
-      <c r="D339" s="69"/>
+      <c r="A339" s="52"/>
+      <c r="B339" s="52"/>
+      <c r="C339" s="53"/>
+      <c r="D339" s="53"/>
       <c r="E339" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="59"/>
-      <c r="B340" s="59"/>
-      <c r="C340" s="69"/>
-      <c r="D340" s="69"/>
+      <c r="A340" s="52"/>
+      <c r="B340" s="52"/>
+      <c r="C340" s="53"/>
+      <c r="D340" s="53"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7539,26 +7580,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7583,67 +7665,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7655,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7676,10 +7717,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>327</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>328</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -7744,196 +7785,196 @@
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:64">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" s="69" t="s">
         <v>339</v>
-      </c>
-      <c r="C66" s="71" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="71"/>
+        <v>340</v>
+      </c>
+      <c r="C67" s="69"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" s="71"/>
+        <v>341</v>
+      </c>
+      <c r="C68" s="69"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C69" s="71"/>
+        <v>342</v>
+      </c>
+      <c r="C69" s="69"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C70" s="71"/>
+        <v>343</v>
+      </c>
+      <c r="C70" s="69"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C71" s="71"/>
+        <v>344</v>
+      </c>
+      <c r="C71" s="69"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="71"/>
+        <v>345</v>
+      </c>
+      <c r="C72" s="69"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" s="71"/>
+        <v>346</v>
+      </c>
+      <c r="C73" s="69"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" s="71"/>
+        <v>347</v>
+      </c>
+      <c r="C74" s="69"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C75" s="71"/>
+        <v>348</v>
+      </c>
+      <c r="C75" s="69"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C76" s="71"/>
+        <v>349</v>
+      </c>
+      <c r="C76" s="69"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C77" s="71"/>
+        <v>350</v>
+      </c>
+      <c r="C77" s="69"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C78" s="71"/>
+        <v>351</v>
+      </c>
+      <c r="C78" s="69"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C79" s="71"/>
+        <v>352</v>
+      </c>
+      <c r="C79" s="69"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="68" t="s">
         <v>354</v>
-      </c>
-      <c r="C82" s="70" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7941,46 +7982,46 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C83" s="70"/>
+        <v>355</v>
+      </c>
+      <c r="C83" s="68"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C84" s="70"/>
+        <v>356</v>
+      </c>
+      <c r="C84" s="68"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C85" s="70"/>
+        <v>357</v>
+      </c>
+      <c r="C85" s="68"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C86" s="70"/>
+        <v>358</v>
+      </c>
+      <c r="C86" s="68"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B89" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" s="68" t="s">
         <v>360</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7988,124 +8029,124 @@
         <v>70</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C90" s="70"/>
+        <v>361</v>
+      </c>
+      <c r="C90" s="68"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="C91" s="70"/>
+        <v>362</v>
+      </c>
+      <c r="C91" s="68"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C92" s="70"/>
+        <v>363</v>
+      </c>
+      <c r="C92" s="68"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="70"/>
+        <v>364</v>
+      </c>
+      <c r="C93" s="68"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C94" s="70"/>
+        <v>365</v>
+      </c>
+      <c r="C94" s="68"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C95" s="70"/>
+        <v>366</v>
+      </c>
+      <c r="C95" s="68"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="70"/>
+        <v>367</v>
+      </c>
+      <c r="C96" s="68"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C97" s="70"/>
+        <v>368</v>
+      </c>
+      <c r="C97" s="68"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C98" s="70"/>
+        <v>369</v>
+      </c>
+      <c r="C98" s="68"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C99" s="70"/>
+        <v>370</v>
+      </c>
+      <c r="C99" s="68"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C100" s="70"/>
+        <v>371</v>
+      </c>
+      <c r="C100" s="68"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="70"/>
+        <v>372</v>
+      </c>
+      <c r="C101" s="68"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C102" s="70"/>
+        <v>373</v>
+      </c>
+      <c r="C102" s="68"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8113,7 +8154,7 @@
         <v>41</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8121,7 +8162,7 @@
         <v>41</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -8129,7 +8170,7 @@
         <v>41</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8137,7 +8178,7 @@
         <v>41</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8145,7 +8186,7 @@
         <v>41</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8153,7 +8194,7 @@
         <v>41</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8161,7 +8202,7 @@
         <v>41</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8169,7 +8210,7 @@
         <v>41</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8177,7 +8218,7 @@
         <v>41</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8185,7 +8226,7 @@
         <v>41</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8193,7 +8234,7 @@
         <v>41</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8201,7 +8242,7 @@
         <v>41</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8209,7 +8250,7 @@
         <v>41</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8217,7 +8258,7 @@
         <v>41</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8225,7 +8266,7 @@
         <v>41</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8233,7 +8274,7 @@
         <v>41</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8241,7 +8282,7 @@
         <v>41</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -8249,7 +8290,7 @@
         <v>41</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -8257,7 +8298,7 @@
         <v>41</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -8265,7 +8306,7 @@
         <v>41</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -8273,7 +8314,7 @@
         <v>41</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -8281,7 +8322,7 @@
         <v>41</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8289,7 +8330,7 @@
         <v>41</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -8297,7 +8338,7 @@
         <v>41</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8305,7 +8346,7 @@
         <v>41</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -8313,7 +8354,7 @@
         <v>41</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -8321,139 +8362,139 @@
         <v>41</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="72" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="39" t="s">
+      <c r="C141" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="C141" s="71" t="s">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="72" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="39" t="s">
+      <c r="C142" s="77"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="C142" s="71"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="39" t="s">
+      <c r="C143" s="77"/>
+    </row>
+    <row r="144" spans="1:3" ht="13.9" customHeight="1">
+      <c r="A144" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="C143" s="71"/>
-    </row>
-    <row r="144" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A144" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="40" t="s">
+      <c r="C144" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="C144" s="70" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="42" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="73"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C145" s="70"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="73"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="70"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="73"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="70"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="73"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="70"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="39" t="s">
+      <c r="C149" s="73"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="C149" s="70"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="73"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="70"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="73"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="C151" s="70"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="73"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="C152" s="70"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C153" s="70"/>
+      <c r="C153" s="73"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C154" s="70" t="s">
         <v>418</v>
-      </c>
-      <c r="C154" s="71" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -8461,37 +8502,37 @@
         <v>12</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C155" s="71"/>
+        <v>419</v>
+      </c>
+      <c r="C155" s="69"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C156" s="71"/>
+        <v>420</v>
+      </c>
+      <c r="C156" s="69"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C157" s="71"/>
+        <v>421</v>
+      </c>
+      <c r="C157" s="69"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C158" s="68" t="s">
         <v>423</v>
-      </c>
-      <c r="C158" s="70" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -8499,46 +8540,46 @@
         <v>12</v>
       </c>
       <c r="B159" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="C159" s="70"/>
+        <v>424</v>
+      </c>
+      <c r="C159" s="68"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="C160" s="70"/>
+        <v>425</v>
+      </c>
+      <c r="C160" s="68"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="C161" s="70"/>
+        <v>426</v>
+      </c>
+      <c r="C161" s="68"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B162" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="C162" s="70"/>
+        <v>427</v>
+      </c>
+      <c r="C162" s="68"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -8546,10 +8587,10 @@
         <v>12</v>
       </c>
       <c r="B164" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -8557,10 +8598,10 @@
         <v>12</v>
       </c>
       <c r="B165" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -8568,10 +8609,10 @@
         <v>12</v>
       </c>
       <c r="B166" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -8579,10 +8620,10 @@
         <v>12</v>
       </c>
       <c r="B167" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -8590,10 +8631,10 @@
         <v>12</v>
       </c>
       <c r="B168" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -8601,10 +8642,10 @@
         <v>12</v>
       </c>
       <c r="B169" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -8612,10 +8653,10 @@
         <v>12</v>
       </c>
       <c r="B170" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2067,32 +2067,40 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,51 +2109,43 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2936,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3041,16 +3041,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3063,10 +3063,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="66"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3078,10 +3078,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="66"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -3093,10 +3093,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="66"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3111,18 +3111,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="66"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -3135,12 +3135,12 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3152,10 +3152,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3170,10 +3170,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3186,10 +3186,10 @@
       <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3204,20 +3204,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3225,23 +3225,23 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="55" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3256,10 +3256,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3271,22 +3271,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3298,10 +3298,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3316,10 +3316,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3332,10 +3332,10 @@
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3350,20 +3350,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3371,32 +3371,32 @@
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="57"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3411,10 +3411,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="57"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3426,10 +3426,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3441,10 +3441,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3456,72 +3456,72 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="57"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3533,10 +3533,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
@@ -3548,10 +3548,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="57"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
@@ -3563,10 +3563,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="57"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
@@ -3581,10 +3581,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
@@ -3592,12 +3592,12 @@
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="65" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
@@ -3609,10 +3609,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
@@ -3624,10 +3624,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="57"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
@@ -3639,14 +3639,14 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3658,10 +3658,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="23" t="s">
         <v>89</v>
       </c>
@@ -3673,10 +3673,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3688,10 +3688,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3703,18 +3703,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -3727,12 +3727,12 @@
       <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="55" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="57"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3744,10 +3744,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="57"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3759,10 +3759,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3774,10 +3774,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3789,52 +3789,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="62"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3846,10 +3846,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
@@ -3861,10 +3861,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
@@ -3891,47 +3891,47 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="62"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="55" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="57"/>
+      <c r="D64" s="62"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="74" t="s">
+      <c r="G64" s="54" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3943,20 +3943,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="57"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
@@ -3968,20 +3968,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
@@ -3993,10 +3993,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="81" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="64" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4010,10 +4010,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="81"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -4025,30 +4025,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="81"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="81"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="64"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="81"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -4060,10 +4060,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="61"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="81"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -4075,32 +4075,32 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="81"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="81"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="82" t="s">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="57"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4112,10 +4112,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="57"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="62"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4127,25 +4127,25 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="79" t="s">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="56" t="s">
         <v>444</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="80" t="s">
+      <c r="G80" s="57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="62"/>
       <c r="E81" s="11" t="s">
         <v>139</v>
       </c>
@@ -4155,68 +4155,68 @@
       <c r="G81" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="80" t="s">
+      <c r="I81" s="57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="57"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="54" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="57"/>
+      <c r="D83" s="62"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="42" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="57"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="62"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="42" t="s">
         <v>144</v>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="57"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="62"/>
       <c r="E85" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="57"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="62"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4228,10 +4228,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="62"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4243,90 +4243,90 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="62"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="20"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="61"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="62"/>
       <c r="E89" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F89" s="20"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="61"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="57"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="61"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="57"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="62"/>
       <c r="E92" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="61"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="57"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="62"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="57"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="62"/>
       <c r="E94" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F94" s="20"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="61"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="57"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="62"/>
       <c r="E95" s="15" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="61"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="60" t="s">
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4343,10 +4343,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="60"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="67"/>
       <c r="E97" s="11" t="s">
         <v>154</v>
       </c>
@@ -4354,10 +4354,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="60"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67"/>
       <c r="E98" s="11" t="s">
         <v>155</v>
       </c>
@@ -4365,10 +4365,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="60"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4381,10 +4381,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="60"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4396,30 +4396,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="60"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="67"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="60"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="60" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="67" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4433,10 +4433,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="61"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="60"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4448,10 +4448,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="60"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="67"/>
       <c r="E105" s="11" t="s">
         <v>159</v>
       </c>
@@ -4463,10 +4463,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="61"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="60"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="15" t="s">
         <v>160</v>
       </c>
@@ -4478,12 +4478,12 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="61"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="61" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="57"/>
+      <c r="D107" s="62"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4495,10 +4495,10 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="61"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="57"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="62"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4510,20 +4510,20 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="61"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="57"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="62"/>
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="61"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="57"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="62"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4535,10 +4535,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="61"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="57"/>
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="62"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4546,10 +4546,10 @@
       <c r="G111" s="28"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="61"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="57"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="62"/>
       <c r="E112" s="11" t="s">
         <v>148</v>
       </c>
@@ -4557,10 +4557,10 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="61"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="57"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="62"/>
       <c r="E113" s="11" t="s">
         <v>149</v>
       </c>
@@ -4568,10 +4568,10 @@
       <c r="G113" s="28"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="61"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="57"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="62"/>
       <c r="E114" s="11" t="s">
         <v>150</v>
       </c>
@@ -4579,10 +4579,10 @@
       <c r="G114" s="28"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="61"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="57"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="62"/>
       <c r="E115" s="11" t="s">
         <v>151</v>
       </c>
@@ -4590,10 +4590,10 @@
       <c r="G115" s="28"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="61"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="57"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="62"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4601,12 +4601,12 @@
       <c r="G116" s="28"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="61"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="54" t="s">
+      <c r="A117" s="58"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="57"/>
+      <c r="D117" s="62"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4618,30 +4618,30 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="61"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="57"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="62"/>
       <c r="E118" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="61"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="57"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="62"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="61"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="57"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="62"/>
       <c r="E120" s="23" t="s">
         <v>167</v>
       </c>
@@ -4653,10 +4653,10 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="61"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="54"/>
-      <c r="D121" s="57"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="62"/>
       <c r="E121" s="11" t="s">
         <v>169</v>
       </c>
@@ -4668,10 +4668,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="61"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="57"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="62"/>
       <c r="E122" s="11" t="s">
         <v>171</v>
       </c>
@@ -4683,10 +4683,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="61"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="57"/>
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="62"/>
       <c r="E123" s="15" t="s">
         <v>172</v>
       </c>
@@ -4698,12 +4698,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="61"/>
-      <c r="B124" s="61"/>
-      <c r="C124" s="54" t="s">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="57"/>
+      <c r="D124" s="62"/>
       <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
@@ -4718,10 +4718,10 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="61"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="57"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="62"/>
       <c r="E125" s="11" t="s">
         <v>179</v>
       </c>
@@ -4733,20 +4733,20 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="61"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="57"/>
+      <c r="A126" s="58"/>
+      <c r="B126" s="58"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="62"/>
       <c r="E126" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="61"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="57"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="62"/>
       <c r="E127" s="11" t="s">
         <v>182</v>
       </c>
@@ -4758,12 +4758,12 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="54" t="s">
+      <c r="A128" s="58"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="62"/>
       <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
@@ -4778,10 +4778,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="61"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="57"/>
+      <c r="A129" s="58"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="62"/>
       <c r="E129" s="11" t="s">
         <v>189</v>
       </c>
@@ -4793,20 +4793,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="57"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="58"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="62"/>
       <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="61"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="57"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="62"/>
       <c r="E131" s="15" t="s">
         <v>192</v>
       </c>
@@ -4821,12 +4821,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="61"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="54" t="s">
+      <c r="A132" s="58"/>
+      <c r="B132" s="58"/>
+      <c r="C132" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="57"/>
+      <c r="D132" s="62"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4838,10 +4838,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="61"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="57"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="62"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4853,10 +4853,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="61"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="57"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="62"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
@@ -4868,10 +4868,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="61"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="57"/>
+      <c r="A135" s="58"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="62"/>
       <c r="E135" s="11" t="s">
         <v>202</v>
       </c>
@@ -4883,59 +4883,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="61"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="57"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="54"/>
-      <c r="D137" s="57"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="62"/>
       <c r="E137" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="61"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="57"/>
+      <c r="A138" s="58"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="62"/>
       <c r="E138" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="61"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="57"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="58"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="62"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="61"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="57"/>
+      <c r="A140" s="58"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="62"/>
       <c r="E140" s="32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="61"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="60" t="s">
+      <c r="A141" s="58"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="67" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4949,40 +4949,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="61"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="60"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="58"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="67"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="61"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="54"/>
-      <c r="D143" s="60"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="67"/>
       <c r="E143" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="61"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="60"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="67"/>
       <c r="E144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="61"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="54"/>
-      <c r="D145" s="60"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="67"/>
       <c r="E145" s="33" t="s">
         <v>208</v>
       </c>
@@ -4994,10 +4994,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="61"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="60"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="67"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -5009,10 +5009,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="61"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="60"/>
+      <c r="A147" s="58"/>
+      <c r="B147" s="58"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="67"/>
       <c r="E147" s="15" t="s">
         <v>210</v>
       </c>
@@ -5024,16 +5024,16 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="64" t="s">
+      <c r="C148" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="62"/>
       <c r="E148" s="7" t="s">
         <v>212</v>
       </c>
@@ -5045,10 +5045,10 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="61"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="57"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="62"/>
       <c r="E149" s="11" t="s">
         <v>213</v>
       </c>
@@ -5060,10 +5060,10 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="61"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="57"/>
+      <c r="A150" s="58"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="62"/>
       <c r="E150" s="11" t="s">
         <v>214</v>
       </c>
@@ -5075,10 +5075,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="61"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="57"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="62"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -5090,18 +5090,18 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="61"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="57"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="62"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="61"/>
-      <c r="B153" s="61" t="s">
+      <c r="A153" s="58"/>
+      <c r="B153" s="58" t="s">
         <v>215</v>
       </c>
       <c r="C153" s="45" t="s">
@@ -5114,12 +5114,12 @@
       <c r="F153" s="35"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="55" t="s">
+      <c r="A154" s="58"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="62"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5131,10 +5131,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="61"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="57"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="62"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5149,10 +5149,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="57"/>
+      <c r="A156" s="58"/>
+      <c r="B156" s="58"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="62"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5164,10 +5164,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="61"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="57"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="62"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5179,52 +5179,52 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="61"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="57"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="62"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="61"/>
-      <c r="B159" s="61"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="57"/>
+      <c r="A159" s="58"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="62"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="61"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="57"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="62"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="61"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="57"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="62"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="61"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="76" t="s">
+      <c r="A162" s="58"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="62"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
@@ -5236,10 +5236,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="61"/>
-      <c r="B163" s="61"/>
-      <c r="C163" s="76"/>
-      <c r="D163" s="57"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="62"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
@@ -5251,20 +5251,20 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="61"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="76"/>
-      <c r="D164" s="57"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="62"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="61"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="76"/>
-      <c r="D165" s="57"/>
+      <c r="A165" s="58"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="62"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
@@ -5276,20 +5276,20 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="76"/>
-      <c r="D166" s="57"/>
+      <c r="A166" s="58"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="72"/>
+      <c r="D166" s="62"/>
       <c r="E166" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="61"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="76"/>
-      <c r="D167" s="57"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="62"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
@@ -5301,10 +5301,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="61"/>
-      <c r="B168" s="61"/>
-      <c r="C168" s="76"/>
-      <c r="D168" s="75" t="s">
+      <c r="A168" s="58"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="73" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5318,10 +5318,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="76"/>
-      <c r="D169" s="75"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="73"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5333,30 +5333,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="61"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="75"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="73"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="61"/>
-      <c r="B171" s="61"/>
-      <c r="C171" s="76"/>
-      <c r="D171" s="75"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="73"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="61"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="76"/>
-      <c r="D172" s="75"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="73"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5368,10 +5368,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="61"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="75"/>
+      <c r="A173" s="58"/>
+      <c r="B173" s="58"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="73"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5383,32 +5383,32 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="61"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="76"/>
-      <c r="D174" s="75"/>
+      <c r="A174" s="58"/>
+      <c r="B174" s="58"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="73"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="61"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="76"/>
-      <c r="D175" s="75"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="73"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="61"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="83" t="s">
+      <c r="A176" s="58"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="57"/>
+      <c r="D176" s="62"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
@@ -5420,10 +5420,10 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="61"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="83"/>
-      <c r="D177" s="57"/>
+      <c r="A177" s="58"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="62"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
@@ -5435,11 +5435,11 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="61"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="83"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="79" t="s">
+      <c r="A178" s="58"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="62"/>
+      <c r="E178" s="56" t="s">
         <v>444</v>
       </c>
       <c r="F178" s="10" t="s">
@@ -5450,10 +5450,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="61"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="83"/>
-      <c r="D179" s="57"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="58"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="62"/>
       <c r="E179" s="11" t="s">
         <v>139</v>
       </c>
@@ -5468,22 +5468,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="61"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="83"/>
-      <c r="D180" s="57"/>
+      <c r="A180" s="58"/>
+      <c r="B180" s="58"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="62"/>
       <c r="E180" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="61"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="63" t="s">
+      <c r="A181" s="58"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="D181" s="57"/>
+      <c r="D181" s="62"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5495,10 +5495,10 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="61"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="57"/>
+      <c r="A182" s="58"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="62"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5510,20 +5510,20 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="61"/>
-      <c r="B183" s="61"/>
-      <c r="C183" s="63"/>
-      <c r="D183" s="57"/>
+      <c r="A183" s="58"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="62"/>
       <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="61"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="57"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="58"/>
+      <c r="C184" s="71"/>
+      <c r="D184" s="62"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5535,10 +5535,10 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="61"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="57"/>
+      <c r="A185" s="58"/>
+      <c r="B185" s="58"/>
+      <c r="C185" s="71"/>
+      <c r="D185" s="62"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5550,80 +5550,80 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="61"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="63"/>
-      <c r="D186" s="57"/>
+      <c r="A186" s="58"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="71"/>
+      <c r="D186" s="62"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="61"/>
-      <c r="B187" s="61"/>
-      <c r="C187" s="63"/>
-      <c r="D187" s="57"/>
+      <c r="A187" s="58"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="71"/>
+      <c r="D187" s="62"/>
       <c r="E187" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="61"/>
-      <c r="B188" s="61"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="57"/>
+      <c r="A188" s="58"/>
+      <c r="B188" s="58"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="62"/>
       <c r="E188" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="61"/>
-      <c r="B189" s="61"/>
-      <c r="C189" s="63"/>
-      <c r="D189" s="57"/>
+      <c r="A189" s="58"/>
+      <c r="B189" s="58"/>
+      <c r="C189" s="71"/>
+      <c r="D189" s="62"/>
       <c r="E189" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="61"/>
-      <c r="B190" s="61"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="57"/>
+      <c r="A190" s="58"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="62"/>
       <c r="E190" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="61"/>
-      <c r="B191" s="61"/>
-      <c r="C191" s="63"/>
-      <c r="D191" s="57"/>
+      <c r="A191" s="58"/>
+      <c r="B191" s="58"/>
+      <c r="C191" s="71"/>
+      <c r="D191" s="62"/>
       <c r="E191" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="61"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="63"/>
-      <c r="D192" s="57"/>
+      <c r="A192" s="58"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="71"/>
+      <c r="D192" s="62"/>
       <c r="E192" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="61"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="60" t="s">
+      <c r="A193" s="58"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="71"/>
+      <c r="D193" s="67" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5640,30 +5640,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="61"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="63"/>
-      <c r="D194" s="60"/>
+      <c r="A194" s="58"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="71"/>
+      <c r="D194" s="67"/>
       <c r="E194" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="61"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="63"/>
-      <c r="D195" s="60"/>
+      <c r="A195" s="58"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="71"/>
+      <c r="D195" s="67"/>
       <c r="E195" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="61"/>
-      <c r="B196" s="61"/>
-      <c r="C196" s="63"/>
-      <c r="D196" s="60"/>
+      <c r="A196" s="58"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="67"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5675,10 +5675,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="61"/>
-      <c r="B197" s="61"/>
-      <c r="C197" s="63"/>
-      <c r="D197" s="60"/>
+      <c r="A197" s="58"/>
+      <c r="B197" s="58"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="67"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5690,40 +5690,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="61"/>
-      <c r="B198" s="61"/>
-      <c r="C198" s="63"/>
-      <c r="D198" s="60"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="71"/>
+      <c r="D198" s="67"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="61"/>
-      <c r="B199" s="61"/>
-      <c r="C199" s="63"/>
-      <c r="D199" s="60"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="58"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="67"/>
       <c r="E199" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="61"/>
-      <c r="B200" s="61"/>
-      <c r="C200" s="63"/>
-      <c r="D200" s="60"/>
+      <c r="A200" s="58"/>
+      <c r="B200" s="58"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="67"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="61"/>
-      <c r="B201" s="61"/>
-      <c r="C201" s="63"/>
-      <c r="D201" s="60" t="s">
+      <c r="A201" s="58"/>
+      <c r="B201" s="58"/>
+      <c r="C201" s="71"/>
+      <c r="D201" s="67" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5737,10 +5737,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="61"/>
-      <c r="B202" s="61"/>
-      <c r="C202" s="63"/>
-      <c r="D202" s="60"/>
+      <c r="A202" s="58"/>
+      <c r="B202" s="58"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="67"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5752,10 +5752,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="61"/>
-      <c r="B203" s="61"/>
-      <c r="C203" s="63"/>
-      <c r="D203" s="60"/>
+      <c r="A203" s="58"/>
+      <c r="B203" s="58"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="67"/>
       <c r="E203" s="11" t="s">
         <v>159</v>
       </c>
@@ -5767,10 +5767,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="61"/>
-      <c r="B204" s="61"/>
-      <c r="C204" s="63"/>
-      <c r="D204" s="60"/>
+      <c r="A204" s="58"/>
+      <c r="B204" s="58"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="67"/>
       <c r="E204" s="15" t="s">
         <v>160</v>
       </c>
@@ -5782,10 +5782,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="61"/>
-      <c r="B205" s="61"/>
-      <c r="C205" s="63"/>
-      <c r="D205" s="60" t="s">
+      <c r="A205" s="58"/>
+      <c r="B205" s="58"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="67" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5799,10 +5799,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="61"/>
-      <c r="B206" s="61"/>
-      <c r="C206" s="63"/>
-      <c r="D206" s="60"/>
+      <c r="A206" s="58"/>
+      <c r="B206" s="58"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="67"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5814,10 +5814,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="61"/>
-      <c r="B207" s="61"/>
-      <c r="C207" s="63"/>
-      <c r="D207" s="60"/>
+      <c r="A207" s="58"/>
+      <c r="B207" s="58"/>
+      <c r="C207" s="71"/>
+      <c r="D207" s="67"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5829,32 +5829,32 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="61"/>
-      <c r="B208" s="61"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="60"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="58"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="67"/>
       <c r="E208" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="61"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="60"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="58"/>
+      <c r="C209" s="71"/>
+      <c r="D209" s="67"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="61"/>
-      <c r="B210" s="61"/>
-      <c r="C210" s="63" t="s">
+      <c r="A210" s="58"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="57"/>
+      <c r="D210" s="62"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5866,10 +5866,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="61"/>
-      <c r="B211" s="61"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="57"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="58"/>
+      <c r="C211" s="71"/>
+      <c r="D211" s="62"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5881,20 +5881,20 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="61"/>
-      <c r="B212" s="61"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="57"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="62"/>
       <c r="E212" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="61"/>
-      <c r="B213" s="61"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="57"/>
+      <c r="A213" s="58"/>
+      <c r="B213" s="58"/>
+      <c r="C213" s="71"/>
+      <c r="D213" s="62"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5906,10 +5906,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="61"/>
-      <c r="B214" s="61"/>
-      <c r="C214" s="63"/>
-      <c r="D214" s="57"/>
+      <c r="A214" s="58"/>
+      <c r="B214" s="58"/>
+      <c r="C214" s="71"/>
+      <c r="D214" s="62"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5921,62 +5921,62 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="61"/>
-      <c r="B215" s="61"/>
-      <c r="C215" s="63"/>
-      <c r="D215" s="57"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="58"/>
+      <c r="C215" s="71"/>
+      <c r="D215" s="62"/>
       <c r="E215" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="61"/>
-      <c r="B216" s="61"/>
-      <c r="C216" s="63"/>
-      <c r="D216" s="57"/>
+      <c r="A216" s="58"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="62"/>
       <c r="E216" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="61"/>
-      <c r="B217" s="61"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="57"/>
+      <c r="A217" s="58"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="71"/>
+      <c r="D217" s="62"/>
       <c r="E217" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="61"/>
-      <c r="B218" s="61"/>
-      <c r="C218" s="63"/>
-      <c r="D218" s="57"/>
+      <c r="A218" s="58"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="71"/>
+      <c r="D218" s="62"/>
       <c r="E218" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="61"/>
-      <c r="B219" s="61"/>
-      <c r="C219" s="63"/>
-      <c r="D219" s="57"/>
+      <c r="A219" s="58"/>
+      <c r="B219" s="58"/>
+      <c r="C219" s="71"/>
+      <c r="D219" s="62"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="61"/>
-      <c r="B220" s="61"/>
-      <c r="C220" s="63" t="s">
+      <c r="A220" s="58"/>
+      <c r="B220" s="58"/>
+      <c r="C220" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D220" s="57"/>
+      <c r="D220" s="62"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5988,30 +5988,30 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="61"/>
-      <c r="B221" s="61"/>
-      <c r="C221" s="63"/>
-      <c r="D221" s="57"/>
+      <c r="A221" s="58"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="71"/>
+      <c r="D221" s="62"/>
       <c r="E221" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="61"/>
-      <c r="B222" s="61"/>
-      <c r="C222" s="63"/>
-      <c r="D222" s="57"/>
+      <c r="A222" s="58"/>
+      <c r="B222" s="58"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="62"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="61"/>
-      <c r="B223" s="61"/>
-      <c r="C223" s="63"/>
-      <c r="D223" s="57"/>
+      <c r="A223" s="58"/>
+      <c r="B223" s="58"/>
+      <c r="C223" s="71"/>
+      <c r="D223" s="62"/>
       <c r="E223" s="23" t="s">
         <v>167</v>
       </c>
@@ -6023,10 +6023,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="61"/>
-      <c r="B224" s="61"/>
-      <c r="C224" s="63"/>
-      <c r="D224" s="57"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="71"/>
+      <c r="D224" s="62"/>
       <c r="E224" s="11" t="s">
         <v>169</v>
       </c>
@@ -6038,10 +6038,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="61"/>
-      <c r="B225" s="61"/>
-      <c r="C225" s="63"/>
-      <c r="D225" s="57"/>
+      <c r="A225" s="58"/>
+      <c r="B225" s="58"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="62"/>
       <c r="E225" s="11" t="s">
         <v>171</v>
       </c>
@@ -6053,10 +6053,10 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="61"/>
-      <c r="B226" s="61"/>
-      <c r="C226" s="63"/>
-      <c r="D226" s="57"/>
+      <c r="A226" s="58"/>
+      <c r="B226" s="58"/>
+      <c r="C226" s="71"/>
+      <c r="D226" s="62"/>
       <c r="E226" s="15" t="s">
         <v>172</v>
       </c>
@@ -6068,12 +6068,12 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="61"/>
-      <c r="B227" s="61"/>
-      <c r="C227" s="63" t="s">
+      <c r="A227" s="58"/>
+      <c r="B227" s="58"/>
+      <c r="C227" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="57"/>
+      <c r="D227" s="62"/>
       <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
@@ -6088,10 +6088,10 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="61"/>
-      <c r="B228" s="61"/>
-      <c r="C228" s="63"/>
-      <c r="D228" s="57"/>
+      <c r="A228" s="58"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="71"/>
+      <c r="D228" s="62"/>
       <c r="E228" s="11" t="s">
         <v>179</v>
       </c>
@@ -6103,20 +6103,20 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="61"/>
-      <c r="B229" s="61"/>
-      <c r="C229" s="63"/>
-      <c r="D229" s="57"/>
+      <c r="A229" s="58"/>
+      <c r="B229" s="58"/>
+      <c r="C229" s="71"/>
+      <c r="D229" s="62"/>
       <c r="E229" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="61"/>
-      <c r="B230" s="61"/>
-      <c r="C230" s="63"/>
-      <c r="D230" s="57"/>
+      <c r="A230" s="58"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="71"/>
+      <c r="D230" s="62"/>
       <c r="E230" s="15" t="s">
         <v>182</v>
       </c>
@@ -6128,12 +6128,12 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="61"/>
-      <c r="B231" s="61"/>
-      <c r="C231" s="63" t="s">
+      <c r="A231" s="58"/>
+      <c r="B231" s="58"/>
+      <c r="C231" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="57"/>
+      <c r="D231" s="62"/>
       <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
@@ -6148,10 +6148,10 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="61"/>
-      <c r="B232" s="61"/>
-      <c r="C232" s="63"/>
-      <c r="D232" s="57"/>
+      <c r="A232" s="58"/>
+      <c r="B232" s="58"/>
+      <c r="C232" s="71"/>
+      <c r="D232" s="62"/>
       <c r="E232" s="11" t="s">
         <v>189</v>
       </c>
@@ -6163,20 +6163,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="61"/>
-      <c r="B233" s="61"/>
-      <c r="C233" s="63"/>
-      <c r="D233" s="57"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="58"/>
+      <c r="C233" s="71"/>
+      <c r="D233" s="62"/>
       <c r="E233" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="61"/>
-      <c r="B234" s="61"/>
-      <c r="C234" s="63"/>
-      <c r="D234" s="57"/>
+      <c r="A234" s="58"/>
+      <c r="B234" s="58"/>
+      <c r="C234" s="71"/>
+      <c r="D234" s="62"/>
       <c r="E234" s="15" t="s">
         <v>192</v>
       </c>
@@ -6191,12 +6191,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="61"/>
-      <c r="B235" s="61"/>
-      <c r="C235" s="59" t="s">
+      <c r="A235" s="58"/>
+      <c r="B235" s="58"/>
+      <c r="C235" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="57"/>
+      <c r="D235" s="62"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6208,10 +6208,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="61"/>
-      <c r="B236" s="61"/>
-      <c r="C236" s="59"/>
-      <c r="D236" s="57"/>
+      <c r="A236" s="58"/>
+      <c r="B236" s="58"/>
+      <c r="C236" s="76"/>
+      <c r="D236" s="62"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6223,10 +6223,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="61"/>
-      <c r="B237" s="61"/>
-      <c r="C237" s="59"/>
-      <c r="D237" s="57"/>
+      <c r="A237" s="58"/>
+      <c r="B237" s="58"/>
+      <c r="C237" s="76"/>
+      <c r="D237" s="62"/>
       <c r="E237" s="11" t="s">
         <v>200</v>
       </c>
@@ -6238,10 +6238,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="61"/>
-      <c r="B238" s="61"/>
-      <c r="C238" s="59"/>
-      <c r="D238" s="57"/>
+      <c r="A238" s="58"/>
+      <c r="B238" s="58"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="62"/>
       <c r="E238" s="11" t="s">
         <v>202</v>
       </c>
@@ -6253,50 +6253,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="61"/>
-      <c r="B239" s="61"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="57"/>
+      <c r="A239" s="58"/>
+      <c r="B239" s="58"/>
+      <c r="C239" s="76"/>
+      <c r="D239" s="62"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="61"/>
-      <c r="B240" s="61"/>
-      <c r="C240" s="59"/>
-      <c r="D240" s="57"/>
+      <c r="A240" s="58"/>
+      <c r="B240" s="58"/>
+      <c r="C240" s="76"/>
+      <c r="D240" s="62"/>
       <c r="E240" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="61"/>
-      <c r="B241" s="61"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="57"/>
+      <c r="A241" s="58"/>
+      <c r="B241" s="58"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="62"/>
       <c r="E241" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="61"/>
-      <c r="B242" s="61"/>
-      <c r="C242" s="59"/>
-      <c r="D242" s="57"/>
+      <c r="A242" s="58"/>
+      <c r="B242" s="58"/>
+      <c r="C242" s="76"/>
+      <c r="D242" s="62"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="61"/>
-      <c r="B243" s="61"/>
-      <c r="C243" s="59"/>
-      <c r="D243" s="57"/>
+      <c r="A243" s="58"/>
+      <c r="B243" s="58"/>
+      <c r="C243" s="76"/>
+      <c r="D243" s="62"/>
       <c r="E243" s="32" t="s">
         <v>206</v>
       </c>
@@ -6308,10 +6308,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="61"/>
-      <c r="B244" s="61"/>
-      <c r="C244" s="59"/>
-      <c r="D244" s="60" t="s">
+      <c r="A244" s="58"/>
+      <c r="B244" s="58"/>
+      <c r="C244" s="76"/>
+      <c r="D244" s="67" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6325,40 +6325,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="61"/>
-      <c r="B245" s="61"/>
-      <c r="C245" s="59"/>
-      <c r="D245" s="60"/>
+      <c r="A245" s="58"/>
+      <c r="B245" s="58"/>
+      <c r="C245" s="76"/>
+      <c r="D245" s="67"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="61"/>
-      <c r="B246" s="61"/>
-      <c r="C246" s="59"/>
-      <c r="D246" s="60"/>
+      <c r="A246" s="58"/>
+      <c r="B246" s="58"/>
+      <c r="C246" s="76"/>
+      <c r="D246" s="67"/>
       <c r="E246" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="61"/>
-      <c r="B247" s="61"/>
-      <c r="C247" s="59"/>
-      <c r="D247" s="60"/>
+      <c r="A247" s="58"/>
+      <c r="B247" s="58"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="67"/>
       <c r="E247" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="61"/>
-      <c r="B248" s="61"/>
-      <c r="C248" s="59"/>
-      <c r="D248" s="60"/>
+      <c r="A248" s="58"/>
+      <c r="B248" s="58"/>
+      <c r="C248" s="76"/>
+      <c r="D248" s="67"/>
       <c r="E248" s="23" t="s">
         <v>223</v>
       </c>
@@ -6370,10 +6370,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="61"/>
-      <c r="B249" s="61"/>
-      <c r="C249" s="59"/>
-      <c r="D249" s="60"/>
+      <c r="A249" s="58"/>
+      <c r="B249" s="58"/>
+      <c r="C249" s="76"/>
+      <c r="D249" s="67"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6385,12 +6385,12 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="61"/>
-      <c r="B250" s="61"/>
-      <c r="C250" s="54" t="s">
+      <c r="A250" s="58"/>
+      <c r="B250" s="58"/>
+      <c r="C250" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="57"/>
+      <c r="D250" s="62"/>
       <c r="E250" s="36" t="s">
         <v>225</v>
       </c>
@@ -6405,10 +6405,10 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="61"/>
-      <c r="B251" s="61"/>
-      <c r="C251" s="54"/>
-      <c r="D251" s="57"/>
+      <c r="A251" s="58"/>
+      <c r="B251" s="58"/>
+      <c r="C251" s="66"/>
+      <c r="D251" s="62"/>
       <c r="E251" s="11" t="s">
         <v>229</v>
       </c>
@@ -6420,10 +6420,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="61"/>
-      <c r="B252" s="61"/>
-      <c r="C252" s="54"/>
-      <c r="D252" s="57"/>
+      <c r="A252" s="58"/>
+      <c r="B252" s="58"/>
+      <c r="C252" s="66"/>
+      <c r="D252" s="62"/>
       <c r="E252" s="11" t="s">
         <v>231</v>
       </c>
@@ -6435,10 +6435,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="61"/>
-      <c r="B253" s="61"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="57"/>
+      <c r="A253" s="58"/>
+      <c r="B253" s="58"/>
+      <c r="C253" s="66"/>
+      <c r="D253" s="62"/>
       <c r="E253" s="11" t="s">
         <v>233</v>
       </c>
@@ -6450,10 +6450,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="61"/>
-      <c r="B254" s="61"/>
-      <c r="C254" s="54"/>
-      <c r="D254" s="57"/>
+      <c r="A254" s="58"/>
+      <c r="B254" s="58"/>
+      <c r="C254" s="66"/>
+      <c r="D254" s="62"/>
       <c r="E254" s="11" t="s">
         <v>235</v>
       </c>
@@ -6465,10 +6465,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="61"/>
-      <c r="B255" s="61"/>
-      <c r="C255" s="54"/>
-      <c r="D255" s="57"/>
+      <c r="A255" s="58"/>
+      <c r="B255" s="58"/>
+      <c r="C255" s="66"/>
+      <c r="D255" s="62"/>
       <c r="E255" s="15" t="s">
         <v>237</v>
       </c>
@@ -6480,10 +6480,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="61"/>
-      <c r="B256" s="61"/>
-      <c r="C256" s="54"/>
-      <c r="D256" s="60" t="s">
+      <c r="A256" s="58"/>
+      <c r="B256" s="58"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="67" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6497,30 +6497,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="61"/>
-      <c r="B257" s="61"/>
-      <c r="C257" s="54"/>
-      <c r="D257" s="60"/>
+      <c r="A257" s="58"/>
+      <c r="B257" s="58"/>
+      <c r="C257" s="66"/>
+      <c r="D257" s="67"/>
       <c r="E257" s="11" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="61"/>
-      <c r="B258" s="61"/>
-      <c r="C258" s="54"/>
-      <c r="D258" s="60"/>
+      <c r="A258" s="58"/>
+      <c r="B258" s="58"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="67"/>
       <c r="E258" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="61"/>
-      <c r="B259" s="61"/>
-      <c r="C259" s="54"/>
-      <c r="D259" s="60"/>
+      <c r="A259" s="58"/>
+      <c r="B259" s="58"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="67"/>
       <c r="E259" s="11" t="s">
         <v>244</v>
       </c>
@@ -6532,10 +6532,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="61"/>
-      <c r="B260" s="61"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="60"/>
+      <c r="A260" s="58"/>
+      <c r="B260" s="58"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="67"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6547,50 +6547,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="61"/>
-      <c r="B261" s="61"/>
-      <c r="C261" s="54"/>
-      <c r="D261" s="60"/>
+      <c r="A261" s="58"/>
+      <c r="B261" s="58"/>
+      <c r="C261" s="66"/>
+      <c r="D261" s="67"/>
       <c r="E261" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="61"/>
-      <c r="B262" s="61"/>
-      <c r="C262" s="54"/>
-      <c r="D262" s="60"/>
+      <c r="A262" s="58"/>
+      <c r="B262" s="58"/>
+      <c r="C262" s="66"/>
+      <c r="D262" s="67"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="61"/>
-      <c r="B263" s="61"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="60"/>
+      <c r="A263" s="58"/>
+      <c r="B263" s="58"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="67"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="61"/>
-      <c r="B264" s="61"/>
-      <c r="C264" s="54"/>
-      <c r="D264" s="60"/>
+      <c r="A264" s="58"/>
+      <c r="B264" s="58"/>
+      <c r="C264" s="66"/>
+      <c r="D264" s="67"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="61"/>
-      <c r="B265" s="61"/>
-      <c r="C265" s="54"/>
-      <c r="D265" s="60" t="s">
+      <c r="A265" s="58"/>
+      <c r="B265" s="58"/>
+      <c r="C265" s="66"/>
+      <c r="D265" s="67" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6604,20 +6604,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="61"/>
-      <c r="B266" s="61"/>
-      <c r="C266" s="54"/>
-      <c r="D266" s="60"/>
+      <c r="A266" s="58"/>
+      <c r="B266" s="58"/>
+      <c r="C266" s="66"/>
+      <c r="D266" s="67"/>
       <c r="E266" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="61"/>
-      <c r="B267" s="61"/>
-      <c r="C267" s="54"/>
-      <c r="D267" s="60"/>
+      <c r="A267" s="58"/>
+      <c r="B267" s="58"/>
+      <c r="C267" s="66"/>
+      <c r="D267" s="67"/>
       <c r="E267" s="23" t="s">
         <v>250</v>
       </c>
@@ -6629,10 +6629,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="61"/>
-      <c r="B268" s="61"/>
-      <c r="C268" s="54"/>
-      <c r="D268" s="60"/>
+      <c r="A268" s="58"/>
+      <c r="B268" s="58"/>
+      <c r="C268" s="66"/>
+      <c r="D268" s="67"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6644,10 +6644,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="61"/>
-      <c r="B269" s="61"/>
-      <c r="C269" s="54"/>
-      <c r="D269" s="60"/>
+      <c r="A269" s="58"/>
+      <c r="B269" s="58"/>
+      <c r="C269" s="66"/>
+      <c r="D269" s="67"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6659,30 +6659,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="61"/>
-      <c r="B270" s="61"/>
-      <c r="C270" s="54"/>
-      <c r="D270" s="60"/>
+      <c r="A270" s="58"/>
+      <c r="B270" s="58"/>
+      <c r="C270" s="66"/>
+      <c r="D270" s="67"/>
       <c r="E270" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="61"/>
-      <c r="B271" s="61"/>
-      <c r="C271" s="54"/>
-      <c r="D271" s="60"/>
+      <c r="A271" s="58"/>
+      <c r="B271" s="58"/>
+      <c r="C271" s="66"/>
+      <c r="D271" s="67"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="61"/>
-      <c r="B272" s="61"/>
-      <c r="C272" s="54"/>
-      <c r="D272" s="60" t="s">
+      <c r="A272" s="58"/>
+      <c r="B272" s="58"/>
+      <c r="C272" s="66"/>
+      <c r="D272" s="67" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6696,10 +6696,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="61"/>
-      <c r="B273" s="61"/>
-      <c r="C273" s="54"/>
-      <c r="D273" s="60"/>
+      <c r="A273" s="58"/>
+      <c r="B273" s="58"/>
+      <c r="C273" s="66"/>
+      <c r="D273" s="67"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6711,10 +6711,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="61"/>
-      <c r="B274" s="61"/>
-      <c r="C274" s="54"/>
-      <c r="D274" s="60"/>
+      <c r="A274" s="58"/>
+      <c r="B274" s="58"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="67"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6726,10 +6726,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="61"/>
-      <c r="B275" s="61"/>
-      <c r="C275" s="54"/>
-      <c r="D275" s="60"/>
+      <c r="A275" s="58"/>
+      <c r="B275" s="58"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="67"/>
       <c r="E275" s="11" t="s">
         <v>256</v>
       </c>
@@ -6741,80 +6741,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="61"/>
-      <c r="B276" s="61"/>
-      <c r="C276" s="54"/>
-      <c r="D276" s="60"/>
+      <c r="A276" s="58"/>
+      <c r="B276" s="58"/>
+      <c r="C276" s="66"/>
+      <c r="D276" s="67"/>
       <c r="E276" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="61"/>
-      <c r="B277" s="61"/>
-      <c r="C277" s="54"/>
-      <c r="D277" s="60"/>
+      <c r="A277" s="58"/>
+      <c r="B277" s="58"/>
+      <c r="C277" s="66"/>
+      <c r="D277" s="67"/>
       <c r="E277" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="61"/>
-      <c r="B278" s="61"/>
-      <c r="C278" s="54"/>
-      <c r="D278" s="60"/>
+      <c r="A278" s="58"/>
+      <c r="B278" s="58"/>
+      <c r="C278" s="66"/>
+      <c r="D278" s="67"/>
       <c r="E278" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="61"/>
-      <c r="B279" s="61"/>
-      <c r="C279" s="54"/>
-      <c r="D279" s="60"/>
+      <c r="A279" s="58"/>
+      <c r="B279" s="58"/>
+      <c r="C279" s="66"/>
+      <c r="D279" s="67"/>
       <c r="E279" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="61"/>
-      <c r="B280" s="61"/>
-      <c r="C280" s="54"/>
-      <c r="D280" s="60"/>
+      <c r="A280" s="58"/>
+      <c r="B280" s="58"/>
+      <c r="C280" s="66"/>
+      <c r="D280" s="67"/>
       <c r="E280" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="61"/>
-      <c r="B281" s="61"/>
-      <c r="C281" s="54"/>
-      <c r="D281" s="60"/>
+      <c r="A281" s="58"/>
+      <c r="B281" s="58"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="67"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="61"/>
-      <c r="B282" s="61"/>
-      <c r="C282" s="54"/>
-      <c r="D282" s="60"/>
+      <c r="A282" s="58"/>
+      <c r="B282" s="58"/>
+      <c r="C282" s="66"/>
+      <c r="D282" s="67"/>
       <c r="E282" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="61"/>
-      <c r="B283" s="61"/>
-      <c r="C283" s="54"/>
-      <c r="D283" s="60" t="s">
+      <c r="A283" s="58"/>
+      <c r="B283" s="58"/>
+      <c r="C283" s="66"/>
+      <c r="D283" s="67" t="s">
         <v>258</v>
       </c>
       <c r="E283" s="36" t="s">
@@ -6828,30 +6828,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="61"/>
-      <c r="B284" s="61"/>
-      <c r="C284" s="54"/>
-      <c r="D284" s="60"/>
+      <c r="A284" s="58"/>
+      <c r="B284" s="58"/>
+      <c r="C284" s="66"/>
+      <c r="D284" s="67"/>
       <c r="E284" s="11" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="61"/>
-      <c r="B285" s="61"/>
-      <c r="C285" s="54"/>
-      <c r="D285" s="60"/>
+      <c r="A285" s="58"/>
+      <c r="B285" s="58"/>
+      <c r="C285" s="66"/>
+      <c r="D285" s="67"/>
       <c r="E285" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="61"/>
-      <c r="B286" s="61"/>
-      <c r="C286" s="54"/>
-      <c r="D286" s="60"/>
+      <c r="A286" s="58"/>
+      <c r="B286" s="58"/>
+      <c r="C286" s="66"/>
+      <c r="D286" s="67"/>
       <c r="E286" s="11" t="s">
         <v>263</v>
       </c>
@@ -6863,20 +6863,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="61"/>
-      <c r="B287" s="61"/>
-      <c r="C287" s="54"/>
-      <c r="D287" s="60"/>
+      <c r="A287" s="58"/>
+      <c r="B287" s="58"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="67"/>
       <c r="E287" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="61"/>
-      <c r="B288" s="61"/>
-      <c r="C288" s="54"/>
-      <c r="D288" s="60"/>
+      <c r="A288" s="58"/>
+      <c r="B288" s="58"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="67"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6888,34 +6888,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="61"/>
-      <c r="B289" s="61"/>
-      <c r="C289" s="54"/>
-      <c r="D289" s="60"/>
+      <c r="A289" s="58"/>
+      <c r="B289" s="58"/>
+      <c r="C289" s="66"/>
+      <c r="D289" s="67"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="61"/>
-      <c r="B290" s="61"/>
-      <c r="C290" s="54"/>
-      <c r="D290" s="60"/>
+      <c r="A290" s="58"/>
+      <c r="B290" s="58"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="67"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="54" t="s">
+      <c r="A291" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="54" t="s">
+      <c r="B291" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="58"/>
-      <c r="D291" s="57"/>
+      <c r="C291" s="75"/>
+      <c r="D291" s="62"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6927,10 +6927,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="54"/>
-      <c r="B292" s="54"/>
-      <c r="C292" s="58"/>
-      <c r="D292" s="57"/>
+      <c r="A292" s="66"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="75"/>
+      <c r="D292" s="62"/>
       <c r="E292" s="11" t="s">
         <v>270</v>
       </c>
@@ -6942,10 +6942,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="54"/>
-      <c r="B293" s="54"/>
-      <c r="C293" s="58"/>
-      <c r="D293" s="57"/>
+      <c r="A293" s="66"/>
+      <c r="B293" s="66"/>
+      <c r="C293" s="75"/>
+      <c r="D293" s="62"/>
       <c r="E293" s="11" t="s">
         <v>272</v>
       </c>
@@ -6957,10 +6957,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="54"/>
-      <c r="B294" s="54"/>
-      <c r="C294" s="58"/>
-      <c r="D294" s="57"/>
+      <c r="A294" s="66"/>
+      <c r="B294" s="66"/>
+      <c r="C294" s="75"/>
+      <c r="D294" s="62"/>
       <c r="E294" s="11" t="s">
         <v>274</v>
       </c>
@@ -6972,22 +6972,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="54"/>
-      <c r="B295" s="54"/>
-      <c r="C295" s="58"/>
-      <c r="D295" s="57"/>
+      <c r="A295" s="66"/>
+      <c r="B295" s="66"/>
+      <c r="C295" s="75"/>
+      <c r="D295" s="62"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="54"/>
-      <c r="B296" s="54" t="s">
+      <c r="A296" s="66"/>
+      <c r="B296" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="58"/>
-      <c r="D296" s="57"/>
+      <c r="C296" s="75"/>
+      <c r="D296" s="62"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -6999,10 +6999,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="54"/>
-      <c r="B297" s="54"/>
-      <c r="C297" s="58"/>
-      <c r="D297" s="57"/>
+      <c r="A297" s="66"/>
+      <c r="B297" s="66"/>
+      <c r="C297" s="75"/>
+      <c r="D297" s="62"/>
       <c r="E297" s="11" t="s">
         <v>280</v>
       </c>
@@ -7014,10 +7014,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="54"/>
-      <c r="B298" s="54"/>
-      <c r="C298" s="58"/>
-      <c r="D298" s="57"/>
+      <c r="A298" s="66"/>
+      <c r="B298" s="66"/>
+      <c r="C298" s="75"/>
+      <c r="D298" s="62"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -7029,10 +7029,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="54"/>
-      <c r="B299" s="54"/>
-      <c r="C299" s="58"/>
-      <c r="D299" s="57"/>
+      <c r="A299" s="66"/>
+      <c r="B299" s="66"/>
+      <c r="C299" s="75"/>
+      <c r="D299" s="62"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7044,34 +7044,34 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="54"/>
-      <c r="B300" s="54"/>
-      <c r="C300" s="58"/>
-      <c r="D300" s="57"/>
+      <c r="A300" s="66"/>
+      <c r="B300" s="66"/>
+      <c r="C300" s="75"/>
+      <c r="D300" s="62"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="54"/>
-      <c r="B301" s="54"/>
-      <c r="C301" s="58"/>
-      <c r="D301" s="57"/>
+      <c r="A301" s="66"/>
+      <c r="B301" s="66"/>
+      <c r="C301" s="75"/>
+      <c r="D301" s="62"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="55" t="s">
+      <c r="A302" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="55" t="s">
+      <c r="B302" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="56"/>
-      <c r="D302" s="57"/>
+      <c r="C302" s="61"/>
+      <c r="D302" s="62"/>
       <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
@@ -7083,10 +7083,10 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="55"/>
-      <c r="B303" s="55"/>
-      <c r="C303" s="56"/>
-      <c r="D303" s="57"/>
+      <c r="A303" s="59"/>
+      <c r="B303" s="59"/>
+      <c r="C303" s="61"/>
+      <c r="D303" s="62"/>
       <c r="E303" s="11" t="s">
         <v>288</v>
       </c>
@@ -7098,10 +7098,10 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="55"/>
-      <c r="B304" s="55"/>
-      <c r="C304" s="56"/>
-      <c r="D304" s="57"/>
+      <c r="A304" s="59"/>
+      <c r="B304" s="59"/>
+      <c r="C304" s="61"/>
+      <c r="D304" s="62"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7113,10 +7113,10 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="55"/>
-      <c r="B305" s="55"/>
-      <c r="C305" s="56"/>
-      <c r="D305" s="57"/>
+      <c r="A305" s="59"/>
+      <c r="B305" s="59"/>
+      <c r="C305" s="61"/>
+      <c r="D305" s="62"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7128,18 +7128,18 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="55"/>
-      <c r="B306" s="55"/>
-      <c r="C306" s="56"/>
-      <c r="D306" s="57"/>
+      <c r="A306" s="59"/>
+      <c r="B306" s="59"/>
+      <c r="C306" s="61"/>
+      <c r="D306" s="62"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="55"/>
-      <c r="B307" s="55" t="s">
+      <c r="A307" s="59"/>
+      <c r="B307" s="59" t="s">
         <v>292</v>
       </c>
       <c r="C307" s="47" t="s">
@@ -7152,12 +7152,12 @@
       <c r="F307" s="25"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="55"/>
-      <c r="B308" s="55"/>
-      <c r="C308" s="55" t="s">
+      <c r="A308" s="59"/>
+      <c r="B308" s="59"/>
+      <c r="C308" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="D308" s="57"/>
+      <c r="D308" s="62"/>
       <c r="E308" s="11" t="s">
         <v>294</v>
       </c>
@@ -7169,10 +7169,10 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="55"/>
-      <c r="B309" s="55"/>
-      <c r="C309" s="55"/>
-      <c r="D309" s="57"/>
+      <c r="A309" s="59"/>
+      <c r="B309" s="59"/>
+      <c r="C309" s="59"/>
+      <c r="D309" s="62"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
@@ -7184,10 +7184,10 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="55"/>
-      <c r="B310" s="55"/>
-      <c r="C310" s="55"/>
-      <c r="D310" s="57"/>
+      <c r="A310" s="59"/>
+      <c r="B310" s="59"/>
+      <c r="C310" s="59"/>
+      <c r="D310" s="62"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
@@ -7199,42 +7199,42 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="55"/>
-      <c r="B311" s="55"/>
-      <c r="C311" s="55"/>
-      <c r="D311" s="57"/>
+      <c r="A311" s="59"/>
+      <c r="B311" s="59"/>
+      <c r="C311" s="59"/>
+      <c r="D311" s="62"/>
       <c r="E311" s="11" t="s">
         <v>296</v>
       </c>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="55"/>
-      <c r="B312" s="55"/>
-      <c r="C312" s="55"/>
-      <c r="D312" s="57"/>
+      <c r="A312" s="59"/>
+      <c r="B312" s="59"/>
+      <c r="C312" s="59"/>
+      <c r="D312" s="62"/>
       <c r="E312" s="11" t="s">
         <v>297</v>
       </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="55"/>
-      <c r="B313" s="55"/>
-      <c r="C313" s="55"/>
-      <c r="D313" s="57"/>
+      <c r="A313" s="59"/>
+      <c r="B313" s="59"/>
+      <c r="C313" s="59"/>
+      <c r="D313" s="62"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="55"/>
-      <c r="B314" s="55"/>
-      <c r="C314" s="55" t="s">
+      <c r="A314" s="59"/>
+      <c r="B314" s="59"/>
+      <c r="C314" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="57"/>
+      <c r="D314" s="62"/>
       <c r="E314" s="7" t="s">
         <v>217</v>
       </c>
@@ -7246,10 +7246,10 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="55"/>
-      <c r="B315" s="55"/>
-      <c r="C315" s="55"/>
-      <c r="D315" s="57"/>
+      <c r="A315" s="59"/>
+      <c r="B315" s="59"/>
+      <c r="C315" s="59"/>
+      <c r="D315" s="62"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
@@ -7261,10 +7261,10 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="55"/>
-      <c r="B316" s="55"/>
-      <c r="C316" s="55"/>
-      <c r="D316" s="57"/>
+      <c r="A316" s="59"/>
+      <c r="B316" s="59"/>
+      <c r="C316" s="59"/>
+      <c r="D316" s="62"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
@@ -7276,44 +7276,44 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="55"/>
-      <c r="B317" s="55"/>
-      <c r="C317" s="55"/>
-      <c r="D317" s="57"/>
+      <c r="A317" s="59"/>
+      <c r="B317" s="59"/>
+      <c r="C317" s="59"/>
+      <c r="D317" s="62"/>
       <c r="E317" s="11" t="s">
         <v>299</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="55"/>
-      <c r="B318" s="55"/>
-      <c r="C318" s="55"/>
-      <c r="D318" s="57"/>
+      <c r="A318" s="59"/>
+      <c r="B318" s="59"/>
+      <c r="C318" s="59"/>
+      <c r="D318" s="62"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="55"/>
-      <c r="B319" s="55"/>
-      <c r="C319" s="55"/>
-      <c r="D319" s="57"/>
+      <c r="A319" s="59"/>
+      <c r="B319" s="59"/>
+      <c r="C319" s="59"/>
+      <c r="D319" s="62"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="55" t="s">
+      <c r="A320" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="B320" s="55" t="s">
+      <c r="B320" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="56"/>
-      <c r="D320" s="57"/>
+      <c r="C320" s="61"/>
+      <c r="D320" s="62"/>
       <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
@@ -7325,10 +7325,10 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="55"/>
-      <c r="B321" s="55"/>
-      <c r="C321" s="56"/>
-      <c r="D321" s="57"/>
+      <c r="A321" s="59"/>
+      <c r="B321" s="59"/>
+      <c r="C321" s="61"/>
+      <c r="D321" s="62"/>
       <c r="E321" s="11" t="s">
         <v>304</v>
       </c>
@@ -7340,10 +7340,10 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="55"/>
-      <c r="B322" s="55"/>
-      <c r="C322" s="56"/>
-      <c r="D322" s="57"/>
+      <c r="A322" s="59"/>
+      <c r="B322" s="59"/>
+      <c r="C322" s="61"/>
+      <c r="D322" s="62"/>
       <c r="E322" s="11" t="s">
         <v>306</v>
       </c>
@@ -7355,10 +7355,10 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="55"/>
-      <c r="B323" s="55"/>
-      <c r="C323" s="56"/>
-      <c r="D323" s="57"/>
+      <c r="A323" s="59"/>
+      <c r="B323" s="59"/>
+      <c r="C323" s="61"/>
+      <c r="D323" s="62"/>
       <c r="E323" s="11" t="s">
         <v>308</v>
       </c>
@@ -7370,18 +7370,18 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="55"/>
-      <c r="B324" s="55"/>
-      <c r="C324" s="56"/>
-      <c r="D324" s="57"/>
+      <c r="A324" s="59"/>
+      <c r="B324" s="59"/>
+      <c r="C324" s="61"/>
+      <c r="D324" s="62"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="55"/>
-      <c r="B325" s="55" t="s">
+      <c r="A325" s="59"/>
+      <c r="B325" s="59" t="s">
         <v>310</v>
       </c>
       <c r="C325" s="47" t="s">
@@ -7394,12 +7394,12 @@
       <c r="F325" s="25"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="55"/>
-      <c r="B326" s="55"/>
-      <c r="C326" s="55" t="s">
+      <c r="A326" s="59"/>
+      <c r="B326" s="59"/>
+      <c r="C326" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D326" s="57"/>
+      <c r="D326" s="62"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
@@ -7411,82 +7411,82 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="55"/>
-      <c r="B327" s="55"/>
-      <c r="C327" s="55"/>
-      <c r="D327" s="57"/>
+      <c r="A327" s="59"/>
+      <c r="B327" s="59"/>
+      <c r="C327" s="59"/>
+      <c r="D327" s="62"/>
       <c r="E327" s="11" t="s">
         <v>313</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="55"/>
-      <c r="B328" s="55"/>
-      <c r="C328" s="55"/>
-      <c r="D328" s="57"/>
+      <c r="A328" s="59"/>
+      <c r="B328" s="59"/>
+      <c r="C328" s="59"/>
+      <c r="D328" s="62"/>
       <c r="E328" s="11" t="s">
         <v>314</v>
       </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="55"/>
-      <c r="B329" s="55"/>
-      <c r="C329" s="55"/>
-      <c r="D329" s="57"/>
+      <c r="A329" s="59"/>
+      <c r="B329" s="59"/>
+      <c r="C329" s="59"/>
+      <c r="D329" s="62"/>
       <c r="E329" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="55"/>
-      <c r="B330" s="55"/>
-      <c r="C330" s="55"/>
-      <c r="D330" s="57"/>
+      <c r="A330" s="59"/>
+      <c r="B330" s="59"/>
+      <c r="C330" s="59"/>
+      <c r="D330" s="62"/>
       <c r="E330" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="55"/>
-      <c r="B331" s="55"/>
-      <c r="C331" s="55"/>
-      <c r="D331" s="57"/>
+      <c r="A331" s="59"/>
+      <c r="B331" s="59"/>
+      <c r="C331" s="59"/>
+      <c r="D331" s="62"/>
       <c r="E331" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="55"/>
-      <c r="B332" s="55"/>
-      <c r="C332" s="55"/>
-      <c r="D332" s="57"/>
+      <c r="A332" s="59"/>
+      <c r="B332" s="59"/>
+      <c r="C332" s="59"/>
+      <c r="D332" s="62"/>
       <c r="E332" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="55"/>
-      <c r="B333" s="55"/>
-      <c r="C333" s="55"/>
-      <c r="D333" s="57"/>
+      <c r="A333" s="59"/>
+      <c r="B333" s="59"/>
+      <c r="C333" s="59"/>
+      <c r="D333" s="62"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="52" t="s">
+      <c r="A334" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="53"/>
-      <c r="C334" s="53"/>
-      <c r="D334" s="53"/>
+      <c r="B334" s="78"/>
+      <c r="C334" s="78"/>
+      <c r="D334" s="78"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7498,10 +7498,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="52"/>
-      <c r="B335" s="52"/>
-      <c r="C335" s="53"/>
-      <c r="D335" s="53"/>
+      <c r="A335" s="77"/>
+      <c r="B335" s="77"/>
+      <c r="C335" s="78"/>
+      <c r="D335" s="78"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7513,10 +7513,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="52"/>
-      <c r="B336" s="52"/>
-      <c r="C336" s="53"/>
-      <c r="D336" s="53"/>
+      <c r="A336" s="77"/>
+      <c r="B336" s="77"/>
+      <c r="C336" s="78"/>
+      <c r="D336" s="78"/>
       <c r="E336" s="11" t="s">
         <v>320</v>
       </c>
@@ -7528,10 +7528,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="52"/>
-      <c r="B337" s="52"/>
-      <c r="C337" s="53"/>
-      <c r="D337" s="53"/>
+      <c r="A337" s="77"/>
+      <c r="B337" s="77"/>
+      <c r="C337" s="78"/>
+      <c r="D337" s="78"/>
       <c r="E337" s="11" t="s">
         <v>322</v>
       </c>
@@ -7543,10 +7543,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="52"/>
-      <c r="B338" s="52"/>
-      <c r="C338" s="53"/>
-      <c r="D338" s="53"/>
+      <c r="A338" s="77"/>
+      <c r="B338" s="77"/>
+      <c r="C338" s="78"/>
+      <c r="D338" s="78"/>
       <c r="E338" s="11" t="s">
         <v>324</v>
       </c>
@@ -7558,20 +7558,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="52"/>
-      <c r="B339" s="52"/>
-      <c r="C339" s="53"/>
-      <c r="D339" s="53"/>
+      <c r="A339" s="77"/>
+      <c r="B339" s="77"/>
+      <c r="C339" s="78"/>
+      <c r="D339" s="78"/>
       <c r="E339" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="52"/>
-      <c r="B340" s="52"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
+      <c r="A340" s="77"/>
+      <c r="B340" s="77"/>
+      <c r="C340" s="78"/>
+      <c r="D340" s="78"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7580,6 +7580,87 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7604,87 +7685,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7845,7 +7845,7 @@
       <c r="B66" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="80" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       <c r="B67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="69"/>
+      <c r="C67" s="80"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
@@ -7865,7 +7865,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="69"/>
+      <c r="C68" s="80"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
@@ -7874,7 +7874,7 @@
       <c r="B69" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="69"/>
+      <c r="C69" s="80"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
@@ -7883,7 +7883,7 @@
       <c r="B70" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="69"/>
+      <c r="C70" s="80"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -7892,7 +7892,7 @@
       <c r="B71" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="69"/>
+      <c r="C71" s="80"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
@@ -7901,7 +7901,7 @@
       <c r="B72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C72" s="69"/>
+      <c r="C72" s="80"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
@@ -7910,7 +7910,7 @@
       <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C73" s="69"/>
+      <c r="C73" s="80"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
@@ -7919,7 +7919,7 @@
       <c r="B74" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C74" s="69"/>
+      <c r="C74" s="80"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
@@ -7928,7 +7928,7 @@
       <c r="B75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C75" s="69"/>
+      <c r="C75" s="80"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
@@ -7937,7 +7937,7 @@
       <c r="B76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C76" s="69"/>
+      <c r="C76" s="80"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
@@ -7946,7 +7946,7 @@
       <c r="B77" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C77" s="69"/>
+      <c r="C77" s="80"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -7955,7 +7955,7 @@
       <c r="B78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="69"/>
+      <c r="C78" s="80"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
@@ -7964,7 +7964,7 @@
       <c r="B79" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="69"/>
+      <c r="C79" s="80"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -7973,7 +7973,7 @@
       <c r="B82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="68" t="s">
+      <c r="C82" s="79" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       <c r="B83" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C83" s="68"/>
+      <c r="C83" s="79"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
@@ -7993,7 +7993,7 @@
       <c r="B84" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="68"/>
+      <c r="C84" s="79"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
@@ -8002,7 +8002,7 @@
       <c r="B85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="68"/>
+      <c r="C85" s="79"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
@@ -8011,7 +8011,7 @@
       <c r="B86" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="68"/>
+      <c r="C86" s="79"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -8020,7 +8020,7 @@
       <c r="B89" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="79" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       <c r="B90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="68"/>
+      <c r="C90" s="79"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -8040,7 +8040,7 @@
       <c r="B91" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="68"/>
+      <c r="C91" s="79"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8049,7 +8049,7 @@
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="68"/>
+      <c r="C92" s="79"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8058,7 +8058,7 @@
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="68"/>
+      <c r="C93" s="79"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8067,7 +8067,7 @@
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="68"/>
+      <c r="C94" s="79"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8076,7 +8076,7 @@
       <c r="B95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="68"/>
+      <c r="C95" s="79"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8085,7 +8085,7 @@
       <c r="B96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="68"/>
+      <c r="C96" s="79"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8094,7 +8094,7 @@
       <c r="B97" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="68"/>
+      <c r="C97" s="79"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8103,7 +8103,7 @@
       <c r="B98" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="68"/>
+      <c r="C98" s="79"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8112,7 +8112,7 @@
       <c r="B99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="68"/>
+      <c r="C99" s="79"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8121,7 +8121,7 @@
       <c r="B100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="68"/>
+      <c r="C100" s="79"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8130,7 +8130,7 @@
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="68"/>
+      <c r="C101" s="79"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8139,7 +8139,7 @@
       <c r="B102" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="68"/>
+      <c r="C102" s="79"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
@@ -8369,10 +8369,10 @@
       <c r="A141" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="72" t="s">
+      <c r="B141" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="77" t="s">
+      <c r="C141" s="81" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8380,28 +8380,28 @@
       <c r="A142" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="72" t="s">
+      <c r="B142" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="77"/>
+      <c r="C142" s="81"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="77"/>
+      <c r="C143" s="81"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A144" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="71" t="s">
+      <c r="A144" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="C144" s="73" t="s">
+      <c r="C144" s="82" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8412,7 +8412,7 @@
       <c r="B145" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="73"/>
+      <c r="C145" s="82"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="42" t="s">
@@ -8421,7 +8421,7 @@
       <c r="B146" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="73"/>
+      <c r="C146" s="82"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="42" t="s">
@@ -8430,7 +8430,7 @@
       <c r="B147" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="73"/>
+      <c r="C147" s="82"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="42" t="s">
@@ -8439,16 +8439,16 @@
       <c r="B148" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="73"/>
+      <c r="C148" s="82"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="C149" s="73"/>
+      <c r="C149" s="82"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="42" t="s">
@@ -8457,7 +8457,7 @@
       <c r="B150" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="73"/>
+      <c r="C150" s="82"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="42" t="s">
@@ -8466,7 +8466,7 @@
       <c r="B151" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="C151" s="73"/>
+      <c r="C151" s="82"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="42" t="s">
@@ -8475,7 +8475,7 @@
       <c r="B152" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="C152" s="73"/>
+      <c r="C152" s="82"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="42" t="s">
@@ -8484,7 +8484,7 @@
       <c r="B153" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="C153" s="73"/>
+      <c r="C153" s="82"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="40" t="s">
@@ -8493,7 +8493,7 @@
       <c r="B154" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="C154" s="70" t="s">
+      <c r="C154" s="83" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="69"/>
+      <c r="C155" s="80"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8513,7 +8513,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="69"/>
+      <c r="C156" s="80"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8522,7 +8522,7 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="69"/>
+      <c r="C157" s="80"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="40" t="s">
@@ -8531,7 +8531,7 @@
       <c r="B158" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="68" t="s">
+      <c r="C158" s="79" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
       <c r="B159" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="68"/>
+      <c r="C159" s="79"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
@@ -8551,7 +8551,7 @@
       <c r="B160" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="68"/>
+      <c r="C160" s="79"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
@@ -8560,7 +8560,7 @@
       <c r="B161" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="68"/>
+      <c r="C161" s="79"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
@@ -8569,7 +8569,7 @@
       <c r="B162" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="68"/>
+      <c r="C162" s="79"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="40" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="447">
   <si>
     <t>Раздел</t>
   </si>
@@ -1547,6 +1547,24 @@
   </si>
   <si>
     <t>Назначить доступ на перевод в последующее состояние</t>
+  </si>
+  <si>
+    <r>
+      <t>IConfMetaDataContract.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t>SetTypeLinkAttributeCopyOptions – изменить опции атрибута связи</t>
+    </r>
+  </si>
+  <si>
+    <t>GetTypeLinkAttrTemplates - Пояснить параметр "Идентификатор отношения связи типов". Это идентификатор отношения в БД для типов, связи типов. Смотри таблицу rlTypesAndTypes. Нужно найти метод, где такое получить можно и придумать описание.</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1988,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1998,7 +2016,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2012,9 +2029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2035,15 +2049,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2065,7 +2073,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2077,30 +2084,52 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,26 +2141,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2147,6 +2162,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="1"/>
@@ -2238,8 +2265,8 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFDC4CE0"/>
       <color rgb="FFFF9797"/>
-      <color rgb="FFDC4CE0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2257,8 +2284,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3914775</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2339,8 +2366,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3914775</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -2936,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3041,962 +3068,962 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="62"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="39" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="63"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="63"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="63"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="63"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="60" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="62"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="62"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="62"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="I14" s="55" t="s">
+      <c r="F14" s="19"/>
+      <c r="I14" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="62"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="62"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="60" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="62"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="62"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="62"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="62"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="62"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="38" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="62"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="62"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="62"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="62"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="62"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="62"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="65" t="s">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="62"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="46" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="62"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="62"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="51"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="69" t="s">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="62"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="62"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="67" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="42" t="s">
+      <c r="F44" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="58"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="23" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="42" t="s">
+      <c r="F45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="58"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="62"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="42" t="s">
+      <c r="F46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="42" t="s">
+      <c r="F47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="58"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25" t="s">
+      <c r="D49" s="54"/>
+      <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="25"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="62"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="59"/>
-      <c r="D51" s="62"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="59"/>
-      <c r="D52" s="62"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="59"/>
-      <c r="D53" s="62"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="59"/>
-      <c r="D55" s="62"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
       <c r="C56" s="59"/>
-      <c r="D56" s="62"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="20"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="59"/>
-      <c r="D57" s="62"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="62"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="59"/>
-      <c r="D59" s="62"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="59"/>
-      <c r="D60" s="62"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="59"/>
-      <c r="D61" s="62"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="59"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="62"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="62"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="54" t="s">
+      <c r="G64" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
       <c r="C65" s="59"/>
-      <c r="D65" s="62"/>
+      <c r="D65" s="61"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="59"/>
-      <c r="D66" s="62"/>
+      <c r="D66" s="61"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="59"/>
-      <c r="D67" s="62"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
       <c r="C68" s="59"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="23" t="s">
+      <c r="D68" s="61"/>
+      <c r="E68" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="59"/>
-      <c r="D69" s="62"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F69" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="48" t="s">
+      <c r="F69" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="44" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="59"/>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="76" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4005,328 +4032,328 @@
       <c r="F70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="42" t="s">
+      <c r="G70" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="59"/>
-      <c r="D71" s="64"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="59"/>
-      <c r="D72" s="64"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="59"/>
-      <c r="D73" s="64"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="59"/>
-      <c r="D74" s="64"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="42" t="s">
+      <c r="G74" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="59"/>
-      <c r="D75" s="64"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="42" t="s">
+      <c r="G75" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="59"/>
-      <c r="D76" s="64"/>
+      <c r="D76" s="76"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="20"/>
+      <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="59"/>
-      <c r="D77" s="64"/>
+      <c r="D77" s="76"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="70" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="62"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="42" t="s">
+      <c r="G78" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="62"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="42" t="s">
+      <c r="G79" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="56" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="51" t="s">
         <v>444</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="57" t="s">
+      <c r="G80" s="52" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="62"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="61"/>
       <c r="E81" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="G81" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="57" t="s">
+      <c r="I81" s="52" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="62"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="61"/>
       <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="66" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="62"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="42" t="s">
+      <c r="G83" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="62"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="61"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="42" t="s">
+      <c r="G84" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="62"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="61"/>
       <c r="E85" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="20"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="62"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="61"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="62"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="61"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="62"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="61"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="20"/>
+      <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="62"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="61"/>
       <c r="E89" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="20"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="62"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="61"/>
       <c r="E90" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F90" s="20"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="62"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="61"/>
       <c r="E91" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="20"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="62"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="61"/>
       <c r="E92" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F92" s="20"/>
+      <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="58"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="62"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="61"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F93" s="20"/>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="62"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="61"/>
       <c r="E94" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="20"/>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="62"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="61"/>
       <c r="E95" s="15" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="58"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67" t="s">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="70" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4335,91 +4362,91 @@
       <c r="F96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="13" t="s">
-        <v>56</v>
+      <c r="I96" s="40" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="58"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="67"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="70"/>
       <c r="E97" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="20"/>
+      <c r="F97" s="19"/>
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="58"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F98" s="20"/>
+      <c r="F98" s="19"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="38" t="s">
         <v>58</v>
       </c>
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="58"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="70"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="58"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="20"/>
+      <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="70"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="67" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="66" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4428,185 +4455,190 @@
       <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="58"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="66"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="38" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="58"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="67"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="66"/>
       <c r="E105" s="11" t="s">
         <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="58"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="66"/>
       <c r="E106" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="87" t="s">
         <v>162</v>
       </c>
+      <c r="I106" s="88" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58" t="s">
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="62"/>
+      <c r="D107" s="61"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="62"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="61"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="58"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="62"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="61"/>
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="58"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="62"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="61"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="58"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="62"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="61"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F111" s="11"/>
-      <c r="G111" s="28"/>
+      <c r="G111" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="58"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="62"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F112" s="11"/>
-      <c r="G112" s="28"/>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="58"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="62"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="61"/>
       <c r="E113" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F113" s="11"/>
-      <c r="G113" s="28"/>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="58"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="62"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="61"/>
       <c r="E114" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F114" s="11"/>
-      <c r="G114" s="28"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="58"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="62"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="61"/>
       <c r="E115" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F115" s="11"/>
-      <c r="G115" s="28"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="62"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="61"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F116" s="15"/>
-      <c r="G116" s="28"/>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="58"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="66" t="s">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="62"/>
+      <c r="D117" s="64"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
@@ -4618,92 +4650,92 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="58"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="62"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="64"/>
       <c r="E118" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="58"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="62"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="64"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="23" t="s">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G120" s="19" t="s">
+      <c r="G120" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="58"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="62"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="64"/>
       <c r="E121" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="G121" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="58"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="62"/>
+      <c r="A122" s="67"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="64"/>
       <c r="E122" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="62"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="64"/>
       <c r="E123" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F123" s="29" t="s">
+      <c r="F123" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="66" t="s">
+      <c r="A124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="62"/>
+      <c r="D124" s="64"/>
       <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
@@ -4713,15 +4745,15 @@
       <c r="G124" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I124" s="30" t="s">
+      <c r="I124" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="58"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="62"/>
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="64"/>
       <c r="E125" s="11" t="s">
         <v>179</v>
       </c>
@@ -4733,41 +4765,41 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="58"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="62"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="64"/>
       <c r="E126" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="58"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="62"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="64"/>
       <c r="E127" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="58"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="66" t="s">
+      <c r="A128" s="67"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="62"/>
+      <c r="D128" s="64"/>
       <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="29" t="s">
         <v>186</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -4778,10 +4810,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="58"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="62"/>
+      <c r="A129" s="67"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="64"/>
       <c r="E129" s="11" t="s">
         <v>189</v>
       </c>
@@ -4793,20 +4825,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="58"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="62"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="64"/>
       <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="58"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="62"/>
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="64"/>
       <c r="E131" s="15" t="s">
         <v>192</v>
       </c>
@@ -4821,12 +4853,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="58"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="66" t="s">
+      <c r="A132" s="67"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="62"/>
+      <c r="D132" s="64"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4838,10 +4870,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="58"/>
-      <c r="B133" s="58"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="62"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="64"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4853,10 +4885,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="58"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="62"/>
+      <c r="A134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="64"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
@@ -4868,10 +4900,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="58"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="62"/>
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="64"/>
       <c r="E135" s="11" t="s">
         <v>202</v>
       </c>
@@ -4883,59 +4915,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="58"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="62"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="64"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="58"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="62"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="64"/>
       <c r="E137" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="58"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="62"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="64"/>
       <c r="E138" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="58"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="62"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="64"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="58"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="32" t="s">
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="58"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="67" t="s">
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="66" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4949,41 +4981,41 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="58"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="67"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="66"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="58"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="67"/>
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="66"/>
       <c r="E143" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="58"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="67"/>
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="66"/>
       <c r="E144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="58"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="33" t="s">
+      <c r="A145" s="67"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -4994,10 +5026,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="58"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="67"/>
+      <c r="A146" s="67"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="66"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -5009,10 +5041,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="58"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="67"/>
+      <c r="A147" s="67"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="66"/>
       <c r="E147" s="15" t="s">
         <v>210</v>
       </c>
@@ -5024,124 +5056,124 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="58" t="s">
+      <c r="A148" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="60" t="s">
+      <c r="B148" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="68" t="s">
+      <c r="C148" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="62"/>
+      <c r="D148" s="61"/>
       <c r="E148" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="42" t="s">
+      <c r="G148" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="58"/>
-      <c r="B149" s="60"/>
-      <c r="C149" s="68"/>
-      <c r="D149" s="62"/>
+      <c r="A149" s="67"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="61"/>
       <c r="E149" s="11" t="s">
         <v>213</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="42" t="s">
+      <c r="G149" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="58"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="68"/>
-      <c r="D150" s="62"/>
+      <c r="A150" s="67"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="61"/>
       <c r="E150" s="11" t="s">
         <v>214</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="42" t="s">
+      <c r="G150" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="58"/>
-      <c r="B151" s="60"/>
-      <c r="C151" s="68"/>
-      <c r="D151" s="62"/>
+      <c r="A151" s="67"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="61"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="42" t="s">
+      <c r="G151" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="58"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="68"/>
-      <c r="D152" s="62"/>
+      <c r="A152" s="67"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="61"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="58"/>
-      <c r="B153" s="58" t="s">
+      <c r="A153" s="67"/>
+      <c r="B153" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="45" t="s">
+      <c r="C153" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D153" s="34"/>
-      <c r="E153" s="35" t="s">
+      <c r="D153" s="55"/>
+      <c r="E153" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F153" s="35"/>
+      <c r="F153" s="32"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="58"/>
-      <c r="B154" s="58"/>
+      <c r="A154" s="67"/>
+      <c r="B154" s="67"/>
       <c r="C154" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="62"/>
+      <c r="D154" s="61"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="42" t="s">
+      <c r="G154" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="58"/>
-      <c r="B155" s="58"/>
+      <c r="A155" s="67"/>
+      <c r="B155" s="67"/>
       <c r="C155" s="59"/>
-      <c r="D155" s="62"/>
+      <c r="D155" s="61"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="48" t="s">
+      <c r="G155" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -5149,162 +5181,162 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="58"/>
-      <c r="B156" s="58"/>
+      <c r="A156" s="67"/>
+      <c r="B156" s="67"/>
       <c r="C156" s="59"/>
-      <c r="D156" s="62"/>
+      <c r="D156" s="61"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="42" t="s">
+      <c r="G156" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="58"/>
-      <c r="B157" s="58"/>
+      <c r="A157" s="67"/>
+      <c r="B157" s="67"/>
       <c r="C157" s="59"/>
-      <c r="D157" s="62"/>
+      <c r="D157" s="61"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="42" t="s">
+      <c r="G157" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="58"/>
-      <c r="B158" s="58"/>
+      <c r="A158" s="67"/>
+      <c r="B158" s="67"/>
       <c r="C158" s="59"/>
-      <c r="D158" s="62"/>
+      <c r="D158" s="61"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="58"/>
-      <c r="B159" s="58"/>
+      <c r="A159" s="67"/>
+      <c r="B159" s="67"/>
       <c r="C159" s="59"/>
-      <c r="D159" s="62"/>
+      <c r="D159" s="61"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="58"/>
-      <c r="B160" s="58"/>
+      <c r="A160" s="67"/>
+      <c r="B160" s="67"/>
       <c r="C160" s="59"/>
-      <c r="D160" s="62"/>
+      <c r="D160" s="61"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="58"/>
-      <c r="B161" s="58"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="67"/>
       <c r="C161" s="59"/>
-      <c r="D161" s="62"/>
+      <c r="D161" s="61"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="58"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="72" t="s">
+      <c r="A162" s="67"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="62"/>
+      <c r="D162" s="61"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="42" t="s">
+      <c r="G162" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="58"/>
-      <c r="B163" s="58"/>
-      <c r="C163" s="72"/>
-      <c r="D163" s="62"/>
+      <c r="A163" s="67"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="61"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="42" t="s">
+      <c r="G163" s="38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="58"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="72"/>
-      <c r="D164" s="62"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="61"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="58"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="72"/>
-      <c r="D165" s="62"/>
+      <c r="A165" s="67"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="61"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="42" t="s">
+      <c r="G165" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="58"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="72"/>
-      <c r="D166" s="62"/>
-      <c r="E166" s="23" t="s">
+      <c r="A166" s="67"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="71"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="58"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="72"/>
-      <c r="D167" s="62"/>
+      <c r="A167" s="67"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="71"/>
+      <c r="D167" s="61"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="48" t="s">
+      <c r="G167" s="44" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="58"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="72"/>
-      <c r="D168" s="73" t="s">
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="71"/>
+      <c r="D168" s="70" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5313,317 +5345,317 @@
       <c r="F168" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="42" t="s">
+      <c r="G168" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="58"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="73"/>
+      <c r="A169" s="67"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="70"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="42" t="s">
+      <c r="G169" s="38" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="58"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="73"/>
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="70"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="58"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="73"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="71"/>
+      <c r="D171" s="70"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="58"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="72"/>
-      <c r="D172" s="73"/>
+      <c r="A172" s="67"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="70"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="42" t="s">
+      <c r="G172" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="58"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="72"/>
-      <c r="D173" s="73"/>
+      <c r="A173" s="67"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="70"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="42" t="s">
+      <c r="G173" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="58"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="72"/>
-      <c r="D174" s="73"/>
+      <c r="A174" s="67"/>
+      <c r="B174" s="67"/>
+      <c r="C174" s="71"/>
+      <c r="D174" s="70"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="58"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="72"/>
-      <c r="D175" s="73"/>
+      <c r="A175" s="67"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="70"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="58"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="74" t="s">
+      <c r="A176" s="67"/>
+      <c r="B176" s="67"/>
+      <c r="C176" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="62"/>
+      <c r="D176" s="61"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="42" t="s">
+      <c r="G176" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="58"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="74"/>
-      <c r="D177" s="62"/>
+      <c r="A177" s="67"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="61"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G177" s="42" t="s">
+      <c r="G177" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="58"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="74"/>
-      <c r="D178" s="62"/>
-      <c r="E178" s="56" t="s">
+      <c r="A178" s="67"/>
+      <c r="B178" s="67"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="51" t="s">
         <v>444</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G178" s="48" t="s">
+      <c r="G178" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="58"/>
-      <c r="B179" s="58"/>
-      <c r="C179" s="74"/>
-      <c r="D179" s="62"/>
+      <c r="A179" s="67"/>
+      <c r="B179" s="67"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="61"/>
       <c r="E179" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G179" s="48" t="s">
+      <c r="G179" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="I179" s="19" t="s">
+      <c r="I179" s="18" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="58"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="74"/>
-      <c r="D180" s="62"/>
+      <c r="A180" s="67"/>
+      <c r="B180" s="67"/>
+      <c r="C180" s="72"/>
+      <c r="D180" s="61"/>
       <c r="E180" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="58"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="71" t="s">
+      <c r="A181" s="67"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="D181" s="62"/>
+      <c r="D181" s="61"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="58"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="71"/>
-      <c r="D182" s="62"/>
+      <c r="A182" s="67"/>
+      <c r="B182" s="67"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="61"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="58"/>
-      <c r="B183" s="58"/>
-      <c r="C183" s="71"/>
-      <c r="D183" s="62"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="67"/>
+      <c r="C183" s="69"/>
+      <c r="D183" s="61"/>
       <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="58"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="71"/>
-      <c r="D184" s="62"/>
+      <c r="A184" s="67"/>
+      <c r="B184" s="67"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="61"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="58"/>
-      <c r="B185" s="58"/>
-      <c r="C185" s="71"/>
-      <c r="D185" s="62"/>
+      <c r="A185" s="67"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="69"/>
+      <c r="D185" s="61"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="58"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="71"/>
-      <c r="D186" s="62"/>
+      <c r="A186" s="67"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="69"/>
+      <c r="D186" s="61"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="58"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="62"/>
+      <c r="A187" s="67"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="61"/>
       <c r="E187" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="58"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="62"/>
+      <c r="A188" s="67"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="69"/>
+      <c r="D188" s="61"/>
       <c r="E188" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="58"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="71"/>
-      <c r="D189" s="62"/>
+      <c r="A189" s="67"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="61"/>
       <c r="E189" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="58"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="62"/>
+      <c r="A190" s="67"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="69"/>
+      <c r="D190" s="61"/>
       <c r="E190" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="58"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="71"/>
-      <c r="D191" s="62"/>
+      <c r="A191" s="67"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="61"/>
       <c r="E191" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="58"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="62"/>
-      <c r="E192" s="32" t="s">
+      <c r="A192" s="67"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="69"/>
+      <c r="D192" s="61"/>
+      <c r="E192" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="32"/>
+      <c r="F192" s="30"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="58"/>
-      <c r="B193" s="58"/>
-      <c r="C193" s="71"/>
-      <c r="D193" s="67" t="s">
+      <c r="A193" s="67"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="69"/>
+      <c r="D193" s="70" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5632,98 +5664,98 @@
       <c r="F193" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I193" s="13" t="s">
+      <c r="I193" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="58"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="71"/>
-      <c r="D194" s="67"/>
+      <c r="A194" s="67"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="70"/>
       <c r="E194" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="58"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="67"/>
+      <c r="A195" s="67"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="69"/>
+      <c r="D195" s="70"/>
       <c r="E195" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="58"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="67"/>
+      <c r="A196" s="67"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="69"/>
+      <c r="D196" s="70"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="58"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="67"/>
+      <c r="A197" s="67"/>
+      <c r="B197" s="67"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="70"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="58"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="67"/>
+      <c r="A198" s="67"/>
+      <c r="B198" s="67"/>
+      <c r="C198" s="69"/>
+      <c r="D198" s="70"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="58"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="71"/>
-      <c r="D199" s="67"/>
+      <c r="A199" s="67"/>
+      <c r="B199" s="67"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="70"/>
       <c r="E199" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="58"/>
-      <c r="B200" s="58"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="67"/>
+      <c r="A200" s="67"/>
+      <c r="B200" s="67"/>
+      <c r="C200" s="69"/>
+      <c r="D200" s="70"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="58"/>
-      <c r="B201" s="58"/>
-      <c r="C201" s="71"/>
-      <c r="D201" s="67" t="s">
+      <c r="A201" s="67"/>
+      <c r="B201" s="67"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="66" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5737,10 +5769,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="58"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="71"/>
-      <c r="D202" s="67"/>
+      <c r="A202" s="67"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="69"/>
+      <c r="D202" s="66"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5752,10 +5784,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="58"/>
-      <c r="B203" s="58"/>
-      <c r="C203" s="71"/>
-      <c r="D203" s="67"/>
+      <c r="A203" s="67"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="69"/>
+      <c r="D203" s="66"/>
       <c r="E203" s="11" t="s">
         <v>159</v>
       </c>
@@ -5767,25 +5799,25 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="58"/>
-      <c r="B204" s="58"/>
-      <c r="C204" s="71"/>
-      <c r="D204" s="67"/>
+      <c r="A204" s="67"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="66"/>
       <c r="E204" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F204" s="27" t="s">
+      <c r="F204" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G204" s="19" t="s">
+      <c r="G204" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="58"/>
-      <c r="B205" s="58"/>
-      <c r="C205" s="71"/>
-      <c r="D205" s="67" t="s">
+      <c r="A205" s="67"/>
+      <c r="B205" s="67"/>
+      <c r="C205" s="69"/>
+      <c r="D205" s="66" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5799,10 +5831,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="58"/>
-      <c r="B206" s="58"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="67"/>
+      <c r="A206" s="67"/>
+      <c r="B206" s="67"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="66"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5814,10 +5846,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="58"/>
-      <c r="B207" s="58"/>
-      <c r="C207" s="71"/>
-      <c r="D207" s="67"/>
+      <c r="A207" s="67"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="66"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5829,154 +5861,154 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="58"/>
-      <c r="B208" s="58"/>
-      <c r="C208" s="71"/>
-      <c r="D208" s="67"/>
+      <c r="A208" s="67"/>
+      <c r="B208" s="67"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="66"/>
       <c r="E208" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="58"/>
-      <c r="B209" s="58"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="67"/>
+      <c r="A209" s="67"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="69"/>
+      <c r="D209" s="66"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="58"/>
-      <c r="B210" s="58"/>
-      <c r="C210" s="71" t="s">
+      <c r="A210" s="67"/>
+      <c r="B210" s="67"/>
+      <c r="C210" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="62"/>
+      <c r="D210" s="61"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F210" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="58"/>
-      <c r="B211" s="58"/>
-      <c r="C211" s="71"/>
-      <c r="D211" s="62"/>
+      <c r="A211" s="67"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="61"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="58"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="71"/>
-      <c r="D212" s="62"/>
+      <c r="A212" s="67"/>
+      <c r="B212" s="67"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="61"/>
       <c r="E212" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="58"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="71"/>
-      <c r="D213" s="62"/>
+      <c r="A213" s="67"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="72"/>
+      <c r="D213" s="61"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="58"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="71"/>
-      <c r="D214" s="62"/>
+      <c r="A214" s="67"/>
+      <c r="B214" s="67"/>
+      <c r="C214" s="72"/>
+      <c r="D214" s="61"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="58"/>
-      <c r="B215" s="58"/>
-      <c r="C215" s="71"/>
-      <c r="D215" s="62"/>
+      <c r="A215" s="67"/>
+      <c r="B215" s="67"/>
+      <c r="C215" s="72"/>
+      <c r="D215" s="61"/>
       <c r="E215" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="58"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="62"/>
+      <c r="A216" s="67"/>
+      <c r="B216" s="67"/>
+      <c r="C216" s="72"/>
+      <c r="D216" s="61"/>
       <c r="E216" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="58"/>
-      <c r="B217" s="58"/>
-      <c r="C217" s="71"/>
-      <c r="D217" s="62"/>
+      <c r="A217" s="67"/>
+      <c r="B217" s="67"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="61"/>
       <c r="E217" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="58"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="71"/>
-      <c r="D218" s="62"/>
+      <c r="A218" s="67"/>
+      <c r="B218" s="67"/>
+      <c r="C218" s="72"/>
+      <c r="D218" s="61"/>
       <c r="E218" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="58"/>
-      <c r="B219" s="58"/>
-      <c r="C219" s="71"/>
-      <c r="D219" s="62"/>
+      <c r="A219" s="67"/>
+      <c r="B219" s="67"/>
+      <c r="C219" s="72"/>
+      <c r="D219" s="61"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="58"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="71" t="s">
+      <c r="A220" s="67"/>
+      <c r="B220" s="67"/>
+      <c r="C220" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D220" s="62"/>
+      <c r="D220" s="64"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -5988,92 +6020,92 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="58"/>
-      <c r="B221" s="58"/>
-      <c r="C221" s="71"/>
-      <c r="D221" s="62"/>
+      <c r="A221" s="67"/>
+      <c r="B221" s="67"/>
+      <c r="C221" s="69"/>
+      <c r="D221" s="64"/>
       <c r="E221" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="58"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="71"/>
-      <c r="D222" s="62"/>
+      <c r="A222" s="67"/>
+      <c r="B222" s="67"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="64"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="58"/>
-      <c r="B223" s="58"/>
-      <c r="C223" s="71"/>
-      <c r="D223" s="62"/>
-      <c r="E223" s="23" t="s">
+      <c r="A223" s="67"/>
+      <c r="B223" s="67"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="64"/>
+      <c r="E223" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="F223" s="29" t="s">
+      <c r="F223" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G223" s="19" t="s">
+      <c r="G223" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="58"/>
-      <c r="B224" s="58"/>
-      <c r="C224" s="71"/>
-      <c r="D224" s="62"/>
+      <c r="A224" s="67"/>
+      <c r="B224" s="67"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="64"/>
       <c r="E224" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F224" s="29" t="s">
+      <c r="F224" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G224" s="27" t="s">
+      <c r="G224" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="58"/>
-      <c r="B225" s="58"/>
-      <c r="C225" s="71"/>
-      <c r="D225" s="62"/>
+      <c r="A225" s="67"/>
+      <c r="B225" s="67"/>
+      <c r="C225" s="69"/>
+      <c r="D225" s="64"/>
       <c r="E225" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F225" s="29" t="s">
+      <c r="F225" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G225" s="19" t="s">
+      <c r="G225" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="58"/>
-      <c r="B226" s="58"/>
-      <c r="C226" s="71"/>
-      <c r="D226" s="62"/>
+      <c r="A226" s="67"/>
+      <c r="B226" s="67"/>
+      <c r="C226" s="69"/>
+      <c r="D226" s="64"/>
       <c r="E226" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F226" s="31" t="s">
+      <c r="F226" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G226" s="19" t="s">
+      <c r="G226" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="58"/>
-      <c r="B227" s="58"/>
-      <c r="C227" s="71" t="s">
+      <c r="A227" s="67"/>
+      <c r="B227" s="67"/>
+      <c r="C227" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="62"/>
+      <c r="D227" s="64"/>
       <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
@@ -6083,15 +6115,15 @@
       <c r="G227" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I227" s="30" t="s">
+      <c r="I227" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="58"/>
-      <c r="B228" s="58"/>
-      <c r="C228" s="71"/>
-      <c r="D228" s="62"/>
+      <c r="A228" s="67"/>
+      <c r="B228" s="67"/>
+      <c r="C228" s="69"/>
+      <c r="D228" s="64"/>
       <c r="E228" s="11" t="s">
         <v>179</v>
       </c>
@@ -6103,41 +6135,41 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="58"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="71"/>
-      <c r="D229" s="62"/>
+      <c r="A229" s="67"/>
+      <c r="B229" s="67"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="64"/>
       <c r="E229" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="58"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="71"/>
-      <c r="D230" s="62"/>
+      <c r="A230" s="67"/>
+      <c r="B230" s="67"/>
+      <c r="C230" s="69"/>
+      <c r="D230" s="64"/>
       <c r="E230" s="15" t="s">
         <v>182</v>
       </c>
       <c r="F230" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G230" s="19" t="s">
+      <c r="G230" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="58"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="71" t="s">
+      <c r="A231" s="67"/>
+      <c r="B231" s="67"/>
+      <c r="C231" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="62"/>
+      <c r="D231" s="64"/>
       <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F231" s="31" t="s">
+      <c r="F231" s="29" t="s">
         <v>186</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -6148,14 +6180,14 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="58"/>
-      <c r="B232" s="58"/>
-      <c r="C232" s="71"/>
-      <c r="D232" s="62"/>
+      <c r="A232" s="67"/>
+      <c r="B232" s="67"/>
+      <c r="C232" s="69"/>
+      <c r="D232" s="64"/>
       <c r="E232" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F232" s="31" t="s">
+      <c r="F232" s="29" t="s">
         <v>186</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -6163,20 +6195,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="58"/>
-      <c r="B233" s="58"/>
-      <c r="C233" s="71"/>
-      <c r="D233" s="62"/>
+      <c r="A233" s="67"/>
+      <c r="B233" s="67"/>
+      <c r="C233" s="69"/>
+      <c r="D233" s="64"/>
       <c r="E233" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="58"/>
-      <c r="B234" s="58"/>
-      <c r="C234" s="71"/>
-      <c r="D234" s="62"/>
+      <c r="A234" s="67"/>
+      <c r="B234" s="67"/>
+      <c r="C234" s="69"/>
+      <c r="D234" s="64"/>
       <c r="E234" s="15" t="s">
         <v>192</v>
       </c>
@@ -6191,12 +6223,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="58"/>
-      <c r="B235" s="58"/>
-      <c r="C235" s="76" t="s">
+      <c r="A235" s="67"/>
+      <c r="B235" s="67"/>
+      <c r="C235" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="62"/>
+      <c r="D235" s="64"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6208,10 +6240,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="58"/>
-      <c r="B236" s="58"/>
-      <c r="C236" s="76"/>
-      <c r="D236" s="62"/>
+      <c r="A236" s="67"/>
+      <c r="B236" s="67"/>
+      <c r="C236" s="65"/>
+      <c r="D236" s="64"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6223,10 +6255,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="58"/>
-      <c r="B237" s="58"/>
-      <c r="C237" s="76"/>
-      <c r="D237" s="62"/>
+      <c r="A237" s="67"/>
+      <c r="B237" s="67"/>
+      <c r="C237" s="65"/>
+      <c r="D237" s="64"/>
       <c r="E237" s="11" t="s">
         <v>200</v>
       </c>
@@ -6238,10 +6270,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="58"/>
-      <c r="B238" s="58"/>
-      <c r="C238" s="76"/>
-      <c r="D238" s="62"/>
+      <c r="A238" s="67"/>
+      <c r="B238" s="67"/>
+      <c r="C238" s="65"/>
+      <c r="D238" s="64"/>
       <c r="E238" s="11" t="s">
         <v>202</v>
       </c>
@@ -6253,65 +6285,65 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="58"/>
-      <c r="B239" s="58"/>
-      <c r="C239" s="76"/>
-      <c r="D239" s="62"/>
+      <c r="A239" s="67"/>
+      <c r="B239" s="67"/>
+      <c r="C239" s="65"/>
+      <c r="D239" s="64"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="58"/>
-      <c r="B240" s="58"/>
-      <c r="C240" s="76"/>
-      <c r="D240" s="62"/>
+      <c r="A240" s="67"/>
+      <c r="B240" s="67"/>
+      <c r="C240" s="65"/>
+      <c r="D240" s="64"/>
       <c r="E240" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="58"/>
-      <c r="B241" s="58"/>
-      <c r="C241" s="76"/>
-      <c r="D241" s="62"/>
+      <c r="A241" s="67"/>
+      <c r="B241" s="67"/>
+      <c r="C241" s="65"/>
+      <c r="D241" s="64"/>
       <c r="E241" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="58"/>
-      <c r="B242" s="58"/>
-      <c r="C242" s="76"/>
-      <c r="D242" s="62"/>
+      <c r="A242" s="67"/>
+      <c r="B242" s="67"/>
+      <c r="C242" s="65"/>
+      <c r="D242" s="64"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="58"/>
-      <c r="B243" s="58"/>
-      <c r="C243" s="76"/>
-      <c r="D243" s="62"/>
-      <c r="E243" s="32" t="s">
+      <c r="A243" s="67"/>
+      <c r="B243" s="67"/>
+      <c r="C243" s="65"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="30" t="s">
         <v>206</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G243" s="19" t="s">
+      <c r="G243" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="58"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="76"/>
-      <c r="D244" s="67" t="s">
+      <c r="A244" s="67"/>
+      <c r="B244" s="67"/>
+      <c r="C244" s="65"/>
+      <c r="D244" s="66" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6325,41 +6357,41 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="58"/>
-      <c r="B245" s="58"/>
-      <c r="C245" s="76"/>
-      <c r="D245" s="67"/>
+      <c r="A245" s="67"/>
+      <c r="B245" s="67"/>
+      <c r="C245" s="65"/>
+      <c r="D245" s="66"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="58"/>
-      <c r="B246" s="58"/>
-      <c r="C246" s="76"/>
-      <c r="D246" s="67"/>
+      <c r="A246" s="67"/>
+      <c r="B246" s="67"/>
+      <c r="C246" s="65"/>
+      <c r="D246" s="66"/>
       <c r="E246" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="58"/>
-      <c r="B247" s="58"/>
-      <c r="C247" s="76"/>
-      <c r="D247" s="67"/>
+      <c r="A247" s="67"/>
+      <c r="B247" s="67"/>
+      <c r="C247" s="65"/>
+      <c r="D247" s="66"/>
       <c r="E247" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="58"/>
-      <c r="B248" s="58"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="67"/>
-      <c r="E248" s="23" t="s">
+      <c r="A248" s="67"/>
+      <c r="B248" s="67"/>
+      <c r="C248" s="65"/>
+      <c r="D248" s="66"/>
+      <c r="E248" s="22" t="s">
         <v>223</v>
       </c>
       <c r="F248" s="1" t="s">
@@ -6370,10 +6402,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="58"/>
-      <c r="B249" s="58"/>
-      <c r="C249" s="76"/>
-      <c r="D249" s="67"/>
+      <c r="A249" s="67"/>
+      <c r="B249" s="67"/>
+      <c r="C249" s="65"/>
+      <c r="D249" s="66"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6385,105 +6417,105 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="58"/>
-      <c r="B250" s="58"/>
-      <c r="C250" s="66" t="s">
+      <c r="A250" s="67"/>
+      <c r="B250" s="67"/>
+      <c r="C250" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="62"/>
-      <c r="E250" s="36" t="s">
+      <c r="D250" s="83"/>
+      <c r="E250" s="33" t="s">
         <v>225</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G250" s="19" t="s">
+      <c r="G250" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="I250" s="9" t="s">
+      <c r="I250" s="86" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="58"/>
-      <c r="B251" s="58"/>
-      <c r="C251" s="66"/>
-      <c r="D251" s="62"/>
+      <c r="A251" s="67"/>
+      <c r="B251" s="67"/>
+      <c r="C251" s="77"/>
+      <c r="D251" s="83"/>
       <c r="E251" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G251" s="46" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="58"/>
-      <c r="B252" s="58"/>
-      <c r="C252" s="66"/>
-      <c r="D252" s="62"/>
+      <c r="A252" s="67"/>
+      <c r="B252" s="67"/>
+      <c r="C252" s="77"/>
+      <c r="D252" s="83"/>
       <c r="E252" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G252" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="58"/>
-      <c r="B253" s="58"/>
-      <c r="C253" s="66"/>
-      <c r="D253" s="62"/>
+      <c r="A253" s="67"/>
+      <c r="B253" s="67"/>
+      <c r="C253" s="77"/>
+      <c r="D253" s="83"/>
       <c r="E253" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="G253" s="46" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="58"/>
-      <c r="B254" s="58"/>
-      <c r="C254" s="66"/>
-      <c r="D254" s="62"/>
+      <c r="A254" s="67"/>
+      <c r="B254" s="67"/>
+      <c r="C254" s="77"/>
+      <c r="D254" s="83"/>
       <c r="E254" s="11" t="s">
         <v>235</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G254" s="46" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="58"/>
-      <c r="B255" s="58"/>
-      <c r="C255" s="66"/>
-      <c r="D255" s="62"/>
+      <c r="A255" s="67"/>
+      <c r="B255" s="67"/>
+      <c r="C255" s="77"/>
+      <c r="D255" s="83"/>
       <c r="E255" s="15" t="s">
         <v>237</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="G255" s="46" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="58"/>
-      <c r="B256" s="58"/>
-      <c r="C256" s="66"/>
-      <c r="D256" s="67" t="s">
+      <c r="A256" s="67"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="77"/>
+      <c r="D256" s="84" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6492,105 +6524,105 @@
       <c r="F256" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="G256" s="46" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="58"/>
-      <c r="B257" s="58"/>
-      <c r="C257" s="66"/>
-      <c r="D257" s="67"/>
+      <c r="A257" s="67"/>
+      <c r="B257" s="67"/>
+      <c r="C257" s="77"/>
+      <c r="D257" s="84"/>
       <c r="E257" s="11" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="58"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="66"/>
-      <c r="D258" s="67"/>
+      <c r="A258" s="67"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="77"/>
+      <c r="D258" s="84"/>
       <c r="E258" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="58"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="67"/>
+      <c r="A259" s="67"/>
+      <c r="B259" s="67"/>
+      <c r="C259" s="77"/>
+      <c r="D259" s="84"/>
       <c r="E259" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="G259" s="46" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="58"/>
-      <c r="B260" s="58"/>
-      <c r="C260" s="66"/>
-      <c r="D260" s="67"/>
+      <c r="A260" s="67"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="77"/>
+      <c r="D260" s="84"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="G260" s="46" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="58"/>
-      <c r="B261" s="58"/>
-      <c r="C261" s="66"/>
-      <c r="D261" s="67"/>
+      <c r="A261" s="67"/>
+      <c r="B261" s="67"/>
+      <c r="C261" s="77"/>
+      <c r="D261" s="84"/>
       <c r="E261" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="58"/>
-      <c r="B262" s="58"/>
-      <c r="C262" s="66"/>
-      <c r="D262" s="67"/>
+      <c r="A262" s="67"/>
+      <c r="B262" s="67"/>
+      <c r="C262" s="77"/>
+      <c r="D262" s="84"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="58"/>
-      <c r="B263" s="58"/>
-      <c r="C263" s="66"/>
-      <c r="D263" s="67"/>
+      <c r="A263" s="67"/>
+      <c r="B263" s="67"/>
+      <c r="C263" s="77"/>
+      <c r="D263" s="84"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="58"/>
-      <c r="B264" s="58"/>
-      <c r="C264" s="66"/>
-      <c r="D264" s="67"/>
+      <c r="A264" s="67"/>
+      <c r="B264" s="67"/>
+      <c r="C264" s="77"/>
+      <c r="D264" s="84"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="58"/>
-      <c r="B265" s="58"/>
-      <c r="C265" s="66"/>
-      <c r="D265" s="67" t="s">
+      <c r="A265" s="67"/>
+      <c r="B265" s="67"/>
+      <c r="C265" s="77"/>
+      <c r="D265" s="84" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6599,90 +6631,90 @@
       <c r="F265" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G265" s="1" t="s">
+      <c r="G265" s="46" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="58"/>
-      <c r="B266" s="58"/>
-      <c r="C266" s="66"/>
-      <c r="D266" s="67"/>
+      <c r="A266" s="67"/>
+      <c r="B266" s="67"/>
+      <c r="C266" s="77"/>
+      <c r="D266" s="84"/>
       <c r="E266" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="58"/>
-      <c r="B267" s="58"/>
-      <c r="C267" s="66"/>
-      <c r="D267" s="67"/>
-      <c r="E267" s="23" t="s">
+      <c r="A267" s="67"/>
+      <c r="B267" s="67"/>
+      <c r="C267" s="77"/>
+      <c r="D267" s="84"/>
+      <c r="E267" s="22" t="s">
         <v>250</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G267" s="1" t="s">
+      <c r="G267" s="46" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="58"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="66"/>
-      <c r="D268" s="67"/>
+      <c r="A268" s="67"/>
+      <c r="B268" s="67"/>
+      <c r="C268" s="77"/>
+      <c r="D268" s="84"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G268" s="1" t="s">
+      <c r="G268" s="46" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="58"/>
-      <c r="B269" s="58"/>
-      <c r="C269" s="66"/>
-      <c r="D269" s="67"/>
+      <c r="A269" s="67"/>
+      <c r="B269" s="67"/>
+      <c r="C269" s="77"/>
+      <c r="D269" s="84"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G269" s="1" t="s">
+      <c r="G269" s="46" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="58"/>
-      <c r="B270" s="58"/>
-      <c r="C270" s="66"/>
-      <c r="D270" s="67"/>
+      <c r="A270" s="67"/>
+      <c r="B270" s="67"/>
+      <c r="C270" s="77"/>
+      <c r="D270" s="84"/>
       <c r="E270" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="58"/>
-      <c r="B271" s="58"/>
-      <c r="C271" s="66"/>
-      <c r="D271" s="67"/>
+      <c r="A271" s="67"/>
+      <c r="B271" s="67"/>
+      <c r="C271" s="77"/>
+      <c r="D271" s="84"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="58"/>
-      <c r="B272" s="58"/>
-      <c r="C272" s="66"/>
-      <c r="D272" s="67" t="s">
+      <c r="A272" s="67"/>
+      <c r="B272" s="67"/>
+      <c r="C272" s="77"/>
+      <c r="D272" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6691,231 +6723,231 @@
       <c r="F272" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="G272" s="46" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="58"/>
-      <c r="B273" s="58"/>
-      <c r="C273" s="66"/>
-      <c r="D273" s="67"/>
+      <c r="A273" s="67"/>
+      <c r="B273" s="67"/>
+      <c r="C273" s="77"/>
+      <c r="D273" s="84"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="G273" s="46" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="58"/>
-      <c r="B274" s="58"/>
-      <c r="C274" s="66"/>
-      <c r="D274" s="67"/>
+      <c r="A274" s="67"/>
+      <c r="B274" s="67"/>
+      <c r="C274" s="77"/>
+      <c r="D274" s="84"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="G274" s="46" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="58"/>
-      <c r="B275" s="58"/>
-      <c r="C275" s="66"/>
-      <c r="D275" s="67"/>
+      <c r="A275" s="67"/>
+      <c r="B275" s="67"/>
+      <c r="C275" s="77"/>
+      <c r="D275" s="84"/>
       <c r="E275" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="G275" s="46" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="58"/>
-      <c r="B276" s="58"/>
-      <c r="C276" s="66"/>
-      <c r="D276" s="67"/>
+      <c r="A276" s="67"/>
+      <c r="B276" s="67"/>
+      <c r="C276" s="77"/>
+      <c r="D276" s="84"/>
       <c r="E276" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="58"/>
-      <c r="B277" s="58"/>
-      <c r="C277" s="66"/>
-      <c r="D277" s="67"/>
+      <c r="A277" s="67"/>
+      <c r="B277" s="67"/>
+      <c r="C277" s="77"/>
+      <c r="D277" s="84"/>
       <c r="E277" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="58"/>
-      <c r="B278" s="58"/>
-      <c r="C278" s="66"/>
-      <c r="D278" s="67"/>
+      <c r="A278" s="67"/>
+      <c r="B278" s="67"/>
+      <c r="C278" s="77"/>
+      <c r="D278" s="84"/>
       <c r="E278" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="58"/>
-      <c r="B279" s="58"/>
-      <c r="C279" s="66"/>
-      <c r="D279" s="67"/>
+      <c r="A279" s="67"/>
+      <c r="B279" s="67"/>
+      <c r="C279" s="77"/>
+      <c r="D279" s="84"/>
       <c r="E279" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="58"/>
-      <c r="B280" s="58"/>
-      <c r="C280" s="66"/>
-      <c r="D280" s="67"/>
+      <c r="A280" s="67"/>
+      <c r="B280" s="67"/>
+      <c r="C280" s="77"/>
+      <c r="D280" s="84"/>
       <c r="E280" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="58"/>
-      <c r="B281" s="58"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="67"/>
+      <c r="A281" s="67"/>
+      <c r="B281" s="67"/>
+      <c r="C281" s="77"/>
+      <c r="D281" s="84"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="58"/>
-      <c r="B282" s="58"/>
-      <c r="C282" s="66"/>
-      <c r="D282" s="67"/>
+      <c r="A282" s="67"/>
+      <c r="B282" s="67"/>
+      <c r="C282" s="77"/>
+      <c r="D282" s="84"/>
       <c r="E282" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="58"/>
-      <c r="B283" s="58"/>
-      <c r="C283" s="66"/>
-      <c r="D283" s="67" t="s">
+      <c r="A283" s="67"/>
+      <c r="B283" s="67"/>
+      <c r="C283" s="77"/>
+      <c r="D283" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="E283" s="36" t="s">
+      <c r="E283" s="33" t="s">
         <v>259</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G283" s="1" t="s">
+      <c r="G283" s="46" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="58"/>
-      <c r="B284" s="58"/>
-      <c r="C284" s="66"/>
-      <c r="D284" s="67"/>
+      <c r="A284" s="67"/>
+      <c r="B284" s="67"/>
+      <c r="C284" s="77"/>
+      <c r="D284" s="84"/>
       <c r="E284" s="11" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="58"/>
-      <c r="B285" s="58"/>
-      <c r="C285" s="66"/>
-      <c r="D285" s="67"/>
+      <c r="A285" s="67"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="77"/>
+      <c r="D285" s="84"/>
       <c r="E285" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="58"/>
-      <c r="B286" s="58"/>
-      <c r="C286" s="66"/>
-      <c r="D286" s="67"/>
+      <c r="A286" s="67"/>
+      <c r="B286" s="67"/>
+      <c r="C286" s="77"/>
+      <c r="D286" s="84"/>
       <c r="E286" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="G286" s="46" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="58"/>
-      <c r="B287" s="58"/>
-      <c r="C287" s="66"/>
-      <c r="D287" s="67"/>
+      <c r="A287" s="67"/>
+      <c r="B287" s="67"/>
+      <c r="C287" s="77"/>
+      <c r="D287" s="84"/>
       <c r="E287" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="58"/>
-      <c r="B288" s="58"/>
-      <c r="C288" s="66"/>
-      <c r="D288" s="67"/>
+      <c r="A288" s="67"/>
+      <c r="B288" s="67"/>
+      <c r="C288" s="77"/>
+      <c r="D288" s="84"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="G288" s="46" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="58"/>
-      <c r="B289" s="58"/>
-      <c r="C289" s="66"/>
-      <c r="D289" s="67"/>
+      <c r="A289" s="67"/>
+      <c r="B289" s="67"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="84"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="58"/>
-      <c r="B290" s="58"/>
-      <c r="C290" s="66"/>
-      <c r="D290" s="67"/>
+      <c r="A290" s="67"/>
+      <c r="B290" s="67"/>
+      <c r="C290" s="77"/>
+      <c r="D290" s="84"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="66" t="s">
+      <c r="A291" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="66" t="s">
+      <c r="B291" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="75"/>
-      <c r="D291" s="62"/>
+      <c r="C291" s="63"/>
+      <c r="D291" s="64"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6927,10 +6959,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="66"/>
-      <c r="B292" s="66"/>
-      <c r="C292" s="75"/>
-      <c r="D292" s="62"/>
+      <c r="A292" s="62"/>
+      <c r="B292" s="62"/>
+      <c r="C292" s="63"/>
+      <c r="D292" s="64"/>
       <c r="E292" s="11" t="s">
         <v>270</v>
       </c>
@@ -6942,10 +6974,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="66"/>
-      <c r="B293" s="66"/>
-      <c r="C293" s="75"/>
-      <c r="D293" s="62"/>
+      <c r="A293" s="62"/>
+      <c r="B293" s="62"/>
+      <c r="C293" s="63"/>
+      <c r="D293" s="64"/>
       <c r="E293" s="11" t="s">
         <v>272</v>
       </c>
@@ -6957,10 +6989,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="66"/>
-      <c r="B294" s="66"/>
-      <c r="C294" s="75"/>
-      <c r="D294" s="62"/>
+      <c r="A294" s="62"/>
+      <c r="B294" s="62"/>
+      <c r="C294" s="63"/>
+      <c r="D294" s="64"/>
       <c r="E294" s="11" t="s">
         <v>274</v>
       </c>
@@ -6972,22 +7004,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="66"/>
-      <c r="B295" s="66"/>
-      <c r="C295" s="75"/>
-      <c r="D295" s="62"/>
+      <c r="A295" s="62"/>
+      <c r="B295" s="62"/>
+      <c r="C295" s="63"/>
+      <c r="D295" s="64"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="66"/>
-      <c r="B296" s="66" t="s">
+      <c r="A296" s="62"/>
+      <c r="B296" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="75"/>
-      <c r="D296" s="62"/>
+      <c r="C296" s="63"/>
+      <c r="D296" s="64"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -6999,10 +7031,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="66"/>
-      <c r="B297" s="66"/>
-      <c r="C297" s="75"/>
-      <c r="D297" s="62"/>
+      <c r="A297" s="62"/>
+      <c r="B297" s="62"/>
+      <c r="C297" s="63"/>
+      <c r="D297" s="64"/>
       <c r="E297" s="11" t="s">
         <v>280</v>
       </c>
@@ -7014,10 +7046,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="66"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="75"/>
-      <c r="D298" s="62"/>
+      <c r="A298" s="62"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="63"/>
+      <c r="D298" s="64"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -7029,10 +7061,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="66"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="75"/>
-      <c r="D299" s="62"/>
+      <c r="A299" s="62"/>
+      <c r="B299" s="62"/>
+      <c r="C299" s="63"/>
+      <c r="D299" s="64"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7044,20 +7076,20 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="66"/>
-      <c r="B300" s="66"/>
-      <c r="C300" s="75"/>
-      <c r="D300" s="62"/>
+      <c r="A300" s="62"/>
+      <c r="B300" s="62"/>
+      <c r="C300" s="63"/>
+      <c r="D300" s="64"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="66"/>
-      <c r="B301" s="66"/>
-      <c r="C301" s="75"/>
-      <c r="D301" s="62"/>
+      <c r="A301" s="62"/>
+      <c r="B301" s="62"/>
+      <c r="C301" s="63"/>
+      <c r="D301" s="64"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
@@ -7070,68 +7102,68 @@
       <c r="B302" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="61"/>
-      <c r="D302" s="62"/>
+      <c r="C302" s="60"/>
+      <c r="D302" s="61"/>
       <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G302" s="42" t="s">
+      <c r="G302" s="38" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="59"/>
       <c r="B303" s="59"/>
-      <c r="C303" s="61"/>
-      <c r="D303" s="62"/>
+      <c r="C303" s="60"/>
+      <c r="D303" s="61"/>
       <c r="E303" s="11" t="s">
         <v>288</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G303" s="42" t="s">
+      <c r="G303" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="59"/>
       <c r="B304" s="59"/>
-      <c r="C304" s="61"/>
-      <c r="D304" s="62"/>
+      <c r="C304" s="60"/>
+      <c r="D304" s="61"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G304" s="42" t="s">
+      <c r="G304" s="38" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="59"/>
       <c r="B305" s="59"/>
-      <c r="C305" s="61"/>
-      <c r="D305" s="62"/>
+      <c r="C305" s="60"/>
+      <c r="D305" s="61"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G305" s="42" t="s">
+      <c r="G305" s="38" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="59"/>
       <c r="B306" s="59"/>
-      <c r="C306" s="61"/>
-      <c r="D306" s="62"/>
+      <c r="C306" s="60"/>
+      <c r="D306" s="61"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
@@ -7142,14 +7174,14 @@
       <c r="B307" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C307" s="47" t="s">
+      <c r="C307" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D307" s="34"/>
-      <c r="E307" s="25" t="s">
+      <c r="D307" s="55"/>
+      <c r="E307" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F307" s="25"/>
+      <c r="F307" s="23"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
       <c r="A308" s="59"/>
@@ -7157,14 +7189,14 @@
       <c r="C308" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="D308" s="62"/>
+      <c r="D308" s="61"/>
       <c r="E308" s="11" t="s">
         <v>294</v>
       </c>
       <c r="F308" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G308" s="42" t="s">
+      <c r="G308" s="38" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7172,14 +7204,14 @@
       <c r="A309" s="59"/>
       <c r="B309" s="59"/>
       <c r="C309" s="59"/>
-      <c r="D309" s="62"/>
+      <c r="D309" s="61"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G309" s="42" t="s">
+      <c r="G309" s="38" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7187,14 +7219,14 @@
       <c r="A310" s="59"/>
       <c r="B310" s="59"/>
       <c r="C310" s="59"/>
-      <c r="D310" s="62"/>
+      <c r="D310" s="61"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G310" s="42" t="s">
+      <c r="G310" s="38" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7202,7 +7234,7 @@
       <c r="A311" s="59"/>
       <c r="B311" s="59"/>
       <c r="C311" s="59"/>
-      <c r="D311" s="62"/>
+      <c r="D311" s="61"/>
       <c r="E311" s="11" t="s">
         <v>296</v>
       </c>
@@ -7212,7 +7244,7 @@
       <c r="A312" s="59"/>
       <c r="B312" s="59"/>
       <c r="C312" s="59"/>
-      <c r="D312" s="62"/>
+      <c r="D312" s="61"/>
       <c r="E312" s="11" t="s">
         <v>297</v>
       </c>
@@ -7222,7 +7254,7 @@
       <c r="A313" s="59"/>
       <c r="B313" s="59"/>
       <c r="C313" s="59"/>
-      <c r="D313" s="62"/>
+      <c r="D313" s="61"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
@@ -7234,14 +7266,14 @@
       <c r="C314" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="62"/>
+      <c r="D314" s="61"/>
       <c r="E314" s="7" t="s">
         <v>217</v>
       </c>
       <c r="F314" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G314" s="42" t="s">
+      <c r="G314" s="38" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7249,14 +7281,14 @@
       <c r="A315" s="59"/>
       <c r="B315" s="59"/>
       <c r="C315" s="59"/>
-      <c r="D315" s="62"/>
+      <c r="D315" s="61"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F315" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G315" s="42" t="s">
+      <c r="G315" s="38" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7264,14 +7296,14 @@
       <c r="A316" s="59"/>
       <c r="B316" s="59"/>
       <c r="C316" s="59"/>
-      <c r="D316" s="62"/>
+      <c r="D316" s="61"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="42" t="s">
+      <c r="G316" s="38" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7279,7 +7311,7 @@
       <c r="A317" s="59"/>
       <c r="B317" s="59"/>
       <c r="C317" s="59"/>
-      <c r="D317" s="62"/>
+      <c r="D317" s="61"/>
       <c r="E317" s="11" t="s">
         <v>299</v>
       </c>
@@ -7289,7 +7321,7 @@
       <c r="A318" s="59"/>
       <c r="B318" s="59"/>
       <c r="C318" s="59"/>
-      <c r="D318" s="62"/>
+      <c r="D318" s="61"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
@@ -7299,7 +7331,7 @@
       <c r="A319" s="59"/>
       <c r="B319" s="59"/>
       <c r="C319" s="59"/>
-      <c r="D319" s="62"/>
+      <c r="D319" s="61"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
@@ -7312,68 +7344,68 @@
       <c r="B320" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="61"/>
-      <c r="D320" s="62"/>
+      <c r="C320" s="60"/>
+      <c r="D320" s="61"/>
       <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F320" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G320" s="42" t="s">
+      <c r="G320" s="38" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="59"/>
       <c r="B321" s="59"/>
-      <c r="C321" s="61"/>
-      <c r="D321" s="62"/>
+      <c r="C321" s="60"/>
+      <c r="D321" s="61"/>
       <c r="E321" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F321" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G321" s="42" t="s">
+      <c r="G321" s="38" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="59"/>
       <c r="B322" s="59"/>
-      <c r="C322" s="61"/>
-      <c r="D322" s="62"/>
+      <c r="C322" s="60"/>
+      <c r="D322" s="61"/>
       <c r="E322" s="11" t="s">
         <v>306</v>
       </c>
       <c r="F322" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G322" s="42" t="s">
+      <c r="G322" s="38" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="59"/>
       <c r="B323" s="59"/>
-      <c r="C323" s="61"/>
-      <c r="D323" s="62"/>
+      <c r="C323" s="60"/>
+      <c r="D323" s="61"/>
       <c r="E323" s="11" t="s">
         <v>308</v>
       </c>
       <c r="F323" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G323" s="42" t="s">
+      <c r="G323" s="38" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="59"/>
       <c r="B324" s="59"/>
-      <c r="C324" s="61"/>
-      <c r="D324" s="62"/>
+      <c r="C324" s="60"/>
+      <c r="D324" s="61"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
@@ -7384,14 +7416,14 @@
       <c r="B325" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="C325" s="47" t="s">
+      <c r="C325" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D325" s="37"/>
-      <c r="E325" s="25" t="s">
+      <c r="D325" s="56"/>
+      <c r="E325" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F325" s="25"/>
+      <c r="F325" s="23"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
       <c r="A326" s="59"/>
@@ -7399,14 +7431,14 @@
       <c r="C326" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D326" s="62"/>
+      <c r="D326" s="61"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G326" s="42" t="s">
+      <c r="G326" s="38" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7414,7 +7446,7 @@
       <c r="A327" s="59"/>
       <c r="B327" s="59"/>
       <c r="C327" s="59"/>
-      <c r="D327" s="62"/>
+      <c r="D327" s="61"/>
       <c r="E327" s="11" t="s">
         <v>313</v>
       </c>
@@ -7424,7 +7456,7 @@
       <c r="A328" s="59"/>
       <c r="B328" s="59"/>
       <c r="C328" s="59"/>
-      <c r="D328" s="62"/>
+      <c r="D328" s="61"/>
       <c r="E328" s="11" t="s">
         <v>314</v>
       </c>
@@ -7434,7 +7466,7 @@
       <c r="A329" s="59"/>
       <c r="B329" s="59"/>
       <c r="C329" s="59"/>
-      <c r="D329" s="62"/>
+      <c r="D329" s="61"/>
       <c r="E329" s="11" t="s">
         <v>148</v>
       </c>
@@ -7444,7 +7476,7 @@
       <c r="A330" s="59"/>
       <c r="B330" s="59"/>
       <c r="C330" s="59"/>
-      <c r="D330" s="62"/>
+      <c r="D330" s="61"/>
       <c r="E330" s="11" t="s">
         <v>149</v>
       </c>
@@ -7454,7 +7486,7 @@
       <c r="A331" s="59"/>
       <c r="B331" s="59"/>
       <c r="C331" s="59"/>
-      <c r="D331" s="62"/>
+      <c r="D331" s="61"/>
       <c r="E331" s="11" t="s">
         <v>150</v>
       </c>
@@ -7464,7 +7496,7 @@
       <c r="A332" s="59"/>
       <c r="B332" s="59"/>
       <c r="C332" s="59"/>
-      <c r="D332" s="62"/>
+      <c r="D332" s="61"/>
       <c r="E332" s="11" t="s">
         <v>151</v>
       </c>
@@ -7474,19 +7506,19 @@
       <c r="A333" s="59"/>
       <c r="B333" s="59"/>
       <c r="C333" s="59"/>
-      <c r="D333" s="62"/>
+      <c r="D333" s="61"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="77" t="s">
+      <c r="A334" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="78"/>
-      <c r="C334" s="78"/>
-      <c r="D334" s="78"/>
+      <c r="B334" s="58"/>
+      <c r="C334" s="58"/>
+      <c r="D334" s="58"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7498,10 +7530,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="77"/>
-      <c r="B335" s="77"/>
-      <c r="C335" s="78"/>
-      <c r="D335" s="78"/>
+      <c r="A335" s="57"/>
+      <c r="B335" s="57"/>
+      <c r="C335" s="58"/>
+      <c r="D335" s="58"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7513,10 +7545,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="77"/>
-      <c r="B336" s="77"/>
-      <c r="C336" s="78"/>
-      <c r="D336" s="78"/>
+      <c r="A336" s="57"/>
+      <c r="B336" s="57"/>
+      <c r="C336" s="58"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="11" t="s">
         <v>320</v>
       </c>
@@ -7528,10 +7560,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="77"/>
-      <c r="B337" s="77"/>
-      <c r="C337" s="78"/>
-      <c r="D337" s="78"/>
+      <c r="A337" s="57"/>
+      <c r="B337" s="57"/>
+      <c r="C337" s="58"/>
+      <c r="D337" s="58"/>
       <c r="E337" s="11" t="s">
         <v>322</v>
       </c>
@@ -7543,10 +7575,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="77"/>
-      <c r="B338" s="77"/>
-      <c r="C338" s="78"/>
-      <c r="D338" s="78"/>
+      <c r="A338" s="57"/>
+      <c r="B338" s="57"/>
+      <c r="C338" s="58"/>
+      <c r="D338" s="58"/>
       <c r="E338" s="11" t="s">
         <v>324</v>
       </c>
@@ -7558,20 +7590,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="77"/>
-      <c r="B339" s="77"/>
-      <c r="C339" s="78"/>
-      <c r="D339" s="78"/>
+      <c r="A339" s="57"/>
+      <c r="B339" s="57"/>
+      <c r="C339" s="58"/>
+      <c r="D339" s="58"/>
       <c r="E339" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="77"/>
-      <c r="B340" s="77"/>
-      <c r="C340" s="78"/>
-      <c r="D340" s="78"/>
+      <c r="A340" s="57"/>
+      <c r="B340" s="57"/>
+      <c r="C340" s="58"/>
+      <c r="D340" s="58"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7580,26 +7612,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7624,67 +7697,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7696,8 +7728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7710,84 +7742,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7798,7 +7830,7 @@
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7809,7 +7841,7 @@
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>332</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -7820,7 +7852,7 @@
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7845,7 +7877,7 @@
       <c r="B66" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="79" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7856,7 +7888,7 @@
       <c r="B67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="80"/>
+      <c r="C67" s="79"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
@@ -7865,7 +7897,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="80"/>
+      <c r="C68" s="79"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
@@ -7874,7 +7906,7 @@
       <c r="B69" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="80"/>
+      <c r="C69" s="79"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
@@ -7883,7 +7915,7 @@
       <c r="B70" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="80"/>
+      <c r="C70" s="79"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -7892,7 +7924,7 @@
       <c r="B71" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="80"/>
+      <c r="C71" s="79"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
@@ -7901,7 +7933,7 @@
       <c r="B72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C72" s="80"/>
+      <c r="C72" s="79"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
@@ -7910,7 +7942,7 @@
       <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C73" s="80"/>
+      <c r="C73" s="79"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
@@ -7919,7 +7951,7 @@
       <c r="B74" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C74" s="80"/>
+      <c r="C74" s="79"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
@@ -7928,7 +7960,7 @@
       <c r="B75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C75" s="80"/>
+      <c r="C75" s="79"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
@@ -7937,7 +7969,7 @@
       <c r="B76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C76" s="80"/>
+      <c r="C76" s="79"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
@@ -7946,7 +7978,7 @@
       <c r="B77" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C77" s="80"/>
+      <c r="C77" s="79"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -7955,7 +7987,7 @@
       <c r="B78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="80"/>
+      <c r="C78" s="79"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
@@ -7964,7 +7996,7 @@
       <c r="B79" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="80"/>
+      <c r="C79" s="79"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -7973,54 +8005,54 @@
       <c r="B82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="78" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C83" s="79"/>
+      <c r="C83" s="78"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="79"/>
+      <c r="C84" s="78"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="79"/>
+      <c r="C85" s="78"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="79"/>
+      <c r="C86" s="78"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="78" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8031,16 +8063,16 @@
       <c r="B90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="79"/>
+      <c r="C90" s="78"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="79"/>
+      <c r="C91" s="78"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8049,7 +8081,7 @@
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="79"/>
+      <c r="C92" s="78"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8058,7 +8090,7 @@
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="79"/>
+      <c r="C93" s="78"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8067,7 +8099,7 @@
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="79"/>
+      <c r="C94" s="78"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8076,7 +8108,7 @@
       <c r="B95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="79"/>
+      <c r="C95" s="78"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8085,7 +8117,7 @@
       <c r="B96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="79"/>
+      <c r="C96" s="78"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8094,7 +8126,7 @@
       <c r="B97" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="79"/>
+      <c r="C97" s="78"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8103,7 +8135,7 @@
       <c r="B98" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="79"/>
+      <c r="C98" s="78"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8112,7 +8144,7 @@
       <c r="B99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="79"/>
+      <c r="C99" s="78"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8121,7 +8153,7 @@
       <c r="B100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="79"/>
+      <c r="C100" s="78"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8130,7 +8162,7 @@
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="79"/>
+      <c r="C101" s="78"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8139,13 +8171,13 @@
       <c r="B102" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="79"/>
+      <c r="C102" s="78"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="35" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8161,7 +8193,7 @@
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="39" t="s">
+      <c r="B113" s="35" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8366,134 +8398,134 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="53" t="s">
+      <c r="A141" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="81" t="s">
+      <c r="C141" s="80" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="53" t="s">
+      <c r="A142" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="81"/>
+      <c r="C142" s="80"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="53" t="s">
+      <c r="A143" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="81"/>
+      <c r="C143" s="80"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A144" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="52" t="s">
+      <c r="A144" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="81" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="42" t="s">
+      <c r="A145" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="82"/>
+      <c r="C145" s="81"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="42" t="s">
+      <c r="A146" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="82"/>
+      <c r="C146" s="81"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="42" t="s">
+      <c r="A147" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="82"/>
+      <c r="C147" s="81"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="42" t="s">
+      <c r="A148" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="82"/>
+      <c r="C148" s="81"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="53" t="s">
+      <c r="A149" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C149" s="82"/>
+      <c r="C149" s="81"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="42" t="s">
+      <c r="A150" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="82"/>
+      <c r="C150" s="81"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="42" t="s">
+      <c r="A151" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C151" s="82"/>
+      <c r="C151" s="81"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="42" t="s">
+      <c r="A152" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="C152" s="82"/>
+      <c r="C152" s="81"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="42" t="s">
+      <c r="A153" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C153" s="82"/>
+      <c r="C153" s="81"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="40" t="s">
+      <c r="A154" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="C154" s="83" t="s">
+      <c r="C154" s="82" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8504,7 +8536,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="80"/>
+      <c r="C155" s="79"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8513,7 +8545,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="80"/>
+      <c r="C156" s="79"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8522,16 +8554,16 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="80"/>
+      <c r="C157" s="79"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A158" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" s="41" t="s">
+      <c r="A158" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="79" t="s">
+      <c r="C158" s="78" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8539,43 +8571,43 @@
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="79"/>
+      <c r="C159" s="78"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="79"/>
+      <c r="C160" s="78"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="39" t="s">
+      <c r="B161" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="79"/>
+      <c r="C161" s="78"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="79"/>
+      <c r="C162" s="78"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" s="40" t="s">
+      <c r="A163" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -8583,10 +8615,10 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B164" s="40" t="s">
+      <c r="A164" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="36" t="s">
         <v>430</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -8594,10 +8626,10 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="40" t="s">
+      <c r="A165" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="36" t="s">
         <v>432</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -8605,10 +8637,10 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166" s="40" t="s">
+      <c r="A166" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="36" t="s">
         <v>434</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -8616,10 +8648,10 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167" s="40" t="s">
+      <c r="A167" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="36" t="s">
         <v>436</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -8627,10 +8659,10 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="40" t="s">
+      <c r="A168" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="36" t="s">
         <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -8638,10 +8670,10 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169" s="40" t="s">
+      <c r="A169" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="36" t="s">
         <v>440</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -8649,10 +8681,10 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="40" t="s">
+      <c r="A170" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="36" t="s">
         <v>442</v>
       </c>
       <c r="C170" s="1" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780FEC9-4575-48FC-995D-03267B206990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1570,7 +1571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1988,7 +1989,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2094,52 +2095,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2147,6 +2120,43 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,37 +2172,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2297,7 +2295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Изображение 1"/>
+        <xdr:cNvPr id="2049" name="Изображение 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2379,7 +2383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Изображение 2"/>
+        <xdr:cNvPr id="2050" name="Изображение 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2461,7 +2471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Изображение 3"/>
+        <xdr:cNvPr id="2051" name="Изображение 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2543,7 +2559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Изображение 4"/>
+        <xdr:cNvPr id="2052" name="Изображение 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2960,11 +2982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3068,16 +3090,16 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3090,10 +3112,10 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="74"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3105,10 +3127,10 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="74"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
@@ -3120,10 +3142,10 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="74"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="61"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
@@ -3138,18 +3160,18 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="74"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="61"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -3162,12 +3184,12 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3179,10 +3201,10 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="61"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
@@ -3197,10 +3219,10 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
@@ -3213,10 +3235,10 @@
       <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
@@ -3231,20 +3253,20 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3252,10 +3274,10 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
@@ -3265,10 +3287,10 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="61"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
@@ -3283,10 +3305,10 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="61"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3298,22 +3320,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="61"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="68" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
@@ -3325,10 +3347,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="61"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
@@ -3343,10 +3365,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
@@ -3359,10 +3381,10 @@
       <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
@@ -3377,20 +3399,20 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="61"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3398,32 +3420,32 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="61"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="68" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
@@ -3438,10 +3460,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="61"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
@@ -3453,10 +3475,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
@@ -3468,10 +3490,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
@@ -3483,72 +3505,72 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="61"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="61"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="61"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="77" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3560,10 +3582,10 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="83"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
@@ -3575,10 +3597,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
@@ -3590,10 +3612,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="83"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
@@ -3608,10 +3630,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="83"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
@@ -3619,12 +3641,12 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="68" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
@@ -3636,10 +3658,10 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="61"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
@@ -3651,10 +3673,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="61"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
@@ -3666,14 +3688,14 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
@@ -3685,10 +3707,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="22" t="s">
         <v>89</v>
       </c>
@@ -3700,10 +3722,10 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
@@ -3715,10 +3737,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
@@ -3730,18 +3752,18 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="43" t="s">
@@ -3754,12 +3776,12 @@
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="59" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="61"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
@@ -3771,10 +3793,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="61"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
@@ -3786,10 +3808,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="61"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
@@ -3801,10 +3823,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3816,52 +3838,52 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="59" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="61"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
@@ -3873,10 +3895,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="61"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
@@ -3888,10 +3910,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
@@ -3903,10 +3925,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
@@ -3918,32 +3940,32 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="61"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="61"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="59" t="s">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
@@ -3955,10 +3977,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="61"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3970,20 +3992,20 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="61"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="61"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
@@ -3995,20 +4017,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="61"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="61"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
@@ -4020,10 +4042,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="76" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="66" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4037,10 +4059,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="76"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
@@ -4052,30 +4074,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="76"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="76"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="76"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="66"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
@@ -4087,10 +4109,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="67"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="76"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
@@ -4102,32 +4124,32 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="76"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="76"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="75" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="61"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
@@ -4139,10 +4161,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="61"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
@@ -4154,10 +4176,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="61"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="51" t="s">
         <v>444</v>
       </c>
@@ -4169,10 +4191,10 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="61"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="11" t="s">
         <v>139</v>
       </c>
@@ -4187,22 +4209,22 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="61"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="64"/>
       <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="62" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="61"/>
+      <c r="D83" s="64"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
@@ -4214,10 +4236,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="61"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
@@ -4230,20 +4252,20 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="61"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="61"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4255,10 +4277,10 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="61"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
@@ -4270,90 +4292,90 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="61"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="64"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="61"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="61"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="64"/>
       <c r="E90" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="61"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="64"/>
       <c r="E91" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="67"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="61"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="64"/>
       <c r="E92" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="67"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="61"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="64"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="67"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="61"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="67"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="61"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="64"/>
       <c r="E95" s="15" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="70" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="74" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4370,10 +4392,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="67"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="70"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="74"/>
       <c r="E97" s="11" t="s">
         <v>154</v>
       </c>
@@ -4381,10 +4403,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="67"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="70"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="74"/>
       <c r="E98" s="11" t="s">
         <v>155</v>
       </c>
@@ -4392,10 +4414,10 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="67"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="70"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="74"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
@@ -4408,10 +4430,10 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="67"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="70"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
@@ -4423,30 +4445,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="67"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="70"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="74"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="67"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="70"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="74"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="67"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="66" t="s">
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="74" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4460,10 +4482,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="67"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="66"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="74"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
@@ -4475,10 +4497,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="66"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="74"/>
       <c r="E105" s="11" t="s">
         <v>159</v>
       </c>
@@ -4490,30 +4512,30 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="67"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="66"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="74"/>
       <c r="E106" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G106" s="87" t="s">
+      <c r="G106" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="I106" s="88" t="s">
+      <c r="I106" s="59" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="68" t="s">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="61"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
@@ -4525,10 +4547,10 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="61"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
@@ -4540,20 +4562,20 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="61"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="64"/>
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="61"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
@@ -4565,10 +4587,10 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="61"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="64"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
@@ -4578,10 +4600,10 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="61"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="64"/>
       <c r="E112" s="11" t="s">
         <v>148</v>
       </c>
@@ -4589,10 +4611,10 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="61"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="64"/>
       <c r="E113" s="11" t="s">
         <v>149</v>
       </c>
@@ -4600,10 +4622,10 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="61"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="64"/>
       <c r="E114" s="11" t="s">
         <v>150</v>
       </c>
@@ -4611,10 +4633,10 @@
       <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="67"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="61"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="64"/>
       <c r="E115" s="11" t="s">
         <v>151</v>
       </c>
@@ -4622,10 +4644,10 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="61"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="64"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4633,47 +4655,47 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="67"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="62" t="s">
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="64"/>
+      <c r="D117" s="69"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="67"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="64"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="69"/>
       <c r="E118" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="67"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="64"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="69"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="67"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="64"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="69"/>
       <c r="E120" s="22" t="s">
         <v>167</v>
       </c>
@@ -4685,10 +4707,10 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="67"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="64"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="69"/>
       <c r="E121" s="11" t="s">
         <v>169</v>
       </c>
@@ -4700,10 +4722,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="67"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="64"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="69"/>
       <c r="E122" s="11" t="s">
         <v>171</v>
       </c>
@@ -4715,10 +4737,10 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="67"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="64"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="69"/>
       <c r="E123" s="15" t="s">
         <v>172</v>
       </c>
@@ -4730,12 +4752,12 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="67"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="62" t="s">
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="64"/>
+      <c r="D124" s="69"/>
       <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
@@ -4750,10 +4772,10 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="67"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="64"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="69"/>
       <c r="E125" s="11" t="s">
         <v>179</v>
       </c>
@@ -4765,20 +4787,20 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="67"/>
-      <c r="B126" s="67"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="64"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="69"/>
       <c r="E126" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="67"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="64"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="68"/>
+      <c r="D127" s="69"/>
       <c r="E127" s="11" t="s">
         <v>182</v>
       </c>
@@ -4790,12 +4812,12 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="67"/>
-      <c r="B128" s="67"/>
-      <c r="C128" s="62" t="s">
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="64"/>
+      <c r="D128" s="69"/>
       <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
@@ -4810,10 +4832,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="67"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="64"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="69"/>
       <c r="E129" s="11" t="s">
         <v>189</v>
       </c>
@@ -4825,20 +4847,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="67"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="64"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="69"/>
       <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="67"/>
-      <c r="B131" s="67"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="64"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="69"/>
       <c r="E131" s="15" t="s">
         <v>192</v>
       </c>
@@ -4853,12 +4875,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="67"/>
-      <c r="B132" s="67"/>
-      <c r="C132" s="62" t="s">
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="64"/>
+      <c r="D132" s="69"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4870,10 +4892,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="67"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="64"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="69"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4885,10 +4907,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="67"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="64"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="69"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
@@ -4900,10 +4922,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="62"/>
-      <c r="D135" s="64"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="69"/>
       <c r="E135" s="11" t="s">
         <v>202</v>
       </c>
@@ -4915,59 +4937,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="64"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="69"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="67"/>
-      <c r="B137" s="67"/>
-      <c r="C137" s="62"/>
-      <c r="D137" s="64"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="69"/>
       <c r="E137" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="67"/>
-      <c r="B138" s="67"/>
-      <c r="C138" s="62"/>
-      <c r="D138" s="64"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="69"/>
       <c r="E138" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="67"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="62"/>
-      <c r="D139" s="64"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="69"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="67"/>
-      <c r="B140" s="67"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="64"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="69"/>
       <c r="E140" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="67"/>
-      <c r="B141" s="67"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="66" t="s">
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="70" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -4981,40 +5003,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="67"/>
-      <c r="B142" s="67"/>
-      <c r="C142" s="62"/>
-      <c r="D142" s="66"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="70"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="67"/>
-      <c r="B143" s="67"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="66"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="70"/>
       <c r="E143" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="67"/>
-      <c r="B144" s="67"/>
-      <c r="C144" s="62"/>
-      <c r="D144" s="66"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="70"/>
       <c r="E144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="67"/>
-      <c r="B145" s="67"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="66"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="70"/>
       <c r="E145" s="31" t="s">
         <v>208</v>
       </c>
@@ -5026,10 +5048,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="67"/>
-      <c r="B146" s="67"/>
-      <c r="C146" s="62"/>
-      <c r="D146" s="66"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="70"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -5041,10 +5063,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="67"/>
-      <c r="B147" s="67"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="66"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="70"/>
       <c r="E147" s="15" t="s">
         <v>210</v>
       </c>
@@ -5056,16 +5078,16 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="67" t="s">
+      <c r="A148" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="68" t="s">
+      <c r="B148" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="73" t="s">
+      <c r="C148" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="61"/>
+      <c r="D148" s="64"/>
       <c r="E148" s="7" t="s">
         <v>212</v>
       </c>
@@ -5077,10 +5099,10 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="67"/>
-      <c r="B149" s="68"/>
-      <c r="C149" s="73"/>
-      <c r="D149" s="61"/>
+      <c r="A149" s="60"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="64"/>
       <c r="E149" s="11" t="s">
         <v>213</v>
       </c>
@@ -5092,10 +5114,10 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="67"/>
-      <c r="B150" s="68"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="61"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="64"/>
       <c r="E150" s="11" t="s">
         <v>214</v>
       </c>
@@ -5107,10 +5129,10 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="67"/>
-      <c r="B151" s="68"/>
-      <c r="C151" s="73"/>
-      <c r="D151" s="61"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="64"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
@@ -5122,18 +5144,18 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="67"/>
-      <c r="B152" s="68"/>
-      <c r="C152" s="73"/>
-      <c r="D152" s="61"/>
+      <c r="A152" s="60"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="64"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="67"/>
-      <c r="B153" s="67" t="s">
+      <c r="A153" s="60"/>
+      <c r="B153" s="60" t="s">
         <v>215</v>
       </c>
       <c r="C153" s="41" t="s">
@@ -5146,12 +5168,12 @@
       <c r="F153" s="32"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="67"/>
-      <c r="B154" s="67"/>
-      <c r="C154" s="59" t="s">
+      <c r="A154" s="60"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="61"/>
+      <c r="D154" s="64"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
@@ -5163,10 +5185,10 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="67"/>
-      <c r="B155" s="67"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="61"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="61"/>
+      <c r="D155" s="64"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
@@ -5181,10 +5203,10 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="67"/>
-      <c r="B156" s="67"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="61"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="61"/>
+      <c r="D156" s="64"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
@@ -5196,10 +5218,10 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="67"/>
-      <c r="B157" s="67"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="61"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="61"/>
+      <c r="D157" s="64"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
@@ -5211,52 +5233,52 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="67"/>
-      <c r="B158" s="67"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="61"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="64"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="67"/>
-      <c r="B159" s="67"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="61"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="67"/>
-      <c r="B160" s="67"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="61"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="64"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="67"/>
-      <c r="B161" s="67"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="61"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="61"/>
+      <c r="D161" s="64"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="67"/>
-      <c r="B162" s="67"/>
-      <c r="C162" s="71" t="s">
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="61"/>
+      <c r="D162" s="64"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
@@ -5268,10 +5290,10 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="67"/>
-      <c r="B163" s="67"/>
-      <c r="C163" s="71"/>
-      <c r="D163" s="61"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="64"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
@@ -5283,20 +5305,20 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="67"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="71"/>
-      <c r="D164" s="61"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="64"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="67"/>
-      <c r="B165" s="67"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="61"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="64"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
@@ -5308,20 +5330,20 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="67"/>
-      <c r="B166" s="67"/>
-      <c r="C166" s="71"/>
-      <c r="D166" s="61"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="77"/>
+      <c r="D166" s="64"/>
       <c r="E166" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="67"/>
-      <c r="B167" s="67"/>
-      <c r="C167" s="71"/>
-      <c r="D167" s="61"/>
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="64"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
@@ -5333,10 +5355,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="67"/>
-      <c r="B168" s="67"/>
-      <c r="C168" s="71"/>
-      <c r="D168" s="70" t="s">
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="74" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5350,10 +5372,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="67"/>
-      <c r="B169" s="67"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="70"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="77"/>
+      <c r="D169" s="74"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
@@ -5365,30 +5387,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="67"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="70"/>
+      <c r="A170" s="60"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="74"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="67"/>
-      <c r="B171" s="67"/>
-      <c r="C171" s="71"/>
-      <c r="D171" s="70"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="74"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="67"/>
-      <c r="B172" s="67"/>
-      <c r="C172" s="71"/>
-      <c r="D172" s="70"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="77"/>
+      <c r="D172" s="74"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
@@ -5400,10 +5422,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="67"/>
-      <c r="B173" s="67"/>
-      <c r="C173" s="71"/>
-      <c r="D173" s="70"/>
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="74"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
@@ -5415,32 +5437,32 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="67"/>
-      <c r="B174" s="67"/>
-      <c r="C174" s="71"/>
-      <c r="D174" s="70"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="77"/>
+      <c r="D174" s="74"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="67"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="71"/>
-      <c r="D175" s="70"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="77"/>
+      <c r="D175" s="74"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="67"/>
-      <c r="B176" s="67"/>
-      <c r="C176" s="72" t="s">
+      <c r="A176" s="60"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="61"/>
+      <c r="D176" s="64"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
@@ -5452,10 +5474,10 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="67"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="72"/>
-      <c r="D177" s="61"/>
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="64"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
@@ -5467,10 +5489,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="67"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="72"/>
-      <c r="D178" s="61"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="64"/>
       <c r="E178" s="51" t="s">
         <v>444</v>
       </c>
@@ -5482,10 +5504,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="67"/>
-      <c r="B179" s="67"/>
-      <c r="C179" s="72"/>
-      <c r="D179" s="61"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="64"/>
       <c r="E179" s="11" t="s">
         <v>139</v>
       </c>
@@ -5500,22 +5522,22 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="67"/>
-      <c r="B180" s="67"/>
-      <c r="C180" s="72"/>
-      <c r="D180" s="61"/>
+      <c r="A180" s="60"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="76"/>
+      <c r="D180" s="64"/>
       <c r="E180" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="67"/>
-      <c r="B181" s="67"/>
-      <c r="C181" s="69" t="s">
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D181" s="61"/>
+      <c r="D181" s="64"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
@@ -5527,10 +5549,10 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="67"/>
-      <c r="B182" s="67"/>
-      <c r="C182" s="69"/>
-      <c r="D182" s="61"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="64"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
@@ -5542,20 +5564,20 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="67"/>
-      <c r="B183" s="67"/>
-      <c r="C183" s="69"/>
-      <c r="D183" s="61"/>
+      <c r="A183" s="60"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="64"/>
       <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="67"/>
-      <c r="B184" s="67"/>
-      <c r="C184" s="69"/>
-      <c r="D184" s="61"/>
+      <c r="A184" s="60"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="75"/>
+      <c r="D184" s="64"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
@@ -5567,10 +5589,10 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="67"/>
-      <c r="B185" s="67"/>
-      <c r="C185" s="69"/>
-      <c r="D185" s="61"/>
+      <c r="A185" s="60"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="75"/>
+      <c r="D185" s="64"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
@@ -5582,80 +5604,80 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="67"/>
-      <c r="B186" s="67"/>
-      <c r="C186" s="69"/>
-      <c r="D186" s="61"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="64"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="67"/>
-      <c r="B187" s="67"/>
-      <c r="C187" s="69"/>
-      <c r="D187" s="61"/>
+      <c r="A187" s="60"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="75"/>
+      <c r="D187" s="64"/>
       <c r="E187" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="67"/>
-      <c r="B188" s="67"/>
-      <c r="C188" s="69"/>
-      <c r="D188" s="61"/>
+      <c r="A188" s="60"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="75"/>
+      <c r="D188" s="64"/>
       <c r="E188" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="67"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="69"/>
-      <c r="D189" s="61"/>
+      <c r="A189" s="60"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="75"/>
+      <c r="D189" s="64"/>
       <c r="E189" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="67"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="69"/>
-      <c r="D190" s="61"/>
+      <c r="A190" s="60"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="75"/>
+      <c r="D190" s="64"/>
       <c r="E190" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="67"/>
-      <c r="B191" s="67"/>
-      <c r="C191" s="69"/>
-      <c r="D191" s="61"/>
+      <c r="A191" s="60"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="75"/>
+      <c r="D191" s="64"/>
       <c r="E191" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="67"/>
-      <c r="B192" s="67"/>
-      <c r="C192" s="69"/>
-      <c r="D192" s="61"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="75"/>
+      <c r="D192" s="64"/>
       <c r="E192" s="30" t="s">
         <v>216</v>
       </c>
       <c r="F192" s="30"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="67"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="69"/>
-      <c r="D193" s="70" t="s">
+      <c r="A193" s="60"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="75"/>
+      <c r="D193" s="74" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5672,30 +5694,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="67"/>
-      <c r="B194" s="67"/>
-      <c r="C194" s="69"/>
-      <c r="D194" s="70"/>
+      <c r="A194" s="60"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="75"/>
+      <c r="D194" s="74"/>
       <c r="E194" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="67"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="69"/>
-      <c r="D195" s="70"/>
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="75"/>
+      <c r="D195" s="74"/>
       <c r="E195" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="67"/>
-      <c r="B196" s="67"/>
-      <c r="C196" s="69"/>
-      <c r="D196" s="70"/>
+      <c r="A196" s="60"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="75"/>
+      <c r="D196" s="74"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
@@ -5707,10 +5729,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="67"/>
-      <c r="B197" s="67"/>
-      <c r="C197" s="69"/>
-      <c r="D197" s="70"/>
+      <c r="A197" s="60"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="75"/>
+      <c r="D197" s="74"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
@@ -5722,40 +5744,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="67"/>
-      <c r="B198" s="67"/>
-      <c r="C198" s="69"/>
-      <c r="D198" s="70"/>
+      <c r="A198" s="60"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="75"/>
+      <c r="D198" s="74"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="67"/>
-      <c r="B199" s="67"/>
-      <c r="C199" s="69"/>
-      <c r="D199" s="70"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="74"/>
       <c r="E199" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="67"/>
-      <c r="B200" s="67"/>
-      <c r="C200" s="69"/>
-      <c r="D200" s="70"/>
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="75"/>
+      <c r="D200" s="74"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="67"/>
-      <c r="B201" s="67"/>
-      <c r="C201" s="69"/>
-      <c r="D201" s="66" t="s">
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="75"/>
+      <c r="D201" s="70" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5769,10 +5791,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="67"/>
-      <c r="B202" s="67"/>
-      <c r="C202" s="69"/>
-      <c r="D202" s="66"/>
+      <c r="A202" s="60"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="75"/>
+      <c r="D202" s="70"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
@@ -5784,10 +5806,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="67"/>
-      <c r="B203" s="67"/>
-      <c r="C203" s="69"/>
-      <c r="D203" s="66"/>
+      <c r="A203" s="60"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="75"/>
+      <c r="D203" s="70"/>
       <c r="E203" s="11" t="s">
         <v>159</v>
       </c>
@@ -5799,10 +5821,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="67"/>
-      <c r="B204" s="67"/>
-      <c r="C204" s="69"/>
-      <c r="D204" s="66"/>
+      <c r="A204" s="60"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="75"/>
+      <c r="D204" s="70"/>
       <c r="E204" s="15" t="s">
         <v>160</v>
       </c>
@@ -5814,10 +5836,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="67"/>
-      <c r="B205" s="67"/>
-      <c r="C205" s="69"/>
-      <c r="D205" s="66" t="s">
+      <c r="A205" s="60"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="75"/>
+      <c r="D205" s="70" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5831,10 +5853,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="67"/>
-      <c r="B206" s="67"/>
-      <c r="C206" s="69"/>
-      <c r="D206" s="66"/>
+      <c r="A206" s="60"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="75"/>
+      <c r="D206" s="70"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5846,10 +5868,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="67"/>
-      <c r="B207" s="67"/>
-      <c r="C207" s="69"/>
-      <c r="D207" s="66"/>
+      <c r="A207" s="60"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="75"/>
+      <c r="D207" s="70"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5861,32 +5883,32 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="67"/>
-      <c r="B208" s="67"/>
-      <c r="C208" s="69"/>
-      <c r="D208" s="66"/>
+      <c r="A208" s="60"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="70"/>
       <c r="E208" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="67"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="69"/>
-      <c r="D209" s="66"/>
+      <c r="A209" s="60"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="75"/>
+      <c r="D209" s="70"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="67"/>
-      <c r="B210" s="67"/>
-      <c r="C210" s="72" t="s">
+      <c r="A210" s="60"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="61"/>
+      <c r="D210" s="64"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
@@ -5898,10 +5920,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="67"/>
-      <c r="B211" s="67"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="61"/>
+      <c r="A211" s="60"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="76"/>
+      <c r="D211" s="64"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
@@ -5913,20 +5935,20 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="67"/>
-      <c r="B212" s="67"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="61"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="64"/>
       <c r="E212" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="67"/>
-      <c r="B213" s="67"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="61"/>
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
+      <c r="C213" s="76"/>
+      <c r="D213" s="64"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
@@ -5938,10 +5960,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="67"/>
-      <c r="B214" s="67"/>
-      <c r="C214" s="72"/>
-      <c r="D214" s="61"/>
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="64"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
@@ -5953,62 +5975,62 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="67"/>
-      <c r="B215" s="67"/>
-      <c r="C215" s="72"/>
-      <c r="D215" s="61"/>
+      <c r="A215" s="60"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="76"/>
+      <c r="D215" s="64"/>
       <c r="E215" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="67"/>
-      <c r="B216" s="67"/>
-      <c r="C216" s="72"/>
-      <c r="D216" s="61"/>
+      <c r="A216" s="60"/>
+      <c r="B216" s="60"/>
+      <c r="C216" s="76"/>
+      <c r="D216" s="64"/>
       <c r="E216" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="67"/>
-      <c r="B217" s="67"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="61"/>
+      <c r="A217" s="60"/>
+      <c r="B217" s="60"/>
+      <c r="C217" s="76"/>
+      <c r="D217" s="64"/>
       <c r="E217" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="67"/>
-      <c r="B218" s="67"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="61"/>
+      <c r="A218" s="60"/>
+      <c r="B218" s="60"/>
+      <c r="C218" s="76"/>
+      <c r="D218" s="64"/>
       <c r="E218" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="67"/>
-      <c r="B219" s="67"/>
-      <c r="C219" s="72"/>
-      <c r="D219" s="61"/>
+      <c r="A219" s="60"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="76"/>
+      <c r="D219" s="64"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="67"/>
-      <c r="B220" s="67"/>
-      <c r="C220" s="69" t="s">
+      <c r="A220" s="60"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="D220" s="64"/>
+      <c r="D220" s="69"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
@@ -6020,30 +6042,30 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="67"/>
-      <c r="B221" s="67"/>
-      <c r="C221" s="69"/>
-      <c r="D221" s="64"/>
+      <c r="A221" s="60"/>
+      <c r="B221" s="60"/>
+      <c r="C221" s="75"/>
+      <c r="D221" s="69"/>
       <c r="E221" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="67"/>
-      <c r="B222" s="67"/>
-      <c r="C222" s="69"/>
-      <c r="D222" s="64"/>
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
+      <c r="C222" s="75"/>
+      <c r="D222" s="69"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="67"/>
-      <c r="B223" s="67"/>
-      <c r="C223" s="69"/>
-      <c r="D223" s="64"/>
+      <c r="A223" s="60"/>
+      <c r="B223" s="60"/>
+      <c r="C223" s="75"/>
+      <c r="D223" s="69"/>
       <c r="E223" s="22" t="s">
         <v>167</v>
       </c>
@@ -6055,10 +6077,10 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="67"/>
-      <c r="B224" s="67"/>
-      <c r="C224" s="69"/>
-      <c r="D224" s="64"/>
+      <c r="A224" s="60"/>
+      <c r="B224" s="60"/>
+      <c r="C224" s="75"/>
+      <c r="D224" s="69"/>
       <c r="E224" s="11" t="s">
         <v>169</v>
       </c>
@@ -6070,10 +6092,10 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="67"/>
-      <c r="B225" s="67"/>
-      <c r="C225" s="69"/>
-      <c r="D225" s="64"/>
+      <c r="A225" s="60"/>
+      <c r="B225" s="60"/>
+      <c r="C225" s="75"/>
+      <c r="D225" s="69"/>
       <c r="E225" s="11" t="s">
         <v>171</v>
       </c>
@@ -6085,10 +6107,10 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="67"/>
-      <c r="B226" s="67"/>
-      <c r="C226" s="69"/>
-      <c r="D226" s="64"/>
+      <c r="A226" s="60"/>
+      <c r="B226" s="60"/>
+      <c r="C226" s="75"/>
+      <c r="D226" s="69"/>
       <c r="E226" s="15" t="s">
         <v>172</v>
       </c>
@@ -6100,12 +6122,12 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="67"/>
-      <c r="B227" s="67"/>
-      <c r="C227" s="69" t="s">
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
+      <c r="C227" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="64"/>
+      <c r="D227" s="69"/>
       <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
@@ -6120,10 +6142,10 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="67"/>
-      <c r="B228" s="67"/>
-      <c r="C228" s="69"/>
-      <c r="D228" s="64"/>
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="75"/>
+      <c r="D228" s="69"/>
       <c r="E228" s="11" t="s">
         <v>179</v>
       </c>
@@ -6135,20 +6157,20 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="67"/>
-      <c r="B229" s="67"/>
-      <c r="C229" s="69"/>
-      <c r="D229" s="64"/>
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="75"/>
+      <c r="D229" s="69"/>
       <c r="E229" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="67"/>
-      <c r="B230" s="67"/>
-      <c r="C230" s="69"/>
-      <c r="D230" s="64"/>
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
+      <c r="C230" s="75"/>
+      <c r="D230" s="69"/>
       <c r="E230" s="15" t="s">
         <v>182</v>
       </c>
@@ -6160,12 +6182,12 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="67"/>
-      <c r="B231" s="67"/>
-      <c r="C231" s="69" t="s">
+      <c r="A231" s="60"/>
+      <c r="B231" s="60"/>
+      <c r="C231" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="64"/>
+      <c r="D231" s="69"/>
       <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
@@ -6180,10 +6202,10 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="67"/>
-      <c r="B232" s="67"/>
-      <c r="C232" s="69"/>
-      <c r="D232" s="64"/>
+      <c r="A232" s="60"/>
+      <c r="B232" s="60"/>
+      <c r="C232" s="75"/>
+      <c r="D232" s="69"/>
       <c r="E232" s="11" t="s">
         <v>189</v>
       </c>
@@ -6195,20 +6217,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="67"/>
-      <c r="B233" s="67"/>
-      <c r="C233" s="69"/>
-      <c r="D233" s="64"/>
+      <c r="A233" s="60"/>
+      <c r="B233" s="60"/>
+      <c r="C233" s="75"/>
+      <c r="D233" s="69"/>
       <c r="E233" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="67"/>
-      <c r="B234" s="67"/>
-      <c r="C234" s="69"/>
-      <c r="D234" s="64"/>
+      <c r="A234" s="60"/>
+      <c r="B234" s="60"/>
+      <c r="C234" s="75"/>
+      <c r="D234" s="69"/>
       <c r="E234" s="15" t="s">
         <v>192</v>
       </c>
@@ -6223,12 +6245,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="67"/>
-      <c r="B235" s="67"/>
-      <c r="C235" s="65" t="s">
+      <c r="A235" s="60"/>
+      <c r="B235" s="60"/>
+      <c r="C235" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="64"/>
+      <c r="D235" s="69"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6240,10 +6262,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="67"/>
-      <c r="B236" s="67"/>
-      <c r="C236" s="65"/>
-      <c r="D236" s="64"/>
+      <c r="A236" s="60"/>
+      <c r="B236" s="60"/>
+      <c r="C236" s="79"/>
+      <c r="D236" s="69"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6255,10 +6277,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="67"/>
-      <c r="B237" s="67"/>
-      <c r="C237" s="65"/>
-      <c r="D237" s="64"/>
+      <c r="A237" s="60"/>
+      <c r="B237" s="60"/>
+      <c r="C237" s="79"/>
+      <c r="D237" s="69"/>
       <c r="E237" s="11" t="s">
         <v>200</v>
       </c>
@@ -6270,10 +6292,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="67"/>
-      <c r="B238" s="67"/>
-      <c r="C238" s="65"/>
-      <c r="D238" s="64"/>
+      <c r="A238" s="60"/>
+      <c r="B238" s="60"/>
+      <c r="C238" s="79"/>
+      <c r="D238" s="69"/>
       <c r="E238" s="11" t="s">
         <v>202</v>
       </c>
@@ -6285,50 +6307,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="67"/>
-      <c r="B239" s="67"/>
-      <c r="C239" s="65"/>
-      <c r="D239" s="64"/>
+      <c r="A239" s="60"/>
+      <c r="B239" s="60"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="69"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="67"/>
-      <c r="B240" s="67"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="64"/>
+      <c r="A240" s="60"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="79"/>
+      <c r="D240" s="69"/>
       <c r="E240" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="67"/>
-      <c r="B241" s="67"/>
-      <c r="C241" s="65"/>
-      <c r="D241" s="64"/>
+      <c r="A241" s="60"/>
+      <c r="B241" s="60"/>
+      <c r="C241" s="79"/>
+      <c r="D241" s="69"/>
       <c r="E241" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="67"/>
-      <c r="B242" s="67"/>
-      <c r="C242" s="65"/>
-      <c r="D242" s="64"/>
+      <c r="A242" s="60"/>
+      <c r="B242" s="60"/>
+      <c r="C242" s="79"/>
+      <c r="D242" s="69"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="67"/>
-      <c r="B243" s="67"/>
-      <c r="C243" s="65"/>
-      <c r="D243" s="64"/>
+      <c r="A243" s="60"/>
+      <c r="B243" s="60"/>
+      <c r="C243" s="79"/>
+      <c r="D243" s="69"/>
       <c r="E243" s="30" t="s">
         <v>206</v>
       </c>
@@ -6340,10 +6362,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="67"/>
-      <c r="B244" s="67"/>
-      <c r="C244" s="65"/>
-      <c r="D244" s="66" t="s">
+      <c r="A244" s="60"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="79"/>
+      <c r="D244" s="70" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6357,40 +6379,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="67"/>
-      <c r="B245" s="67"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="66"/>
+      <c r="A245" s="60"/>
+      <c r="B245" s="60"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="70"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="67"/>
-      <c r="B246" s="67"/>
-      <c r="C246" s="65"/>
-      <c r="D246" s="66"/>
+      <c r="A246" s="60"/>
+      <c r="B246" s="60"/>
+      <c r="C246" s="79"/>
+      <c r="D246" s="70"/>
       <c r="E246" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="67"/>
-      <c r="B247" s="67"/>
-      <c r="C247" s="65"/>
-      <c r="D247" s="66"/>
+      <c r="A247" s="60"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="79"/>
+      <c r="D247" s="70"/>
       <c r="E247" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="67"/>
-      <c r="B248" s="67"/>
-      <c r="C248" s="65"/>
-      <c r="D248" s="66"/>
+      <c r="A248" s="60"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="79"/>
+      <c r="D248" s="70"/>
       <c r="E248" s="22" t="s">
         <v>223</v>
       </c>
@@ -6402,10 +6424,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="67"/>
-      <c r="B249" s="67"/>
-      <c r="C249" s="65"/>
-      <c r="D249" s="66"/>
+      <c r="A249" s="60"/>
+      <c r="B249" s="60"/>
+      <c r="C249" s="79"/>
+      <c r="D249" s="70"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6417,30 +6439,30 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="67"/>
-      <c r="B250" s="67"/>
-      <c r="C250" s="77" t="s">
+      <c r="A250" s="60"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="83"/>
+      <c r="D250" s="72"/>
       <c r="E250" s="33" t="s">
         <v>225</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G250" s="85" t="s">
+      <c r="G250" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="I250" s="86" t="s">
+      <c r="I250" s="58" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="67"/>
-      <c r="B251" s="67"/>
-      <c r="C251" s="77"/>
-      <c r="D251" s="83"/>
+      <c r="A251" s="60"/>
+      <c r="B251" s="60"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="72"/>
       <c r="E251" s="11" t="s">
         <v>229</v>
       </c>
@@ -6452,10 +6474,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="67"/>
-      <c r="B252" s="67"/>
-      <c r="C252" s="77"/>
-      <c r="D252" s="83"/>
+      <c r="A252" s="60"/>
+      <c r="B252" s="60"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="72"/>
       <c r="E252" s="11" t="s">
         <v>231</v>
       </c>
@@ -6467,10 +6489,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="67"/>
-      <c r="B253" s="67"/>
-      <c r="C253" s="77"/>
-      <c r="D253" s="83"/>
+      <c r="A253" s="60"/>
+      <c r="B253" s="60"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="72"/>
       <c r="E253" s="11" t="s">
         <v>233</v>
       </c>
@@ -6482,10 +6504,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="67"/>
-      <c r="B254" s="67"/>
-      <c r="C254" s="77"/>
-      <c r="D254" s="83"/>
+      <c r="A254" s="60"/>
+      <c r="B254" s="60"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="72"/>
       <c r="E254" s="11" t="s">
         <v>235</v>
       </c>
@@ -6497,10 +6519,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="67"/>
-      <c r="B255" s="67"/>
-      <c r="C255" s="77"/>
-      <c r="D255" s="83"/>
+      <c r="A255" s="60"/>
+      <c r="B255" s="60"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="72"/>
       <c r="E255" s="15" t="s">
         <v>237</v>
       </c>
@@ -6512,10 +6534,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="67"/>
-      <c r="B256" s="67"/>
-      <c r="C256" s="77"/>
-      <c r="D256" s="84" t="s">
+      <c r="A256" s="60"/>
+      <c r="B256" s="60"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="80" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6529,30 +6551,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="67"/>
-      <c r="B257" s="67"/>
-      <c r="C257" s="77"/>
-      <c r="D257" s="84"/>
+      <c r="A257" s="60"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="80"/>
       <c r="E257" s="11" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="67"/>
-      <c r="B258" s="67"/>
-      <c r="C258" s="77"/>
-      <c r="D258" s="84"/>
+      <c r="A258" s="60"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="80"/>
       <c r="E258" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="67"/>
-      <c r="B259" s="67"/>
-      <c r="C259" s="77"/>
-      <c r="D259" s="84"/>
+      <c r="A259" s="60"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="80"/>
       <c r="E259" s="11" t="s">
         <v>244</v>
       </c>
@@ -6564,10 +6586,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="67"/>
-      <c r="B260" s="67"/>
-      <c r="C260" s="77"/>
-      <c r="D260" s="84"/>
+      <c r="A260" s="60"/>
+      <c r="B260" s="60"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="80"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
@@ -6579,50 +6601,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="67"/>
-      <c r="B261" s="67"/>
-      <c r="C261" s="77"/>
-      <c r="D261" s="84"/>
+      <c r="A261" s="60"/>
+      <c r="B261" s="60"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="80"/>
       <c r="E261" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="67"/>
-      <c r="B262" s="67"/>
-      <c r="C262" s="77"/>
-      <c r="D262" s="84"/>
+      <c r="A262" s="60"/>
+      <c r="B262" s="60"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="80"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="67"/>
-      <c r="B263" s="67"/>
-      <c r="C263" s="77"/>
-      <c r="D263" s="84"/>
+      <c r="A263" s="60"/>
+      <c r="B263" s="60"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="80"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="67"/>
-      <c r="B264" s="67"/>
-      <c r="C264" s="77"/>
-      <c r="D264" s="84"/>
+      <c r="A264" s="60"/>
+      <c r="B264" s="60"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="80"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="67"/>
-      <c r="B265" s="67"/>
-      <c r="C265" s="77"/>
-      <c r="D265" s="84" t="s">
+      <c r="A265" s="60"/>
+      <c r="B265" s="60"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="80" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6636,20 +6658,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="67"/>
-      <c r="B266" s="67"/>
-      <c r="C266" s="77"/>
-      <c r="D266" s="84"/>
+      <c r="A266" s="60"/>
+      <c r="B266" s="60"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="80"/>
       <c r="E266" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="67"/>
-      <c r="B267" s="67"/>
-      <c r="C267" s="77"/>
-      <c r="D267" s="84"/>
+      <c r="A267" s="60"/>
+      <c r="B267" s="60"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="80"/>
       <c r="E267" s="22" t="s">
         <v>250</v>
       </c>
@@ -6661,10 +6683,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="67"/>
-      <c r="B268" s="67"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="84"/>
+      <c r="A268" s="60"/>
+      <c r="B268" s="60"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="80"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
@@ -6676,10 +6698,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="67"/>
-      <c r="B269" s="67"/>
-      <c r="C269" s="77"/>
-      <c r="D269" s="84"/>
+      <c r="A269" s="60"/>
+      <c r="B269" s="60"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="80"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
@@ -6691,30 +6713,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="67"/>
-      <c r="B270" s="67"/>
-      <c r="C270" s="77"/>
-      <c r="D270" s="84"/>
+      <c r="A270" s="60"/>
+      <c r="B270" s="60"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="80"/>
       <c r="E270" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="67"/>
-      <c r="B271" s="67"/>
-      <c r="C271" s="77"/>
-      <c r="D271" s="84"/>
+      <c r="A271" s="60"/>
+      <c r="B271" s="60"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="80"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="67"/>
-      <c r="B272" s="67"/>
-      <c r="C272" s="77"/>
-      <c r="D272" s="84" t="s">
+      <c r="A272" s="60"/>
+      <c r="B272" s="60"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="80" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6728,10 +6750,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="67"/>
-      <c r="B273" s="67"/>
-      <c r="C273" s="77"/>
-      <c r="D273" s="84"/>
+      <c r="A273" s="60"/>
+      <c r="B273" s="60"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="80"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
@@ -6743,10 +6765,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="67"/>
-      <c r="B274" s="67"/>
-      <c r="C274" s="77"/>
-      <c r="D274" s="84"/>
+      <c r="A274" s="60"/>
+      <c r="B274" s="60"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="80"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
@@ -6758,10 +6780,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="67"/>
-      <c r="B275" s="67"/>
-      <c r="C275" s="77"/>
-      <c r="D275" s="84"/>
+      <c r="A275" s="60"/>
+      <c r="B275" s="60"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="80"/>
       <c r="E275" s="11" t="s">
         <v>256</v>
       </c>
@@ -6773,80 +6795,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="67"/>
-      <c r="B276" s="67"/>
-      <c r="C276" s="77"/>
-      <c r="D276" s="84"/>
+      <c r="A276" s="60"/>
+      <c r="B276" s="60"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="80"/>
       <c r="E276" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="67"/>
-      <c r="B277" s="67"/>
-      <c r="C277" s="77"/>
-      <c r="D277" s="84"/>
+      <c r="A277" s="60"/>
+      <c r="B277" s="60"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="80"/>
       <c r="E277" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="67"/>
-      <c r="B278" s="67"/>
-      <c r="C278" s="77"/>
-      <c r="D278" s="84"/>
+      <c r="A278" s="60"/>
+      <c r="B278" s="60"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="80"/>
       <c r="E278" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="67"/>
-      <c r="B279" s="67"/>
-      <c r="C279" s="77"/>
-      <c r="D279" s="84"/>
+      <c r="A279" s="60"/>
+      <c r="B279" s="60"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="80"/>
       <c r="E279" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="67"/>
-      <c r="B280" s="67"/>
-      <c r="C280" s="77"/>
-      <c r="D280" s="84"/>
+      <c r="A280" s="60"/>
+      <c r="B280" s="60"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="80"/>
       <c r="E280" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="67"/>
-      <c r="B281" s="67"/>
-      <c r="C281" s="77"/>
-      <c r="D281" s="84"/>
+      <c r="A281" s="60"/>
+      <c r="B281" s="60"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="80"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="67"/>
-      <c r="B282" s="67"/>
-      <c r="C282" s="77"/>
-      <c r="D282" s="84"/>
+      <c r="A282" s="60"/>
+      <c r="B282" s="60"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="80"/>
       <c r="E282" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="67"/>
-      <c r="B283" s="67"/>
-      <c r="C283" s="77"/>
-      <c r="D283" s="84" t="s">
+      <c r="A283" s="60"/>
+      <c r="B283" s="60"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="80" t="s">
         <v>258</v>
       </c>
       <c r="E283" s="33" t="s">
@@ -6860,30 +6882,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="67"/>
-      <c r="B284" s="67"/>
-      <c r="C284" s="77"/>
-      <c r="D284" s="84"/>
+      <c r="A284" s="60"/>
+      <c r="B284" s="60"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="80"/>
       <c r="E284" s="11" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="67"/>
-      <c r="B285" s="67"/>
-      <c r="C285" s="77"/>
-      <c r="D285" s="84"/>
+      <c r="A285" s="60"/>
+      <c r="B285" s="60"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="80"/>
       <c r="E285" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="67"/>
-      <c r="B286" s="67"/>
-      <c r="C286" s="77"/>
-      <c r="D286" s="84"/>
+      <c r="A286" s="60"/>
+      <c r="B286" s="60"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="80"/>
       <c r="E286" s="11" t="s">
         <v>263</v>
       </c>
@@ -6895,20 +6917,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="67"/>
-      <c r="B287" s="67"/>
-      <c r="C287" s="77"/>
-      <c r="D287" s="84"/>
+      <c r="A287" s="60"/>
+      <c r="B287" s="60"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="80"/>
       <c r="E287" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="67"/>
-      <c r="B288" s="67"/>
-      <c r="C288" s="77"/>
-      <c r="D288" s="84"/>
+      <c r="A288" s="60"/>
+      <c r="B288" s="60"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="80"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
@@ -6920,34 +6942,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="67"/>
-      <c r="B289" s="67"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="84"/>
+      <c r="A289" s="60"/>
+      <c r="B289" s="60"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="80"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="67"/>
-      <c r="B290" s="67"/>
-      <c r="C290" s="77"/>
-      <c r="D290" s="84"/>
+      <c r="A290" s="60"/>
+      <c r="B290" s="60"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="80"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="62" t="s">
+      <c r="A291" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="62" t="s">
+      <c r="B291" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="63"/>
-      <c r="D291" s="64"/>
+      <c r="C291" s="78"/>
+      <c r="D291" s="69"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6959,10 +6981,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="62"/>
-      <c r="B292" s="62"/>
-      <c r="C292" s="63"/>
-      <c r="D292" s="64"/>
+      <c r="A292" s="68"/>
+      <c r="B292" s="68"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="69"/>
       <c r="E292" s="11" t="s">
         <v>270</v>
       </c>
@@ -6974,10 +6996,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="62"/>
-      <c r="B293" s="62"/>
-      <c r="C293" s="63"/>
-      <c r="D293" s="64"/>
+      <c r="A293" s="68"/>
+      <c r="B293" s="68"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="69"/>
       <c r="E293" s="11" t="s">
         <v>272</v>
       </c>
@@ -6989,10 +7011,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="62"/>
-      <c r="B294" s="62"/>
-      <c r="C294" s="63"/>
-      <c r="D294" s="64"/>
+      <c r="A294" s="68"/>
+      <c r="B294" s="68"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="69"/>
       <c r="E294" s="11" t="s">
         <v>274</v>
       </c>
@@ -7004,22 +7026,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="62"/>
-      <c r="B295" s="62"/>
-      <c r="C295" s="63"/>
-      <c r="D295" s="64"/>
+      <c r="A295" s="68"/>
+      <c r="B295" s="68"/>
+      <c r="C295" s="78"/>
+      <c r="D295" s="69"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="62"/>
-      <c r="B296" s="62" t="s">
+      <c r="A296" s="68"/>
+      <c r="B296" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="63"/>
-      <c r="D296" s="64"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="69"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -7031,10 +7053,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="62"/>
-      <c r="B297" s="62"/>
-      <c r="C297" s="63"/>
-      <c r="D297" s="64"/>
+      <c r="A297" s="68"/>
+      <c r="B297" s="68"/>
+      <c r="C297" s="78"/>
+      <c r="D297" s="69"/>
       <c r="E297" s="11" t="s">
         <v>280</v>
       </c>
@@ -7046,10 +7068,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="62"/>
-      <c r="B298" s="62"/>
-      <c r="C298" s="63"/>
-      <c r="D298" s="64"/>
+      <c r="A298" s="68"/>
+      <c r="B298" s="68"/>
+      <c r="C298" s="78"/>
+      <c r="D298" s="69"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -7061,10 +7083,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="62"/>
-      <c r="B299" s="62"/>
-      <c r="C299" s="63"/>
-      <c r="D299" s="64"/>
+      <c r="A299" s="68"/>
+      <c r="B299" s="68"/>
+      <c r="C299" s="78"/>
+      <c r="D299" s="69"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7076,34 +7098,34 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="62"/>
-      <c r="B300" s="62"/>
-      <c r="C300" s="63"/>
-      <c r="D300" s="64"/>
+      <c r="A300" s="68"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="78"/>
+      <c r="D300" s="69"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="62"/>
-      <c r="B301" s="62"/>
-      <c r="C301" s="63"/>
-      <c r="D301" s="64"/>
+      <c r="A301" s="68"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="78"/>
+      <c r="D301" s="69"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="59" t="s">
+      <c r="A302" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="59" t="s">
+      <c r="B302" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="60"/>
-      <c r="D302" s="61"/>
+      <c r="C302" s="63"/>
+      <c r="D302" s="64"/>
       <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
@@ -7115,10 +7137,10 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="59"/>
-      <c r="B303" s="59"/>
-      <c r="C303" s="60"/>
-      <c r="D303" s="61"/>
+      <c r="A303" s="61"/>
+      <c r="B303" s="61"/>
+      <c r="C303" s="63"/>
+      <c r="D303" s="64"/>
       <c r="E303" s="11" t="s">
         <v>288</v>
       </c>
@@ -7130,10 +7152,10 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="59"/>
-      <c r="B304" s="59"/>
-      <c r="C304" s="60"/>
-      <c r="D304" s="61"/>
+      <c r="A304" s="61"/>
+      <c r="B304" s="61"/>
+      <c r="C304" s="63"/>
+      <c r="D304" s="64"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
@@ -7145,10 +7167,10 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="59"/>
-      <c r="B305" s="59"/>
-      <c r="C305" s="60"/>
-      <c r="D305" s="61"/>
+      <c r="A305" s="61"/>
+      <c r="B305" s="61"/>
+      <c r="C305" s="63"/>
+      <c r="D305" s="64"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
@@ -7160,18 +7182,18 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="59"/>
-      <c r="B306" s="59"/>
-      <c r="C306" s="60"/>
-      <c r="D306" s="61"/>
+      <c r="A306" s="61"/>
+      <c r="B306" s="61"/>
+      <c r="C306" s="63"/>
+      <c r="D306" s="64"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="59"/>
-      <c r="B307" s="59" t="s">
+      <c r="A307" s="61"/>
+      <c r="B307" s="61" t="s">
         <v>292</v>
       </c>
       <c r="C307" s="43" t="s">
@@ -7184,12 +7206,12 @@
       <c r="F307" s="23"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="59"/>
-      <c r="B308" s="59"/>
-      <c r="C308" s="59" t="s">
+      <c r="A308" s="61"/>
+      <c r="B308" s="61"/>
+      <c r="C308" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="D308" s="61"/>
+      <c r="D308" s="64"/>
       <c r="E308" s="11" t="s">
         <v>294</v>
       </c>
@@ -7201,10 +7223,10 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="59"/>
-      <c r="B309" s="59"/>
-      <c r="C309" s="59"/>
-      <c r="D309" s="61"/>
+      <c r="A309" s="61"/>
+      <c r="B309" s="61"/>
+      <c r="C309" s="61"/>
+      <c r="D309" s="64"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
@@ -7216,10 +7238,10 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="59"/>
-      <c r="B310" s="59"/>
-      <c r="C310" s="59"/>
-      <c r="D310" s="61"/>
+      <c r="A310" s="61"/>
+      <c r="B310" s="61"/>
+      <c r="C310" s="61"/>
+      <c r="D310" s="64"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
@@ -7231,42 +7253,42 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="59"/>
-      <c r="B311" s="59"/>
-      <c r="C311" s="59"/>
-      <c r="D311" s="61"/>
+      <c r="A311" s="61"/>
+      <c r="B311" s="61"/>
+      <c r="C311" s="61"/>
+      <c r="D311" s="64"/>
       <c r="E311" s="11" t="s">
         <v>296</v>
       </c>
       <c r="F311" s="11"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="59"/>
-      <c r="B312" s="59"/>
-      <c r="C312" s="59"/>
-      <c r="D312" s="61"/>
+      <c r="A312" s="61"/>
+      <c r="B312" s="61"/>
+      <c r="C312" s="61"/>
+      <c r="D312" s="64"/>
       <c r="E312" s="11" t="s">
         <v>297</v>
       </c>
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="59"/>
-      <c r="B313" s="59"/>
-      <c r="C313" s="59"/>
-      <c r="D313" s="61"/>
+      <c r="A313" s="61"/>
+      <c r="B313" s="61"/>
+      <c r="C313" s="61"/>
+      <c r="D313" s="64"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="59"/>
-      <c r="B314" s="59"/>
-      <c r="C314" s="59" t="s">
+      <c r="A314" s="61"/>
+      <c r="B314" s="61"/>
+      <c r="C314" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="61"/>
+      <c r="D314" s="64"/>
       <c r="E314" s="7" t="s">
         <v>217</v>
       </c>
@@ -7278,10 +7300,10 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="59"/>
-      <c r="B315" s="59"/>
-      <c r="C315" s="59"/>
-      <c r="D315" s="61"/>
+      <c r="A315" s="61"/>
+      <c r="B315" s="61"/>
+      <c r="C315" s="61"/>
+      <c r="D315" s="64"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
@@ -7293,10 +7315,10 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="59"/>
-      <c r="B316" s="59"/>
-      <c r="C316" s="59"/>
-      <c r="D316" s="61"/>
+      <c r="A316" s="61"/>
+      <c r="B316" s="61"/>
+      <c r="C316" s="61"/>
+      <c r="D316" s="64"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
@@ -7308,44 +7330,44 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="59"/>
-      <c r="B317" s="59"/>
-      <c r="C317" s="59"/>
-      <c r="D317" s="61"/>
+      <c r="A317" s="61"/>
+      <c r="B317" s="61"/>
+      <c r="C317" s="61"/>
+      <c r="D317" s="64"/>
       <c r="E317" s="11" t="s">
         <v>299</v>
       </c>
       <c r="F317" s="11"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="59"/>
-      <c r="B318" s="59"/>
-      <c r="C318" s="59"/>
-      <c r="D318" s="61"/>
+      <c r="A318" s="61"/>
+      <c r="B318" s="61"/>
+      <c r="C318" s="61"/>
+      <c r="D318" s="64"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F318" s="11"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="59"/>
-      <c r="B319" s="59"/>
-      <c r="C319" s="59"/>
-      <c r="D319" s="61"/>
+      <c r="A319" s="61"/>
+      <c r="B319" s="61"/>
+      <c r="C319" s="61"/>
+      <c r="D319" s="64"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="59" t="s">
+      <c r="A320" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B320" s="59" t="s">
+      <c r="B320" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="60"/>
-      <c r="D320" s="61"/>
+      <c r="C320" s="63"/>
+      <c r="D320" s="64"/>
       <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
@@ -7357,10 +7379,10 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="59"/>
-      <c r="B321" s="59"/>
-      <c r="C321" s="60"/>
-      <c r="D321" s="61"/>
+      <c r="A321" s="61"/>
+      <c r="B321" s="61"/>
+      <c r="C321" s="63"/>
+      <c r="D321" s="64"/>
       <c r="E321" s="11" t="s">
         <v>304</v>
       </c>
@@ -7372,10 +7394,10 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="59"/>
-      <c r="B322" s="59"/>
-      <c r="C322" s="60"/>
-      <c r="D322" s="61"/>
+      <c r="A322" s="61"/>
+      <c r="B322" s="61"/>
+      <c r="C322" s="63"/>
+      <c r="D322" s="64"/>
       <c r="E322" s="11" t="s">
         <v>306</v>
       </c>
@@ -7387,10 +7409,10 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="59"/>
-      <c r="B323" s="59"/>
-      <c r="C323" s="60"/>
-      <c r="D323" s="61"/>
+      <c r="A323" s="61"/>
+      <c r="B323" s="61"/>
+      <c r="C323" s="63"/>
+      <c r="D323" s="64"/>
       <c r="E323" s="11" t="s">
         <v>308</v>
       </c>
@@ -7402,18 +7424,18 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="59"/>
-      <c r="B324" s="59"/>
-      <c r="C324" s="60"/>
-      <c r="D324" s="61"/>
+      <c r="A324" s="61"/>
+      <c r="B324" s="61"/>
+      <c r="C324" s="63"/>
+      <c r="D324" s="64"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="59"/>
-      <c r="B325" s="59" t="s">
+      <c r="A325" s="61"/>
+      <c r="B325" s="61" t="s">
         <v>310</v>
       </c>
       <c r="C325" s="43" t="s">
@@ -7426,12 +7448,12 @@
       <c r="F325" s="23"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="59"/>
-      <c r="B326" s="59"/>
-      <c r="C326" s="59" t="s">
+      <c r="A326" s="61"/>
+      <c r="B326" s="61"/>
+      <c r="C326" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D326" s="61"/>
+      <c r="D326" s="64"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
@@ -7443,82 +7465,82 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="59"/>
-      <c r="B327" s="59"/>
-      <c r="C327" s="59"/>
-      <c r="D327" s="61"/>
+      <c r="A327" s="61"/>
+      <c r="B327" s="61"/>
+      <c r="C327" s="61"/>
+      <c r="D327" s="64"/>
       <c r="E327" s="11" t="s">
         <v>313</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="59"/>
-      <c r="B328" s="59"/>
-      <c r="C328" s="59"/>
-      <c r="D328" s="61"/>
+      <c r="A328" s="61"/>
+      <c r="B328" s="61"/>
+      <c r="C328" s="61"/>
+      <c r="D328" s="64"/>
       <c r="E328" s="11" t="s">
         <v>314</v>
       </c>
       <c r="F328" s="11"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="59"/>
-      <c r="B329" s="59"/>
-      <c r="C329" s="59"/>
-      <c r="D329" s="61"/>
+      <c r="A329" s="61"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="61"/>
+      <c r="D329" s="64"/>
       <c r="E329" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="59"/>
-      <c r="B330" s="59"/>
-      <c r="C330" s="59"/>
-      <c r="D330" s="61"/>
+      <c r="A330" s="61"/>
+      <c r="B330" s="61"/>
+      <c r="C330" s="61"/>
+      <c r="D330" s="64"/>
       <c r="E330" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="59"/>
-      <c r="B331" s="59"/>
-      <c r="C331" s="59"/>
-      <c r="D331" s="61"/>
+      <c r="A331" s="61"/>
+      <c r="B331" s="61"/>
+      <c r="C331" s="61"/>
+      <c r="D331" s="64"/>
       <c r="E331" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F331" s="11"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="59"/>
-      <c r="B332" s="59"/>
-      <c r="C332" s="59"/>
-      <c r="D332" s="61"/>
+      <c r="A332" s="61"/>
+      <c r="B332" s="61"/>
+      <c r="C332" s="61"/>
+      <c r="D332" s="64"/>
       <c r="E332" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F332" s="11"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="59"/>
-      <c r="B333" s="59"/>
-      <c r="C333" s="59"/>
-      <c r="D333" s="61"/>
+      <c r="A333" s="61"/>
+      <c r="B333" s="61"/>
+      <c r="C333" s="61"/>
+      <c r="D333" s="64"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="57" t="s">
+      <c r="A334" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="58"/>
-      <c r="C334" s="58"/>
-      <c r="D334" s="58"/>
+      <c r="B334" s="82"/>
+      <c r="C334" s="82"/>
+      <c r="D334" s="82"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7530,10 +7552,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="57"/>
-      <c r="B335" s="57"/>
-      <c r="C335" s="58"/>
-      <c r="D335" s="58"/>
+      <c r="A335" s="81"/>
+      <c r="B335" s="81"/>
+      <c r="C335" s="82"/>
+      <c r="D335" s="82"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7545,10 +7567,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="57"/>
-      <c r="B336" s="57"/>
-      <c r="C336" s="58"/>
-      <c r="D336" s="58"/>
+      <c r="A336" s="81"/>
+      <c r="B336" s="81"/>
+      <c r="C336" s="82"/>
+      <c r="D336" s="82"/>
       <c r="E336" s="11" t="s">
         <v>320</v>
       </c>
@@ -7560,10 +7582,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="57"/>
-      <c r="B337" s="57"/>
-      <c r="C337" s="58"/>
-      <c r="D337" s="58"/>
+      <c r="A337" s="81"/>
+      <c r="B337" s="81"/>
+      <c r="C337" s="82"/>
+      <c r="D337" s="82"/>
       <c r="E337" s="11" t="s">
         <v>322</v>
       </c>
@@ -7575,10 +7597,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="57"/>
-      <c r="B338" s="57"/>
-      <c r="C338" s="58"/>
-      <c r="D338" s="58"/>
+      <c r="A338" s="81"/>
+      <c r="B338" s="81"/>
+      <c r="C338" s="82"/>
+      <c r="D338" s="82"/>
       <c r="E338" s="11" t="s">
         <v>324</v>
       </c>
@@ -7590,20 +7612,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="57"/>
-      <c r="B339" s="57"/>
-      <c r="C339" s="58"/>
-      <c r="D339" s="58"/>
+      <c r="A339" s="81"/>
+      <c r="B339" s="81"/>
+      <c r="C339" s="82"/>
+      <c r="D339" s="82"/>
       <c r="E339" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="57"/>
-      <c r="B340" s="57"/>
-      <c r="C340" s="58"/>
-      <c r="D340" s="58"/>
+      <c r="A340" s="81"/>
+      <c r="B340" s="81"/>
+      <c r="C340" s="82"/>
+      <c r="D340" s="82"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7612,6 +7634,87 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7636,87 +7739,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7725,7 +7747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7877,7 +7899,7 @@
       <c r="B66" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="84" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7888,7 +7910,7 @@
       <c r="B67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="84"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
@@ -7897,7 +7919,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="84"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
@@ -7906,7 +7928,7 @@
       <c r="B69" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C69" s="79"/>
+      <c r="C69" s="84"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
@@ -7915,7 +7937,7 @@
       <c r="B70" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C70" s="79"/>
+      <c r="C70" s="84"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -7924,7 +7946,7 @@
       <c r="B71" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C71" s="79"/>
+      <c r="C71" s="84"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
@@ -7933,7 +7955,7 @@
       <c r="B72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C72" s="79"/>
+      <c r="C72" s="84"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
@@ -7942,7 +7964,7 @@
       <c r="B73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C73" s="79"/>
+      <c r="C73" s="84"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
@@ -7951,7 +7973,7 @@
       <c r="B74" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C74" s="79"/>
+      <c r="C74" s="84"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
@@ -7960,7 +7982,7 @@
       <c r="B75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C75" s="79"/>
+      <c r="C75" s="84"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
@@ -7969,7 +7991,7 @@
       <c r="B76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C76" s="79"/>
+      <c r="C76" s="84"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
@@ -7978,7 +8000,7 @@
       <c r="B77" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C77" s="79"/>
+      <c r="C77" s="84"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -7987,7 +8009,7 @@
       <c r="B78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="79"/>
+      <c r="C78" s="84"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
@@ -7996,7 +8018,7 @@
       <c r="B79" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="79"/>
+      <c r="C79" s="84"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="1" t="s">
@@ -8005,7 +8027,7 @@
       <c r="B82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="83" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8016,7 +8038,7 @@
       <c r="B83" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="83"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="38" t="s">
@@ -8025,7 +8047,7 @@
       <c r="B84" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="78"/>
+      <c r="C84" s="83"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="38" t="s">
@@ -8034,7 +8056,7 @@
       <c r="B85" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="78"/>
+      <c r="C85" s="83"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="38" t="s">
@@ -8043,7 +8065,7 @@
       <c r="B86" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="78"/>
+      <c r="C86" s="83"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
@@ -8052,7 +8074,7 @@
       <c r="B89" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="83" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8063,7 +8085,7 @@
       <c r="B90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="78"/>
+      <c r="C90" s="83"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -8072,7 +8094,7 @@
       <c r="B91" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="78"/>
+      <c r="C91" s="83"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8081,7 +8103,7 @@
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="78"/>
+      <c r="C92" s="83"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8090,7 +8112,7 @@
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="78"/>
+      <c r="C93" s="83"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8099,7 +8121,7 @@
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="78"/>
+      <c r="C94" s="83"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8108,7 +8130,7 @@
       <c r="B95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="78"/>
+      <c r="C95" s="83"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8117,7 +8139,7 @@
       <c r="B96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="78"/>
+      <c r="C96" s="83"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8126,7 +8148,7 @@
       <c r="B97" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="78"/>
+      <c r="C97" s="83"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8135,7 +8157,7 @@
       <c r="B98" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="78"/>
+      <c r="C98" s="83"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8144,7 +8166,7 @@
       <c r="B99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="78"/>
+      <c r="C99" s="83"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8153,7 +8175,7 @@
       <c r="B100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="78"/>
+      <c r="C100" s="83"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8162,7 +8184,7 @@
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="78"/>
+      <c r="C101" s="83"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8171,7 +8193,7 @@
       <c r="B102" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="78"/>
+      <c r="C102" s="83"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
@@ -8404,7 +8426,7 @@
       <c r="B141" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="80" t="s">
+      <c r="C141" s="85" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8415,7 +8437,7 @@
       <c r="B142" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="80"/>
+      <c r="C142" s="85"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="38" t="s">
@@ -8424,7 +8446,7 @@
       <c r="B143" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="80"/>
+      <c r="C143" s="85"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
       <c r="A144" s="47" t="s">
@@ -8433,7 +8455,7 @@
       <c r="B144" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="C144" s="81" t="s">
+      <c r="C144" s="86" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8444,7 +8466,7 @@
       <c r="B145" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="81"/>
+      <c r="C145" s="86"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="38" t="s">
@@ -8453,7 +8475,7 @@
       <c r="B146" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="81"/>
+      <c r="C146" s="86"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="38" t="s">
@@ -8462,7 +8484,7 @@
       <c r="B147" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="81"/>
+      <c r="C147" s="86"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="38" t="s">
@@ -8471,7 +8493,7 @@
       <c r="B148" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="81"/>
+      <c r="C148" s="86"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="38" t="s">
@@ -8480,7 +8502,7 @@
       <c r="B149" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C149" s="81"/>
+      <c r="C149" s="86"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="38" t="s">
@@ -8489,7 +8511,7 @@
       <c r="B150" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="81"/>
+      <c r="C150" s="86"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="38" t="s">
@@ -8498,7 +8520,7 @@
       <c r="B151" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="C151" s="81"/>
+      <c r="C151" s="86"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="38" t="s">
@@ -8507,7 +8529,7 @@
       <c r="B152" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="C152" s="81"/>
+      <c r="C152" s="86"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="38" t="s">
@@ -8516,7 +8538,7 @@
       <c r="B153" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C153" s="81"/>
+      <c r="C153" s="86"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="36" t="s">
@@ -8525,7 +8547,7 @@
       <c r="B154" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="C154" s="82" t="s">
+      <c r="C154" s="87" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8536,7 +8558,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="79"/>
+      <c r="C155" s="84"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8545,7 +8567,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="79"/>
+      <c r="C156" s="84"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8554,7 +8576,7 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="79"/>
+      <c r="C157" s="84"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="36" t="s">
@@ -8563,7 +8585,7 @@
       <c r="B158" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="78" t="s">
+      <c r="C158" s="83" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8574,7 +8596,7 @@
       <c r="B159" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="78"/>
+      <c r="C159" s="83"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
@@ -8583,7 +8605,7 @@
       <c r="B160" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="78"/>
+      <c r="C160" s="83"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
@@ -8592,7 +8614,7 @@
       <c r="B161" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="78"/>
+      <c r="C161" s="83"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
@@ -8601,7 +8623,7 @@
       <c r="B162" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="78"/>
+      <c r="C162" s="83"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="36" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780FEC9-4575-48FC-995D-03267B206990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="448">
   <si>
     <t>Раздел</t>
   </si>
@@ -1567,11 +1566,14 @@
   <si>
     <t>GetTypeLinkAttrTemplates - Пояснить параметр "Идентификатор отношения связи типов". Это идентификатор отношения в БД для типов, связи типов. Смотри таблицу rlTypesAndTypes. Нужно найти метод, где такое получить можно и придумать описание.</t>
   </si>
+  <si>
+    <t>NewCardTypeUserGroup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1989,7 +1991,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2042,7 +2044,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2100,44 +2101,43 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,17 +2146,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,25 +2173,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Accent" xfId="1"/>
+    <cellStyle name="Accent 1" xfId="2"/>
+    <cellStyle name="Accent 2" xfId="3"/>
+    <cellStyle name="Accent 3" xfId="4"/>
+    <cellStyle name="Bad" xfId="5"/>
+    <cellStyle name="Error" xfId="6"/>
+    <cellStyle name="Footnote" xfId="7"/>
+    <cellStyle name="Good" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading 1" xfId="10"/>
+    <cellStyle name="Heading 2" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="12"/>
+    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Note" xfId="14"/>
+    <cellStyle name="Status" xfId="15"/>
+    <cellStyle name="Text" xfId="16"/>
+    <cellStyle name="Warning" xfId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2982,11 +2988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3090,183 +3096,183 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="65"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="65"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="64"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="64"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="65"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="64"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="64"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3274,145 +3280,145 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="64"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="11" t="s">
         <v>52</v>
       </c>
@@ -3420,220 +3426,220 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="64"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="64"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="62" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="64"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="64"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="64"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="64"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="67" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="72"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="72"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="72"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="15" t="s">
         <v>46</v>
       </c>
@@ -3641,411 +3647,411 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="62" t="s">
+      <c r="A41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="48" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="64"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="64"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="72" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="60"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="22" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="60"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="60"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="60"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="61"/>
-      <c r="D51" s="64"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="61"/>
-      <c r="D52" s="64"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="61"/>
-      <c r="D53" s="64"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="64"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="61"/>
-      <c r="D55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="61"/>
-      <c r="D56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="61"/>
-      <c r="D57" s="64"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="64"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="61"/>
-      <c r="D59" s="64"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="61"/>
-      <c r="D60" s="64"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="G60" s="37" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="61"/>
-      <c r="D61" s="64"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G61" s="37" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="61"/>
-      <c r="D62" s="64"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="72"/>
       <c r="C63" s="61"/>
-      <c r="D63" s="64"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="48" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="72"/>
       <c r="C65" s="61"/>
-      <c r="D65" s="64"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="61"/>
-      <c r="D66" s="64"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="72"/>
       <c r="C67" s="61"/>
-      <c r="D67" s="64"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="72"/>
       <c r="C68" s="61"/>
-      <c r="D68" s="64"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="61"/>
-      <c r="D69" s="64"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="72"/>
       <c r="C70" s="61"/>
-      <c r="D70" s="66" t="s">
+      <c r="D70" s="81" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4054,328 +4060,328 @@
       <c r="F70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="72"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="66"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="61"/>
-      <c r="D72" s="66"/>
+      <c r="D72" s="81"/>
       <c r="E72" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="72"/>
       <c r="C73" s="61"/>
-      <c r="D73" s="66"/>
+      <c r="D73" s="81"/>
       <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="72"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="66"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="61"/>
-      <c r="D75" s="66"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="61"/>
-      <c r="D76" s="66"/>
+      <c r="D76" s="81"/>
       <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="61"/>
-      <c r="D77" s="66"/>
+      <c r="D77" s="81"/>
       <c r="E77" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="73" t="s">
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="64"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="37" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="64"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="51" t="s">
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="50" t="s">
         <v>444</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="51" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="64"/>
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="44" t="s">
+      <c r="G81" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="52" t="s">
+      <c r="I81" s="51" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="64"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
       <c r="C83" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="64"/>
+      <c r="D83" s="63"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="38" t="s">
+      <c r="G83" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="72"/>
       <c r="C84" s="61"/>
-      <c r="D84" s="64"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="38" t="s">
+      <c r="G84" s="37" t="s">
         <v>144</v>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
       <c r="C85" s="61"/>
-      <c r="D85" s="64"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
+      <c r="A86" s="72"/>
+      <c r="B86" s="72"/>
       <c r="C86" s="61"/>
-      <c r="D86" s="64"/>
+      <c r="D86" s="63"/>
       <c r="E86" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="38" t="s">
+      <c r="G86" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="61"/>
-      <c r="D87" s="64"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="64"/>
+      <c r="D88" s="63"/>
       <c r="E88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
+      <c r="A89" s="72"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="61"/>
-      <c r="D89" s="64"/>
+      <c r="D89" s="63"/>
       <c r="E89" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="72"/>
       <c r="C90" s="61"/>
-      <c r="D90" s="64"/>
+      <c r="D90" s="63"/>
       <c r="E90" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
+      <c r="A91" s="72"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="61"/>
-      <c r="D91" s="64"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="72"/>
       <c r="C92" s="61"/>
-      <c r="D92" s="64"/>
+      <c r="D92" s="63"/>
       <c r="E92" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="72"/>
       <c r="C93" s="61"/>
-      <c r="D93" s="64"/>
+      <c r="D93" s="63"/>
       <c r="E93" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="72"/>
       <c r="C94" s="61"/>
-      <c r="D94" s="64"/>
+      <c r="D94" s="63"/>
       <c r="E94" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
+      <c r="A95" s="72"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="61"/>
-      <c r="D95" s="64"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="15" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="72"/>
       <c r="C96" s="61"/>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="75" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4384,18 +4390,18 @@
       <c r="F96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="49" t="s">
+      <c r="G96" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="40" t="s">
+      <c r="I96" s="39" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
+      <c r="A97" s="72"/>
+      <c r="B97" s="72"/>
       <c r="C97" s="61"/>
-      <c r="D97" s="74"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="11" t="s">
         <v>154</v>
       </c>
@@ -4403,10 +4409,10 @@
       <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="72"/>
       <c r="C98" s="61"/>
-      <c r="D98" s="74"/>
+      <c r="D98" s="75"/>
       <c r="E98" s="11" t="s">
         <v>155</v>
       </c>
@@ -4414,61 +4420,61 @@
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
+      <c r="A99" s="72"/>
+      <c r="B99" s="72"/>
       <c r="C99" s="61"/>
-      <c r="D99" s="74"/>
+      <c r="D99" s="75"/>
       <c r="E99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="72"/>
       <c r="C100" s="61"/>
-      <c r="D100" s="74"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F100" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="38" t="s">
+      <c r="G100" s="37" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="60"/>
-      <c r="B101" s="60"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="61"/>
-      <c r="D101" s="74"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="60"/>
-      <c r="B102" s="60"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="72"/>
       <c r="C102" s="61"/>
-      <c r="D102" s="74"/>
+      <c r="D102" s="75"/>
       <c r="E102" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="60"/>
-      <c r="B103" s="60"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="72"/>
       <c r="C103" s="61"/>
-      <c r="D103" s="74" t="s">
+      <c r="D103" s="75" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4477,133 +4483,133 @@
       <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G103" s="38" t="s">
+      <c r="G103" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="72"/>
       <c r="C104" s="61"/>
-      <c r="D104" s="74"/>
+      <c r="D104" s="75"/>
       <c r="E104" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="38" t="s">
+      <c r="G104" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
+      <c r="A105" s="72"/>
+      <c r="B105" s="72"/>
       <c r="C105" s="61"/>
-      <c r="D105" s="74"/>
+      <c r="D105" s="75"/>
       <c r="E105" s="11" t="s">
         <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G105" s="38" t="s">
+      <c r="G105" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="60"/>
-      <c r="B106" s="60"/>
+      <c r="A106" s="72"/>
+      <c r="B106" s="72"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="74"/>
+      <c r="D106" s="75"/>
       <c r="E106" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="I106" s="59" t="s">
+      <c r="I106" s="58" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="62" t="s">
+      <c r="A107" s="72"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="64"/>
+      <c r="D107" s="63"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="38" t="s">
+      <c r="G107" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="64"/>
+      <c r="A108" s="72"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="63"/>
       <c r="E108" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="38" t="s">
+      <c r="G108" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="64"/>
+      <c r="A109" s="72"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="60"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
+      <c r="A110" s="72"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="63"/>
       <c r="E110" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="38" t="s">
+      <c r="G110" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="60"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="64"/>
+      <c r="A111" s="72"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="63"/>
       <c r="E111" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F111" s="11"/>
-      <c r="G111" s="38" t="s">
+      <c r="G111" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="60"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="64"/>
+      <c r="A112" s="72"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="63"/>
       <c r="E112" s="11" t="s">
         <v>148</v>
       </c>
@@ -4611,10 +4617,10 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="60"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="64"/>
+      <c r="A113" s="72"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="63"/>
       <c r="E113" s="11" t="s">
         <v>149</v>
       </c>
@@ -4622,10 +4628,10 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="60"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="64"/>
+      <c r="A114" s="72"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="63"/>
       <c r="E114" s="11" t="s">
         <v>150</v>
       </c>
@@ -4633,10 +4639,10 @@
       <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="60"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="64"/>
+      <c r="A115" s="72"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="63"/>
       <c r="E115" s="11" t="s">
         <v>151</v>
       </c>
@@ -4644,10 +4650,10 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="60"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="64"/>
+      <c r="A116" s="72"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="63"/>
       <c r="E116" s="15" t="s">
         <v>46</v>
       </c>
@@ -4655,173 +4661,173 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="60"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="68" t="s">
+      <c r="A117" s="72"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="69"/>
+      <c r="D117" s="63"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="38" t="s">
+      <c r="G117" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="60"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="69"/>
+      <c r="A118" s="72"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="63"/>
       <c r="E118" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="60"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="69"/>
+      <c r="A119" s="72"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="63"/>
       <c r="E119" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="60"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="69"/>
+      <c r="A120" s="72"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="63"/>
       <c r="E120" s="22" t="s">
         <v>167</v>
       </c>
       <c r="F120" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="60"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="69"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="63"/>
       <c r="E121" s="11" t="s">
         <v>169</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G121" s="87" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="60"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="69"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="63"/>
       <c r="E122" s="11" t="s">
         <v>171</v>
       </c>
       <c r="F122" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="60"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="69"/>
+      <c r="A123" s="72"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="63"/>
       <c r="E123" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F123" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="43" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="60"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="68" t="s">
+      <c r="A124" s="72"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="69"/>
+      <c r="D124" s="63"/>
       <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F124" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G124" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="I124" s="28" t="s">
+      <c r="I124" s="89" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="60"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="69"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="72"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="63"/>
       <c r="E125" s="11" t="s">
         <v>179</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="60"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="68"/>
-      <c r="D126" s="69"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="63"/>
       <c r="E126" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="60"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="69"/>
+      <c r="A127" s="72"/>
+      <c r="B127" s="72"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="63"/>
       <c r="E127" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G127" s="18" t="s">
+      <c r="G127" s="43" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="60"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="68" t="s">
+      <c r="A128" s="72"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="69"/>
+      <c r="D128" s="66"/>
       <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="28" t="s">
         <v>186</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -4832,10 +4838,10 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="60"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="69"/>
+      <c r="A129" s="72"/>
+      <c r="B129" s="72"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="66"/>
       <c r="E129" s="11" t="s">
         <v>189</v>
       </c>
@@ -4847,20 +4853,20 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="60"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="68"/>
-      <c r="D130" s="69"/>
+      <c r="A130" s="72"/>
+      <c r="B130" s="72"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="66"/>
       <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="68"/>
-      <c r="D131" s="69"/>
+      <c r="A131" s="72"/>
+      <c r="B131" s="72"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="66"/>
       <c r="E131" s="15" t="s">
         <v>192</v>
       </c>
@@ -4875,12 +4881,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="68" t="s">
+      <c r="A132" s="72"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="69"/>
+      <c r="D132" s="66"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4892,10 +4898,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="68"/>
-      <c r="D133" s="69"/>
+      <c r="A133" s="72"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="66"/>
       <c r="E133" s="11" t="s">
         <v>28</v>
       </c>
@@ -4907,10 +4913,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="69"/>
+      <c r="A134" s="72"/>
+      <c r="B134" s="72"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="66"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
@@ -4922,10 +4928,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="69"/>
+      <c r="A135" s="72"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="66"/>
       <c r="E135" s="11" t="s">
         <v>202</v>
       </c>
@@ -4937,59 +4943,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="60"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="68"/>
-      <c r="D136" s="69"/>
+      <c r="A136" s="72"/>
+      <c r="B136" s="72"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="66"/>
       <c r="E136" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="11"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="60"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="69"/>
+      <c r="A137" s="72"/>
+      <c r="B137" s="72"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="66"/>
       <c r="E137" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="60"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="68"/>
-      <c r="D138" s="69"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="66"/>
       <c r="E138" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="69"/>
+      <c r="A139" s="72"/>
+      <c r="B139" s="72"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="66"/>
       <c r="E139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="60"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="30" t="s">
+      <c r="A140" s="72"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="29" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="60"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="70" t="s">
+      <c r="A141" s="72"/>
+      <c r="B141" s="72"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="68" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -5003,41 +5009,41 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="60"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="70"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="68"/>
       <c r="E142" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="11"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="60"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="70"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="68"/>
       <c r="E143" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F143" s="11"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="60"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="70"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="68"/>
       <c r="E144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="60"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="31" t="s">
+      <c r="A145" s="72"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="30" t="s">
         <v>208</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -5048,10 +5054,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="60"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="70"/>
+      <c r="A146" s="72"/>
+      <c r="B146" s="72"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="11" t="s">
         <v>129</v>
       </c>
@@ -5063,10 +5069,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="60"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="70"/>
+      <c r="A147" s="72"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="68"/>
       <c r="E147" s="15" t="s">
         <v>210</v>
       </c>
@@ -5078,124 +5084,124 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="60" t="s">
+      <c r="A148" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="64"/>
+      <c r="D148" s="63"/>
       <c r="E148" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="38" t="s">
+      <c r="G148" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="60"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="71"/>
-      <c r="D149" s="64"/>
+      <c r="A149" s="72"/>
+      <c r="B149" s="73"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="63"/>
       <c r="E149" s="11" t="s">
         <v>213</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="38" t="s">
+      <c r="G149" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="60"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="71"/>
-      <c r="D150" s="64"/>
+      <c r="A150" s="72"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="63"/>
       <c r="E150" s="11" t="s">
         <v>214</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="38" t="s">
+      <c r="G150" s="37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="60"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="64"/>
+      <c r="A151" s="72"/>
+      <c r="B151" s="73"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="63"/>
       <c r="E151" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="38" t="s">
+      <c r="G151" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="60"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="64"/>
+      <c r="A152" s="72"/>
+      <c r="B152" s="73"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="63"/>
       <c r="E152" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="60"/>
-      <c r="B153" s="60" t="s">
+      <c r="A153" s="72"/>
+      <c r="B153" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="41" t="s">
+      <c r="C153" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D153" s="55"/>
-      <c r="E153" s="32" t="s">
+      <c r="D153" s="54"/>
+      <c r="E153" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F153" s="32"/>
+      <c r="F153" s="31"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="60"/>
-      <c r="B154" s="60"/>
+      <c r="A154" s="72"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="64"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="38" t="s">
+      <c r="G154" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="60"/>
-      <c r="B155" s="60"/>
+      <c r="A155" s="72"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="61"/>
-      <c r="D155" s="64"/>
+      <c r="D155" s="63"/>
       <c r="E155" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="44" t="s">
+      <c r="G155" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -5203,162 +5209,162 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="60"/>
-      <c r="B156" s="60"/>
+      <c r="A156" s="72"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="61"/>
-      <c r="D156" s="64"/>
+      <c r="D156" s="63"/>
       <c r="E156" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="38" t="s">
+      <c r="G156" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="60"/>
-      <c r="B157" s="60"/>
+      <c r="A157" s="72"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="61"/>
-      <c r="D157" s="64"/>
+      <c r="D157" s="63"/>
       <c r="E157" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="38" t="s">
+      <c r="G157" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="60"/>
-      <c r="B158" s="60"/>
+      <c r="A158" s="72"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="61"/>
-      <c r="D158" s="64"/>
+      <c r="D158" s="63"/>
       <c r="E158" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F158" s="11"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="60"/>
-      <c r="B159" s="60"/>
+      <c r="A159" s="72"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="61"/>
-      <c r="D159" s="64"/>
+      <c r="D159" s="63"/>
       <c r="E159" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F159" s="11"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="60"/>
-      <c r="B160" s="60"/>
+      <c r="A160" s="72"/>
+      <c r="B160" s="72"/>
       <c r="C160" s="61"/>
-      <c r="D160" s="64"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F160" s="11"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
+      <c r="A161" s="72"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="61"/>
-      <c r="D161" s="64"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="60"/>
-      <c r="B162" s="60"/>
+      <c r="A162" s="72"/>
+      <c r="B162" s="72"/>
       <c r="C162" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="64"/>
+      <c r="D162" s="63"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="38" t="s">
+      <c r="G162" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="60"/>
-      <c r="B163" s="60"/>
+      <c r="A163" s="72"/>
+      <c r="B163" s="72"/>
       <c r="C163" s="77"/>
-      <c r="D163" s="64"/>
+      <c r="D163" s="63"/>
       <c r="E163" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="38" t="s">
+      <c r="G163" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="60"/>
-      <c r="B164" s="60"/>
+      <c r="A164" s="72"/>
+      <c r="B164" s="72"/>
       <c r="C164" s="77"/>
-      <c r="D164" s="64"/>
+      <c r="D164" s="63"/>
       <c r="E164" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="60"/>
-      <c r="B165" s="60"/>
+      <c r="A165" s="72"/>
+      <c r="B165" s="72"/>
       <c r="C165" s="77"/>
-      <c r="D165" s="64"/>
+      <c r="D165" s="63"/>
       <c r="E165" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="38" t="s">
+      <c r="G165" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="60"/>
-      <c r="B166" s="60"/>
+      <c r="A166" s="72"/>
+      <c r="B166" s="72"/>
       <c r="C166" s="77"/>
-      <c r="D166" s="64"/>
+      <c r="D166" s="63"/>
       <c r="E166" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="60"/>
-      <c r="B167" s="60"/>
+      <c r="A167" s="72"/>
+      <c r="B167" s="72"/>
       <c r="C167" s="77"/>
-      <c r="D167" s="64"/>
+      <c r="D167" s="63"/>
       <c r="E167" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="44" t="s">
+      <c r="G167" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="60"/>
-      <c r="B168" s="60"/>
+      <c r="A168" s="72"/>
+      <c r="B168" s="72"/>
       <c r="C168" s="77"/>
-      <c r="D168" s="74" t="s">
+      <c r="D168" s="75" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5367,154 +5373,154 @@
       <c r="F168" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="38" t="s">
+      <c r="G168" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="60"/>
-      <c r="B169" s="60"/>
+      <c r="A169" s="72"/>
+      <c r="B169" s="72"/>
       <c r="C169" s="77"/>
-      <c r="D169" s="74"/>
+      <c r="D169" s="75"/>
       <c r="E169" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="38" t="s">
+      <c r="G169" s="37" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="60"/>
-      <c r="B170" s="60"/>
+      <c r="A170" s="72"/>
+      <c r="B170" s="72"/>
       <c r="C170" s="77"/>
-      <c r="D170" s="74"/>
+      <c r="D170" s="75"/>
       <c r="E170" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="11"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="60"/>
-      <c r="B171" s="60"/>
+      <c r="A171" s="72"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="77"/>
-      <c r="D171" s="74"/>
+      <c r="D171" s="75"/>
       <c r="E171" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="11"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="60"/>
-      <c r="B172" s="60"/>
+      <c r="A172" s="72"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="77"/>
-      <c r="D172" s="74"/>
+      <c r="D172" s="75"/>
       <c r="E172" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="38" t="s">
+      <c r="G172" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="60"/>
-      <c r="B173" s="60"/>
+      <c r="A173" s="72"/>
+      <c r="B173" s="72"/>
       <c r="C173" s="77"/>
-      <c r="D173" s="74"/>
+      <c r="D173" s="75"/>
       <c r="E173" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="38" t="s">
+      <c r="G173" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="60"/>
-      <c r="B174" s="60"/>
+      <c r="A174" s="72"/>
+      <c r="B174" s="72"/>
       <c r="C174" s="77"/>
-      <c r="D174" s="74"/>
+      <c r="D174" s="75"/>
       <c r="E174" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="60"/>
-      <c r="B175" s="60"/>
+      <c r="A175" s="72"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="77"/>
-      <c r="D175" s="74"/>
+      <c r="D175" s="75"/>
       <c r="E175" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="60"/>
-      <c r="B176" s="60"/>
+      <c r="A176" s="72"/>
+      <c r="B176" s="72"/>
       <c r="C176" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="64"/>
+      <c r="D176" s="63"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="38" t="s">
+      <c r="G176" s="37" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="60"/>
-      <c r="B177" s="60"/>
+      <c r="A177" s="72"/>
+      <c r="B177" s="72"/>
       <c r="C177" s="76"/>
-      <c r="D177" s="64"/>
+      <c r="D177" s="63"/>
       <c r="E177" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G177" s="38" t="s">
+      <c r="G177" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="60"/>
-      <c r="B178" s="60"/>
+      <c r="A178" s="72"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="76"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="51" t="s">
+      <c r="D178" s="63"/>
+      <c r="E178" s="50" t="s">
         <v>444</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G178" s="44" t="s">
+      <c r="G178" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="60"/>
-      <c r="B179" s="60"/>
+      <c r="A179" s="72"/>
+      <c r="B179" s="72"/>
       <c r="C179" s="76"/>
-      <c r="D179" s="64"/>
+      <c r="D179" s="63"/>
       <c r="E179" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G179" s="44" t="s">
+      <c r="G179" s="43" t="s">
         <v>140</v>
       </c>
       <c r="I179" s="18" t="s">
@@ -5522,162 +5528,162 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="60"/>
-      <c r="B180" s="60"/>
+      <c r="A180" s="72"/>
+      <c r="B180" s="72"/>
       <c r="C180" s="76"/>
-      <c r="D180" s="64"/>
+      <c r="D180" s="63"/>
       <c r="E180" s="15" t="s">
         <v>142</v>
       </c>
       <c r="F180" s="15"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="60"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="75" t="s">
+      <c r="A181" s="72"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="D181" s="64"/>
+      <c r="D181" s="63"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G181" s="38" t="s">
+      <c r="G181" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="60"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="64"/>
+      <c r="A182" s="72"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="63"/>
       <c r="E182" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F182" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G182" s="38" t="s">
+      <c r="G182" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="60"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="64"/>
+      <c r="A183" s="72"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="63"/>
       <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F183" s="11"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="60"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="64"/>
+      <c r="A184" s="72"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="63"/>
       <c r="E184" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G184" s="38" t="s">
+      <c r="G184" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="60"/>
-      <c r="B185" s="60"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="64"/>
+      <c r="A185" s="72"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="63"/>
       <c r="E185" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G185" s="38" t="s">
+      <c r="G185" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="60"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="64"/>
+      <c r="A186" s="72"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="63"/>
       <c r="E186" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="11"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="60"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="75"/>
-      <c r="D187" s="64"/>
+      <c r="A187" s="72"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="74"/>
+      <c r="D187" s="63"/>
       <c r="E187" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F187" s="11"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="60"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="64"/>
+      <c r="A188" s="72"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="63"/>
       <c r="E188" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F188" s="11"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="60"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="75"/>
-      <c r="D189" s="64"/>
+      <c r="A189" s="72"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="63"/>
       <c r="E189" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F189" s="11"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="60"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="75"/>
-      <c r="D190" s="64"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="74"/>
+      <c r="D190" s="63"/>
       <c r="E190" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F190" s="11"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="60"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="75"/>
-      <c r="D191" s="64"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="74"/>
+      <c r="D191" s="63"/>
       <c r="E191" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="60"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="75"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="30" t="s">
+      <c r="A192" s="72"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="30"/>
+      <c r="F192" s="29"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="60"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="75"/>
-      <c r="D193" s="74" t="s">
+      <c r="A193" s="72"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="75" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5686,98 +5692,98 @@
       <c r="F193" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G193" s="38" t="s">
+      <c r="G193" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I193" s="40" t="s">
+      <c r="I193" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="60"/>
-      <c r="B194" s="60"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="74"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="72"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="75"/>
       <c r="E194" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="11"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="60"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="74"/>
+      <c r="A195" s="72"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="75"/>
       <c r="E195" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="11"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="60"/>
-      <c r="B196" s="60"/>
-      <c r="C196" s="75"/>
-      <c r="D196" s="74"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="75"/>
       <c r="E196" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G196" s="38" t="s">
+      <c r="G196" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="60"/>
-      <c r="B197" s="60"/>
-      <c r="C197" s="75"/>
-      <c r="D197" s="74"/>
+      <c r="A197" s="72"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="75"/>
       <c r="E197" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G197" s="38" t="s">
+      <c r="G197" s="37" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="60"/>
-      <c r="B198" s="60"/>
-      <c r="C198" s="75"/>
-      <c r="D198" s="74"/>
+      <c r="A198" s="72"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="75"/>
       <c r="E198" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="11"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="60"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="74"/>
+      <c r="A199" s="72"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="75"/>
       <c r="E199" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="11"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="60"/>
-      <c r="B200" s="60"/>
-      <c r="C200" s="75"/>
-      <c r="D200" s="74"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="75"/>
       <c r="E200" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="15"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="60"/>
-      <c r="B201" s="60"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="70" t="s">
+      <c r="A201" s="72"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="75" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5786,60 +5792,60 @@
       <c r="F201" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="60"/>
-      <c r="B202" s="60"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="70"/>
+      <c r="A202" s="72"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="74"/>
+      <c r="D202" s="75"/>
       <c r="E202" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="60"/>
-      <c r="B203" s="60"/>
-      <c r="C203" s="75"/>
-      <c r="D203" s="70"/>
+      <c r="A203" s="72"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="74"/>
+      <c r="D203" s="75"/>
       <c r="E203" s="11" t="s">
         <v>159</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="60"/>
-      <c r="B204" s="60"/>
-      <c r="C204" s="75"/>
-      <c r="D204" s="70"/>
+      <c r="A204" s="72"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="75"/>
       <c r="E204" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F204" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G204" s="18" t="s">
+      <c r="G204" s="43" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="60"/>
-      <c r="B205" s="60"/>
-      <c r="C205" s="75"/>
-      <c r="D205" s="70" t="s">
+      <c r="A205" s="72"/>
+      <c r="B205" s="72"/>
+      <c r="C205" s="74"/>
+      <c r="D205" s="68" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5853,10 +5859,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="60"/>
-      <c r="B206" s="60"/>
-      <c r="C206" s="75"/>
-      <c r="D206" s="70"/>
+      <c r="A206" s="72"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="68"/>
       <c r="E206" s="11" t="s">
         <v>49</v>
       </c>
@@ -5868,10 +5874,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="60"/>
-      <c r="B207" s="60"/>
-      <c r="C207" s="75"/>
-      <c r="D207" s="70"/>
+      <c r="A207" s="72"/>
+      <c r="B207" s="72"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="68"/>
       <c r="E207" s="11" t="s">
         <v>50</v>
       </c>
@@ -5883,315 +5889,315 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="60"/>
-      <c r="B208" s="60"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="70"/>
+      <c r="A208" s="72"/>
+      <c r="B208" s="72"/>
+      <c r="C208" s="74"/>
+      <c r="D208" s="68"/>
       <c r="E208" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F208" s="11"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="60"/>
-      <c r="B209" s="60"/>
-      <c r="C209" s="75"/>
-      <c r="D209" s="70"/>
+      <c r="A209" s="72"/>
+      <c r="B209" s="72"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="68"/>
       <c r="E209" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="60"/>
-      <c r="B210" s="60"/>
+      <c r="A210" s="72"/>
+      <c r="B210" s="72"/>
       <c r="C210" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="64"/>
+      <c r="D210" s="63"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F210" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="38" t="s">
+      <c r="G210" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="60"/>
-      <c r="B211" s="60"/>
+      <c r="A211" s="72"/>
+      <c r="B211" s="72"/>
       <c r="C211" s="76"/>
-      <c r="D211" s="64"/>
+      <c r="D211" s="63"/>
       <c r="E211" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G211" s="38" t="s">
+      <c r="G211" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="60"/>
-      <c r="B212" s="60"/>
+      <c r="A212" s="72"/>
+      <c r="B212" s="72"/>
       <c r="C212" s="76"/>
-      <c r="D212" s="64"/>
+      <c r="D212" s="63"/>
       <c r="E212" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F212" s="11"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="60"/>
-      <c r="B213" s="60"/>
+      <c r="A213" s="72"/>
+      <c r="B213" s="72"/>
       <c r="C213" s="76"/>
-      <c r="D213" s="64"/>
+      <c r="D213" s="63"/>
       <c r="E213" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G213" s="38" t="s">
+      <c r="G213" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="60"/>
-      <c r="B214" s="60"/>
+      <c r="A214" s="72"/>
+      <c r="B214" s="72"/>
       <c r="C214" s="76"/>
-      <c r="D214" s="64"/>
+      <c r="D214" s="63"/>
       <c r="E214" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G214" s="49" t="s">
+      <c r="G214" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="60"/>
-      <c r="B215" s="60"/>
+      <c r="A215" s="72"/>
+      <c r="B215" s="72"/>
       <c r="C215" s="76"/>
-      <c r="D215" s="64"/>
+      <c r="D215" s="63"/>
       <c r="E215" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F215" s="11"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="60"/>
-      <c r="B216" s="60"/>
+      <c r="A216" s="72"/>
+      <c r="B216" s="72"/>
       <c r="C216" s="76"/>
-      <c r="D216" s="64"/>
+      <c r="D216" s="63"/>
       <c r="E216" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F216" s="11"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="60"/>
-      <c r="B217" s="60"/>
+      <c r="A217" s="72"/>
+      <c r="B217" s="72"/>
       <c r="C217" s="76"/>
-      <c r="D217" s="64"/>
+      <c r="D217" s="63"/>
       <c r="E217" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F217" s="11"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="60"/>
-      <c r="B218" s="60"/>
+      <c r="A218" s="72"/>
+      <c r="B218" s="72"/>
       <c r="C218" s="76"/>
-      <c r="D218" s="64"/>
+      <c r="D218" s="63"/>
       <c r="E218" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F218" s="11"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="60"/>
-      <c r="B219" s="60"/>
+      <c r="A219" s="72"/>
+      <c r="B219" s="72"/>
       <c r="C219" s="76"/>
-      <c r="D219" s="64"/>
+      <c r="D219" s="63"/>
       <c r="E219" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="60"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="75" t="s">
+      <c r="A220" s="72"/>
+      <c r="B220" s="72"/>
+      <c r="C220" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D220" s="69"/>
+      <c r="D220" s="63"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F220" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="60"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="75"/>
-      <c r="D221" s="69"/>
+      <c r="A221" s="72"/>
+      <c r="B221" s="72"/>
+      <c r="C221" s="76"/>
+      <c r="D221" s="63"/>
       <c r="E221" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F221" s="11"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="60"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="75"/>
-      <c r="D222" s="69"/>
+      <c r="A222" s="72"/>
+      <c r="B222" s="72"/>
+      <c r="C222" s="76"/>
+      <c r="D222" s="63"/>
       <c r="E222" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F222" s="11"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="60"/>
-      <c r="B223" s="60"/>
-      <c r="C223" s="75"/>
-      <c r="D223" s="69"/>
+      <c r="A223" s="72"/>
+      <c r="B223" s="72"/>
+      <c r="C223" s="76"/>
+      <c r="D223" s="63"/>
       <c r="E223" s="22" t="s">
         <v>167</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G223" s="18" t="s">
+      <c r="G223" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="60"/>
-      <c r="B224" s="60"/>
-      <c r="C224" s="75"/>
-      <c r="D224" s="69"/>
+      <c r="A224" s="72"/>
+      <c r="B224" s="72"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="63"/>
       <c r="E224" s="11" t="s">
         <v>169</v>
       </c>
       <c r="F224" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G224" s="25" t="s">
+      <c r="G224" s="87" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="60"/>
-      <c r="B225" s="60"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="69"/>
+      <c r="A225" s="72"/>
+      <c r="B225" s="72"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="63"/>
       <c r="E225" s="11" t="s">
         <v>171</v>
       </c>
       <c r="F225" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G225" s="18" t="s">
+      <c r="G225" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="60"/>
-      <c r="B226" s="60"/>
-      <c r="C226" s="75"/>
-      <c r="D226" s="69"/>
+      <c r="A226" s="72"/>
+      <c r="B226" s="72"/>
+      <c r="C226" s="76"/>
+      <c r="D226" s="63"/>
       <c r="E226" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F226" s="29" t="s">
+      <c r="F226" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G226" s="18" t="s">
+      <c r="G226" s="43" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="60"/>
-      <c r="B227" s="60"/>
-      <c r="C227" s="75" t="s">
+      <c r="A227" s="72"/>
+      <c r="B227" s="72"/>
+      <c r="C227" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="69"/>
+      <c r="D227" s="63"/>
       <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F227" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G227" s="7" t="s">
+      <c r="G227" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="I227" s="28" t="s">
+      <c r="I227" s="89" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="60"/>
-      <c r="B228" s="60"/>
-      <c r="C228" s="75"/>
-      <c r="D228" s="69"/>
+      <c r="A228" s="72"/>
+      <c r="B228" s="72"/>
+      <c r="C228" s="76"/>
+      <c r="D228" s="63"/>
       <c r="E228" s="11" t="s">
         <v>179</v>
       </c>
       <c r="F228" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="60"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="75"/>
-      <c r="D229" s="69"/>
+      <c r="A229" s="72"/>
+      <c r="B229" s="72"/>
+      <c r="C229" s="76"/>
+      <c r="D229" s="63"/>
       <c r="E229" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F229" s="11"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="60"/>
-      <c r="B230" s="60"/>
-      <c r="C230" s="75"/>
-      <c r="D230" s="69"/>
+      <c r="A230" s="72"/>
+      <c r="B230" s="72"/>
+      <c r="C230" s="76"/>
+      <c r="D230" s="63"/>
       <c r="E230" s="15" t="s">
         <v>182</v>
       </c>
       <c r="F230" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G230" s="18" t="s">
+      <c r="G230" s="43" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="60"/>
-      <c r="B231" s="60"/>
-      <c r="C231" s="75" t="s">
+      <c r="A231" s="72"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="69"/>
+      <c r="D231" s="66"/>
       <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F231" s="29" t="s">
+      <c r="F231" s="28" t="s">
         <v>186</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -6202,14 +6208,14 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="60"/>
-      <c r="B232" s="60"/>
-      <c r="C232" s="75"/>
-      <c r="D232" s="69"/>
+      <c r="A232" s="72"/>
+      <c r="B232" s="72"/>
+      <c r="C232" s="74"/>
+      <c r="D232" s="66"/>
       <c r="E232" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F232" s="29" t="s">
+      <c r="F232" s="28" t="s">
         <v>186</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -6217,20 +6223,20 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="60"/>
-      <c r="B233" s="60"/>
-      <c r="C233" s="75"/>
-      <c r="D233" s="69"/>
+      <c r="A233" s="72"/>
+      <c r="B233" s="72"/>
+      <c r="C233" s="74"/>
+      <c r="D233" s="66"/>
       <c r="E233" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F233" s="11"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="60"/>
-      <c r="B234" s="60"/>
-      <c r="C234" s="75"/>
-      <c r="D234" s="69"/>
+      <c r="A234" s="72"/>
+      <c r="B234" s="72"/>
+      <c r="C234" s="74"/>
+      <c r="D234" s="66"/>
       <c r="E234" s="15" t="s">
         <v>192</v>
       </c>
@@ -6245,12 +6251,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="60"/>
-      <c r="B235" s="60"/>
-      <c r="C235" s="79" t="s">
+      <c r="A235" s="72"/>
+      <c r="B235" s="72"/>
+      <c r="C235" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="69"/>
+      <c r="D235" s="66"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6262,10 +6268,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="60"/>
-      <c r="B236" s="60"/>
-      <c r="C236" s="79"/>
-      <c r="D236" s="69"/>
+      <c r="A236" s="72"/>
+      <c r="B236" s="72"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="66"/>
       <c r="E236" s="11" t="s">
         <v>28</v>
       </c>
@@ -6277,10 +6283,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="60"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="79"/>
-      <c r="D237" s="69"/>
+      <c r="A237" s="72"/>
+      <c r="B237" s="72"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="66"/>
       <c r="E237" s="11" t="s">
         <v>200</v>
       </c>
@@ -6292,10 +6298,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="60"/>
-      <c r="B238" s="60"/>
-      <c r="C238" s="79"/>
-      <c r="D238" s="69"/>
+      <c r="A238" s="72"/>
+      <c r="B238" s="72"/>
+      <c r="C238" s="67"/>
+      <c r="D238" s="66"/>
       <c r="E238" s="11" t="s">
         <v>202</v>
       </c>
@@ -6307,51 +6313,51 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="60"/>
-      <c r="B239" s="60"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="69"/>
+      <c r="A239" s="72"/>
+      <c r="B239" s="72"/>
+      <c r="C239" s="67"/>
+      <c r="D239" s="66"/>
       <c r="E239" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="11"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="60"/>
-      <c r="B240" s="60"/>
-      <c r="C240" s="79"/>
-      <c r="D240" s="69"/>
+      <c r="A240" s="72"/>
+      <c r="B240" s="72"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="66"/>
       <c r="E240" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="11"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="60"/>
-      <c r="B241" s="60"/>
-      <c r="C241" s="79"/>
-      <c r="D241" s="69"/>
+      <c r="A241" s="72"/>
+      <c r="B241" s="72"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="66"/>
       <c r="E241" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="11"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="60"/>
-      <c r="B242" s="60"/>
-      <c r="C242" s="79"/>
-      <c r="D242" s="69"/>
+      <c r="A242" s="72"/>
+      <c r="B242" s="72"/>
+      <c r="C242" s="67"/>
+      <c r="D242" s="66"/>
       <c r="E242" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="11"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="60"/>
-      <c r="B243" s="60"/>
-      <c r="C243" s="79"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="30" t="s">
+      <c r="A243" s="72"/>
+      <c r="B243" s="72"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="66"/>
+      <c r="E243" s="29" t="s">
         <v>206</v>
       </c>
       <c r="F243" s="1" t="s">
@@ -6362,10 +6368,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="60"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="79"/>
-      <c r="D244" s="70" t="s">
+      <c r="A244" s="72"/>
+      <c r="B244" s="72"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="68" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6379,40 +6385,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="60"/>
-      <c r="B245" s="60"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="70"/>
+      <c r="A245" s="72"/>
+      <c r="B245" s="72"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="68"/>
       <c r="E245" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="11"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="60"/>
-      <c r="B246" s="60"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="70"/>
+      <c r="A246" s="72"/>
+      <c r="B246" s="72"/>
+      <c r="C246" s="67"/>
+      <c r="D246" s="68"/>
       <c r="E246" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F246" s="11"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="60"/>
-      <c r="B247" s="60"/>
-      <c r="C247" s="79"/>
-      <c r="D247" s="70"/>
+      <c r="A247" s="72"/>
+      <c r="B247" s="72"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="68"/>
       <c r="E247" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="60"/>
-      <c r="B248" s="60"/>
-      <c r="C248" s="79"/>
-      <c r="D248" s="70"/>
+      <c r="A248" s="72"/>
+      <c r="B248" s="72"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="68"/>
       <c r="E248" s="22" t="s">
         <v>223</v>
       </c>
@@ -6424,10 +6430,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="60"/>
-      <c r="B249" s="60"/>
-      <c r="C249" s="79"/>
-      <c r="D249" s="70"/>
+      <c r="A249" s="72"/>
+      <c r="B249" s="72"/>
+      <c r="C249" s="67"/>
+      <c r="D249" s="68"/>
       <c r="E249" s="15" t="s">
         <v>129</v>
       </c>
@@ -6439,105 +6445,105 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="60"/>
-      <c r="B250" s="60"/>
-      <c r="C250" s="67" t="s">
+      <c r="A250" s="72"/>
+      <c r="B250" s="72"/>
+      <c r="C250" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="72"/>
-      <c r="E250" s="33" t="s">
+      <c r="D250" s="70"/>
+      <c r="E250" s="32" t="s">
         <v>225</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G250" s="57" t="s">
+      <c r="G250" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="I250" s="58" t="s">
+      <c r="I250" s="57" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="60"/>
-      <c r="B251" s="60"/>
-      <c r="C251" s="67"/>
-      <c r="D251" s="72"/>
+      <c r="A251" s="72"/>
+      <c r="B251" s="72"/>
+      <c r="C251" s="69"/>
+      <c r="D251" s="70"/>
       <c r="E251" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G251" s="46" t="s">
+      <c r="G251" s="45" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="60"/>
-      <c r="B252" s="60"/>
-      <c r="C252" s="67"/>
-      <c r="D252" s="72"/>
+      <c r="A252" s="72"/>
+      <c r="B252" s="72"/>
+      <c r="C252" s="69"/>
+      <c r="D252" s="70"/>
       <c r="E252" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G252" s="46" t="s">
+      <c r="G252" s="45" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="60"/>
-      <c r="B253" s="60"/>
-      <c r="C253" s="67"/>
-      <c r="D253" s="72"/>
+      <c r="A253" s="72"/>
+      <c r="B253" s="72"/>
+      <c r="C253" s="69"/>
+      <c r="D253" s="70"/>
       <c r="E253" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G253" s="46" t="s">
+      <c r="G253" s="45" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="60"/>
-      <c r="B254" s="60"/>
-      <c r="C254" s="67"/>
-      <c r="D254" s="72"/>
+      <c r="A254" s="72"/>
+      <c r="B254" s="72"/>
+      <c r="C254" s="69"/>
+      <c r="D254" s="70"/>
       <c r="E254" s="11" t="s">
         <v>235</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G254" s="46" t="s">
+      <c r="G254" s="45" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="60"/>
-      <c r="B255" s="60"/>
-      <c r="C255" s="67"/>
-      <c r="D255" s="72"/>
+      <c r="A255" s="72"/>
+      <c r="B255" s="72"/>
+      <c r="C255" s="69"/>
+      <c r="D255" s="70"/>
       <c r="E255" s="15" t="s">
         <v>237</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G255" s="46" t="s">
+      <c r="G255" s="45" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="60"/>
-      <c r="B256" s="60"/>
-      <c r="C256" s="67"/>
-      <c r="D256" s="80" t="s">
+      <c r="A256" s="72"/>
+      <c r="B256" s="72"/>
+      <c r="C256" s="69"/>
+      <c r="D256" s="71" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6546,105 +6552,105 @@
       <c r="F256" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G256" s="46" t="s">
+      <c r="G256" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="60"/>
-      <c r="B257" s="60"/>
-      <c r="C257" s="67"/>
-      <c r="D257" s="80"/>
+      <c r="A257" s="72"/>
+      <c r="B257" s="72"/>
+      <c r="C257" s="69"/>
+      <c r="D257" s="71"/>
       <c r="E257" s="11" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="11"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="60"/>
-      <c r="B258" s="60"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="80"/>
+      <c r="A258" s="72"/>
+      <c r="B258" s="72"/>
+      <c r="C258" s="69"/>
+      <c r="D258" s="71"/>
       <c r="E258" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="11"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="60"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="80"/>
+      <c r="A259" s="72"/>
+      <c r="B259" s="72"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="71"/>
       <c r="E259" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G259" s="46" t="s">
+      <c r="G259" s="45" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="60"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="67"/>
-      <c r="D260" s="80"/>
+      <c r="A260" s="72"/>
+      <c r="B260" s="72"/>
+      <c r="C260" s="69"/>
+      <c r="D260" s="71"/>
       <c r="E260" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G260" s="46" t="s">
+      <c r="G260" s="45" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="60"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="67"/>
-      <c r="D261" s="80"/>
+      <c r="A261" s="72"/>
+      <c r="B261" s="72"/>
+      <c r="C261" s="69"/>
+      <c r="D261" s="71"/>
       <c r="E261" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="11"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="60"/>
-      <c r="B262" s="60"/>
-      <c r="C262" s="67"/>
-      <c r="D262" s="80"/>
+      <c r="A262" s="72"/>
+      <c r="B262" s="72"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="71"/>
       <c r="E262" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="11"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="60"/>
-      <c r="B263" s="60"/>
-      <c r="C263" s="67"/>
-      <c r="D263" s="80"/>
+      <c r="A263" s="72"/>
+      <c r="B263" s="72"/>
+      <c r="C263" s="69"/>
+      <c r="D263" s="71"/>
       <c r="E263" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="11"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="60"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="67"/>
-      <c r="D264" s="80"/>
+      <c r="A264" s="72"/>
+      <c r="B264" s="72"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="71"/>
       <c r="E264" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="60"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="67"/>
-      <c r="D265" s="80" t="s">
+      <c r="A265" s="72"/>
+      <c r="B265" s="72"/>
+      <c r="C265" s="69"/>
+      <c r="D265" s="71" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6653,90 +6659,90 @@
       <c r="F265" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G265" s="46" t="s">
+      <c r="G265" s="45" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="60"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="67"/>
-      <c r="D266" s="80"/>
+      <c r="A266" s="72"/>
+      <c r="B266" s="72"/>
+      <c r="C266" s="69"/>
+      <c r="D266" s="71"/>
       <c r="E266" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="11"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="60"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="67"/>
-      <c r="D267" s="80"/>
+      <c r="A267" s="72"/>
+      <c r="B267" s="72"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="71"/>
       <c r="E267" s="22" t="s">
         <v>250</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G267" s="46" t="s">
+      <c r="G267" s="45" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="60"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="67"/>
-      <c r="D268" s="80"/>
+      <c r="A268" s="72"/>
+      <c r="B268" s="72"/>
+      <c r="C268" s="69"/>
+      <c r="D268" s="71"/>
       <c r="E268" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G268" s="46" t="s">
+      <c r="G268" s="45" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="60"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="67"/>
-      <c r="D269" s="80"/>
+      <c r="A269" s="72"/>
+      <c r="B269" s="72"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="71"/>
       <c r="E269" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G269" s="46" t="s">
+      <c r="G269" s="45" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="60"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="67"/>
-      <c r="D270" s="80"/>
+      <c r="A270" s="72"/>
+      <c r="B270" s="72"/>
+      <c r="C270" s="69"/>
+      <c r="D270" s="71"/>
       <c r="E270" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="11"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="60"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="67"/>
-      <c r="D271" s="80"/>
+      <c r="A271" s="72"/>
+      <c r="B271" s="72"/>
+      <c r="C271" s="69"/>
+      <c r="D271" s="71"/>
       <c r="E271" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="60"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="67"/>
-      <c r="D272" s="80" t="s">
+      <c r="A272" s="72"/>
+      <c r="B272" s="72"/>
+      <c r="C272" s="69"/>
+      <c r="D272" s="71" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6745,231 +6751,231 @@
       <c r="F272" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G272" s="46" t="s">
+      <c r="G272" s="45" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="60"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="67"/>
-      <c r="D273" s="80"/>
+      <c r="A273" s="72"/>
+      <c r="B273" s="72"/>
+      <c r="C273" s="69"/>
+      <c r="D273" s="71"/>
       <c r="E273" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G273" s="46" t="s">
+      <c r="G273" s="45" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="60"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="67"/>
-      <c r="D274" s="80"/>
+      <c r="A274" s="72"/>
+      <c r="B274" s="72"/>
+      <c r="C274" s="69"/>
+      <c r="D274" s="71"/>
       <c r="E274" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G274" s="46" t="s">
+      <c r="G274" s="45" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="60"/>
-      <c r="B275" s="60"/>
-      <c r="C275" s="67"/>
-      <c r="D275" s="80"/>
+      <c r="A275" s="72"/>
+      <c r="B275" s="72"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="71"/>
       <c r="E275" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G275" s="46" t="s">
+      <c r="G275" s="45" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="60"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="67"/>
-      <c r="D276" s="80"/>
+      <c r="A276" s="72"/>
+      <c r="B276" s="72"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="71"/>
       <c r="E276" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="11"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="60"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="67"/>
-      <c r="D277" s="80"/>
+      <c r="A277" s="72"/>
+      <c r="B277" s="72"/>
+      <c r="C277" s="69"/>
+      <c r="D277" s="71"/>
       <c r="E277" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="11"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="60"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="67"/>
-      <c r="D278" s="80"/>
+      <c r="A278" s="72"/>
+      <c r="B278" s="72"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="71"/>
       <c r="E278" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="11"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="60"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="67"/>
-      <c r="D279" s="80"/>
+      <c r="A279" s="72"/>
+      <c r="B279" s="72"/>
+      <c r="C279" s="69"/>
+      <c r="D279" s="71"/>
       <c r="E279" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="11"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="60"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="80"/>
+      <c r="A280" s="72"/>
+      <c r="B280" s="72"/>
+      <c r="C280" s="69"/>
+      <c r="D280" s="71"/>
       <c r="E280" s="11" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="11"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="60"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="67"/>
-      <c r="D281" s="80"/>
+      <c r="A281" s="72"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="71"/>
       <c r="E281" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="11"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="60"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="67"/>
-      <c r="D282" s="80"/>
+      <c r="A282" s="72"/>
+      <c r="B282" s="72"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="71"/>
       <c r="E282" s="15" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="60"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="67"/>
-      <c r="D283" s="80" t="s">
+      <c r="A283" s="72"/>
+      <c r="B283" s="72"/>
+      <c r="C283" s="69"/>
+      <c r="D283" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="E283" s="33" t="s">
+      <c r="E283" s="32" t="s">
         <v>259</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G283" s="46" t="s">
+      <c r="G283" s="45" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="60"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="80"/>
+      <c r="A284" s="72"/>
+      <c r="B284" s="72"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="71"/>
       <c r="E284" s="11" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="11"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="60"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="80"/>
+      <c r="A285" s="72"/>
+      <c r="B285" s="72"/>
+      <c r="C285" s="69"/>
+      <c r="D285" s="71"/>
       <c r="E285" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="11"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="60"/>
-      <c r="B286" s="60"/>
-      <c r="C286" s="67"/>
-      <c r="D286" s="80"/>
+      <c r="A286" s="72"/>
+      <c r="B286" s="72"/>
+      <c r="C286" s="69"/>
+      <c r="D286" s="71"/>
       <c r="E286" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G286" s="46" t="s">
+      <c r="G286" s="45" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="60"/>
-      <c r="B287" s="60"/>
-      <c r="C287" s="67"/>
-      <c r="D287" s="80"/>
+      <c r="A287" s="72"/>
+      <c r="B287" s="72"/>
+      <c r="C287" s="69"/>
+      <c r="D287" s="71"/>
       <c r="E287" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="11"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="60"/>
-      <c r="B288" s="60"/>
-      <c r="C288" s="67"/>
-      <c r="D288" s="80"/>
+      <c r="A288" s="72"/>
+      <c r="B288" s="72"/>
+      <c r="C288" s="69"/>
+      <c r="D288" s="71"/>
       <c r="E288" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G288" s="46" t="s">
+      <c r="G288" s="45" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="60"/>
-      <c r="B289" s="60"/>
-      <c r="C289" s="67"/>
-      <c r="D289" s="80"/>
+      <c r="A289" s="72"/>
+      <c r="B289" s="72"/>
+      <c r="C289" s="69"/>
+      <c r="D289" s="71"/>
       <c r="E289" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="11"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="60"/>
-      <c r="B290" s="60"/>
-      <c r="C290" s="67"/>
-      <c r="D290" s="80"/>
+      <c r="A290" s="72"/>
+      <c r="B290" s="72"/>
+      <c r="C290" s="69"/>
+      <c r="D290" s="71"/>
       <c r="E290" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="68" t="s">
+      <c r="B291" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="69"/>
+      <c r="C291" s="65"/>
+      <c r="D291" s="66"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6981,10 +6987,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="68"/>
-      <c r="B292" s="68"/>
-      <c r="C292" s="78"/>
-      <c r="D292" s="69"/>
+      <c r="A292" s="64"/>
+      <c r="B292" s="64"/>
+      <c r="C292" s="65"/>
+      <c r="D292" s="66"/>
       <c r="E292" s="11" t="s">
         <v>270</v>
       </c>
@@ -6996,10 +7002,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="68"/>
-      <c r="B293" s="68"/>
-      <c r="C293" s="78"/>
-      <c r="D293" s="69"/>
+      <c r="A293" s="64"/>
+      <c r="B293" s="64"/>
+      <c r="C293" s="65"/>
+      <c r="D293" s="66"/>
       <c r="E293" s="11" t="s">
         <v>272</v>
       </c>
@@ -7011,10 +7017,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="68"/>
-      <c r="B294" s="68"/>
-      <c r="C294" s="78"/>
-      <c r="D294" s="69"/>
+      <c r="A294" s="64"/>
+      <c r="B294" s="64"/>
+      <c r="C294" s="65"/>
+      <c r="D294" s="66"/>
       <c r="E294" s="11" t="s">
         <v>274</v>
       </c>
@@ -7026,22 +7032,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="68"/>
-      <c r="B295" s="68"/>
-      <c r="C295" s="78"/>
-      <c r="D295" s="69"/>
+      <c r="A295" s="64"/>
+      <c r="B295" s="64"/>
+      <c r="C295" s="65"/>
+      <c r="D295" s="66"/>
       <c r="E295" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="68"/>
-      <c r="B296" s="68" t="s">
+      <c r="A296" s="64"/>
+      <c r="B296" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="78"/>
-      <c r="D296" s="69"/>
+      <c r="C296" s="65"/>
+      <c r="D296" s="66"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -7053,10 +7059,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="68"/>
-      <c r="B297" s="68"/>
-      <c r="C297" s="78"/>
-      <c r="D297" s="69"/>
+      <c r="A297" s="64"/>
+      <c r="B297" s="64"/>
+      <c r="C297" s="65"/>
+      <c r="D297" s="66"/>
       <c r="E297" s="11" t="s">
         <v>280</v>
       </c>
@@ -7068,10 +7074,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="68"/>
-      <c r="B298" s="68"/>
-      <c r="C298" s="78"/>
-      <c r="D298" s="69"/>
+      <c r="A298" s="64"/>
+      <c r="B298" s="64"/>
+      <c r="C298" s="65"/>
+      <c r="D298" s="66"/>
       <c r="E298" s="11" t="s">
         <v>98</v>
       </c>
@@ -7083,10 +7089,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="68"/>
-      <c r="B299" s="68"/>
-      <c r="C299" s="78"/>
-      <c r="D299" s="69"/>
+      <c r="A299" s="64"/>
+      <c r="B299" s="64"/>
+      <c r="C299" s="65"/>
+      <c r="D299" s="66"/>
       <c r="E299" s="11" t="s">
         <v>18</v>
       </c>
@@ -7098,20 +7104,20 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="68"/>
-      <c r="B300" s="68"/>
-      <c r="C300" s="78"/>
-      <c r="D300" s="69"/>
+      <c r="A300" s="64"/>
+      <c r="B300" s="64"/>
+      <c r="C300" s="65"/>
+      <c r="D300" s="66"/>
       <c r="E300" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="11"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="68"/>
-      <c r="B301" s="68"/>
-      <c r="C301" s="78"/>
-      <c r="D301" s="69"/>
+      <c r="A301" s="64"/>
+      <c r="B301" s="64"/>
+      <c r="C301" s="65"/>
+      <c r="D301" s="66"/>
       <c r="E301" s="15" t="s">
         <v>102</v>
       </c>
@@ -7124,68 +7130,68 @@
       <c r="B302" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="63"/>
-      <c r="D302" s="64"/>
+      <c r="C302" s="62"/>
+      <c r="D302" s="63"/>
       <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G302" s="38" t="s">
+      <c r="G302" s="37" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="61"/>
       <c r="B303" s="61"/>
-      <c r="C303" s="63"/>
-      <c r="D303" s="64"/>
+      <c r="C303" s="62"/>
+      <c r="D303" s="63"/>
       <c r="E303" s="11" t="s">
         <v>288</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G303" s="38" t="s">
+      <c r="G303" s="37" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="61"/>
       <c r="B304" s="61"/>
-      <c r="C304" s="63"/>
-      <c r="D304" s="64"/>
+      <c r="C304" s="62"/>
+      <c r="D304" s="63"/>
       <c r="E304" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G304" s="38" t="s">
+      <c r="G304" s="37" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="61"/>
       <c r="B305" s="61"/>
-      <c r="C305" s="63"/>
-      <c r="D305" s="64"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="63"/>
       <c r="E305" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G305" s="38" t="s">
+      <c r="G305" s="37" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="61"/>
       <c r="B306" s="61"/>
-      <c r="C306" s="63"/>
-      <c r="D306" s="64"/>
+      <c r="C306" s="62"/>
+      <c r="D306" s="63"/>
       <c r="E306" s="15" t="s">
         <v>21</v>
       </c>
@@ -7196,10 +7202,10 @@
       <c r="B307" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C307" s="43" t="s">
+      <c r="C307" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D307" s="55"/>
+      <c r="D307" s="54"/>
       <c r="E307" s="23" t="s">
         <v>24</v>
       </c>
@@ -7211,14 +7217,14 @@
       <c r="C308" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="D308" s="64"/>
+      <c r="D308" s="63"/>
       <c r="E308" s="11" t="s">
         <v>294</v>
       </c>
       <c r="F308" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G308" s="38" t="s">
+      <c r="G308" s="37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7226,14 +7232,14 @@
       <c r="A309" s="61"/>
       <c r="B309" s="61"/>
       <c r="C309" s="61"/>
-      <c r="D309" s="64"/>
+      <c r="D309" s="63"/>
       <c r="E309" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G309" s="38" t="s">
+      <c r="G309" s="37" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7241,14 +7247,14 @@
       <c r="A310" s="61"/>
       <c r="B310" s="61"/>
       <c r="C310" s="61"/>
-      <c r="D310" s="64"/>
+      <c r="D310" s="63"/>
       <c r="E310" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G310" s="38" t="s">
+      <c r="G310" s="37" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7256,7 +7262,7 @@
       <c r="A311" s="61"/>
       <c r="B311" s="61"/>
       <c r="C311" s="61"/>
-      <c r="D311" s="64"/>
+      <c r="D311" s="63"/>
       <c r="E311" s="11" t="s">
         <v>296</v>
       </c>
@@ -7266,7 +7272,7 @@
       <c r="A312" s="61"/>
       <c r="B312" s="61"/>
       <c r="C312" s="61"/>
-      <c r="D312" s="64"/>
+      <c r="D312" s="63"/>
       <c r="E312" s="11" t="s">
         <v>297</v>
       </c>
@@ -7276,7 +7282,7 @@
       <c r="A313" s="61"/>
       <c r="B313" s="61"/>
       <c r="C313" s="61"/>
-      <c r="D313" s="64"/>
+      <c r="D313" s="63"/>
       <c r="E313" s="15" t="s">
         <v>46</v>
       </c>
@@ -7288,14 +7294,14 @@
       <c r="C314" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="64"/>
+      <c r="D314" s="63"/>
       <c r="E314" s="7" t="s">
         <v>217</v>
       </c>
       <c r="F314" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G314" s="38" t="s">
+      <c r="G314" s="37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7303,14 +7309,14 @@
       <c r="A315" s="61"/>
       <c r="B315" s="61"/>
       <c r="C315" s="61"/>
-      <c r="D315" s="64"/>
+      <c r="D315" s="63"/>
       <c r="E315" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F315" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G315" s="38" t="s">
+      <c r="G315" s="37" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7318,14 +7324,14 @@
       <c r="A316" s="61"/>
       <c r="B316" s="61"/>
       <c r="C316" s="61"/>
-      <c r="D316" s="64"/>
+      <c r="D316" s="63"/>
       <c r="E316" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="38" t="s">
+      <c r="G316" s="37" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7333,7 +7339,7 @@
       <c r="A317" s="61"/>
       <c r="B317" s="61"/>
       <c r="C317" s="61"/>
-      <c r="D317" s="64"/>
+      <c r="D317" s="63"/>
       <c r="E317" s="11" t="s">
         <v>299</v>
       </c>
@@ -7343,7 +7349,7 @@
       <c r="A318" s="61"/>
       <c r="B318" s="61"/>
       <c r="C318" s="61"/>
-      <c r="D318" s="64"/>
+      <c r="D318" s="63"/>
       <c r="E318" s="11" t="s">
         <v>51</v>
       </c>
@@ -7353,7 +7359,7 @@
       <c r="A319" s="61"/>
       <c r="B319" s="61"/>
       <c r="C319" s="61"/>
-      <c r="D319" s="64"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="15" t="s">
         <v>46</v>
       </c>
@@ -7366,68 +7372,68 @@
       <c r="B320" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="63"/>
-      <c r="D320" s="64"/>
+      <c r="C320" s="62"/>
+      <c r="D320" s="63"/>
       <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F320" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G320" s="38" t="s">
+      <c r="G320" s="37" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="61"/>
       <c r="B321" s="61"/>
-      <c r="C321" s="63"/>
-      <c r="D321" s="64"/>
+      <c r="C321" s="62"/>
+      <c r="D321" s="63"/>
       <c r="E321" s="11" t="s">
         <v>304</v>
       </c>
       <c r="F321" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G321" s="38" t="s">
+      <c r="G321" s="37" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="61"/>
       <c r="B322" s="61"/>
-      <c r="C322" s="63"/>
-      <c r="D322" s="64"/>
+      <c r="C322" s="62"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="11" t="s">
         <v>306</v>
       </c>
       <c r="F322" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G322" s="38" t="s">
+      <c r="G322" s="37" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="61"/>
       <c r="B323" s="61"/>
-      <c r="C323" s="63"/>
-      <c r="D323" s="64"/>
+      <c r="C323" s="62"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="11" t="s">
         <v>308</v>
       </c>
       <c r="F323" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G323" s="38" t="s">
+      <c r="G323" s="37" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="61"/>
       <c r="B324" s="61"/>
-      <c r="C324" s="63"/>
-      <c r="D324" s="64"/>
+      <c r="C324" s="62"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="15" t="s">
         <v>21</v>
       </c>
@@ -7438,10 +7444,10 @@
       <c r="B325" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C325" s="43" t="s">
+      <c r="C325" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D325" s="56"/>
+      <c r="D325" s="55"/>
       <c r="E325" s="23" t="s">
         <v>24</v>
       </c>
@@ -7453,14 +7459,14 @@
       <c r="C326" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D326" s="64"/>
+      <c r="D326" s="63"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G326" s="38" t="s">
+      <c r="G326" s="37" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7468,7 +7474,7 @@
       <c r="A327" s="61"/>
       <c r="B327" s="61"/>
       <c r="C327" s="61"/>
-      <c r="D327" s="64"/>
+      <c r="D327" s="63"/>
       <c r="E327" s="11" t="s">
         <v>313</v>
       </c>
@@ -7478,7 +7484,7 @@
       <c r="A328" s="61"/>
       <c r="B328" s="61"/>
       <c r="C328" s="61"/>
-      <c r="D328" s="64"/>
+      <c r="D328" s="63"/>
       <c r="E328" s="11" t="s">
         <v>314</v>
       </c>
@@ -7488,7 +7494,7 @@
       <c r="A329" s="61"/>
       <c r="B329" s="61"/>
       <c r="C329" s="61"/>
-      <c r="D329" s="64"/>
+      <c r="D329" s="63"/>
       <c r="E329" s="11" t="s">
         <v>148</v>
       </c>
@@ -7498,7 +7504,7 @@
       <c r="A330" s="61"/>
       <c r="B330" s="61"/>
       <c r="C330" s="61"/>
-      <c r="D330" s="64"/>
+      <c r="D330" s="63"/>
       <c r="E330" s="11" t="s">
         <v>149</v>
       </c>
@@ -7508,7 +7514,7 @@
       <c r="A331" s="61"/>
       <c r="B331" s="61"/>
       <c r="C331" s="61"/>
-      <c r="D331" s="64"/>
+      <c r="D331" s="63"/>
       <c r="E331" s="11" t="s">
         <v>150</v>
       </c>
@@ -7518,7 +7524,7 @@
       <c r="A332" s="61"/>
       <c r="B332" s="61"/>
       <c r="C332" s="61"/>
-      <c r="D332" s="64"/>
+      <c r="D332" s="63"/>
       <c r="E332" s="11" t="s">
         <v>151</v>
       </c>
@@ -7528,19 +7534,19 @@
       <c r="A333" s="61"/>
       <c r="B333" s="61"/>
       <c r="C333" s="61"/>
-      <c r="D333" s="64"/>
+      <c r="D333" s="63"/>
       <c r="E333" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F333" s="11"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="81" t="s">
+      <c r="A334" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="82"/>
-      <c r="C334" s="82"/>
-      <c r="D334" s="82"/>
+      <c r="B334" s="60"/>
+      <c r="C334" s="60"/>
+      <c r="D334" s="60"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7552,10 +7558,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="81"/>
-      <c r="B335" s="81"/>
-      <c r="C335" s="82"/>
-      <c r="D335" s="82"/>
+      <c r="A335" s="59"/>
+      <c r="B335" s="59"/>
+      <c r="C335" s="60"/>
+      <c r="D335" s="60"/>
       <c r="E335" s="11" t="s">
         <v>28</v>
       </c>
@@ -7567,10 +7573,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="81"/>
-      <c r="B336" s="81"/>
-      <c r="C336" s="82"/>
-      <c r="D336" s="82"/>
+      <c r="A336" s="59"/>
+      <c r="B336" s="59"/>
+      <c r="C336" s="60"/>
+      <c r="D336" s="60"/>
       <c r="E336" s="11" t="s">
         <v>320</v>
       </c>
@@ -7582,10 +7588,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="81"/>
-      <c r="B337" s="81"/>
-      <c r="C337" s="82"/>
-      <c r="D337" s="82"/>
+      <c r="A337" s="59"/>
+      <c r="B337" s="59"/>
+      <c r="C337" s="60"/>
+      <c r="D337" s="60"/>
       <c r="E337" s="11" t="s">
         <v>322</v>
       </c>
@@ -7597,10 +7603,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="81"/>
-      <c r="B338" s="81"/>
-      <c r="C338" s="82"/>
-      <c r="D338" s="82"/>
+      <c r="A338" s="59"/>
+      <c r="B338" s="59"/>
+      <c r="C338" s="60"/>
+      <c r="D338" s="60"/>
       <c r="E338" s="11" t="s">
         <v>324</v>
       </c>
@@ -7612,20 +7618,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="81"/>
-      <c r="B339" s="81"/>
-      <c r="C339" s="82"/>
-      <c r="D339" s="82"/>
+      <c r="A339" s="59"/>
+      <c r="B339" s="59"/>
+      <c r="C339" s="60"/>
+      <c r="D339" s="60"/>
       <c r="E339" s="11" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="11"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="81"/>
-      <c r="B340" s="81"/>
-      <c r="C340" s="82"/>
-      <c r="D340" s="82"/>
+      <c r="A340" s="59"/>
+      <c r="B340" s="59"/>
+      <c r="C340" s="60"/>
+      <c r="D340" s="60"/>
       <c r="E340" s="15" t="s">
         <v>46</v>
       </c>
@@ -7634,26 +7640,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7678,67 +7725,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7747,11 +7753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7764,84 +7770,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7852,7 +7858,7 @@
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7863,7 +7869,7 @@
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -7874,7 +7880,7 @@
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7892,189 +7898,198 @@
         <v>337</v>
       </c>
     </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>339</v>
+      </c>
+    </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>339</v>
-      </c>
+      <c r="B66" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="84"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>340</v>
+      <c r="B67" s="37" t="s">
+        <v>341</v>
       </c>
       <c r="C67" s="84"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>341</v>
+      <c r="B68" s="37" t="s">
+        <v>342</v>
       </c>
       <c r="C68" s="84"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>342</v>
+      <c r="B69" s="37" t="s">
+        <v>343</v>
       </c>
       <c r="C69" s="84"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>343</v>
+      <c r="B70" s="37" t="s">
+        <v>344</v>
       </c>
       <c r="C70" s="84"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>344</v>
+      <c r="B71" s="37" t="s">
+        <v>345</v>
       </c>
       <c r="C71" s="84"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>345</v>
+      <c r="B72" s="37" t="s">
+        <v>346</v>
       </c>
       <c r="C72" s="84"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>346</v>
+      <c r="B73" s="37" t="s">
+        <v>347</v>
       </c>
       <c r="C73" s="84"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>347</v>
+      <c r="B74" s="37" t="s">
+        <v>348</v>
       </c>
       <c r="C74" s="84"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>348</v>
+      <c r="B75" s="37" t="s">
+        <v>349</v>
       </c>
       <c r="C75" s="84"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>349</v>
+      <c r="B76" s="37" t="s">
+        <v>350</v>
       </c>
       <c r="C76" s="84"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>350</v>
+      <c r="B77" s="37" t="s">
+        <v>447</v>
       </c>
       <c r="C77" s="84"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="37" t="s">
         <v>351</v>
       </c>
       <c r="C78" s="84"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="37" t="s">
         <v>352</v>
       </c>
       <c r="C79" s="84"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="85" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="C83" s="83"/>
+      <c r="C83" s="85"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="83"/>
+      <c r="C84" s="85"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="83"/>
+      <c r="C85" s="85"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="83"/>
+      <c r="C86" s="85"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="82" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8085,16 +8100,16 @@
       <c r="B90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="83"/>
+      <c r="C90" s="82"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="83"/>
+      <c r="C91" s="82"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8103,7 +8118,7 @@
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="83"/>
+      <c r="C92" s="82"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8112,7 +8127,7 @@
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="83"/>
+      <c r="C93" s="82"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8121,7 +8136,7 @@
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="83"/>
+      <c r="C94" s="82"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8130,7 +8145,7 @@
       <c r="B95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="83"/>
+      <c r="C95" s="82"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8139,7 +8154,7 @@
       <c r="B96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="83"/>
+      <c r="C96" s="82"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8148,7 +8163,7 @@
       <c r="B97" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="83"/>
+      <c r="C97" s="82"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8157,7 +8172,7 @@
       <c r="B98" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="83"/>
+      <c r="C98" s="82"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8166,7 +8181,7 @@
       <c r="B99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="83"/>
+      <c r="C99" s="82"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8175,7 +8190,7 @@
       <c r="B100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="83"/>
+      <c r="C100" s="82"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8184,7 +8199,7 @@
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="83"/>
+      <c r="C101" s="82"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8193,13 +8208,13 @@
       <c r="B102" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="83"/>
+      <c r="C102" s="82"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8215,7 +8230,7 @@
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="34" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8420,134 +8435,134 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="48" t="s">
+      <c r="A141" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="85" t="s">
+      <c r="C141" s="84" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="48" t="s">
+      <c r="A142" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="85"/>
+      <c r="C142" s="84"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="48" t="s">
+      <c r="A143" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="85"/>
+      <c r="C143" s="84"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A144" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="47" t="s">
+      <c r="A144" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="C144" s="86" t="s">
+      <c r="C144" s="85" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="38" t="s">
+      <c r="A145" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="86"/>
+      <c r="C145" s="85"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="38" t="s">
+      <c r="A146" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="37" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="86"/>
+      <c r="C146" s="85"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="38" t="s">
+      <c r="A147" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="86"/>
+      <c r="C147" s="85"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="38" t="s">
+      <c r="A148" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="86"/>
+      <c r="C148" s="85"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="48" t="s">
+      <c r="A149" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="C149" s="86"/>
+      <c r="C149" s="85"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="38" t="s">
+      <c r="A150" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="86"/>
+      <c r="C150" s="85"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="38" t="s">
+      <c r="A151" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="C151" s="86"/>
+      <c r="C151" s="85"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="38" t="s">
+      <c r="A152" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C152" s="86"/>
+      <c r="C152" s="85"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="38" t="s">
+      <c r="A153" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="C153" s="86"/>
+      <c r="C153" s="85"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="36" t="s">
+      <c r="A154" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="C154" s="87" t="s">
+      <c r="C154" s="86" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8558,7 +8573,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="84"/>
+      <c r="C155" s="83"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8567,7 +8582,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="84"/>
+      <c r="C156" s="83"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8576,16 +8591,16 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="84"/>
+      <c r="C157" s="83"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A158" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" s="37" t="s">
+      <c r="A158" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="83" t="s">
+      <c r="C158" s="82" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8593,43 +8608,43 @@
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="83"/>
+      <c r="C159" s="82"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="83"/>
+      <c r="C160" s="82"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="83"/>
+      <c r="C161" s="82"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="83"/>
+      <c r="C162" s="82"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" s="36" t="s">
+      <c r="A163" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="35" t="s">
         <v>428</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -8637,10 +8652,10 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B164" s="36" t="s">
+      <c r="A164" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="35" t="s">
         <v>430</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -8648,10 +8663,10 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="36" t="s">
+      <c r="A165" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="35" t="s">
         <v>432</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -8659,10 +8674,10 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166" s="36" t="s">
+      <c r="A166" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -8670,10 +8685,10 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167" s="36" t="s">
+      <c r="A167" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="35" t="s">
         <v>436</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -8681,10 +8696,10 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="36" t="s">
+      <c r="A168" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="35" t="s">
         <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -8692,10 +8707,10 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169" s="36" t="s">
+      <c r="A169" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="35" t="s">
         <v>440</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -8703,10 +8718,10 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="36" t="s">
+      <c r="A170" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="35" t="s">
         <v>442</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -8716,8 +8731,8 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="7">
+    <mergeCell ref="C65:C79"/>
     <mergeCell ref="C158:C162"/>
-    <mergeCell ref="C66:C79"/>
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="C89:C102"/>
     <mergeCell ref="C141:C143"/>

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1991,7 +1991,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2011,12 +2011,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,43 +2099,49 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,26 +2150,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2173,11 +2173,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="1"/>
@@ -2991,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3096,962 +3094,962 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="80"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="11" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="80"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="80"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="11" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="42" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="80"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="15" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="73" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="11" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="11" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="11" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="11" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="11" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="I14" s="49" t="s">
+      <c r="F14" s="17"/>
+      <c r="I14" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="11" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="15" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="73" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="11" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="37" t="s">
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="11" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="11" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="11" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="11" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="15" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="73" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="11" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="37" t="s">
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="11" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="37" t="s">
+      <c r="F28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="11" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="37" t="s">
+      <c r="F29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="11" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="11" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="11" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="11" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="11" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="15" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="11" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="11" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="11" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="15" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="73" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="64"/>
+      <c r="E41" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="46" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="11" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="11" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="37" t="s">
+      <c r="F44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="22" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="37" t="s">
+      <c r="F45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="72"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="11" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="F46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="72"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="11" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="37" t="s">
+      <c r="F47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="72"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="15" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="16"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="23" t="s">
+      <c r="D49" s="51"/>
+      <c r="E49" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="61"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="64"/>
+      <c r="E51" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="43" t="s">
+      <c r="F51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="64"/>
+      <c r="E52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="37" t="s">
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="61"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="37" t="s">
+      <c r="F53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="64"/>
+      <c r="E54" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="19"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="61"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="64"/>
+      <c r="E55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="19"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="19"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="61"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="64"/>
+      <c r="E57" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="63"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="37" t="s">
+      <c r="F59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="61"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="37" t="s">
+      <c r="F60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="61"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="11" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="37" t="s">
+      <c r="F61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="61"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="64"/>
+      <c r="E62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="19"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="61"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="64"/>
+      <c r="E63" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="48" t="s">
+      <c r="G64" s="46" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="61"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="64"/>
+      <c r="E65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="37" t="s">
+      <c r="F65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="64"/>
+      <c r="E66" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="19"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="61"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="64"/>
+      <c r="E67" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="37" t="s">
+      <c r="F67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="61"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="22" t="s">
+      <c r="D68" s="64"/>
+      <c r="E68" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="72"/>
-      <c r="B69" s="72"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="61"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="15" t="s">
+      <c r="D69" s="64"/>
+      <c r="E69" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F69" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="43" t="s">
+      <c r="F69" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="61"/>
-      <c r="D70" s="81" t="s">
+      <c r="D70" s="66" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4060,328 +4058,328 @@
       <c r="F70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="11" t="s">
+      <c r="D71" s="66"/>
+      <c r="E71" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="37" t="s">
+      <c r="F71" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="61"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="66"/>
+      <c r="E72" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F72" s="19"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="61"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="66"/>
+      <c r="E73" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="19"/>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="11" t="s">
+      <c r="D74" s="66"/>
+      <c r="E74" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="37" t="s">
+      <c r="F74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="61"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="11" t="s">
+      <c r="D75" s="66"/>
+      <c r="E75" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="37" t="s">
+      <c r="F75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
       <c r="C76" s="61"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="66"/>
+      <c r="E76" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="19"/>
+      <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
       <c r="C77" s="61"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="15" t="s">
+      <c r="D77" s="66"/>
+      <c r="E77" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="79" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="63"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="35" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="11" t="s">
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="37" t="s">
+      <c r="F79" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="50" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="51" t="s">
+      <c r="F80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="11" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="43" t="s">
+      <c r="F81" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="51" t="s">
+      <c r="I81" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="15" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="16"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="63"/>
+      <c r="D83" s="64"/>
       <c r="E83" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
-      <c r="B84" s="72"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="61"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="11" t="s">
+      <c r="D84" s="64"/>
+      <c r="E84" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="37" t="s">
+      <c r="F84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I84" s="13"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="61"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="11" t="s">
+      <c r="D85" s="64"/>
+      <c r="E85" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="19"/>
+      <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="61"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="64"/>
+      <c r="E86" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="37" t="s">
+      <c r="F86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="61"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="11" t="s">
+      <c r="D87" s="64"/>
+      <c r="E87" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="37" t="s">
+      <c r="F87" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="61"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="11" t="s">
+      <c r="D88" s="64"/>
+      <c r="E88" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F88" s="19"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="61"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="11" t="s">
+      <c r="D89" s="64"/>
+      <c r="E89" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F89" s="19"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="11" t="s">
+      <c r="D90" s="64"/>
+      <c r="E90" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F90" s="19"/>
+      <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="61"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="11" t="s">
+      <c r="D91" s="64"/>
+      <c r="E91" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="19"/>
+      <c r="F91" s="17"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="61"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="11" t="s">
+      <c r="D92" s="64"/>
+      <c r="E92" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F92" s="19"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="61"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="11" t="s">
+      <c r="D93" s="64"/>
+      <c r="E93" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F93" s="19"/>
+      <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
       <c r="C94" s="61"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="11" t="s">
+      <c r="D94" s="64"/>
+      <c r="E94" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F94" s="19"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
       <c r="C95" s="61"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="15" t="s">
+      <c r="D95" s="64"/>
+      <c r="E95" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F95" s="16"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
       <c r="C96" s="61"/>
-      <c r="D96" s="75" t="s">
+      <c r="D96" s="74" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4390,91 +4388,91 @@
       <c r="F96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="48" t="s">
+      <c r="G96" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="39" t="s">
+      <c r="I96" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="72"/>
-      <c r="B97" s="72"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="61"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="74"/>
+      <c r="E97" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="I97" s="10"/>
+      <c r="F97" s="17"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
       <c r="C98" s="61"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="74"/>
+      <c r="E98" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F98" s="19"/>
-      <c r="I98" s="10"/>
+      <c r="F98" s="17"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
       <c r="C99" s="61"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="74"/>
+      <c r="E99" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="37" t="s">
+      <c r="F99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="72"/>
-      <c r="B100" s="72"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="61"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="74"/>
+      <c r="E100" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="37" t="s">
+      <c r="F100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="61"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="74"/>
+      <c r="E101" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="19"/>
+      <c r="F101" s="17"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="72"/>
-      <c r="B102" s="72"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="61"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="15" t="s">
+      <c r="D102" s="74"/>
+      <c r="E102" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F102" s="16"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="61"/>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="74" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4483,410 +4481,410 @@
       <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="61"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="11" t="s">
+      <c r="D104" s="74"/>
+      <c r="E104" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="72"/>
-      <c r="B105" s="72"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="61"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="74"/>
+      <c r="E105" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="72"/>
-      <c r="B106" s="72"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="61"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="15" t="s">
+      <c r="D106" s="74"/>
+      <c r="E106" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G106" s="51" t="s">
+      <c r="G106" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="I106" s="58" t="s">
+      <c r="I106" s="56" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="73" t="s">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="63"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F107" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="37" t="s">
+      <c r="F107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="11" t="s">
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="37" t="s">
+      <c r="F108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="11" t="s">
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F109" s="11"/>
+      <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="72"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="11" t="s">
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F110" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="37" t="s">
+      <c r="F110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="72"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="11" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="37" t="s">
+      <c r="F111" s="10"/>
+      <c r="G111" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="11" t="s">
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="26"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="72"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="11" t="s">
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="26"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="72"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="11" t="s">
+      <c r="A114" s="60"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="26"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="11" t="s">
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="26"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="72"/>
-      <c r="B116" s="72"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="15" t="s">
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="26"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="72"/>
-      <c r="B117" s="72"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D117" s="63"/>
+      <c r="D117" s="64"/>
       <c r="E117" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="37" t="s">
+      <c r="F117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="72"/>
-      <c r="B118" s="72"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
       <c r="C118" s="61"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="11" t="s">
+      <c r="D118" s="64"/>
+      <c r="E118" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F118" s="11"/>
+      <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="72"/>
-      <c r="B119" s="72"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="61"/>
-      <c r="D119" s="63"/>
-      <c r="E119" s="11" t="s">
+      <c r="D119" s="64"/>
+      <c r="E119" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F119" s="11"/>
+      <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="72"/>
-      <c r="B120" s="72"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="61"/>
-      <c r="D120" s="63"/>
-      <c r="E120" s="22" t="s">
+      <c r="D120" s="64"/>
+      <c r="E120" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="F120" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G120" s="43" t="s">
+      <c r="G120" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="61"/>
-      <c r="D121" s="63"/>
-      <c r="E121" s="11" t="s">
+      <c r="D121" s="64"/>
+      <c r="E121" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F121" s="27" t="s">
+      <c r="F121" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G121" s="87" t="s">
+      <c r="G121" s="57" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="72"/>
-      <c r="B122" s="72"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="61"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="11" t="s">
+      <c r="D122" s="64"/>
+      <c r="E122" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="F122" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G122" s="43" t="s">
+      <c r="G122" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="72"/>
-      <c r="B123" s="72"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="61"/>
-      <c r="D123" s="63"/>
-      <c r="E123" s="15" t="s">
+      <c r="D123" s="64"/>
+      <c r="E123" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F123" s="27" t="s">
+      <c r="F123" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G123" s="43" t="s">
+      <c r="G123" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="72"/>
-      <c r="B124" s="72"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="63"/>
+      <c r="D124" s="64"/>
       <c r="E124" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F124" s="13" t="s">
+      <c r="F124" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G124" s="88" t="s">
+      <c r="G124" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="I124" s="89" t="s">
+      <c r="I124" s="59" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="61"/>
-      <c r="D125" s="63"/>
-      <c r="E125" s="11" t="s">
+      <c r="D125" s="64"/>
+      <c r="E125" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F125" s="13" t="s">
+      <c r="F125" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G125" s="37" t="s">
+      <c r="G125" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="61"/>
-      <c r="D126" s="63"/>
-      <c r="E126" s="11" t="s">
+      <c r="D126" s="64"/>
+      <c r="E126" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F126" s="11"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="72"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="61"/>
-      <c r="D127" s="63"/>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="64"/>
+      <c r="E127" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F127" s="13" t="s">
+      <c r="F127" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G127" s="43" t="s">
+      <c r="G127" s="41" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="72"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="64" t="s">
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="D128" s="66"/>
+      <c r="D128" s="64"/>
       <c r="E128" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="42" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="72"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="11" t="s">
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="72"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="11" t="s">
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="72"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="15" t="s">
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="13" t="s">
         <v>192</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="64" t="s">
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="66"/>
+      <c r="D132" s="69"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4898,11 +4896,11 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="72"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="11" t="s">
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -4913,11 +4911,11 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="72"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="11" t="s">
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="10" t="s">
         <v>200</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -4928,11 +4926,11 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="72"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="11" t="s">
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="10" t="s">
         <v>202</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -4943,59 +4941,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="72"/>
-      <c r="B136" s="72"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="11" t="s">
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F136" s="11"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="72"/>
-      <c r="B137" s="72"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="11" t="s">
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F137" s="11"/>
+      <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="72"/>
-      <c r="B138" s="72"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="11" t="s">
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F138" s="11"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="72"/>
-      <c r="B139" s="72"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="11" t="s">
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F139" s="11"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="72"/>
-      <c r="B140" s="72"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="29" t="s">
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="72"/>
-      <c r="B141" s="72"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="68" t="s">
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="70" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -5009,41 +5007,41 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="72"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="11" t="s">
+      <c r="A142" s="60"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F142" s="11"/>
+      <c r="F142" s="10"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="72"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="11" t="s">
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F143" s="11"/>
+      <c r="F143" s="10"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="72"/>
-      <c r="B144" s="72"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="11" t="s">
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="11"/>
+      <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="72"/>
-      <c r="B145" s="72"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="30" t="s">
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="70"/>
+      <c r="E145" s="28" t="s">
         <v>208</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -5054,11 +5052,11 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="72"/>
-      <c r="B146" s="72"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="11" t="s">
+      <c r="A146" s="60"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="10" t="s">
         <v>129</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -5069,11 +5067,11 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="72"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="15" t="s">
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -5084,124 +5082,124 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="72" t="s">
+      <c r="A148" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="73" t="s">
+      <c r="B148" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="78" t="s">
+      <c r="C148" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="63"/>
+      <c r="D148" s="64"/>
       <c r="E148" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="37" t="s">
+      <c r="G148" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="72"/>
-      <c r="B149" s="73"/>
-      <c r="C149" s="78"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="11" t="s">
+      <c r="A149" s="60"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="10" t="s">
         <v>213</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="37" t="s">
+      <c r="G149" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="72"/>
-      <c r="B150" s="73"/>
-      <c r="C150" s="78"/>
-      <c r="D150" s="63"/>
-      <c r="E150" s="11" t="s">
+      <c r="A150" s="60"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="10" t="s">
         <v>214</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="37" t="s">
+      <c r="G150" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="72"/>
-      <c r="B151" s="73"/>
-      <c r="C151" s="78"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="11" t="s">
+      <c r="A151" s="60"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="37" t="s">
+      <c r="G151" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="72"/>
-      <c r="B152" s="73"/>
-      <c r="C152" s="78"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="11" t="s">
+      <c r="A152" s="60"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F152" s="11"/>
+      <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="72"/>
-      <c r="B153" s="72" t="s">
+      <c r="A153" s="60"/>
+      <c r="B153" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="40" t="s">
+      <c r="C153" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D153" s="54"/>
-      <c r="E153" s="31" t="s">
+      <c r="D153" s="52"/>
+      <c r="E153" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F153" s="31"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="72"/>
-      <c r="B154" s="72"/>
+      <c r="A154" s="60"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D154" s="63"/>
+      <c r="D154" s="64"/>
       <c r="E154" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F154" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="37" t="s">
+      <c r="F154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="72"/>
-      <c r="B155" s="72"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="61"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="11" t="s">
+      <c r="D155" s="64"/>
+      <c r="E155" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F155" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="43" t="s">
+      <c r="F155" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="41" t="s">
         <v>29</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -5209,581 +5207,581 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="72"/>
-      <c r="B156" s="72"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="61"/>
-      <c r="D156" s="63"/>
-      <c r="E156" s="11" t="s">
+      <c r="D156" s="64"/>
+      <c r="E156" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F156" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="37" t="s">
+      <c r="F156" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="72"/>
-      <c r="B157" s="72"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
       <c r="C157" s="61"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="11" t="s">
+      <c r="D157" s="64"/>
+      <c r="E157" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F157" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="37" t="s">
+      <c r="F157" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="72"/>
-      <c r="B158" s="72"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
       <c r="C158" s="61"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="11" t="s">
+      <c r="D158" s="64"/>
+      <c r="E158" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F158" s="11"/>
+      <c r="F158" s="10"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="72"/>
-      <c r="B159" s="72"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
       <c r="C159" s="61"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="11" t="s">
+      <c r="D159" s="64"/>
+      <c r="E159" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F159" s="11"/>
+      <c r="F159" s="10"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="72"/>
-      <c r="B160" s="72"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
       <c r="C160" s="61"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="11" t="s">
+      <c r="D160" s="64"/>
+      <c r="E160" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F160" s="11"/>
+      <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="72"/>
-      <c r="B161" s="72"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
       <c r="C161" s="61"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="15" t="s">
+      <c r="D161" s="64"/>
+      <c r="E161" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F161" s="15"/>
+      <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="72"/>
-      <c r="B162" s="72"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
       <c r="C162" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="63"/>
+      <c r="D162" s="64"/>
       <c r="E162" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F162" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="37" t="s">
+      <c r="F162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="72"/>
-      <c r="B163" s="72"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
       <c r="C163" s="77"/>
-      <c r="D163" s="63"/>
-      <c r="E163" s="11" t="s">
+      <c r="D163" s="64"/>
+      <c r="E163" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F163" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="37" t="s">
+      <c r="F163" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="72"/>
-      <c r="B164" s="72"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
       <c r="C164" s="77"/>
-      <c r="D164" s="63"/>
-      <c r="E164" s="11" t="s">
+      <c r="D164" s="64"/>
+      <c r="E164" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F164" s="11"/>
+      <c r="F164" s="10"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="72"/>
-      <c r="B165" s="72"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
       <c r="C165" s="77"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="11" t="s">
+      <c r="D165" s="64"/>
+      <c r="E165" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F165" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="37" t="s">
+      <c r="F165" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="72"/>
-      <c r="B166" s="72"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
       <c r="C166" s="77"/>
-      <c r="D166" s="63"/>
-      <c r="E166" s="22" t="s">
+      <c r="D166" s="64"/>
+      <c r="E166" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F166" s="10"/>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="72"/>
-      <c r="B167" s="72"/>
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
       <c r="C167" s="77"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="15" t="s">
+      <c r="D167" s="64"/>
+      <c r="E167" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F167" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="43" t="s">
+      <c r="F167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="72"/>
-      <c r="B168" s="72"/>
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
       <c r="C168" s="77"/>
-      <c r="D168" s="75" t="s">
+      <c r="D168" s="74" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F168" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="37" t="s">
+      <c r="F168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="72"/>
-      <c r="B169" s="72"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
       <c r="C169" s="77"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="11" t="s">
+      <c r="D169" s="74"/>
+      <c r="E169" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F169" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="37" t="s">
+      <c r="F169" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="72"/>
-      <c r="B170" s="72"/>
+      <c r="A170" s="60"/>
+      <c r="B170" s="60"/>
       <c r="C170" s="77"/>
-      <c r="D170" s="75"/>
-      <c r="E170" s="11" t="s">
+      <c r="D170" s="74"/>
+      <c r="E170" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F170" s="11"/>
+      <c r="F170" s="10"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="72"/>
-      <c r="B171" s="72"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
       <c r="C171" s="77"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="11" t="s">
+      <c r="D171" s="74"/>
+      <c r="E171" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F171" s="11"/>
+      <c r="F171" s="10"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="72"/>
-      <c r="B172" s="72"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
       <c r="C172" s="77"/>
-      <c r="D172" s="75"/>
-      <c r="E172" s="11" t="s">
+      <c r="D172" s="74"/>
+      <c r="E172" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F172" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="37" t="s">
+      <c r="F172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="72"/>
-      <c r="B173" s="72"/>
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
       <c r="C173" s="77"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="11" t="s">
+      <c r="D173" s="74"/>
+      <c r="E173" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F173" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="37" t="s">
+      <c r="F173" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="72"/>
-      <c r="B174" s="72"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="77"/>
-      <c r="D174" s="75"/>
-      <c r="E174" s="11" t="s">
+      <c r="D174" s="74"/>
+      <c r="E174" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F174" s="11"/>
+      <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="72"/>
-      <c r="B175" s="72"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="77"/>
-      <c r="D175" s="75"/>
-      <c r="E175" s="15" t="s">
+      <c r="D175" s="74"/>
+      <c r="E175" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F175" s="15"/>
+      <c r="F175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="72"/>
-      <c r="B176" s="72"/>
+      <c r="A176" s="60"/>
+      <c r="B176" s="60"/>
       <c r="C176" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="D176" s="63"/>
+      <c r="D176" s="64"/>
       <c r="E176" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F176" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="37" t="s">
+      <c r="F176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="35" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="72"/>
-      <c r="B177" s="72"/>
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="76"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="11" t="s">
+      <c r="D177" s="64"/>
+      <c r="E177" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F177" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="37" t="s">
+      <c r="F177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="72"/>
-      <c r="B178" s="72"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="76"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="50" t="s">
+      <c r="D178" s="64"/>
+      <c r="E178" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="F178" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="43" t="s">
+      <c r="F178" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="41" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="72"/>
-      <c r="B179" s="72"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="76"/>
-      <c r="D179" s="63"/>
-      <c r="E179" s="11" t="s">
+      <c r="D179" s="64"/>
+      <c r="E179" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F179" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="43" t="s">
+      <c r="F179" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I179" s="18" t="s">
+      <c r="I179" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="72"/>
-      <c r="B180" s="72"/>
+      <c r="A180" s="60"/>
+      <c r="B180" s="60"/>
       <c r="C180" s="76"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="15" t="s">
+      <c r="D180" s="64"/>
+      <c r="E180" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F180" s="15"/>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="72"/>
-      <c r="B181" s="72"/>
-      <c r="C181" s="74" t="s">
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D181" s="63"/>
+      <c r="D181" s="64"/>
       <c r="E181" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F181" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" s="37" t="s">
+      <c r="F181" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="72"/>
-      <c r="B182" s="72"/>
-      <c r="C182" s="74"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="11" t="s">
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F182" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="37" t="s">
+      <c r="F182" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="72"/>
-      <c r="B183" s="72"/>
-      <c r="C183" s="74"/>
-      <c r="D183" s="63"/>
-      <c r="E183" s="11" t="s">
+      <c r="A183" s="60"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="75"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F183" s="11"/>
+      <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="72"/>
-      <c r="B184" s="72"/>
-      <c r="C184" s="74"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="11" t="s">
+      <c r="A184" s="60"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="75"/>
+      <c r="D184" s="64"/>
+      <c r="E184" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F184" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="37" t="s">
+      <c r="F184" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="72"/>
-      <c r="B185" s="72"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="63"/>
-      <c r="E185" s="11" t="s">
+      <c r="A185" s="60"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="75"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F185" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="37" t="s">
+      <c r="F185" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="72"/>
-      <c r="B186" s="72"/>
-      <c r="C186" s="74"/>
-      <c r="D186" s="63"/>
-      <c r="E186" s="11" t="s">
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F186" s="11"/>
+      <c r="F186" s="10"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="72"/>
-      <c r="B187" s="72"/>
-      <c r="C187" s="74"/>
-      <c r="D187" s="63"/>
-      <c r="E187" s="11" t="s">
+      <c r="A187" s="60"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="75"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F187" s="11"/>
+      <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="72"/>
-      <c r="B188" s="72"/>
-      <c r="C188" s="74"/>
-      <c r="D188" s="63"/>
-      <c r="E188" s="11" t="s">
+      <c r="A188" s="60"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="75"/>
+      <c r="D188" s="64"/>
+      <c r="E188" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F188" s="11"/>
+      <c r="F188" s="10"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="72"/>
-      <c r="B189" s="72"/>
-      <c r="C189" s="74"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="11" t="s">
+      <c r="A189" s="60"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="75"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F189" s="11"/>
+      <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="72"/>
-      <c r="B190" s="72"/>
-      <c r="C190" s="74"/>
-      <c r="D190" s="63"/>
-      <c r="E190" s="11" t="s">
+      <c r="A190" s="60"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="75"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F190" s="11"/>
+      <c r="F190" s="10"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="72"/>
-      <c r="B191" s="72"/>
-      <c r="C191" s="74"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="11" t="s">
+      <c r="A191" s="60"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="75"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F191" s="11"/>
+      <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="72"/>
-      <c r="B192" s="72"/>
-      <c r="C192" s="74"/>
-      <c r="D192" s="63"/>
-      <c r="E192" s="29" t="s">
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="75"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="29"/>
+      <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="72"/>
-      <c r="B193" s="72"/>
-      <c r="C193" s="74"/>
-      <c r="D193" s="75" t="s">
+      <c r="A193" s="60"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="75"/>
+      <c r="D193" s="74" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F193" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="37" t="s">
+      <c r="F193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I193" s="39" t="s">
+      <c r="I193" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="72"/>
-      <c r="B194" s="72"/>
-      <c r="C194" s="74"/>
-      <c r="D194" s="75"/>
-      <c r="E194" s="11" t="s">
+      <c r="A194" s="60"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="75"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F194" s="11"/>
+      <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="72"/>
-      <c r="B195" s="72"/>
-      <c r="C195" s="74"/>
-      <c r="D195" s="75"/>
-      <c r="E195" s="11" t="s">
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="75"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F195" s="11"/>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="72"/>
-      <c r="B196" s="72"/>
-      <c r="C196" s="74"/>
-      <c r="D196" s="75"/>
-      <c r="E196" s="11" t="s">
+      <c r="A196" s="60"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="75"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F196" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="37" t="s">
+      <c r="F196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="72"/>
-      <c r="B197" s="72"/>
-      <c r="C197" s="74"/>
-      <c r="D197" s="75"/>
-      <c r="E197" s="11" t="s">
+      <c r="A197" s="60"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="75"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F197" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="37" t="s">
+      <c r="F197" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="72"/>
-      <c r="B198" s="72"/>
-      <c r="C198" s="74"/>
-      <c r="D198" s="75"/>
-      <c r="E198" s="11" t="s">
+      <c r="A198" s="60"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="75"/>
+      <c r="D198" s="74"/>
+      <c r="E198" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F198" s="11"/>
+      <c r="F198" s="10"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="72"/>
-      <c r="B199" s="72"/>
-      <c r="C199" s="74"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="11" t="s">
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F199" s="11"/>
+      <c r="F199" s="10"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="72"/>
-      <c r="B200" s="72"/>
-      <c r="C200" s="74"/>
-      <c r="D200" s="75"/>
-      <c r="E200" s="15" t="s">
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="75"/>
+      <c r="D200" s="74"/>
+      <c r="E200" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F200" s="15"/>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="72"/>
-      <c r="B201" s="72"/>
-      <c r="C201" s="74"/>
-      <c r="D201" s="75" t="s">
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="75"/>
+      <c r="D201" s="74" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5792,60 +5790,60 @@
       <c r="F201" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G201" s="37" t="s">
+      <c r="G201" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="72"/>
-      <c r="B202" s="72"/>
-      <c r="C202" s="74"/>
-      <c r="D202" s="75"/>
-      <c r="E202" s="11" t="s">
+      <c r="A202" s="60"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="75"/>
+      <c r="D202" s="74"/>
+      <c r="E202" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G202" s="37" t="s">
+      <c r="G202" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="72"/>
-      <c r="B203" s="72"/>
-      <c r="C203" s="74"/>
-      <c r="D203" s="75"/>
-      <c r="E203" s="11" t="s">
+      <c r="A203" s="60"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="75"/>
+      <c r="D203" s="74"/>
+      <c r="E203" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G203" s="37" t="s">
+      <c r="G203" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="72"/>
-      <c r="B204" s="72"/>
-      <c r="C204" s="74"/>
-      <c r="D204" s="75"/>
-      <c r="E204" s="15" t="s">
+      <c r="A204" s="60"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="75"/>
+      <c r="D204" s="74"/>
+      <c r="E204" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F204" s="25" t="s">
+      <c r="F204" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G204" s="43" t="s">
+      <c r="G204" s="41" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="72"/>
-      <c r="B205" s="72"/>
-      <c r="C205" s="74"/>
-      <c r="D205" s="68" t="s">
+      <c r="A205" s="60"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="75"/>
+      <c r="D205" s="70" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5859,11 +5857,11 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="72"/>
-      <c r="B206" s="72"/>
-      <c r="C206" s="74"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="11" t="s">
+      <c r="A206" s="60"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="75"/>
+      <c r="D206" s="70"/>
+      <c r="E206" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -5874,11 +5872,11 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="72"/>
-      <c r="B207" s="72"/>
-      <c r="C207" s="74"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="11" t="s">
+      <c r="A207" s="60"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="75"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -5889,374 +5887,374 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="72"/>
-      <c r="B208" s="72"/>
-      <c r="C208" s="74"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="11" t="s">
+      <c r="A208" s="60"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F208" s="11"/>
+      <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="72"/>
-      <c r="B209" s="72"/>
-      <c r="C209" s="74"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="15" t="s">
+      <c r="A209" s="60"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="75"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F209" s="15"/>
+      <c r="F209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="72"/>
-      <c r="B210" s="72"/>
+      <c r="A210" s="60"/>
+      <c r="B210" s="60"/>
       <c r="C210" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D210" s="63"/>
+      <c r="D210" s="64"/>
       <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F210" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="37" t="s">
+      <c r="F210" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="72"/>
-      <c r="B211" s="72"/>
+      <c r="A211" s="60"/>
+      <c r="B211" s="60"/>
       <c r="C211" s="76"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="11" t="s">
+      <c r="D211" s="64"/>
+      <c r="E211" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F211" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="37" t="s">
+      <c r="F211" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="72"/>
-      <c r="B212" s="72"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
       <c r="C212" s="76"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="11" t="s">
+      <c r="D212" s="64"/>
+      <c r="E212" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F212" s="11"/>
+      <c r="F212" s="10"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="72"/>
-      <c r="B213" s="72"/>
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
       <c r="C213" s="76"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="11" t="s">
+      <c r="D213" s="64"/>
+      <c r="E213" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F213" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="37" t="s">
+      <c r="F213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="72"/>
-      <c r="B214" s="72"/>
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
       <c r="C214" s="76"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="11" t="s">
+      <c r="D214" s="64"/>
+      <c r="E214" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F214" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="48" t="s">
+      <c r="F214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="46" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="72"/>
-      <c r="B215" s="72"/>
+      <c r="A215" s="60"/>
+      <c r="B215" s="60"/>
       <c r="C215" s="76"/>
-      <c r="D215" s="63"/>
-      <c r="E215" s="11" t="s">
+      <c r="D215" s="64"/>
+      <c r="E215" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F215" s="11"/>
+      <c r="F215" s="10"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="72"/>
-      <c r="B216" s="72"/>
+      <c r="A216" s="60"/>
+      <c r="B216" s="60"/>
       <c r="C216" s="76"/>
-      <c r="D216" s="63"/>
-      <c r="E216" s="11" t="s">
+      <c r="D216" s="64"/>
+      <c r="E216" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F216" s="11"/>
+      <c r="F216" s="10"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="72"/>
-      <c r="B217" s="72"/>
+      <c r="A217" s="60"/>
+      <c r="B217" s="60"/>
       <c r="C217" s="76"/>
-      <c r="D217" s="63"/>
-      <c r="E217" s="11" t="s">
+      <c r="D217" s="64"/>
+      <c r="E217" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F217" s="11"/>
+      <c r="F217" s="10"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="72"/>
-      <c r="B218" s="72"/>
+      <c r="A218" s="60"/>
+      <c r="B218" s="60"/>
       <c r="C218" s="76"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="11" t="s">
+      <c r="D218" s="64"/>
+      <c r="E218" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F218" s="11"/>
+      <c r="F218" s="10"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="72"/>
-      <c r="B219" s="72"/>
+      <c r="A219" s="60"/>
+      <c r="B219" s="60"/>
       <c r="C219" s="76"/>
-      <c r="D219" s="63"/>
-      <c r="E219" s="15" t="s">
+      <c r="D219" s="64"/>
+      <c r="E219" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F219" s="15"/>
+      <c r="F219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="72"/>
-      <c r="B220" s="72"/>
+      <c r="A220" s="60"/>
+      <c r="B220" s="60"/>
       <c r="C220" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="D220" s="63"/>
+      <c r="D220" s="64"/>
       <c r="E220" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F220" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G220" s="37" t="s">
+      <c r="F220" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="72"/>
-      <c r="B221" s="72"/>
+      <c r="A221" s="60"/>
+      <c r="B221" s="60"/>
       <c r="C221" s="76"/>
-      <c r="D221" s="63"/>
-      <c r="E221" s="11" t="s">
+      <c r="D221" s="64"/>
+      <c r="E221" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F221" s="11"/>
+      <c r="F221" s="10"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="72"/>
-      <c r="B222" s="72"/>
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
       <c r="C222" s="76"/>
-      <c r="D222" s="63"/>
-      <c r="E222" s="11" t="s">
+      <c r="D222" s="64"/>
+      <c r="E222" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F222" s="11"/>
+      <c r="F222" s="10"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="72"/>
-      <c r="B223" s="72"/>
+      <c r="A223" s="60"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="76"/>
-      <c r="D223" s="63"/>
-      <c r="E223" s="22" t="s">
+      <c r="D223" s="64"/>
+      <c r="E223" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F223" s="27" t="s">
+      <c r="F223" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G223" s="43" t="s">
+      <c r="G223" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="72"/>
-      <c r="B224" s="72"/>
+      <c r="A224" s="60"/>
+      <c r="B224" s="60"/>
       <c r="C224" s="76"/>
-      <c r="D224" s="63"/>
-      <c r="E224" s="11" t="s">
+      <c r="D224" s="64"/>
+      <c r="E224" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F224" s="27" t="s">
+      <c r="F224" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G224" s="87" t="s">
+      <c r="G224" s="57" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="72"/>
-      <c r="B225" s="72"/>
+      <c r="A225" s="60"/>
+      <c r="B225" s="60"/>
       <c r="C225" s="76"/>
-      <c r="D225" s="63"/>
-      <c r="E225" s="11" t="s">
+      <c r="D225" s="64"/>
+      <c r="E225" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F225" s="27" t="s">
+      <c r="F225" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G225" s="43" t="s">
+      <c r="G225" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="72"/>
-      <c r="B226" s="72"/>
+      <c r="A226" s="60"/>
+      <c r="B226" s="60"/>
       <c r="C226" s="76"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="15" t="s">
+      <c r="D226" s="64"/>
+      <c r="E226" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F226" s="28" t="s">
+      <c r="F226" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G226" s="43" t="s">
+      <c r="G226" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="72"/>
-      <c r="B227" s="72"/>
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
       <c r="C227" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D227" s="63"/>
+      <c r="D227" s="64"/>
       <c r="E227" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="F227" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G227" s="88" t="s">
+      <c r="G227" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="I227" s="89" t="s">
+      <c r="I227" s="59" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="72"/>
-      <c r="B228" s="72"/>
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
       <c r="C228" s="76"/>
-      <c r="D228" s="63"/>
-      <c r="E228" s="11" t="s">
+      <c r="D228" s="64"/>
+      <c r="E228" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F228" s="13" t="s">
+      <c r="F228" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G228" s="37" t="s">
+      <c r="G228" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="72"/>
-      <c r="B229" s="72"/>
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
       <c r="C229" s="76"/>
-      <c r="D229" s="63"/>
-      <c r="E229" s="11" t="s">
+      <c r="D229" s="64"/>
+      <c r="E229" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F229" s="11"/>
+      <c r="F229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="72"/>
-      <c r="B230" s="72"/>
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
       <c r="C230" s="76"/>
-      <c r="D230" s="63"/>
-      <c r="E230" s="15" t="s">
+      <c r="D230" s="64"/>
+      <c r="E230" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F230" s="13" t="s">
+      <c r="F230" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G230" s="43" t="s">
+      <c r="G230" s="41" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="72"/>
-      <c r="B231" s="72"/>
-      <c r="C231" s="74" t="s">
+      <c r="A231" s="60"/>
+      <c r="B231" s="60"/>
+      <c r="C231" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="66"/>
+      <c r="D231" s="64"/>
       <c r="E231" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F231" s="28" t="s">
+      <c r="F231" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="I231" s="14" t="s">
+      <c r="I231" s="42" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="72"/>
-      <c r="B232" s="72"/>
-      <c r="C232" s="74"/>
-      <c r="D232" s="66"/>
-      <c r="E232" s="11" t="s">
+      <c r="A232" s="60"/>
+      <c r="B232" s="60"/>
+      <c r="C232" s="76"/>
+      <c r="D232" s="64"/>
+      <c r="E232" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F232" s="28" t="s">
+      <c r="F232" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="72"/>
-      <c r="B233" s="72"/>
-      <c r="C233" s="74"/>
-      <c r="D233" s="66"/>
-      <c r="E233" s="11" t="s">
+      <c r="A233" s="60"/>
+      <c r="B233" s="60"/>
+      <c r="C233" s="76"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F233" s="11"/>
+      <c r="F233" s="10"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="72"/>
-      <c r="B234" s="72"/>
-      <c r="C234" s="74"/>
-      <c r="D234" s="66"/>
-      <c r="E234" s="15" t="s">
+      <c r="A234" s="60"/>
+      <c r="B234" s="60"/>
+      <c r="C234" s="76"/>
+      <c r="D234" s="64"/>
+      <c r="E234" s="13" t="s">
         <v>192</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I234" s="9" t="s">
+      <c r="I234" s="36" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="72"/>
-      <c r="B235" s="72"/>
-      <c r="C235" s="67" t="s">
+      <c r="A235" s="60"/>
+      <c r="B235" s="60"/>
+      <c r="C235" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="66"/>
+      <c r="D235" s="69"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6268,11 +6266,11 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="72"/>
-      <c r="B236" s="72"/>
-      <c r="C236" s="67"/>
-      <c r="D236" s="66"/>
-      <c r="E236" s="11" t="s">
+      <c r="A236" s="60"/>
+      <c r="B236" s="60"/>
+      <c r="C236" s="79"/>
+      <c r="D236" s="69"/>
+      <c r="E236" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="1" t="s">
@@ -6283,11 +6281,11 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="72"/>
-      <c r="B237" s="72"/>
-      <c r="C237" s="67"/>
-      <c r="D237" s="66"/>
-      <c r="E237" s="11" t="s">
+      <c r="A237" s="60"/>
+      <c r="B237" s="60"/>
+      <c r="C237" s="79"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="10" t="s">
         <v>200</v>
       </c>
       <c r="F237" s="1" t="s">
@@ -6298,11 +6296,11 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="72"/>
-      <c r="B238" s="72"/>
-      <c r="C238" s="67"/>
-      <c r="D238" s="66"/>
-      <c r="E238" s="11" t="s">
+      <c r="A238" s="60"/>
+      <c r="B238" s="60"/>
+      <c r="C238" s="79"/>
+      <c r="D238" s="69"/>
+      <c r="E238" s="10" t="s">
         <v>202</v>
       </c>
       <c r="F238" s="1" t="s">
@@ -6313,65 +6311,65 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="72"/>
-      <c r="B239" s="72"/>
-      <c r="C239" s="67"/>
-      <c r="D239" s="66"/>
-      <c r="E239" s="11" t="s">
+      <c r="A239" s="60"/>
+      <c r="B239" s="60"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="69"/>
+      <c r="E239" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="11"/>
+      <c r="F239" s="10"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="72"/>
-      <c r="B240" s="72"/>
-      <c r="C240" s="67"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="11" t="s">
+      <c r="A240" s="60"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="79"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F240" s="11"/>
+      <c r="F240" s="10"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="72"/>
-      <c r="B241" s="72"/>
-      <c r="C241" s="67"/>
-      <c r="D241" s="66"/>
-      <c r="E241" s="11" t="s">
+      <c r="A241" s="60"/>
+      <c r="B241" s="60"/>
+      <c r="C241" s="79"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F241" s="11"/>
+      <c r="F241" s="10"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="72"/>
-      <c r="B242" s="72"/>
-      <c r="C242" s="67"/>
-      <c r="D242" s="66"/>
-      <c r="E242" s="11" t="s">
+      <c r="A242" s="60"/>
+      <c r="B242" s="60"/>
+      <c r="C242" s="79"/>
+      <c r="D242" s="69"/>
+      <c r="E242" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F242" s="11"/>
+      <c r="F242" s="10"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="72"/>
-      <c r="B243" s="72"/>
-      <c r="C243" s="67"/>
-      <c r="D243" s="66"/>
-      <c r="E243" s="29" t="s">
+      <c r="A243" s="60"/>
+      <c r="B243" s="60"/>
+      <c r="C243" s="79"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="27" t="s">
         <v>206</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G243" s="18" t="s">
+      <c r="G243" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="72"/>
-      <c r="B244" s="72"/>
-      <c r="C244" s="67"/>
-      <c r="D244" s="68" t="s">
+      <c r="A244" s="60"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="79"/>
+      <c r="D244" s="70" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6385,41 +6383,41 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="72"/>
-      <c r="B245" s="72"/>
-      <c r="C245" s="67"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="11" t="s">
+      <c r="A245" s="60"/>
+      <c r="B245" s="60"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="70"/>
+      <c r="E245" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F245" s="11"/>
+      <c r="F245" s="10"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="72"/>
-      <c r="B246" s="72"/>
-      <c r="C246" s="67"/>
-      <c r="D246" s="68"/>
-      <c r="E246" s="11" t="s">
+      <c r="A246" s="60"/>
+      <c r="B246" s="60"/>
+      <c r="C246" s="79"/>
+      <c r="D246" s="70"/>
+      <c r="E246" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F246" s="11"/>
+      <c r="F246" s="10"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="72"/>
-      <c r="B247" s="72"/>
-      <c r="C247" s="67"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="11" t="s">
+      <c r="A247" s="60"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="79"/>
+      <c r="D247" s="70"/>
+      <c r="E247" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F247" s="11"/>
+      <c r="F247" s="10"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="72"/>
-      <c r="B248" s="72"/>
-      <c r="C248" s="67"/>
-      <c r="D248" s="68"/>
-      <c r="E248" s="22" t="s">
+      <c r="A248" s="60"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="79"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="20" t="s">
         <v>223</v>
       </c>
       <c r="F248" s="1" t="s">
@@ -6430,11 +6428,11 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="72"/>
-      <c r="B249" s="72"/>
-      <c r="C249" s="67"/>
-      <c r="D249" s="68"/>
-      <c r="E249" s="15" t="s">
+      <c r="A249" s="60"/>
+      <c r="B249" s="60"/>
+      <c r="C249" s="79"/>
+      <c r="D249" s="70"/>
+      <c r="E249" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F249" s="1" t="s">
@@ -6444,106 +6442,106 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="23.85" customHeight="1">
-      <c r="A250" s="72"/>
-      <c r="B250" s="72"/>
-      <c r="C250" s="69" t="s">
+    <row r="250" spans="1:9" ht="33" customHeight="1">
+      <c r="A250" s="60"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="70"/>
-      <c r="E250" s="32" t="s">
+      <c r="D250" s="72"/>
+      <c r="E250" s="30" t="s">
         <v>225</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G250" s="56" t="s">
+      <c r="G250" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="I250" s="57" t="s">
+      <c r="I250" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="72"/>
-      <c r="B251" s="72"/>
-      <c r="C251" s="69"/>
-      <c r="D251" s="70"/>
-      <c r="E251" s="11" t="s">
+      <c r="A251" s="60"/>
+      <c r="B251" s="60"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="10" t="s">
         <v>229</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G251" s="45" t="s">
+      <c r="G251" s="43" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="72"/>
-      <c r="B252" s="72"/>
-      <c r="C252" s="69"/>
-      <c r="D252" s="70"/>
-      <c r="E252" s="11" t="s">
+      <c r="A252" s="60"/>
+      <c r="B252" s="60"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="72"/>
+      <c r="E252" s="10" t="s">
         <v>231</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G252" s="45" t="s">
+      <c r="G252" s="43" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="72"/>
-      <c r="B253" s="72"/>
-      <c r="C253" s="69"/>
-      <c r="D253" s="70"/>
-      <c r="E253" s="11" t="s">
+      <c r="A253" s="60"/>
+      <c r="B253" s="60"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="72"/>
+      <c r="E253" s="10" t="s">
         <v>233</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G253" s="45" t="s">
+      <c r="G253" s="43" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="72"/>
-      <c r="B254" s="72"/>
-      <c r="C254" s="69"/>
-      <c r="D254" s="70"/>
-      <c r="E254" s="11" t="s">
+      <c r="A254" s="60"/>
+      <c r="B254" s="60"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="72"/>
+      <c r="E254" s="10" t="s">
         <v>235</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G254" s="45" t="s">
+      <c r="G254" s="43" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="72"/>
-      <c r="B255" s="72"/>
-      <c r="C255" s="69"/>
-      <c r="D255" s="70"/>
-      <c r="E255" s="15" t="s">
+      <c r="A255" s="60"/>
+      <c r="B255" s="60"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="72"/>
+      <c r="E255" s="13" t="s">
         <v>237</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G255" s="45" t="s">
+      <c r="G255" s="43" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="72"/>
-      <c r="B256" s="72"/>
-      <c r="C256" s="69"/>
-      <c r="D256" s="71" t="s">
+      <c r="A256" s="60"/>
+      <c r="B256" s="60"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="80" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6552,105 +6550,105 @@
       <c r="F256" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G256" s="45" t="s">
+      <c r="G256" s="43" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="72"/>
-      <c r="B257" s="72"/>
-      <c r="C257" s="69"/>
-      <c r="D257" s="71"/>
-      <c r="E257" s="11" t="s">
+      <c r="A257" s="60"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F257" s="11"/>
+      <c r="F257" s="10"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="72"/>
-      <c r="B258" s="72"/>
-      <c r="C258" s="69"/>
-      <c r="D258" s="71"/>
-      <c r="E258" s="11" t="s">
+      <c r="A258" s="60"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="80"/>
+      <c r="E258" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F258" s="11"/>
+      <c r="F258" s="10"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="72"/>
-      <c r="B259" s="72"/>
-      <c r="C259" s="69"/>
-      <c r="D259" s="71"/>
-      <c r="E259" s="11" t="s">
+      <c r="A259" s="60"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="80"/>
+      <c r="E259" s="10" t="s">
         <v>244</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G259" s="45" t="s">
+      <c r="G259" s="43" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="72"/>
-      <c r="B260" s="72"/>
-      <c r="C260" s="69"/>
-      <c r="D260" s="71"/>
-      <c r="E260" s="11" t="s">
+      <c r="A260" s="60"/>
+      <c r="B260" s="60"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="80"/>
+      <c r="E260" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G260" s="45" t="s">
+      <c r="G260" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="72"/>
-      <c r="B261" s="72"/>
-      <c r="C261" s="69"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="11" t="s">
+      <c r="A261" s="60"/>
+      <c r="B261" s="60"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="80"/>
+      <c r="E261" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F261" s="11"/>
+      <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="72"/>
-      <c r="B262" s="72"/>
-      <c r="C262" s="69"/>
-      <c r="D262" s="71"/>
-      <c r="E262" s="11" t="s">
+      <c r="A262" s="60"/>
+      <c r="B262" s="60"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="80"/>
+      <c r="E262" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F262" s="11"/>
+      <c r="F262" s="10"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="72"/>
-      <c r="B263" s="72"/>
-      <c r="C263" s="69"/>
-      <c r="D263" s="71"/>
-      <c r="E263" s="11" t="s">
+      <c r="A263" s="60"/>
+      <c r="B263" s="60"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="80"/>
+      <c r="E263" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F263" s="11"/>
+      <c r="F263" s="10"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="72"/>
-      <c r="B264" s="72"/>
-      <c r="C264" s="69"/>
-      <c r="D264" s="71"/>
-      <c r="E264" s="15" t="s">
+      <c r="A264" s="60"/>
+      <c r="B264" s="60"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="80"/>
+      <c r="E264" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F264" s="15"/>
+      <c r="F264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="72"/>
-      <c r="B265" s="72"/>
-      <c r="C265" s="69"/>
-      <c r="D265" s="71" t="s">
+      <c r="A265" s="60"/>
+      <c r="B265" s="60"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="80" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6659,90 +6657,90 @@
       <c r="F265" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G265" s="45" t="s">
+      <c r="G265" s="43" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="72"/>
-      <c r="B266" s="72"/>
-      <c r="C266" s="69"/>
-      <c r="D266" s="71"/>
-      <c r="E266" s="11" t="s">
+      <c r="A266" s="60"/>
+      <c r="B266" s="60"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="80"/>
+      <c r="E266" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F266" s="11"/>
+      <c r="F266" s="10"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="72"/>
-      <c r="B267" s="72"/>
-      <c r="C267" s="69"/>
-      <c r="D267" s="71"/>
-      <c r="E267" s="22" t="s">
+      <c r="A267" s="60"/>
+      <c r="B267" s="60"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="80"/>
+      <c r="E267" s="20" t="s">
         <v>250</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G267" s="45" t="s">
+      <c r="G267" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="72"/>
-      <c r="B268" s="72"/>
-      <c r="C268" s="69"/>
-      <c r="D268" s="71"/>
-      <c r="E268" s="11" t="s">
+      <c r="A268" s="60"/>
+      <c r="B268" s="60"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="80"/>
+      <c r="E268" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G268" s="45" t="s">
+      <c r="G268" s="43" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="72"/>
-      <c r="B269" s="72"/>
-      <c r="C269" s="69"/>
-      <c r="D269" s="71"/>
-      <c r="E269" s="11" t="s">
+      <c r="A269" s="60"/>
+      <c r="B269" s="60"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="80"/>
+      <c r="E269" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G269" s="45" t="s">
+      <c r="G269" s="43" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="72"/>
-      <c r="B270" s="72"/>
-      <c r="C270" s="69"/>
-      <c r="D270" s="71"/>
-      <c r="E270" s="11" t="s">
+      <c r="A270" s="60"/>
+      <c r="B270" s="60"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="80"/>
+      <c r="E270" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F270" s="11"/>
+      <c r="F270" s="10"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="72"/>
-      <c r="B271" s="72"/>
-      <c r="C271" s="69"/>
-      <c r="D271" s="71"/>
-      <c r="E271" s="15" t="s">
+      <c r="A271" s="60"/>
+      <c r="B271" s="60"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="80"/>
+      <c r="E271" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F271" s="15"/>
+      <c r="F271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="72"/>
-      <c r="B272" s="72"/>
-      <c r="C272" s="69"/>
-      <c r="D272" s="71" t="s">
+      <c r="A272" s="60"/>
+      <c r="B272" s="60"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="80" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6751,231 +6749,231 @@
       <c r="F272" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G272" s="45" t="s">
+      <c r="G272" s="43" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="72"/>
-      <c r="B273" s="72"/>
-      <c r="C273" s="69"/>
-      <c r="D273" s="71"/>
-      <c r="E273" s="11" t="s">
+      <c r="A273" s="60"/>
+      <c r="B273" s="60"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="80"/>
+      <c r="E273" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G273" s="45" t="s">
+      <c r="G273" s="43" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="72"/>
-      <c r="B274" s="72"/>
-      <c r="C274" s="69"/>
-      <c r="D274" s="71"/>
-      <c r="E274" s="11" t="s">
+      <c r="A274" s="60"/>
+      <c r="B274" s="60"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="80"/>
+      <c r="E274" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G274" s="45" t="s">
+      <c r="G274" s="43" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="72"/>
-      <c r="B275" s="72"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="71"/>
-      <c r="E275" s="11" t="s">
+      <c r="A275" s="60"/>
+      <c r="B275" s="60"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="80"/>
+      <c r="E275" s="10" t="s">
         <v>256</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G275" s="45" t="s">
+      <c r="G275" s="43" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="72"/>
-      <c r="B276" s="72"/>
-      <c r="C276" s="69"/>
-      <c r="D276" s="71"/>
-      <c r="E276" s="11" t="s">
+      <c r="A276" s="60"/>
+      <c r="B276" s="60"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="80"/>
+      <c r="E276" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F276" s="11"/>
+      <c r="F276" s="10"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="72"/>
-      <c r="B277" s="72"/>
-      <c r="C277" s="69"/>
-      <c r="D277" s="71"/>
-      <c r="E277" s="11" t="s">
+      <c r="A277" s="60"/>
+      <c r="B277" s="60"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="80"/>
+      <c r="E277" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F277" s="11"/>
+      <c r="F277" s="10"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="72"/>
-      <c r="B278" s="72"/>
-      <c r="C278" s="69"/>
-      <c r="D278" s="71"/>
-      <c r="E278" s="11" t="s">
+      <c r="A278" s="60"/>
+      <c r="B278" s="60"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="80"/>
+      <c r="E278" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F278" s="11"/>
+      <c r="F278" s="10"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="72"/>
-      <c r="B279" s="72"/>
-      <c r="C279" s="69"/>
-      <c r="D279" s="71"/>
-      <c r="E279" s="11" t="s">
+      <c r="A279" s="60"/>
+      <c r="B279" s="60"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="80"/>
+      <c r="E279" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F279" s="11"/>
+      <c r="F279" s="10"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="72"/>
-      <c r="B280" s="72"/>
-      <c r="C280" s="69"/>
-      <c r="D280" s="71"/>
-      <c r="E280" s="11" t="s">
+      <c r="A280" s="60"/>
+      <c r="B280" s="60"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="80"/>
+      <c r="E280" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F280" s="11"/>
+      <c r="F280" s="10"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="72"/>
-      <c r="B281" s="72"/>
-      <c r="C281" s="69"/>
-      <c r="D281" s="71"/>
-      <c r="E281" s="11" t="s">
+      <c r="A281" s="60"/>
+      <c r="B281" s="60"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="80"/>
+      <c r="E281" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F281" s="11"/>
+      <c r="F281" s="10"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="72"/>
-      <c r="B282" s="72"/>
-      <c r="C282" s="69"/>
-      <c r="D282" s="71"/>
-      <c r="E282" s="15" t="s">
+      <c r="A282" s="60"/>
+      <c r="B282" s="60"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="80"/>
+      <c r="E282" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F282" s="15"/>
+      <c r="F282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="72"/>
-      <c r="B283" s="72"/>
-      <c r="C283" s="69"/>
-      <c r="D283" s="71" t="s">
+      <c r="A283" s="60"/>
+      <c r="B283" s="60"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="E283" s="32" t="s">
+      <c r="E283" s="30" t="s">
         <v>259</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G283" s="45" t="s">
+      <c r="G283" s="43" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="72"/>
-      <c r="B284" s="72"/>
-      <c r="C284" s="69"/>
-      <c r="D284" s="71"/>
-      <c r="E284" s="11" t="s">
+      <c r="A284" s="60"/>
+      <c r="B284" s="60"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="80"/>
+      <c r="E284" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F284" s="11"/>
+      <c r="F284" s="10"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="72"/>
-      <c r="B285" s="72"/>
-      <c r="C285" s="69"/>
-      <c r="D285" s="71"/>
-      <c r="E285" s="11" t="s">
+      <c r="A285" s="60"/>
+      <c r="B285" s="60"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="80"/>
+      <c r="E285" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F285" s="11"/>
+      <c r="F285" s="10"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="72"/>
-      <c r="B286" s="72"/>
-      <c r="C286" s="69"/>
-      <c r="D286" s="71"/>
-      <c r="E286" s="11" t="s">
+      <c r="A286" s="60"/>
+      <c r="B286" s="60"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="80"/>
+      <c r="E286" s="10" t="s">
         <v>263</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G286" s="45" t="s">
+      <c r="G286" s="43" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="72"/>
-      <c r="B287" s="72"/>
-      <c r="C287" s="69"/>
-      <c r="D287" s="71"/>
-      <c r="E287" s="11" t="s">
+      <c r="A287" s="60"/>
+      <c r="B287" s="60"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="80"/>
+      <c r="E287" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F287" s="11"/>
+      <c r="F287" s="10"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="72"/>
-      <c r="B288" s="72"/>
-      <c r="C288" s="69"/>
-      <c r="D288" s="71"/>
-      <c r="E288" s="11" t="s">
+      <c r="A288" s="60"/>
+      <c r="B288" s="60"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="80"/>
+      <c r="E288" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G288" s="45" t="s">
+      <c r="G288" s="43" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="72"/>
-      <c r="B289" s="72"/>
-      <c r="C289" s="69"/>
-      <c r="D289" s="71"/>
-      <c r="E289" s="11" t="s">
+      <c r="A289" s="60"/>
+      <c r="B289" s="60"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="80"/>
+      <c r="E289" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F289" s="11"/>
+      <c r="F289" s="10"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="72"/>
-      <c r="B290" s="72"/>
-      <c r="C290" s="69"/>
-      <c r="D290" s="71"/>
-      <c r="E290" s="15" t="s">
+      <c r="A290" s="60"/>
+      <c r="B290" s="60"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="80"/>
+      <c r="E290" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F290" s="15"/>
+      <c r="F290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="64" t="s">
+      <c r="A291" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="64" t="s">
+      <c r="B291" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="65"/>
-      <c r="D291" s="66"/>
+      <c r="C291" s="78"/>
+      <c r="D291" s="69"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6987,11 +6985,11 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="64"/>
-      <c r="B292" s="64"/>
-      <c r="C292" s="65"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="11" t="s">
+      <c r="A292" s="68"/>
+      <c r="B292" s="68"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="10" t="s">
         <v>270</v>
       </c>
       <c r="F292" s="1" t="s">
@@ -7002,11 +7000,11 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="64"/>
-      <c r="B293" s="64"/>
-      <c r="C293" s="65"/>
-      <c r="D293" s="66"/>
-      <c r="E293" s="11" t="s">
+      <c r="A293" s="68"/>
+      <c r="B293" s="68"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="69"/>
+      <c r="E293" s="10" t="s">
         <v>272</v>
       </c>
       <c r="F293" s="1" t="s">
@@ -7017,11 +7015,11 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="64"/>
-      <c r="B294" s="64"/>
-      <c r="C294" s="65"/>
-      <c r="D294" s="66"/>
-      <c r="E294" s="11" t="s">
+      <c r="A294" s="68"/>
+      <c r="B294" s="68"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="10" t="s">
         <v>274</v>
       </c>
       <c r="F294" s="1" t="s">
@@ -7032,22 +7030,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="64"/>
-      <c r="B295" s="64"/>
-      <c r="C295" s="65"/>
-      <c r="D295" s="66"/>
-      <c r="E295" s="15" t="s">
+      <c r="A295" s="68"/>
+      <c r="B295" s="68"/>
+      <c r="C295" s="78"/>
+      <c r="D295" s="69"/>
+      <c r="E295" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F295" s="15"/>
+      <c r="F295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="64"/>
-      <c r="B296" s="64" t="s">
+      <c r="A296" s="68"/>
+      <c r="B296" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="65"/>
-      <c r="D296" s="66"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="69"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -7059,11 +7057,11 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="64"/>
-      <c r="B297" s="64"/>
-      <c r="C297" s="65"/>
-      <c r="D297" s="66"/>
-      <c r="E297" s="11" t="s">
+      <c r="A297" s="68"/>
+      <c r="B297" s="68"/>
+      <c r="C297" s="78"/>
+      <c r="D297" s="69"/>
+      <c r="E297" s="10" t="s">
         <v>280</v>
       </c>
       <c r="F297" s="1" t="s">
@@ -7074,11 +7072,11 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="64"/>
-      <c r="B298" s="64"/>
-      <c r="C298" s="65"/>
-      <c r="D298" s="66"/>
-      <c r="E298" s="11" t="s">
+      <c r="A298" s="68"/>
+      <c r="B298" s="68"/>
+      <c r="C298" s="78"/>
+      <c r="D298" s="69"/>
+      <c r="E298" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F298" s="1" t="s">
@@ -7089,11 +7087,11 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="64"/>
-      <c r="B299" s="64"/>
-      <c r="C299" s="65"/>
-      <c r="D299" s="66"/>
-      <c r="E299" s="11" t="s">
+      <c r="A299" s="68"/>
+      <c r="B299" s="68"/>
+      <c r="C299" s="78"/>
+      <c r="D299" s="69"/>
+      <c r="E299" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F299" s="1" t="s">
@@ -7104,24 +7102,24 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="64"/>
-      <c r="B300" s="64"/>
-      <c r="C300" s="65"/>
-      <c r="D300" s="66"/>
-      <c r="E300" s="11" t="s">
+      <c r="A300" s="68"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="78"/>
+      <c r="D300" s="69"/>
+      <c r="E300" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F300" s="11"/>
+      <c r="F300" s="10"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="64"/>
-      <c r="B301" s="64"/>
-      <c r="C301" s="65"/>
-      <c r="D301" s="66"/>
-      <c r="E301" s="15" t="s">
+      <c r="A301" s="68"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="78"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F301" s="15"/>
+      <c r="F301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
       <c r="A302" s="61" t="s">
@@ -7130,86 +7128,86 @@
       <c r="B302" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="62"/>
-      <c r="D302" s="63"/>
+      <c r="C302" s="63"/>
+      <c r="D302" s="64"/>
       <c r="E302" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G302" s="37" t="s">
+      <c r="G302" s="35" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="61"/>
       <c r="B303" s="61"/>
-      <c r="C303" s="62"/>
-      <c r="D303" s="63"/>
-      <c r="E303" s="11" t="s">
+      <c r="C303" s="63"/>
+      <c r="D303" s="64"/>
+      <c r="E303" s="10" t="s">
         <v>288</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G303" s="37" t="s">
+      <c r="G303" s="35" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="61"/>
       <c r="B304" s="61"/>
-      <c r="C304" s="62"/>
-      <c r="D304" s="63"/>
-      <c r="E304" s="11" t="s">
+      <c r="C304" s="63"/>
+      <c r="D304" s="64"/>
+      <c r="E304" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G304" s="37" t="s">
+      <c r="G304" s="35" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="61"/>
       <c r="B305" s="61"/>
-      <c r="C305" s="62"/>
-      <c r="D305" s="63"/>
-      <c r="E305" s="11" t="s">
+      <c r="C305" s="63"/>
+      <c r="D305" s="64"/>
+      <c r="E305" s="10" t="s">
         <v>119</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G305" s="37" t="s">
+      <c r="G305" s="35" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="61"/>
       <c r="B306" s="61"/>
-      <c r="C306" s="62"/>
-      <c r="D306" s="63"/>
-      <c r="E306" s="15" t="s">
+      <c r="C306" s="63"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F306" s="15"/>
+      <c r="F306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
       <c r="A307" s="61"/>
       <c r="B307" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C307" s="42" t="s">
+      <c r="C307" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D307" s="54"/>
-      <c r="E307" s="23" t="s">
+      <c r="D307" s="52"/>
+      <c r="E307" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F307" s="23"/>
+      <c r="F307" s="21"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
       <c r="A308" s="61"/>
@@ -7217,14 +7215,14 @@
       <c r="C308" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="D308" s="63"/>
-      <c r="E308" s="11" t="s">
+      <c r="D308" s="64"/>
+      <c r="E308" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F308" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G308" s="37" t="s">
+      <c r="F308" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G308" s="35" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7232,14 +7230,14 @@
       <c r="A309" s="61"/>
       <c r="B309" s="61"/>
       <c r="C309" s="61"/>
-      <c r="D309" s="63"/>
-      <c r="E309" s="11" t="s">
+      <c r="D309" s="64"/>
+      <c r="E309" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F309" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G309" s="37" t="s">
+      <c r="F309" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7247,14 +7245,14 @@
       <c r="A310" s="61"/>
       <c r="B310" s="61"/>
       <c r="C310" s="61"/>
-      <c r="D310" s="63"/>
-      <c r="E310" s="11" t="s">
+      <c r="D310" s="64"/>
+      <c r="E310" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G310" s="37" t="s">
+      <c r="G310" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7262,31 +7260,31 @@
       <c r="A311" s="61"/>
       <c r="B311" s="61"/>
       <c r="C311" s="61"/>
-      <c r="D311" s="63"/>
-      <c r="E311" s="11" t="s">
+      <c r="D311" s="64"/>
+      <c r="E311" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F311" s="11"/>
+      <c r="F311" s="10"/>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="61"/>
       <c r="B312" s="61"/>
       <c r="C312" s="61"/>
-      <c r="D312" s="63"/>
-      <c r="E312" s="11" t="s">
+      <c r="D312" s="64"/>
+      <c r="E312" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F312" s="11"/>
+      <c r="F312" s="10"/>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="61"/>
       <c r="B313" s="61"/>
       <c r="C313" s="61"/>
-      <c r="D313" s="63"/>
-      <c r="E313" s="15" t="s">
+      <c r="D313" s="64"/>
+      <c r="E313" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F313" s="15"/>
+      <c r="F313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
       <c r="A314" s="61"/>
@@ -7294,14 +7292,14 @@
       <c r="C314" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="D314" s="63"/>
+      <c r="D314" s="64"/>
       <c r="E314" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F314" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G314" s="37" t="s">
+      <c r="F314" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G314" s="35" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7309,14 +7307,14 @@
       <c r="A315" s="61"/>
       <c r="B315" s="61"/>
       <c r="C315" s="61"/>
-      <c r="D315" s="63"/>
-      <c r="E315" s="11" t="s">
+      <c r="D315" s="64"/>
+      <c r="E315" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F315" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G315" s="37" t="s">
+      <c r="F315" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7324,14 +7322,14 @@
       <c r="A316" s="61"/>
       <c r="B316" s="61"/>
       <c r="C316" s="61"/>
-      <c r="D316" s="63"/>
-      <c r="E316" s="11" t="s">
+      <c r="D316" s="64"/>
+      <c r="E316" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="37" t="s">
+      <c r="G316" s="35" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7339,31 +7337,31 @@
       <c r="A317" s="61"/>
       <c r="B317" s="61"/>
       <c r="C317" s="61"/>
-      <c r="D317" s="63"/>
-      <c r="E317" s="11" t="s">
+      <c r="D317" s="64"/>
+      <c r="E317" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F317" s="11"/>
+      <c r="F317" s="10"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="61"/>
       <c r="B318" s="61"/>
       <c r="C318" s="61"/>
-      <c r="D318" s="63"/>
-      <c r="E318" s="11" t="s">
+      <c r="D318" s="64"/>
+      <c r="E318" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F318" s="11"/>
+      <c r="F318" s="10"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="61"/>
       <c r="B319" s="61"/>
       <c r="C319" s="61"/>
-      <c r="D319" s="63"/>
-      <c r="E319" s="15" t="s">
+      <c r="D319" s="64"/>
+      <c r="E319" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F319" s="15"/>
+      <c r="F319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
       <c r="A320" s="61" t="s">
@@ -7372,86 +7370,86 @@
       <c r="B320" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="C320" s="62"/>
-      <c r="D320" s="63"/>
+      <c r="C320" s="63"/>
+      <c r="D320" s="64"/>
       <c r="E320" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F320" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G320" s="37" t="s">
+      <c r="F320" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" s="35" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="61"/>
       <c r="B321" s="61"/>
-      <c r="C321" s="62"/>
-      <c r="D321" s="63"/>
-      <c r="E321" s="11" t="s">
+      <c r="C321" s="63"/>
+      <c r="D321" s="64"/>
+      <c r="E321" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F321" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G321" s="37" t="s">
+      <c r="F321" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321" s="35" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="61"/>
       <c r="B322" s="61"/>
-      <c r="C322" s="62"/>
-      <c r="D322" s="63"/>
-      <c r="E322" s="11" t="s">
+      <c r="C322" s="63"/>
+      <c r="D322" s="64"/>
+      <c r="E322" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F322" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G322" s="37" t="s">
+      <c r="F322" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G322" s="35" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="61"/>
       <c r="B323" s="61"/>
-      <c r="C323" s="62"/>
-      <c r="D323" s="63"/>
-      <c r="E323" s="11" t="s">
+      <c r="C323" s="63"/>
+      <c r="D323" s="64"/>
+      <c r="E323" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="F323" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G323" s="37" t="s">
+      <c r="F323" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" s="35" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="61"/>
       <c r="B324" s="61"/>
-      <c r="C324" s="62"/>
-      <c r="D324" s="63"/>
-      <c r="E324" s="15" t="s">
+      <c r="C324" s="63"/>
+      <c r="D324" s="64"/>
+      <c r="E324" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F324" s="15"/>
+      <c r="F324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
       <c r="A325" s="61"/>
       <c r="B325" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C325" s="42" t="s">
+      <c r="C325" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D325" s="55"/>
-      <c r="E325" s="23" t="s">
+      <c r="D325" s="53"/>
+      <c r="E325" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F325" s="23"/>
+      <c r="F325" s="21"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
       <c r="A326" s="61"/>
@@ -7459,14 +7457,14 @@
       <c r="C326" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D326" s="63"/>
+      <c r="D326" s="64"/>
       <c r="E326" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G326" s="37" t="s">
+      <c r="G326" s="35" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7474,79 +7472,79 @@
       <c r="A327" s="61"/>
       <c r="B327" s="61"/>
       <c r="C327" s="61"/>
-      <c r="D327" s="63"/>
-      <c r="E327" s="11" t="s">
+      <c r="D327" s="64"/>
+      <c r="E327" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F327" s="11"/>
+      <c r="F327" s="10"/>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="61"/>
       <c r="B328" s="61"/>
       <c r="C328" s="61"/>
-      <c r="D328" s="63"/>
-      <c r="E328" s="11" t="s">
+      <c r="D328" s="64"/>
+      <c r="E328" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F328" s="11"/>
+      <c r="F328" s="10"/>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="61"/>
       <c r="B329" s="61"/>
       <c r="C329" s="61"/>
-      <c r="D329" s="63"/>
-      <c r="E329" s="11" t="s">
+      <c r="D329" s="64"/>
+      <c r="E329" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F329" s="11"/>
+      <c r="F329" s="10"/>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="61"/>
       <c r="B330" s="61"/>
       <c r="C330" s="61"/>
-      <c r="D330" s="63"/>
-      <c r="E330" s="11" t="s">
+      <c r="D330" s="64"/>
+      <c r="E330" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F330" s="11"/>
+      <c r="F330" s="10"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="61"/>
       <c r="B331" s="61"/>
       <c r="C331" s="61"/>
-      <c r="D331" s="63"/>
-      <c r="E331" s="11" t="s">
+      <c r="D331" s="64"/>
+      <c r="E331" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F331" s="11"/>
+      <c r="F331" s="10"/>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="61"/>
       <c r="B332" s="61"/>
       <c r="C332" s="61"/>
-      <c r="D332" s="63"/>
-      <c r="E332" s="11" t="s">
+      <c r="D332" s="64"/>
+      <c r="E332" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F332" s="11"/>
+      <c r="F332" s="10"/>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="61"/>
       <c r="B333" s="61"/>
       <c r="C333" s="61"/>
-      <c r="D333" s="63"/>
-      <c r="E333" s="11" t="s">
+      <c r="D333" s="64"/>
+      <c r="E333" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F333" s="11"/>
+      <c r="F333" s="10"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="59" t="s">
+      <c r="A334" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="60"/>
-      <c r="C334" s="60"/>
-      <c r="D334" s="60"/>
+      <c r="B334" s="82"/>
+      <c r="C334" s="82"/>
+      <c r="D334" s="82"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7558,11 +7556,11 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="59"/>
-      <c r="B335" s="59"/>
-      <c r="C335" s="60"/>
-      <c r="D335" s="60"/>
-      <c r="E335" s="11" t="s">
+      <c r="A335" s="81"/>
+      <c r="B335" s="81"/>
+      <c r="C335" s="82"/>
+      <c r="D335" s="82"/>
+      <c r="E335" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F335" s="1" t="s">
@@ -7573,11 +7571,11 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="59"/>
-      <c r="B336" s="59"/>
-      <c r="C336" s="60"/>
-      <c r="D336" s="60"/>
-      <c r="E336" s="11" t="s">
+      <c r="A336" s="81"/>
+      <c r="B336" s="81"/>
+      <c r="C336" s="82"/>
+      <c r="D336" s="82"/>
+      <c r="E336" s="10" t="s">
         <v>320</v>
       </c>
       <c r="F336" s="1" t="s">
@@ -7588,11 +7586,11 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="59"/>
-      <c r="B337" s="59"/>
-      <c r="C337" s="60"/>
-      <c r="D337" s="60"/>
-      <c r="E337" s="11" t="s">
+      <c r="A337" s="81"/>
+      <c r="B337" s="81"/>
+      <c r="C337" s="82"/>
+      <c r="D337" s="82"/>
+      <c r="E337" s="10" t="s">
         <v>322</v>
       </c>
       <c r="F337" s="1" t="s">
@@ -7603,11 +7601,11 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="59"/>
-      <c r="B338" s="59"/>
-      <c r="C338" s="60"/>
-      <c r="D338" s="60"/>
-      <c r="E338" s="11" t="s">
+      <c r="A338" s="81"/>
+      <c r="B338" s="81"/>
+      <c r="C338" s="82"/>
+      <c r="D338" s="82"/>
+      <c r="E338" s="10" t="s">
         <v>324</v>
       </c>
       <c r="F338" s="1" t="s">
@@ -7618,28 +7616,109 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="59"/>
-      <c r="B339" s="59"/>
-      <c r="C339" s="60"/>
-      <c r="D339" s="60"/>
-      <c r="E339" s="11" t="s">
+      <c r="A339" s="81"/>
+      <c r="B339" s="81"/>
+      <c r="C339" s="82"/>
+      <c r="D339" s="82"/>
+      <c r="E339" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F339" s="11"/>
+      <c r="F339" s="10"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="59"/>
-      <c r="B340" s="59"/>
-      <c r="C340" s="60"/>
-      <c r="D340" s="60"/>
-      <c r="E340" s="15" t="s">
+      <c r="A340" s="81"/>
+      <c r="B340" s="81"/>
+      <c r="C340" s="82"/>
+      <c r="D340" s="82"/>
+      <c r="E340" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F340" s="15"/>
+      <c r="F340" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7664,87 +7743,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7756,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7770,84 +7768,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="31"/>
     </row>
     <row r="2" spans="1:64">
       <c r="A2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7858,7 +7856,7 @@
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7869,7 +7867,7 @@
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>332</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -7880,7 +7878,7 @@
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -7888,158 +7886,158 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="35" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C65" s="84" t="s">
+      <c r="C65" s="83" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C66" s="84"/>
+      <c r="C66" s="83"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="84"/>
+      <c r="C67" s="83"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="84"/>
+      <c r="C68" s="83"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="84"/>
+      <c r="C69" s="83"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="84"/>
+      <c r="C70" s="83"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="C71" s="84"/>
+      <c r="C71" s="83"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C72" s="84"/>
+      <c r="C72" s="83"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="84"/>
+      <c r="C73" s="83"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C74" s="84"/>
+      <c r="C74" s="83"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="C75" s="84"/>
+      <c r="C75" s="83"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="84"/>
+      <c r="C76" s="83"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="83"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="84"/>
+      <c r="C78" s="83"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="84"/>
+      <c r="C79" s="83"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="35" t="s">
         <v>353</v>
       </c>
       <c r="C82" s="85" t="s">
@@ -8047,37 +8045,37 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="35" t="s">
         <v>355</v>
       </c>
       <c r="C83" s="85"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="35" t="s">
         <v>356</v>
       </c>
       <c r="C84" s="85"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="35" t="s">
         <v>357</v>
       </c>
       <c r="C85" s="85"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="35" t="s">
         <v>358</v>
       </c>
       <c r="C86" s="85"/>
@@ -8086,10 +8084,10 @@
       <c r="A89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="C89" s="82" t="s">
+      <c r="C89" s="84" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8097,19 +8095,19 @@
       <c r="A90" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="82"/>
+      <c r="C90" s="84"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="82"/>
+      <c r="C91" s="84"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
@@ -8118,7 +8116,7 @@
       <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="82"/>
+      <c r="C92" s="84"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -8127,7 +8125,7 @@
       <c r="B93" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="82"/>
+      <c r="C93" s="84"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
@@ -8136,7 +8134,7 @@
       <c r="B94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="82"/>
+      <c r="C94" s="84"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
@@ -8145,7 +8143,7 @@
       <c r="B95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C95" s="82"/>
+      <c r="C95" s="84"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
@@ -8154,7 +8152,7 @@
       <c r="B96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="82"/>
+      <c r="C96" s="84"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
@@ -8163,7 +8161,7 @@
       <c r="B97" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C97" s="82"/>
+      <c r="C97" s="84"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
@@ -8172,7 +8170,7 @@
       <c r="B98" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="82"/>
+      <c r="C98" s="84"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
@@ -8181,7 +8179,7 @@
       <c r="B99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="82"/>
+      <c r="C99" s="84"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
@@ -8190,7 +8188,7 @@
       <c r="B100" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="82"/>
+      <c r="C100" s="84"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
@@ -8199,7 +8197,7 @@
       <c r="B101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="82"/>
+      <c r="C101" s="84"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
@@ -8208,13 +8206,13 @@
       <c r="B102" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C102" s="82"/>
+      <c r="C102" s="84"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="32" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8230,7 +8228,7 @@
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="32" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8435,39 +8433,39 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="47" t="s">
+      <c r="A141" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="84" t="s">
+      <c r="C141" s="83" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="47" t="s">
+      <c r="A142" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="84"/>
+      <c r="C142" s="83"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="47" t="s">
+      <c r="A143" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="84"/>
+      <c r="C143" s="83"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A144" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="46" t="s">
+      <c r="A144" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="44" t="s">
         <v>406</v>
       </c>
       <c r="C144" s="85" t="s">
@@ -8475,91 +8473,91 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="37" t="s">
+      <c r="A145" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="35" t="s">
         <v>408</v>
       </c>
       <c r="C145" s="85"/>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="37" t="s">
+      <c r="A146" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="35" t="s">
         <v>409</v>
       </c>
       <c r="C146" s="85"/>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="37" t="s">
+      <c r="A147" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="35" t="s">
         <v>410</v>
       </c>
       <c r="C147" s="85"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="37" t="s">
+      <c r="A148" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="35" t="s">
         <v>411</v>
       </c>
       <c r="C148" s="85"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="47" t="s">
+      <c r="A149" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="45" t="s">
         <v>412</v>
       </c>
       <c r="C149" s="85"/>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="37" t="s">
+      <c r="A150" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="35" t="s">
         <v>413</v>
       </c>
       <c r="C150" s="85"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="37" t="s">
+      <c r="A151" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="35" t="s">
         <v>414</v>
       </c>
       <c r="C151" s="85"/>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="37" t="s">
+      <c r="A152" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="35" t="s">
         <v>415</v>
       </c>
       <c r="C152" s="85"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="37" t="s">
+      <c r="A153" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="35" t="s">
         <v>416</v>
       </c>
       <c r="C153" s="85"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="35" t="s">
+      <c r="A154" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="33" t="s">
         <v>417</v>
       </c>
       <c r="C154" s="86" t="s">
@@ -8573,7 +8571,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="83"/>
+      <c r="C155" s="87"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8582,7 +8580,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="83"/>
+      <c r="C156" s="87"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8591,16 +8589,16 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="83"/>
+      <c r="C157" s="87"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A158" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" s="36" t="s">
+      <c r="A158" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="82" t="s">
+      <c r="C158" s="84" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8608,43 +8606,43 @@
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="82"/>
+      <c r="C159" s="84"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="82"/>
+      <c r="C160" s="84"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="82"/>
+      <c r="C161" s="84"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="82"/>
+      <c r="C162" s="84"/>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" s="35" t="s">
+      <c r="A163" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="33" t="s">
         <v>428</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -8652,10 +8650,10 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B164" s="35" t="s">
+      <c r="A164" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="33" t="s">
         <v>430</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -8663,10 +8661,10 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="35" t="s">
+      <c r="A165" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="33" t="s">
         <v>432</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -8674,10 +8672,10 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166" s="35" t="s">
+      <c r="A166" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="33" t="s">
         <v>434</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -8685,10 +8683,10 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167" s="35" t="s">
+      <c r="A167" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="33" t="s">
         <v>436</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -8696,10 +8694,10 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="35" t="s">
+      <c r="A168" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="33" t="s">
         <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -8707,10 +8705,10 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169" s="35" t="s">
+      <c r="A169" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="33" t="s">
         <v>440</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -8718,10 +8716,10 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="35" t="s">
+      <c r="A170" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="33" t="s">
         <v>442</v>
       </c>
       <c r="C170" s="1" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="449">
   <si>
     <t>Раздел</t>
   </si>
@@ -1568,6 +1568,9 @@
   </si>
   <si>
     <t>NewCardTypeUserGroup</t>
+  </si>
+  <si>
+    <t>Проверить как при отсутствии сущностей назначется сущность по умолчанию. Может Конфигуратор не то показывает?</t>
   </si>
 </sst>
 </file>
@@ -2104,63 +2107,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3094,13 +3097,13 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="64"/>
@@ -3116,9 +3119,9 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="65"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="64"/>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -3131,9 +3134,9 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="65"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="64"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
@@ -3146,9 +3149,9 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="64"/>
       <c r="E5" s="10" t="s">
         <v>18</v>
@@ -3164,9 +3167,9 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="65"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="64"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
@@ -3174,8 +3177,8 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -3188,9 +3191,9 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="74" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="64"/>
@@ -3205,9 +3208,9 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="64"/>
       <c r="E9" s="10" t="s">
         <v>28</v>
@@ -3223,9 +3226,9 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="64"/>
       <c r="E10" s="10" t="s">
         <v>31</v>
@@ -3239,9 +3242,9 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="64"/>
       <c r="E11" s="10" t="s">
         <v>33</v>
@@ -3257,9 +3260,9 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="64"/>
       <c r="E12" s="10" t="s">
         <v>36</v>
@@ -3267,9 +3270,9 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="64"/>
       <c r="E13" s="10" t="s">
         <v>37</v>
@@ -3278,9 +3281,9 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="64"/>
       <c r="E14" s="10" t="s">
         <v>38</v>
@@ -3291,9 +3294,9 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="64"/>
       <c r="E15" s="10" t="s">
         <v>40</v>
@@ -3309,9 +3312,9 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="64"/>
       <c r="E16" s="10" t="s">
         <v>44</v>
@@ -3324,9 +3327,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="64"/>
       <c r="E17" s="13" t="s">
         <v>46</v>
@@ -3334,9 +3337,9 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="62" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="74" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="64"/>
@@ -3351,9 +3354,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="64"/>
       <c r="E19" s="10" t="s">
         <v>28</v>
@@ -3369,9 +3372,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="64"/>
       <c r="E20" s="10" t="s">
         <v>49</v>
@@ -3385,9 +3388,9 @@
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="64"/>
       <c r="E21" s="10" t="s">
         <v>50</v>
@@ -3403,9 +3406,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="64"/>
       <c r="E22" s="10" t="s">
         <v>51</v>
@@ -3413,9 +3416,9 @@
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="64"/>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -3424,9 +3427,9 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="64"/>
       <c r="E24" s="10" t="s">
         <v>38</v>
@@ -3434,9 +3437,9 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="64"/>
       <c r="E25" s="13" t="s">
         <v>46</v>
@@ -3444,9 +3447,9 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="62" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="64"/>
@@ -3464,9 +3467,9 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="64"/>
       <c r="E27" s="10" t="s">
         <v>57</v>
@@ -3479,9 +3482,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="64"/>
       <c r="E28" s="10" t="s">
         <v>59</v>
@@ -3494,9 +3497,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="64"/>
       <c r="E29" s="10" t="s">
         <v>61</v>
@@ -3509,9 +3512,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="64"/>
       <c r="E30" s="10" t="s">
         <v>63</v>
@@ -3519,9 +3522,9 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="64"/>
       <c r="E31" s="10" t="s">
         <v>64</v>
@@ -3529,9 +3532,9 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="64"/>
       <c r="E32" s="10" t="s">
         <v>65</v>
@@ -3539,9 +3542,9 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="64"/>
       <c r="E33" s="10" t="s">
         <v>66</v>
@@ -3549,9 +3552,9 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="64"/>
       <c r="E34" s="10" t="s">
         <v>67</v>
@@ -3559,9 +3562,9 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="64"/>
       <c r="E35" s="13" t="s">
         <v>46</v>
@@ -3569,12 +3572,12 @@
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="67" t="s">
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
@@ -3584,12 +3587,15 @@
       <c r="G36" s="43" t="s">
         <v>71</v>
       </c>
+      <c r="I36" s="56" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="72"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="10" t="s">
         <v>72</v>
       </c>
@@ -3601,10 +3607,10 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="10" t="s">
         <v>74</v>
       </c>
@@ -3616,10 +3622,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="72"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="10" t="s">
         <v>76</v>
       </c>
@@ -3634,10 +3640,10 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="72"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="13" t="s">
         <v>46</v>
       </c>
@@ -3645,9 +3651,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="62" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="64"/>
@@ -3662,9 +3668,9 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="64"/>
       <c r="E42" s="10" t="s">
         <v>82</v>
@@ -3677,9 +3683,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="64"/>
       <c r="E43" s="10" t="s">
         <v>84</v>
@@ -3692,10 +3698,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="62" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="63"/>
@@ -3711,8 +3717,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="60"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="63"/>
       <c r="D45" s="64"/>
       <c r="E45" s="20" t="s">
@@ -3726,8 +3732,8 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="60"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="63"/>
       <c r="D46" s="64"/>
       <c r="E46" s="10" t="s">
@@ -3741,8 +3747,8 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="60"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="63"/>
       <c r="D47" s="64"/>
       <c r="E47" s="10" t="s">
@@ -3756,8 +3762,8 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="60"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="63"/>
       <c r="D48" s="64"/>
       <c r="E48" s="13" t="s">
@@ -3766,8 +3772,8 @@
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="73" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -3780,9 +3786,9 @@
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="61" t="s">
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="62" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="64"/>
@@ -3797,9 +3803,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="64"/>
       <c r="E51" s="10" t="s">
         <v>28</v>
@@ -3812,9 +3818,9 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="64"/>
       <c r="E52" s="10" t="s">
         <v>98</v>
@@ -3827,9 +3833,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="64"/>
       <c r="E53" s="10" t="s">
         <v>99</v>
@@ -3842,9 +3848,9 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="64"/>
       <c r="E54" s="10" t="s">
         <v>38</v>
@@ -3852,9 +3858,9 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="64"/>
       <c r="E55" s="10" t="s">
         <v>101</v>
@@ -3862,9 +3868,9 @@
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="62"/>
       <c r="D56" s="64"/>
       <c r="E56" s="10" t="s">
         <v>102</v>
@@ -3872,9 +3878,9 @@
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="62"/>
       <c r="D57" s="64"/>
       <c r="E57" s="13" t="s">
         <v>46</v>
@@ -3882,9 +3888,9 @@
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61" t="s">
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="62" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="64"/>
@@ -3899,9 +3905,9 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="64"/>
       <c r="E59" s="10" t="s">
         <v>106</v>
@@ -3914,9 +3920,9 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="64"/>
       <c r="E60" s="10" t="s">
         <v>108</v>
@@ -3929,9 +3935,9 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="64"/>
       <c r="E61" s="10" t="s">
         <v>110</v>
@@ -3944,9 +3950,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="64"/>
       <c r="E62" s="10" t="s">
         <v>112</v>
@@ -3954,9 +3960,9 @@
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="64"/>
       <c r="E63" s="13" t="s">
         <v>46</v>
@@ -3964,9 +3970,9 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61" t="s">
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="64"/>
@@ -3981,9 +3987,9 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="64"/>
       <c r="E65" s="10" t="s">
         <v>116</v>
@@ -3996,9 +4002,9 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="64"/>
       <c r="E66" s="10" t="s">
         <v>118</v>
@@ -4006,9 +4012,9 @@
       <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="64"/>
       <c r="E67" s="10" t="s">
         <v>119</v>
@@ -4021,9 +4027,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="62"/>
       <c r="D68" s="64"/>
       <c r="E68" s="20" t="s">
         <v>121</v>
@@ -4031,9 +4037,9 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="61"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="64"/>
       <c r="E69" s="13" t="s">
         <v>122</v>
@@ -4046,10 +4052,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="66" t="s">
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="82" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4063,10 +4069,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="66"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="82"/>
       <c r="E71" s="10" t="s">
         <v>28</v>
       </c>
@@ -4078,30 +4084,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="66"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="82"/>
       <c r="E72" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="66"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="66"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="82"/>
       <c r="E74" s="10" t="s">
         <v>129</v>
       </c>
@@ -4113,10 +4119,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="66"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="10" t="s">
         <v>131</v>
       </c>
@@ -4128,29 +4134,29 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="66"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="66"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="73" t="s">
+      <c r="A78" s="73"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="80" t="s">
         <v>133</v>
       </c>
       <c r="D78" s="64"/>
@@ -4165,9 +4171,9 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="73"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="80"/>
       <c r="D79" s="64"/>
       <c r="E79" s="10" t="s">
         <v>136</v>
@@ -4180,9 +4186,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="73"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="64"/>
       <c r="E80" s="48" t="s">
         <v>444</v>
@@ -4195,9 +4201,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="73"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="80"/>
       <c r="D81" s="64"/>
       <c r="E81" s="10" t="s">
         <v>139</v>
@@ -4213,9 +4219,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="73"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="80"/>
       <c r="D82" s="64"/>
       <c r="E82" s="13" t="s">
         <v>142</v>
@@ -4223,9 +4229,9 @@
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="61" t="s">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="62" t="s">
         <v>143</v>
       </c>
       <c r="D83" s="64"/>
@@ -4240,9 +4246,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="61"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="64"/>
       <c r="E84" s="10" t="s">
         <v>28</v>
@@ -4256,9 +4262,9 @@
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="61"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="64"/>
       <c r="E85" s="10" t="s">
         <v>145</v>
@@ -4266,9 +4272,9 @@
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="61"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="64"/>
       <c r="E86" s="10" t="s">
         <v>57</v>
@@ -4281,9 +4287,9 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="61"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="64"/>
       <c r="E87" s="10" t="s">
         <v>59</v>
@@ -4296,9 +4302,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="61"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="64"/>
       <c r="E88" s="10" t="s">
         <v>38</v>
@@ -4306,9 +4312,9 @@
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="61"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="64"/>
       <c r="E89" s="10" t="s">
         <v>148</v>
@@ -4316,9 +4322,9 @@
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="61"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="62"/>
       <c r="D90" s="64"/>
       <c r="E90" s="10" t="s">
         <v>149</v>
@@ -4326,9 +4332,9 @@
       <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="61"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="64"/>
       <c r="E91" s="10" t="s">
         <v>150</v>
@@ -4336,9 +4342,9 @@
       <c r="F91" s="17"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="61"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="64"/>
       <c r="E92" s="10" t="s">
         <v>151</v>
@@ -4346,9 +4352,9 @@
       <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="61"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="64"/>
       <c r="E93" s="10" t="s">
         <v>46</v>
@@ -4356,9 +4362,9 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="61"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="64"/>
       <c r="E94" s="10" t="s">
         <v>152</v>
@@ -4366,9 +4372,9 @@
       <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="61"/>
+      <c r="A95" s="73"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="64"/>
       <c r="E95" s="13" t="s">
         <v>153</v>
@@ -4376,10 +4382,10 @@
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="74" t="s">
+      <c r="A96" s="73"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="77" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4396,10 +4402,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="74"/>
+      <c r="A97" s="73"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="77"/>
       <c r="E97" s="10" t="s">
         <v>154</v>
       </c>
@@ -4407,10 +4413,10 @@
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="74"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="77"/>
       <c r="E98" s="10" t="s">
         <v>155</v>
       </c>
@@ -4418,10 +4424,10 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="74"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="77"/>
       <c r="E99" s="10" t="s">
         <v>98</v>
       </c>
@@ -4434,10 +4440,10 @@
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="74"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="77"/>
       <c r="E100" s="10" t="s">
         <v>101</v>
       </c>
@@ -4449,30 +4455,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="60"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="61"/>
-      <c r="D101" s="74"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="77"/>
       <c r="E101" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="17"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="60"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="74"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="77"/>
       <c r="E102" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="60"/>
-      <c r="B103" s="60"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="74" t="s">
+      <c r="A103" s="73"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="77" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4486,10 +4492,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="60"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="74"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="77"/>
       <c r="E104" s="10" t="s">
         <v>82</v>
       </c>
@@ -4501,10 +4507,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="74"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="77"/>
       <c r="E105" s="10" t="s">
         <v>159</v>
       </c>
@@ -4516,10 +4522,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="60"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="74"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="77"/>
       <c r="E106" s="13" t="s">
         <v>160</v>
       </c>
@@ -4534,9 +4540,9 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="60"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="62" t="s">
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="74" t="s">
         <v>163</v>
       </c>
       <c r="D107" s="64"/>
@@ -4551,9 +4557,9 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="62"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="64"/>
       <c r="E108" s="10" t="s">
         <v>28</v>
@@ -4566,9 +4572,9 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="62"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="64"/>
       <c r="E109" s="10" t="s">
         <v>164</v>
@@ -4576,9 +4582,9 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="60"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="62"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="64"/>
       <c r="E110" s="10" t="s">
         <v>57</v>
@@ -4591,9 +4597,9 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="60"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="62"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="74"/>
       <c r="D111" s="64"/>
       <c r="E111" s="10" t="s">
         <v>59</v>
@@ -4604,9 +4610,9 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="60"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="62"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="73"/>
+      <c r="C112" s="74"/>
       <c r="D112" s="64"/>
       <c r="E112" s="10" t="s">
         <v>148</v>
@@ -4615,9 +4621,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="60"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="62"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="64"/>
       <c r="E113" s="10" t="s">
         <v>149</v>
@@ -4626,9 +4632,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="60"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="62"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="74"/>
       <c r="D114" s="64"/>
       <c r="E114" s="10" t="s">
         <v>150</v>
@@ -4637,9 +4643,9 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="60"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="62"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="74"/>
       <c r="D115" s="64"/>
       <c r="E115" s="10" t="s">
         <v>151</v>
@@ -4648,9 +4654,9 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="60"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="62"/>
+      <c r="A116" s="73"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="74"/>
       <c r="D116" s="64"/>
       <c r="E116" s="13" t="s">
         <v>46</v>
@@ -4659,9 +4665,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="60"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="61" t="s">
+      <c r="A117" s="73"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="62" t="s">
         <v>165</v>
       </c>
       <c r="D117" s="64"/>
@@ -4676,9 +4682,9 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="60"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="61"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="64"/>
       <c r="E118" s="10" t="s">
         <v>166</v>
@@ -4686,9 +4692,9 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="60"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="61"/>
+      <c r="A119" s="73"/>
+      <c r="B119" s="73"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="64"/>
       <c r="E119" s="10" t="s">
         <v>102</v>
@@ -4696,9 +4702,9 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="60"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="61"/>
+      <c r="A120" s="73"/>
+      <c r="B120" s="73"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="64"/>
       <c r="E120" s="20" t="s">
         <v>167</v>
@@ -4711,9 +4717,9 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="60"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="61"/>
+      <c r="A121" s="73"/>
+      <c r="B121" s="73"/>
+      <c r="C121" s="62"/>
       <c r="D121" s="64"/>
       <c r="E121" s="10" t="s">
         <v>169</v>
@@ -4726,9 +4732,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="60"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="61"/>
+      <c r="A122" s="73"/>
+      <c r="B122" s="73"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="64"/>
       <c r="E122" s="10" t="s">
         <v>171</v>
@@ -4741,9 +4747,9 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="60"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="61"/>
+      <c r="A123" s="73"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="62"/>
       <c r="D123" s="64"/>
       <c r="E123" s="13" t="s">
         <v>172</v>
@@ -4756,9 +4762,9 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="60"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="61" t="s">
+      <c r="A124" s="73"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="62" t="s">
         <v>174</v>
       </c>
       <c r="D124" s="64"/>
@@ -4776,9 +4782,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="60"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="61"/>
+      <c r="A125" s="73"/>
+      <c r="B125" s="73"/>
+      <c r="C125" s="62"/>
       <c r="D125" s="64"/>
       <c r="E125" s="10" t="s">
         <v>179</v>
@@ -4791,9 +4797,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="60"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="61"/>
+      <c r="A126" s="73"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="62"/>
       <c r="D126" s="64"/>
       <c r="E126" s="10" t="s">
         <v>181</v>
@@ -4801,9 +4807,9 @@
       <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="60"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="61"/>
+      <c r="A127" s="73"/>
+      <c r="B127" s="73"/>
+      <c r="C127" s="62"/>
       <c r="D127" s="64"/>
       <c r="E127" s="10" t="s">
         <v>182</v>
@@ -4816,9 +4822,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="60"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="61" t="s">
+      <c r="A128" s="73"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="62" t="s">
         <v>184</v>
       </c>
       <c r="D128" s="64"/>
@@ -4836,9 +4842,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="60"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="61"/>
+      <c r="A129" s="73"/>
+      <c r="B129" s="73"/>
+      <c r="C129" s="62"/>
       <c r="D129" s="64"/>
       <c r="E129" s="10" t="s">
         <v>189</v>
@@ -4851,9 +4857,9 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="60"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="61"/>
+      <c r="A130" s="73"/>
+      <c r="B130" s="73"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="64"/>
       <c r="E130" s="10" t="s">
         <v>191</v>
@@ -4861,9 +4867,9 @@
       <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="61"/>
+      <c r="A131" s="73"/>
+      <c r="B131" s="73"/>
+      <c r="C131" s="62"/>
       <c r="D131" s="64"/>
       <c r="E131" s="13" t="s">
         <v>192</v>
@@ -4879,12 +4885,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60"/>
-      <c r="C132" s="68" t="s">
+      <c r="A132" s="73"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="69"/>
+      <c r="D132" s="67"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4896,10 +4902,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="68"/>
-      <c r="D133" s="69"/>
+      <c r="A133" s="73"/>
+      <c r="B133" s="73"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="67"/>
       <c r="E133" s="10" t="s">
         <v>28</v>
       </c>
@@ -4911,10 +4917,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="69"/>
+      <c r="A134" s="73"/>
+      <c r="B134" s="73"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="67"/>
       <c r="E134" s="10" t="s">
         <v>200</v>
       </c>
@@ -4926,10 +4932,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="69"/>
+      <c r="A135" s="73"/>
+      <c r="B135" s="73"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="67"/>
       <c r="E135" s="10" t="s">
         <v>202</v>
       </c>
@@ -4941,59 +4947,59 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="60"/>
-      <c r="B136" s="60"/>
-      <c r="C136" s="68"/>
-      <c r="D136" s="69"/>
+      <c r="A136" s="73"/>
+      <c r="B136" s="73"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="67"/>
       <c r="E136" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="60"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="69"/>
+      <c r="A137" s="73"/>
+      <c r="B137" s="73"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="67"/>
       <c r="E137" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="60"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="68"/>
-      <c r="D138" s="69"/>
+      <c r="A138" s="73"/>
+      <c r="B138" s="73"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="67"/>
       <c r="E138" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="69"/>
+      <c r="A139" s="73"/>
+      <c r="B139" s="73"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="67"/>
       <c r="E139" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="60"/>
-      <c r="B140" s="60"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="69"/>
+      <c r="A140" s="73"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="67"/>
       <c r="E140" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="60"/>
-      <c r="B141" s="60"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="70" t="s">
+      <c r="A141" s="73"/>
+      <c r="B141" s="73"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="69" t="s">
         <v>206</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -5007,40 +5013,40 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="60"/>
-      <c r="B142" s="60"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="70"/>
+      <c r="A142" s="73"/>
+      <c r="B142" s="73"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="69"/>
       <c r="E142" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F142" s="10"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="60"/>
-      <c r="B143" s="60"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="70"/>
+      <c r="A143" s="73"/>
+      <c r="B143" s="73"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="69"/>
       <c r="E143" s="10" t="s">
         <v>139</v>
       </c>
       <c r="F143" s="10"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="60"/>
-      <c r="B144" s="60"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="70"/>
+      <c r="A144" s="73"/>
+      <c r="B144" s="73"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="69"/>
       <c r="E144" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="60"/>
-      <c r="B145" s="60"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="70"/>
+      <c r="A145" s="73"/>
+      <c r="B145" s="73"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="69"/>
       <c r="E145" s="28" t="s">
         <v>208</v>
       </c>
@@ -5052,10 +5058,10 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="60"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="70"/>
+      <c r="A146" s="73"/>
+      <c r="B146" s="73"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="69"/>
       <c r="E146" s="10" t="s">
         <v>129</v>
       </c>
@@ -5067,10 +5073,10 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="60"/>
-      <c r="B147" s="60"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="70"/>
+      <c r="A147" s="73"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="69"/>
       <c r="E147" s="13" t="s">
         <v>210</v>
       </c>
@@ -5082,13 +5088,13 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="60" t="s">
+      <c r="A148" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="79" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="64"/>
@@ -5103,9 +5109,9 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="60"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="71"/>
+      <c r="A149" s="73"/>
+      <c r="B149" s="74"/>
+      <c r="C149" s="79"/>
       <c r="D149" s="64"/>
       <c r="E149" s="10" t="s">
         <v>213</v>
@@ -5118,9 +5124,9 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="60"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="71"/>
+      <c r="A150" s="73"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="79"/>
       <c r="D150" s="64"/>
       <c r="E150" s="10" t="s">
         <v>214</v>
@@ -5133,9 +5139,9 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="60"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="71"/>
+      <c r="A151" s="73"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="79"/>
       <c r="D151" s="64"/>
       <c r="E151" s="10" t="s">
         <v>33</v>
@@ -5148,9 +5154,9 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="60"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="71"/>
+      <c r="A152" s="73"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="79"/>
       <c r="D152" s="64"/>
       <c r="E152" s="10" t="s">
         <v>21</v>
@@ -5158,8 +5164,8 @@
       <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="60"/>
-      <c r="B153" s="60" t="s">
+      <c r="A153" s="73"/>
+      <c r="B153" s="73" t="s">
         <v>215</v>
       </c>
       <c r="C153" s="38" t="s">
@@ -5172,9 +5178,9 @@
       <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="60"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="61" t="s">
+      <c r="A154" s="73"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="62" t="s">
         <v>96</v>
       </c>
       <c r="D154" s="64"/>
@@ -5189,9 +5195,9 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="60"/>
-      <c r="B155" s="60"/>
-      <c r="C155" s="61"/>
+      <c r="A155" s="73"/>
+      <c r="B155" s="73"/>
+      <c r="C155" s="62"/>
       <c r="D155" s="64"/>
       <c r="E155" s="10" t="s">
         <v>28</v>
@@ -5202,14 +5208,14 @@
       <c r="G155" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I155" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="60"/>
-      <c r="B156" s="60"/>
-      <c r="C156" s="61"/>
+      <c r="A156" s="73"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="64"/>
       <c r="E156" s="10" t="s">
         <v>98</v>
@@ -5222,9 +5228,9 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="60"/>
-      <c r="B157" s="60"/>
-      <c r="C157" s="61"/>
+      <c r="A157" s="73"/>
+      <c r="B157" s="73"/>
+      <c r="C157" s="62"/>
       <c r="D157" s="64"/>
       <c r="E157" s="10" t="s">
         <v>99</v>
@@ -5237,9 +5243,9 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="60"/>
-      <c r="B158" s="60"/>
-      <c r="C158" s="61"/>
+      <c r="A158" s="73"/>
+      <c r="B158" s="73"/>
+      <c r="C158" s="62"/>
       <c r="D158" s="64"/>
       <c r="E158" s="10" t="s">
         <v>38</v>
@@ -5247,9 +5253,9 @@
       <c r="F158" s="10"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="60"/>
-      <c r="B159" s="60"/>
-      <c r="C159" s="61"/>
+      <c r="A159" s="73"/>
+      <c r="B159" s="73"/>
+      <c r="C159" s="62"/>
       <c r="D159" s="64"/>
       <c r="E159" s="10" t="s">
         <v>101</v>
@@ -5257,9 +5263,9 @@
       <c r="F159" s="10"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="60"/>
-      <c r="B160" s="60"/>
-      <c r="C160" s="61"/>
+      <c r="A160" s="73"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="64"/>
       <c r="E160" s="10" t="s">
         <v>102</v>
@@ -5267,9 +5273,9 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="61"/>
+      <c r="A161" s="73"/>
+      <c r="B161" s="73"/>
+      <c r="C161" s="62"/>
       <c r="D161" s="64"/>
       <c r="E161" s="13" t="s">
         <v>46</v>
@@ -5277,9 +5283,9 @@
       <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="60"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="77" t="s">
+      <c r="A162" s="73"/>
+      <c r="B162" s="73"/>
+      <c r="C162" s="78" t="s">
         <v>113</v>
       </c>
       <c r="D162" s="64"/>
@@ -5294,9 +5300,9 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="60"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="77"/>
+      <c r="A163" s="73"/>
+      <c r="B163" s="73"/>
+      <c r="C163" s="78"/>
       <c r="D163" s="64"/>
       <c r="E163" s="10" t="s">
         <v>116</v>
@@ -5309,9 +5315,9 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="60"/>
-      <c r="B164" s="60"/>
-      <c r="C164" s="77"/>
+      <c r="A164" s="73"/>
+      <c r="B164" s="73"/>
+      <c r="C164" s="78"/>
       <c r="D164" s="64"/>
       <c r="E164" s="10" t="s">
         <v>118</v>
@@ -5319,9 +5325,9 @@
       <c r="F164" s="10"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="60"/>
-      <c r="B165" s="60"/>
-      <c r="C165" s="77"/>
+      <c r="A165" s="73"/>
+      <c r="B165" s="73"/>
+      <c r="C165" s="78"/>
       <c r="D165" s="64"/>
       <c r="E165" s="10" t="s">
         <v>119</v>
@@ -5334,9 +5340,9 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="60"/>
-      <c r="B166" s="60"/>
-      <c r="C166" s="77"/>
+      <c r="A166" s="73"/>
+      <c r="B166" s="73"/>
+      <c r="C166" s="78"/>
       <c r="D166" s="64"/>
       <c r="E166" s="20" t="s">
         <v>121</v>
@@ -5344,9 +5350,9 @@
       <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="60"/>
-      <c r="B167" s="60"/>
-      <c r="C167" s="77"/>
+      <c r="A167" s="73"/>
+      <c r="B167" s="73"/>
+      <c r="C167" s="78"/>
       <c r="D167" s="64"/>
       <c r="E167" s="13" t="s">
         <v>122</v>
@@ -5359,10 +5365,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="60"/>
-      <c r="B168" s="60"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="74" t="s">
+      <c r="A168" s="73"/>
+      <c r="B168" s="73"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="77" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5376,10 +5382,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="60"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="74"/>
+      <c r="A169" s="73"/>
+      <c r="B169" s="73"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="77"/>
       <c r="E169" s="10" t="s">
         <v>28</v>
       </c>
@@ -5391,30 +5397,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="60"/>
-      <c r="B170" s="60"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="74"/>
+      <c r="A170" s="73"/>
+      <c r="B170" s="73"/>
+      <c r="C170" s="78"/>
+      <c r="D170" s="77"/>
       <c r="E170" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="10"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="60"/>
-      <c r="B171" s="60"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="74"/>
+      <c r="A171" s="73"/>
+      <c r="B171" s="73"/>
+      <c r="C171" s="78"/>
+      <c r="D171" s="77"/>
       <c r="E171" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="10"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="60"/>
-      <c r="B172" s="60"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="74"/>
+      <c r="A172" s="73"/>
+      <c r="B172" s="73"/>
+      <c r="C172" s="78"/>
+      <c r="D172" s="77"/>
       <c r="E172" s="10" t="s">
         <v>129</v>
       </c>
@@ -5426,10 +5432,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="60"/>
-      <c r="B173" s="60"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="74"/>
+      <c r="A173" s="73"/>
+      <c r="B173" s="73"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="77"/>
       <c r="E173" s="10" t="s">
         <v>131</v>
       </c>
@@ -5441,29 +5447,29 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="60"/>
-      <c r="B174" s="60"/>
-      <c r="C174" s="77"/>
-      <c r="D174" s="74"/>
+      <c r="A174" s="73"/>
+      <c r="B174" s="73"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="77"/>
       <c r="E174" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="60"/>
-      <c r="B175" s="60"/>
-      <c r="C175" s="77"/>
-      <c r="D175" s="74"/>
+      <c r="A175" s="73"/>
+      <c r="B175" s="73"/>
+      <c r="C175" s="78"/>
+      <c r="D175" s="77"/>
       <c r="E175" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="60"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="76" t="s">
+      <c r="A176" s="73"/>
+      <c r="B176" s="73"/>
+      <c r="C176" s="75" t="s">
         <v>133</v>
       </c>
       <c r="D176" s="64"/>
@@ -5478,9 +5484,9 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="60"/>
-      <c r="B177" s="60"/>
-      <c r="C177" s="76"/>
+      <c r="A177" s="73"/>
+      <c r="B177" s="73"/>
+      <c r="C177" s="75"/>
       <c r="D177" s="64"/>
       <c r="E177" s="10" t="s">
         <v>136</v>
@@ -5493,9 +5499,9 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="60"/>
-      <c r="B178" s="60"/>
-      <c r="C178" s="76"/>
+      <c r="A178" s="73"/>
+      <c r="B178" s="73"/>
+      <c r="C178" s="75"/>
       <c r="D178" s="64"/>
       <c r="E178" s="48" t="s">
         <v>444</v>
@@ -5508,9 +5514,9 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="60"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="76"/>
+      <c r="A179" s="73"/>
+      <c r="B179" s="73"/>
+      <c r="C179" s="75"/>
       <c r="D179" s="64"/>
       <c r="E179" s="10" t="s">
         <v>139</v>
@@ -5521,14 +5527,14 @@
       <c r="G179" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="I179" s="16" t="s">
+      <c r="I179" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="60"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="76"/>
+      <c r="A180" s="73"/>
+      <c r="B180" s="73"/>
+      <c r="C180" s="75"/>
       <c r="D180" s="64"/>
       <c r="E180" s="13" t="s">
         <v>142</v>
@@ -5536,9 +5542,9 @@
       <c r="F180" s="13"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="60"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="75" t="s">
+      <c r="A181" s="73"/>
+      <c r="B181" s="73"/>
+      <c r="C181" s="76" t="s">
         <v>143</v>
       </c>
       <c r="D181" s="64"/>
@@ -5553,9 +5559,9 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="60"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="75"/>
+      <c r="A182" s="73"/>
+      <c r="B182" s="73"/>
+      <c r="C182" s="76"/>
       <c r="D182" s="64"/>
       <c r="E182" s="10" t="s">
         <v>28</v>
@@ -5568,9 +5574,9 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="60"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="75"/>
+      <c r="A183" s="73"/>
+      <c r="B183" s="73"/>
+      <c r="C183" s="76"/>
       <c r="D183" s="64"/>
       <c r="E183" s="10" t="s">
         <v>145</v>
@@ -5578,9 +5584,9 @@
       <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="60"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="75"/>
+      <c r="A184" s="73"/>
+      <c r="B184" s="73"/>
+      <c r="C184" s="76"/>
       <c r="D184" s="64"/>
       <c r="E184" s="10" t="s">
         <v>57</v>
@@ -5593,9 +5599,9 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="60"/>
-      <c r="B185" s="60"/>
-      <c r="C185" s="75"/>
+      <c r="A185" s="73"/>
+      <c r="B185" s="73"/>
+      <c r="C185" s="76"/>
       <c r="D185" s="64"/>
       <c r="E185" s="10" t="s">
         <v>59</v>
@@ -5608,9 +5614,9 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="60"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="75"/>
+      <c r="A186" s="73"/>
+      <c r="B186" s="73"/>
+      <c r="C186" s="76"/>
       <c r="D186" s="64"/>
       <c r="E186" s="10" t="s">
         <v>38</v>
@@ -5618,9 +5624,9 @@
       <c r="F186" s="10"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="60"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="75"/>
+      <c r="A187" s="73"/>
+      <c r="B187" s="73"/>
+      <c r="C187" s="76"/>
       <c r="D187" s="64"/>
       <c r="E187" s="10" t="s">
         <v>148</v>
@@ -5628,9 +5634,9 @@
       <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="60"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="75"/>
+      <c r="A188" s="73"/>
+      <c r="B188" s="73"/>
+      <c r="C188" s="76"/>
       <c r="D188" s="64"/>
       <c r="E188" s="10" t="s">
         <v>149</v>
@@ -5638,9 +5644,9 @@
       <c r="F188" s="10"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="60"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="75"/>
+      <c r="A189" s="73"/>
+      <c r="B189" s="73"/>
+      <c r="C189" s="76"/>
       <c r="D189" s="64"/>
       <c r="E189" s="10" t="s">
         <v>150</v>
@@ -5648,9 +5654,9 @@
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="60"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="75"/>
+      <c r="A190" s="73"/>
+      <c r="B190" s="73"/>
+      <c r="C190" s="76"/>
       <c r="D190" s="64"/>
       <c r="E190" s="10" t="s">
         <v>151</v>
@@ -5658,9 +5664,9 @@
       <c r="F190" s="10"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="60"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="75"/>
+      <c r="A191" s="73"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="76"/>
       <c r="D191" s="64"/>
       <c r="E191" s="10" t="s">
         <v>152</v>
@@ -5668,9 +5674,9 @@
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="60"/>
-      <c r="B192" s="60"/>
-      <c r="C192" s="75"/>
+      <c r="A192" s="73"/>
+      <c r="B192" s="73"/>
+      <c r="C192" s="76"/>
       <c r="D192" s="64"/>
       <c r="E192" s="27" t="s">
         <v>216</v>
@@ -5678,10 +5684,10 @@
       <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="60"/>
-      <c r="B193" s="60"/>
-      <c r="C193" s="75"/>
-      <c r="D193" s="74" t="s">
+      <c r="A193" s="73"/>
+      <c r="B193" s="73"/>
+      <c r="C193" s="76"/>
+      <c r="D193" s="77" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5698,30 +5704,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="60"/>
-      <c r="B194" s="60"/>
-      <c r="C194" s="75"/>
-      <c r="D194" s="74"/>
+      <c r="A194" s="73"/>
+      <c r="B194" s="73"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="77"/>
       <c r="E194" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="60"/>
-      <c r="B195" s="60"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="74"/>
+      <c r="A195" s="73"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="77"/>
       <c r="E195" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="60"/>
-      <c r="B196" s="60"/>
-      <c r="C196" s="75"/>
-      <c r="D196" s="74"/>
+      <c r="A196" s="73"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="77"/>
       <c r="E196" s="10" t="s">
         <v>98</v>
       </c>
@@ -5733,10 +5739,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="60"/>
-      <c r="B197" s="60"/>
-      <c r="C197" s="75"/>
-      <c r="D197" s="74"/>
+      <c r="A197" s="73"/>
+      <c r="B197" s="73"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="77"/>
       <c r="E197" s="10" t="s">
         <v>101</v>
       </c>
@@ -5748,40 +5754,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="60"/>
-      <c r="B198" s="60"/>
-      <c r="C198" s="75"/>
-      <c r="D198" s="74"/>
+      <c r="A198" s="73"/>
+      <c r="B198" s="73"/>
+      <c r="C198" s="76"/>
+      <c r="D198" s="77"/>
       <c r="E198" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="10"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="60"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="74"/>
+      <c r="A199" s="73"/>
+      <c r="B199" s="73"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="77"/>
       <c r="E199" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="10"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="60"/>
-      <c r="B200" s="60"/>
-      <c r="C200" s="75"/>
-      <c r="D200" s="74"/>
+      <c r="A200" s="73"/>
+      <c r="B200" s="73"/>
+      <c r="C200" s="76"/>
+      <c r="D200" s="77"/>
       <c r="E200" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="60"/>
-      <c r="B201" s="60"/>
-      <c r="C201" s="75"/>
-      <c r="D201" s="74" t="s">
+      <c r="A201" s="73"/>
+      <c r="B201" s="73"/>
+      <c r="C201" s="76"/>
+      <c r="D201" s="77" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5795,10 +5801,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="60"/>
-      <c r="B202" s="60"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="74"/>
+      <c r="A202" s="73"/>
+      <c r="B202" s="73"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="77"/>
       <c r="E202" s="10" t="s">
         <v>82</v>
       </c>
@@ -5810,10 +5816,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="60"/>
-      <c r="B203" s="60"/>
-      <c r="C203" s="75"/>
-      <c r="D203" s="74"/>
+      <c r="A203" s="73"/>
+      <c r="B203" s="73"/>
+      <c r="C203" s="76"/>
+      <c r="D203" s="77"/>
       <c r="E203" s="10" t="s">
         <v>159</v>
       </c>
@@ -5825,10 +5831,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="60"/>
-      <c r="B204" s="60"/>
-      <c r="C204" s="75"/>
-      <c r="D204" s="74"/>
+      <c r="A204" s="73"/>
+      <c r="B204" s="73"/>
+      <c r="C204" s="76"/>
+      <c r="D204" s="77"/>
       <c r="E204" s="13" t="s">
         <v>160</v>
       </c>
@@ -5840,10 +5846,10 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="60"/>
-      <c r="B205" s="60"/>
-      <c r="C205" s="75"/>
-      <c r="D205" s="70" t="s">
+      <c r="A205" s="73"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="76"/>
+      <c r="D205" s="69" t="s">
         <v>216</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5857,10 +5863,10 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="60"/>
-      <c r="B206" s="60"/>
-      <c r="C206" s="75"/>
-      <c r="D206" s="70"/>
+      <c r="A206" s="73"/>
+      <c r="B206" s="73"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="69"/>
       <c r="E206" s="10" t="s">
         <v>49</v>
       </c>
@@ -5872,10 +5878,10 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="60"/>
-      <c r="B207" s="60"/>
-      <c r="C207" s="75"/>
-      <c r="D207" s="70"/>
+      <c r="A207" s="73"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="76"/>
+      <c r="D207" s="69"/>
       <c r="E207" s="10" t="s">
         <v>50</v>
       </c>
@@ -5887,29 +5893,29 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="60"/>
-      <c r="B208" s="60"/>
-      <c r="C208" s="75"/>
-      <c r="D208" s="70"/>
+      <c r="A208" s="73"/>
+      <c r="B208" s="73"/>
+      <c r="C208" s="76"/>
+      <c r="D208" s="69"/>
       <c r="E208" s="10" t="s">
         <v>221</v>
       </c>
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="60"/>
-      <c r="B209" s="60"/>
-      <c r="C209" s="75"/>
-      <c r="D209" s="70"/>
+      <c r="A209" s="73"/>
+      <c r="B209" s="73"/>
+      <c r="C209" s="76"/>
+      <c r="D209" s="69"/>
       <c r="E209" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="60"/>
-      <c r="B210" s="60"/>
-      <c r="C210" s="76" t="s">
+      <c r="A210" s="73"/>
+      <c r="B210" s="73"/>
+      <c r="C210" s="75" t="s">
         <v>163</v>
       </c>
       <c r="D210" s="64"/>
@@ -5924,9 +5930,9 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="60"/>
-      <c r="B211" s="60"/>
-      <c r="C211" s="76"/>
+      <c r="A211" s="73"/>
+      <c r="B211" s="73"/>
+      <c r="C211" s="75"/>
       <c r="D211" s="64"/>
       <c r="E211" s="10" t="s">
         <v>28</v>
@@ -5939,9 +5945,9 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="60"/>
-      <c r="B212" s="60"/>
-      <c r="C212" s="76"/>
+      <c r="A212" s="73"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="75"/>
       <c r="D212" s="64"/>
       <c r="E212" s="10" t="s">
         <v>164</v>
@@ -5949,9 +5955,9 @@
       <c r="F212" s="10"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="60"/>
-      <c r="B213" s="60"/>
-      <c r="C213" s="76"/>
+      <c r="A213" s="73"/>
+      <c r="B213" s="73"/>
+      <c r="C213" s="75"/>
       <c r="D213" s="64"/>
       <c r="E213" s="10" t="s">
         <v>57</v>
@@ -5964,9 +5970,9 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="60"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="76"/>
+      <c r="A214" s="73"/>
+      <c r="B214" s="73"/>
+      <c r="C214" s="75"/>
       <c r="D214" s="64"/>
       <c r="E214" s="10" t="s">
         <v>59</v>
@@ -5979,9 +5985,9 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="60"/>
-      <c r="B215" s="60"/>
-      <c r="C215" s="76"/>
+      <c r="A215" s="73"/>
+      <c r="B215" s="73"/>
+      <c r="C215" s="75"/>
       <c r="D215" s="64"/>
       <c r="E215" s="10" t="s">
         <v>148</v>
@@ -5989,9 +5995,9 @@
       <c r="F215" s="10"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="60"/>
-      <c r="B216" s="60"/>
-      <c r="C216" s="76"/>
+      <c r="A216" s="73"/>
+      <c r="B216" s="73"/>
+      <c r="C216" s="75"/>
       <c r="D216" s="64"/>
       <c r="E216" s="10" t="s">
         <v>149</v>
@@ -5999,9 +6005,9 @@
       <c r="F216" s="10"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="60"/>
-      <c r="B217" s="60"/>
-      <c r="C217" s="76"/>
+      <c r="A217" s="73"/>
+      <c r="B217" s="73"/>
+      <c r="C217" s="75"/>
       <c r="D217" s="64"/>
       <c r="E217" s="10" t="s">
         <v>150</v>
@@ -6009,9 +6015,9 @@
       <c r="F217" s="10"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="60"/>
-      <c r="B218" s="60"/>
-      <c r="C218" s="76"/>
+      <c r="A218" s="73"/>
+      <c r="B218" s="73"/>
+      <c r="C218" s="75"/>
       <c r="D218" s="64"/>
       <c r="E218" s="10" t="s">
         <v>151</v>
@@ -6019,9 +6025,9 @@
       <c r="F218" s="10"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="60"/>
-      <c r="B219" s="60"/>
-      <c r="C219" s="76"/>
+      <c r="A219" s="73"/>
+      <c r="B219" s="73"/>
+      <c r="C219" s="75"/>
       <c r="D219" s="64"/>
       <c r="E219" s="13" t="s">
         <v>46</v>
@@ -6029,9 +6035,9 @@
       <c r="F219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="60"/>
-      <c r="B220" s="60"/>
-      <c r="C220" s="76" t="s">
+      <c r="A220" s="73"/>
+      <c r="B220" s="73"/>
+      <c r="C220" s="75" t="s">
         <v>165</v>
       </c>
       <c r="D220" s="64"/>
@@ -6046,9 +6052,9 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="60"/>
-      <c r="B221" s="60"/>
-      <c r="C221" s="76"/>
+      <c r="A221" s="73"/>
+      <c r="B221" s="73"/>
+      <c r="C221" s="75"/>
       <c r="D221" s="64"/>
       <c r="E221" s="10" t="s">
         <v>166</v>
@@ -6056,9 +6062,9 @@
       <c r="F221" s="10"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="60"/>
-      <c r="B222" s="60"/>
-      <c r="C222" s="76"/>
+      <c r="A222" s="73"/>
+      <c r="B222" s="73"/>
+      <c r="C222" s="75"/>
       <c r="D222" s="64"/>
       <c r="E222" s="10" t="s">
         <v>102</v>
@@ -6066,9 +6072,9 @@
       <c r="F222" s="10"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="60"/>
-      <c r="B223" s="60"/>
-      <c r="C223" s="76"/>
+      <c r="A223" s="73"/>
+      <c r="B223" s="73"/>
+      <c r="C223" s="75"/>
       <c r="D223" s="64"/>
       <c r="E223" s="20" t="s">
         <v>167</v>
@@ -6081,9 +6087,9 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="60"/>
-      <c r="B224" s="60"/>
-      <c r="C224" s="76"/>
+      <c r="A224" s="73"/>
+      <c r="B224" s="73"/>
+      <c r="C224" s="75"/>
       <c r="D224" s="64"/>
       <c r="E224" s="10" t="s">
         <v>169</v>
@@ -6096,9 +6102,9 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="60"/>
-      <c r="B225" s="60"/>
-      <c r="C225" s="76"/>
+      <c r="A225" s="73"/>
+      <c r="B225" s="73"/>
+      <c r="C225" s="75"/>
       <c r="D225" s="64"/>
       <c r="E225" s="10" t="s">
         <v>171</v>
@@ -6111,9 +6117,9 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="60"/>
-      <c r="B226" s="60"/>
-      <c r="C226" s="76"/>
+      <c r="A226" s="73"/>
+      <c r="B226" s="73"/>
+      <c r="C226" s="75"/>
       <c r="D226" s="64"/>
       <c r="E226" s="13" t="s">
         <v>172</v>
@@ -6126,9 +6132,9 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="60"/>
-      <c r="B227" s="60"/>
-      <c r="C227" s="76" t="s">
+      <c r="A227" s="73"/>
+      <c r="B227" s="73"/>
+      <c r="C227" s="75" t="s">
         <v>174</v>
       </c>
       <c r="D227" s="64"/>
@@ -6146,9 +6152,9 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="60"/>
-      <c r="B228" s="60"/>
-      <c r="C228" s="76"/>
+      <c r="A228" s="73"/>
+      <c r="B228" s="73"/>
+      <c r="C228" s="75"/>
       <c r="D228" s="64"/>
       <c r="E228" s="10" t="s">
         <v>179</v>
@@ -6161,9 +6167,9 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="60"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="76"/>
+      <c r="A229" s="73"/>
+      <c r="B229" s="73"/>
+      <c r="C229" s="75"/>
       <c r="D229" s="64"/>
       <c r="E229" s="10" t="s">
         <v>181</v>
@@ -6171,9 +6177,9 @@
       <c r="F229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="60"/>
-      <c r="B230" s="60"/>
-      <c r="C230" s="76"/>
+      <c r="A230" s="73"/>
+      <c r="B230" s="73"/>
+      <c r="C230" s="75"/>
       <c r="D230" s="64"/>
       <c r="E230" s="13" t="s">
         <v>182</v>
@@ -6186,9 +6192,9 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="60"/>
-      <c r="B231" s="60"/>
-      <c r="C231" s="76" t="s">
+      <c r="A231" s="73"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="75" t="s">
         <v>184</v>
       </c>
       <c r="D231" s="64"/>
@@ -6206,9 +6212,9 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="60"/>
-      <c r="B232" s="60"/>
-      <c r="C232" s="76"/>
+      <c r="A232" s="73"/>
+      <c r="B232" s="73"/>
+      <c r="C232" s="75"/>
       <c r="D232" s="64"/>
       <c r="E232" s="10" t="s">
         <v>189</v>
@@ -6221,9 +6227,9 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="60"/>
-      <c r="B233" s="60"/>
-      <c r="C233" s="76"/>
+      <c r="A233" s="73"/>
+      <c r="B233" s="73"/>
+      <c r="C233" s="75"/>
       <c r="D233" s="64"/>
       <c r="E233" s="10" t="s">
         <v>191</v>
@@ -6231,9 +6237,9 @@
       <c r="F233" s="10"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="60"/>
-      <c r="B234" s="60"/>
-      <c r="C234" s="76"/>
+      <c r="A234" s="73"/>
+      <c r="B234" s="73"/>
+      <c r="C234" s="75"/>
       <c r="D234" s="64"/>
       <c r="E234" s="13" t="s">
         <v>192</v>
@@ -6249,12 +6255,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="60"/>
-      <c r="B235" s="60"/>
-      <c r="C235" s="79" t="s">
+      <c r="A235" s="73"/>
+      <c r="B235" s="73"/>
+      <c r="C235" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="69"/>
+      <c r="D235" s="67"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6266,10 +6272,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="60"/>
-      <c r="B236" s="60"/>
-      <c r="C236" s="79"/>
-      <c r="D236" s="69"/>
+      <c r="A236" s="73"/>
+      <c r="B236" s="73"/>
+      <c r="C236" s="68"/>
+      <c r="D236" s="67"/>
       <c r="E236" s="10" t="s">
         <v>28</v>
       </c>
@@ -6281,10 +6287,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="60"/>
-      <c r="B237" s="60"/>
-      <c r="C237" s="79"/>
-      <c r="D237" s="69"/>
+      <c r="A237" s="73"/>
+      <c r="B237" s="73"/>
+      <c r="C237" s="68"/>
+      <c r="D237" s="67"/>
       <c r="E237" s="10" t="s">
         <v>200</v>
       </c>
@@ -6296,10 +6302,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="60"/>
-      <c r="B238" s="60"/>
-      <c r="C238" s="79"/>
-      <c r="D238" s="69"/>
+      <c r="A238" s="73"/>
+      <c r="B238" s="73"/>
+      <c r="C238" s="68"/>
+      <c r="D238" s="67"/>
       <c r="E238" s="10" t="s">
         <v>202</v>
       </c>
@@ -6311,50 +6317,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="60"/>
-      <c r="B239" s="60"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="69"/>
+      <c r="A239" s="73"/>
+      <c r="B239" s="73"/>
+      <c r="C239" s="68"/>
+      <c r="D239" s="67"/>
       <c r="E239" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="10"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="60"/>
-      <c r="B240" s="60"/>
-      <c r="C240" s="79"/>
-      <c r="D240" s="69"/>
+      <c r="A240" s="73"/>
+      <c r="B240" s="73"/>
+      <c r="C240" s="68"/>
+      <c r="D240" s="67"/>
       <c r="E240" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="10"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="60"/>
-      <c r="B241" s="60"/>
-      <c r="C241" s="79"/>
-      <c r="D241" s="69"/>
+      <c r="A241" s="73"/>
+      <c r="B241" s="73"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="67"/>
       <c r="E241" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="10"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="60"/>
-      <c r="B242" s="60"/>
-      <c r="C242" s="79"/>
-      <c r="D242" s="69"/>
+      <c r="A242" s="73"/>
+      <c r="B242" s="73"/>
+      <c r="C242" s="68"/>
+      <c r="D242" s="67"/>
       <c r="E242" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="10"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="60"/>
-      <c r="B243" s="60"/>
-      <c r="C243" s="79"/>
-      <c r="D243" s="69"/>
+      <c r="A243" s="73"/>
+      <c r="B243" s="73"/>
+      <c r="C243" s="68"/>
+      <c r="D243" s="67"/>
       <c r="E243" s="27" t="s">
         <v>206</v>
       </c>
@@ -6366,10 +6372,10 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="60"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="79"/>
-      <c r="D244" s="70" t="s">
+      <c r="A244" s="73"/>
+      <c r="B244" s="73"/>
+      <c r="C244" s="68"/>
+      <c r="D244" s="69" t="s">
         <v>206</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -6383,40 +6389,40 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="60"/>
-      <c r="B245" s="60"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="70"/>
+      <c r="A245" s="73"/>
+      <c r="B245" s="73"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="69"/>
       <c r="E245" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F245" s="10"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="60"/>
-      <c r="B246" s="60"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="70"/>
+      <c r="A246" s="73"/>
+      <c r="B246" s="73"/>
+      <c r="C246" s="68"/>
+      <c r="D246" s="69"/>
       <c r="E246" s="10" t="s">
         <v>139</v>
       </c>
       <c r="F246" s="10"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="60"/>
-      <c r="B247" s="60"/>
-      <c r="C247" s="79"/>
-      <c r="D247" s="70"/>
+      <c r="A247" s="73"/>
+      <c r="B247" s="73"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="69"/>
       <c r="E247" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F247" s="10"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="60"/>
-      <c r="B248" s="60"/>
-      <c r="C248" s="79"/>
-      <c r="D248" s="70"/>
+      <c r="A248" s="73"/>
+      <c r="B248" s="73"/>
+      <c r="C248" s="68"/>
+      <c r="D248" s="69"/>
       <c r="E248" s="20" t="s">
         <v>223</v>
       </c>
@@ -6428,10 +6434,10 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="60"/>
-      <c r="B249" s="60"/>
-      <c r="C249" s="79"/>
-      <c r="D249" s="70"/>
+      <c r="A249" s="73"/>
+      <c r="B249" s="73"/>
+      <c r="C249" s="68"/>
+      <c r="D249" s="69"/>
       <c r="E249" s="13" t="s">
         <v>129</v>
       </c>
@@ -6443,12 +6449,12 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="33" customHeight="1">
-      <c r="A250" s="60"/>
-      <c r="B250" s="60"/>
-      <c r="C250" s="67" t="s">
+      <c r="A250" s="73"/>
+      <c r="B250" s="73"/>
+      <c r="C250" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="72"/>
+      <c r="D250" s="71"/>
       <c r="E250" s="30" t="s">
         <v>225</v>
       </c>
@@ -6463,10 +6469,10 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="60"/>
-      <c r="B251" s="60"/>
-      <c r="C251" s="67"/>
-      <c r="D251" s="72"/>
+      <c r="A251" s="73"/>
+      <c r="B251" s="73"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="71"/>
       <c r="E251" s="10" t="s">
         <v>229</v>
       </c>
@@ -6478,10 +6484,10 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="60"/>
-      <c r="B252" s="60"/>
-      <c r="C252" s="67"/>
-      <c r="D252" s="72"/>
+      <c r="A252" s="73"/>
+      <c r="B252" s="73"/>
+      <c r="C252" s="70"/>
+      <c r="D252" s="71"/>
       <c r="E252" s="10" t="s">
         <v>231</v>
       </c>
@@ -6493,10 +6499,10 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="60"/>
-      <c r="B253" s="60"/>
-      <c r="C253" s="67"/>
-      <c r="D253" s="72"/>
+      <c r="A253" s="73"/>
+      <c r="B253" s="73"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="71"/>
       <c r="E253" s="10" t="s">
         <v>233</v>
       </c>
@@ -6508,10 +6514,10 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="60"/>
-      <c r="B254" s="60"/>
-      <c r="C254" s="67"/>
-      <c r="D254" s="72"/>
+      <c r="A254" s="73"/>
+      <c r="B254" s="73"/>
+      <c r="C254" s="70"/>
+      <c r="D254" s="71"/>
       <c r="E254" s="10" t="s">
         <v>235</v>
       </c>
@@ -6523,10 +6529,10 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="60"/>
-      <c r="B255" s="60"/>
-      <c r="C255" s="67"/>
-      <c r="D255" s="72"/>
+      <c r="A255" s="73"/>
+      <c r="B255" s="73"/>
+      <c r="C255" s="70"/>
+      <c r="D255" s="71"/>
       <c r="E255" s="13" t="s">
         <v>237</v>
       </c>
@@ -6538,10 +6544,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="60"/>
-      <c r="B256" s="60"/>
-      <c r="C256" s="67"/>
-      <c r="D256" s="80" t="s">
+      <c r="A256" s="73"/>
+      <c r="B256" s="73"/>
+      <c r="C256" s="70"/>
+      <c r="D256" s="72" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6555,30 +6561,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="60"/>
-      <c r="B257" s="60"/>
-      <c r="C257" s="67"/>
-      <c r="D257" s="80"/>
+      <c r="A257" s="73"/>
+      <c r="B257" s="73"/>
+      <c r="C257" s="70"/>
+      <c r="D257" s="72"/>
       <c r="E257" s="10" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="10"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="60"/>
-      <c r="B258" s="60"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="80"/>
+      <c r="A258" s="73"/>
+      <c r="B258" s="73"/>
+      <c r="C258" s="70"/>
+      <c r="D258" s="72"/>
       <c r="E258" s="10" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="10"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="60"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="80"/>
+      <c r="A259" s="73"/>
+      <c r="B259" s="73"/>
+      <c r="C259" s="70"/>
+      <c r="D259" s="72"/>
       <c r="E259" s="10" t="s">
         <v>244</v>
       </c>
@@ -6590,10 +6596,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="60"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="67"/>
-      <c r="D260" s="80"/>
+      <c r="A260" s="73"/>
+      <c r="B260" s="73"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="72"/>
       <c r="E260" s="10" t="s">
         <v>18</v>
       </c>
@@ -6605,50 +6611,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="60"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="67"/>
-      <c r="D261" s="80"/>
+      <c r="A261" s="73"/>
+      <c r="B261" s="73"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="72"/>
       <c r="E261" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="60"/>
-      <c r="B262" s="60"/>
-      <c r="C262" s="67"/>
-      <c r="D262" s="80"/>
+      <c r="A262" s="73"/>
+      <c r="B262" s="73"/>
+      <c r="C262" s="70"/>
+      <c r="D262" s="72"/>
       <c r="E262" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="10"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="60"/>
-      <c r="B263" s="60"/>
-      <c r="C263" s="67"/>
-      <c r="D263" s="80"/>
+      <c r="A263" s="73"/>
+      <c r="B263" s="73"/>
+      <c r="C263" s="70"/>
+      <c r="D263" s="72"/>
       <c r="E263" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="10"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="60"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="67"/>
-      <c r="D264" s="80"/>
+      <c r="A264" s="73"/>
+      <c r="B264" s="73"/>
+      <c r="C264" s="70"/>
+      <c r="D264" s="72"/>
       <c r="E264" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="60"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="67"/>
-      <c r="D265" s="80" t="s">
+      <c r="A265" s="73"/>
+      <c r="B265" s="73"/>
+      <c r="C265" s="70"/>
+      <c r="D265" s="72" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6662,20 +6668,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="60"/>
-      <c r="B266" s="60"/>
-      <c r="C266" s="67"/>
-      <c r="D266" s="80"/>
+      <c r="A266" s="73"/>
+      <c r="B266" s="73"/>
+      <c r="C266" s="70"/>
+      <c r="D266" s="72"/>
       <c r="E266" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="10"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="60"/>
-      <c r="B267" s="60"/>
-      <c r="C267" s="67"/>
-      <c r="D267" s="80"/>
+      <c r="A267" s="73"/>
+      <c r="B267" s="73"/>
+      <c r="C267" s="70"/>
+      <c r="D267" s="72"/>
       <c r="E267" s="20" t="s">
         <v>250</v>
       </c>
@@ -6687,10 +6693,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="60"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="67"/>
-      <c r="D268" s="80"/>
+      <c r="A268" s="73"/>
+      <c r="B268" s="73"/>
+      <c r="C268" s="70"/>
+      <c r="D268" s="72"/>
       <c r="E268" s="10" t="s">
         <v>28</v>
       </c>
@@ -6702,10 +6708,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="60"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="67"/>
-      <c r="D269" s="80"/>
+      <c r="A269" s="73"/>
+      <c r="B269" s="73"/>
+      <c r="C269" s="70"/>
+      <c r="D269" s="72"/>
       <c r="E269" s="10" t="s">
         <v>98</v>
       </c>
@@ -6717,30 +6723,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="60"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="67"/>
-      <c r="D270" s="80"/>
+      <c r="A270" s="73"/>
+      <c r="B270" s="73"/>
+      <c r="C270" s="70"/>
+      <c r="D270" s="72"/>
       <c r="E270" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="10"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="60"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="67"/>
-      <c r="D271" s="80"/>
+      <c r="A271" s="73"/>
+      <c r="B271" s="73"/>
+      <c r="C271" s="70"/>
+      <c r="D271" s="72"/>
       <c r="E271" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="60"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="67"/>
-      <c r="D272" s="80" t="s">
+      <c r="A272" s="73"/>
+      <c r="B272" s="73"/>
+      <c r="C272" s="70"/>
+      <c r="D272" s="72" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6754,10 +6760,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="60"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="67"/>
-      <c r="D273" s="80"/>
+      <c r="A273" s="73"/>
+      <c r="B273" s="73"/>
+      <c r="C273" s="70"/>
+      <c r="D273" s="72"/>
       <c r="E273" s="10" t="s">
         <v>28</v>
       </c>
@@ -6769,10 +6775,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="60"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="67"/>
-      <c r="D274" s="80"/>
+      <c r="A274" s="73"/>
+      <c r="B274" s="73"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="72"/>
       <c r="E274" s="10" t="s">
         <v>57</v>
       </c>
@@ -6784,10 +6790,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="60"/>
-      <c r="B275" s="60"/>
-      <c r="C275" s="67"/>
-      <c r="D275" s="80"/>
+      <c r="A275" s="73"/>
+      <c r="B275" s="73"/>
+      <c r="C275" s="70"/>
+      <c r="D275" s="72"/>
       <c r="E275" s="10" t="s">
         <v>256</v>
       </c>
@@ -6799,80 +6805,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="60"/>
-      <c r="B276" s="60"/>
-      <c r="C276" s="67"/>
-      <c r="D276" s="80"/>
+      <c r="A276" s="73"/>
+      <c r="B276" s="73"/>
+      <c r="C276" s="70"/>
+      <c r="D276" s="72"/>
       <c r="E276" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="10"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="60"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="67"/>
-      <c r="D277" s="80"/>
+      <c r="A277" s="73"/>
+      <c r="B277" s="73"/>
+      <c r="C277" s="70"/>
+      <c r="D277" s="72"/>
       <c r="E277" s="10" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="10"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="60"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="67"/>
-      <c r="D278" s="80"/>
+      <c r="A278" s="73"/>
+      <c r="B278" s="73"/>
+      <c r="C278" s="70"/>
+      <c r="D278" s="72"/>
       <c r="E278" s="10" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="10"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="60"/>
-      <c r="B279" s="60"/>
-      <c r="C279" s="67"/>
-      <c r="D279" s="80"/>
+      <c r="A279" s="73"/>
+      <c r="B279" s="73"/>
+      <c r="C279" s="70"/>
+      <c r="D279" s="72"/>
       <c r="E279" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="10"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="60"/>
-      <c r="B280" s="60"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="80"/>
+      <c r="A280" s="73"/>
+      <c r="B280" s="73"/>
+      <c r="C280" s="70"/>
+      <c r="D280" s="72"/>
       <c r="E280" s="10" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="10"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="60"/>
-      <c r="B281" s="60"/>
-      <c r="C281" s="67"/>
-      <c r="D281" s="80"/>
+      <c r="A281" s="73"/>
+      <c r="B281" s="73"/>
+      <c r="C281" s="70"/>
+      <c r="D281" s="72"/>
       <c r="E281" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="10"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="60"/>
-      <c r="B282" s="60"/>
-      <c r="C282" s="67"/>
-      <c r="D282" s="80"/>
+      <c r="A282" s="73"/>
+      <c r="B282" s="73"/>
+      <c r="C282" s="70"/>
+      <c r="D282" s="72"/>
       <c r="E282" s="13" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="60"/>
-      <c r="B283" s="60"/>
-      <c r="C283" s="67"/>
-      <c r="D283" s="80" t="s">
+      <c r="A283" s="73"/>
+      <c r="B283" s="73"/>
+      <c r="C283" s="70"/>
+      <c r="D283" s="72" t="s">
         <v>258</v>
       </c>
       <c r="E283" s="30" t="s">
@@ -6886,30 +6892,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="60"/>
-      <c r="B284" s="60"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="80"/>
+      <c r="A284" s="73"/>
+      <c r="B284" s="73"/>
+      <c r="C284" s="70"/>
+      <c r="D284" s="72"/>
       <c r="E284" s="10" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="10"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="60"/>
-      <c r="B285" s="60"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="80"/>
+      <c r="A285" s="73"/>
+      <c r="B285" s="73"/>
+      <c r="C285" s="70"/>
+      <c r="D285" s="72"/>
       <c r="E285" s="10" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="10"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="60"/>
-      <c r="B286" s="60"/>
-      <c r="C286" s="67"/>
-      <c r="D286" s="80"/>
+      <c r="A286" s="73"/>
+      <c r="B286" s="73"/>
+      <c r="C286" s="70"/>
+      <c r="D286" s="72"/>
       <c r="E286" s="10" t="s">
         <v>263</v>
       </c>
@@ -6921,20 +6927,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="60"/>
-      <c r="B287" s="60"/>
-      <c r="C287" s="67"/>
-      <c r="D287" s="80"/>
+      <c r="A287" s="73"/>
+      <c r="B287" s="73"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="72"/>
       <c r="E287" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="10"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="60"/>
-      <c r="B288" s="60"/>
-      <c r="C288" s="67"/>
-      <c r="D288" s="80"/>
+      <c r="A288" s="73"/>
+      <c r="B288" s="73"/>
+      <c r="C288" s="70"/>
+      <c r="D288" s="72"/>
       <c r="E288" s="10" t="s">
         <v>101</v>
       </c>
@@ -6946,34 +6952,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="60"/>
-      <c r="B289" s="60"/>
-      <c r="C289" s="67"/>
-      <c r="D289" s="80"/>
+      <c r="A289" s="73"/>
+      <c r="B289" s="73"/>
+      <c r="C289" s="70"/>
+      <c r="D289" s="72"/>
       <c r="E289" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="10"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="60"/>
-      <c r="B290" s="60"/>
-      <c r="C290" s="67"/>
-      <c r="D290" s="80"/>
+      <c r="A290" s="73"/>
+      <c r="B290" s="73"/>
+      <c r="C290" s="70"/>
+      <c r="D290" s="72"/>
       <c r="E290" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="68" t="s">
+      <c r="B291" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="69"/>
+      <c r="C291" s="66"/>
+      <c r="D291" s="67"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6985,10 +6991,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="68"/>
-      <c r="B292" s="68"/>
-      <c r="C292" s="78"/>
-      <c r="D292" s="69"/>
+      <c r="A292" s="65"/>
+      <c r="B292" s="65"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="67"/>
       <c r="E292" s="10" t="s">
         <v>270</v>
       </c>
@@ -7000,10 +7006,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="68"/>
-      <c r="B293" s="68"/>
-      <c r="C293" s="78"/>
-      <c r="D293" s="69"/>
+      <c r="A293" s="65"/>
+      <c r="B293" s="65"/>
+      <c r="C293" s="66"/>
+      <c r="D293" s="67"/>
       <c r="E293" s="10" t="s">
         <v>272</v>
       </c>
@@ -7015,10 +7021,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="68"/>
-      <c r="B294" s="68"/>
-      <c r="C294" s="78"/>
-      <c r="D294" s="69"/>
+      <c r="A294" s="65"/>
+      <c r="B294" s="65"/>
+      <c r="C294" s="66"/>
+      <c r="D294" s="67"/>
       <c r="E294" s="10" t="s">
         <v>274</v>
       </c>
@@ -7030,22 +7036,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="68"/>
-      <c r="B295" s="68"/>
-      <c r="C295" s="78"/>
-      <c r="D295" s="69"/>
+      <c r="A295" s="65"/>
+      <c r="B295" s="65"/>
+      <c r="C295" s="66"/>
+      <c r="D295" s="67"/>
       <c r="E295" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="68"/>
-      <c r="B296" s="68" t="s">
+      <c r="A296" s="65"/>
+      <c r="B296" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="78"/>
-      <c r="D296" s="69"/>
+      <c r="C296" s="66"/>
+      <c r="D296" s="67"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -7057,10 +7063,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="68"/>
-      <c r="B297" s="68"/>
-      <c r="C297" s="78"/>
-      <c r="D297" s="69"/>
+      <c r="A297" s="65"/>
+      <c r="B297" s="65"/>
+      <c r="C297" s="66"/>
+      <c r="D297" s="67"/>
       <c r="E297" s="10" t="s">
         <v>280</v>
       </c>
@@ -7072,10 +7078,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="68"/>
-      <c r="B298" s="68"/>
-      <c r="C298" s="78"/>
-      <c r="D298" s="69"/>
+      <c r="A298" s="65"/>
+      <c r="B298" s="65"/>
+      <c r="C298" s="66"/>
+      <c r="D298" s="67"/>
       <c r="E298" s="10" t="s">
         <v>98</v>
       </c>
@@ -7087,10 +7093,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="68"/>
-      <c r="B299" s="68"/>
-      <c r="C299" s="78"/>
-      <c r="D299" s="69"/>
+      <c r="A299" s="65"/>
+      <c r="B299" s="65"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="67"/>
       <c r="E299" s="10" t="s">
         <v>18</v>
       </c>
@@ -7102,30 +7108,30 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="68"/>
-      <c r="B300" s="68"/>
-      <c r="C300" s="78"/>
-      <c r="D300" s="69"/>
+      <c r="A300" s="65"/>
+      <c r="B300" s="65"/>
+      <c r="C300" s="66"/>
+      <c r="D300" s="67"/>
       <c r="E300" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="10"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="68"/>
-      <c r="B301" s="68"/>
-      <c r="C301" s="78"/>
-      <c r="D301" s="69"/>
+      <c r="A301" s="65"/>
+      <c r="B301" s="65"/>
+      <c r="C301" s="66"/>
+      <c r="D301" s="67"/>
       <c r="E301" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="61" t="s">
+      <c r="A302" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="61" t="s">
+      <c r="B302" s="62" t="s">
         <v>285</v>
       </c>
       <c r="C302" s="63"/>
@@ -7141,8 +7147,8 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="61"/>
-      <c r="B303" s="61"/>
+      <c r="A303" s="62"/>
+      <c r="B303" s="62"/>
       <c r="C303" s="63"/>
       <c r="D303" s="64"/>
       <c r="E303" s="10" t="s">
@@ -7156,8 +7162,8 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="61"/>
-      <c r="B304" s="61"/>
+      <c r="A304" s="62"/>
+      <c r="B304" s="62"/>
       <c r="C304" s="63"/>
       <c r="D304" s="64"/>
       <c r="E304" s="10" t="s">
@@ -7171,8 +7177,8 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="61"/>
-      <c r="B305" s="61"/>
+      <c r="A305" s="62"/>
+      <c r="B305" s="62"/>
       <c r="C305" s="63"/>
       <c r="D305" s="64"/>
       <c r="E305" s="10" t="s">
@@ -7186,8 +7192,8 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="61"/>
-      <c r="B306" s="61"/>
+      <c r="A306" s="62"/>
+      <c r="B306" s="62"/>
       <c r="C306" s="63"/>
       <c r="D306" s="64"/>
       <c r="E306" s="13" t="s">
@@ -7196,8 +7202,8 @@
       <c r="F306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="61"/>
-      <c r="B307" s="61" t="s">
+      <c r="A307" s="62"/>
+      <c r="B307" s="62" t="s">
         <v>292</v>
       </c>
       <c r="C307" s="40" t="s">
@@ -7210,9 +7216,9 @@
       <c r="F307" s="21"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="61"/>
-      <c r="B308" s="61"/>
-      <c r="C308" s="61" t="s">
+      <c r="A308" s="62"/>
+      <c r="B308" s="62"/>
+      <c r="C308" s="62" t="s">
         <v>293</v>
       </c>
       <c r="D308" s="64"/>
@@ -7227,9 +7233,9 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="61"/>
-      <c r="B309" s="61"/>
-      <c r="C309" s="61"/>
+      <c r="A309" s="62"/>
+      <c r="B309" s="62"/>
+      <c r="C309" s="62"/>
       <c r="D309" s="64"/>
       <c r="E309" s="10" t="s">
         <v>31</v>
@@ -7242,9 +7248,9 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="61"/>
-      <c r="B310" s="61"/>
-      <c r="C310" s="61"/>
+      <c r="A310" s="62"/>
+      <c r="B310" s="62"/>
+      <c r="C310" s="62"/>
       <c r="D310" s="64"/>
       <c r="E310" s="10" t="s">
         <v>33</v>
@@ -7257,9 +7263,9 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="61"/>
-      <c r="B311" s="61"/>
-      <c r="C311" s="61"/>
+      <c r="A311" s="62"/>
+      <c r="B311" s="62"/>
+      <c r="C311" s="62"/>
       <c r="D311" s="64"/>
       <c r="E311" s="10" t="s">
         <v>296</v>
@@ -7267,9 +7273,9 @@
       <c r="F311" s="10"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="61"/>
-      <c r="B312" s="61"/>
-      <c r="C312" s="61"/>
+      <c r="A312" s="62"/>
+      <c r="B312" s="62"/>
+      <c r="C312" s="62"/>
       <c r="D312" s="64"/>
       <c r="E312" s="10" t="s">
         <v>297</v>
@@ -7277,9 +7283,9 @@
       <c r="F312" s="10"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="61"/>
-      <c r="B313" s="61"/>
-      <c r="C313" s="61"/>
+      <c r="A313" s="62"/>
+      <c r="B313" s="62"/>
+      <c r="C313" s="62"/>
       <c r="D313" s="64"/>
       <c r="E313" s="13" t="s">
         <v>46</v>
@@ -7287,9 +7293,9 @@
       <c r="F313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="61"/>
-      <c r="B314" s="61"/>
-      <c r="C314" s="61" t="s">
+      <c r="A314" s="62"/>
+      <c r="B314" s="62"/>
+      <c r="C314" s="62" t="s">
         <v>298</v>
       </c>
       <c r="D314" s="64"/>
@@ -7304,9 +7310,9 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="61"/>
-      <c r="B315" s="61"/>
-      <c r="C315" s="61"/>
+      <c r="A315" s="62"/>
+      <c r="B315" s="62"/>
+      <c r="C315" s="62"/>
       <c r="D315" s="64"/>
       <c r="E315" s="10" t="s">
         <v>49</v>
@@ -7319,9 +7325,9 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="61"/>
-      <c r="B316" s="61"/>
-      <c r="C316" s="61"/>
+      <c r="A316" s="62"/>
+      <c r="B316" s="62"/>
+      <c r="C316" s="62"/>
       <c r="D316" s="64"/>
       <c r="E316" s="10" t="s">
         <v>50</v>
@@ -7334,9 +7340,9 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="61"/>
-      <c r="B317" s="61"/>
-      <c r="C317" s="61"/>
+      <c r="A317" s="62"/>
+      <c r="B317" s="62"/>
+      <c r="C317" s="62"/>
       <c r="D317" s="64"/>
       <c r="E317" s="10" t="s">
         <v>299</v>
@@ -7344,9 +7350,9 @@
       <c r="F317" s="10"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="61"/>
-      <c r="B318" s="61"/>
-      <c r="C318" s="61"/>
+      <c r="A318" s="62"/>
+      <c r="B318" s="62"/>
+      <c r="C318" s="62"/>
       <c r="D318" s="64"/>
       <c r="E318" s="10" t="s">
         <v>51</v>
@@ -7354,9 +7360,9 @@
       <c r="F318" s="10"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="61"/>
-      <c r="B319" s="61"/>
-      <c r="C319" s="61"/>
+      <c r="A319" s="62"/>
+      <c r="B319" s="62"/>
+      <c r="C319" s="62"/>
       <c r="D319" s="64"/>
       <c r="E319" s="13" t="s">
         <v>46</v>
@@ -7364,10 +7370,10 @@
       <c r="F319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="61" t="s">
+      <c r="A320" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B320" s="61" t="s">
+      <c r="B320" s="62" t="s">
         <v>301</v>
       </c>
       <c r="C320" s="63"/>
@@ -7383,8 +7389,8 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="61"/>
-      <c r="B321" s="61"/>
+      <c r="A321" s="62"/>
+      <c r="B321" s="62"/>
       <c r="C321" s="63"/>
       <c r="D321" s="64"/>
       <c r="E321" s="10" t="s">
@@ -7398,8 +7404,8 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="61"/>
-      <c r="B322" s="61"/>
+      <c r="A322" s="62"/>
+      <c r="B322" s="62"/>
       <c r="C322" s="63"/>
       <c r="D322" s="64"/>
       <c r="E322" s="10" t="s">
@@ -7413,8 +7419,8 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="61"/>
-      <c r="B323" s="61"/>
+      <c r="A323" s="62"/>
+      <c r="B323" s="62"/>
       <c r="C323" s="63"/>
       <c r="D323" s="64"/>
       <c r="E323" s="10" t="s">
@@ -7428,8 +7434,8 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="61"/>
-      <c r="B324" s="61"/>
+      <c r="A324" s="62"/>
+      <c r="B324" s="62"/>
       <c r="C324" s="63"/>
       <c r="D324" s="64"/>
       <c r="E324" s="13" t="s">
@@ -7438,8 +7444,8 @@
       <c r="F324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="61"/>
-      <c r="B325" s="61" t="s">
+      <c r="A325" s="62"/>
+      <c r="B325" s="62" t="s">
         <v>310</v>
       </c>
       <c r="C325" s="40" t="s">
@@ -7452,9 +7458,9 @@
       <c r="F325" s="21"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="61"/>
-      <c r="B326" s="61"/>
-      <c r="C326" s="61" t="s">
+      <c r="A326" s="62"/>
+      <c r="B326" s="62"/>
+      <c r="C326" s="62" t="s">
         <v>143</v>
       </c>
       <c r="D326" s="64"/>
@@ -7469,9 +7475,9 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="61"/>
-      <c r="B327" s="61"/>
-      <c r="C327" s="61"/>
+      <c r="A327" s="62"/>
+      <c r="B327" s="62"/>
+      <c r="C327" s="62"/>
       <c r="D327" s="64"/>
       <c r="E327" s="10" t="s">
         <v>313</v>
@@ -7479,9 +7485,9 @@
       <c r="F327" s="10"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="61"/>
-      <c r="B328" s="61"/>
-      <c r="C328" s="61"/>
+      <c r="A328" s="62"/>
+      <c r="B328" s="62"/>
+      <c r="C328" s="62"/>
       <c r="D328" s="64"/>
       <c r="E328" s="10" t="s">
         <v>314</v>
@@ -7489,9 +7495,9 @@
       <c r="F328" s="10"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="61"/>
-      <c r="B329" s="61"/>
-      <c r="C329" s="61"/>
+      <c r="A329" s="62"/>
+      <c r="B329" s="62"/>
+      <c r="C329" s="62"/>
       <c r="D329" s="64"/>
       <c r="E329" s="10" t="s">
         <v>148</v>
@@ -7499,9 +7505,9 @@
       <c r="F329" s="10"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="61"/>
-      <c r="B330" s="61"/>
-      <c r="C330" s="61"/>
+      <c r="A330" s="62"/>
+      <c r="B330" s="62"/>
+      <c r="C330" s="62"/>
       <c r="D330" s="64"/>
       <c r="E330" s="10" t="s">
         <v>149</v>
@@ -7509,9 +7515,9 @@
       <c r="F330" s="10"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="61"/>
-      <c r="B331" s="61"/>
-      <c r="C331" s="61"/>
+      <c r="A331" s="62"/>
+      <c r="B331" s="62"/>
+      <c r="C331" s="62"/>
       <c r="D331" s="64"/>
       <c r="E331" s="10" t="s">
         <v>150</v>
@@ -7519,9 +7525,9 @@
       <c r="F331" s="10"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="61"/>
-      <c r="B332" s="61"/>
-      <c r="C332" s="61"/>
+      <c r="A332" s="62"/>
+      <c r="B332" s="62"/>
+      <c r="C332" s="62"/>
       <c r="D332" s="64"/>
       <c r="E332" s="10" t="s">
         <v>151</v>
@@ -7529,9 +7535,9 @@
       <c r="F332" s="10"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="61"/>
-      <c r="B333" s="61"/>
-      <c r="C333" s="61"/>
+      <c r="A333" s="62"/>
+      <c r="B333" s="62"/>
+      <c r="C333" s="62"/>
       <c r="D333" s="64"/>
       <c r="E333" s="10" t="s">
         <v>46</v>
@@ -7539,12 +7545,12 @@
       <c r="F333" s="10"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="81" t="s">
+      <c r="A334" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="82"/>
-      <c r="C334" s="82"/>
-      <c r="D334" s="82"/>
+      <c r="B334" s="61"/>
+      <c r="C334" s="61"/>
+      <c r="D334" s="61"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7556,10 +7562,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="81"/>
-      <c r="B335" s="81"/>
-      <c r="C335" s="82"/>
-      <c r="D335" s="82"/>
+      <c r="A335" s="60"/>
+      <c r="B335" s="60"/>
+      <c r="C335" s="61"/>
+      <c r="D335" s="61"/>
       <c r="E335" s="10" t="s">
         <v>28</v>
       </c>
@@ -7571,10 +7577,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="81"/>
-      <c r="B336" s="81"/>
-      <c r="C336" s="82"/>
-      <c r="D336" s="82"/>
+      <c r="A336" s="60"/>
+      <c r="B336" s="60"/>
+      <c r="C336" s="61"/>
+      <c r="D336" s="61"/>
       <c r="E336" s="10" t="s">
         <v>320</v>
       </c>
@@ -7586,10 +7592,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="81"/>
-      <c r="B337" s="81"/>
-      <c r="C337" s="82"/>
-      <c r="D337" s="82"/>
+      <c r="A337" s="60"/>
+      <c r="B337" s="60"/>
+      <c r="C337" s="61"/>
+      <c r="D337" s="61"/>
       <c r="E337" s="10" t="s">
         <v>322</v>
       </c>
@@ -7601,10 +7607,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="81"/>
-      <c r="B338" s="81"/>
-      <c r="C338" s="82"/>
-      <c r="D338" s="82"/>
+      <c r="A338" s="60"/>
+      <c r="B338" s="60"/>
+      <c r="C338" s="61"/>
+      <c r="D338" s="61"/>
       <c r="E338" s="10" t="s">
         <v>324</v>
       </c>
@@ -7616,20 +7622,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="81"/>
-      <c r="B339" s="81"/>
-      <c r="C339" s="82"/>
-      <c r="D339" s="82"/>
+      <c r="A339" s="60"/>
+      <c r="B339" s="60"/>
+      <c r="C339" s="61"/>
+      <c r="D339" s="61"/>
       <c r="E339" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="10"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="81"/>
-      <c r="B340" s="81"/>
-      <c r="C340" s="82"/>
-      <c r="D340" s="82"/>
+      <c r="A340" s="60"/>
+      <c r="B340" s="60"/>
+      <c r="C340" s="61"/>
+      <c r="D340" s="61"/>
       <c r="E340" s="13" t="s">
         <v>46</v>
       </c>
@@ -7638,26 +7644,67 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A44:A147"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="B49:B147"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B7:B43"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="C64:C77"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
     <mergeCell ref="A291:A301"/>
     <mergeCell ref="B291:B295"/>
     <mergeCell ref="C291:C295"/>
@@ -7682,67 +7729,26 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="D227:D230"/>
     <mergeCell ref="C231:C234"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="A44:A147"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="B49:B147"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B7:B43"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="D8:D17"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="C64:C77"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7754,8 +7760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -8113,7 +8119,7 @@
       <c r="A92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="35" t="s">
         <v>363</v>
       </c>
       <c r="C92" s="84"/>
@@ -8122,7 +8128,7 @@
       <c r="A93" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="35" t="s">
         <v>364</v>
       </c>
       <c r="C93" s="84"/>

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE8CDE-D8E1-4239-8984-E072FF8544FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1576,7 +1577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1994,7 +1995,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2107,63 +2108,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2181,23 +2179,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2989,11 +2987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3097,13 +3095,13 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="64"/>
@@ -3119,9 +3117,9 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="81"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="64"/>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -3134,9 +3132,9 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="81"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="64"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
@@ -3149,9 +3147,9 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="81"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="64"/>
       <c r="E5" s="10" t="s">
         <v>18</v>
@@ -3167,9 +3165,9 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="81"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="64"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
@@ -3177,8 +3175,8 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -3191,9 +3189,9 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="74" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="64"/>
@@ -3208,9 +3206,9 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="64"/>
       <c r="E9" s="10" t="s">
         <v>28</v>
@@ -3226,9 +3224,9 @@
       </c>
     </row>
     <row r="10" spans="1:64">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="64"/>
       <c r="E10" s="10" t="s">
         <v>31</v>
@@ -3242,9 +3240,9 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:64">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="74"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="64"/>
       <c r="E11" s="10" t="s">
         <v>33</v>
@@ -3260,9 +3258,9 @@
       </c>
     </row>
     <row r="12" spans="1:64">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="64"/>
       <c r="E12" s="10" t="s">
         <v>36</v>
@@ -3270,9 +3268,9 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:64">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="64"/>
       <c r="E13" s="10" t="s">
         <v>37</v>
@@ -3281,9 +3279,9 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="64"/>
       <c r="E14" s="10" t="s">
         <v>38</v>
@@ -3294,9 +3292,9 @@
       </c>
     </row>
     <row r="15" spans="1:64">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="64"/>
       <c r="E15" s="10" t="s">
         <v>40</v>
@@ -3312,9 +3310,9 @@
       </c>
     </row>
     <row r="16" spans="1:64">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="64"/>
       <c r="E16" s="10" t="s">
         <v>44</v>
@@ -3327,9 +3325,9 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="74"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="64"/>
       <c r="E17" s="13" t="s">
         <v>46</v>
@@ -3337,9 +3335,9 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="64"/>
@@ -3354,9 +3352,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="64"/>
       <c r="E19" s="10" t="s">
         <v>28</v>
@@ -3372,9 +3370,9 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="64"/>
       <c r="E20" s="10" t="s">
         <v>49</v>
@@ -3388,9 +3386,9 @@
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="64"/>
       <c r="E21" s="10" t="s">
         <v>50</v>
@@ -3406,9 +3404,9 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="64"/>
       <c r="E22" s="10" t="s">
         <v>51</v>
@@ -3416,9 +3414,9 @@
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="74"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="64"/>
       <c r="E23" s="10" t="s">
         <v>52</v>
@@ -3427,9 +3425,9 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="74"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="64"/>
       <c r="E24" s="10" t="s">
         <v>38</v>
@@ -3437,9 +3435,9 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="74"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="64"/>
       <c r="E25" s="13" t="s">
         <v>46</v>
@@ -3447,9 +3445,9 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="74" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="64"/>
@@ -3467,9 +3465,9 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="74"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="64"/>
       <c r="E27" s="10" t="s">
         <v>57</v>
@@ -3482,9 +3480,9 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="74"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="64"/>
       <c r="E28" s="10" t="s">
         <v>59</v>
@@ -3497,9 +3495,9 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="74"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="64"/>
       <c r="E29" s="10" t="s">
         <v>61</v>
@@ -3512,9 +3510,9 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="74"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="64"/>
       <c r="E30" s="10" t="s">
         <v>63</v>
@@ -3522,9 +3520,9 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="74"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="64"/>
       <c r="E31" s="10" t="s">
         <v>64</v>
@@ -3532,9 +3530,9 @@
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="74"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="64"/>
       <c r="E32" s="10" t="s">
         <v>65</v>
@@ -3542,9 +3540,9 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="74"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="64"/>
       <c r="E33" s="10" t="s">
         <v>66</v>
@@ -3552,9 +3550,9 @@
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="74"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="64"/>
       <c r="E34" s="10" t="s">
         <v>67</v>
@@ -3562,9 +3560,9 @@
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="74"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="64"/>
       <c r="E35" s="13" t="s">
         <v>46</v>
@@ -3572,19 +3570,19 @@
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="70" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="35" t="s">
         <v>71</v>
       </c>
       <c r="I36" s="56" t="s">
@@ -3592,58 +3590,58 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="13" t="s">
         <v>46</v>
       </c>
@@ -3651,9 +3649,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="74" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="64"/>
@@ -3668,9 +3666,9 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="64"/>
       <c r="E42" s="10" t="s">
         <v>82</v>
@@ -3683,9 +3681,9 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="64"/>
       <c r="E43" s="10" t="s">
         <v>84</v>
@@ -3698,10 +3696,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="63"/>
@@ -3717,8 +3715,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="63"/>
       <c r="D45" s="64"/>
       <c r="E45" s="20" t="s">
@@ -3732,8 +3730,8 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="73"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="63"/>
       <c r="D46" s="64"/>
       <c r="E46" s="10" t="s">
@@ -3747,8 +3745,8 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="63"/>
       <c r="D47" s="64"/>
       <c r="E47" s="10" t="s">
@@ -3762,8 +3760,8 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="73"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="63"/>
       <c r="D48" s="64"/>
       <c r="E48" s="13" t="s">
@@ -3772,8 +3770,8 @@
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="57">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -3786,9 +3784,9 @@
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="62" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="64"/>
@@ -3803,9 +3801,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.75">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="64"/>
       <c r="E51" s="10" t="s">
         <v>28</v>
@@ -3818,9 +3816,9 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="64"/>
       <c r="E52" s="10" t="s">
         <v>98</v>
@@ -3833,9 +3831,9 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="62"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="64"/>
       <c r="E53" s="10" t="s">
         <v>99</v>
@@ -3848,9 +3846,9 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="64"/>
       <c r="E54" s="10" t="s">
         <v>38</v>
@@ -3858,9 +3856,9 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="64"/>
       <c r="E55" s="10" t="s">
         <v>101</v>
@@ -3868,9 +3866,9 @@
       <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="64"/>
       <c r="E56" s="10" t="s">
         <v>102</v>
@@ -3878,9 +3876,9 @@
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="64"/>
       <c r="E57" s="13" t="s">
         <v>46</v>
@@ -3888,9 +3886,9 @@
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="62" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="64"/>
@@ -3905,9 +3903,9 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="64"/>
       <c r="E59" s="10" t="s">
         <v>106</v>
@@ -3920,9 +3918,9 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="73"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="64"/>
       <c r="E60" s="10" t="s">
         <v>108</v>
@@ -3935,9 +3933,9 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="62"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="64"/>
       <c r="E61" s="10" t="s">
         <v>110</v>
@@ -3950,9 +3948,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="64"/>
       <c r="E62" s="10" t="s">
         <v>112</v>
@@ -3960,9 +3958,9 @@
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="62"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="64"/>
       <c r="E63" s="13" t="s">
         <v>46</v>
@@ -3970,9 +3968,9 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="62" t="s">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="64"/>
@@ -3987,9 +3985,9 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="62"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="64"/>
       <c r="E65" s="10" t="s">
         <v>116</v>
@@ -4002,9 +4000,9 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="64"/>
       <c r="E66" s="10" t="s">
         <v>118</v>
@@ -4012,9 +4010,9 @@
       <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="62"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="64"/>
       <c r="E67" s="10" t="s">
         <v>119</v>
@@ -4027,9 +4025,9 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="30">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="62"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="64"/>
       <c r="E68" s="20" t="s">
         <v>121</v>
@@ -4037,9 +4035,9 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="105">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="62"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="64"/>
       <c r="E69" s="13" t="s">
         <v>122</v>
@@ -4052,10 +4050,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="82" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="65" t="s">
         <v>124</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -4069,10 +4067,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="82"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="10" t="s">
         <v>28</v>
       </c>
@@ -4084,30 +4082,30 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="82"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="82"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="82"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="10" t="s">
         <v>129</v>
       </c>
@@ -4119,10 +4117,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="82"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="10" t="s">
         <v>131</v>
       </c>
@@ -4134,29 +4132,29 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="82"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="65"/>
       <c r="E76" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="82"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="80" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="72" t="s">
         <v>133</v>
       </c>
       <c r="D78" s="64"/>
@@ -4171,9 +4169,9 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="80"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="72"/>
       <c r="D79" s="64"/>
       <c r="E79" s="10" t="s">
         <v>136</v>
@@ -4186,9 +4184,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="30">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="80"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="64"/>
       <c r="E80" s="48" t="s">
         <v>444</v>
@@ -4201,9 +4199,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="60">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="80"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="72"/>
       <c r="D81" s="64"/>
       <c r="E81" s="10" t="s">
         <v>139</v>
@@ -4219,9 +4217,9 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="73"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="80"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="72"/>
       <c r="D82" s="64"/>
       <c r="E82" s="13" t="s">
         <v>142</v>
@@ -4229,9 +4227,9 @@
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="62" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="61" t="s">
         <v>143</v>
       </c>
       <c r="D83" s="64"/>
@@ -4246,9 +4244,9 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="73"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="64"/>
       <c r="E84" s="10" t="s">
         <v>28</v>
@@ -4262,9 +4260,9 @@
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="73"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="62"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="64"/>
       <c r="E85" s="10" t="s">
         <v>145</v>
@@ -4272,9 +4270,9 @@
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="73"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="62"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="64"/>
       <c r="E86" s="10" t="s">
         <v>57</v>
@@ -4287,9 +4285,9 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="62"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="64"/>
       <c r="E87" s="10" t="s">
         <v>59</v>
@@ -4302,9 +4300,9 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="62"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="64"/>
       <c r="E88" s="10" t="s">
         <v>38</v>
@@ -4312,9 +4310,9 @@
       <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="62"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
       <c r="D89" s="64"/>
       <c r="E89" s="10" t="s">
         <v>148</v>
@@ -4322,9 +4320,9 @@
       <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="62"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
       <c r="D90" s="64"/>
       <c r="E90" s="10" t="s">
         <v>149</v>
@@ -4332,9 +4330,9 @@
       <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="62"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="64"/>
       <c r="E91" s="10" t="s">
         <v>150</v>
@@ -4342,9 +4340,9 @@
       <c r="F91" s="17"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="73"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="62"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
       <c r="D92" s="64"/>
       <c r="E92" s="10" t="s">
         <v>151</v>
@@ -4352,9 +4350,9 @@
       <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="62"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="61"/>
       <c r="D93" s="64"/>
       <c r="E93" s="10" t="s">
         <v>46</v>
@@ -4362,9 +4360,9 @@
       <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="73"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="62"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="61"/>
       <c r="D94" s="64"/>
       <c r="E94" s="10" t="s">
         <v>152</v>
@@ -4372,9 +4370,9 @@
       <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="73"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="64"/>
       <c r="E95" s="13" t="s">
         <v>153</v>
@@ -4382,10 +4380,10 @@
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A96" s="73"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="77" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="73" t="s">
         <v>152</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -4402,10 +4400,10 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="73"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="77"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="73"/>
       <c r="E97" s="10" t="s">
         <v>154</v>
       </c>
@@ -4413,10 +4411,10 @@
       <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="73"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="77"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="73"/>
       <c r="E98" s="10" t="s">
         <v>155</v>
       </c>
@@ -4424,10 +4422,10 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="73"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="77"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="73"/>
       <c r="E99" s="10" t="s">
         <v>98</v>
       </c>
@@ -4440,10 +4438,10 @@
       <c r="I99" s="9"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="77"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="73"/>
       <c r="E100" s="10" t="s">
         <v>101</v>
       </c>
@@ -4455,30 +4453,30 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="73"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="77"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="73"/>
       <c r="E101" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F101" s="17"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="77"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="73"/>
       <c r="E102" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="73"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="77" t="s">
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -4492,10 +4490,10 @@
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="73"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="77"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="73"/>
       <c r="E104" s="10" t="s">
         <v>82</v>
       </c>
@@ -4507,10 +4505,10 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="77"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="73"/>
       <c r="E105" s="10" t="s">
         <v>159</v>
       </c>
@@ -4522,10 +4520,10 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="30">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="77"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="73"/>
       <c r="E106" s="13" t="s">
         <v>160</v>
       </c>
@@ -4540,9 +4538,9 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="74" t="s">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="62" t="s">
         <v>163</v>
       </c>
       <c r="D107" s="64"/>
@@ -4557,9 +4555,9 @@
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="73"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="74"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="62"/>
       <c r="D108" s="64"/>
       <c r="E108" s="10" t="s">
         <v>28</v>
@@ -4572,9 +4570,9 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="73"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="74"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="62"/>
       <c r="D109" s="64"/>
       <c r="E109" s="10" t="s">
         <v>164</v>
@@ -4582,9 +4580,9 @@
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="74"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="62"/>
       <c r="D110" s="64"/>
       <c r="E110" s="10" t="s">
         <v>57</v>
@@ -4597,9 +4595,9 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="74"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="64"/>
       <c r="E111" s="10" t="s">
         <v>59</v>
@@ -4610,9 +4608,9 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="73"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="74"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="64"/>
       <c r="E112" s="10" t="s">
         <v>148</v>
@@ -4621,9 +4619,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="74"/>
+      <c r="A113" s="60"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="62"/>
       <c r="D113" s="64"/>
       <c r="E113" s="10" t="s">
         <v>149</v>
@@ -4632,9 +4630,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="74"/>
+      <c r="A114" s="60"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="62"/>
       <c r="D114" s="64"/>
       <c r="E114" s="10" t="s">
         <v>150</v>
@@ -4643,9 +4641,9 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="74"/>
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="62"/>
       <c r="D115" s="64"/>
       <c r="E115" s="10" t="s">
         <v>151</v>
@@ -4654,9 +4652,9 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="74"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="62"/>
       <c r="D116" s="64"/>
       <c r="E116" s="13" t="s">
         <v>46</v>
@@ -4665,9 +4663,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="62" t="s">
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="61" t="s">
         <v>165</v>
       </c>
       <c r="D117" s="64"/>
@@ -4682,9 +4680,9 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="62"/>
+      <c r="A118" s="60"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="61"/>
       <c r="D118" s="64"/>
       <c r="E118" s="10" t="s">
         <v>166</v>
@@ -4692,9 +4690,9 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="73"/>
-      <c r="B119" s="73"/>
-      <c r="C119" s="62"/>
+      <c r="A119" s="60"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="61"/>
       <c r="D119" s="64"/>
       <c r="E119" s="10" t="s">
         <v>102</v>
@@ -4702,9 +4700,9 @@
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:9" ht="30">
-      <c r="A120" s="73"/>
-      <c r="B120" s="73"/>
-      <c r="C120" s="62"/>
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="61"/>
       <c r="D120" s="64"/>
       <c r="E120" s="20" t="s">
         <v>167</v>
@@ -4717,9 +4715,9 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="27">
-      <c r="A121" s="73"/>
-      <c r="B121" s="73"/>
-      <c r="C121" s="62"/>
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="61"/>
       <c r="D121" s="64"/>
       <c r="E121" s="10" t="s">
         <v>169</v>
@@ -4732,9 +4730,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="73"/>
-      <c r="B122" s="73"/>
-      <c r="C122" s="62"/>
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="61"/>
       <c r="D122" s="64"/>
       <c r="E122" s="10" t="s">
         <v>171</v>
@@ -4747,9 +4745,9 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="73"/>
-      <c r="B123" s="73"/>
-      <c r="C123" s="62"/>
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="61"/>
       <c r="D123" s="64"/>
       <c r="E123" s="13" t="s">
         <v>172</v>
@@ -4762,9 +4760,9 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1">
-      <c r="A124" s="73"/>
-      <c r="B124" s="73"/>
-      <c r="C124" s="62" t="s">
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="61" t="s">
         <v>174</v>
       </c>
       <c r="D124" s="64"/>
@@ -4782,9 +4780,9 @@
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="73"/>
-      <c r="B125" s="73"/>
-      <c r="C125" s="62"/>
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="61"/>
       <c r="D125" s="64"/>
       <c r="E125" s="10" t="s">
         <v>179</v>
@@ -4797,9 +4795,9 @@
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="73"/>
-      <c r="B126" s="73"/>
-      <c r="C126" s="62"/>
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="61"/>
       <c r="D126" s="64"/>
       <c r="E126" s="10" t="s">
         <v>181</v>
@@ -4807,9 +4805,9 @@
       <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="73"/>
-      <c r="B127" s="73"/>
-      <c r="C127" s="62"/>
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="61"/>
       <c r="D127" s="64"/>
       <c r="E127" s="10" t="s">
         <v>182</v>
@@ -4822,9 +4820,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A128" s="73"/>
-      <c r="B128" s="73"/>
-      <c r="C128" s="62" t="s">
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="61" t="s">
         <v>184</v>
       </c>
       <c r="D128" s="64"/>
@@ -4842,9 +4840,9 @@
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="73"/>
-      <c r="B129" s="73"/>
-      <c r="C129" s="62"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="61"/>
       <c r="D129" s="64"/>
       <c r="E129" s="10" t="s">
         <v>189</v>
@@ -4857,9 +4855,9 @@
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="73"/>
-      <c r="B130" s="73"/>
-      <c r="C130" s="62"/>
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="61"/>
       <c r="D130" s="64"/>
       <c r="E130" s="10" t="s">
         <v>191</v>
@@ -4867,9 +4865,9 @@
       <c r="F130" s="10"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="73"/>
-      <c r="B131" s="73"/>
-      <c r="C131" s="62"/>
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="61"/>
       <c r="D131" s="64"/>
       <c r="E131" s="13" t="s">
         <v>192</v>
@@ -4885,12 +4883,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A132" s="73"/>
-      <c r="B132" s="73"/>
-      <c r="C132" s="65" t="s">
+      <c r="A132" s="60"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D132" s="67"/>
+      <c r="D132" s="68"/>
       <c r="E132" s="7" t="s">
         <v>196</v>
       </c>
@@ -4902,10 +4900,10 @@
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="73"/>
-      <c r="B133" s="73"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="67"/>
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
       <c r="E133" s="10" t="s">
         <v>28</v>
       </c>
@@ -4917,10 +4915,10 @@
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="73"/>
-      <c r="B134" s="73"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="67"/>
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
       <c r="E134" s="10" t="s">
         <v>200</v>
       </c>
@@ -4932,10 +4930,10 @@
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="73"/>
-      <c r="B135" s="73"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="67"/>
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="68"/>
       <c r="E135" s="10" t="s">
         <v>202</v>
       </c>
@@ -4947,58 +4945,58 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="73"/>
-      <c r="B136" s="73"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="67"/>
+      <c r="A136" s="60"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
       <c r="E136" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="73"/>
-      <c r="B137" s="73"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="67"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
       <c r="E137" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="73"/>
-      <c r="B138" s="73"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="67"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
       <c r="E138" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="73"/>
-      <c r="B139" s="73"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="67"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="68"/>
       <c r="E139" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:9" ht="30">
-      <c r="A140" s="73"/>
-      <c r="B140" s="73"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="67"/>
+      <c r="A140" s="60"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
       <c r="E140" s="27" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A141" s="73"/>
-      <c r="B141" s="73"/>
-      <c r="C141" s="65"/>
+      <c r="A141" s="60"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="67"/>
       <c r="D141" s="69" t="s">
         <v>206</v>
       </c>
@@ -5013,9 +5011,9 @@
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="73"/>
-      <c r="B142" s="73"/>
-      <c r="C142" s="65"/>
+      <c r="A142" s="60"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="67"/>
       <c r="D142" s="69"/>
       <c r="E142" s="10" t="s">
         <v>118</v>
@@ -5023,9 +5021,9 @@
       <c r="F142" s="10"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="73"/>
-      <c r="B143" s="73"/>
-      <c r="C143" s="65"/>
+      <c r="A143" s="60"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="67"/>
       <c r="D143" s="69"/>
       <c r="E143" s="10" t="s">
         <v>139</v>
@@ -5033,9 +5031,9 @@
       <c r="F143" s="10"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="73"/>
-      <c r="B144" s="73"/>
-      <c r="C144" s="65"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="67"/>
       <c r="D144" s="69"/>
       <c r="E144" s="10" t="s">
         <v>142</v>
@@ -5043,9 +5041,9 @@
       <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:9" ht="45">
-      <c r="A145" s="73"/>
-      <c r="B145" s="73"/>
-      <c r="C145" s="65"/>
+      <c r="A145" s="60"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="67"/>
       <c r="D145" s="69"/>
       <c r="E145" s="28" t="s">
         <v>208</v>
@@ -5058,9 +5056,9 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="73"/>
-      <c r="B146" s="73"/>
-      <c r="C146" s="65"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="69"/>
       <c r="E146" s="10" t="s">
         <v>129</v>
@@ -5073,9 +5071,9 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="73"/>
-      <c r="B147" s="73"/>
-      <c r="C147" s="65"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="69"/>
       <c r="E147" s="13" t="s">
         <v>210</v>
@@ -5088,13 +5086,13 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="73" t="s">
+      <c r="A148" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B148" s="74" t="s">
+      <c r="B148" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C148" s="79" t="s">
+      <c r="C148" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="64"/>
@@ -5109,9 +5107,9 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="73"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="79"/>
+      <c r="A149" s="60"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="70"/>
       <c r="D149" s="64"/>
       <c r="E149" s="10" t="s">
         <v>213</v>
@@ -5124,9 +5122,9 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="73"/>
-      <c r="B150" s="74"/>
-      <c r="C150" s="79"/>
+      <c r="A150" s="60"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="70"/>
       <c r="D150" s="64"/>
       <c r="E150" s="10" t="s">
         <v>214</v>
@@ -5139,9 +5137,9 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="73"/>
-      <c r="B151" s="74"/>
-      <c r="C151" s="79"/>
+      <c r="A151" s="60"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="70"/>
       <c r="D151" s="64"/>
       <c r="E151" s="10" t="s">
         <v>33</v>
@@ -5154,9 +5152,9 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="73"/>
-      <c r="B152" s="74"/>
-      <c r="C152" s="79"/>
+      <c r="A152" s="60"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="70"/>
       <c r="D152" s="64"/>
       <c r="E152" s="10" t="s">
         <v>21</v>
@@ -5164,8 +5162,8 @@
       <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:9" ht="57">
-      <c r="A153" s="73"/>
-      <c r="B153" s="73" t="s">
+      <c r="A153" s="60"/>
+      <c r="B153" s="60" t="s">
         <v>215</v>
       </c>
       <c r="C153" s="38" t="s">
@@ -5178,9 +5176,9 @@
       <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A154" s="73"/>
-      <c r="B154" s="73"/>
-      <c r="C154" s="62" t="s">
+      <c r="A154" s="60"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="61" t="s">
         <v>96</v>
       </c>
       <c r="D154" s="64"/>
@@ -5195,9 +5193,9 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="27.75">
-      <c r="A155" s="73"/>
-      <c r="B155" s="73"/>
-      <c r="C155" s="62"/>
+      <c r="A155" s="60"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="61"/>
       <c r="D155" s="64"/>
       <c r="E155" s="10" t="s">
         <v>28</v>
@@ -5213,9 +5211,9 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="73"/>
-      <c r="B156" s="73"/>
-      <c r="C156" s="62"/>
+      <c r="A156" s="60"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="61"/>
       <c r="D156" s="64"/>
       <c r="E156" s="10" t="s">
         <v>98</v>
@@ -5228,9 +5226,9 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="73"/>
-      <c r="B157" s="73"/>
-      <c r="C157" s="62"/>
+      <c r="A157" s="60"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="61"/>
       <c r="D157" s="64"/>
       <c r="E157" s="10" t="s">
         <v>99</v>
@@ -5243,9 +5241,9 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="73"/>
-      <c r="B158" s="73"/>
-      <c r="C158" s="62"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="61"/>
       <c r="D158" s="64"/>
       <c r="E158" s="10" t="s">
         <v>38</v>
@@ -5253,9 +5251,9 @@
       <c r="F158" s="10"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="73"/>
-      <c r="B159" s="73"/>
-      <c r="C159" s="62"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="61"/>
       <c r="D159" s="64"/>
       <c r="E159" s="10" t="s">
         <v>101</v>
@@ -5263,9 +5261,9 @@
       <c r="F159" s="10"/>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="73"/>
-      <c r="B160" s="73"/>
-      <c r="C160" s="62"/>
+      <c r="A160" s="60"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="61"/>
       <c r="D160" s="64"/>
       <c r="E160" s="10" t="s">
         <v>102</v>
@@ -5273,9 +5271,9 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="73"/>
-      <c r="B161" s="73"/>
-      <c r="C161" s="62"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="61"/>
       <c r="D161" s="64"/>
       <c r="E161" s="13" t="s">
         <v>46</v>
@@ -5283,9 +5281,9 @@
       <c r="F161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A162" s="73"/>
-      <c r="B162" s="73"/>
-      <c r="C162" s="78" t="s">
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="76" t="s">
         <v>113</v>
       </c>
       <c r="D162" s="64"/>
@@ -5300,9 +5298,9 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="73"/>
-      <c r="B163" s="73"/>
-      <c r="C163" s="78"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="76"/>
       <c r="D163" s="64"/>
       <c r="E163" s="10" t="s">
         <v>116</v>
@@ -5315,9 +5313,9 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="73"/>
-      <c r="B164" s="73"/>
-      <c r="C164" s="78"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="76"/>
       <c r="D164" s="64"/>
       <c r="E164" s="10" t="s">
         <v>118</v>
@@ -5325,9 +5323,9 @@
       <c r="F164" s="10"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="73"/>
-      <c r="B165" s="73"/>
-      <c r="C165" s="78"/>
+      <c r="A165" s="60"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="76"/>
       <c r="D165" s="64"/>
       <c r="E165" s="10" t="s">
         <v>119</v>
@@ -5340,9 +5338,9 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="30">
-      <c r="A166" s="73"/>
-      <c r="B166" s="73"/>
-      <c r="C166" s="78"/>
+      <c r="A166" s="60"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="76"/>
       <c r="D166" s="64"/>
       <c r="E166" s="20" t="s">
         <v>121</v>
@@ -5350,9 +5348,9 @@
       <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:7" ht="105">
-      <c r="A167" s="73"/>
-      <c r="B167" s="73"/>
-      <c r="C167" s="78"/>
+      <c r="A167" s="60"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="76"/>
       <c r="D167" s="64"/>
       <c r="E167" s="13" t="s">
         <v>122</v>
@@ -5365,10 +5363,10 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A168" s="73"/>
-      <c r="B168" s="73"/>
-      <c r="C168" s="78"/>
-      <c r="D168" s="77" t="s">
+      <c r="A168" s="60"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="73" t="s">
         <v>121</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5382,10 +5380,10 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="73"/>
-      <c r="B169" s="73"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="77"/>
+      <c r="A169" s="60"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="73"/>
       <c r="E169" s="10" t="s">
         <v>28</v>
       </c>
@@ -5397,30 +5395,30 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="73"/>
-      <c r="B170" s="73"/>
-      <c r="C170" s="78"/>
-      <c r="D170" s="77"/>
+      <c r="A170" s="60"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="73"/>
       <c r="E170" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F170" s="10"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="73"/>
-      <c r="B171" s="73"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="77"/>
+      <c r="A171" s="60"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="73"/>
       <c r="E171" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F171" s="10"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="73"/>
-      <c r="B172" s="73"/>
-      <c r="C172" s="78"/>
-      <c r="D172" s="77"/>
+      <c r="A172" s="60"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="73"/>
       <c r="E172" s="10" t="s">
         <v>129</v>
       </c>
@@ -5432,10 +5430,10 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="73"/>
-      <c r="B173" s="73"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="77"/>
+      <c r="A173" s="60"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="73"/>
       <c r="E173" s="10" t="s">
         <v>131</v>
       </c>
@@ -5447,28 +5445,28 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="73"/>
-      <c r="B174" s="73"/>
-      <c r="C174" s="78"/>
-      <c r="D174" s="77"/>
+      <c r="A174" s="60"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="73"/>
       <c r="E174" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="73"/>
-      <c r="B175" s="73"/>
-      <c r="C175" s="78"/>
-      <c r="D175" s="77"/>
+      <c r="A175" s="60"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="73"/>
       <c r="E175" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A176" s="73"/>
-      <c r="B176" s="73"/>
+      <c r="A176" s="60"/>
+      <c r="B176" s="60"/>
       <c r="C176" s="75" t="s">
         <v>133</v>
       </c>
@@ -5484,8 +5482,8 @@
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="73"/>
-      <c r="B177" s="73"/>
+      <c r="A177" s="60"/>
+      <c r="B177" s="60"/>
       <c r="C177" s="75"/>
       <c r="D177" s="64"/>
       <c r="E177" s="10" t="s">
@@ -5499,8 +5497,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="30">
-      <c r="A178" s="73"/>
-      <c r="B178" s="73"/>
+      <c r="A178" s="60"/>
+      <c r="B178" s="60"/>
       <c r="C178" s="75"/>
       <c r="D178" s="64"/>
       <c r="E178" s="48" t="s">
@@ -5514,8 +5512,8 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="60">
-      <c r="A179" s="73"/>
-      <c r="B179" s="73"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="75"/>
       <c r="D179" s="64"/>
       <c r="E179" s="10" t="s">
@@ -5532,8 +5530,8 @@
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="73"/>
-      <c r="B180" s="73"/>
+      <c r="A180" s="60"/>
+      <c r="B180" s="60"/>
       <c r="C180" s="75"/>
       <c r="D180" s="64"/>
       <c r="E180" s="13" t="s">
@@ -5542,9 +5540,9 @@
       <c r="F180" s="13"/>
     </row>
     <row r="181" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A181" s="73"/>
-      <c r="B181" s="73"/>
-      <c r="C181" s="76" t="s">
+      <c r="A181" s="60"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="74" t="s">
         <v>143</v>
       </c>
       <c r="D181" s="64"/>
@@ -5559,9 +5557,9 @@
       </c>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="73"/>
-      <c r="B182" s="73"/>
-      <c r="C182" s="76"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="74"/>
       <c r="D182" s="64"/>
       <c r="E182" s="10" t="s">
         <v>28</v>
@@ -5574,9 +5572,9 @@
       </c>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="73"/>
-      <c r="B183" s="73"/>
-      <c r="C183" s="76"/>
+      <c r="A183" s="60"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="74"/>
       <c r="D183" s="64"/>
       <c r="E183" s="10" t="s">
         <v>145</v>
@@ -5584,9 +5582,9 @@
       <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="73"/>
-      <c r="B184" s="73"/>
-      <c r="C184" s="76"/>
+      <c r="A184" s="60"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="74"/>
       <c r="D184" s="64"/>
       <c r="E184" s="10" t="s">
         <v>57</v>
@@ -5599,9 +5597,9 @@
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="73"/>
-      <c r="B185" s="73"/>
-      <c r="C185" s="76"/>
+      <c r="A185" s="60"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="74"/>
       <c r="D185" s="64"/>
       <c r="E185" s="10" t="s">
         <v>59</v>
@@ -5614,9 +5612,9 @@
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="73"/>
-      <c r="B186" s="73"/>
-      <c r="C186" s="76"/>
+      <c r="A186" s="60"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="74"/>
       <c r="D186" s="64"/>
       <c r="E186" s="10" t="s">
         <v>38</v>
@@ -5624,9 +5622,9 @@
       <c r="F186" s="10"/>
     </row>
     <row r="187" spans="1:9">
-      <c r="A187" s="73"/>
-      <c r="B187" s="73"/>
-      <c r="C187" s="76"/>
+      <c r="A187" s="60"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="74"/>
       <c r="D187" s="64"/>
       <c r="E187" s="10" t="s">
         <v>148</v>
@@ -5634,9 +5632,9 @@
       <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="73"/>
-      <c r="B188" s="73"/>
-      <c r="C188" s="76"/>
+      <c r="A188" s="60"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="74"/>
       <c r="D188" s="64"/>
       <c r="E188" s="10" t="s">
         <v>149</v>
@@ -5644,9 +5642,9 @@
       <c r="F188" s="10"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="73"/>
-      <c r="B189" s="73"/>
-      <c r="C189" s="76"/>
+      <c r="A189" s="60"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="74"/>
       <c r="D189" s="64"/>
       <c r="E189" s="10" t="s">
         <v>150</v>
@@ -5654,9 +5652,9 @@
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="73"/>
-      <c r="B190" s="73"/>
-      <c r="C190" s="76"/>
+      <c r="A190" s="60"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="74"/>
       <c r="D190" s="64"/>
       <c r="E190" s="10" t="s">
         <v>151</v>
@@ -5664,9 +5662,9 @@
       <c r="F190" s="10"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="73"/>
-      <c r="B191" s="73"/>
-      <c r="C191" s="76"/>
+      <c r="A191" s="60"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="74"/>
       <c r="D191" s="64"/>
       <c r="E191" s="10" t="s">
         <v>152</v>
@@ -5674,9 +5672,9 @@
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:9" ht="30">
-      <c r="A192" s="73"/>
-      <c r="B192" s="73"/>
-      <c r="C192" s="76"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="74"/>
       <c r="D192" s="64"/>
       <c r="E192" s="27" t="s">
         <v>216</v>
@@ -5684,10 +5682,10 @@
       <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A193" s="73"/>
-      <c r="B193" s="73"/>
-      <c r="C193" s="76"/>
-      <c r="D193" s="77" t="s">
+      <c r="A193" s="60"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="73" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -5704,30 +5702,30 @@
       </c>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="73"/>
-      <c r="B194" s="73"/>
-      <c r="C194" s="76"/>
-      <c r="D194" s="77"/>
+      <c r="A194" s="60"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="73"/>
       <c r="E194" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="73"/>
-      <c r="B195" s="73"/>
-      <c r="C195" s="76"/>
-      <c r="D195" s="77"/>
+      <c r="A195" s="60"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="73"/>
       <c r="E195" s="10" t="s">
         <v>155</v>
       </c>
       <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="73"/>
-      <c r="B196" s="73"/>
-      <c r="C196" s="76"/>
-      <c r="D196" s="77"/>
+      <c r="A196" s="60"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="73"/>
       <c r="E196" s="10" t="s">
         <v>98</v>
       </c>
@@ -5739,10 +5737,10 @@
       </c>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="73"/>
-      <c r="B197" s="73"/>
-      <c r="C197" s="76"/>
-      <c r="D197" s="77"/>
+      <c r="A197" s="60"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="73"/>
       <c r="E197" s="10" t="s">
         <v>101</v>
       </c>
@@ -5754,40 +5752,40 @@
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="73"/>
-      <c r="B198" s="73"/>
-      <c r="C198" s="76"/>
-      <c r="D198" s="77"/>
+      <c r="A198" s="60"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="73"/>
       <c r="E198" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F198" s="10"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="73"/>
-      <c r="B199" s="73"/>
-      <c r="C199" s="76"/>
-      <c r="D199" s="77"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="73"/>
       <c r="E199" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F199" s="10"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="73"/>
-      <c r="B200" s="73"/>
-      <c r="C200" s="76"/>
-      <c r="D200" s="77"/>
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="73"/>
       <c r="E200" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A201" s="73"/>
-      <c r="B201" s="73"/>
-      <c r="C201" s="76"/>
-      <c r="D201" s="77" t="s">
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="73" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5801,10 +5799,10 @@
       </c>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="73"/>
-      <c r="B202" s="73"/>
-      <c r="C202" s="76"/>
-      <c r="D202" s="77"/>
+      <c r="A202" s="60"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="74"/>
+      <c r="D202" s="73"/>
       <c r="E202" s="10" t="s">
         <v>82</v>
       </c>
@@ -5816,10 +5814,10 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="73"/>
-      <c r="B203" s="73"/>
-      <c r="C203" s="76"/>
-      <c r="D203" s="77"/>
+      <c r="A203" s="60"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="74"/>
+      <c r="D203" s="73"/>
       <c r="E203" s="10" t="s">
         <v>159</v>
       </c>
@@ -5831,10 +5829,10 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="30">
-      <c r="A204" s="73"/>
-      <c r="B204" s="73"/>
-      <c r="C204" s="76"/>
-      <c r="D204" s="77"/>
+      <c r="A204" s="60"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="73"/>
       <c r="E204" s="13" t="s">
         <v>160</v>
       </c>
@@ -5846,9 +5844,9 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A205" s="73"/>
-      <c r="B205" s="73"/>
-      <c r="C205" s="76"/>
+      <c r="A205" s="60"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="74"/>
       <c r="D205" s="69" t="s">
         <v>216</v>
       </c>
@@ -5863,9 +5861,9 @@
       </c>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="73"/>
-      <c r="B206" s="73"/>
-      <c r="C206" s="76"/>
+      <c r="A206" s="60"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="74"/>
       <c r="D206" s="69"/>
       <c r="E206" s="10" t="s">
         <v>49</v>
@@ -5878,9 +5876,9 @@
       </c>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="73"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="76"/>
+      <c r="A207" s="60"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="74"/>
       <c r="D207" s="69"/>
       <c r="E207" s="10" t="s">
         <v>50</v>
@@ -5893,9 +5891,9 @@
       </c>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="73"/>
-      <c r="B208" s="73"/>
-      <c r="C208" s="76"/>
+      <c r="A208" s="60"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="74"/>
       <c r="D208" s="69"/>
       <c r="E208" s="10" t="s">
         <v>221</v>
@@ -5903,9 +5901,9 @@
       <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="73"/>
-      <c r="B209" s="73"/>
-      <c r="C209" s="76"/>
+      <c r="A209" s="60"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="74"/>
       <c r="D209" s="69"/>
       <c r="E209" s="13" t="s">
         <v>51</v>
@@ -5913,8 +5911,8 @@
       <c r="F209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A210" s="73"/>
-      <c r="B210" s="73"/>
+      <c r="A210" s="60"/>
+      <c r="B210" s="60"/>
       <c r="C210" s="75" t="s">
         <v>163</v>
       </c>
@@ -5930,8 +5928,8 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="73"/>
-      <c r="B211" s="73"/>
+      <c r="A211" s="60"/>
+      <c r="B211" s="60"/>
       <c r="C211" s="75"/>
       <c r="D211" s="64"/>
       <c r="E211" s="10" t="s">
@@ -5945,8 +5943,8 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="73"/>
-      <c r="B212" s="73"/>
+      <c r="A212" s="60"/>
+      <c r="B212" s="60"/>
       <c r="C212" s="75"/>
       <c r="D212" s="64"/>
       <c r="E212" s="10" t="s">
@@ -5955,8 +5953,8 @@
       <c r="F212" s="10"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="73"/>
-      <c r="B213" s="73"/>
+      <c r="A213" s="60"/>
+      <c r="B213" s="60"/>
       <c r="C213" s="75"/>
       <c r="D213" s="64"/>
       <c r="E213" s="10" t="s">
@@ -5970,8 +5968,8 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="73"/>
-      <c r="B214" s="73"/>
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
       <c r="C214" s="75"/>
       <c r="D214" s="64"/>
       <c r="E214" s="10" t="s">
@@ -5985,8 +5983,8 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="73"/>
-      <c r="B215" s="73"/>
+      <c r="A215" s="60"/>
+      <c r="B215" s="60"/>
       <c r="C215" s="75"/>
       <c r="D215" s="64"/>
       <c r="E215" s="10" t="s">
@@ -5995,8 +5993,8 @@
       <c r="F215" s="10"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="73"/>
-      <c r="B216" s="73"/>
+      <c r="A216" s="60"/>
+      <c r="B216" s="60"/>
       <c r="C216" s="75"/>
       <c r="D216" s="64"/>
       <c r="E216" s="10" t="s">
@@ -6005,8 +6003,8 @@
       <c r="F216" s="10"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="73"/>
-      <c r="B217" s="73"/>
+      <c r="A217" s="60"/>
+      <c r="B217" s="60"/>
       <c r="C217" s="75"/>
       <c r="D217" s="64"/>
       <c r="E217" s="10" t="s">
@@ -6015,8 +6013,8 @@
       <c r="F217" s="10"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="73"/>
-      <c r="B218" s="73"/>
+      <c r="A218" s="60"/>
+      <c r="B218" s="60"/>
       <c r="C218" s="75"/>
       <c r="D218" s="64"/>
       <c r="E218" s="10" t="s">
@@ -6025,8 +6023,8 @@
       <c r="F218" s="10"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="73"/>
-      <c r="B219" s="73"/>
+      <c r="A219" s="60"/>
+      <c r="B219" s="60"/>
       <c r="C219" s="75"/>
       <c r="D219" s="64"/>
       <c r="E219" s="13" t="s">
@@ -6035,8 +6033,8 @@
       <c r="F219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A220" s="73"/>
-      <c r="B220" s="73"/>
+      <c r="A220" s="60"/>
+      <c r="B220" s="60"/>
       <c r="C220" s="75" t="s">
         <v>165</v>
       </c>
@@ -6052,8 +6050,8 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="73"/>
-      <c r="B221" s="73"/>
+      <c r="A221" s="60"/>
+      <c r="B221" s="60"/>
       <c r="C221" s="75"/>
       <c r="D221" s="64"/>
       <c r="E221" s="10" t="s">
@@ -6062,8 +6060,8 @@
       <c r="F221" s="10"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="73"/>
-      <c r="B222" s="73"/>
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
       <c r="C222" s="75"/>
       <c r="D222" s="64"/>
       <c r="E222" s="10" t="s">
@@ -6072,8 +6070,8 @@
       <c r="F222" s="10"/>
     </row>
     <row r="223" spans="1:7" ht="30">
-      <c r="A223" s="73"/>
-      <c r="B223" s="73"/>
+      <c r="A223" s="60"/>
+      <c r="B223" s="60"/>
       <c r="C223" s="75"/>
       <c r="D223" s="64"/>
       <c r="E223" s="20" t="s">
@@ -6087,8 +6085,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="27">
-      <c r="A224" s="73"/>
-      <c r="B224" s="73"/>
+      <c r="A224" s="60"/>
+      <c r="B224" s="60"/>
       <c r="C224" s="75"/>
       <c r="D224" s="64"/>
       <c r="E224" s="10" t="s">
@@ -6102,8 +6100,8 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="30">
-      <c r="A225" s="73"/>
-      <c r="B225" s="73"/>
+      <c r="A225" s="60"/>
+      <c r="B225" s="60"/>
       <c r="C225" s="75"/>
       <c r="D225" s="64"/>
       <c r="E225" s="10" t="s">
@@ -6117,8 +6115,8 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="30">
-      <c r="A226" s="73"/>
-      <c r="B226" s="73"/>
+      <c r="A226" s="60"/>
+      <c r="B226" s="60"/>
       <c r="C226" s="75"/>
       <c r="D226" s="64"/>
       <c r="E226" s="13" t="s">
@@ -6132,8 +6130,8 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1">
-      <c r="A227" s="73"/>
-      <c r="B227" s="73"/>
+      <c r="A227" s="60"/>
+      <c r="B227" s="60"/>
       <c r="C227" s="75" t="s">
         <v>174</v>
       </c>
@@ -6152,8 +6150,8 @@
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="73"/>
-      <c r="B228" s="73"/>
+      <c r="A228" s="60"/>
+      <c r="B228" s="60"/>
       <c r="C228" s="75"/>
       <c r="D228" s="64"/>
       <c r="E228" s="10" t="s">
@@ -6167,8 +6165,8 @@
       </c>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="73"/>
-      <c r="B229" s="73"/>
+      <c r="A229" s="60"/>
+      <c r="B229" s="60"/>
       <c r="C229" s="75"/>
       <c r="D229" s="64"/>
       <c r="E229" s="10" t="s">
@@ -6177,8 +6175,8 @@
       <c r="F229" s="10"/>
     </row>
     <row r="230" spans="1:9" ht="30">
-      <c r="A230" s="73"/>
-      <c r="B230" s="73"/>
+      <c r="A230" s="60"/>
+      <c r="B230" s="60"/>
       <c r="C230" s="75"/>
       <c r="D230" s="64"/>
       <c r="E230" s="13" t="s">
@@ -6192,8 +6190,8 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A231" s="73"/>
-      <c r="B231" s="73"/>
+      <c r="A231" s="60"/>
+      <c r="B231" s="60"/>
       <c r="C231" s="75" t="s">
         <v>184</v>
       </c>
@@ -6212,8 +6210,8 @@
       </c>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="73"/>
-      <c r="B232" s="73"/>
+      <c r="A232" s="60"/>
+      <c r="B232" s="60"/>
       <c r="C232" s="75"/>
       <c r="D232" s="64"/>
       <c r="E232" s="10" t="s">
@@ -6227,8 +6225,8 @@
       </c>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="73"/>
-      <c r="B233" s="73"/>
+      <c r="A233" s="60"/>
+      <c r="B233" s="60"/>
       <c r="C233" s="75"/>
       <c r="D233" s="64"/>
       <c r="E233" s="10" t="s">
@@ -6237,8 +6235,8 @@
       <c r="F233" s="10"/>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="73"/>
-      <c r="B234" s="73"/>
+      <c r="A234" s="60"/>
+      <c r="B234" s="60"/>
       <c r="C234" s="75"/>
       <c r="D234" s="64"/>
       <c r="E234" s="13" t="s">
@@ -6255,12 +6253,12 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A235" s="73"/>
-      <c r="B235" s="73"/>
-      <c r="C235" s="68" t="s">
+      <c r="A235" s="60"/>
+      <c r="B235" s="60"/>
+      <c r="C235" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="D235" s="67"/>
+      <c r="D235" s="68"/>
       <c r="E235" s="7" t="s">
         <v>196</v>
       </c>
@@ -6272,10 +6270,10 @@
       </c>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="73"/>
-      <c r="B236" s="73"/>
-      <c r="C236" s="68"/>
-      <c r="D236" s="67"/>
+      <c r="A236" s="60"/>
+      <c r="B236" s="60"/>
+      <c r="C236" s="78"/>
+      <c r="D236" s="68"/>
       <c r="E236" s="10" t="s">
         <v>28</v>
       </c>
@@ -6287,10 +6285,10 @@
       </c>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="73"/>
-      <c r="B237" s="73"/>
-      <c r="C237" s="68"/>
-      <c r="D237" s="67"/>
+      <c r="A237" s="60"/>
+      <c r="B237" s="60"/>
+      <c r="C237" s="78"/>
+      <c r="D237" s="68"/>
       <c r="E237" s="10" t="s">
         <v>200</v>
       </c>
@@ -6302,10 +6300,10 @@
       </c>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="73"/>
-      <c r="B238" s="73"/>
-      <c r="C238" s="68"/>
-      <c r="D238" s="67"/>
+      <c r="A238" s="60"/>
+      <c r="B238" s="60"/>
+      <c r="C238" s="78"/>
+      <c r="D238" s="68"/>
       <c r="E238" s="10" t="s">
         <v>202</v>
       </c>
@@ -6317,50 +6315,50 @@
       </c>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="73"/>
-      <c r="B239" s="73"/>
-      <c r="C239" s="68"/>
-      <c r="D239" s="67"/>
+      <c r="A239" s="60"/>
+      <c r="B239" s="60"/>
+      <c r="C239" s="78"/>
+      <c r="D239" s="68"/>
       <c r="E239" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F239" s="10"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="73"/>
-      <c r="B240" s="73"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="67"/>
+      <c r="A240" s="60"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="78"/>
+      <c r="D240" s="68"/>
       <c r="E240" s="10" t="s">
         <v>204</v>
       </c>
       <c r="F240" s="10"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="73"/>
-      <c r="B241" s="73"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="67"/>
+      <c r="A241" s="60"/>
+      <c r="B241" s="60"/>
+      <c r="C241" s="78"/>
+      <c r="D241" s="68"/>
       <c r="E241" s="10" t="s">
         <v>205</v>
       </c>
       <c r="F241" s="10"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="73"/>
-      <c r="B242" s="73"/>
-      <c r="C242" s="68"/>
-      <c r="D242" s="67"/>
+      <c r="A242" s="60"/>
+      <c r="B242" s="60"/>
+      <c r="C242" s="78"/>
+      <c r="D242" s="68"/>
       <c r="E242" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F242" s="10"/>
     </row>
     <row r="243" spans="1:9" ht="30">
-      <c r="A243" s="73"/>
-      <c r="B243" s="73"/>
-      <c r="C243" s="68"/>
-      <c r="D243" s="67"/>
+      <c r="A243" s="60"/>
+      <c r="B243" s="60"/>
+      <c r="C243" s="78"/>
+      <c r="D243" s="68"/>
       <c r="E243" s="27" t="s">
         <v>206</v>
       </c>
@@ -6372,9 +6370,9 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A244" s="73"/>
-      <c r="B244" s="73"/>
-      <c r="C244" s="68"/>
+      <c r="A244" s="60"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="78"/>
       <c r="D244" s="69" t="s">
         <v>206</v>
       </c>
@@ -6389,9 +6387,9 @@
       </c>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="73"/>
-      <c r="B245" s="73"/>
-      <c r="C245" s="68"/>
+      <c r="A245" s="60"/>
+      <c r="B245" s="60"/>
+      <c r="C245" s="78"/>
       <c r="D245" s="69"/>
       <c r="E245" s="10" t="s">
         <v>118</v>
@@ -6399,9 +6397,9 @@
       <c r="F245" s="10"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="73"/>
-      <c r="B246" s="73"/>
-      <c r="C246" s="68"/>
+      <c r="A246" s="60"/>
+      <c r="B246" s="60"/>
+      <c r="C246" s="78"/>
       <c r="D246" s="69"/>
       <c r="E246" s="10" t="s">
         <v>139</v>
@@ -6409,9 +6407,9 @@
       <c r="F246" s="10"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="73"/>
-      <c r="B247" s="73"/>
-      <c r="C247" s="68"/>
+      <c r="A247" s="60"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="78"/>
       <c r="D247" s="69"/>
       <c r="E247" s="10" t="s">
         <v>142</v>
@@ -6419,9 +6417,9 @@
       <c r="F247" s="10"/>
     </row>
     <row r="248" spans="1:9" ht="45">
-      <c r="A248" s="73"/>
-      <c r="B248" s="73"/>
-      <c r="C248" s="68"/>
+      <c r="A248" s="60"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="78"/>
       <c r="D248" s="69"/>
       <c r="E248" s="20" t="s">
         <v>223</v>
@@ -6434,9 +6432,9 @@
       </c>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="73"/>
-      <c r="B249" s="73"/>
-      <c r="C249" s="68"/>
+      <c r="A249" s="60"/>
+      <c r="B249" s="60"/>
+      <c r="C249" s="78"/>
       <c r="D249" s="69"/>
       <c r="E249" s="13" t="s">
         <v>129</v>
@@ -6449,9 +6447,9 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="33" customHeight="1">
-      <c r="A250" s="73"/>
-      <c r="B250" s="73"/>
-      <c r="C250" s="70" t="s">
+      <c r="A250" s="60"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="66" t="s">
         <v>224</v>
       </c>
       <c r="D250" s="71"/>
@@ -6469,9 +6467,9 @@
       </c>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="73"/>
-      <c r="B251" s="73"/>
-      <c r="C251" s="70"/>
+      <c r="A251" s="60"/>
+      <c r="B251" s="60"/>
+      <c r="C251" s="66"/>
       <c r="D251" s="71"/>
       <c r="E251" s="10" t="s">
         <v>229</v>
@@ -6484,9 +6482,9 @@
       </c>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="73"/>
-      <c r="B252" s="73"/>
-      <c r="C252" s="70"/>
+      <c r="A252" s="60"/>
+      <c r="B252" s="60"/>
+      <c r="C252" s="66"/>
       <c r="D252" s="71"/>
       <c r="E252" s="10" t="s">
         <v>231</v>
@@ -6499,9 +6497,9 @@
       </c>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="73"/>
-      <c r="B253" s="73"/>
-      <c r="C253" s="70"/>
+      <c r="A253" s="60"/>
+      <c r="B253" s="60"/>
+      <c r="C253" s="66"/>
       <c r="D253" s="71"/>
       <c r="E253" s="10" t="s">
         <v>233</v>
@@ -6514,9 +6512,9 @@
       </c>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="73"/>
-      <c r="B254" s="73"/>
-      <c r="C254" s="70"/>
+      <c r="A254" s="60"/>
+      <c r="B254" s="60"/>
+      <c r="C254" s="66"/>
       <c r="D254" s="71"/>
       <c r="E254" s="10" t="s">
         <v>235</v>
@@ -6529,9 +6527,9 @@
       </c>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="73"/>
-      <c r="B255" s="73"/>
-      <c r="C255" s="70"/>
+      <c r="A255" s="60"/>
+      <c r="B255" s="60"/>
+      <c r="C255" s="66"/>
       <c r="D255" s="71"/>
       <c r="E255" s="13" t="s">
         <v>237</v>
@@ -6544,10 +6542,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="13.9" customHeight="1">
-      <c r="A256" s="73"/>
-      <c r="B256" s="73"/>
-      <c r="C256" s="70"/>
-      <c r="D256" s="72" t="s">
+      <c r="A256" s="60"/>
+      <c r="B256" s="60"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="79" t="s">
         <v>239</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -6561,30 +6559,30 @@
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="73"/>
-      <c r="B257" s="73"/>
-      <c r="C257" s="70"/>
-      <c r="D257" s="72"/>
+      <c r="A257" s="60"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="66"/>
+      <c r="D257" s="79"/>
       <c r="E257" s="10" t="s">
         <v>242</v>
       </c>
       <c r="F257" s="10"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="73"/>
-      <c r="B258" s="73"/>
-      <c r="C258" s="70"/>
-      <c r="D258" s="72"/>
+      <c r="A258" s="60"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="79"/>
       <c r="E258" s="10" t="s">
         <v>243</v>
       </c>
       <c r="F258" s="10"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="73"/>
-      <c r="B259" s="73"/>
-      <c r="C259" s="70"/>
-      <c r="D259" s="72"/>
+      <c r="A259" s="60"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="79"/>
       <c r="E259" s="10" t="s">
         <v>244</v>
       </c>
@@ -6596,10 +6594,10 @@
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="73"/>
-      <c r="B260" s="73"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="72"/>
+      <c r="A260" s="60"/>
+      <c r="B260" s="60"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="79"/>
       <c r="E260" s="10" t="s">
         <v>18</v>
       </c>
@@ -6611,50 +6609,50 @@
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="73"/>
-      <c r="B261" s="73"/>
-      <c r="C261" s="70"/>
-      <c r="D261" s="72"/>
+      <c r="A261" s="60"/>
+      <c r="B261" s="60"/>
+      <c r="C261" s="66"/>
+      <c r="D261" s="79"/>
       <c r="E261" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="73"/>
-      <c r="B262" s="73"/>
-      <c r="C262" s="70"/>
-      <c r="D262" s="72"/>
+      <c r="A262" s="60"/>
+      <c r="B262" s="60"/>
+      <c r="C262" s="66"/>
+      <c r="D262" s="79"/>
       <c r="E262" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F262" s="10"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="73"/>
-      <c r="B263" s="73"/>
-      <c r="C263" s="70"/>
-      <c r="D263" s="72"/>
+      <c r="A263" s="60"/>
+      <c r="B263" s="60"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="79"/>
       <c r="E263" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F263" s="10"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="73"/>
-      <c r="B264" s="73"/>
-      <c r="C264" s="70"/>
-      <c r="D264" s="72"/>
+      <c r="A264" s="60"/>
+      <c r="B264" s="60"/>
+      <c r="C264" s="66"/>
+      <c r="D264" s="79"/>
       <c r="E264" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A265" s="73"/>
-      <c r="B265" s="73"/>
-      <c r="C265" s="70"/>
-      <c r="D265" s="72" t="s">
+      <c r="A265" s="60"/>
+      <c r="B265" s="60"/>
+      <c r="C265" s="66"/>
+      <c r="D265" s="79" t="s">
         <v>248</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -6668,20 +6666,20 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="73"/>
-      <c r="B266" s="73"/>
-      <c r="C266" s="70"/>
-      <c r="D266" s="72"/>
+      <c r="A266" s="60"/>
+      <c r="B266" s="60"/>
+      <c r="C266" s="66"/>
+      <c r="D266" s="79"/>
       <c r="E266" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F266" s="10"/>
     </row>
     <row r="267" spans="1:7" ht="30">
-      <c r="A267" s="73"/>
-      <c r="B267" s="73"/>
-      <c r="C267" s="70"/>
-      <c r="D267" s="72"/>
+      <c r="A267" s="60"/>
+      <c r="B267" s="60"/>
+      <c r="C267" s="66"/>
+      <c r="D267" s="79"/>
       <c r="E267" s="20" t="s">
         <v>250</v>
       </c>
@@ -6693,10 +6691,10 @@
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="73"/>
-      <c r="B268" s="73"/>
-      <c r="C268" s="70"/>
-      <c r="D268" s="72"/>
+      <c r="A268" s="60"/>
+      <c r="B268" s="60"/>
+      <c r="C268" s="66"/>
+      <c r="D268" s="79"/>
       <c r="E268" s="10" t="s">
         <v>28</v>
       </c>
@@ -6708,10 +6706,10 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="73"/>
-      <c r="B269" s="73"/>
-      <c r="C269" s="70"/>
-      <c r="D269" s="72"/>
+      <c r="A269" s="60"/>
+      <c r="B269" s="60"/>
+      <c r="C269" s="66"/>
+      <c r="D269" s="79"/>
       <c r="E269" s="10" t="s">
         <v>98</v>
       </c>
@@ -6723,30 +6721,30 @@
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="73"/>
-      <c r="B270" s="73"/>
-      <c r="C270" s="70"/>
-      <c r="D270" s="72"/>
+      <c r="A270" s="60"/>
+      <c r="B270" s="60"/>
+      <c r="C270" s="66"/>
+      <c r="D270" s="79"/>
       <c r="E270" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F270" s="10"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="73"/>
-      <c r="B271" s="73"/>
-      <c r="C271" s="70"/>
-      <c r="D271" s="72"/>
+      <c r="A271" s="60"/>
+      <c r="B271" s="60"/>
+      <c r="C271" s="66"/>
+      <c r="D271" s="79"/>
       <c r="E271" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A272" s="73"/>
-      <c r="B272" s="73"/>
-      <c r="C272" s="70"/>
-      <c r="D272" s="72" t="s">
+      <c r="A272" s="60"/>
+      <c r="B272" s="60"/>
+      <c r="C272" s="66"/>
+      <c r="D272" s="79" t="s">
         <v>253</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -6760,10 +6758,10 @@
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="73"/>
-      <c r="B273" s="73"/>
-      <c r="C273" s="70"/>
-      <c r="D273" s="72"/>
+      <c r="A273" s="60"/>
+      <c r="B273" s="60"/>
+      <c r="C273" s="66"/>
+      <c r="D273" s="79"/>
       <c r="E273" s="10" t="s">
         <v>28</v>
       </c>
@@ -6775,10 +6773,10 @@
       </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="73"/>
-      <c r="B274" s="73"/>
-      <c r="C274" s="70"/>
-      <c r="D274" s="72"/>
+      <c r="A274" s="60"/>
+      <c r="B274" s="60"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="79"/>
       <c r="E274" s="10" t="s">
         <v>57</v>
       </c>
@@ -6790,10 +6788,10 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="73"/>
-      <c r="B275" s="73"/>
-      <c r="C275" s="70"/>
-      <c r="D275" s="72"/>
+      <c r="A275" s="60"/>
+      <c r="B275" s="60"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="79"/>
       <c r="E275" s="10" t="s">
         <v>256</v>
       </c>
@@ -6805,80 +6803,80 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="73"/>
-      <c r="B276" s="73"/>
-      <c r="C276" s="70"/>
-      <c r="D276" s="72"/>
+      <c r="A276" s="60"/>
+      <c r="B276" s="60"/>
+      <c r="C276" s="66"/>
+      <c r="D276" s="79"/>
       <c r="E276" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F276" s="10"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="73"/>
-      <c r="B277" s="73"/>
-      <c r="C277" s="70"/>
-      <c r="D277" s="72"/>
+      <c r="A277" s="60"/>
+      <c r="B277" s="60"/>
+      <c r="C277" s="66"/>
+      <c r="D277" s="79"/>
       <c r="E277" s="10" t="s">
         <v>148</v>
       </c>
       <c r="F277" s="10"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="73"/>
-      <c r="B278" s="73"/>
-      <c r="C278" s="70"/>
-      <c r="D278" s="72"/>
+      <c r="A278" s="60"/>
+      <c r="B278" s="60"/>
+      <c r="C278" s="66"/>
+      <c r="D278" s="79"/>
       <c r="E278" s="10" t="s">
         <v>149</v>
       </c>
       <c r="F278" s="10"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="73"/>
-      <c r="B279" s="73"/>
-      <c r="C279" s="70"/>
-      <c r="D279" s="72"/>
+      <c r="A279" s="60"/>
+      <c r="B279" s="60"/>
+      <c r="C279" s="66"/>
+      <c r="D279" s="79"/>
       <c r="E279" s="10" t="s">
         <v>150</v>
       </c>
       <c r="F279" s="10"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="73"/>
-      <c r="B280" s="73"/>
-      <c r="C280" s="70"/>
-      <c r="D280" s="72"/>
+      <c r="A280" s="60"/>
+      <c r="B280" s="60"/>
+      <c r="C280" s="66"/>
+      <c r="D280" s="79"/>
       <c r="E280" s="10" t="s">
         <v>151</v>
       </c>
       <c r="F280" s="10"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="73"/>
-      <c r="B281" s="73"/>
-      <c r="C281" s="70"/>
-      <c r="D281" s="72"/>
+      <c r="A281" s="60"/>
+      <c r="B281" s="60"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="79"/>
       <c r="E281" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F281" s="10"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="73"/>
-      <c r="B282" s="73"/>
-      <c r="C282" s="70"/>
-      <c r="D282" s="72"/>
+      <c r="A282" s="60"/>
+      <c r="B282" s="60"/>
+      <c r="C282" s="66"/>
+      <c r="D282" s="79"/>
       <c r="E282" s="13" t="s">
         <v>258</v>
       </c>
       <c r="F282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A283" s="73"/>
-      <c r="B283" s="73"/>
-      <c r="C283" s="70"/>
-      <c r="D283" s="72" t="s">
+      <c r="A283" s="60"/>
+      <c r="B283" s="60"/>
+      <c r="C283" s="66"/>
+      <c r="D283" s="79" t="s">
         <v>258</v>
       </c>
       <c r="E283" s="30" t="s">
@@ -6892,30 +6890,30 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="73"/>
-      <c r="B284" s="73"/>
-      <c r="C284" s="70"/>
-      <c r="D284" s="72"/>
+      <c r="A284" s="60"/>
+      <c r="B284" s="60"/>
+      <c r="C284" s="66"/>
+      <c r="D284" s="79"/>
       <c r="E284" s="10" t="s">
         <v>261</v>
       </c>
       <c r="F284" s="10"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="73"/>
-      <c r="B285" s="73"/>
-      <c r="C285" s="70"/>
-      <c r="D285" s="72"/>
+      <c r="A285" s="60"/>
+      <c r="B285" s="60"/>
+      <c r="C285" s="66"/>
+      <c r="D285" s="79"/>
       <c r="E285" s="10" t="s">
         <v>262</v>
       </c>
       <c r="F285" s="10"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="73"/>
-      <c r="B286" s="73"/>
-      <c r="C286" s="70"/>
-      <c r="D286" s="72"/>
+      <c r="A286" s="60"/>
+      <c r="B286" s="60"/>
+      <c r="C286" s="66"/>
+      <c r="D286" s="79"/>
       <c r="E286" s="10" t="s">
         <v>263</v>
       </c>
@@ -6927,20 +6925,20 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="73"/>
-      <c r="B287" s="73"/>
-      <c r="C287" s="70"/>
-      <c r="D287" s="72"/>
+      <c r="A287" s="60"/>
+      <c r="B287" s="60"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="79"/>
       <c r="E287" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F287" s="10"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="73"/>
-      <c r="B288" s="73"/>
-      <c r="C288" s="70"/>
-      <c r="D288" s="72"/>
+      <c r="A288" s="60"/>
+      <c r="B288" s="60"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="79"/>
       <c r="E288" s="10" t="s">
         <v>101</v>
       </c>
@@ -6952,34 +6950,34 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="73"/>
-      <c r="B289" s="73"/>
-      <c r="C289" s="70"/>
-      <c r="D289" s="72"/>
+      <c r="A289" s="60"/>
+      <c r="B289" s="60"/>
+      <c r="C289" s="66"/>
+      <c r="D289" s="79"/>
       <c r="E289" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F289" s="10"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="73"/>
-      <c r="B290" s="73"/>
-      <c r="C290" s="70"/>
-      <c r="D290" s="72"/>
+      <c r="A290" s="60"/>
+      <c r="B290" s="60"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="79"/>
       <c r="E290" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A291" s="65" t="s">
+      <c r="A291" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="65" t="s">
+      <c r="B291" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="C291" s="66"/>
-      <c r="D291" s="67"/>
+      <c r="C291" s="77"/>
+      <c r="D291" s="68"/>
       <c r="E291" s="7" t="s">
         <v>268</v>
       </c>
@@ -6991,10 +6989,10 @@
       </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="65"/>
-      <c r="B292" s="65"/>
-      <c r="C292" s="66"/>
-      <c r="D292" s="67"/>
+      <c r="A292" s="67"/>
+      <c r="B292" s="67"/>
+      <c r="C292" s="77"/>
+      <c r="D292" s="68"/>
       <c r="E292" s="10" t="s">
         <v>270</v>
       </c>
@@ -7006,10 +7004,10 @@
       </c>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="65"/>
-      <c r="B293" s="65"/>
-      <c r="C293" s="66"/>
-      <c r="D293" s="67"/>
+      <c r="A293" s="67"/>
+      <c r="B293" s="67"/>
+      <c r="C293" s="77"/>
+      <c r="D293" s="68"/>
       <c r="E293" s="10" t="s">
         <v>272</v>
       </c>
@@ -7021,10 +7019,10 @@
       </c>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="65"/>
-      <c r="B294" s="65"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="67"/>
+      <c r="A294" s="67"/>
+      <c r="B294" s="67"/>
+      <c r="C294" s="77"/>
+      <c r="D294" s="68"/>
       <c r="E294" s="10" t="s">
         <v>274</v>
       </c>
@@ -7036,22 +7034,22 @@
       </c>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="65"/>
-      <c r="B295" s="65"/>
-      <c r="C295" s="66"/>
-      <c r="D295" s="67"/>
+      <c r="A295" s="67"/>
+      <c r="B295" s="67"/>
+      <c r="C295" s="77"/>
+      <c r="D295" s="68"/>
       <c r="E295" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A296" s="65"/>
-      <c r="B296" s="65" t="s">
+      <c r="A296" s="67"/>
+      <c r="B296" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="C296" s="66"/>
-      <c r="D296" s="67"/>
+      <c r="C296" s="77"/>
+      <c r="D296" s="68"/>
       <c r="E296" s="7" t="s">
         <v>278</v>
       </c>
@@ -7063,10 +7061,10 @@
       </c>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="65"/>
-      <c r="B297" s="65"/>
-      <c r="C297" s="66"/>
-      <c r="D297" s="67"/>
+      <c r="A297" s="67"/>
+      <c r="B297" s="67"/>
+      <c r="C297" s="77"/>
+      <c r="D297" s="68"/>
       <c r="E297" s="10" t="s">
         <v>280</v>
       </c>
@@ -7078,10 +7076,10 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="65"/>
-      <c r="B298" s="65"/>
-      <c r="C298" s="66"/>
-      <c r="D298" s="67"/>
+      <c r="A298" s="67"/>
+      <c r="B298" s="67"/>
+      <c r="C298" s="77"/>
+      <c r="D298" s="68"/>
       <c r="E298" s="10" t="s">
         <v>98</v>
       </c>
@@ -7093,10 +7091,10 @@
       </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="65"/>
-      <c r="B299" s="65"/>
-      <c r="C299" s="66"/>
-      <c r="D299" s="67"/>
+      <c r="A299" s="67"/>
+      <c r="B299" s="67"/>
+      <c r="C299" s="77"/>
+      <c r="D299" s="68"/>
       <c r="E299" s="10" t="s">
         <v>18</v>
       </c>
@@ -7108,30 +7106,30 @@
       </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="65"/>
-      <c r="B300" s="65"/>
-      <c r="C300" s="66"/>
-      <c r="D300" s="67"/>
+      <c r="A300" s="67"/>
+      <c r="B300" s="67"/>
+      <c r="C300" s="77"/>
+      <c r="D300" s="68"/>
       <c r="E300" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F300" s="10"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="65"/>
-      <c r="B301" s="65"/>
-      <c r="C301" s="66"/>
-      <c r="D301" s="67"/>
+      <c r="A301" s="67"/>
+      <c r="B301" s="67"/>
+      <c r="C301" s="77"/>
+      <c r="D301" s="68"/>
       <c r="E301" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A302" s="62" t="s">
+      <c r="A302" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="62" t="s">
+      <c r="B302" s="61" t="s">
         <v>285</v>
       </c>
       <c r="C302" s="63"/>
@@ -7147,8 +7145,8 @@
       </c>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="62"/>
-      <c r="B303" s="62"/>
+      <c r="A303" s="61"/>
+      <c r="B303" s="61"/>
       <c r="C303" s="63"/>
       <c r="D303" s="64"/>
       <c r="E303" s="10" t="s">
@@ -7162,8 +7160,8 @@
       </c>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="62"/>
-      <c r="B304" s="62"/>
+      <c r="A304" s="61"/>
+      <c r="B304" s="61"/>
       <c r="C304" s="63"/>
       <c r="D304" s="64"/>
       <c r="E304" s="10" t="s">
@@ -7177,8 +7175,8 @@
       </c>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="62"/>
-      <c r="B305" s="62"/>
+      <c r="A305" s="61"/>
+      <c r="B305" s="61"/>
       <c r="C305" s="63"/>
       <c r="D305" s="64"/>
       <c r="E305" s="10" t="s">
@@ -7192,8 +7190,8 @@
       </c>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="62"/>
-      <c r="B306" s="62"/>
+      <c r="A306" s="61"/>
+      <c r="B306" s="61"/>
       <c r="C306" s="63"/>
       <c r="D306" s="64"/>
       <c r="E306" s="13" t="s">
@@ -7202,8 +7200,8 @@
       <c r="F306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A307" s="62"/>
-      <c r="B307" s="62" t="s">
+      <c r="A307" s="61"/>
+      <c r="B307" s="61" t="s">
         <v>292</v>
       </c>
       <c r="C307" s="40" t="s">
@@ -7216,9 +7214,9 @@
       <c r="F307" s="21"/>
     </row>
     <row r="308" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A308" s="62"/>
-      <c r="B308" s="62"/>
-      <c r="C308" s="62" t="s">
+      <c r="A308" s="61"/>
+      <c r="B308" s="61"/>
+      <c r="C308" s="61" t="s">
         <v>293</v>
       </c>
       <c r="D308" s="64"/>
@@ -7233,9 +7231,9 @@
       </c>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="62"/>
-      <c r="B309" s="62"/>
-      <c r="C309" s="62"/>
+      <c r="A309" s="61"/>
+      <c r="B309" s="61"/>
+      <c r="C309" s="61"/>
       <c r="D309" s="64"/>
       <c r="E309" s="10" t="s">
         <v>31</v>
@@ -7248,9 +7246,9 @@
       </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="62"/>
-      <c r="B310" s="62"/>
-      <c r="C310" s="62"/>
+      <c r="A310" s="61"/>
+      <c r="B310" s="61"/>
+      <c r="C310" s="61"/>
       <c r="D310" s="64"/>
       <c r="E310" s="10" t="s">
         <v>33</v>
@@ -7263,9 +7261,9 @@
       </c>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="62"/>
-      <c r="B311" s="62"/>
-      <c r="C311" s="62"/>
+      <c r="A311" s="61"/>
+      <c r="B311" s="61"/>
+      <c r="C311" s="61"/>
       <c r="D311" s="64"/>
       <c r="E311" s="10" t="s">
         <v>296</v>
@@ -7273,9 +7271,9 @@
       <c r="F311" s="10"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="62"/>
-      <c r="B312" s="62"/>
-      <c r="C312" s="62"/>
+      <c r="A312" s="61"/>
+      <c r="B312" s="61"/>
+      <c r="C312" s="61"/>
       <c r="D312" s="64"/>
       <c r="E312" s="10" t="s">
         <v>297</v>
@@ -7283,9 +7281,9 @@
       <c r="F312" s="10"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="62"/>
-      <c r="B313" s="62"/>
-      <c r="C313" s="62"/>
+      <c r="A313" s="61"/>
+      <c r="B313" s="61"/>
+      <c r="C313" s="61"/>
       <c r="D313" s="64"/>
       <c r="E313" s="13" t="s">
         <v>46</v>
@@ -7293,9 +7291,9 @@
       <c r="F313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A314" s="62"/>
-      <c r="B314" s="62"/>
-      <c r="C314" s="62" t="s">
+      <c r="A314" s="61"/>
+      <c r="B314" s="61"/>
+      <c r="C314" s="61" t="s">
         <v>298</v>
       </c>
       <c r="D314" s="64"/>
@@ -7310,9 +7308,9 @@
       </c>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="62"/>
-      <c r="B315" s="62"/>
-      <c r="C315" s="62"/>
+      <c r="A315" s="61"/>
+      <c r="B315" s="61"/>
+      <c r="C315" s="61"/>
       <c r="D315" s="64"/>
       <c r="E315" s="10" t="s">
         <v>49</v>
@@ -7325,9 +7323,9 @@
       </c>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="62"/>
-      <c r="B316" s="62"/>
-      <c r="C316" s="62"/>
+      <c r="A316" s="61"/>
+      <c r="B316" s="61"/>
+      <c r="C316" s="61"/>
       <c r="D316" s="64"/>
       <c r="E316" s="10" t="s">
         <v>50</v>
@@ -7340,9 +7338,9 @@
       </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="62"/>
-      <c r="B317" s="62"/>
-      <c r="C317" s="62"/>
+      <c r="A317" s="61"/>
+      <c r="B317" s="61"/>
+      <c r="C317" s="61"/>
       <c r="D317" s="64"/>
       <c r="E317" s="10" t="s">
         <v>299</v>
@@ -7350,9 +7348,9 @@
       <c r="F317" s="10"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="62"/>
-      <c r="B318" s="62"/>
-      <c r="C318" s="62"/>
+      <c r="A318" s="61"/>
+      <c r="B318" s="61"/>
+      <c r="C318" s="61"/>
       <c r="D318" s="64"/>
       <c r="E318" s="10" t="s">
         <v>51</v>
@@ -7360,9 +7358,9 @@
       <c r="F318" s="10"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="62"/>
-      <c r="B319" s="62"/>
-      <c r="C319" s="62"/>
+      <c r="A319" s="61"/>
+      <c r="B319" s="61"/>
+      <c r="C319" s="61"/>
       <c r="D319" s="64"/>
       <c r="E319" s="13" t="s">
         <v>46</v>
@@ -7370,10 +7368,10 @@
       <c r="F319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A320" s="62" t="s">
+      <c r="A320" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B320" s="62" t="s">
+      <c r="B320" s="61" t="s">
         <v>301</v>
       </c>
       <c r="C320" s="63"/>
@@ -7389,8 +7387,8 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="62"/>
-      <c r="B321" s="62"/>
+      <c r="A321" s="61"/>
+      <c r="B321" s="61"/>
       <c r="C321" s="63"/>
       <c r="D321" s="64"/>
       <c r="E321" s="10" t="s">
@@ -7404,8 +7402,8 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="62"/>
-      <c r="B322" s="62"/>
+      <c r="A322" s="61"/>
+      <c r="B322" s="61"/>
       <c r="C322" s="63"/>
       <c r="D322" s="64"/>
       <c r="E322" s="10" t="s">
@@ -7419,8 +7417,8 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="62"/>
-      <c r="B323" s="62"/>
+      <c r="A323" s="61"/>
+      <c r="B323" s="61"/>
       <c r="C323" s="63"/>
       <c r="D323" s="64"/>
       <c r="E323" s="10" t="s">
@@ -7434,8 +7432,8 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="62"/>
-      <c r="B324" s="62"/>
+      <c r="A324" s="61"/>
+      <c r="B324" s="61"/>
       <c r="C324" s="63"/>
       <c r="D324" s="64"/>
       <c r="E324" s="13" t="s">
@@ -7444,8 +7442,8 @@
       <c r="F324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="93.95" customHeight="1">
-      <c r="A325" s="62"/>
-      <c r="B325" s="62" t="s">
+      <c r="A325" s="61"/>
+      <c r="B325" s="61" t="s">
         <v>310</v>
       </c>
       <c r="C325" s="40" t="s">
@@ -7458,9 +7456,9 @@
       <c r="F325" s="21"/>
     </row>
     <row r="326" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A326" s="62"/>
-      <c r="B326" s="62"/>
-      <c r="C326" s="62" t="s">
+      <c r="A326" s="61"/>
+      <c r="B326" s="61"/>
+      <c r="C326" s="61" t="s">
         <v>143</v>
       </c>
       <c r="D326" s="64"/>
@@ -7475,9 +7473,9 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="62"/>
-      <c r="B327" s="62"/>
-      <c r="C327" s="62"/>
+      <c r="A327" s="61"/>
+      <c r="B327" s="61"/>
+      <c r="C327" s="61"/>
       <c r="D327" s="64"/>
       <c r="E327" s="10" t="s">
         <v>313</v>
@@ -7485,9 +7483,9 @@
       <c r="F327" s="10"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="62"/>
-      <c r="B328" s="62"/>
-      <c r="C328" s="62"/>
+      <c r="A328" s="61"/>
+      <c r="B328" s="61"/>
+      <c r="C328" s="61"/>
       <c r="D328" s="64"/>
       <c r="E328" s="10" t="s">
         <v>314</v>
@@ -7495,9 +7493,9 @@
       <c r="F328" s="10"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="62"/>
-      <c r="B329" s="62"/>
-      <c r="C329" s="62"/>
+      <c r="A329" s="61"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="61"/>
       <c r="D329" s="64"/>
       <c r="E329" s="10" t="s">
         <v>148</v>
@@ -7505,9 +7503,9 @@
       <c r="F329" s="10"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="62"/>
-      <c r="B330" s="62"/>
-      <c r="C330" s="62"/>
+      <c r="A330" s="61"/>
+      <c r="B330" s="61"/>
+      <c r="C330" s="61"/>
       <c r="D330" s="64"/>
       <c r="E330" s="10" t="s">
         <v>149</v>
@@ -7515,9 +7513,9 @@
       <c r="F330" s="10"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="62"/>
-      <c r="B331" s="62"/>
-      <c r="C331" s="62"/>
+      <c r="A331" s="61"/>
+      <c r="B331" s="61"/>
+      <c r="C331" s="61"/>
       <c r="D331" s="64"/>
       <c r="E331" s="10" t="s">
         <v>150</v>
@@ -7525,9 +7523,9 @@
       <c r="F331" s="10"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="62"/>
-      <c r="B332" s="62"/>
-      <c r="C332" s="62"/>
+      <c r="A332" s="61"/>
+      <c r="B332" s="61"/>
+      <c r="C332" s="61"/>
       <c r="D332" s="64"/>
       <c r="E332" s="10" t="s">
         <v>151</v>
@@ -7535,9 +7533,9 @@
       <c r="F332" s="10"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="62"/>
-      <c r="B333" s="62"/>
-      <c r="C333" s="62"/>
+      <c r="A333" s="61"/>
+      <c r="B333" s="61"/>
+      <c r="C333" s="61"/>
       <c r="D333" s="64"/>
       <c r="E333" s="10" t="s">
         <v>46</v>
@@ -7545,12 +7543,12 @@
       <c r="F333" s="10"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="60" t="s">
+      <c r="A334" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="B334" s="61"/>
-      <c r="C334" s="61"/>
-      <c r="D334" s="61"/>
+      <c r="B334" s="81"/>
+      <c r="C334" s="81"/>
+      <c r="D334" s="81"/>
       <c r="E334" s="7" t="s">
         <v>316</v>
       </c>
@@ -7562,10 +7560,10 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="60"/>
-      <c r="B335" s="60"/>
-      <c r="C335" s="61"/>
-      <c r="D335" s="61"/>
+      <c r="A335" s="80"/>
+      <c r="B335" s="80"/>
+      <c r="C335" s="81"/>
+      <c r="D335" s="81"/>
       <c r="E335" s="10" t="s">
         <v>28</v>
       </c>
@@ -7577,10 +7575,10 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="60"/>
-      <c r="B336" s="60"/>
-      <c r="C336" s="61"/>
-      <c r="D336" s="61"/>
+      <c r="A336" s="80"/>
+      <c r="B336" s="80"/>
+      <c r="C336" s="81"/>
+      <c r="D336" s="81"/>
       <c r="E336" s="10" t="s">
         <v>320</v>
       </c>
@@ -7592,10 +7590,10 @@
       </c>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="60"/>
-      <c r="B337" s="60"/>
-      <c r="C337" s="61"/>
-      <c r="D337" s="61"/>
+      <c r="A337" s="80"/>
+      <c r="B337" s="80"/>
+      <c r="C337" s="81"/>
+      <c r="D337" s="81"/>
       <c r="E337" s="10" t="s">
         <v>322</v>
       </c>
@@ -7607,10 +7605,10 @@
       </c>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="60"/>
-      <c r="B338" s="60"/>
-      <c r="C338" s="61"/>
-      <c r="D338" s="61"/>
+      <c r="A338" s="80"/>
+      <c r="B338" s="80"/>
+      <c r="C338" s="81"/>
+      <c r="D338" s="81"/>
       <c r="E338" s="10" t="s">
         <v>324</v>
       </c>
@@ -7622,20 +7620,20 @@
       </c>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="60"/>
-      <c r="B339" s="60"/>
-      <c r="C339" s="61"/>
-      <c r="D339" s="61"/>
+      <c r="A339" s="80"/>
+      <c r="B339" s="80"/>
+      <c r="C339" s="81"/>
+      <c r="D339" s="81"/>
       <c r="E339" s="10" t="s">
         <v>247</v>
       </c>
       <c r="F339" s="10"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="60"/>
-      <c r="B340" s="60"/>
-      <c r="C340" s="61"/>
-      <c r="D340" s="61"/>
+      <c r="A340" s="80"/>
+      <c r="B340" s="80"/>
+      <c r="C340" s="81"/>
+      <c r="D340" s="81"/>
       <c r="E340" s="13" t="s">
         <v>46</v>
       </c>
@@ -7644,6 +7642,87 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="105">
+    <mergeCell ref="A334:A340"/>
+    <mergeCell ref="B334:B340"/>
+    <mergeCell ref="C334:C340"/>
+    <mergeCell ref="D334:D340"/>
+    <mergeCell ref="A320:A333"/>
+    <mergeCell ref="B320:B324"/>
+    <mergeCell ref="C320:C324"/>
+    <mergeCell ref="D320:D324"/>
+    <mergeCell ref="B325:B333"/>
+    <mergeCell ref="C326:C333"/>
+    <mergeCell ref="D326:D333"/>
+    <mergeCell ref="A302:A319"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="C302:C306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B307:B319"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="D308:D313"/>
+    <mergeCell ref="C314:C319"/>
+    <mergeCell ref="D314:D319"/>
+    <mergeCell ref="A291:A301"/>
+    <mergeCell ref="B291:B295"/>
+    <mergeCell ref="C291:C295"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="B296:B301"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="D296:D301"/>
+    <mergeCell ref="C235:C249"/>
+    <mergeCell ref="D235:D243"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="C250:C290"/>
+    <mergeCell ref="D250:D255"/>
+    <mergeCell ref="D256:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D282"/>
+    <mergeCell ref="D283:D290"/>
+    <mergeCell ref="A148:A290"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B153:B290"/>
+    <mergeCell ref="C220:C226"/>
+    <mergeCell ref="D220:D226"/>
+    <mergeCell ref="C227:C230"/>
+    <mergeCell ref="D227:D230"/>
+    <mergeCell ref="C231:C234"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="C181:C209"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="D193:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D209"/>
+    <mergeCell ref="C210:C219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="C154:C161"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D175"/>
+    <mergeCell ref="C176:C180"/>
+    <mergeCell ref="D176:D180"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C132:C147"/>
+    <mergeCell ref="D132:D140"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="C117:C123"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C83:C106"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="D96:D102"/>
+    <mergeCell ref="D103:D106"/>
     <mergeCell ref="A44:A147"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -7668,87 +7747,6 @@
     <mergeCell ref="D70:D77"/>
     <mergeCell ref="D26:D35"/>
     <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="C132:C147"/>
-    <mergeCell ref="D132:D140"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="C117:C123"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C83:C106"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="D96:D102"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="C181:C209"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D209"/>
-    <mergeCell ref="C210:C219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="C154:C161"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C162:C175"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D168:D175"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="D176:D180"/>
-    <mergeCell ref="A291:A301"/>
-    <mergeCell ref="B291:B295"/>
-    <mergeCell ref="C291:C295"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="B296:B301"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="D296:D301"/>
-    <mergeCell ref="C235:C249"/>
-    <mergeCell ref="D235:D243"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="C250:C290"/>
-    <mergeCell ref="D250:D255"/>
-    <mergeCell ref="D256:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D282"/>
-    <mergeCell ref="D283:D290"/>
-    <mergeCell ref="A148:A290"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B153:B290"/>
-    <mergeCell ref="C220:C226"/>
-    <mergeCell ref="D220:D226"/>
-    <mergeCell ref="C227:C230"/>
-    <mergeCell ref="D227:D230"/>
-    <mergeCell ref="C231:C234"/>
-    <mergeCell ref="A302:A319"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="C302:C306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B307:B319"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="D308:D313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="D314:D319"/>
-    <mergeCell ref="A334:A340"/>
-    <mergeCell ref="B334:B340"/>
-    <mergeCell ref="C334:C340"/>
-    <mergeCell ref="D334:D340"/>
-    <mergeCell ref="A320:A333"/>
-    <mergeCell ref="B320:B324"/>
-    <mergeCell ref="C320:C324"/>
-    <mergeCell ref="D320:D324"/>
-    <mergeCell ref="B325:B333"/>
-    <mergeCell ref="C326:C333"/>
-    <mergeCell ref="D326:D333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.75" footer="0.75"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7757,11 +7755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7909,7 +7907,7 @@
       <c r="B65" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="82" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7920,7 +7918,7 @@
       <c r="B66" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C66" s="83"/>
+      <c r="C66" s="82"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="35" t="s">
@@ -7929,7 +7927,7 @@
       <c r="B67" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="83"/>
+      <c r="C67" s="82"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="35" t="s">
@@ -7938,7 +7936,7 @@
       <c r="B68" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="83"/>
+      <c r="C68" s="82"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="35" t="s">
@@ -7947,7 +7945,7 @@
       <c r="B69" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="83"/>
+      <c r="C69" s="82"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="35" t="s">
@@ -7956,7 +7954,7 @@
       <c r="B70" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="83"/>
+      <c r="C70" s="82"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="35" t="s">
@@ -7965,7 +7963,7 @@
       <c r="B71" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="C71" s="83"/>
+      <c r="C71" s="82"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="35" t="s">
@@ -7974,7 +7972,7 @@
       <c r="B72" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C72" s="83"/>
+      <c r="C72" s="82"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="35" t="s">
@@ -7983,7 +7981,7 @@
       <c r="B73" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C73" s="83"/>
+      <c r="C73" s="82"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="35" t="s">
@@ -7992,7 +7990,7 @@
       <c r="B74" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C74" s="83"/>
+      <c r="C74" s="82"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="35" t="s">
@@ -8001,7 +7999,7 @@
       <c r="B75" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="C75" s="83"/>
+      <c r="C75" s="82"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="35" t="s">
@@ -8010,7 +8008,7 @@
       <c r="B76" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="83"/>
+      <c r="C76" s="82"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="35" t="s">
@@ -8019,7 +8017,7 @@
       <c r="B77" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="35" t="s">
@@ -8028,7 +8026,7 @@
       <c r="B78" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="83"/>
+      <c r="C78" s="82"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="35" t="s">
@@ -8037,7 +8035,7 @@
       <c r="B79" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="83"/>
+      <c r="C79" s="82"/>
     </row>
     <row r="82" spans="1:3" ht="13.9" customHeight="1">
       <c r="A82" s="35" t="s">
@@ -8046,7 +8044,7 @@
       <c r="B82" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="84" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8057,7 +8055,7 @@
       <c r="B83" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C83" s="85"/>
+      <c r="C83" s="84"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="35" t="s">
@@ -8066,7 +8064,7 @@
       <c r="B84" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="85"/>
+      <c r="C84" s="84"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="35" t="s">
@@ -8075,7 +8073,7 @@
       <c r="B85" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C85" s="85"/>
+      <c r="C85" s="84"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="35" t="s">
@@ -8084,13 +8082,13 @@
       <c r="B86" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="85"/>
+      <c r="C86" s="84"/>
     </row>
     <row r="89" spans="1:3" ht="13.9" customHeight="1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="45" t="s">
         <v>359</v>
       </c>
       <c r="C89" s="84" t="s">
@@ -8098,7 +8096,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B90" s="35" t="s">
@@ -8107,16 +8105,16 @@
       <c r="C90" s="84"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="45" t="s">
         <v>362</v>
       </c>
       <c r="C91" s="84"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B92" s="35" t="s">
@@ -8125,7 +8123,7 @@
       <c r="C92" s="84"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B93" s="35" t="s">
@@ -8134,82 +8132,82 @@
       <c r="C93" s="84"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="35" t="s">
         <v>365</v>
       </c>
       <c r="C94" s="84"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="35" t="s">
         <v>366</v>
       </c>
       <c r="C95" s="84"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="35" t="s">
         <v>367</v>
       </c>
       <c r="C96" s="84"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="35" t="s">
         <v>368</v>
       </c>
       <c r="C97" s="84"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="35" t="s">
         <v>369</v>
       </c>
       <c r="C98" s="84"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="35" t="s">
         <v>370</v>
       </c>
       <c r="C99" s="84"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="35" t="s">
         <v>371</v>
       </c>
       <c r="C100" s="84"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="35" t="s">
         <v>372</v>
       </c>
       <c r="C101" s="84"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="35" t="s">
         <v>373</v>
       </c>
       <c r="C102" s="84"/>
@@ -8445,7 +8443,7 @@
       <c r="B141" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="83" t="s">
+      <c r="C141" s="82" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8456,7 +8454,7 @@
       <c r="B142" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="C142" s="83"/>
+      <c r="C142" s="82"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="35" t="s">
@@ -8465,7 +8463,7 @@
       <c r="B143" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="C143" s="83"/>
+      <c r="C143" s="82"/>
     </row>
     <row r="144" spans="1:3" ht="13.9" customHeight="1">
       <c r="A144" s="44" t="s">
@@ -8474,7 +8472,7 @@
       <c r="B144" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="C144" s="85" t="s">
+      <c r="C144" s="84" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8485,7 +8483,7 @@
       <c r="B145" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="85"/>
+      <c r="C145" s="84"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="35" t="s">
@@ -8494,7 +8492,7 @@
       <c r="B146" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="85"/>
+      <c r="C146" s="84"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="35" t="s">
@@ -8503,7 +8501,7 @@
       <c r="B147" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="85"/>
+      <c r="C147" s="84"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="35" t="s">
@@ -8512,7 +8510,7 @@
       <c r="B148" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="C148" s="85"/>
+      <c r="C148" s="84"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="35" t="s">
@@ -8521,7 +8519,7 @@
       <c r="B149" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="C149" s="85"/>
+      <c r="C149" s="84"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="35" t="s">
@@ -8530,7 +8528,7 @@
       <c r="B150" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="85"/>
+      <c r="C150" s="84"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="35" t="s">
@@ -8539,7 +8537,7 @@
       <c r="B151" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="C151" s="85"/>
+      <c r="C151" s="84"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="35" t="s">
@@ -8548,7 +8546,7 @@
       <c r="B152" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="C152" s="85"/>
+      <c r="C152" s="84"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="35" t="s">
@@ -8557,7 +8555,7 @@
       <c r="B153" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="C153" s="85"/>
+      <c r="C153" s="84"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="33" t="s">
@@ -8566,7 +8564,7 @@
       <c r="B154" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="C154" s="86" t="s">
+      <c r="C154" s="85" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8577,7 +8575,7 @@
       <c r="B155" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C155" s="87"/>
+      <c r="C155" s="86"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
@@ -8586,7 +8584,7 @@
       <c r="B156" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C156" s="87"/>
+      <c r="C156" s="86"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
@@ -8595,7 +8593,7 @@
       <c r="B157" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C157" s="87"/>
+      <c r="C157" s="86"/>
     </row>
     <row r="158" spans="1:3" ht="13.9" customHeight="1">
       <c r="A158" s="33" t="s">
@@ -8604,7 +8602,7 @@
       <c r="B158" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="C158" s="84" t="s">
+      <c r="C158" s="83" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8615,7 +8613,7 @@
       <c r="B159" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="C159" s="84"/>
+      <c r="C159" s="83"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
@@ -8624,7 +8622,7 @@
       <c r="B160" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="C160" s="84"/>
+      <c r="C160" s="83"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
@@ -8633,7 +8631,7 @@
       <c r="B161" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C161" s="84"/>
+      <c r="C161" s="83"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
@@ -8642,7 +8640,7 @@
       <c r="B162" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="C162" s="84"/>
+      <c r="C162" s="83"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="33" t="s">

--- a/Конфигуратор_март_апрель_2024.xlsx
+++ b/Конфигуратор_март_апрель_2024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalUser2\Desktop\Ascon_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascon\Documents_Ascon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE8CDE-D8E1-4239-8984-E072FF8544FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1577,7 +1576,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1995,7 +1994,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2108,60 +2107,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,23 +2177,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Accent" xfId="1"/>
+    <cellStyle name="Accent 1" xfId="2"/>
+    <cellStyle name="Accent 2" xfId="3"/>
+    <cellStyle name="Accent 3" xfId="4"/>
+    <cellStyle name="Bad" xfId="5"/>
+    <cellStyle name="Error" xfId="6"/>
+    <cellStyle name="Footnote" xfId="7"/>
+    <cellStyle name="Good" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading 1" xfId="10"/>
+    <cellStyle name="Heading 2" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="12"/>
+    <cellStyle name="Neutral" xfId="13"/>
+    <cellStyle name="Note" xfId="14"/>
+    <cellStyle name="Status" xfId="15"/>
+    <cellStyle name="Text" xfId="16"/>
+    <cellStyle name="Warning" xfId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2987,11 +2985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL340"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G300" sqref="G300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3095,13 +3093,13 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="64"/>
@@ -3117,9 +3115,9 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="64"/>
       <c r="E3" s="10" t="s">
         <v>14</v>
@@ -3132,9 +3130,9 @@
       </c>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="64"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
@@ -3147,9 +3145,9 @@
       </c>
     </row>
     <row r="5" spans="1:64">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="64"/>
       <c r="E5" s="10" t="s">
         <v>18</v>
@@ -3165,9 +3163,9 @@
       </c>
     </row>
     <row r="6" spans="1:64">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="64"/>
       <c r="E6" s="13" t="s">
         <v>21</v>
@@ -3175,8 +3173,8 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:64" ht="56.65" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -3189,9 +3187,9 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="64"/>
@@ -3206,9 +3204,9 @@
       </c>
     </row>
     <row r="9" spans="1:64" ht="27.75">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="64"/>
  